--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="316">
   <si>
     <t>id</t>
   </si>
@@ -355,6 +355,9 @@
     <t>SPYPARTY vs LUCA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=8sE8GaSlXSs</t>
+  </si>
+  <si>
     <t>AO ONI w/ IKE</t>
   </si>
   <si>
@@ -853,7 +856,7 @@
     <t>Speak to the Devil</t>
   </si>
   <si>
-    <t>https://www.youtube.com/c/IronMouseParty</t>
+    <t>https://www.twitch.tv/ironmouse</t>
   </si>
   <si>
     <t>Escape Simulator with Ike</t>
@@ -3208,6 +3211,9 @@
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E59" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="G59" s="1" t="b">
         <v>1</v>
       </c>
@@ -3234,7 +3240,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
@@ -3265,13 +3271,13 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3295,16 +3301,16 @@
         <v>74.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3328,7 +3334,7 @@
         <v>75.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>80</v>
@@ -3337,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3361,16 +3367,16 @@
         <v>76.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3394,16 +3400,16 @@
         <v>77.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3427,16 +3433,16 @@
         <v>78.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J66" s="1" t="b">
         <v>0</v>
@@ -3458,10 +3464,10 @@
         <v>79.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
@@ -3486,10 +3492,10 @@
         <v>80.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
@@ -3514,10 +3520,10 @@
         <v>81.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
@@ -3545,13 +3551,13 @@
         <v>29</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -3578,13 +3584,13 @@
         <v>29</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3611,13 +3617,13 @@
         <v>29</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
@@ -3644,7 +3650,7 @@
         <v>29</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
@@ -3672,7 +3678,7 @@
         <v>29</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>1</v>
@@ -3700,7 +3706,7 @@
         <v>29</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
@@ -3728,13 +3734,13 @@
         <v>13</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3761,13 +3767,13 @@
         <v>67</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
@@ -3794,13 +3800,13 @@
         <v>67</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3827,13 +3833,13 @@
         <v>67</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
@@ -3860,13 +3866,13 @@
         <v>67</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J80" s="1" t="b">
         <v>0</v>
@@ -3891,7 +3897,7 @@
         <v>67</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
@@ -3944,16 +3950,16 @@
         <v>95.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3977,16 +3983,16 @@
         <v>96.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
@@ -4010,16 +4016,16 @@
         <v>97.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J85" s="1" t="b">
         <v>0</v>
@@ -4041,10 +4047,10 @@
         <v>98.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
@@ -4069,10 +4075,10 @@
         <v>99.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4097,16 +4103,16 @@
         <v>100.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4130,16 +4136,16 @@
         <v>101.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4163,16 +4169,16 @@
         <v>102.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
@@ -4196,10 +4202,10 @@
         <v>103.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
@@ -4224,16 +4230,16 @@
         <v>104.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4257,10 +4263,10 @@
         <v>105.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
@@ -4285,10 +4291,10 @@
         <v>106.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
@@ -4316,10 +4322,10 @@
         <v>107.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
@@ -4344,16 +4350,16 @@
         <v>108.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4377,16 +4383,16 @@
         <v>109.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4410,16 +4416,16 @@
         <v>110.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4443,10 +4449,10 @@
         <v>111.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D99" s="1" t="b">
         <v>1</v>
@@ -4471,10 +4477,10 @@
         <v>112.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>1</v>
@@ -4499,16 +4505,16 @@
         <v>113.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
@@ -4532,16 +4538,16 @@
         <v>114.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
@@ -4565,16 +4571,16 @@
         <v>115.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4598,16 +4604,16 @@
         <v>116.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J104" s="1" t="b">
         <v>0</v>
@@ -4629,10 +4635,10 @@
         <v>117.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
@@ -4657,10 +4663,10 @@
         <v>118.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
@@ -4700,7 +4706,7 @@
         <v>120.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>0</v>
@@ -4715,7 +4721,7 @@
         <v>121.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>0</v>
@@ -4730,7 +4736,7 @@
         <v>122.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>0</v>
@@ -4745,16 +4751,16 @@
         <v>123.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
@@ -4778,16 +4784,16 @@
         <v>124.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
@@ -4811,16 +4817,16 @@
         <v>125.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E113" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -4844,16 +4850,16 @@
         <v>126.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
@@ -4877,10 +4883,10 @@
         <v>127.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
@@ -4905,10 +4911,10 @@
         <v>128.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
@@ -4933,10 +4939,10 @@
         <v>129.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
@@ -4976,7 +4982,7 @@
         <v>131.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>0</v>
@@ -4991,7 +4997,7 @@
         <v>132.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>0</v>
@@ -5006,7 +5012,7 @@
         <v>133.0</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>0</v>
@@ -5021,7 +5027,7 @@
         <v>134.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>0</v>
@@ -5036,16 +5042,16 @@
         <v>135.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -5069,16 +5075,16 @@
         <v>136.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -5102,16 +5108,16 @@
         <v>137.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -5135,16 +5141,16 @@
         <v>138.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -5168,16 +5174,16 @@
         <v>139.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -5201,10 +5207,10 @@
         <v>140.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
@@ -5229,10 +5235,10 @@
         <v>141.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
@@ -5257,10 +5263,10 @@
         <v>142.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
@@ -5288,10 +5294,10 @@
         <v>143.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
@@ -5316,7 +5322,7 @@
         <v>144.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>0</v>
@@ -5331,7 +5337,7 @@
         <v>145.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>0</v>
@@ -5346,7 +5352,7 @@
         <v>146.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -5361,10 +5367,10 @@
         <v>147.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D135" s="1" t="b">
         <v>1</v>
@@ -5389,16 +5395,16 @@
         <v>148.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
@@ -5422,16 +5428,16 @@
         <v>149.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
@@ -5455,10 +5461,10 @@
         <v>150.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D138" s="1" t="b">
         <v>1</v>
@@ -5483,10 +5489,10 @@
         <v>151.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>1</v>
@@ -5511,10 +5517,10 @@
         <v>152.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D140" s="1" t="b">
         <v>1</v>
@@ -5539,10 +5545,10 @@
         <v>153.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
@@ -5567,7 +5573,7 @@
         <v>154.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>0</v>
@@ -5582,7 +5588,7 @@
         <v>155.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>0</v>
@@ -5597,7 +5603,7 @@
         <v>156.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>0</v>
@@ -5612,7 +5618,7 @@
         <v>157.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>0</v>
@@ -5627,7 +5633,7 @@
         <v>158.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>0</v>
@@ -5642,7 +5648,7 @@
         <v>159.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>0</v>
@@ -5672,16 +5678,16 @@
         <v>161.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5705,16 +5711,16 @@
         <v>162.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5738,16 +5744,16 @@
         <v>163.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5771,16 +5777,16 @@
         <v>164.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
@@ -5802,10 +5808,10 @@
         <v>165.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
@@ -5830,10 +5836,10 @@
         <v>166.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
@@ -5858,10 +5864,10 @@
         <v>167.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
@@ -5886,10 +5892,10 @@
         <v>168.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
@@ -5917,13 +5923,13 @@
         <v>44</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5950,13 +5956,13 @@
         <v>44</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -5983,13 +5989,13 @@
         <v>44</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
@@ -6016,7 +6022,7 @@
         <v>44</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
@@ -6044,7 +6050,7 @@
         <v>44</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
@@ -6072,7 +6078,7 @@
         <v>44</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D162" s="1" t="b">
         <v>1</v>
@@ -6100,7 +6106,7 @@
         <v>44</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>1</v>
@@ -6128,13 +6134,13 @@
         <v>56</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -6161,13 +6167,13 @@
         <v>56</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
@@ -6194,13 +6200,13 @@
         <v>56</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
@@ -6227,13 +6233,13 @@
         <v>56</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E167" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J167" s="1" t="b">
         <v>0</v>
@@ -6258,7 +6264,7 @@
         <v>56</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
@@ -6289,7 +6295,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D169" s="1" t="b">
         <v>1</v>
@@ -6329,7 +6335,7 @@
         <v>183.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>0</v>
@@ -6344,16 +6350,16 @@
         <v>184.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
@@ -6377,16 +6383,16 @@
         <v>185.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D173" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J173" s="1" t="b">
         <v>0</v>
@@ -6408,16 +6414,16 @@
         <v>186.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E174" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="D174" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="J174" s="1" t="b">
         <v>0</v>
@@ -6439,10 +6445,10 @@
         <v>187.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D175" s="1" t="b">
         <v>1</v>
@@ -6470,13 +6476,13 @@
         <v>51</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6515,21 +6521,21 @@
         <v>190.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K178" s="5">
         <v>44621.916666666664</v>
@@ -6548,21 +6554,21 @@
         <v>191.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="H179" s="4"/>
       <c r="I179" s="4"/>
       <c r="J179" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K179" s="21">
         <v>44623.666666666664</v>
@@ -6581,16 +6587,16 @@
         <v>192.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J180" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K180" s="14">
         <v>44624.666666666664</v>
@@ -6609,7 +6615,7 @@
         <v>193.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>71</v>
@@ -6618,12 +6624,12 @@
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K181" s="14">
         <v>44621.791666666664</v>
@@ -6642,16 +6648,16 @@
         <v>194.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J182" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K182" s="14">
         <v>44623.833333333336</v>
@@ -6670,7 +6676,7 @@
         <v>195.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>80</v>
@@ -6679,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6703,16 +6709,16 @@
         <v>196.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6736,10 +6742,10 @@
         <v>197.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
@@ -6767,16 +6773,16 @@
         <v>198.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G186" s="1" t="b">
         <v>1</v>
@@ -6803,16 +6809,16 @@
         <v>199.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1" t="b">
@@ -6838,10 +6844,10 @@
         <v>200.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
@@ -6869,10 +6875,10 @@
         <v>201.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
@@ -6900,16 +6906,16 @@
         <v>202.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G190" s="1" t="b">
         <v>1</v>
@@ -6936,10 +6942,10 @@
         <v>203.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
@@ -6964,16 +6970,16 @@
         <v>204.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D192" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -6997,16 +7003,16 @@
         <v>205.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -7030,16 +7036,16 @@
         <v>206.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -7063,16 +7069,16 @@
         <v>207.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
@@ -7096,10 +7102,10 @@
         <v>208.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
@@ -7124,10 +7130,10 @@
         <v>209.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
@@ -7152,16 +7158,16 @@
         <v>210.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I198" s="1" t="b">
         <v>1</v>
@@ -7227,74 +7233,75 @@
     <hyperlink r:id="rId43" ref="E56"/>
     <hyperlink r:id="rId44" ref="E57"/>
     <hyperlink r:id="rId45" ref="E58"/>
-    <hyperlink r:id="rId46" ref="E61"/>
-    <hyperlink r:id="rId47" ref="E62"/>
-    <hyperlink r:id="rId48" ref="E63"/>
-    <hyperlink r:id="rId49" ref="E64"/>
-    <hyperlink r:id="rId50" ref="E65"/>
-    <hyperlink r:id="rId51" ref="E66"/>
-    <hyperlink r:id="rId52" ref="E70"/>
-    <hyperlink r:id="rId53" ref="E71"/>
-    <hyperlink r:id="rId54" ref="E72"/>
-    <hyperlink r:id="rId55" ref="E76"/>
-    <hyperlink r:id="rId56" ref="E77"/>
-    <hyperlink r:id="rId57" ref="E78"/>
-    <hyperlink r:id="rId58" ref="E79"/>
-    <hyperlink r:id="rId59" ref="E80"/>
-    <hyperlink r:id="rId60" ref="E83"/>
-    <hyperlink r:id="rId61" ref="E84"/>
-    <hyperlink r:id="rId62" ref="E85"/>
-    <hyperlink r:id="rId63" ref="E88"/>
-    <hyperlink r:id="rId64" ref="E89"/>
-    <hyperlink r:id="rId65" ref="E90"/>
-    <hyperlink r:id="rId66" ref="E92"/>
-    <hyperlink r:id="rId67" ref="E96"/>
-    <hyperlink r:id="rId68" ref="E97"/>
-    <hyperlink r:id="rId69" ref="E98"/>
-    <hyperlink r:id="rId70" ref="E101"/>
-    <hyperlink r:id="rId71" ref="E102"/>
-    <hyperlink r:id="rId72" ref="E103"/>
-    <hyperlink r:id="rId73" ref="E104"/>
-    <hyperlink r:id="rId74" ref="E111"/>
-    <hyperlink r:id="rId75" ref="E112"/>
-    <hyperlink r:id="rId76" ref="E113"/>
-    <hyperlink r:id="rId77" ref="E114"/>
-    <hyperlink r:id="rId78" ref="E123"/>
-    <hyperlink r:id="rId79" ref="E124"/>
-    <hyperlink r:id="rId80" ref="E125"/>
-    <hyperlink r:id="rId81" ref="E126"/>
-    <hyperlink r:id="rId82" ref="E127"/>
-    <hyperlink r:id="rId83" ref="E136"/>
-    <hyperlink r:id="rId84" ref="E137"/>
-    <hyperlink r:id="rId85" ref="E149"/>
-    <hyperlink r:id="rId86" ref="E150"/>
-    <hyperlink r:id="rId87" ref="E151"/>
-    <hyperlink r:id="rId88" ref="E152"/>
-    <hyperlink r:id="rId89" ref="E157"/>
-    <hyperlink r:id="rId90" ref="E158"/>
-    <hyperlink r:id="rId91" ref="E159"/>
-    <hyperlink r:id="rId92" ref="E164"/>
-    <hyperlink r:id="rId93" ref="E165"/>
-    <hyperlink r:id="rId94" ref="E166"/>
-    <hyperlink r:id="rId95" ref="E167"/>
-    <hyperlink r:id="rId96" ref="E172"/>
-    <hyperlink r:id="rId97" ref="E173"/>
-    <hyperlink r:id="rId98" ref="E174"/>
-    <hyperlink r:id="rId99" ref="E176"/>
-    <hyperlink r:id="rId100" ref="E178"/>
-    <hyperlink r:id="rId101" ref="E179"/>
-    <hyperlink r:id="rId102" ref="E181"/>
-    <hyperlink r:id="rId103" ref="E183"/>
-    <hyperlink r:id="rId104" ref="E184"/>
-    <hyperlink r:id="rId105" ref="E186"/>
-    <hyperlink r:id="rId106" ref="E187"/>
-    <hyperlink r:id="rId107" ref="E190"/>
-    <hyperlink r:id="rId108" ref="E192"/>
-    <hyperlink r:id="rId109" ref="E193"/>
-    <hyperlink r:id="rId110" ref="E194"/>
-    <hyperlink r:id="rId111" ref="E195"/>
-    <hyperlink r:id="rId112" ref="E198"/>
+    <hyperlink r:id="rId46" ref="E59"/>
+    <hyperlink r:id="rId47" ref="E61"/>
+    <hyperlink r:id="rId48" ref="E62"/>
+    <hyperlink r:id="rId49" ref="E63"/>
+    <hyperlink r:id="rId50" ref="E64"/>
+    <hyperlink r:id="rId51" ref="E65"/>
+    <hyperlink r:id="rId52" ref="E66"/>
+    <hyperlink r:id="rId53" ref="E70"/>
+    <hyperlink r:id="rId54" ref="E71"/>
+    <hyperlink r:id="rId55" ref="E72"/>
+    <hyperlink r:id="rId56" ref="E76"/>
+    <hyperlink r:id="rId57" ref="E77"/>
+    <hyperlink r:id="rId58" ref="E78"/>
+    <hyperlink r:id="rId59" ref="E79"/>
+    <hyperlink r:id="rId60" ref="E80"/>
+    <hyperlink r:id="rId61" ref="E83"/>
+    <hyperlink r:id="rId62" ref="E84"/>
+    <hyperlink r:id="rId63" ref="E85"/>
+    <hyperlink r:id="rId64" ref="E88"/>
+    <hyperlink r:id="rId65" ref="E89"/>
+    <hyperlink r:id="rId66" ref="E90"/>
+    <hyperlink r:id="rId67" ref="E92"/>
+    <hyperlink r:id="rId68" ref="E96"/>
+    <hyperlink r:id="rId69" ref="E97"/>
+    <hyperlink r:id="rId70" ref="E98"/>
+    <hyperlink r:id="rId71" ref="E101"/>
+    <hyperlink r:id="rId72" ref="E102"/>
+    <hyperlink r:id="rId73" ref="E103"/>
+    <hyperlink r:id="rId74" ref="E104"/>
+    <hyperlink r:id="rId75" ref="E111"/>
+    <hyperlink r:id="rId76" ref="E112"/>
+    <hyperlink r:id="rId77" ref="E113"/>
+    <hyperlink r:id="rId78" ref="E114"/>
+    <hyperlink r:id="rId79" ref="E123"/>
+    <hyperlink r:id="rId80" ref="E124"/>
+    <hyperlink r:id="rId81" ref="E125"/>
+    <hyperlink r:id="rId82" ref="E126"/>
+    <hyperlink r:id="rId83" ref="E127"/>
+    <hyperlink r:id="rId84" ref="E136"/>
+    <hyperlink r:id="rId85" ref="E137"/>
+    <hyperlink r:id="rId86" ref="E149"/>
+    <hyperlink r:id="rId87" ref="E150"/>
+    <hyperlink r:id="rId88" ref="E151"/>
+    <hyperlink r:id="rId89" ref="E152"/>
+    <hyperlink r:id="rId90" ref="E157"/>
+    <hyperlink r:id="rId91" ref="E158"/>
+    <hyperlink r:id="rId92" ref="E159"/>
+    <hyperlink r:id="rId93" ref="E164"/>
+    <hyperlink r:id="rId94" ref="E165"/>
+    <hyperlink r:id="rId95" ref="E166"/>
+    <hyperlink r:id="rId96" ref="E167"/>
+    <hyperlink r:id="rId97" ref="E172"/>
+    <hyperlink r:id="rId98" ref="E173"/>
+    <hyperlink r:id="rId99" ref="E174"/>
+    <hyperlink r:id="rId100" ref="E176"/>
+    <hyperlink r:id="rId101" ref="E178"/>
+    <hyperlink r:id="rId102" ref="E179"/>
+    <hyperlink r:id="rId103" ref="E181"/>
+    <hyperlink r:id="rId104" ref="E183"/>
+    <hyperlink r:id="rId105" ref="E184"/>
+    <hyperlink r:id="rId106" ref="E186"/>
+    <hyperlink r:id="rId107" ref="E187"/>
+    <hyperlink r:id="rId108" ref="E190"/>
+    <hyperlink r:id="rId109" ref="E192"/>
+    <hyperlink r:id="rId110" ref="E193"/>
+    <hyperlink r:id="rId111" ref="E194"/>
+    <hyperlink r:id="rId112" ref="E195"/>
+    <hyperlink r:id="rId113" ref="E198"/>
   </hyperlinks>
-  <drawing r:id="rId113"/>
+  <drawing r:id="rId114"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -286,6 +286,9 @@
     <t>First Karaoke Stream!</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=2JSCytd9UMY</t>
+  </si>
+  <si>
     <t>READY OR NOT!</t>
   </si>
   <si>
@@ -367,6 +370,582 @@
     <t>https://www.youtube.com/watch?v=WkZvtHQ9rxA</t>
   </si>
   <si>
+    <t>ABZU (TAKE 2)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ef8pFLLQvVc</t>
+  </si>
+  <si>
+    <t>ESCAPE SIMULATOR W/ROSEMI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E47l11VhvWA</t>
+  </si>
+  <si>
+    <t>CODENAMES COLLAB</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1dpq4rJsLpQ</t>
+  </si>
+  <si>
+    <t>UNO COLLAB</t>
+  </si>
+  <si>
+    <t>FREE CHATTING</t>
+  </si>
+  <si>
+    <t>MAFIA MIX-BREAKDOWN members-only</t>
+  </si>
+  <si>
+    <t>Call Me By Your Name and I\'ll Call You By Mine...【MEMBERS ONLY WATCHALONG】</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QqVKi-v0zvE</t>
+  </si>
+  <si>
+    <t>Karaoke</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JY36DW5W-7Q</t>
+  </si>
+  <si>
+    <t>Vampire Survivors</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ql-zIWFRuq8</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh! Master Duel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lYhuMXs28iw</t>
+  </si>
+  <si>
+    <t>Human Resource Machine</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Fzt_sRUtrSQ</t>
+  </si>
+  <si>
+    <t>日本語雜談!</t>
+  </si>
+  <si>
+    <t>Elira</t>
+  </si>
+  <si>
+    <t>XENOBLADE CHRONIDLES: FUTURE CONNECTED</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U2JAoCBg3Hw</t>
+  </si>
+  <si>
+    <t>FRIDAY THE 13TH - COLLAB</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GhrjmhmiJus</t>
+  </si>
+  <si>
+    <t>DARK SOULS ||| - PART....ya</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xOM6XiPiz14</t>
+  </si>
+  <si>
+    <t>TO THE MOON</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9kJ-NXjJmkw</t>
+  </si>
+  <si>
+    <t>EARTHBOUND - PART 1</t>
+  </si>
+  <si>
+    <t>Reimu</t>
+  </si>
+  <si>
+    <t>POKEMON UNITE - members only</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hHcTcDb7k_g</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>DISCUSSING NOCTYX DEBUT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DjEWxP2S9ro</t>
+  </si>
+  <si>
+    <t>RISK OF RAIN 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=64Ruit7dD4E</t>
+  </si>
+  <si>
+    <t>LOBOTOMY CORP</t>
+  </si>
+  <si>
+    <t>SOFT TALKING</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CX1N7gT7_pM</t>
+  </si>
+  <si>
+    <t>DARKEST DUNGEON 1 OR 2?</t>
+  </si>
+  <si>
+    <t>PROPNIGHT COLLAB</t>
+  </si>
+  <si>
+    <t>200K PARTY JP DOULINGO</t>
+  </si>
+  <si>
+    <t>Pomu</t>
+  </si>
+  <si>
+    <t>POMU CHATS AND DRAWS ARBOKS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2VMIoYn8Acc</t>
+  </si>
+  <si>
+    <t>YU-GI-OH MASTER DUEL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xqCAiPB6xE8</t>
+  </si>
+  <si>
+    <t>FRIDAY THE 13TH COLLAB</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3YMZ--RhMZA</t>
+  </si>
+  <si>
+    <t>RIVER CITY GIRLS w/ SELEN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-MSY1Q-67kI</t>
+  </si>
+  <si>
+    <t>STREAM MAYBY</t>
+  </si>
+  <si>
+    <t>Finana</t>
+  </si>
+  <si>
+    <t>HONKAI IMPACT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KmzTjsUDFw8</t>
+  </si>
+  <si>
+    <t>RED DEAD REDEMPTION 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oosZ5MJNh8U</t>
+  </si>
+  <si>
+    <t>SUPERCHEESE READINGS!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ved5x7AVS58</t>
+  </si>
+  <si>
+    <t>YAKUZA 0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8H_C3Jk8D-A</t>
+  </si>
+  <si>
+    <t>APEX LEGENDS w/ Selen, Pomu &amp; Ike</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H6yUgPh4m2o</t>
+  </si>
+  <si>
+    <t>GENSHIN IMPACT</t>
+  </si>
+  <si>
+    <t>Selen</t>
+  </si>
+  <si>
+    <t>SelenX</t>
+  </si>
+  <si>
+    <t>APEX w/ HaYun Hada</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u-Tz5tTUVD4</t>
+  </si>
+  <si>
+    <t>APEN w/ iPN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9ELyKx3lF0c</t>
+  </si>
+  <si>
+    <t>POKEMON LEGENDS: ARCEUS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WDIWfyiqjAY</t>
+  </si>
+  <si>
+    <t>DARKEST DUNGEON</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S0ZkSN7VK5w</t>
+  </si>
+  <si>
+    <t>UNO w/Vox Ike</t>
+  </si>
+  <si>
+    <t>STARDEW VALLEY w/Enna Petra Mille</t>
+  </si>
+  <si>
+    <t>CONFESIONARIO</t>
+  </si>
+  <si>
+    <t>EnnaX</t>
+  </si>
+  <si>
+    <t>PetraX</t>
+  </si>
+  <si>
+    <t>MillieX</t>
+  </si>
+  <si>
+    <t>RosemiX</t>
+  </si>
+  <si>
+    <t>Rosemi</t>
+  </si>
+  <si>
+    <t>WELCOME TO MY PARTY【200K CELEBRATION】</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hDA6Lqdqd6E</t>
+  </si>
+  <si>
+    <t>MY FRIENDLY NEIGHBORHOOD</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OdbapckIjhY</t>
+  </si>
+  <si>
+    <t>DEMON\'S SOULS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rbKA1WzE4ZM</t>
+  </si>
+  <si>
+    <t>WOLFENSTEIN: THE NEW ORDER</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Apkv8CTQAj8</t>
+  </si>
+  <si>
+    <t>APEX LEGENDS (SOLO RANK?)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yUqoJCzTG-w</t>
+  </si>
+  <si>
+    <t>MEMBERS: PROJECTS SNEAK PEEK</t>
+  </si>
+  <si>
+    <t>RIVER CITY GIRLS w/ POMU</t>
+  </si>
+  <si>
+    <t>PROPNIGHT w/ NINA MYSTA MIKA OLIVER</t>
+  </si>
+  <si>
+    <t>TEST YOUR LUCK IF YOU WIN: RFA STREAM</t>
+  </si>
+  <si>
+    <t>PomuX</t>
+  </si>
+  <si>
+    <t>NinaX</t>
+  </si>
+  <si>
+    <t>MystaX</t>
+  </si>
+  <si>
+    <t>Enna</t>
+  </si>
+  <si>
+    <t>Memberships: Morning work</t>
+  </si>
+  <si>
+    <t>Codenames w/ Layla, Reza &amp; Ike</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XAmRWdOskJ4</t>
+  </si>
+  <si>
+    <t>Lucius ll: The Prophecy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kn_PLDpmyLo</t>
+  </si>
+  <si>
+    <t>Kung-fu Cookies: Noctyx Edition</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=53iG1r3wihg</t>
+  </si>
+  <si>
+    <t>Stardew Valley w/ Petra Reimu &amp; Millie</t>
+  </si>
+  <si>
+    <t>150k Celebration Cover Release</t>
+  </si>
+  <si>
+    <t>Mario Party w/ Petra Mysta &amp; Vox</t>
+  </si>
+  <si>
+    <t>ReimuX</t>
+  </si>
+  <si>
+    <t>IkeX</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>GETTING OVER IT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-uk9znrbGIM</t>
+  </si>
+  <si>
+    <t>TRYING CHEESE BULDAK</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q4uC8fVJEzs</t>
+  </si>
+  <si>
+    <t>STUDY WITH ME!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jOkVyDBflWc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H4GUi7brkfc</t>
+  </si>
+  <si>
+    <t>STRADEW VALLEY w/ MILLIE, ENNA, REIMU</t>
+  </si>
+  <si>
+    <t>SLEEPY PIANO (+MUSIC BOX)</t>
+  </si>
+  <si>
+    <t>MEMBERS - LET\'S CHAT!</t>
+  </si>
+  <si>
+    <t>MARIO PARTY w/ ENNA, MYSTA, VOX</t>
+  </si>
+  <si>
+    <t>ZATSU &amp; MILESTONES</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UDf9L0RxdLc</t>
+  </si>
+  <si>
+    <t>PLANET COASTER</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w-7FphOa5R8</t>
+  </si>
+  <si>
+    <t>FRIDAY THE 13th COLLAB</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=w3Lh3c6MHrQ</t>
+  </si>
+  <si>
+    <t>MEMBERSHIP MAFIA VOCALS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0A8q5Z60w2Q</t>
+  </si>
+  <si>
+    <t>SPYPARTY w/ VOX</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CFVEfrZxE-k</t>
+  </si>
+  <si>
+    <t>ELDEN RING (HOPEFULLY)</t>
+  </si>
+  <si>
+    <t>LITTLE NIGHTMAREW II</t>
+  </si>
+  <si>
+    <t>Live Reaction [debut stream]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gDTqzq1BCwQ</t>
+  </si>
+  <si>
+    <t>Drawing Noctyx [Paint]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zve_J7F3HCM</t>
+  </si>
+  <si>
+    <t>WarioWare</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eH05Jj0s5vo</t>
+  </si>
+  <si>
+    <t>Cooking Simulator</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JuqxremP8yQ</t>
+  </si>
+  <si>
+    <t>Prop Night [Nina, Selen, Petra, Oliver, Mika]</t>
+  </si>
+  <si>
+    <t>Mario Party [Enna, Petra, Vox]</t>
+  </si>
+  <si>
+    <t>Millie</t>
+  </si>
+  <si>
+    <t>Transistor</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XsUiyWgkxVk</t>
+  </si>
+  <si>
+    <t>Hollow Knight #3</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qz-Fa-tqRkw</t>
+  </si>
+  <si>
+    <t>LATE NIGHT ASMR</t>
+  </si>
+  <si>
+    <t>Stardew Valley (Reimu, Petra &amp; Enna)</t>
+  </si>
+  <si>
+    <t>Speak to the Devil</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/ironmouse</t>
+  </si>
+  <si>
+    <t>Escape Simulator with Ike</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=10qibkrCUho</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>YuGiOh! Master Duel</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kPV05b6wwrM</t>
+  </si>
+  <si>
+    <t>The Walking Dead S2</t>
+  </si>
+  <si>
+    <t>https://t.co/TOERpmlJp8</t>
+  </si>
+  <si>
+    <t>Members movie</t>
+  </si>
+  <si>
+    <t>Alban</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=q7bEeqDYMdA</t>
+  </si>
+  <si>
+    <t>ALBAN Q&amp;A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VdSy1HzcQd4</t>
+  </si>
+  <si>
+    <t>SPLINTER CELL: CHAOS THEORY</t>
+  </si>
+  <si>
+    <t>SOMA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vMM2aSpy7to</t>
+  </si>
+  <si>
+    <t>Getting Over It</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FobNBBECBWg</t>
+  </si>
+  <si>
+    <t>Dishonored Start</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VW9svR16r50</t>
+  </si>
+  <si>
+    <t>SC:CT WRAPUP/SOMA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6B-LEeGsEfI</t>
+  </si>
+  <si>
+    <t>NOCTYX COLLAB - READY OR NOT</t>
+  </si>
+  <si>
+    <t>Fulgur</t>
+  </si>
+  <si>
+    <t>Intro 2.0 - The Black Sheep</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6vN5OQ9SZdc</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 - Corpo Cyborg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6NXwjq7B2BM</t>
+  </si>
+  <si>
+    <t>Detroit: Become Human</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=43t9L-BMbVM</t>
+  </si>
+  <si>
+    <t>Smash Ultimate w/Viewers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ksi5Tr_FqRk</t>
+  </si>
+  <si>
+    <t>Ghostrunner - They Will Run</t>
+  </si>
+  <si>
+    <t>Legatus 505 - Stroytime</t>
+  </si>
+  <si>
+    <t>【Dono Zatsudan】 Thanks for the Fu-ud Funds</t>
+  </si>
+  <si>
+    <t>https://t.co/ph0fuyldLH</t>
+  </si>
+  <si>
     <t>Yugo</t>
   </si>
   <si>
@@ -406,559 +985,10 @@
     <t>READY OR NOT NOCTYX COLLAB</t>
   </si>
   <si>
-    <t>ABZU (TAKE 2)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ef8pFLLQvVc</t>
-  </si>
-  <si>
-    <t>ESCAPE SIMULATOR W/ROSEMI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=E47l11VhvWA</t>
-  </si>
-  <si>
-    <t>CODENAMES COLLAB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1dpq4rJsLpQ</t>
-  </si>
-  <si>
-    <t>UNO COLLAB</t>
-  </si>
-  <si>
-    <t>FREE CHATTING</t>
-  </si>
-  <si>
-    <t>MAFIA MIX-BREAKDOWN members-only</t>
-  </si>
-  <si>
-    <t>Call Me By Your Name and I\'ll Call You By Mine...【MEMBERS ONLY WATCHALONG】</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=QqVKi-v0zvE</t>
-  </si>
-  <si>
-    <t>Karaoke</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JY36DW5W-7Q</t>
-  </si>
-  <si>
-    <t>Vampire Survivors</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ql-zIWFRuq8</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh! Master Duel</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lYhuMXs28iw</t>
-  </si>
-  <si>
-    <t>Human Resource Machine</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Fzt_sRUtrSQ</t>
-  </si>
-  <si>
-    <t>日本語雜談!</t>
-  </si>
-  <si>
-    <t>Elira</t>
-  </si>
-  <si>
-    <t>XENOBLADE CHRONIDLES: FUTURE CONNECTED</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=U2JAoCBg3Hw</t>
-  </si>
-  <si>
-    <t>FRIDAY THE 13TH - COLLAB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GhrjmhmiJus</t>
-  </si>
-  <si>
-    <t>DARK SOULS ||| - PART....ya</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xOM6XiPiz14</t>
-  </si>
-  <si>
-    <t>TO THE MOON</t>
-  </si>
-  <si>
-    <t>EARTHBOUND - PART 1</t>
-  </si>
-  <si>
-    <t>Reimu</t>
-  </si>
-  <si>
-    <t>POKEMON UNITE - members only</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hHcTcDb7k_g</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>DISCUSSING NOCTYX DEBUT</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DjEWxP2S9ro</t>
-  </si>
-  <si>
-    <t>RISK OF RAIN 2</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=64Ruit7dD4E</t>
-  </si>
-  <si>
-    <t>LOBOTOMY CORP</t>
-  </si>
-  <si>
-    <t>SOFT TALKING</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CX1N7gT7_pM</t>
-  </si>
-  <si>
-    <t>DARKEST DUNGEON 1 OR 2?</t>
-  </si>
-  <si>
-    <t>PROPNIGHT COLLAB</t>
-  </si>
-  <si>
-    <t>200K PARTY JP DOULINGO</t>
-  </si>
-  <si>
-    <t>Pomu</t>
-  </si>
-  <si>
-    <t>POMU CHATS AND DRAWS ARBOKS</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2VMIoYn8Acc</t>
-  </si>
-  <si>
-    <t>YU-GI-OH MASTER DUEL</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xqCAiPB6xE8</t>
-  </si>
-  <si>
-    <t>FRIDAY THE 13TH COLLAB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=3YMZ--RhMZA</t>
-  </si>
-  <si>
-    <t>RIVER CITY GIRLS w/ SELEN</t>
-  </si>
-  <si>
-    <t>STREAM MAYBY</t>
-  </si>
-  <si>
-    <t>Finana</t>
-  </si>
-  <si>
-    <t>HONKAI IMPACT</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=KmzTjsUDFw8</t>
-  </si>
-  <si>
-    <t>RED DEAD REDEMPTION 2</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oosZ5MJNh8U</t>
-  </si>
-  <si>
-    <t>SUPERCHEESE READINGS!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ved5x7AVS58</t>
-  </si>
-  <si>
-    <t>YAKUZA 0</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8H_C3Jk8D-A</t>
-  </si>
-  <si>
-    <t>APEX LEGENDS w/ Selen, Pomu &amp; Ike</t>
-  </si>
-  <si>
-    <t>GENSHIN IMPACT</t>
-  </si>
-  <si>
-    <t>Selen</t>
-  </si>
-  <si>
-    <t>SelenX</t>
-  </si>
-  <si>
-    <t>APEX w/ HaYun Hada</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=u-Tz5tTUVD4</t>
-  </si>
-  <si>
-    <t>APEN w/ iPN</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9ELyKx3lF0c</t>
-  </si>
-  <si>
-    <t>POKEMON LEGENDS: ARCEUS</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=WDIWfyiqjAY</t>
-  </si>
-  <si>
-    <t>DARKEST DUNGEON</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=S0ZkSN7VK5w</t>
-  </si>
-  <si>
-    <t>UNO w/Vox Ike</t>
-  </si>
-  <si>
-    <t>STARDEW VALLEY w/Enna Petra Mille</t>
-  </si>
-  <si>
-    <t>CONFESIONARIO</t>
-  </si>
-  <si>
-    <t>EnnaX</t>
-  </si>
-  <si>
-    <t>PetraX</t>
-  </si>
-  <si>
-    <t>MillieX</t>
-  </si>
-  <si>
-    <t>RosemiX</t>
-  </si>
-  <si>
-    <t>Rosemi</t>
-  </si>
-  <si>
-    <t>WELCOME TO MY PARTY【200K CELEBRATION】</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=hDA6Lqdqd6E</t>
-  </si>
-  <si>
-    <t>MY FRIENDLY NEIGHBORHOOD</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=OdbapckIjhY</t>
-  </si>
-  <si>
-    <t>DEMON\'S SOULS</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rbKA1WzE4ZM</t>
-  </si>
-  <si>
-    <t>WOLFENSTEIN: THE NEW ORDER</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Apkv8CTQAj8</t>
-  </si>
-  <si>
-    <t>APEX LEGENDS (SOLO RANK?)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yUqoJCzTG-w</t>
-  </si>
-  <si>
-    <t>MEMBERS: PROJECTS SNEAK PEEK</t>
-  </si>
-  <si>
-    <t>RIVER CITY GIRLS w/ POMU</t>
-  </si>
-  <si>
-    <t>PROPNIGHT w/ NINA MYSTA MIKA OLIVER</t>
-  </si>
-  <si>
-    <t>TEST YOUR LUCK IF YOU WIN: RFA STREAM</t>
-  </si>
-  <si>
-    <t>PomuX</t>
-  </si>
-  <si>
-    <t>NinaX</t>
-  </si>
-  <si>
-    <t>MystaX</t>
-  </si>
-  <si>
-    <t>Enna</t>
-  </si>
-  <si>
-    <t>Memberships: Morning work</t>
-  </si>
-  <si>
-    <t>Codenames w/ Layla, Reza &amp; Ike</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XAmRWdOskJ4</t>
-  </si>
-  <si>
-    <t>Lucius ll: The Prophecy</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kn_PLDpmyLo</t>
-  </si>
-  <si>
-    <t>Kung-fu Cookies: Noctyx Edition</t>
-  </si>
-  <si>
-    <t>Stardew Valley w/ Petra Reimu &amp; Millie</t>
-  </si>
-  <si>
-    <t>150k Celebration Cover Release</t>
-  </si>
-  <si>
-    <t>Mario Party w/ Petra Mysta &amp; Vox</t>
-  </si>
-  <si>
-    <t>ReimuX</t>
-  </si>
-  <si>
-    <t>IkeX</t>
-  </si>
-  <si>
-    <t>Petra</t>
-  </si>
-  <si>
-    <t>GETTING OVER IT</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=-uk9znrbGIM</t>
-  </si>
-  <si>
-    <t>TRYING CHEESE BULDAK</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=q4uC8fVJEzs</t>
-  </si>
-  <si>
-    <t>STUDY WITH ME!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jOkVyDBflWc</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H4GUi7brkfc</t>
-  </si>
-  <si>
-    <t>STRADEW VALLEY w/ MILLIE, ENNA, REIMU</t>
-  </si>
-  <si>
-    <t>SLEEPY PIANO (+MUSIC BOX)</t>
-  </si>
-  <si>
-    <t>MEMBERS - LET\'S CHAT!</t>
-  </si>
-  <si>
-    <t>MARIO PARTY w/ ENNA, MYSTA, VOX</t>
-  </si>
-  <si>
-    <t>ZATSU &amp; MILESTONES</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UDf9L0RxdLc</t>
-  </si>
-  <si>
-    <t>PLANET COASTER</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w-7FphOa5R8</t>
-  </si>
-  <si>
-    <t>FRIDAY THE 13th COLLAB</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=w3Lh3c6MHrQ</t>
-  </si>
-  <si>
-    <t>MEMBERSHIP MAFIA VOCALS</t>
-  </si>
-  <si>
-    <t>SPYPARTY w/ VOX</t>
-  </si>
-  <si>
-    <t>ELDEN RING (HOPEFULLY)</t>
-  </si>
-  <si>
-    <t>LITTLE NIGHTMAREW II</t>
-  </si>
-  <si>
-    <t>Live Reaction [debut stream]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gDTqzq1BCwQ</t>
-  </si>
-  <si>
-    <t>Drawing Noctyx [Paint]</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zve_J7F3HCM</t>
-  </si>
-  <si>
-    <t>WarioWare</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eH05Jj0s5vo</t>
-  </si>
-  <si>
-    <t>Cooking Simulator</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JuqxremP8yQ</t>
-  </si>
-  <si>
-    <t>Prop Night [Nina, Selen, Petra, Oliver, Mika]</t>
-  </si>
-  <si>
-    <t>Mario Party [Enna, Petra, Vox]</t>
-  </si>
-  <si>
-    <t>Millie</t>
-  </si>
-  <si>
-    <t>Transistor</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XsUiyWgkxVk</t>
-  </si>
-  <si>
-    <t>Hollow Knight #3</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qz-Fa-tqRkw</t>
-  </si>
-  <si>
-    <t>LATE NIGHT ASMR</t>
-  </si>
-  <si>
-    <t>Stardew Valley (Reimu, Petra &amp; Enna)</t>
-  </si>
-  <si>
-    <t>Speak to the Devil</t>
-  </si>
-  <si>
-    <t>https://www.twitch.tv/ironmouse</t>
-  </si>
-  <si>
-    <t>Escape Simulator with Ike</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=10qibkrCUho</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>YuGiOh! Master Duel</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kPV05b6wwrM</t>
-  </si>
-  <si>
-    <t>The Walking Dead S2</t>
-  </si>
-  <si>
-    <t>https://t.co/TOERpmlJp8</t>
-  </si>
-  <si>
-    <t>Members movie</t>
-  </si>
-  <si>
-    <t>Alban</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=q7bEeqDYMdA</t>
-  </si>
-  <si>
-    <t>ALBAN Q&amp;A</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VdSy1HzcQd4</t>
-  </si>
-  <si>
-    <t>SPLINTER CELL: CHAOS THEORY</t>
-  </si>
-  <si>
-    <t>SOMA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vMM2aSpy7to</t>
-  </si>
-  <si>
-    <t>Getting Over It</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FobNBBECBWg</t>
-  </si>
-  <si>
-    <t>Dishonored Start</t>
-  </si>
-  <si>
-    <t>SC:CT WRAPUP/SOMA</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6B-LEeGsEfI</t>
-  </si>
-  <si>
-    <t>NOCTYX COLLAB - READY OR NOT</t>
-  </si>
-  <si>
-    <t>Fulgur</t>
-  </si>
-  <si>
-    <t>Intro 2.0 - The Black Sheep</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6vN5OQ9SZdc</t>
-  </si>
-  <si>
-    <t>Cyberpunk 2077 - Corpo Cyborg</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6NXwjq7B2BM</t>
-  </si>
-  <si>
-    <t>Detroit: Become Human</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=43t9L-BMbVM</t>
-  </si>
-  <si>
-    <t>Smash Ultimate w/Viewers</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Ksi5Tr_FqRk</t>
-  </si>
-  <si>
-    <t>Ghostrunner - They Will Run</t>
-  </si>
-  <si>
-    <t>Legatus 505 - Stroytime</t>
-  </si>
-  <si>
-    <t>【Dono Zatsudan】 Thanks for the Fu-ud Funds</t>
-  </si>
-  <si>
-    <t>https://t.co/ph0fuyldLH</t>
+    <t>【GUERILLA STREAM】Who will take my V?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UYV3OP7W5Ys</t>
   </si>
 </sst>
 </file>
@@ -2493,7 +2523,7 @@
         <v>44617.833333333336</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" ref="L37:L106" si="5">(K37-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L37:L98" si="5">(K37-Date(1970,1,1))*86400*1000</f>
         <v>1645819200000</v>
       </c>
       <c r="M37" s="1" t="s">
@@ -2802,6 +2832,9 @@
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E46" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="J46" s="1" t="b">
         <v>0</v>
       </c>
@@ -2825,7 +2858,7 @@
         <v>79</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>1</v>
@@ -2850,16 +2883,16 @@
         <v>60.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -2883,16 +2916,16 @@
         <v>61.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2916,16 +2949,16 @@
         <v>62.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2949,16 +2982,16 @@
         <v>63.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2982,16 +3015,16 @@
         <v>64.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -3015,10 +3048,10 @@
         <v>65.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>1</v>
@@ -3043,10 +3076,10 @@
         <v>66.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D54" s="1" t="b">
         <v>1</v>
@@ -3074,13 +3107,13 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3107,13 +3140,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3140,13 +3173,13 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3173,13 +3206,13 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3206,13 +3239,13 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G59" s="1" t="b">
         <v>1</v>
@@ -3240,7 +3273,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
@@ -3271,13 +3304,13 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -3298,10 +3331,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1">
-        <v>74.0</v>
+        <v>82.0</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>119</v>
@@ -3309,20 +3342,20 @@
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K62" s="5">
-        <v>44619.5</v>
+        <v>44620.5</v>
       </c>
       <c r="L62" s="1">
         <f t="shared" si="5"/>
-        <v>1645963200000</v>
+        <v>1646049600000</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>16</v>
@@ -3331,31 +3364,31 @@
     </row>
     <row r="63">
       <c r="A63" s="1">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" s="5">
-        <v>44620.5</v>
+        <v>44621.916666666664</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="5"/>
-        <v>1646049600000</v>
+        <v>1646172000000</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>16</v>
@@ -3364,31 +3397,31 @@
     </row>
     <row r="64">
       <c r="A64" s="1">
-        <v>76.0</v>
+        <v>84.0</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="5">
-        <v>44621.541666666664</v>
+        <v>44622.625</v>
       </c>
       <c r="L64" s="1">
         <f t="shared" si="5"/>
-        <v>1646139600000</v>
+        <v>1646233200000</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>16</v>
@@ -3397,31 +3430,26 @@
     </row>
     <row r="65">
       <c r="A65" s="1">
-        <v>77.0</v>
+        <v>85.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
       <c r="J65" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="5">
-        <v>44622.5</v>
+        <v>44624.875</v>
       </c>
       <c r="L65" s="1">
         <f t="shared" si="5"/>
-        <v>1646222400000</v>
+        <v>1646427600000</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>16</v>
@@ -3430,10 +3458,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1">
-        <v>78.0</v>
+        <v>86.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>126</v>
@@ -3441,18 +3469,15 @@
       <c r="D66" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="J66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K66" s="5">
-        <v>44623.541666666664</v>
+      <c r="K66" s="15">
+        <v>44625.625</v>
       </c>
       <c r="L66" s="1">
         <f t="shared" si="5"/>
-        <v>1646312400000</v>
+        <v>1646492400000</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>16</v>
@@ -3461,13 +3486,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1">
-        <v>79.0</v>
+        <v>87.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
@@ -3476,11 +3501,11 @@
         <v>0</v>
       </c>
       <c r="K67" s="5">
-        <v>44624.5</v>
+        <v>44626.583333333336</v>
       </c>
       <c r="L67" s="1">
         <f t="shared" si="5"/>
-        <v>1646395200000</v>
+        <v>1646575200000</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>16</v>
@@ -3489,26 +3514,31 @@
     </row>
     <row r="68">
       <c r="A68" s="1">
-        <v>80.0</v>
+        <v>88.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
       <c r="J68" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K68" s="5">
-        <v>44624.875</v>
+        <v>44620.416666666664</v>
       </c>
       <c r="L68" s="1">
         <f t="shared" si="5"/>
-        <v>1646427600000</v>
+        <v>1646042400000</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>16</v>
@@ -3517,10 +3547,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1">
-        <v>81.0</v>
+        <v>89.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>130</v>
@@ -3528,15 +3558,20 @@
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E69" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="5">
-        <v>44626.083333333336</v>
+        <v>44621.125</v>
       </c>
       <c r="L69" s="1">
         <f t="shared" si="5"/>
-        <v>1646532000000</v>
+        <v>1646103600000</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>16</v>
@@ -3545,31 +3580,31 @@
     </row>
     <row r="70">
       <c r="A70" s="1">
-        <v>82.0</v>
+        <v>90.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
+      <c r="E70" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
       <c r="J70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K70" s="5">
-        <v>44620.5</v>
+        <v>44622.0</v>
       </c>
       <c r="L70" s="1">
         <f t="shared" si="5"/>
-        <v>1646049600000</v>
+        <v>1646179200000</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>16</v>
@@ -3578,31 +3613,31 @@
     </row>
     <row r="71">
       <c r="A71" s="1">
-        <v>83.0</v>
+        <v>91.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="5">
-        <v>44621.916666666664</v>
+        <v>44623.0</v>
       </c>
       <c r="L71" s="1">
         <f t="shared" si="5"/>
-        <v>1646172000000</v>
+        <v>1646265600000</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>16</v>
@@ -3611,31 +3646,29 @@
     </row>
     <row r="72">
       <c r="A72" s="1">
-        <v>84.0</v>
+        <v>92.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
+        <v>137</v>
+      </c>
       <c r="J72" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="5">
-        <v>44622.625</v>
+        <v>44623.791666666664</v>
       </c>
       <c r="L72" s="1">
         <f t="shared" si="5"/>
-        <v>1646233200000</v>
+        <v>1646334000000</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>16</v>
@@ -3644,26 +3677,26 @@
     </row>
     <row r="73">
       <c r="A73" s="1">
-        <v>85.0</v>
+        <v>93.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J73" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="5">
-        <v>44624.875</v>
+        <v>44625.583333333336</v>
       </c>
       <c r="L73" s="1">
         <f t="shared" si="5"/>
-        <v>1646427600000</v>
+        <v>1646488800000</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>16</v>
@@ -3672,13 +3705,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1">
-        <v>86.0</v>
+        <v>94.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="D74" s="1" t="b">
         <v>1</v>
@@ -3686,12 +3719,12 @@
       <c r="J74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K74" s="15">
-        <v>44625.625</v>
+      <c r="K74" s="5">
+        <v>44627.041666666664</v>
       </c>
       <c r="L74" s="1">
         <f t="shared" si="5"/>
-        <v>1646492400000</v>
+        <v>1646614800000</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>16</v>
@@ -3700,26 +3733,31 @@
     </row>
     <row r="75">
       <c r="A75" s="1">
-        <v>87.0</v>
+        <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E75" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
       <c r="J75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K75" s="5">
-        <v>44626.583333333336</v>
+      <c r="K75" s="16">
+        <v>44620.875</v>
       </c>
       <c r="L75" s="1">
         <f t="shared" si="5"/>
-        <v>1646575200000</v>
+        <v>1646082000000</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>16</v>
@@ -3728,31 +3766,31 @@
     </row>
     <row r="76">
       <c r="A76" s="1">
-        <v>88.0</v>
+        <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K76" s="5">
-        <v>44620.416666666664</v>
+        <v>1</v>
+      </c>
+      <c r="K76" s="17">
+        <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
         <f t="shared" si="5"/>
-        <v>1646042400000</v>
+        <v>1646272800000</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>16</v>
@@ -3761,31 +3799,29 @@
     </row>
     <row r="77">
       <c r="A77" s="1">
-        <v>89.0</v>
+        <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
+        <v>145</v>
+      </c>
       <c r="J77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K77" s="5">
-        <v>44621.125</v>
+      <c r="K77" s="17">
+        <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
         <f t="shared" si="5"/>
-        <v>1646103600000</v>
+        <v>1646355600000</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>16</v>
@@ -3794,31 +3830,29 @@
     </row>
     <row r="78">
       <c r="A78" s="1">
-        <v>90.0</v>
+        <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
+        <v>147</v>
+      </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K78" s="5">
-        <v>44622.0</v>
+      <c r="K78" s="17">
+        <v>44624.875</v>
       </c>
       <c r="L78" s="1">
         <f t="shared" si="5"/>
-        <v>1646179200000</v>
+        <v>1646427600000</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>16</v>
@@ -3827,31 +3861,26 @@
     </row>
     <row r="79">
       <c r="A79" s="1">
-        <v>91.0</v>
+        <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
       <c r="J79" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K79" s="5">
-        <v>44623.0</v>
+        <v>44625.875</v>
       </c>
       <c r="L79" s="1">
         <f t="shared" si="5"/>
-        <v>1646265600000</v>
+        <v>1646514000000</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>16</v>
@@ -3860,29 +3889,31 @@
     </row>
     <row r="80">
       <c r="A80" s="1">
-        <v>92.0</v>
+        <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E80" s="7" t="s">
-        <v>149</v>
-      </c>
+      <c r="E80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K80" s="5">
-        <v>44623.791666666664</v>
+        <v>44620.75</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" si="5"/>
-        <v>1646334000000</v>
+        <v>1646071200000</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>16</v>
@@ -3891,26 +3922,31 @@
     </row>
     <row r="81">
       <c r="A81" s="1">
-        <v>93.0</v>
+        <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E81" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
       <c r="J81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="5">
-        <v>44625.583333333336</v>
+      <c r="K81" s="18">
+        <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
         <f t="shared" si="5"/>
-        <v>1646488800000</v>
+        <v>1646055000000</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>16</v>
@@ -3919,26 +3955,31 @@
     </row>
     <row r="82">
       <c r="A82" s="1">
-        <v>94.0</v>
+        <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E82" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K82" s="5">
-        <v>44627.041666666664</v>
+        <v>44621.5625</v>
       </c>
       <c r="L82" s="1">
         <f t="shared" si="5"/>
-        <v>1646614800000</v>
+        <v>1646141400000</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>16</v>
@@ -3947,31 +3988,26 @@
     </row>
     <row r="83">
       <c r="A83" s="1">
-        <v>95.0</v>
+        <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
       <c r="J83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K83" s="16">
-        <v>44620.875</v>
+      <c r="K83" s="5">
+        <v>44622.552083333336</v>
       </c>
       <c r="L83" s="1">
         <f t="shared" si="5"/>
-        <v>1646082000000</v>
+        <v>1646226900000</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>16</v>
@@ -3980,31 +4016,31 @@
     </row>
     <row r="84">
       <c r="A84" s="1">
-        <v>96.0</v>
+        <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E84" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
+      <c r="E84" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K84" s="17">
-        <v>44623.083333333336</v>
+        <v>0</v>
+      </c>
+      <c r="K84" s="5">
+        <v>44623.21875</v>
       </c>
       <c r="L84" s="1">
         <f t="shared" si="5"/>
-        <v>1646272800000</v>
+        <v>1646284500000</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>16</v>
@@ -4013,29 +4049,26 @@
     </row>
     <row r="85">
       <c r="A85" s="1">
-        <v>97.0</v>
+        <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E85" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="J85" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K85" s="17">
-        <v>44624.041666666664</v>
+      <c r="K85" s="5">
+        <v>44624.604166666664</v>
       </c>
       <c r="L85" s="1">
         <f t="shared" si="5"/>
-        <v>1646355600000</v>
+        <v>1646404200000</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>16</v>
@@ -4044,26 +4077,29 @@
     </row>
     <row r="86">
       <c r="A86" s="1">
-        <v>98.0</v>
+        <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F86" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J86" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K86" s="17">
-        <v>44624.875</v>
+        <v>1</v>
+      </c>
+      <c r="K86" s="5">
+        <v>44625.416666666664</v>
       </c>
       <c r="L86" s="1">
         <f t="shared" si="5"/>
-        <v>1646427600000</v>
+        <v>1646474400000</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>16</v>
@@ -4072,13 +4108,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1">
-        <v>99.0</v>
+        <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4087,11 +4123,11 @@
         <v>0</v>
       </c>
       <c r="K87" s="5">
-        <v>44625.875</v>
+        <v>44626.708333333336</v>
       </c>
       <c r="L87" s="1">
         <f t="shared" si="5"/>
-        <v>1646514000000</v>
+        <v>1646586000000</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>16</v>
@@ -4100,31 +4136,31 @@
     </row>
     <row r="88">
       <c r="A88" s="1">
-        <v>100.0</v>
+        <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E88" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
+      <c r="E88" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
       <c r="J88" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K88" s="5">
-        <v>44620.75</v>
+      <c r="K88" s="16">
+        <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
         <f t="shared" si="5"/>
-        <v>1646071200000</v>
+        <v>1646089200000</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>16</v>
@@ -4133,31 +4169,31 @@
     </row>
     <row r="89">
       <c r="A89" s="1">
-        <v>101.0</v>
+        <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K89" s="18">
-        <v>44620.5625</v>
+      <c r="K89" s="16">
+        <v>44622.0</v>
       </c>
       <c r="L89" s="1">
         <f t="shared" si="5"/>
-        <v>1646055000000</v>
+        <v>1646179200000</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>16</v>
@@ -4166,31 +4202,31 @@
     </row>
     <row r="90">
       <c r="A90" s="1">
-        <v>102.0</v>
+        <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
+      <c r="E90" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
       <c r="J90" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K90" s="5">
-        <v>44621.5625</v>
+        <v>1</v>
+      </c>
+      <c r="K90" s="16">
+        <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
         <f t="shared" si="5"/>
-        <v>1646141400000</v>
+        <v>1646272800000</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>16</v>
@@ -4199,26 +4235,29 @@
     </row>
     <row r="91">
       <c r="A91" s="1">
-        <v>103.0</v>
+        <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E91" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="J91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K91" s="5">
-        <v>44622.552083333336</v>
+      <c r="K91" s="16">
+        <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
         <f t="shared" si="5"/>
-        <v>1646226900000</v>
+        <v>1646445600000</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>16</v>
@@ -4227,31 +4266,26 @@
     </row>
     <row r="92">
       <c r="A92" s="1">
-        <v>104.0</v>
+        <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
       <c r="J92" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K92" s="5">
-        <v>44623.21875</v>
+      <c r="K92" s="16">
+        <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
         <f t="shared" si="5"/>
-        <v>1646284500000</v>
+        <v>1646510400000</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>16</v>
@@ -4260,26 +4294,31 @@
     </row>
     <row r="93">
       <c r="A93" s="1">
-        <v>105.0</v>
+        <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E93" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
       <c r="J93" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K93" s="5">
-        <v>44624.604166666664</v>
+      <c r="K93" s="16">
+        <v>44620.875</v>
       </c>
       <c r="L93" s="1">
         <f t="shared" si="5"/>
-        <v>1646404200000</v>
+        <v>1646082000000</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>16</v>
@@ -4288,29 +4327,31 @@
     </row>
     <row r="94">
       <c r="A94" s="1">
-        <v>106.0</v>
+        <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F94" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E94" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
       <c r="J94" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K94" s="5">
-        <v>44625.416666666664</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="16">
+        <v>44621.875</v>
       </c>
       <c r="L94" s="1">
         <f t="shared" si="5"/>
-        <v>1646474400000</v>
+        <v>1646168400000</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>16</v>
@@ -4319,26 +4360,31 @@
     </row>
     <row r="95">
       <c r="A95" s="1">
-        <v>107.0</v>
+        <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E95" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
       <c r="J95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K95" s="5">
-        <v>44626.708333333336</v>
+      <c r="K95" s="16">
+        <v>44622.875</v>
       </c>
       <c r="L95" s="1">
         <f t="shared" si="5"/>
-        <v>1646586000000</v>
+        <v>1646254800000</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>16</v>
@@ -4347,31 +4393,29 @@
     </row>
     <row r="96">
       <c r="A96" s="1">
-        <v>108.0</v>
+        <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
+        <v>181</v>
+      </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K96" s="16">
-        <v>44620.958333333336</v>
+        <v>44623.875</v>
       </c>
       <c r="L96" s="1">
         <f t="shared" si="5"/>
-        <v>1646089200000</v>
+        <v>1646341200000</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>16</v>
@@ -4380,31 +4424,29 @@
     </row>
     <row r="97">
       <c r="A97" s="1">
-        <v>109.0</v>
+        <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
+        <v>183</v>
+      </c>
       <c r="J97" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K97" s="16">
-        <v>44622.0</v>
+        <v>1</v>
+      </c>
+      <c r="K97" s="19">
+        <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
         <f t="shared" si="5"/>
-        <v>1646179200000</v>
+        <v>1646434800000</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>16</v>
@@ -4413,31 +4455,26 @@
     </row>
     <row r="98">
       <c r="A98" s="1">
-        <v>110.0</v>
+        <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E98" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
       <c r="J98" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98" s="16">
-        <v>44623.083333333336</v>
+        <v>44625.875</v>
       </c>
       <c r="L98" s="1">
         <f t="shared" si="5"/>
-        <v>1646272800000</v>
+        <v>1646514000000</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>16</v>
@@ -4446,153 +4483,91 @@
     </row>
     <row r="99">
       <c r="A99" s="1">
-        <v>111.0</v>
+        <v>119.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D99" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J99" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K99" s="16">
-        <v>44625.083333333336</v>
-      </c>
-      <c r="L99" s="1">
-        <f t="shared" si="5"/>
-        <v>1646445600000</v>
-      </c>
-      <c r="M99" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M99" s="1">
+        <v>117.0</v>
       </c>
       <c r="N99" s="6"/>
     </row>
     <row r="100">
       <c r="A100" s="1">
-        <v>112.0</v>
+        <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="D100" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J100" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K100" s="16">
-        <v>44625.833333333336</v>
-      </c>
-      <c r="L100" s="1">
-        <f t="shared" si="5"/>
-        <v>1646510400000</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>117.0</v>
       </c>
       <c r="N100" s="6"/>
     </row>
     <row r="101">
       <c r="A101" s="1">
-        <v>113.0</v>
+        <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D101" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K101" s="16">
-        <v>44620.875</v>
-      </c>
-      <c r="L101" s="1">
-        <f t="shared" si="5"/>
-        <v>1646082000000</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>117.0</v>
       </c>
       <c r="N101" s="6"/>
     </row>
     <row r="102">
       <c r="A102" s="1">
-        <v>114.0</v>
+        <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C102" s="1" t="s">
         <v>186</v>
       </c>
       <c r="D102" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K102" s="16">
-        <v>44621.875</v>
-      </c>
-      <c r="L102" s="1">
-        <f t="shared" si="5"/>
-        <v>1646168400000</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>111.0</v>
       </c>
       <c r="N102" s="6"/>
     </row>
     <row r="103">
       <c r="A103" s="1">
-        <v>115.0</v>
+        <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D103" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D103" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" s="16">
-        <v>44622.875</v>
+        <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" si="5"/>
-        <v>1646254800000</v>
+        <f t="shared" ref="L103:L109" si="6">(K103-Date(1970,1,1))*86400*1000</f>
+        <v>1646100000000</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>16</v>
@@ -4601,29 +4576,31 @@
     </row>
     <row r="104">
       <c r="A104" s="1">
-        <v>116.0</v>
+        <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D104" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D104" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
       <c r="J104" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="16">
-        <v>44623.875</v>
+        <v>44621.875</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="5"/>
-        <v>1646341200000</v>
+        <f t="shared" si="6"/>
+        <v>1646168400000</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>16</v>
@@ -4632,26 +4609,31 @@
     </row>
     <row r="105">
       <c r="A105" s="1">
-        <v>117.0</v>
+        <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D105" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D105" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
       <c r="J105" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K105" s="19">
-        <v>44624.958333333336</v>
+        <v>0</v>
+      </c>
+      <c r="K105" s="16">
+        <v>44622.125</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="5"/>
-        <v>1646434800000</v>
+        <f t="shared" si="6"/>
+        <v>1646190000000</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>16</v>
@@ -4660,10 +4642,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1">
-        <v>118.0</v>
+        <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>193</v>
@@ -4671,15 +4653,20 @@
       <c r="D106" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E106" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K106" s="16">
-        <v>44625.875</v>
+        <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="5"/>
-        <v>1646514000000</v>
+        <f t="shared" si="6"/>
+        <v>1646334000000</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>16</v>
@@ -4688,218 +4675,190 @@
     </row>
     <row r="107">
       <c r="A107" s="1">
-        <v>119.0</v>
+        <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>29</v>
+        <v>149</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D107" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M107" s="1">
-        <v>117.0</v>
+        <v>1</v>
+      </c>
+      <c r="J107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K107" s="16">
+        <v>44624.875</v>
+      </c>
+      <c r="L107" s="1">
+        <f t="shared" si="6"/>
+        <v>1646427600000</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N107" s="6"/>
     </row>
     <row r="108">
       <c r="A108" s="1">
-        <v>120.0</v>
+        <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>174</v>
+        <v>149</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>196</v>
       </c>
       <c r="D108" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M108" s="1">
-        <v>117.0</v>
+        <v>1</v>
+      </c>
+      <c r="J108" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K108" s="16">
+        <v>44625.125</v>
+      </c>
+      <c r="L108" s="1">
+        <f t="shared" si="6"/>
+        <v>1646449200000</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N108" s="6"/>
     </row>
     <row r="109">
       <c r="A109" s="1">
-        <v>121.0</v>
+        <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>194</v>
+        <v>149</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D109" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M109" s="1">
-        <v>117.0</v>
+        <v>1</v>
+      </c>
+      <c r="J109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K109" s="16">
+        <v>44626.0</v>
+      </c>
+      <c r="L109" s="1">
+        <f t="shared" si="6"/>
+        <v>1646524800000</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N109" s="6"/>
     </row>
     <row r="110">
       <c r="A110" s="1">
-        <v>122.0</v>
+        <v>130.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>195</v>
+        <v>13</v>
       </c>
       <c r="D110" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <v>111.0</v>
+        <v>127.0</v>
       </c>
       <c r="N110" s="6"/>
     </row>
     <row r="111">
       <c r="A111" s="1">
-        <v>123.0</v>
+        <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K111" s="16">
-        <v>44621.083333333336</v>
-      </c>
-      <c r="L111" s="1">
-        <f t="shared" ref="L111:L117" si="6">(K111-Date(1970,1,1))*86400*1000</f>
-        <v>1646100000000</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M111" s="1">
+        <v>128.0</v>
       </c>
       <c r="N111" s="6"/>
     </row>
     <row r="112">
       <c r="A112" s="1">
-        <v>124.0</v>
+        <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K112" s="16">
-        <v>44621.875</v>
-      </c>
-      <c r="L112" s="1">
-        <f t="shared" si="6"/>
-        <v>1646168400000</v>
-      </c>
-      <c r="M112" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M112" s="1">
+        <v>128.0</v>
       </c>
       <c r="N112" s="6"/>
     </row>
     <row r="113">
       <c r="A113" s="1">
-        <v>125.0</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C113" s="1" t="s">
+        <v>133.0</v>
+      </c>
+      <c r="B113" s="20" t="s">
         <v>200</v>
       </c>
       <c r="D113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K113" s="16">
-        <v>44622.125</v>
-      </c>
-      <c r="L113" s="1">
-        <f t="shared" si="6"/>
-        <v>1646190000000</v>
-      </c>
-      <c r="M113" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M113" s="1">
+        <v>128.0</v>
       </c>
       <c r="N113" s="6"/>
     </row>
     <row r="114">
       <c r="A114" s="1">
-        <v>126.0</v>
+        <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H114" s="4"/>
-      <c r="I114" s="4"/>
-      <c r="J114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K114" s="16">
-        <v>44623.791666666664</v>
-      </c>
-      <c r="L114" s="1">
-        <f t="shared" si="6"/>
-        <v>1646334000000</v>
-      </c>
-      <c r="M114" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M114" s="1">
+        <v>83.0</v>
       </c>
       <c r="N114" s="6"/>
     </row>
     <row r="115">
       <c r="A115" s="1">
-        <v>127.0</v>
+        <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="D115" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
       <c r="J115" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="16">
-        <v>44624.875</v>
+        <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" si="6"/>
-        <v>1646427600000</v>
+        <f t="shared" ref="L115:L123" si="7">(K115-Date(1970,1,1))*86400*1000</f>
+        <v>1646096400000</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>16</v>
@@ -4908,10 +4867,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1">
-        <v>128.0</v>
+        <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>205</v>
@@ -4919,15 +4878,20 @@
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E116" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
       <c r="J116" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" s="16">
-        <v>44625.125</v>
+        <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="6"/>
-        <v>1646449200000</v>
+        <f t="shared" si="7"/>
+        <v>1646087400000</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>16</v>
@@ -4936,26 +4900,31 @@
     </row>
     <row r="117">
       <c r="A117" s="1">
-        <v>129.0</v>
+        <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E117" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
       <c r="J117" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K117" s="16">
-        <v>44626.0</v>
+        <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
-        <f t="shared" si="6"/>
-        <v>1646524800000</v>
+        <f t="shared" si="7"/>
+        <v>1646105400000</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>16</v>
@@ -4964,106 +4933,179 @@
     </row>
     <row r="118">
       <c r="A118" s="1">
-        <v>130.0</v>
+        <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>13</v>
+        <v>185</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="D118" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M118" s="1">
-        <v>127.0</v>
+        <v>1</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K118" s="16">
+        <v>44622.083333333336</v>
+      </c>
+      <c r="L118" s="1">
+        <f t="shared" si="7"/>
+        <v>1646186400000</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N118" s="6"/>
     </row>
     <row r="119">
       <c r="A119" s="1">
-        <v>131.0</v>
+        <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>185</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>211</v>
       </c>
       <c r="D119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M119" s="1">
-        <v>128.0</v>
+        <v>1</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K119" s="19">
+        <v>44622.833333333336</v>
+      </c>
+      <c r="L119" s="1">
+        <f t="shared" si="7"/>
+        <v>1646251200000</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N119" s="6"/>
     </row>
     <row r="120">
       <c r="A120" s="1">
-        <v>132.0</v>
+        <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>213</v>
       </c>
       <c r="D120" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M120" s="1">
-        <v>128.0</v>
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K120" s="16">
+        <v>44623.833333333336</v>
+      </c>
+      <c r="L120" s="1">
+        <f t="shared" si="7"/>
+        <v>1646337600000</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N120" s="6"/>
     </row>
     <row r="121">
       <c r="A121" s="1">
-        <v>133.0</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>209</v>
+        <v>141.0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>214</v>
       </c>
       <c r="D121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M121" s="1">
-        <v>128.0</v>
+        <v>1</v>
+      </c>
+      <c r="J121" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K121" s="16">
+        <v>44625.083333333336</v>
+      </c>
+      <c r="L121" s="1">
+        <f t="shared" si="7"/>
+        <v>1646445600000</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N121" s="6"/>
     </row>
     <row r="122">
       <c r="A122" s="1">
-        <v>134.0</v>
+        <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D122" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M122" s="1">
-        <v>83.0</v>
+        <v>1</v>
+      </c>
+      <c r="F122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K122" s="16">
+        <v>44625.416666666664</v>
+      </c>
+      <c r="L122" s="1">
+        <f t="shared" si="7"/>
+        <v>1646474400000</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N122" s="6"/>
     </row>
     <row r="123">
       <c r="A123" s="1">
-        <v>135.0</v>
+        <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E123" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
       <c r="J123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K123" s="16">
-        <v>44621.041666666664</v>
+        <v>44626.0</v>
       </c>
       <c r="L123" s="1">
-        <f t="shared" ref="L123:L131" si="7">(K123-Date(1970,1,1))*86400*1000</f>
-        <v>1646096400000</v>
+        <f t="shared" si="7"/>
+        <v>1646524800000</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>16</v>
@@ -5072,130 +5114,71 @@
     </row>
     <row r="124">
       <c r="A124" s="1">
-        <v>136.0</v>
+        <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D124" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K124" s="16">
-        <v>44620.9375</v>
-      </c>
-      <c r="L124" s="1">
-        <f t="shared" si="7"/>
-        <v>1646087400000</v>
-      </c>
-      <c r="M124" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M124" s="1">
+        <v>141.0</v>
       </c>
       <c r="N124" s="6"/>
     </row>
     <row r="125">
       <c r="A125" s="1">
-        <v>137.0</v>
+        <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D125" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K125" s="16">
-        <v>44621.145833333336</v>
-      </c>
-      <c r="L125" s="1">
-        <f t="shared" si="7"/>
-        <v>1646105400000</v>
-      </c>
-      <c r="M125" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M125" s="1">
+        <v>142.0</v>
       </c>
       <c r="N125" s="6"/>
     </row>
     <row r="126">
       <c r="A126" s="1">
-        <v>138.0</v>
+        <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D126" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K126" s="16">
-        <v>44622.083333333336</v>
-      </c>
-      <c r="L126" s="1">
-        <f t="shared" si="7"/>
-        <v>1646186400000</v>
-      </c>
-      <c r="M126" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M126" s="1">
+        <v>142.0</v>
       </c>
       <c r="N126" s="6"/>
     </row>
     <row r="127">
       <c r="A127" s="1">
-        <v>139.0</v>
+        <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
       <c r="J127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K127" s="19">
-        <v>44622.833333333336</v>
+      <c r="K127" s="14">
+        <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
-        <f t="shared" si="7"/>
-        <v>1646251200000</v>
+        <f t="shared" ref="L127:L133" si="8">(K127-Date(1970,1,1))*86400*1000</f>
+        <v>1646064000000</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>16</v>
@@ -5204,10 +5187,10 @@
     </row>
     <row r="128">
       <c r="A128" s="1">
-        <v>140.0</v>
+        <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>222</v>
@@ -5215,15 +5198,20 @@
       <c r="D128" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E128" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
       <c r="J128" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128" s="16">
-        <v>44623.833333333336</v>
+        <v>44622.625</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="7"/>
-        <v>1646337600000</v>
+        <f t="shared" si="8"/>
+        <v>1646233200000</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>16</v>
@@ -5232,26 +5220,31 @@
     </row>
     <row r="129">
       <c r="A129" s="1">
-        <v>141.0</v>
+        <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E129" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
       <c r="J129" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" s="16">
-        <v>44625.083333333336</v>
+        <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="7"/>
-        <v>1646445600000</v>
+        <f t="shared" si="8"/>
+        <v>1646326800000</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>16</v>
@@ -5260,29 +5253,29 @@
     </row>
     <row r="130">
       <c r="A130" s="1">
-        <v>142.0</v>
+        <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F130" s="1" t="b">
-        <v>1</v>
+      <c r="E130" s="7" t="s">
+        <v>227</v>
       </c>
       <c r="J130" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130" s="16">
-        <v>44625.416666666664</v>
+        <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" si="7"/>
-        <v>1646474400000</v>
+        <f t="shared" si="8"/>
+        <v>1646413200000</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>16</v>
@@ -5291,26 +5284,26 @@
     </row>
     <row r="131">
       <c r="A131" s="1">
-        <v>143.0</v>
+        <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J131" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" s="16">
-        <v>44626.0</v>
+        <v>44625.125</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" si="7"/>
-        <v>1646524800000</v>
+        <f t="shared" si="8"/>
+        <v>1646449200000</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>16</v>
@@ -5319,249 +5312,192 @@
     </row>
     <row r="132">
       <c r="A132" s="1">
-        <v>144.0</v>
+        <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="D132" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M132" s="1">
-        <v>141.0</v>
+        <v>1</v>
+      </c>
+      <c r="J132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K132" s="16">
+        <v>44625.71875</v>
+      </c>
+      <c r="L132" s="1">
+        <f t="shared" si="8"/>
+        <v>1646500500000</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N132" s="6"/>
     </row>
     <row r="133">
       <c r="A133" s="1">
-        <v>145.0</v>
+        <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="D133" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M133" s="1">
-        <v>142.0</v>
+        <v>1</v>
+      </c>
+      <c r="J133" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K133" s="16">
+        <v>44626.5</v>
+      </c>
+      <c r="L133" s="1">
+        <f t="shared" si="8"/>
+        <v>1646568000000</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N133" s="6"/>
     </row>
     <row r="134">
       <c r="A134" s="1">
-        <v>146.0</v>
+        <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
       </c>
       <c r="M134" s="1">
-        <v>142.0</v>
+        <v>151.0</v>
       </c>
       <c r="N134" s="6"/>
     </row>
     <row r="135">
       <c r="A135" s="1">
-        <v>147.0</v>
+        <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D135" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K135" s="14">
-        <v>44620.666666666664</v>
-      </c>
-      <c r="L135" s="1">
-        <f t="shared" ref="L135:L141" si="8">(K135-Date(1970,1,1))*86400*1000</f>
-        <v>1646064000000</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M135" s="1">
+        <v>151.0</v>
       </c>
       <c r="N135" s="6"/>
     </row>
     <row r="136">
       <c r="A136" s="1">
-        <v>148.0</v>
+        <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="D136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E136" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K136" s="16">
-        <v>44622.625</v>
-      </c>
-      <c r="L136" s="1">
-        <f t="shared" si="8"/>
-        <v>1646233200000</v>
-      </c>
-      <c r="M136" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M136" s="1">
+        <v>151.0</v>
       </c>
       <c r="N136" s="6"/>
     </row>
     <row r="137">
       <c r="A137" s="1">
-        <v>149.0</v>
+        <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D137" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K137" s="16">
-        <v>44623.708333333336</v>
-      </c>
-      <c r="L137" s="1">
-        <f t="shared" si="8"/>
-        <v>1646326800000</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M137" s="1">
+        <v>148.0</v>
       </c>
       <c r="N137" s="6"/>
     </row>
     <row r="138">
       <c r="A138" s="1">
-        <v>150.0</v>
+        <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="D138" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K138" s="16">
-        <v>44624.708333333336</v>
-      </c>
-      <c r="L138" s="1">
-        <f t="shared" si="8"/>
-        <v>1646413200000</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M138" s="1">
+        <v>153.0</v>
       </c>
       <c r="N138" s="6"/>
     </row>
     <row r="139">
       <c r="A139" s="1">
-        <v>151.0</v>
+        <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="D139" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K139" s="16">
-        <v>44625.125</v>
-      </c>
-      <c r="L139" s="1">
-        <f t="shared" si="8"/>
-        <v>1646449200000</v>
-      </c>
-      <c r="M139" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M139" s="1">
+        <v>153.0</v>
       </c>
       <c r="N139" s="6"/>
     </row>
     <row r="140">
       <c r="A140" s="1">
-        <v>152.0</v>
+        <v>160.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>237</v>
+        <v>13</v>
       </c>
       <c r="D140" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K140" s="16">
-        <v>44625.71875</v>
-      </c>
-      <c r="L140" s="1">
-        <f t="shared" si="8"/>
-        <v>1646500500000</v>
-      </c>
-      <c r="M140" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M140" s="1">
+        <v>153.0</v>
       </c>
       <c r="N140" s="6"/>
     </row>
     <row r="141">
       <c r="A141" s="1">
-        <v>153.0</v>
+        <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E141" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
       <c r="J141" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K141" s="16">
-        <v>44626.5</v>
+        <v>0</v>
+      </c>
+      <c r="K141" s="14">
+        <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" si="8"/>
-        <v>1646568000000</v>
+        <f t="shared" ref="L141:L161" si="9">(K141-Date(1970,1,1))*86400*1000</f>
+        <v>1646107200000</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>16</v>
@@ -5570,124 +5506,228 @@
     </row>
     <row r="142">
       <c r="A142" s="1">
-        <v>154.0</v>
+        <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D142" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M142" s="1">
-        <v>151.0</v>
+        <v>1</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K142" s="14">
+        <v>44622.166666666664</v>
+      </c>
+      <c r="L142" s="1">
+        <f t="shared" si="9"/>
+        <v>1646193600000</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N142" s="6"/>
     </row>
     <row r="143">
       <c r="A143" s="1">
-        <v>155.0</v>
+        <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D143" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D143" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M143" s="1">
-        <v>151.0</v>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K143" s="14">
+        <v>44623.166666666664</v>
+      </c>
+      <c r="L143" s="1">
+        <f t="shared" si="9"/>
+        <v>1646280000000</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N143" s="6"/>
     </row>
     <row r="144">
       <c r="A144" s="1">
-        <v>156.0</v>
+        <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>209</v>
+        <v>233</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D144" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" s="1">
-        <v>151.0</v>
+        <v>1</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K144" s="14">
+        <v>44624.125</v>
+      </c>
+      <c r="L144" s="1">
+        <f t="shared" si="9"/>
+        <v>1646362800000</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N144" s="6"/>
     </row>
     <row r="145">
       <c r="A145" s="1">
-        <v>157.0</v>
+        <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="D145" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" s="1">
-        <v>148.0</v>
+        <v>1</v>
+      </c>
+      <c r="J145" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K145" s="14">
+        <v>44625.125</v>
+      </c>
+      <c r="L145" s="1">
+        <f t="shared" si="9"/>
+        <v>1646449200000</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N145" s="6"/>
     </row>
     <row r="146">
       <c r="A146" s="1">
-        <v>158.0</v>
+        <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="D146" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M146" s="1">
-        <v>153.0</v>
+        <v>1</v>
+      </c>
+      <c r="J146" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K146" s="14">
+        <v>44625.458333333336</v>
+      </c>
+      <c r="L146" s="1">
+        <f t="shared" si="9"/>
+        <v>1646478000000</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N146" s="6"/>
     </row>
     <row r="147">
       <c r="A147" s="1">
-        <v>159.0</v>
+        <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="D147" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M147" s="1">
-        <v>153.0</v>
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K147" s="14">
+        <v>44626.125</v>
+      </c>
+      <c r="L147" s="1">
+        <f t="shared" si="9"/>
+        <v>1646535600000</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N147" s="6"/>
     </row>
     <row r="148">
       <c r="A148" s="1">
-        <v>160.0</v>
+        <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>13</v>
+        <v>233</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="D148" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M148" s="1">
-        <v>153.0</v>
+        <v>1</v>
+      </c>
+      <c r="J148" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K148" s="14">
+        <v>44626.5</v>
+      </c>
+      <c r="L148" s="1">
+        <f t="shared" si="9"/>
+        <v>1646568000000</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N148" s="6"/>
     </row>
     <row r="149">
       <c r="A149" s="1">
-        <v>161.0</v>
+        <v>169.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5698,7 +5738,7 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
-        <f t="shared" ref="L149:L169" si="9">(K149-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" si="9"/>
         <v>1646107200000</v>
       </c>
       <c r="M149" s="1" t="s">
@@ -5708,19 +5748,19 @@
     </row>
     <row r="150">
       <c r="A150" s="1">
-        <v>162.0</v>
+        <v>170.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5741,31 +5781,31 @@
     </row>
     <row r="151">
       <c r="A151" s="1">
-        <v>163.0</v>
+        <v>171.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K151" s="14">
-        <v>44623.166666666664</v>
+        <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
         <f t="shared" si="9"/>
-        <v>1646280000000</v>
+        <v>1646272800000</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>16</v>
@@ -5774,29 +5814,29 @@
     </row>
     <row r="152">
       <c r="A152" s="1">
-        <v>164.0</v>
+        <v>172.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K152" s="14">
-        <v>44624.125</v>
+        <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
         <f t="shared" si="9"/>
-        <v>1646362800000</v>
+        <v>1646359200000</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>16</v>
@@ -5805,26 +5845,29 @@
     </row>
     <row r="153">
       <c r="A153" s="1">
-        <v>165.0</v>
+        <v>173.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E153" s="7" t="s">
+        <v>254</v>
+      </c>
       <c r="J153" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K153" s="14">
-        <v>44625.125</v>
+        <v>44624.5</v>
       </c>
       <c r="L153" s="1">
         <f t="shared" si="9"/>
-        <v>1646449200000</v>
+        <v>1646395200000</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>16</v>
@@ -5833,13 +5876,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1">
-        <v>166.0</v>
+        <v>174.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
@@ -5848,11 +5891,11 @@
         <v>0</v>
       </c>
       <c r="K154" s="14">
-        <v>44625.458333333336</v>
+        <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
         <f t="shared" si="9"/>
-        <v>1646478000000</v>
+        <v>1646452800000</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>16</v>
@@ -5861,13 +5904,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1">
-        <v>167.0</v>
+        <v>175.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
@@ -5876,11 +5919,11 @@
         <v>0</v>
       </c>
       <c r="K155" s="14">
-        <v>44626.125</v>
+        <v>44626.166666666664</v>
       </c>
       <c r="L155" s="1">
         <f t="shared" si="9"/>
-        <v>1646535600000</v>
+        <v>1646539200000</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>16</v>
@@ -5889,26 +5932,31 @@
     </row>
     <row r="156">
       <c r="A156" s="1">
-        <v>168.0</v>
+        <v>176.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E156" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
       <c r="J156" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K156" s="14">
-        <v>44626.5</v>
+        <v>44621.5</v>
       </c>
       <c r="L156" s="1">
         <f t="shared" si="9"/>
-        <v>1646568000000</v>
+        <v>1646136000000</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>16</v>
@@ -5917,19 +5965,19 @@
     </row>
     <row r="157">
       <c r="A157" s="1">
-        <v>169.0</v>
+        <v>177.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5937,11 +5985,11 @@
         <v>0</v>
       </c>
       <c r="K157" s="14">
-        <v>44621.166666666664</v>
+        <v>44622.5</v>
       </c>
       <c r="L157" s="1">
         <f t="shared" si="9"/>
-        <v>1646107200000</v>
+        <v>1646222400000</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>16</v>
@@ -5950,19 +5998,19 @@
     </row>
     <row r="158">
       <c r="A158" s="1">
-        <v>170.0</v>
+        <v>178.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -5970,11 +6018,11 @@
         <v>0</v>
       </c>
       <c r="K158" s="14">
-        <v>44622.166666666664</v>
+        <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
         <f t="shared" si="9"/>
-        <v>1646193600000</v>
+        <v>1646305200000</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>16</v>
@@ -5983,31 +6031,29 @@
     </row>
     <row r="159">
       <c r="A159" s="1">
-        <v>171.0</v>
+        <v>179.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
+        <v>264</v>
+      </c>
       <c r="J159" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K159" s="14">
-        <v>44623.083333333336</v>
+        <v>0</v>
+      </c>
+      <c r="K159" s="21">
+        <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
         <f t="shared" si="9"/>
-        <v>1646272800000</v>
+        <v>1646391600000</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>16</v>
@@ -6016,26 +6062,29 @@
     </row>
     <row r="160">
       <c r="A160" s="1">
-        <v>172.0</v>
+        <v>180.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F160" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J160" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" s="14">
-        <v>44624.083333333336</v>
+        <v>44625.5</v>
       </c>
       <c r="L160" s="1">
         <f t="shared" si="9"/>
-        <v>1646359200000</v>
+        <v>1646481600000</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>16</v>
@@ -6044,13 +6093,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1">
-        <v>173.0</v>
+        <v>181.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
@@ -6059,11 +6108,11 @@
         <v>1</v>
       </c>
       <c r="K161" s="14">
-        <v>44624.5</v>
+        <v>44626.5</v>
       </c>
       <c r="L161" s="1">
         <f t="shared" si="9"/>
-        <v>1646395200000</v>
+        <v>1646568000000</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>16</v>
@@ -6072,75 +6121,49 @@
     </row>
     <row r="162">
       <c r="A162" s="1">
-        <v>174.0</v>
+        <v>182.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="D162" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K162" s="14">
-        <v>44625.166666666664</v>
-      </c>
-      <c r="L162" s="1">
-        <f t="shared" si="9"/>
-        <v>1646452800000</v>
-      </c>
-      <c r="M162" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M162" s="1">
+        <v>72.0</v>
       </c>
       <c r="N162" s="6"/>
     </row>
     <row r="163">
       <c r="A163" s="1">
-        <v>175.0</v>
+        <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="D163" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K163" s="14">
-        <v>44626.166666666664</v>
-      </c>
-      <c r="L163" s="1">
-        <f t="shared" si="9"/>
-        <v>1646539200000</v>
-      </c>
-      <c r="M163" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M163" s="1">
+        <v>180.0</v>
       </c>
       <c r="N163" s="6"/>
     </row>
     <row r="164">
       <c r="A164" s="1">
-        <v>176.0</v>
+        <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -6148,11 +6171,11 @@
         <v>0</v>
       </c>
       <c r="K164" s="14">
-        <v>44621.5</v>
+        <v>44622.75</v>
       </c>
       <c r="L164" s="1">
-        <f t="shared" si="9"/>
-        <v>1646136000000</v>
+        <f t="shared" ref="L164:L168" si="10">(K164-Date(1970,1,1))*86400*1000</f>
+        <v>1646244000000</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>16</v>
@@ -6161,31 +6184,29 @@
     </row>
     <row r="165">
       <c r="A165" s="1">
-        <v>177.0</v>
+        <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
+        <v>271</v>
+      </c>
       <c r="J165" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K165" s="14">
-        <v>44622.5</v>
+        <v>44623.75</v>
       </c>
       <c r="L165" s="1">
-        <f t="shared" si="9"/>
-        <v>1646222400000</v>
+        <f t="shared" si="10"/>
+        <v>1646330400000</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>16</v>
@@ -6194,31 +6215,29 @@
     </row>
     <row r="166">
       <c r="A166" s="1">
-        <v>178.0</v>
+        <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+        <v>271</v>
+      </c>
       <c r="J166" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K166" s="14">
-        <v>44623.458333333336</v>
+      <c r="K166" s="21">
+        <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
-        <f t="shared" si="9"/>
-        <v>1646305200000</v>
+        <f t="shared" si="10"/>
+        <v>1646366400000</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>16</v>
@@ -6227,29 +6246,26 @@
     </row>
     <row r="167">
       <c r="A167" s="1">
-        <v>179.0</v>
+        <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>56</v>
+        <v>267</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E167" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="J167" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K167" s="21">
-        <v>44624.458333333336</v>
+        <v>1</v>
+      </c>
+      <c r="K167" s="14">
+        <v>44625.125</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="9"/>
-        <v>1646391600000</v>
+        <f t="shared" si="10"/>
+        <v>1646449200000</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>16</v>
@@ -6258,29 +6274,31 @@
     </row>
     <row r="168">
       <c r="A168" s="1">
-        <v>180.0</v>
+        <v>188.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F168" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E168" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H168" s="1"/>
+      <c r="I168" s="1"/>
       <c r="J168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K168" s="14">
-        <v>44625.5</v>
+      <c r="K168" s="5">
+        <v>44624.041666666664</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="9"/>
-        <v>1646481600000</v>
+        <f t="shared" si="10"/>
+        <v>1646355600000</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>16</v>
@@ -6289,89 +6307,107 @@
     </row>
     <row r="169">
       <c r="A169" s="1">
-        <v>181.0</v>
+        <v>189.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>272</v>
+        <v>29</v>
       </c>
       <c r="D169" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K169" s="14">
-        <v>44626.5</v>
-      </c>
-      <c r="L169" s="1">
-        <f t="shared" si="9"/>
-        <v>1646568000000</v>
-      </c>
-      <c r="M169" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="M169" s="1">
+        <v>188.0</v>
       </c>
       <c r="N169" s="6"/>
     </row>
     <row r="170">
       <c r="A170" s="1">
-        <v>182.0</v>
+        <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>29</v>
+        <v>202</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>276</v>
       </c>
       <c r="D170" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M170" s="1">
-        <v>72.0</v>
+        <v>1</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H170" s="1"/>
+      <c r="I170" s="1"/>
+      <c r="J170" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K170" s="5">
+        <v>44621.916666666664</v>
+      </c>
+      <c r="L170" s="1">
+        <f t="shared" ref="L170:L199" si="11">(K170-Date(1970,1,1))*86400*1000</f>
+        <v>1646172000000</v>
+      </c>
+      <c r="M170" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N170" s="6"/>
     </row>
     <row r="171">
       <c r="A171" s="1">
-        <v>183.0</v>
+        <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>279</v>
       </c>
       <c r="D171" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" s="1">
-        <v>180.0</v>
+        <v>1</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="K171" s="21">
+        <v>44623.666666666664</v>
+      </c>
+      <c r="L171" s="1">
+        <f t="shared" si="11"/>
+        <v>1646323200000</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N171" s="6"/>
     </row>
     <row r="172">
       <c r="A172" s="1">
-        <v>184.0</v>
+        <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D172" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1" t="b">
-        <v>0</v>
+      <c r="J172" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="K172" s="14">
-        <v>44622.75</v>
+        <v>44624.666666666664</v>
       </c>
       <c r="L172" s="1">
-        <f t="shared" ref="L172:L176" si="10">(K172-Date(1970,1,1))*86400*1000</f>
-        <v>1646244000000</v>
+        <f t="shared" si="11"/>
+        <v>1646409600000</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>16</v>
@@ -6380,29 +6416,31 @@
     </row>
     <row r="173">
       <c r="A173" s="1">
-        <v>185.0</v>
+        <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>276</v>
+        <v>71</v>
       </c>
       <c r="D173" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J173" s="1" t="b">
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="22" t="s">
+        <v>278</v>
       </c>
       <c r="K173" s="14">
-        <v>44623.75</v>
+        <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
-        <f t="shared" si="10"/>
-        <v>1646330400000</v>
+        <f t="shared" si="11"/>
+        <v>1646161200000</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>16</v>
@@ -6411,29 +6449,26 @@
     </row>
     <row r="174">
       <c r="A174" s="1">
-        <v>186.0</v>
+        <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="D174" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="J174" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K174" s="21">
-        <v>44624.166666666664</v>
+      <c r="K174" s="14">
+        <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
-        <f t="shared" si="10"/>
-        <v>1646366400000</v>
+        <f t="shared" si="11"/>
+        <v>1646337600000</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>16</v>
@@ -6442,26 +6477,31 @@
     </row>
     <row r="175">
       <c r="A175" s="1">
-        <v>187.0</v>
+        <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="D175" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E175" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H175" s="1"/>
+      <c r="I175" s="1"/>
       <c r="J175" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K175" s="14">
-        <v>44625.125</v>
+        <v>0</v>
+      </c>
+      <c r="K175" s="5">
+        <v>44619.916666666664</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" si="10"/>
-        <v>1646449200000</v>
+        <f t="shared" si="11"/>
+        <v>1645999200000</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>16</v>
@@ -6470,31 +6510,31 @@
     </row>
     <row r="176">
       <c r="A176" s="1">
-        <v>188.0</v>
+        <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>51</v>
+        <v>284</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176" s="5">
-        <v>44624.041666666664</v>
+        <v>44621.0</v>
       </c>
       <c r="L176" s="1">
-        <f t="shared" si="10"/>
-        <v>1646355600000</v>
+        <f t="shared" si="11"/>
+        <v>1646092800000</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>16</v>
@@ -6503,45 +6543,64 @@
     </row>
     <row r="177">
       <c r="A177" s="1">
-        <v>189.0</v>
+        <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>29</v>
+        <v>284</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="D177" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="M177" s="1">
-        <v>188.0</v>
+        <v>1</v>
+      </c>
+      <c r="H177" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K177" s="18">
+        <v>44621.916666666664</v>
+      </c>
+      <c r="L177" s="1">
+        <f t="shared" si="11"/>
+        <v>1646172000000</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="N177" s="6"/>
     </row>
     <row r="178">
       <c r="A178" s="1">
-        <v>190.0</v>
+        <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
+      </c>
+      <c r="G178" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K178" s="5">
+      <c r="J178" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K178" s="18">
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
-        <f t="shared" ref="L178:L198" si="11">(K178-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" si="11"/>
         <v>1646172000000</v>
       </c>
       <c r="M178" s="1" t="s">
@@ -6551,31 +6610,33 @@
     </row>
     <row r="179">
       <c r="A179" s="1">
-        <v>191.0</v>
+        <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K179" s="21">
-        <v>44623.666666666664</v>
+      <c r="E179" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H179" s="1"/>
+      <c r="I179" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K179" s="5">
+        <v>44622.958333333336</v>
       </c>
       <c r="L179" s="1">
         <f t="shared" si="11"/>
-        <v>1646323200000</v>
+        <v>1646262000000</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>16</v>
@@ -6584,26 +6645,29 @@
     </row>
     <row r="180">
       <c r="A180" s="1">
-        <v>192.0</v>
+        <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J180" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K180" s="14">
-        <v>44624.666666666664</v>
+      <c r="H180" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K180" s="5">
+        <v>44625.041666666664</v>
       </c>
       <c r="L180" s="1">
         <f t="shared" si="11"/>
-        <v>1646409600000</v>
+        <v>1646442000000</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>16</v>
@@ -6612,31 +6676,32 @@
     </row>
     <row r="181">
       <c r="A181" s="1">
-        <v>193.0</v>
+        <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K181" s="14">
-        <v>44621.791666666664</v>
+        <v>294</v>
+      </c>
+      <c r="I181" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K181" s="5">
+        <v>44625.041666666664</v>
       </c>
       <c r="L181" s="1">
         <f t="shared" si="11"/>
-        <v>1646161200000</v>
+        <v>1646442000000</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>16</v>
@@ -6645,26 +6710,34 @@
     </row>
     <row r="182">
       <c r="A182" s="1">
-        <v>194.0</v>
+        <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J182" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="K182" s="14">
-        <v>44623.833333333336</v>
+      <c r="E182" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K182" s="5">
+        <v>44623.916666666664</v>
       </c>
       <c r="L182" s="1">
         <f t="shared" si="11"/>
-        <v>1646337600000</v>
+        <v>1646344800000</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>16</v>
@@ -6673,31 +6746,26 @@
     </row>
     <row r="183">
       <c r="A183" s="1">
-        <v>195.0</v>
+        <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>80</v>
+        <v>297</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E183" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
       <c r="J183" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183" s="5">
-        <v>44619.916666666664</v>
+        <v>44626.083333333336</v>
       </c>
       <c r="L183" s="1">
         <f t="shared" si="11"/>
-        <v>1645999200000</v>
+        <v>1646532000000</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>16</v>
@@ -6706,31 +6774,31 @@
     </row>
     <row r="184">
       <c r="A184" s="1">
-        <v>196.0</v>
+        <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K184" s="5">
-        <v>44621.0</v>
+      <c r="K184" s="18">
+        <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
         <f t="shared" si="11"/>
-        <v>1646092800000</v>
+        <v>1645970400000</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>16</v>
@@ -6739,29 +6807,31 @@
     </row>
     <row r="185">
       <c r="A185" s="1">
-        <v>197.0</v>
+        <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H185" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="E185" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
       <c r="J185" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K185" s="18">
-        <v>44621.916666666664</v>
+      <c r="K185" s="5">
+        <v>44620.666666666664</v>
       </c>
       <c r="L185" s="1">
         <f t="shared" si="11"/>
-        <v>1646172000000</v>
+        <v>1646064000000</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>16</v>
@@ -6770,29 +6840,26 @@
     </row>
     <row r="186">
       <c r="A186" s="1">
-        <v>198.0</v>
+        <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G186" s="1" t="b">
-        <v>1</v>
+        <v>304</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K186" s="18">
+      <c r="K186" s="5">
         <v>44621.916666666664</v>
       </c>
       <c r="L186" s="1">
@@ -6806,33 +6873,31 @@
     </row>
     <row r="187">
       <c r="A187" s="1">
-        <v>199.0</v>
+        <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H187" s="1"/>
-      <c r="I187" s="1" t="b">
-        <v>1</v>
-      </c>
+      <c r="I187" s="1"/>
       <c r="J187" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K187" s="5">
-        <v>44622.958333333336</v>
+        <v>44622.916666666664</v>
       </c>
       <c r="L187" s="1">
         <f t="shared" si="11"/>
-        <v>1646262000000</v>
+        <v>1646258400000</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>16</v>
@@ -6841,29 +6906,29 @@
     </row>
     <row r="188">
       <c r="A188" s="1">
-        <v>200.0</v>
+        <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H188" s="1" t="b">
+      <c r="F188" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J188" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K188" s="5">
-        <v>44625.041666666664</v>
+        <v>44624.041666666664</v>
       </c>
       <c r="L188" s="1">
         <f t="shared" si="11"/>
-        <v>1646442000000</v>
+        <v>1646355600000</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>16</v>
@@ -6872,29 +6937,26 @@
     </row>
     <row r="189">
       <c r="A189" s="1">
-        <v>201.0</v>
+        <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I189" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J189" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K189" s="5">
-        <v>44625.041666666664</v>
+        <v>44625.583333333336</v>
       </c>
       <c r="L189" s="1">
         <f t="shared" si="11"/>
-        <v>1646442000000</v>
+        <v>1646488800000</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>16</v>
@@ -6903,62 +6965,64 @@
     </row>
     <row r="190">
       <c r="A190" s="1">
-        <v>202.0</v>
+        <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E190" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G190" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="4"/>
-      <c r="I190" s="4"/>
+      <c r="E190" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I190" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J190" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K190" s="5">
-        <v>44623.916666666664</v>
+        <v>44623.958333333336</v>
       </c>
       <c r="L190" s="1">
         <f t="shared" si="11"/>
-        <v>1646344800000</v>
+        <v>1646348400000</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N190" s="6"/>
     </row>
     <row r="191">
       <c r="A191" s="1">
-        <v>203.0</v>
+        <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E191" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
       <c r="J191" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K191" s="5">
-        <v>44626.083333333336</v>
+        <v>44619.5</v>
       </c>
       <c r="L191" s="1">
         <f t="shared" si="11"/>
-        <v>1646532000000</v>
+        <v>1645963200000</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>16</v>
@@ -6967,31 +7031,31 @@
     </row>
     <row r="192">
       <c r="A192" s="1">
-        <v>204.0</v>
+        <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="D192" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="18">
-        <v>44619.583333333336</v>
+      <c r="K192" s="5">
+        <v>44620.5</v>
       </c>
       <c r="L192" s="1">
         <f t="shared" si="11"/>
-        <v>1645970400000</v>
+        <v>1646049600000</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>16</v>
@@ -7000,19 +7064,19 @@
     </row>
     <row r="193">
       <c r="A193" s="1">
-        <v>205.0</v>
+        <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -7020,11 +7084,11 @@
         <v>0</v>
       </c>
       <c r="K193" s="5">
-        <v>44620.666666666664</v>
+        <v>44621.541666666664</v>
       </c>
       <c r="L193" s="1">
         <f t="shared" si="11"/>
-        <v>1646064000000</v>
+        <v>1646139600000</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>16</v>
@@ -7033,19 +7097,19 @@
     </row>
     <row r="194">
       <c r="A194" s="1">
-        <v>206.0</v>
+        <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -7053,11 +7117,11 @@
         <v>0</v>
       </c>
       <c r="K194" s="5">
-        <v>44621.916666666664</v>
+        <v>44622.5</v>
       </c>
       <c r="L194" s="1">
         <f t="shared" si="11"/>
-        <v>1646172000000</v>
+        <v>1646222400000</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>16</v>
@@ -7066,31 +7130,29 @@
     </row>
     <row r="195">
       <c r="A195" s="1">
-        <v>207.0</v>
+        <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
+        <v>320</v>
+      </c>
       <c r="J195" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K195" s="5">
-        <v>44622.916666666664</v>
+        <v>44623.541666666664</v>
       </c>
       <c r="L195" s="1">
         <f t="shared" si="11"/>
-        <v>1646258400000</v>
+        <v>1646312400000</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>16</v>
@@ -7099,13 +7161,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1">
-        <v>208.0</v>
+        <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
@@ -7114,11 +7176,11 @@
         <v>0</v>
       </c>
       <c r="K196" s="5">
-        <v>44624.041666666664</v>
+        <v>44624.5</v>
       </c>
       <c r="L196" s="1">
         <f t="shared" si="11"/>
-        <v>1646355600000</v>
+        <v>1646395200000</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>16</v>
@@ -7127,13 +7189,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1">
-        <v>209.0</v>
+        <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
@@ -7142,11 +7204,11 @@
         <v>0</v>
       </c>
       <c r="K197" s="5">
-        <v>44625.583333333336</v>
+        <v>44624.875</v>
       </c>
       <c r="L197" s="1">
         <f t="shared" si="11"/>
-        <v>1646488800000</v>
+        <v>1646427600000</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>16</v>
@@ -7155,34 +7217,62 @@
     </row>
     <row r="198">
       <c r="A198" s="1">
-        <v>210.0</v>
+        <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E198" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="I198" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J198" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K198" s="5">
-        <v>44623.958333333336</v>
+        <v>44626.083333333336</v>
       </c>
       <c r="L198" s="1">
         <f t="shared" si="11"/>
-        <v>1646348400000</v>
+        <v>1646532000000</v>
       </c>
       <c r="M198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N198" s="6"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1">
+        <v>219.0</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D199" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I199" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K199" s="5">
+        <v>44624.416666666664</v>
+      </c>
+      <c r="L199" s="1">
+        <f t="shared" si="11"/>
+        <v>1646388000000</v>
+      </c>
+      <c r="M199" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7224,84 +7314,93 @@
     <hyperlink r:id="rId34" ref="E43"/>
     <hyperlink r:id="rId35" ref="E44"/>
     <hyperlink r:id="rId36" ref="E45"/>
-    <hyperlink r:id="rId37" ref="E48"/>
-    <hyperlink r:id="rId38" ref="E49"/>
-    <hyperlink r:id="rId39" ref="E50"/>
-    <hyperlink r:id="rId40" ref="E51"/>
-    <hyperlink r:id="rId41" ref="E52"/>
-    <hyperlink r:id="rId42" ref="E55"/>
-    <hyperlink r:id="rId43" ref="E56"/>
-    <hyperlink r:id="rId44" ref="E57"/>
-    <hyperlink r:id="rId45" ref="E58"/>
-    <hyperlink r:id="rId46" ref="E59"/>
-    <hyperlink r:id="rId47" ref="E61"/>
-    <hyperlink r:id="rId48" ref="E62"/>
-    <hyperlink r:id="rId49" ref="E63"/>
-    <hyperlink r:id="rId50" ref="E64"/>
-    <hyperlink r:id="rId51" ref="E65"/>
-    <hyperlink r:id="rId52" ref="E66"/>
-    <hyperlink r:id="rId53" ref="E70"/>
-    <hyperlink r:id="rId54" ref="E71"/>
-    <hyperlink r:id="rId55" ref="E72"/>
-    <hyperlink r:id="rId56" ref="E76"/>
-    <hyperlink r:id="rId57" ref="E77"/>
-    <hyperlink r:id="rId58" ref="E78"/>
-    <hyperlink r:id="rId59" ref="E79"/>
-    <hyperlink r:id="rId60" ref="E80"/>
-    <hyperlink r:id="rId61" ref="E83"/>
-    <hyperlink r:id="rId62" ref="E84"/>
-    <hyperlink r:id="rId63" ref="E85"/>
-    <hyperlink r:id="rId64" ref="E88"/>
-    <hyperlink r:id="rId65" ref="E89"/>
-    <hyperlink r:id="rId66" ref="E90"/>
-    <hyperlink r:id="rId67" ref="E92"/>
-    <hyperlink r:id="rId68" ref="E96"/>
-    <hyperlink r:id="rId69" ref="E97"/>
-    <hyperlink r:id="rId70" ref="E98"/>
-    <hyperlink r:id="rId71" ref="E101"/>
-    <hyperlink r:id="rId72" ref="E102"/>
-    <hyperlink r:id="rId73" ref="E103"/>
-    <hyperlink r:id="rId74" ref="E104"/>
-    <hyperlink r:id="rId75" ref="E111"/>
-    <hyperlink r:id="rId76" ref="E112"/>
-    <hyperlink r:id="rId77" ref="E113"/>
-    <hyperlink r:id="rId78" ref="E114"/>
-    <hyperlink r:id="rId79" ref="E123"/>
-    <hyperlink r:id="rId80" ref="E124"/>
-    <hyperlink r:id="rId81" ref="E125"/>
-    <hyperlink r:id="rId82" ref="E126"/>
-    <hyperlink r:id="rId83" ref="E127"/>
-    <hyperlink r:id="rId84" ref="E136"/>
-    <hyperlink r:id="rId85" ref="E137"/>
-    <hyperlink r:id="rId86" ref="E149"/>
-    <hyperlink r:id="rId87" ref="E150"/>
-    <hyperlink r:id="rId88" ref="E151"/>
-    <hyperlink r:id="rId89" ref="E152"/>
-    <hyperlink r:id="rId90" ref="E157"/>
-    <hyperlink r:id="rId91" ref="E158"/>
-    <hyperlink r:id="rId92" ref="E159"/>
-    <hyperlink r:id="rId93" ref="E164"/>
-    <hyperlink r:id="rId94" ref="E165"/>
-    <hyperlink r:id="rId95" ref="E166"/>
-    <hyperlink r:id="rId96" ref="E167"/>
-    <hyperlink r:id="rId97" ref="E172"/>
-    <hyperlink r:id="rId98" ref="E173"/>
-    <hyperlink r:id="rId99" ref="E174"/>
-    <hyperlink r:id="rId100" ref="E176"/>
-    <hyperlink r:id="rId101" ref="E178"/>
-    <hyperlink r:id="rId102" ref="E179"/>
-    <hyperlink r:id="rId103" ref="E181"/>
-    <hyperlink r:id="rId104" ref="E183"/>
-    <hyperlink r:id="rId105" ref="E184"/>
-    <hyperlink r:id="rId106" ref="E186"/>
-    <hyperlink r:id="rId107" ref="E187"/>
-    <hyperlink r:id="rId108" ref="E190"/>
-    <hyperlink r:id="rId109" ref="E192"/>
-    <hyperlink r:id="rId110" ref="E193"/>
-    <hyperlink r:id="rId111" ref="E194"/>
-    <hyperlink r:id="rId112" ref="E195"/>
-    <hyperlink r:id="rId113" ref="E198"/>
+    <hyperlink r:id="rId37" ref="E46"/>
+    <hyperlink r:id="rId38" ref="E48"/>
+    <hyperlink r:id="rId39" ref="E49"/>
+    <hyperlink r:id="rId40" ref="E50"/>
+    <hyperlink r:id="rId41" ref="E51"/>
+    <hyperlink r:id="rId42" ref="E52"/>
+    <hyperlink r:id="rId43" ref="E55"/>
+    <hyperlink r:id="rId44" ref="E56"/>
+    <hyperlink r:id="rId45" ref="E57"/>
+    <hyperlink r:id="rId46" ref="E58"/>
+    <hyperlink r:id="rId47" ref="E59"/>
+    <hyperlink r:id="rId48" ref="E61"/>
+    <hyperlink r:id="rId49" ref="E62"/>
+    <hyperlink r:id="rId50" ref="E63"/>
+    <hyperlink r:id="rId51" ref="E64"/>
+    <hyperlink r:id="rId52" ref="E68"/>
+    <hyperlink r:id="rId53" ref="E69"/>
+    <hyperlink r:id="rId54" ref="E70"/>
+    <hyperlink r:id="rId55" ref="E71"/>
+    <hyperlink r:id="rId56" ref="E72"/>
+    <hyperlink r:id="rId57" ref="E75"/>
+    <hyperlink r:id="rId58" ref="E76"/>
+    <hyperlink r:id="rId59" ref="E77"/>
+    <hyperlink r:id="rId60" ref="E78"/>
+    <hyperlink r:id="rId61" ref="E80"/>
+    <hyperlink r:id="rId62" ref="E81"/>
+    <hyperlink r:id="rId63" ref="E82"/>
+    <hyperlink r:id="rId64" ref="E84"/>
+    <hyperlink r:id="rId65" ref="E88"/>
+    <hyperlink r:id="rId66" ref="E89"/>
+    <hyperlink r:id="rId67" ref="E90"/>
+    <hyperlink r:id="rId68" ref="E91"/>
+    <hyperlink r:id="rId69" ref="E93"/>
+    <hyperlink r:id="rId70" ref="E94"/>
+    <hyperlink r:id="rId71" ref="E95"/>
+    <hyperlink r:id="rId72" ref="E96"/>
+    <hyperlink r:id="rId73" ref="E97"/>
+    <hyperlink r:id="rId74" ref="E103"/>
+    <hyperlink r:id="rId75" ref="E104"/>
+    <hyperlink r:id="rId76" ref="E105"/>
+    <hyperlink r:id="rId77" ref="E106"/>
+    <hyperlink r:id="rId78" ref="E115"/>
+    <hyperlink r:id="rId79" ref="E116"/>
+    <hyperlink r:id="rId80" ref="E117"/>
+    <hyperlink r:id="rId81" ref="E118"/>
+    <hyperlink r:id="rId82" ref="E119"/>
+    <hyperlink r:id="rId83" ref="E128"/>
+    <hyperlink r:id="rId84" ref="E129"/>
+    <hyperlink r:id="rId85" ref="E130"/>
+    <hyperlink r:id="rId86" ref="E141"/>
+    <hyperlink r:id="rId87" ref="E142"/>
+    <hyperlink r:id="rId88" ref="E143"/>
+    <hyperlink r:id="rId89" ref="E144"/>
+    <hyperlink r:id="rId90" ref="E149"/>
+    <hyperlink r:id="rId91" ref="E150"/>
+    <hyperlink r:id="rId92" ref="E151"/>
+    <hyperlink r:id="rId93" ref="E152"/>
+    <hyperlink r:id="rId94" ref="E153"/>
+    <hyperlink r:id="rId95" ref="E156"/>
+    <hyperlink r:id="rId96" ref="E157"/>
+    <hyperlink r:id="rId97" ref="E158"/>
+    <hyperlink r:id="rId98" ref="E159"/>
+    <hyperlink r:id="rId99" ref="E164"/>
+    <hyperlink r:id="rId100" ref="E165"/>
+    <hyperlink r:id="rId101" ref="E166"/>
+    <hyperlink r:id="rId102" ref="E168"/>
+    <hyperlink r:id="rId103" ref="E170"/>
+    <hyperlink r:id="rId104" ref="E171"/>
+    <hyperlink r:id="rId105" ref="E173"/>
+    <hyperlink r:id="rId106" ref="E175"/>
+    <hyperlink r:id="rId107" ref="E176"/>
+    <hyperlink r:id="rId108" ref="E178"/>
+    <hyperlink r:id="rId109" ref="E179"/>
+    <hyperlink r:id="rId110" ref="E181"/>
+    <hyperlink r:id="rId111" ref="E182"/>
+    <hyperlink r:id="rId112" ref="E184"/>
+    <hyperlink r:id="rId113" ref="E185"/>
+    <hyperlink r:id="rId114" ref="E186"/>
+    <hyperlink r:id="rId115" ref="E187"/>
+    <hyperlink r:id="rId116" ref="E190"/>
+    <hyperlink r:id="rId117" ref="E191"/>
+    <hyperlink r:id="rId118" ref="E192"/>
+    <hyperlink r:id="rId119" ref="E193"/>
+    <hyperlink r:id="rId120" ref="E194"/>
+    <hyperlink r:id="rId121" ref="E195"/>
+    <hyperlink r:id="rId122" ref="E199"/>
   </hyperlinks>
-  <drawing r:id="rId114"/>
+  <drawing r:id="rId123"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="332">
   <si>
     <t>id</t>
   </si>
@@ -391,6 +391,9 @@
     <t>UNO COLLAB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=B6N8NiDHVcw</t>
+  </si>
+  <si>
     <t>FREE CHATTING</t>
   </si>
   <si>
@@ -601,6 +604,9 @@
     <t>UNO w/Vox Ike</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gGQNr4ftkfw</t>
+  </si>
+  <si>
     <t>STARDEW VALLEY w/Enna Petra Mille</t>
   </si>
   <si>
@@ -781,6 +787,9 @@
     <t>ELDEN RING (HOPEFULLY)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O2T2X_d40k8</t>
+  </si>
+  <si>
     <t>LITTLE NIGHTMAREW II</t>
   </si>
   <si>
@@ -937,6 +946,9 @@
     <t>Ghostrunner - They Will Run</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=s5-CwXP6cBw</t>
+  </si>
+  <si>
     <t>Legatus 505 - Stroytime</t>
   </si>
   <si>
@@ -979,7 +991,13 @@
     <t>THE RADIO STATION</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=CeOYiOyv7wk</t>
+  </si>
+  <si>
     <t>HANG OUT WITH YUGO</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uDfwNE9eXjE</t>
   </si>
   <si>
     <t>READY OR NOT NOCTYX COLLAB</t>
@@ -3278,7 +3296,7 @@
       <c r="D60" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F60" s="1" t="b">
+      <c r="H60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J60" s="1" t="b">
@@ -3441,6 +3459,12 @@
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E65" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J65" s="1" t="b">
         <v>1</v>
       </c>
@@ -3464,7 +3488,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
@@ -3492,7 +3516,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
@@ -3520,13 +3544,13 @@
         <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3553,13 +3577,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3586,13 +3610,13 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3619,13 +3643,13 @@
         <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3652,13 +3676,13 @@
         <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J72" s="1" t="b">
         <v>0</v>
@@ -3683,7 +3707,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
@@ -3736,16 +3760,16 @@
         <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3769,16 +3793,16 @@
         <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3802,16 +3826,16 @@
         <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J77" s="1" t="b">
         <v>0</v>
@@ -3833,16 +3857,16 @@
         <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
@@ -3864,10 +3888,10 @@
         <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
@@ -3892,16 +3916,16 @@
         <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -3925,16 +3949,16 @@
         <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -3958,16 +3982,16 @@
         <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -3991,10 +4015,10 @@
         <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
@@ -4019,16 +4043,16 @@
         <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4052,12 +4076,15 @@
         <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J85" s="1" t="b">
@@ -4080,10 +4107,10 @@
         <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
@@ -4111,10 +4138,10 @@
         <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4139,16 +4166,16 @@
         <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4172,16 +4199,16 @@
         <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4205,16 +4232,16 @@
         <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4238,16 +4265,16 @@
         <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J91" s="1" t="b">
         <v>0</v>
@@ -4269,10 +4296,10 @@
         <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
@@ -4297,16 +4324,16 @@
         <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -4330,16 +4357,16 @@
         <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4363,16 +4390,16 @@
         <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4396,16 +4423,16 @@
         <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
@@ -4427,16 +4454,16 @@
         <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J97" s="1" t="b">
         <v>1</v>
@@ -4458,10 +4485,10 @@
         <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
@@ -4501,7 +4528,7 @@
         <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
@@ -4516,7 +4543,7 @@
         <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
@@ -4531,7 +4558,7 @@
         <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>0</v>
@@ -4546,16 +4573,16 @@
         <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4579,16 +4606,16 @@
         <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4612,16 +4639,16 @@
         <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4645,16 +4672,16 @@
         <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -4678,12 +4705,18 @@
         <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H107" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J107" s="1" t="b">
@@ -4706,10 +4739,10 @@
         <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>1</v>
@@ -4734,10 +4767,10 @@
         <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>1</v>
@@ -4777,7 +4810,7 @@
         <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>0</v>
@@ -4792,7 +4825,7 @@
         <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
@@ -4807,7 +4840,7 @@
         <v>133.0</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4822,7 +4855,7 @@
         <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4837,16 +4870,16 @@
         <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4870,16 +4903,16 @@
         <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4903,16 +4936,16 @@
         <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -4936,16 +4969,16 @@
         <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4969,16 +5002,16 @@
         <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -5002,10 +5035,10 @@
         <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>1</v>
@@ -5030,10 +5063,10 @@
         <v>141.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>1</v>
@@ -5058,10 +5091,10 @@
         <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -5089,10 +5122,10 @@
         <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
@@ -5117,7 +5150,7 @@
         <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
@@ -5132,7 +5165,7 @@
         <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -5147,7 +5180,7 @@
         <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
@@ -5162,10 +5195,10 @@
         <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
@@ -5190,16 +5223,16 @@
         <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5223,16 +5256,16 @@
         <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -5256,16 +5289,16 @@
         <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J130" s="1" t="b">
         <v>0</v>
@@ -5287,10 +5320,10 @@
         <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
@@ -5315,10 +5348,10 @@
         <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
@@ -5343,10 +5376,10 @@
         <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>1</v>
@@ -5371,7 +5404,7 @@
         <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -5386,7 +5419,7 @@
         <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D135" s="1" t="b">
         <v>0</v>
@@ -5401,7 +5434,7 @@
         <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -5416,7 +5449,7 @@
         <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
@@ -5431,7 +5464,7 @@
         <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D138" s="1" t="b">
         <v>0</v>
@@ -5446,7 +5479,7 @@
         <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>0</v>
@@ -5476,16 +5509,16 @@
         <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -5509,16 +5542,16 @@
         <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -5542,16 +5575,16 @@
         <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -5575,16 +5608,16 @@
         <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J144" s="1" t="b">
         <v>0</v>
@@ -5606,10 +5639,10 @@
         <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>1</v>
@@ -5634,10 +5667,10 @@
         <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>1</v>
@@ -5662,10 +5695,10 @@
         <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -5690,10 +5723,10 @@
         <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D148" s="1" t="b">
         <v>1</v>
@@ -5721,13 +5754,13 @@
         <v>44</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5754,13 +5787,13 @@
         <v>44</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5787,13 +5820,13 @@
         <v>44</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5820,13 +5853,13 @@
         <v>44</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
@@ -5851,13 +5884,13 @@
         <v>44</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J153" s="1" t="b">
         <v>1</v>
@@ -5882,10 +5915,13 @@
         <v>44</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="J154" s="1" t="b">
         <v>0</v>
@@ -5910,7 +5946,7 @@
         <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
@@ -5938,13 +5974,13 @@
         <v>56</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5971,13 +6007,13 @@
         <v>56</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -6004,13 +6040,13 @@
         <v>56</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -6037,13 +6073,13 @@
         <v>56</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J159" s="1" t="b">
         <v>0</v>
@@ -6068,7 +6104,7 @@
         <v>56</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
@@ -6099,7 +6135,7 @@
         <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
@@ -6139,7 +6175,7 @@
         <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>0</v>
@@ -6154,16 +6190,16 @@
         <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -6187,16 +6223,16 @@
         <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J165" s="1" t="b">
         <v>0</v>
@@ -6218,16 +6254,16 @@
         <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J166" s="1" t="b">
         <v>0</v>
@@ -6249,10 +6285,10 @@
         <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
@@ -6280,13 +6316,13 @@
         <v>51</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -6325,21 +6361,21 @@
         <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K170" s="5">
         <v>44621.916666666664</v>
@@ -6358,21 +6394,21 @@
         <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K171" s="21">
         <v>44623.666666666664</v>
@@ -6391,16 +6427,19 @@
         <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" s="22" t="s">
         <v>281</v>
-      </c>
-      <c r="D172" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="K172" s="14">
         <v>44624.666666666664</v>
@@ -6419,7 +6458,7 @@
         <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>71</v>
@@ -6428,12 +6467,12 @@
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K173" s="14">
         <v>44621.791666666664</v>
@@ -6452,16 +6491,16 @@
         <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D174" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J174" s="22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K174" s="14">
         <v>44623.833333333336</v>
@@ -6480,7 +6519,7 @@
         <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>80</v>
@@ -6489,7 +6528,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -6513,16 +6552,16 @@
         <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6546,10 +6585,10 @@
         <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D177" s="1" t="b">
         <v>1</v>
@@ -6577,16 +6616,16 @@
         <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G178" s="1" t="b">
         <v>1</v>
@@ -6613,16 +6652,16 @@
         <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1" t="b">
@@ -6648,10 +6687,10 @@
         <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
@@ -6679,16 +6718,16 @@
         <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>1</v>
@@ -6713,16 +6752,16 @@
         <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>1</v>
@@ -6749,10 +6788,10 @@
         <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>1</v>
@@ -6777,16 +6816,16 @@
         <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6810,16 +6849,16 @@
         <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6843,16 +6882,16 @@
         <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6876,16 +6915,16 @@
         <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -6909,26 +6948,26 @@
         <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F188" s="1" t="b">
-        <v>1</v>
+      <c r="E188" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="J188" s="1" t="b">
         <v>0</v>
       </c>
       <c r="K188" s="5">
-        <v>44624.041666666664</v>
+        <v>44625.041666666664</v>
       </c>
       <c r="L188" s="1">
         <f t="shared" si="11"/>
-        <v>1646355600000</v>
+        <v>1646442000000</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>16</v>
@@ -6940,10 +6979,10 @@
         <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
@@ -6968,16 +7007,16 @@
         <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
@@ -7001,16 +7040,16 @@
         <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -7034,7 +7073,7 @@
         <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>80</v>
@@ -7043,7 +7082,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -7067,16 +7106,16 @@
         <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -7100,16 +7139,16 @@
         <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -7133,16 +7172,16 @@
         <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="J195" s="1" t="b">
         <v>0</v>
@@ -7164,13 +7203,16 @@
         <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="J196" s="1" t="b">
         <v>0</v>
@@ -7192,13 +7234,16 @@
         <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
@@ -7220,10 +7265,10 @@
         <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
@@ -7248,16 +7293,16 @@
         <v>219.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
@@ -7329,78 +7374,84 @@
     <hyperlink r:id="rId49" ref="E62"/>
     <hyperlink r:id="rId50" ref="E63"/>
     <hyperlink r:id="rId51" ref="E64"/>
-    <hyperlink r:id="rId52" ref="E68"/>
-    <hyperlink r:id="rId53" ref="E69"/>
-    <hyperlink r:id="rId54" ref="E70"/>
-    <hyperlink r:id="rId55" ref="E71"/>
-    <hyperlink r:id="rId56" ref="E72"/>
-    <hyperlink r:id="rId57" ref="E75"/>
-    <hyperlink r:id="rId58" ref="E76"/>
-    <hyperlink r:id="rId59" ref="E77"/>
-    <hyperlink r:id="rId60" ref="E78"/>
-    <hyperlink r:id="rId61" ref="E80"/>
-    <hyperlink r:id="rId62" ref="E81"/>
-    <hyperlink r:id="rId63" ref="E82"/>
-    <hyperlink r:id="rId64" ref="E84"/>
-    <hyperlink r:id="rId65" ref="E88"/>
-    <hyperlink r:id="rId66" ref="E89"/>
-    <hyperlink r:id="rId67" ref="E90"/>
-    <hyperlink r:id="rId68" ref="E91"/>
-    <hyperlink r:id="rId69" ref="E93"/>
-    <hyperlink r:id="rId70" ref="E94"/>
-    <hyperlink r:id="rId71" ref="E95"/>
-    <hyperlink r:id="rId72" ref="E96"/>
-    <hyperlink r:id="rId73" ref="E97"/>
-    <hyperlink r:id="rId74" ref="E103"/>
-    <hyperlink r:id="rId75" ref="E104"/>
-    <hyperlink r:id="rId76" ref="E105"/>
-    <hyperlink r:id="rId77" ref="E106"/>
-    <hyperlink r:id="rId78" ref="E115"/>
-    <hyperlink r:id="rId79" ref="E116"/>
-    <hyperlink r:id="rId80" ref="E117"/>
-    <hyperlink r:id="rId81" ref="E118"/>
-    <hyperlink r:id="rId82" ref="E119"/>
-    <hyperlink r:id="rId83" ref="E128"/>
-    <hyperlink r:id="rId84" ref="E129"/>
-    <hyperlink r:id="rId85" ref="E130"/>
-    <hyperlink r:id="rId86" ref="E141"/>
-    <hyperlink r:id="rId87" ref="E142"/>
-    <hyperlink r:id="rId88" ref="E143"/>
-    <hyperlink r:id="rId89" ref="E144"/>
-    <hyperlink r:id="rId90" ref="E149"/>
-    <hyperlink r:id="rId91" ref="E150"/>
-    <hyperlink r:id="rId92" ref="E151"/>
-    <hyperlink r:id="rId93" ref="E152"/>
-    <hyperlink r:id="rId94" ref="E153"/>
-    <hyperlink r:id="rId95" ref="E156"/>
-    <hyperlink r:id="rId96" ref="E157"/>
-    <hyperlink r:id="rId97" ref="E158"/>
-    <hyperlink r:id="rId98" ref="E159"/>
-    <hyperlink r:id="rId99" ref="E164"/>
-    <hyperlink r:id="rId100" ref="E165"/>
-    <hyperlink r:id="rId101" ref="E166"/>
-    <hyperlink r:id="rId102" ref="E168"/>
-    <hyperlink r:id="rId103" ref="E170"/>
-    <hyperlink r:id="rId104" ref="E171"/>
-    <hyperlink r:id="rId105" ref="E173"/>
-    <hyperlink r:id="rId106" ref="E175"/>
-    <hyperlink r:id="rId107" ref="E176"/>
-    <hyperlink r:id="rId108" ref="E178"/>
-    <hyperlink r:id="rId109" ref="E179"/>
-    <hyperlink r:id="rId110" ref="E181"/>
-    <hyperlink r:id="rId111" ref="E182"/>
-    <hyperlink r:id="rId112" ref="E184"/>
-    <hyperlink r:id="rId113" ref="E185"/>
-    <hyperlink r:id="rId114" ref="E186"/>
-    <hyperlink r:id="rId115" ref="E187"/>
-    <hyperlink r:id="rId116" ref="E190"/>
-    <hyperlink r:id="rId117" ref="E191"/>
-    <hyperlink r:id="rId118" ref="E192"/>
-    <hyperlink r:id="rId119" ref="E193"/>
-    <hyperlink r:id="rId120" ref="E194"/>
-    <hyperlink r:id="rId121" ref="E195"/>
-    <hyperlink r:id="rId122" ref="E199"/>
+    <hyperlink r:id="rId52" ref="E65"/>
+    <hyperlink r:id="rId53" ref="E68"/>
+    <hyperlink r:id="rId54" ref="E69"/>
+    <hyperlink r:id="rId55" ref="E70"/>
+    <hyperlink r:id="rId56" ref="E71"/>
+    <hyperlink r:id="rId57" ref="E72"/>
+    <hyperlink r:id="rId58" ref="E75"/>
+    <hyperlink r:id="rId59" ref="E76"/>
+    <hyperlink r:id="rId60" ref="E77"/>
+    <hyperlink r:id="rId61" ref="E78"/>
+    <hyperlink r:id="rId62" ref="E80"/>
+    <hyperlink r:id="rId63" ref="E81"/>
+    <hyperlink r:id="rId64" ref="E82"/>
+    <hyperlink r:id="rId65" ref="E84"/>
+    <hyperlink r:id="rId66" ref="E88"/>
+    <hyperlink r:id="rId67" ref="E89"/>
+    <hyperlink r:id="rId68" ref="E90"/>
+    <hyperlink r:id="rId69" ref="E91"/>
+    <hyperlink r:id="rId70" ref="E93"/>
+    <hyperlink r:id="rId71" ref="E94"/>
+    <hyperlink r:id="rId72" ref="E95"/>
+    <hyperlink r:id="rId73" ref="E96"/>
+    <hyperlink r:id="rId74" ref="E97"/>
+    <hyperlink r:id="rId75" ref="E103"/>
+    <hyperlink r:id="rId76" ref="E104"/>
+    <hyperlink r:id="rId77" ref="E105"/>
+    <hyperlink r:id="rId78" ref="E106"/>
+    <hyperlink r:id="rId79" ref="E107"/>
+    <hyperlink r:id="rId80" ref="E115"/>
+    <hyperlink r:id="rId81" ref="E116"/>
+    <hyperlink r:id="rId82" ref="E117"/>
+    <hyperlink r:id="rId83" ref="E118"/>
+    <hyperlink r:id="rId84" ref="E119"/>
+    <hyperlink r:id="rId85" ref="E128"/>
+    <hyperlink r:id="rId86" ref="E129"/>
+    <hyperlink r:id="rId87" ref="E130"/>
+    <hyperlink r:id="rId88" ref="E141"/>
+    <hyperlink r:id="rId89" ref="E142"/>
+    <hyperlink r:id="rId90" ref="E143"/>
+    <hyperlink r:id="rId91" ref="E144"/>
+    <hyperlink r:id="rId92" ref="E149"/>
+    <hyperlink r:id="rId93" ref="E150"/>
+    <hyperlink r:id="rId94" ref="E151"/>
+    <hyperlink r:id="rId95" ref="E152"/>
+    <hyperlink r:id="rId96" ref="E153"/>
+    <hyperlink r:id="rId97" ref="E154"/>
+    <hyperlink r:id="rId98" ref="E156"/>
+    <hyperlink r:id="rId99" ref="E157"/>
+    <hyperlink r:id="rId100" ref="E158"/>
+    <hyperlink r:id="rId101" ref="E159"/>
+    <hyperlink r:id="rId102" ref="E164"/>
+    <hyperlink r:id="rId103" ref="E165"/>
+    <hyperlink r:id="rId104" ref="E166"/>
+    <hyperlink r:id="rId105" ref="E168"/>
+    <hyperlink r:id="rId106" ref="E170"/>
+    <hyperlink r:id="rId107" ref="E171"/>
+    <hyperlink r:id="rId108" ref="E173"/>
+    <hyperlink r:id="rId109" ref="E175"/>
+    <hyperlink r:id="rId110" ref="E176"/>
+    <hyperlink r:id="rId111" ref="E178"/>
+    <hyperlink r:id="rId112" ref="E179"/>
+    <hyperlink r:id="rId113" ref="E181"/>
+    <hyperlink r:id="rId114" ref="E182"/>
+    <hyperlink r:id="rId115" ref="E184"/>
+    <hyperlink r:id="rId116" ref="E185"/>
+    <hyperlink r:id="rId117" ref="E186"/>
+    <hyperlink r:id="rId118" ref="E187"/>
+    <hyperlink r:id="rId119" ref="E188"/>
+    <hyperlink r:id="rId120" ref="E190"/>
+    <hyperlink r:id="rId121" ref="E191"/>
+    <hyperlink r:id="rId122" ref="E192"/>
+    <hyperlink r:id="rId123" ref="E193"/>
+    <hyperlink r:id="rId124" ref="E194"/>
+    <hyperlink r:id="rId125" ref="E195"/>
+    <hyperlink r:id="rId126" ref="E196"/>
+    <hyperlink r:id="rId127" ref="E197"/>
+    <hyperlink r:id="rId128" ref="E199"/>
   </hyperlinks>
-  <drawing r:id="rId123"/>
+  <drawing r:id="rId129"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="334">
   <si>
     <t>id</t>
   </si>
@@ -1007,6 +1007,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=UYV3OP7W5Ys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【SISTER LOCATION CUSTOM NIGHT】wait, there's more fnaf? </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vBboKFjVtDA</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1027,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1052,6 +1058,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -1085,7 +1092,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1151,6 +1158,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -6381,7 +6391,7 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L170" s="1">
-        <f t="shared" ref="L170:L199" si="11">(K170-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L170:L200" si="11">(K170-Date(1970,1,1))*86400*1000</f>
         <v>1646172000000</v>
       </c>
       <c r="M170" s="1" t="s">
@@ -7318,6 +7328,39 @@
         <v>1646388000000</v>
       </c>
       <c r="M199" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1">
+        <v>220.0</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D200" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="I200" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K200" s="23">
+        <v>44625.541666666664</v>
+      </c>
+      <c r="L200" s="1">
+        <f t="shared" si="11"/>
+        <v>1646485200000</v>
+      </c>
+      <c r="M200" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7451,7 +7494,8 @@
     <hyperlink r:id="rId126" ref="E196"/>
     <hyperlink r:id="rId127" ref="E197"/>
     <hyperlink r:id="rId128" ref="E199"/>
+    <hyperlink r:id="rId129" ref="E200"/>
   </hyperlinks>
-  <drawing r:id="rId129"/>
+  <drawing r:id="rId130"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="337">
   <si>
     <t>id</t>
   </si>
@@ -22,7 +22,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>isStreamer</t>
+    <t>onSchedule</t>
   </si>
   <si>
     <t>link</t>
@@ -328,6 +328,9 @@
     <t>Katana Zero</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iHdePdzZ5Sk</t>
+  </si>
+  <si>
     <t>Ready or Not</t>
   </si>
   <si>
@@ -400,7 +403,7 @@
     <t>MAFIA MIX-BREAKDOWN members-only</t>
   </si>
   <si>
-    <t>Call Me By Your Name and I\'ll Call You By Mine...【MEMBERS ONLY WATCHALONG】</t>
+    <t>Call Me By Your Name and I'll Call You By Mine...【MEMBERS ONLY WATCHALONG】</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=QqVKi-v0zvE</t>
@@ -610,9 +613,15 @@
     <t>STARDEW VALLEY w/Enna Petra Mille</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=n50XUHgUW1o</t>
+  </si>
+  <si>
     <t>CONFESIONARIO</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=WO6xdisih00</t>
+  </si>
+  <si>
     <t>EnnaX</t>
   </si>
   <si>
@@ -640,7 +649,7 @@
     <t>https://www.youtube.com/watch?v=OdbapckIjhY</t>
   </si>
   <si>
-    <t>DEMON\'S SOULS</t>
+    <t>DEMON'S SOULS</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rbKA1WzE4ZM</t>
@@ -748,7 +757,7 @@
     <t>SLEEPY PIANO (+MUSIC BOX)</t>
   </si>
   <si>
-    <t>MEMBERS - LET\'S CHAT!</t>
+    <t>MEMBERS - LET'S CHAT!</t>
   </si>
   <si>
     <t>MARIO PARTY w/ ENNA, MYSTA, VOX</t>
@@ -1037,6 +1046,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -1058,7 +1068,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
   <fills count="5">
     <fill>
@@ -1092,7 +1101,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1108,13 +1117,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1123,7 +1135,7 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1151,7 +1163,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1160,7 +1172,7 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1397,7 @@
     <col customWidth="1" min="1" max="1" width="4.29"/>
     <col customWidth="1" min="2" max="2" width="12.29"/>
     <col customWidth="1" min="3" max="3" width="34.29"/>
-    <col customWidth="1" min="4" max="4" width="9.14"/>
+    <col customWidth="1" min="4" max="4" width="10.71"/>
     <col customWidth="1" min="5" max="5" width="21.43"/>
     <col customWidth="1" min="6" max="6" width="9.14"/>
     <col customWidth="1" min="7" max="7" width="9.71"/>
@@ -1407,7 +1419,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1451,17 +1463,17 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <v>44612.541666666664</v>
       </c>
       <c r="L2" s="1">
@@ -1471,7 +1483,7 @@
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" hidden="1">
       <c r="A3" s="1">
@@ -1486,7 +1498,7 @@
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1"/>
@@ -1496,7 +1508,7 @@
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <v>44612.666666666664</v>
       </c>
       <c r="L3" s="1">
@@ -1506,7 +1518,7 @@
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" hidden="1">
       <c r="A4" s="1">
@@ -1521,7 +1533,7 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1"/>
@@ -1531,7 +1543,7 @@
       <c r="J4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <v>44613.541666666664</v>
       </c>
       <c r="L4" s="1">
@@ -1541,7 +1553,7 @@
       <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="6"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" hidden="1">
       <c r="A5" s="1">
@@ -1556,7 +1568,7 @@
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="1"/>
@@ -1566,7 +1578,7 @@
       <c r="J5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <v>44614.583333333336</v>
       </c>
       <c r="L5" s="1">
@@ -1576,7 +1588,7 @@
       <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="6"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" hidden="1">
       <c r="A6" s="1">
@@ -1591,17 +1603,17 @@
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <v>44615.541666666664</v>
       </c>
       <c r="L6" s="1">
@@ -1611,7 +1623,7 @@
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" hidden="1">
       <c r="A7" s="1">
@@ -1626,17 +1638,17 @@
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <v>44616.541666666664</v>
       </c>
       <c r="L7" s="1">
@@ -1646,7 +1658,7 @@
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" hidden="1">
       <c r="A8" s="1">
@@ -1661,17 +1673,17 @@
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <v>44617.541666666664</v>
       </c>
       <c r="L8" s="1">
@@ -1681,7 +1693,7 @@
       <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" hidden="1">
       <c r="A9" s="1">
@@ -1696,17 +1708,17 @@
       <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <v>44611.75</v>
       </c>
       <c r="L9" s="1">
@@ -1716,7 +1728,7 @@
       <c r="M9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" hidden="1">
       <c r="A10" s="1">
@@ -1731,7 +1743,7 @@
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1"/>
@@ -1741,7 +1753,7 @@
       <c r="J10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <v>44612.5</v>
       </c>
       <c r="L10" s="1">
@@ -1751,7 +1763,7 @@
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="7"/>
     </row>
     <row r="11" hidden="1">
       <c r="A11" s="1">
@@ -1766,17 +1778,17 @@
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <v>44614.791666666664</v>
       </c>
       <c r="L11" s="1">
@@ -1786,7 +1798,7 @@
       <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" hidden="1">
       <c r="A12" s="1">
@@ -1801,7 +1813,7 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="1"/>
@@ -1811,7 +1823,7 @@
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <v>44615.708333333336</v>
       </c>
       <c r="L12" s="1">
@@ -1821,7 +1833,7 @@
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" hidden="1">
       <c r="A13" s="1">
@@ -1837,7 +1849,7 @@
       <c r="M13" s="1">
         <v>6.0</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" hidden="1">
       <c r="A14" s="1">
@@ -1853,7 +1865,7 @@
       <c r="M14" s="1">
         <v>29.0</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="7"/>
     </row>
     <row r="15" hidden="1">
       <c r="A15" s="1">
@@ -1868,7 +1880,7 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="1"/>
@@ -1878,7 +1890,7 @@
       <c r="J15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <v>44617.666666666664</v>
       </c>
       <c r="L15" s="1">
@@ -1888,7 +1900,7 @@
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="7"/>
     </row>
     <row r="16" hidden="1">
       <c r="A16" s="1">
@@ -1903,17 +1915,17 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <v>44618.541666666664</v>
       </c>
       <c r="L16" s="1">
@@ -1923,7 +1935,7 @@
       <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="7"/>
     </row>
     <row r="17" hidden="1">
       <c r="A17" s="1">
@@ -1939,7 +1951,7 @@
       <c r="M17" s="1">
         <v>17.0</v>
       </c>
-      <c r="N17" s="6"/>
+      <c r="N17" s="7"/>
     </row>
     <row r="18" hidden="1">
       <c r="A18" s="1">
@@ -1954,7 +1966,7 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="1"/>
@@ -1964,7 +1976,7 @@
       <c r="J18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <v>44619.083333333336</v>
       </c>
       <c r="L18" s="1">
@@ -1974,7 +1986,7 @@
       <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="6"/>
+      <c r="N18" s="7"/>
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="1">
@@ -1990,7 +2002,7 @@
       <c r="M19" s="1">
         <v>29.0</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="7"/>
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="1">
@@ -2005,17 +2017,17 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <v>44614.166666666664</v>
       </c>
       <c r="L20" s="1">
@@ -2025,7 +2037,7 @@
       <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="6"/>
+      <c r="N20" s="7"/>
     </row>
     <row r="21" hidden="1">
       <c r="A21" s="1">
@@ -2040,7 +2052,7 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="1"/>
@@ -2050,7 +2062,7 @@
       <c r="J21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <v>44615.166666666664</v>
       </c>
       <c r="L21" s="1">
@@ -2060,7 +2072,7 @@
       <c r="M21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="6"/>
+      <c r="N21" s="7"/>
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="1">
@@ -2075,7 +2087,7 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="1"/>
@@ -2085,7 +2097,7 @@
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <v>44616.041666666664</v>
       </c>
       <c r="L22" s="1">
@@ -2095,7 +2107,7 @@
       <c r="M22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="6"/>
+      <c r="N22" s="7"/>
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="1">
@@ -2110,7 +2122,7 @@
       <c r="D23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="1"/>
@@ -2120,7 +2132,7 @@
       <c r="J23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <v>44617.041666666664</v>
       </c>
       <c r="L23" s="1">
@@ -2130,7 +2142,7 @@
       <c r="M23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="6"/>
+      <c r="N23" s="7"/>
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="1">
@@ -2146,7 +2158,7 @@
       <c r="M24" s="1">
         <v>22.0</v>
       </c>
-      <c r="N24" s="6"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" hidden="1">
       <c r="A25" s="1">
@@ -2162,7 +2174,7 @@
       <c r="M25" s="1">
         <v>29.0</v>
       </c>
-      <c r="N25" s="6"/>
+      <c r="N25" s="7"/>
     </row>
     <row r="26" hidden="1">
       <c r="A26" s="1">
@@ -2177,7 +2189,7 @@
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="1"/>
@@ -2187,7 +2199,7 @@
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="9">
         <v>44618.125</v>
       </c>
       <c r="L26" s="1">
@@ -2197,7 +2209,7 @@
       <c r="M26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="6"/>
+      <c r="N26" s="7"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="1">
@@ -2212,7 +2224,7 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="8" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="1"/>
@@ -2222,7 +2234,7 @@
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <v>44612.666666666664</v>
       </c>
       <c r="L27" s="1">
@@ -2232,7 +2244,7 @@
       <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="6"/>
+      <c r="N27" s="7"/>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="1">
@@ -2247,17 +2259,17 @@
       <c r="D28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <v>44614.5</v>
       </c>
       <c r="L28" s="1">
@@ -2267,7 +2279,7 @@
       <c r="M28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="6"/>
+      <c r="N28" s="7"/>
     </row>
     <row r="29" hidden="1">
       <c r="A29" s="1">
@@ -2282,17 +2294,17 @@
       <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <v>44615.5</v>
       </c>
       <c r="L29" s="1">
@@ -2302,7 +2314,7 @@
       <c r="M29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="6"/>
+      <c r="N29" s="7"/>
     </row>
     <row r="30" hidden="1">
       <c r="A30" s="1">
@@ -2317,17 +2329,17 @@
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <v>44616.791666666664</v>
       </c>
       <c r="L30" s="1">
@@ -2337,7 +2349,7 @@
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="6"/>
+      <c r="N30" s="7"/>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="1">
@@ -2352,17 +2364,17 @@
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
       <c r="J31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <v>44617.5</v>
       </c>
       <c r="L31" s="1">
@@ -2372,7 +2384,7 @@
       <c r="M31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="6"/>
+      <c r="N31" s="7"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="1">
@@ -2387,17 +2399,17 @@
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
       <c r="J32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <v>44618.5</v>
       </c>
       <c r="L32" s="1">
@@ -2407,7 +2419,7 @@
       <c r="M32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="6"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" hidden="1">
       <c r="A33" s="1">
@@ -2422,17 +2434,17 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <v>44612.666666666664</v>
       </c>
       <c r="L33" s="1">
@@ -2442,7 +2454,7 @@
       <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="6"/>
+      <c r="N33" s="7"/>
     </row>
     <row r="34" hidden="1">
       <c r="A34" s="1">
@@ -2457,17 +2469,17 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
       <c r="J34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="6">
         <v>44614.958333333336</v>
       </c>
       <c r="L34" s="1">
@@ -2477,7 +2489,7 @@
       <c r="M34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="6"/>
+      <c r="N34" s="7"/>
     </row>
     <row r="35" hidden="1">
       <c r="A35" s="1">
@@ -2496,7 +2508,7 @@
       <c r="J35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="6">
         <v>44615.833333333336</v>
       </c>
       <c r="L35" s="1">
@@ -2506,7 +2518,7 @@
       <c r="M35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="6"/>
+      <c r="N35" s="7"/>
     </row>
     <row r="36" hidden="1">
       <c r="A36" s="1">
@@ -2522,7 +2534,7 @@
       <c r="M36" s="1">
         <v>29.0</v>
       </c>
-      <c r="N36" s="6"/>
+      <c r="N36" s="7"/>
     </row>
     <row r="37" hidden="1">
       <c r="A37" s="1">
@@ -2537,7 +2549,7 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="E37" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F37" s="1"/>
@@ -2547,7 +2559,7 @@
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <v>44617.833333333336</v>
       </c>
       <c r="L37" s="1">
@@ -2557,7 +2569,7 @@
       <c r="M37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="6"/>
+      <c r="N37" s="7"/>
     </row>
     <row r="38" hidden="1">
       <c r="A38" s="1">
@@ -2572,7 +2584,7 @@
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="1"/>
@@ -2582,7 +2594,7 @@
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <v>44618.125</v>
       </c>
       <c r="L38" s="1">
@@ -2592,7 +2604,7 @@
       <c r="M38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="6"/>
+      <c r="N38" s="7"/>
     </row>
     <row r="39" hidden="1">
       <c r="A39" s="1">
@@ -2607,7 +2619,7 @@
       <c r="D39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="1"/>
@@ -2617,7 +2629,7 @@
       <c r="J39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <v>44619.833333333336</v>
       </c>
       <c r="L39" s="1">
@@ -2627,60 +2639,60 @@
       <c r="M39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="6"/>
+      <c r="N39" s="7"/>
     </row>
     <row r="40" hidden="1">
-      <c r="A40" s="9">
+      <c r="A40" s="10">
         <v>39.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="11" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="12">
         <v>44619.291666666664</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="10">
         <f t="shared" si="5"/>
         <v>1645945200000</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
+      <c r="M40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="13"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+      <c r="Y40" s="14"/>
+      <c r="Z40" s="14"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
+      <c r="AD40" s="14"/>
+      <c r="AE40" s="14"/>
+      <c r="AF40" s="14"/>
     </row>
     <row r="41">
       <c r="A41" s="1">
@@ -2695,15 +2707,15 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
       <c r="J41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="6">
         <v>44620.0</v>
       </c>
       <c r="L41" s="1">
@@ -2713,7 +2725,7 @@
       <c r="M41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="6"/>
+      <c r="N41" s="7"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
@@ -2728,7 +2740,7 @@
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="1"/>
@@ -2736,7 +2748,7 @@
       <c r="J42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="6">
         <v>44621.083333333336</v>
       </c>
       <c r="L42" s="1">
@@ -2746,7 +2758,7 @@
       <c r="M42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="6"/>
+      <c r="N42" s="7"/>
     </row>
     <row r="43">
       <c r="A43" s="1">
@@ -2761,7 +2773,7 @@
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="8" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="1"/>
@@ -2769,7 +2781,7 @@
       <c r="J43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <v>44622.0</v>
       </c>
       <c r="L43" s="1">
@@ -2779,7 +2791,7 @@
       <c r="M43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="6"/>
+      <c r="N43" s="7"/>
     </row>
     <row r="44">
       <c r="A44" s="1">
@@ -2794,7 +2806,7 @@
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="H44" s="1"/>
@@ -2802,7 +2814,7 @@
       <c r="J44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="6">
         <v>44623.0</v>
       </c>
       <c r="L44" s="1">
@@ -2812,7 +2824,7 @@
       <c r="M44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="6"/>
+      <c r="N44" s="7"/>
     </row>
     <row r="45">
       <c r="A45" s="1">
@@ -2827,7 +2839,7 @@
       <c r="D45" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="8" t="s">
         <v>89</v>
       </c>
       <c r="H45" s="1"/>
@@ -2835,7 +2847,7 @@
       <c r="J45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <v>44624.0</v>
       </c>
       <c r="L45" s="1">
@@ -2845,7 +2857,7 @@
       <c r="M45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="6"/>
+      <c r="N45" s="7"/>
     </row>
     <row r="46">
       <c r="A46" s="1">
@@ -2860,13 +2872,13 @@
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>91</v>
       </c>
       <c r="J46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <v>44625.0</v>
       </c>
       <c r="L46" s="1">
@@ -2876,7 +2888,7 @@
       <c r="M46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="6"/>
+      <c r="N46" s="7"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
@@ -2894,7 +2906,7 @@
       <c r="J47" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <v>44626.083333333336</v>
       </c>
       <c r="L47" s="1">
@@ -2904,7 +2916,7 @@
       <c r="M47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="6"/>
+      <c r="N47" s="7"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
@@ -2919,15 +2931,15 @@
       <c r="D48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
       <c r="J48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="6">
         <v>44620.083333333336</v>
       </c>
       <c r="L48" s="1">
@@ -2937,7 +2949,7 @@
       <c r="M48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="6"/>
+      <c r="N48" s="7"/>
     </row>
     <row r="49">
       <c r="A49" s="1">
@@ -2952,7 +2964,7 @@
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H49" s="1"/>
@@ -2960,7 +2972,7 @@
       <c r="J49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="6">
         <v>44621.166666666664</v>
       </c>
       <c r="L49" s="1">
@@ -2970,7 +2982,7 @@
       <c r="M49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="6"/>
+      <c r="N49" s="7"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
@@ -2985,7 +2997,7 @@
       <c r="D50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>99</v>
       </c>
       <c r="H50" s="1"/>
@@ -2993,7 +3005,7 @@
       <c r="J50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="6">
         <v>44622.083333333336</v>
       </c>
       <c r="L50" s="1">
@@ -3003,7 +3015,7 @@
       <c r="M50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="6"/>
+      <c r="N50" s="7"/>
     </row>
     <row r="51">
       <c r="A51" s="1">
@@ -3018,7 +3030,7 @@
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E51" s="8" t="s">
         <v>101</v>
       </c>
       <c r="H51" s="1"/>
@@ -3026,7 +3038,7 @@
       <c r="J51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="6">
         <v>44623.208333333336</v>
       </c>
       <c r="L51" s="1">
@@ -3036,7 +3048,7 @@
       <c r="M51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="6"/>
+      <c r="N51" s="7"/>
     </row>
     <row r="52">
       <c r="A52" s="1">
@@ -3051,7 +3063,7 @@
       <c r="D52" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H52" s="1"/>
@@ -3059,7 +3071,7 @@
       <c r="J52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="6">
         <v>44624.333333333336</v>
       </c>
       <c r="L52" s="1">
@@ -3069,7 +3081,7 @@
       <c r="M52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="6"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53">
       <c r="A53" s="1">
@@ -3084,10 +3096,13 @@
       <c r="D53" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E53" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="J53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="6">
         <v>44625.333333333336</v>
       </c>
       <c r="L53" s="1">
@@ -3097,7 +3112,7 @@
       <c r="M53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N53" s="6"/>
+      <c r="N53" s="7"/>
     </row>
     <row r="54">
       <c r="A54" s="1">
@@ -3107,7 +3122,7 @@
         <v>93</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D54" s="1" t="b">
         <v>1</v>
@@ -3115,7 +3130,7 @@
       <c r="J54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="6">
         <v>44626.083333333336</v>
       </c>
       <c r="L54" s="1">
@@ -3125,7 +3140,7 @@
       <c r="M54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="6"/>
+      <c r="N54" s="7"/>
     </row>
     <row r="55">
       <c r="A55" s="1">
@@ -3135,20 +3150,20 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E55" s="7" t="s">
-        <v>107</v>
+      <c r="E55" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="6">
         <v>44619.583333333336</v>
       </c>
       <c r="L55" s="1">
@@ -3158,7 +3173,7 @@
       <c r="M55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="6"/>
+      <c r="N55" s="7"/>
     </row>
     <row r="56">
       <c r="A56" s="1">
@@ -3168,20 +3183,20 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E56" s="7" t="s">
-        <v>109</v>
+      <c r="E56" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <v>44620.583333333336</v>
       </c>
       <c r="L56" s="1">
@@ -3191,7 +3206,7 @@
       <c r="M56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="6"/>
+      <c r="N56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
@@ -3201,20 +3216,20 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E57" s="7" t="s">
-        <v>111</v>
+      <c r="E57" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="6">
         <v>44621.541666666664</v>
       </c>
       <c r="L57" s="1">
@@ -3224,7 +3239,7 @@
       <c r="M57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="6"/>
+      <c r="N57" s="7"/>
     </row>
     <row r="58">
       <c r="A58" s="1">
@@ -3234,20 +3249,20 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E58" s="7" t="s">
-        <v>113</v>
+      <c r="E58" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="6">
         <v>44622.583333333336</v>
       </c>
       <c r="L58" s="1">
@@ -3257,7 +3272,7 @@
       <c r="M58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="6"/>
+      <c r="N58" s="7"/>
     </row>
     <row r="59">
       <c r="A59" s="1">
@@ -3267,13 +3282,13 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>115</v>
+      <c r="E59" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="G59" s="1" t="b">
         <v>1</v>
@@ -3281,7 +3296,7 @@
       <c r="J59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="15">
         <v>44624.5</v>
       </c>
       <c r="L59" s="1">
@@ -3291,7 +3306,7 @@
       <c r="M59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="6"/>
+      <c r="N59" s="7"/>
     </row>
     <row r="60">
       <c r="A60" s="1">
@@ -3301,7 +3316,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
@@ -3312,7 +3327,7 @@
       <c r="J60" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="6">
         <v>44624.541666666664</v>
       </c>
       <c r="L60" s="1">
@@ -3322,7 +3337,7 @@
       <c r="M60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N60" s="6"/>
+      <c r="N60" s="7"/>
     </row>
     <row r="61">
       <c r="A61" s="1">
@@ -3332,20 +3347,20 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>118</v>
+      <c r="E61" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="6">
         <v>44623.541666666664</v>
       </c>
       <c r="L61" s="1">
@@ -3355,7 +3370,7 @@
       <c r="M61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="6"/>
+      <c r="N61" s="7"/>
     </row>
     <row r="62">
       <c r="A62" s="1">
@@ -3365,20 +3380,20 @@
         <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
       <c r="J62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="6">
         <v>44620.5</v>
       </c>
       <c r="L62" s="1">
@@ -3388,7 +3403,7 @@
       <c r="M62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="6"/>
+      <c r="N62" s="7"/>
     </row>
     <row r="63">
       <c r="A63" s="1">
@@ -3398,20 +3413,20 @@
         <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>122</v>
+      <c r="E63" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="6">
         <v>44621.916666666664</v>
       </c>
       <c r="L63" s="1">
@@ -3421,7 +3436,7 @@
       <c r="M63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="6"/>
+      <c r="N63" s="7"/>
     </row>
     <row r="64">
       <c r="A64" s="1">
@@ -3431,20 +3446,20 @@
         <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E64" s="7" t="s">
-        <v>124</v>
+      <c r="E64" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="6">
         <v>44622.625</v>
       </c>
       <c r="L64" s="1">
@@ -3454,7 +3469,7 @@
       <c r="M64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N64" s="6"/>
+      <c r="N64" s="7"/>
     </row>
     <row r="65">
       <c r="A65" s="1">
@@ -3464,13 +3479,13 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E65" s="7" t="s">
-        <v>126</v>
+      <c r="E65" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3478,7 +3493,7 @@
       <c r="J65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="6">
         <v>44624.875</v>
       </c>
       <c r="L65" s="1">
@@ -3488,7 +3503,7 @@
       <c r="M65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N65" s="6"/>
+      <c r="N65" s="7"/>
     </row>
     <row r="66">
       <c r="A66" s="1">
@@ -3498,7 +3513,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
@@ -3506,7 +3521,7 @@
       <c r="J66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="16">
         <v>44625.625</v>
       </c>
       <c r="L66" s="1">
@@ -3516,7 +3531,7 @@
       <c r="M66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N66" s="6"/>
+      <c r="N66" s="7"/>
     </row>
     <row r="67">
       <c r="A67" s="1">
@@ -3526,7 +3541,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
@@ -3534,7 +3549,7 @@
       <c r="J67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="6">
         <v>44626.583333333336</v>
       </c>
       <c r="L67" s="1">
@@ -3544,7 +3559,7 @@
       <c r="M67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N67" s="6"/>
+      <c r="N67" s="7"/>
     </row>
     <row r="68">
       <c r="A68" s="1">
@@ -3553,21 +3568,21 @@
       <c r="B68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>129</v>
+      <c r="C68" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E68" s="7" t="s">
-        <v>130</v>
+      <c r="E68" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="6">
         <v>44620.416666666664</v>
       </c>
       <c r="L68" s="1">
@@ -3577,7 +3592,7 @@
       <c r="M68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N68" s="6"/>
+      <c r="N68" s="7"/>
     </row>
     <row r="69">
       <c r="A69" s="1">
@@ -3587,20 +3602,20 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E69" s="7" t="s">
-        <v>132</v>
+      <c r="E69" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="6">
         <v>44621.125</v>
       </c>
       <c r="L69" s="1">
@@ -3610,7 +3625,7 @@
       <c r="M69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N69" s="6"/>
+      <c r="N69" s="7"/>
     </row>
     <row r="70">
       <c r="A70" s="1">
@@ -3620,20 +3635,20 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="7" t="s">
-        <v>134</v>
+      <c r="E70" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="6">
         <v>44622.0</v>
       </c>
       <c r="L70" s="1">
@@ -3643,7 +3658,7 @@
       <c r="M70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="6"/>
+      <c r="N70" s="7"/>
     </row>
     <row r="71">
       <c r="A71" s="1">
@@ -3653,20 +3668,20 @@
         <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E71" s="7" t="s">
-        <v>136</v>
+      <c r="E71" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="6">
         <v>44623.0</v>
       </c>
       <c r="L71" s="1">
@@ -3676,7 +3691,7 @@
       <c r="M71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N71" s="6"/>
+      <c r="N71" s="7"/>
     </row>
     <row r="72">
       <c r="A72" s="1">
@@ -3686,18 +3701,18 @@
         <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E72" s="7" t="s">
-        <v>138</v>
+      <c r="E72" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="J72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="6">
         <v>44623.791666666664</v>
       </c>
       <c r="L72" s="1">
@@ -3707,7 +3722,7 @@
       <c r="M72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="6"/>
+      <c r="N72" s="7"/>
     </row>
     <row r="73">
       <c r="A73" s="1">
@@ -3717,7 +3732,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
@@ -3725,7 +3740,7 @@
       <c r="J73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="6">
         <v>44625.583333333336</v>
       </c>
       <c r="L73" s="1">
@@ -3735,7 +3750,7 @@
       <c r="M73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N73" s="6"/>
+      <c r="N73" s="7"/>
     </row>
     <row r="74">
       <c r="A74" s="1">
@@ -3753,7 +3768,7 @@
       <c r="J74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="6">
         <v>44627.041666666664</v>
       </c>
       <c r="L74" s="1">
@@ -3763,30 +3778,30 @@
       <c r="M74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N74" s="6"/>
+      <c r="N74" s="7"/>
     </row>
     <row r="75">
       <c r="A75" s="1">
         <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>142</v>
+      <c r="E75" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="17">
         <v>44620.875</v>
       </c>
       <c r="L75" s="1">
@@ -3796,30 +3811,30 @@
       <c r="M75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N75" s="6"/>
+      <c r="N75" s="7"/>
     </row>
     <row r="76">
       <c r="A76" s="1">
         <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>144</v>
+      <c r="E76" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K76" s="18">
         <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
@@ -3829,28 +3844,28 @@
       <c r="M76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N76" s="6"/>
+      <c r="N76" s="7"/>
     </row>
     <row r="77">
       <c r="A77" s="1">
         <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>146</v>
+      <c r="E77" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="J77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="18">
         <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
@@ -3860,28 +3875,28 @@
       <c r="M77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N77" s="6"/>
+      <c r="N77" s="7"/>
     </row>
     <row r="78">
       <c r="A78" s="1">
         <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E78" s="7" t="s">
-        <v>148</v>
+      <c r="E78" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="18">
         <v>44624.875</v>
       </c>
       <c r="L78" s="1">
@@ -3891,17 +3906,17 @@
       <c r="M78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="6"/>
+      <c r="N78" s="7"/>
     </row>
     <row r="79">
       <c r="A79" s="1">
         <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
@@ -3909,7 +3924,7 @@
       <c r="J79" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="6">
         <v>44625.875</v>
       </c>
       <c r="L79" s="1">
@@ -3919,30 +3934,30 @@
       <c r="M79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N79" s="6"/>
+      <c r="N79" s="7"/>
     </row>
     <row r="80">
       <c r="A80" s="1">
         <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E80" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
+      <c r="E80" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
       <c r="J80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="6">
         <v>44620.75</v>
       </c>
       <c r="L80" s="1">
@@ -3952,30 +3967,30 @@
       <c r="M80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N80" s="6"/>
+      <c r="N80" s="7"/>
     </row>
     <row r="81">
       <c r="A81" s="1">
         <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E81" s="7" t="s">
-        <v>155</v>
+      <c r="E81" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K81" s="19">
         <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
@@ -3985,30 +4000,30 @@
       <c r="M81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N81" s="6"/>
+      <c r="N81" s="7"/>
     </row>
     <row r="82">
       <c r="A82" s="1">
         <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E82" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="E82" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
       <c r="J82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>44621.5625</v>
       </c>
       <c r="L82" s="1">
@@ -4018,17 +4033,17 @@
       <c r="M82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N82" s="6"/>
+      <c r="N82" s="7"/>
     </row>
     <row r="83">
       <c r="A83" s="1">
         <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
@@ -4036,7 +4051,7 @@
       <c r="J83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="6">
         <v>44622.552083333336</v>
       </c>
       <c r="L83" s="1">
@@ -4046,30 +4061,30 @@
       <c r="M83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="6"/>
+      <c r="N83" s="7"/>
     </row>
     <row r="84">
       <c r="A84" s="1">
         <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E84" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
+      <c r="E84" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
       <c r="J84" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="6">
         <v>44623.21875</v>
       </c>
       <c r="L84" s="1">
@@ -4079,17 +4094,17 @@
       <c r="M84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N84" s="6"/>
+      <c r="N84" s="7"/>
     </row>
     <row r="85">
       <c r="A85" s="1">
         <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>1</v>
@@ -4100,7 +4115,7 @@
       <c r="J85" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="6">
         <v>44624.604166666664</v>
       </c>
       <c r="L85" s="1">
@@ -4110,17 +4125,17 @@
       <c r="M85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N85" s="6"/>
+      <c r="N85" s="7"/>
     </row>
     <row r="86">
       <c r="A86" s="1">
         <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
@@ -4131,7 +4146,7 @@
       <c r="J86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="6">
         <v>44625.416666666664</v>
       </c>
       <c r="L86" s="1">
@@ -4141,17 +4156,17 @@
       <c r="M86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N86" s="6"/>
+      <c r="N86" s="7"/>
     </row>
     <row r="87">
       <c r="A87" s="1">
         <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4159,7 +4174,7 @@
       <c r="J87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="6">
         <v>44626.708333333336</v>
       </c>
       <c r="L87" s="1">
@@ -4169,30 +4184,30 @@
       <c r="M87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N87" s="6"/>
+      <c r="N87" s="7"/>
     </row>
     <row r="88">
       <c r="A88" s="1">
         <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>166</v>
+      <c r="E88" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="17">
         <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
@@ -4202,30 +4217,30 @@
       <c r="M88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N88" s="6"/>
+      <c r="N88" s="7"/>
     </row>
     <row r="89">
       <c r="A89" s="1">
         <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>168</v>
+      <c r="E89" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="17">
         <v>44622.0</v>
       </c>
       <c r="L89" s="1">
@@ -4235,30 +4250,30 @@
       <c r="M89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="6"/>
+      <c r="N89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="1">
         <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E90" s="7" t="s">
-        <v>170</v>
+      <c r="E90" s="8" t="s">
+        <v>171</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="17">
         <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
@@ -4268,28 +4283,28 @@
       <c r="M90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N90" s="6"/>
+      <c r="N90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="1">
         <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E91" s="7" t="s">
-        <v>172</v>
+      <c r="E91" s="8" t="s">
+        <v>173</v>
       </c>
       <c r="J91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="17">
         <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
@@ -4299,17 +4314,17 @@
       <c r="M91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="6"/>
+      <c r="N91" s="7"/>
     </row>
     <row r="92">
       <c r="A92" s="1">
         <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
@@ -4317,7 +4332,7 @@
       <c r="J92" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="17">
         <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
@@ -4327,30 +4342,30 @@
       <c r="M92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N92" s="6"/>
+      <c r="N92" s="7"/>
     </row>
     <row r="93">
       <c r="A93" s="1">
         <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E93" s="7" t="s">
-        <v>176</v>
+      <c r="E93" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="17">
         <v>44620.875</v>
       </c>
       <c r="L93" s="1">
@@ -4360,30 +4375,30 @@
       <c r="M93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N93" s="6"/>
+      <c r="N93" s="7"/>
     </row>
     <row r="94">
       <c r="A94" s="1">
         <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E94" s="7" t="s">
-        <v>178</v>
+      <c r="E94" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="17">
         <v>44621.875</v>
       </c>
       <c r="L94" s="1">
@@ -4393,30 +4408,30 @@
       <c r="M94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="6"/>
+      <c r="N94" s="7"/>
     </row>
     <row r="95">
       <c r="A95" s="1">
         <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>180</v>
+      <c r="E95" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="17">
         <v>44622.875</v>
       </c>
       <c r="L95" s="1">
@@ -4426,28 +4441,28 @@
       <c r="M95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N95" s="6"/>
+      <c r="N95" s="7"/>
     </row>
     <row r="96">
       <c r="A96" s="1">
         <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>182</v>
+      <c r="E96" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="17">
         <v>44623.875</v>
       </c>
       <c r="L96" s="1">
@@ -4457,28 +4472,28 @@
       <c r="M96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N96" s="6"/>
+      <c r="N96" s="7"/>
     </row>
     <row r="97">
       <c r="A97" s="1">
         <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>184</v>
+      <c r="E97" s="8" t="s">
+        <v>185</v>
       </c>
       <c r="J97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="19">
+      <c r="K97" s="20">
         <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
@@ -4488,17 +4503,17 @@
       <c r="M97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N97" s="6"/>
+      <c r="N97" s="7"/>
     </row>
     <row r="98">
       <c r="A98" s="1">
         <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
@@ -4506,7 +4521,7 @@
       <c r="J98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="17">
         <v>44625.875</v>
       </c>
       <c r="L98" s="1">
@@ -4516,7 +4531,7 @@
       <c r="M98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N98" s="6"/>
+      <c r="N98" s="7"/>
     </row>
     <row r="99">
       <c r="A99" s="1">
@@ -4531,14 +4546,14 @@
       <c r="M99" s="1">
         <v>117.0</v>
       </c>
-      <c r="N99" s="6"/>
+      <c r="N99" s="7"/>
     </row>
     <row r="100">
       <c r="A100" s="1">
         <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
@@ -4546,14 +4561,14 @@
       <c r="M100" s="1">
         <v>117.0</v>
       </c>
-      <c r="N100" s="6"/>
+      <c r="N100" s="7"/>
     </row>
     <row r="101">
       <c r="A101" s="1">
         <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
@@ -4561,14 +4576,14 @@
       <c r="M101" s="1">
         <v>117.0</v>
       </c>
-      <c r="N101" s="6"/>
+      <c r="N101" s="7"/>
     </row>
     <row r="102">
       <c r="A102" s="1">
         <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>0</v>
@@ -4576,30 +4591,30 @@
       <c r="M102" s="1">
         <v>111.0</v>
       </c>
-      <c r="N102" s="6"/>
+      <c r="N102" s="7"/>
     </row>
     <row r="103">
       <c r="A103" s="1">
         <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>189</v>
+      <c r="E103" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="17">
         <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
@@ -4609,30 +4624,30 @@
       <c r="M103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N103" s="6"/>
+      <c r="N103" s="7"/>
     </row>
     <row r="104">
       <c r="A104" s="1">
         <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>191</v>
+      <c r="E104" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="17">
         <v>44621.875</v>
       </c>
       <c r="L104" s="1">
@@ -4642,30 +4657,30 @@
       <c r="M104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N104" s="6"/>
+      <c r="N104" s="7"/>
     </row>
     <row r="105">
       <c r="A105" s="1">
         <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>193</v>
+      <c r="E105" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="17">
         <v>44622.125</v>
       </c>
       <c r="L105" s="1">
@@ -4675,30 +4690,30 @@
       <c r="M105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N105" s="6"/>
+      <c r="N105" s="7"/>
     </row>
     <row r="106">
       <c r="A106" s="1">
         <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E106" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
       <c r="J106" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="17">
         <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
@@ -4708,23 +4723,23 @@
       <c r="M106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N106" s="6"/>
+      <c r="N106" s="7"/>
     </row>
     <row r="107">
       <c r="A107" s="1">
         <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E107" s="7" t="s">
-        <v>197</v>
+      <c r="E107" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>1</v>
@@ -4732,7 +4747,7 @@
       <c r="J107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="17">
         <v>44624.875</v>
       </c>
       <c r="L107" s="1">
@@ -4742,25 +4757,28 @@
       <c r="M107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N107" s="6"/>
+      <c r="N107" s="7"/>
     </row>
     <row r="108">
       <c r="A108" s="1">
         <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E108" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="J108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="17">
         <v>44625.125</v>
       </c>
       <c r="L108" s="1">
@@ -4770,25 +4788,28 @@
       <c r="M108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N108" s="6"/>
+      <c r="N108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="1">
         <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E109" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="J109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="17">
         <v>44626.0</v>
       </c>
       <c r="L109" s="1">
@@ -4798,7 +4819,7 @@
       <c r="M109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N109" s="6"/>
+      <c r="N109" s="7"/>
     </row>
     <row r="110">
       <c r="A110" s="1">
@@ -4813,14 +4834,14 @@
       <c r="M110" s="1">
         <v>127.0</v>
       </c>
-      <c r="N110" s="6"/>
+      <c r="N110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="1">
         <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>0</v>
@@ -4828,14 +4849,14 @@
       <c r="M111" s="1">
         <v>128.0</v>
       </c>
-      <c r="N111" s="6"/>
+      <c r="N111" s="7"/>
     </row>
     <row r="112">
       <c r="A112" s="1">
         <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
@@ -4843,14 +4864,14 @@
       <c r="M112" s="1">
         <v>128.0</v>
       </c>
-      <c r="N112" s="6"/>
+      <c r="N112" s="7"/>
     </row>
     <row r="113">
       <c r="A113" s="1">
         <v>133.0</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>202</v>
+      <c r="B113" s="21" t="s">
+        <v>205</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4858,14 +4879,14 @@
       <c r="M113" s="1">
         <v>128.0</v>
       </c>
-      <c r="N113" s="6"/>
+      <c r="N113" s="7"/>
     </row>
     <row r="114">
       <c r="A114" s="1">
         <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4873,30 +4894,30 @@
       <c r="M114" s="1">
         <v>83.0</v>
       </c>
-      <c r="N114" s="6"/>
+      <c r="N114" s="7"/>
     </row>
     <row r="115">
       <c r="A115" s="1">
         <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>206</v>
+      <c r="E115" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="17">
         <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
@@ -4906,30 +4927,30 @@
       <c r="M115" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N115" s="6"/>
+      <c r="N115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="1">
         <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E116" s="7" t="s">
-        <v>208</v>
+      <c r="E116" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="17">
         <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
@@ -4939,30 +4960,30 @@
       <c r="M116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N116" s="6"/>
+      <c r="N116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="1">
         <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>209</v>
+        <v>187</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>210</v>
+      <c r="E117" s="8" t="s">
+        <v>213</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="17">
         <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
@@ -4972,30 +4993,30 @@
       <c r="M117" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N117" s="6"/>
+      <c r="N117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="1">
         <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E118" s="7" t="s">
-        <v>212</v>
+      <c r="E118" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="17">
         <v>44622.083333333336</v>
       </c>
       <c r="L118" s="1">
@@ -5005,30 +5026,30 @@
       <c r="M118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N118" s="6"/>
+      <c r="N118" s="7"/>
     </row>
     <row r="119">
       <c r="A119" s="1">
         <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>214</v>
+      <c r="E119" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K119" s="19">
+      <c r="K119" s="20">
         <v>44622.833333333336</v>
       </c>
       <c r="L119" s="1">
@@ -5038,17 +5059,17 @@
       <c r="M119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N119" s="6"/>
+      <c r="N119" s="7"/>
     </row>
     <row r="120">
       <c r="A120" s="1">
         <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>1</v>
@@ -5056,7 +5077,7 @@
       <c r="J120" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="17">
         <v>44623.833333333336</v>
       </c>
       <c r="L120" s="1">
@@ -5066,25 +5087,28 @@
       <c r="M120" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N120" s="6"/>
+      <c r="N120" s="7"/>
     </row>
     <row r="121">
       <c r="A121" s="1">
         <v>141.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E121" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="J121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="17">
         <v>44625.083333333336</v>
       </c>
       <c r="L121" s="1">
@@ -5094,17 +5118,17 @@
       <c r="M121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N121" s="6"/>
+      <c r="N121" s="7"/>
     </row>
     <row r="122">
       <c r="A122" s="1">
         <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -5115,7 +5139,7 @@
       <c r="J122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="17">
         <v>44625.416666666664</v>
       </c>
       <c r="L122" s="1">
@@ -5125,17 +5149,17 @@
       <c r="M122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N122" s="6"/>
+      <c r="N122" s="7"/>
     </row>
     <row r="123">
       <c r="A123" s="1">
         <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
@@ -5143,7 +5167,7 @@
       <c r="J123" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="17">
         <v>44626.0</v>
       </c>
       <c r="L123" s="1">
@@ -5153,14 +5177,14 @@
       <c r="M123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N123" s="6"/>
+      <c r="N123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="1">
         <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
@@ -5168,14 +5192,14 @@
       <c r="M124" s="1">
         <v>141.0</v>
       </c>
-      <c r="N124" s="6"/>
+      <c r="N124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="1">
         <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -5183,14 +5207,14 @@
       <c r="M125" s="1">
         <v>142.0</v>
       </c>
-      <c r="N125" s="6"/>
+      <c r="N125" s="7"/>
     </row>
     <row r="126">
       <c r="A126" s="1">
         <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
@@ -5198,17 +5222,17 @@
       <c r="M126" s="1">
         <v>142.0</v>
       </c>
-      <c r="N126" s="6"/>
+      <c r="N126" s="7"/>
     </row>
     <row r="127">
       <c r="A127" s="1">
         <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
@@ -5216,7 +5240,7 @@
       <c r="J127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K127" s="14">
+      <c r="K127" s="15">
         <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
@@ -5226,30 +5250,30 @@
       <c r="M127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N127" s="6"/>
+      <c r="N127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="1">
         <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E128" s="7" t="s">
-        <v>225</v>
+      <c r="E128" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="17">
         <v>44622.625</v>
       </c>
       <c r="L128" s="1">
@@ -5259,30 +5283,30 @@
       <c r="M128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="6"/>
+      <c r="N128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="1">
         <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>227</v>
+      <c r="E129" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="17">
         <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
@@ -5292,28 +5316,28 @@
       <c r="M129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N129" s="6"/>
+      <c r="N129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E130" s="7" t="s">
-        <v>229</v>
+      <c r="E130" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="J130" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="17">
         <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
@@ -5323,25 +5347,28 @@
       <c r="M130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N130" s="6"/>
+      <c r="N130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E131" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="J131" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K131" s="16">
+      <c r="K131" s="17">
         <v>44625.125</v>
       </c>
       <c r="L131" s="1">
@@ -5351,17 +5378,17 @@
       <c r="M131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N131" s="6"/>
+      <c r="N131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
@@ -5369,7 +5396,7 @@
       <c r="J132" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="17">
         <v>44625.71875</v>
       </c>
       <c r="L132" s="1">
@@ -5379,17 +5406,17 @@
       <c r="M132" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N132" s="6"/>
+      <c r="N132" s="7"/>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>1</v>
@@ -5397,7 +5424,7 @@
       <c r="J133" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="17">
         <v>44626.5</v>
       </c>
       <c r="L133" s="1">
@@ -5407,14 +5434,14 @@
       <c r="M133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N133" s="6"/>
+      <c r="N133" s="7"/>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -5422,14 +5449,14 @@
       <c r="M134" s="1">
         <v>151.0</v>
       </c>
-      <c r="N134" s="6"/>
+      <c r="N134" s="7"/>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D135" s="1" t="b">
         <v>0</v>
@@ -5437,14 +5464,14 @@
       <c r="M135" s="1">
         <v>151.0</v>
       </c>
-      <c r="N135" s="6"/>
+      <c r="N135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -5452,14 +5479,14 @@
       <c r="M136" s="1">
         <v>151.0</v>
       </c>
-      <c r="N136" s="6"/>
+      <c r="N136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
@@ -5467,14 +5494,14 @@
       <c r="M137" s="1">
         <v>148.0</v>
       </c>
-      <c r="N137" s="6"/>
+      <c r="N137" s="7"/>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D138" s="1" t="b">
         <v>0</v>
@@ -5482,14 +5509,14 @@
       <c r="M138" s="1">
         <v>153.0</v>
       </c>
-      <c r="N138" s="6"/>
+      <c r="N138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>0</v>
@@ -5497,7 +5524,7 @@
       <c r="M139" s="1">
         <v>153.0</v>
       </c>
-      <c r="N139" s="6"/>
+      <c r="N139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="1">
@@ -5512,30 +5539,30 @@
       <c r="M140" s="1">
         <v>153.0</v>
       </c>
-      <c r="N140" s="6"/>
+      <c r="N140" s="7"/>
     </row>
     <row r="141">
       <c r="A141" s="1">
         <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E141" s="7" t="s">
-        <v>237</v>
+      <c r="E141" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="14">
+      <c r="K141" s="15">
         <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
@@ -5545,30 +5572,30 @@
       <c r="M141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N141" s="6"/>
+      <c r="N141" s="7"/>
     </row>
     <row r="142">
       <c r="A142" s="1">
         <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E142" s="7" t="s">
-        <v>239</v>
+      <c r="E142" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="14">
+      <c r="K142" s="15">
         <v>44622.166666666664</v>
       </c>
       <c r="L142" s="1">
@@ -5578,30 +5605,30 @@
       <c r="M142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N142" s="6"/>
+      <c r="N142" s="7"/>
     </row>
     <row r="143">
       <c r="A143" s="1">
         <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E143" s="7" t="s">
-        <v>241</v>
+      <c r="E143" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="14">
+      <c r="K143" s="15">
         <v>44623.166666666664</v>
       </c>
       <c r="L143" s="1">
@@ -5611,28 +5638,28 @@
       <c r="M143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N143" s="6"/>
+      <c r="N143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="1">
         <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E144" s="7" t="s">
-        <v>242</v>
+      <c r="E144" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="J144" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="14">
+      <c r="K144" s="15">
         <v>44624.125</v>
       </c>
       <c r="L144" s="1">
@@ -5642,25 +5669,28 @@
       <c r="M144" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N144" s="6"/>
+      <c r="N144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="1">
         <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E145" s="8" t="s">
+        <v>200</v>
+      </c>
       <c r="J145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K145" s="14">
+      <c r="K145" s="15">
         <v>44625.125</v>
       </c>
       <c r="L145" s="1">
@@ -5670,17 +5700,17 @@
       <c r="M145" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N145" s="6"/>
+      <c r="N145" s="7"/>
     </row>
     <row r="146">
       <c r="A146" s="1">
         <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>1</v>
@@ -5688,7 +5718,7 @@
       <c r="J146" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="14">
+      <c r="K146" s="15">
         <v>44625.458333333336</v>
       </c>
       <c r="L146" s="1">
@@ -5698,17 +5728,17 @@
       <c r="M146" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N146" s="6"/>
+      <c r="N146" s="7"/>
     </row>
     <row r="147">
       <c r="A147" s="1">
         <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -5716,7 +5746,7 @@
       <c r="J147" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="14">
+      <c r="K147" s="15">
         <v>44626.125</v>
       </c>
       <c r="L147" s="1">
@@ -5726,17 +5756,17 @@
       <c r="M147" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N147" s="6"/>
+      <c r="N147" s="7"/>
     </row>
     <row r="148">
       <c r="A148" s="1">
         <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D148" s="1" t="b">
         <v>1</v>
@@ -5744,7 +5774,7 @@
       <c r="J148" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K148" s="14">
+      <c r="K148" s="15">
         <v>44626.5</v>
       </c>
       <c r="L148" s="1">
@@ -5754,7 +5784,7 @@
       <c r="M148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N148" s="6"/>
+      <c r="N148" s="7"/>
     </row>
     <row r="149">
       <c r="A149" s="1">
@@ -5764,20 +5794,20 @@
         <v>44</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>248</v>
+      <c r="E149" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="14">
+      <c r="K149" s="15">
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
@@ -5787,7 +5817,7 @@
       <c r="M149" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N149" s="6"/>
+      <c r="N149" s="7"/>
     </row>
     <row r="150">
       <c r="A150" s="1">
@@ -5797,20 +5827,20 @@
         <v>44</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>250</v>
+      <c r="E150" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="14">
+      <c r="K150" s="15">
         <v>44622.166666666664</v>
       </c>
       <c r="L150" s="1">
@@ -5820,7 +5850,7 @@
       <c r="M150" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N150" s="6"/>
+      <c r="N150" s="7"/>
     </row>
     <row r="151">
       <c r="A151" s="1">
@@ -5830,20 +5860,20 @@
         <v>44</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E151" s="7" t="s">
-        <v>252</v>
+      <c r="E151" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K151" s="14">
+      <c r="K151" s="15">
         <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
@@ -5853,7 +5883,7 @@
       <c r="M151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N151" s="6"/>
+      <c r="N151" s="7"/>
     </row>
     <row r="152">
       <c r="A152" s="1">
@@ -5863,18 +5893,18 @@
         <v>44</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E152" s="7" t="s">
-        <v>254</v>
+      <c r="E152" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="14">
+      <c r="K152" s="15">
         <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
@@ -5884,7 +5914,7 @@
       <c r="M152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N152" s="6"/>
+      <c r="N152" s="7"/>
     </row>
     <row r="153">
       <c r="A153" s="1">
@@ -5894,18 +5924,18 @@
         <v>44</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E153" s="7" t="s">
-        <v>256</v>
+      <c r="E153" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="J153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K153" s="14">
+      <c r="K153" s="15">
         <v>44624.5</v>
       </c>
       <c r="L153" s="1">
@@ -5915,7 +5945,7 @@
       <c r="M153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N153" s="6"/>
+      <c r="N153" s="7"/>
     </row>
     <row r="154">
       <c r="A154" s="1">
@@ -5925,18 +5955,18 @@
         <v>44</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E154" s="7" t="s">
-        <v>258</v>
+      <c r="E154" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="J154" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="14">
+      <c r="K154" s="15">
         <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
@@ -5946,7 +5976,7 @@
       <c r="M154" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N154" s="6"/>
+      <c r="N154" s="7"/>
     </row>
     <row r="155">
       <c r="A155" s="1">
@@ -5956,7 +5986,7 @@
         <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
@@ -5964,7 +5994,7 @@
       <c r="J155" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="14">
+      <c r="K155" s="15">
         <v>44626.166666666664</v>
       </c>
       <c r="L155" s="1">
@@ -5974,7 +6004,7 @@
       <c r="M155" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N155" s="6"/>
+      <c r="N155" s="7"/>
     </row>
     <row r="156">
       <c r="A156" s="1">
@@ -5984,20 +6014,20 @@
         <v>56</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E156" s="7" t="s">
-        <v>261</v>
+      <c r="E156" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="14">
+      <c r="K156" s="15">
         <v>44621.5</v>
       </c>
       <c r="L156" s="1">
@@ -6007,7 +6037,7 @@
       <c r="M156" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N156" s="6"/>
+      <c r="N156" s="7"/>
     </row>
     <row r="157">
       <c r="A157" s="1">
@@ -6017,20 +6047,20 @@
         <v>56</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E157" s="7" t="s">
-        <v>263</v>
+      <c r="E157" s="8" t="s">
+        <v>266</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K157" s="14">
+      <c r="K157" s="15">
         <v>44622.5</v>
       </c>
       <c r="L157" s="1">
@@ -6040,7 +6070,7 @@
       <c r="M157" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N157" s="6"/>
+      <c r="N157" s="7"/>
     </row>
     <row r="158">
       <c r="A158" s="1">
@@ -6050,20 +6080,20 @@
         <v>56</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E158" s="7" t="s">
-        <v>265</v>
+      <c r="E158" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K158" s="14">
+      <c r="K158" s="15">
         <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
@@ -6073,7 +6103,7 @@
       <c r="M158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N158" s="6"/>
+      <c r="N158" s="7"/>
     </row>
     <row r="159">
       <c r="A159" s="1">
@@ -6083,18 +6113,18 @@
         <v>56</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E159" s="7" t="s">
-        <v>267</v>
+      <c r="E159" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="J159" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K159" s="21">
+      <c r="K159" s="22">
         <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
@@ -6104,7 +6134,7 @@
       <c r="M159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N159" s="6"/>
+      <c r="N159" s="7"/>
     </row>
     <row r="160">
       <c r="A160" s="1">
@@ -6114,7 +6144,7 @@
         <v>56</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
@@ -6125,7 +6155,7 @@
       <c r="J160" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K160" s="14">
+      <c r="K160" s="15">
         <v>44625.5</v>
       </c>
       <c r="L160" s="1">
@@ -6135,7 +6165,7 @@
       <c r="M160" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N160" s="6"/>
+      <c r="N160" s="7"/>
     </row>
     <row r="161">
       <c r="A161" s="1">
@@ -6145,7 +6175,7 @@
         <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
@@ -6153,7 +6183,7 @@
       <c r="J161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K161" s="14">
+      <c r="K161" s="15">
         <v>44626.5</v>
       </c>
       <c r="L161" s="1">
@@ -6163,7 +6193,7 @@
       <c r="M161" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N161" s="6"/>
+      <c r="N161" s="7"/>
     </row>
     <row r="162">
       <c r="A162" s="1">
@@ -6178,14 +6208,14 @@
       <c r="M162" s="1">
         <v>72.0</v>
       </c>
-      <c r="N162" s="6"/>
+      <c r="N162" s="7"/>
     </row>
     <row r="163">
       <c r="A163" s="1">
         <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>0</v>
@@ -6193,30 +6223,30 @@
       <c r="M163" s="1">
         <v>180.0</v>
       </c>
-      <c r="N163" s="6"/>
+      <c r="N163" s="7"/>
     </row>
     <row r="164">
       <c r="A164" s="1">
         <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E164" s="7" t="s">
-        <v>272</v>
+      <c r="E164" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K164" s="14">
+      <c r="K164" s="15">
         <v>44622.75</v>
       </c>
       <c r="L164" s="1">
@@ -6226,28 +6256,28 @@
       <c r="M164" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N164" s="6"/>
+      <c r="N164" s="7"/>
     </row>
     <row r="165">
       <c r="A165" s="1">
         <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E165" s="7" t="s">
-        <v>274</v>
+      <c r="E165" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="J165" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K165" s="14">
+      <c r="K165" s="15">
         <v>44623.75</v>
       </c>
       <c r="L165" s="1">
@@ -6257,28 +6287,28 @@
       <c r="M165" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N165" s="6"/>
+      <c r="N165" s="7"/>
     </row>
     <row r="166">
       <c r="A166" s="1">
         <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E166" s="7" t="s">
-        <v>274</v>
+      <c r="E166" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="J166" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K166" s="21">
+      <c r="K166" s="22">
         <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
@@ -6288,25 +6318,28 @@
       <c r="M166" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N166" s="6"/>
+      <c r="N166" s="7"/>
     </row>
     <row r="167">
       <c r="A167" s="1">
         <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E167" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="J167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K167" s="14">
+      <c r="K167" s="15">
         <v>44625.125</v>
       </c>
       <c r="L167" s="1">
@@ -6316,7 +6349,7 @@
       <c r="M167" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N167" s="6"/>
+      <c r="N167" s="7"/>
     </row>
     <row r="168">
       <c r="A168" s="1">
@@ -6326,20 +6359,20 @@
         <v>51</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E168" s="7" t="s">
-        <v>278</v>
+      <c r="E168" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K168" s="5">
+      <c r="K168" s="6">
         <v>44624.041666666664</v>
       </c>
       <c r="L168" s="1">
@@ -6349,7 +6382,7 @@
       <c r="M168" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N168" s="6"/>
+      <c r="N168" s="7"/>
     </row>
     <row r="169">
       <c r="A169" s="1">
@@ -6364,30 +6397,30 @@
       <c r="M169" s="1">
         <v>188.0</v>
       </c>
-      <c r="N169" s="6"/>
+      <c r="N169" s="7"/>
     </row>
     <row r="170">
       <c r="A170" s="1">
         <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E170" s="7" t="s">
-        <v>280</v>
+      <c r="E170" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K170" s="5">
+      <c r="J170" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K170" s="6">
         <v>44621.916666666664</v>
       </c>
       <c r="L170" s="1">
@@ -6397,30 +6430,30 @@
       <c r="M170" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N170" s="6"/>
+      <c r="N170" s="7"/>
     </row>
     <row r="171">
       <c r="A171" s="1">
         <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="H171" s="4"/>
-      <c r="I171" s="4"/>
-      <c r="J171" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K171" s="21">
+      <c r="E171" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K171" s="22">
         <v>44623.666666666664</v>
       </c>
       <c r="L171" s="1">
@@ -6430,28 +6463,28 @@
       <c r="M171" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N171" s="6"/>
+      <c r="N171" s="7"/>
     </row>
     <row r="172">
       <c r="A172" s="1">
         <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="D172" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F172" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K172" s="14">
+      <c r="K172" s="15">
         <v>44624.666666666664</v>
       </c>
       <c r="L172" s="1">
@@ -6461,14 +6494,14 @@
       <c r="M172" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N172" s="6"/>
+      <c r="N172" s="7"/>
     </row>
     <row r="173">
       <c r="A173" s="1">
         <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>71</v>
@@ -6476,15 +6509,15 @@
       <c r="D173" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E173" s="7" t="s">
-        <v>285</v>
+      <c r="E173" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K173" s="14">
+      <c r="J173" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K173" s="15">
         <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
@@ -6494,25 +6527,25 @@
       <c r="M173" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N173" s="6"/>
+      <c r="N173" s="7"/>
     </row>
     <row r="174">
       <c r="A174" s="1">
         <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D174" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J174" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="K174" s="14">
+      <c r="J174" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="K174" s="15">
         <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
@@ -6522,14 +6555,14 @@
       <c r="M174" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N174" s="6"/>
+      <c r="N174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="1">
         <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>80</v>
@@ -6537,15 +6570,15 @@
       <c r="D175" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E175" s="7" t="s">
-        <v>288</v>
+      <c r="E175" s="8" t="s">
+        <v>291</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K175" s="5">
+      <c r="K175" s="6">
         <v>44619.916666666664</v>
       </c>
       <c r="L175" s="1">
@@ -6555,30 +6588,30 @@
       <c r="M175" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N175" s="6"/>
+      <c r="N175" s="7"/>
     </row>
     <row r="176">
       <c r="A176" s="1">
         <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E176" s="7" t="s">
-        <v>290</v>
+      <c r="E176" s="8" t="s">
+        <v>293</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K176" s="5">
+      <c r="K176" s="6">
         <v>44621.0</v>
       </c>
       <c r="L176" s="1">
@@ -6588,17 +6621,17 @@
       <c r="M176" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N176" s="6"/>
+      <c r="N176" s="7"/>
     </row>
     <row r="177">
       <c r="A177" s="1">
         <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D177" s="1" t="b">
         <v>1</v>
@@ -6609,7 +6642,7 @@
       <c r="J177" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="18">
+      <c r="K177" s="19">
         <v>44621.916666666664</v>
       </c>
       <c r="L177" s="1">
@@ -6619,23 +6652,23 @@
       <c r="M177" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N177" s="6"/>
+      <c r="N177" s="7"/>
     </row>
     <row r="178">
       <c r="A178" s="1">
         <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E178" s="7" t="s">
-        <v>293</v>
+      <c r="E178" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="G178" s="1" t="b">
         <v>1</v>
@@ -6645,7 +6678,7 @@
       <c r="J178" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="18">
+      <c r="K178" s="19">
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
@@ -6655,23 +6688,23 @@
       <c r="M178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N178" s="6"/>
+      <c r="N178" s="7"/>
     </row>
     <row r="179">
       <c r="A179" s="1">
         <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E179" s="7" t="s">
-        <v>295</v>
+      <c r="E179" s="8" t="s">
+        <v>298</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1" t="b">
@@ -6680,7 +6713,7 @@
       <c r="J179" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K179" s="5">
+      <c r="K179" s="6">
         <v>44622.958333333336</v>
       </c>
       <c r="L179" s="1">
@@ -6690,17 +6723,17 @@
       <c r="M179" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N179" s="6"/>
+      <c r="N179" s="7"/>
     </row>
     <row r="180">
       <c r="A180" s="1">
         <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
@@ -6711,7 +6744,7 @@
       <c r="J180" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K180" s="5">
+      <c r="K180" s="6">
         <v>44625.041666666664</v>
       </c>
       <c r="L180" s="1">
@@ -6721,23 +6754,23 @@
       <c r="M180" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N180" s="6"/>
+      <c r="N180" s="7"/>
     </row>
     <row r="181">
       <c r="A181" s="1">
         <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E181" s="7" t="s">
-        <v>297</v>
+      <c r="E181" s="8" t="s">
+        <v>300</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>1</v>
@@ -6745,7 +6778,7 @@
       <c r="J181" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K181" s="5">
+      <c r="K181" s="6">
         <v>44625.041666666664</v>
       </c>
       <c r="L181" s="1">
@@ -6755,33 +6788,33 @@
       <c r="M181" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N181" s="6"/>
+      <c r="N181" s="7"/>
     </row>
     <row r="182">
       <c r="A182" s="1">
         <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E182" s="3" t="s">
-        <v>299</v>
+      <c r="E182" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
       <c r="J182" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K182" s="5">
+      <c r="K182" s="6">
         <v>44623.916666666664</v>
       </c>
       <c r="L182" s="1">
@@ -6791,17 +6824,17 @@
       <c r="M182" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N182" s="6"/>
+      <c r="N182" s="7"/>
     </row>
     <row r="183">
       <c r="A183" s="1">
         <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>1</v>
@@ -6809,7 +6842,7 @@
       <c r="J183" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K183" s="5">
+      <c r="K183" s="6">
         <v>44626.083333333336</v>
       </c>
       <c r="L183" s="1">
@@ -6819,30 +6852,30 @@
       <c r="M183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N183" s="6"/>
+      <c r="N183" s="7"/>
     </row>
     <row r="184">
       <c r="A184" s="1">
         <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E184" s="7" t="s">
-        <v>303</v>
+      <c r="E184" s="8" t="s">
+        <v>306</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K184" s="18">
+      <c r="K184" s="19">
         <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
@@ -6852,30 +6885,30 @@
       <c r="M184" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N184" s="6"/>
+      <c r="N184" s="7"/>
     </row>
     <row r="185">
       <c r="A185" s="1">
         <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E185" s="7" t="s">
-        <v>305</v>
+      <c r="E185" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K185" s="5">
+      <c r="K185" s="6">
         <v>44620.666666666664</v>
       </c>
       <c r="L185" s="1">
@@ -6885,30 +6918,30 @@
       <c r="M185" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N185" s="6"/>
+      <c r="N185" s="7"/>
     </row>
     <row r="186">
       <c r="A186" s="1">
         <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E186" s="7" t="s">
-        <v>307</v>
+      <c r="E186" s="8" t="s">
+        <v>310</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K186" s="5">
+      <c r="K186" s="6">
         <v>44621.916666666664</v>
       </c>
       <c r="L186" s="1">
@@ -6918,30 +6951,30 @@
       <c r="M186" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N186" s="6"/>
+      <c r="N186" s="7"/>
     </row>
     <row r="187">
       <c r="A187" s="1">
         <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E187" s="7" t="s">
-        <v>309</v>
+      <c r="E187" s="8" t="s">
+        <v>312</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K187" s="5">
+      <c r="K187" s="6">
         <v>44622.916666666664</v>
       </c>
       <c r="L187" s="1">
@@ -6951,28 +6984,28 @@
       <c r="M187" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N187" s="6"/>
+      <c r="N187" s="7"/>
     </row>
     <row r="188">
       <c r="A188" s="1">
         <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E188" s="7" t="s">
-        <v>311</v>
+      <c r="E188" s="8" t="s">
+        <v>314</v>
       </c>
       <c r="J188" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K188" s="5">
+      <c r="K188" s="6">
         <v>44625.041666666664</v>
       </c>
       <c r="L188" s="1">
@@ -6982,17 +7015,17 @@
       <c r="M188" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N188" s="6"/>
+      <c r="N188" s="7"/>
     </row>
     <row r="189">
       <c r="A189" s="1">
         <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
@@ -7000,7 +7033,7 @@
       <c r="J189" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K189" s="5">
+      <c r="K189" s="6">
         <v>44625.583333333336</v>
       </c>
       <c r="L189" s="1">
@@ -7010,23 +7043,23 @@
       <c r="M189" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N189" s="6"/>
+      <c r="N189" s="7"/>
     </row>
     <row r="190">
       <c r="A190" s="1">
         <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E190" s="7" t="s">
-        <v>314</v>
+      <c r="E190" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
@@ -7034,7 +7067,7 @@
       <c r="J190" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K190" s="5">
+      <c r="K190" s="6">
         <v>44623.958333333336</v>
       </c>
       <c r="L190" s="1">
@@ -7050,23 +7083,23 @@
         <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E191" s="7" t="s">
-        <v>317</v>
+      <c r="E191" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K191" s="5">
+      <c r="K191" s="6">
         <v>44619.5</v>
       </c>
       <c r="L191" s="1">
@@ -7076,14 +7109,14 @@
       <c r="M191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N191" s="6"/>
+      <c r="N191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="1">
         <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>80</v>
@@ -7091,15 +7124,15 @@
       <c r="D192" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E192" s="7" t="s">
-        <v>318</v>
+      <c r="E192" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="5">
+      <c r="K192" s="6">
         <v>44620.5</v>
       </c>
       <c r="L192" s="1">
@@ -7109,30 +7142,30 @@
       <c r="M192" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N192" s="6"/>
+      <c r="N192" s="7"/>
     </row>
     <row r="193">
       <c r="A193" s="1">
         <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E193" s="7" t="s">
-        <v>320</v>
+      <c r="E193" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K193" s="5">
+      <c r="K193" s="6">
         <v>44621.541666666664</v>
       </c>
       <c r="L193" s="1">
@@ -7142,30 +7175,30 @@
       <c r="M193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N193" s="6"/>
+      <c r="N193" s="7"/>
     </row>
     <row r="194">
       <c r="A194" s="1">
         <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E194" s="7" t="s">
-        <v>322</v>
+      <c r="E194" s="8" t="s">
+        <v>325</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K194" s="5">
+      <c r="K194" s="6">
         <v>44622.5</v>
       </c>
       <c r="L194" s="1">
@@ -7175,28 +7208,28 @@
       <c r="M194" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N194" s="6"/>
+      <c r="N194" s="7"/>
     </row>
     <row r="195">
       <c r="A195" s="1">
         <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E195" s="7" t="s">
-        <v>324</v>
+      <c r="E195" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="J195" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K195" s="5">
+      <c r="K195" s="6">
         <v>44623.541666666664</v>
       </c>
       <c r="L195" s="1">
@@ -7206,28 +7239,28 @@
       <c r="M195" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N195" s="6"/>
+      <c r="N195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="1">
         <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>326</v>
+      <c r="E196" s="8" t="s">
+        <v>329</v>
       </c>
       <c r="J196" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K196" s="5">
+      <c r="K196" s="6">
         <v>44624.5</v>
       </c>
       <c r="L196" s="1">
@@ -7237,28 +7270,28 @@
       <c r="M196" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N196" s="6"/>
+      <c r="N196" s="7"/>
     </row>
     <row r="197">
       <c r="A197" s="1">
         <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E197" s="7" t="s">
-        <v>328</v>
+      <c r="E197" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K197" s="5">
+      <c r="K197" s="6">
         <v>44624.875</v>
       </c>
       <c r="L197" s="1">
@@ -7268,17 +7301,17 @@
       <c r="M197" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N197" s="6"/>
+      <c r="N197" s="7"/>
     </row>
     <row r="198">
       <c r="A198" s="1">
         <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
@@ -7286,7 +7319,7 @@
       <c r="J198" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K198" s="5">
+      <c r="K198" s="6">
         <v>44626.083333333336</v>
       </c>
       <c r="L198" s="1">
@@ -7296,23 +7329,23 @@
       <c r="M198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N198" s="6"/>
+      <c r="N198" s="7"/>
     </row>
     <row r="199">
       <c r="A199" s="1">
         <v>219.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E199" s="7" t="s">
-        <v>331</v>
+      <c r="E199" s="8" t="s">
+        <v>334</v>
       </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
@@ -7320,7 +7353,7 @@
       <c r="J199" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K199" s="5">
+      <c r="K199" s="6">
         <v>44624.416666666664</v>
       </c>
       <c r="L199" s="1">
@@ -7339,13 +7372,13 @@
         <v>13</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D200" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E200" s="7" t="s">
-        <v>333</v>
+      <c r="E200" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="I200" s="1" t="b">
         <v>1</v>
@@ -7353,7 +7386,7 @@
       <c r="J200" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K200" s="23">
+      <c r="K200" s="24">
         <v>44625.541666666664</v>
       </c>
       <c r="L200" s="1">
@@ -7408,94 +7441,101 @@
     <hyperlink r:id="rId40" ref="E50"/>
     <hyperlink r:id="rId41" ref="E51"/>
     <hyperlink r:id="rId42" ref="E52"/>
-    <hyperlink r:id="rId43" ref="E55"/>
-    <hyperlink r:id="rId44" ref="E56"/>
-    <hyperlink r:id="rId45" ref="E57"/>
-    <hyperlink r:id="rId46" ref="E58"/>
-    <hyperlink r:id="rId47" ref="E59"/>
-    <hyperlink r:id="rId48" ref="E61"/>
-    <hyperlink r:id="rId49" ref="E62"/>
-    <hyperlink r:id="rId50" ref="E63"/>
-    <hyperlink r:id="rId51" ref="E64"/>
-    <hyperlink r:id="rId52" ref="E65"/>
-    <hyperlink r:id="rId53" ref="E68"/>
-    <hyperlink r:id="rId54" ref="E69"/>
-    <hyperlink r:id="rId55" ref="E70"/>
-    <hyperlink r:id="rId56" ref="E71"/>
-    <hyperlink r:id="rId57" ref="E72"/>
-    <hyperlink r:id="rId58" ref="E75"/>
-    <hyperlink r:id="rId59" ref="E76"/>
-    <hyperlink r:id="rId60" ref="E77"/>
-    <hyperlink r:id="rId61" ref="E78"/>
-    <hyperlink r:id="rId62" ref="E80"/>
-    <hyperlink r:id="rId63" ref="E81"/>
-    <hyperlink r:id="rId64" ref="E82"/>
-    <hyperlink r:id="rId65" ref="E84"/>
-    <hyperlink r:id="rId66" ref="E88"/>
-    <hyperlink r:id="rId67" ref="E89"/>
-    <hyperlink r:id="rId68" ref="E90"/>
-    <hyperlink r:id="rId69" ref="E91"/>
-    <hyperlink r:id="rId70" ref="E93"/>
-    <hyperlink r:id="rId71" ref="E94"/>
-    <hyperlink r:id="rId72" ref="E95"/>
-    <hyperlink r:id="rId73" ref="E96"/>
-    <hyperlink r:id="rId74" ref="E97"/>
-    <hyperlink r:id="rId75" ref="E103"/>
-    <hyperlink r:id="rId76" ref="E104"/>
-    <hyperlink r:id="rId77" ref="E105"/>
-    <hyperlink r:id="rId78" ref="E106"/>
-    <hyperlink r:id="rId79" ref="E107"/>
-    <hyperlink r:id="rId80" ref="E115"/>
-    <hyperlink r:id="rId81" ref="E116"/>
-    <hyperlink r:id="rId82" ref="E117"/>
-    <hyperlink r:id="rId83" ref="E118"/>
-    <hyperlink r:id="rId84" ref="E119"/>
-    <hyperlink r:id="rId85" ref="E128"/>
-    <hyperlink r:id="rId86" ref="E129"/>
-    <hyperlink r:id="rId87" ref="E130"/>
-    <hyperlink r:id="rId88" ref="E141"/>
-    <hyperlink r:id="rId89" ref="E142"/>
-    <hyperlink r:id="rId90" ref="E143"/>
-    <hyperlink r:id="rId91" ref="E144"/>
-    <hyperlink r:id="rId92" ref="E149"/>
-    <hyperlink r:id="rId93" ref="E150"/>
-    <hyperlink r:id="rId94" ref="E151"/>
-    <hyperlink r:id="rId95" ref="E152"/>
-    <hyperlink r:id="rId96" ref="E153"/>
-    <hyperlink r:id="rId97" ref="E154"/>
-    <hyperlink r:id="rId98" ref="E156"/>
-    <hyperlink r:id="rId99" ref="E157"/>
-    <hyperlink r:id="rId100" ref="E158"/>
-    <hyperlink r:id="rId101" ref="E159"/>
-    <hyperlink r:id="rId102" ref="E164"/>
-    <hyperlink r:id="rId103" ref="E165"/>
-    <hyperlink r:id="rId104" ref="E166"/>
-    <hyperlink r:id="rId105" ref="E168"/>
-    <hyperlink r:id="rId106" ref="E170"/>
-    <hyperlink r:id="rId107" ref="E171"/>
-    <hyperlink r:id="rId108" ref="E173"/>
-    <hyperlink r:id="rId109" ref="E175"/>
-    <hyperlink r:id="rId110" ref="E176"/>
-    <hyperlink r:id="rId111" ref="E178"/>
-    <hyperlink r:id="rId112" ref="E179"/>
-    <hyperlink r:id="rId113" ref="E181"/>
-    <hyperlink r:id="rId114" ref="E182"/>
-    <hyperlink r:id="rId115" ref="E184"/>
-    <hyperlink r:id="rId116" ref="E185"/>
-    <hyperlink r:id="rId117" ref="E186"/>
-    <hyperlink r:id="rId118" ref="E187"/>
-    <hyperlink r:id="rId119" ref="E188"/>
-    <hyperlink r:id="rId120" ref="E190"/>
-    <hyperlink r:id="rId121" ref="E191"/>
-    <hyperlink r:id="rId122" ref="E192"/>
-    <hyperlink r:id="rId123" ref="E193"/>
-    <hyperlink r:id="rId124" ref="E194"/>
-    <hyperlink r:id="rId125" ref="E195"/>
-    <hyperlink r:id="rId126" ref="E196"/>
-    <hyperlink r:id="rId127" ref="E197"/>
-    <hyperlink r:id="rId128" ref="E199"/>
-    <hyperlink r:id="rId129" ref="E200"/>
+    <hyperlink r:id="rId43" ref="E53"/>
+    <hyperlink r:id="rId44" ref="E55"/>
+    <hyperlink r:id="rId45" ref="E56"/>
+    <hyperlink r:id="rId46" ref="E57"/>
+    <hyperlink r:id="rId47" ref="E58"/>
+    <hyperlink r:id="rId48" ref="E59"/>
+    <hyperlink r:id="rId49" ref="E61"/>
+    <hyperlink r:id="rId50" ref="E62"/>
+    <hyperlink r:id="rId51" ref="E63"/>
+    <hyperlink r:id="rId52" ref="E64"/>
+    <hyperlink r:id="rId53" ref="E65"/>
+    <hyperlink r:id="rId54" ref="E68"/>
+    <hyperlink r:id="rId55" ref="E69"/>
+    <hyperlink r:id="rId56" ref="E70"/>
+    <hyperlink r:id="rId57" ref="E71"/>
+    <hyperlink r:id="rId58" ref="E72"/>
+    <hyperlink r:id="rId59" ref="E75"/>
+    <hyperlink r:id="rId60" ref="E76"/>
+    <hyperlink r:id="rId61" ref="E77"/>
+    <hyperlink r:id="rId62" ref="E78"/>
+    <hyperlink r:id="rId63" ref="E80"/>
+    <hyperlink r:id="rId64" ref="E81"/>
+    <hyperlink r:id="rId65" ref="E82"/>
+    <hyperlink r:id="rId66" ref="E84"/>
+    <hyperlink r:id="rId67" ref="E88"/>
+    <hyperlink r:id="rId68" ref="E89"/>
+    <hyperlink r:id="rId69" ref="E90"/>
+    <hyperlink r:id="rId70" ref="E91"/>
+    <hyperlink r:id="rId71" ref="E93"/>
+    <hyperlink r:id="rId72" ref="E94"/>
+    <hyperlink r:id="rId73" ref="E95"/>
+    <hyperlink r:id="rId74" ref="E96"/>
+    <hyperlink r:id="rId75" ref="E97"/>
+    <hyperlink r:id="rId76" ref="E103"/>
+    <hyperlink r:id="rId77" ref="E104"/>
+    <hyperlink r:id="rId78" ref="E105"/>
+    <hyperlink r:id="rId79" ref="E106"/>
+    <hyperlink r:id="rId80" ref="E107"/>
+    <hyperlink r:id="rId81" ref="E108"/>
+    <hyperlink r:id="rId82" ref="E109"/>
+    <hyperlink r:id="rId83" ref="E115"/>
+    <hyperlink r:id="rId84" ref="E116"/>
+    <hyperlink r:id="rId85" ref="E117"/>
+    <hyperlink r:id="rId86" ref="E118"/>
+    <hyperlink r:id="rId87" ref="E119"/>
+    <hyperlink r:id="rId88" ref="E121"/>
+    <hyperlink r:id="rId89" ref="E128"/>
+    <hyperlink r:id="rId90" ref="E129"/>
+    <hyperlink r:id="rId91" ref="E130"/>
+    <hyperlink r:id="rId92" ref="E131"/>
+    <hyperlink r:id="rId93" ref="E141"/>
+    <hyperlink r:id="rId94" ref="E142"/>
+    <hyperlink r:id="rId95" ref="E143"/>
+    <hyperlink r:id="rId96" ref="E144"/>
+    <hyperlink r:id="rId97" ref="E145"/>
+    <hyperlink r:id="rId98" ref="E149"/>
+    <hyperlink r:id="rId99" ref="E150"/>
+    <hyperlink r:id="rId100" ref="E151"/>
+    <hyperlink r:id="rId101" ref="E152"/>
+    <hyperlink r:id="rId102" ref="E153"/>
+    <hyperlink r:id="rId103" ref="E154"/>
+    <hyperlink r:id="rId104" ref="E156"/>
+    <hyperlink r:id="rId105" ref="E157"/>
+    <hyperlink r:id="rId106" ref="E158"/>
+    <hyperlink r:id="rId107" ref="E159"/>
+    <hyperlink r:id="rId108" ref="E164"/>
+    <hyperlink r:id="rId109" ref="E165"/>
+    <hyperlink r:id="rId110" ref="E166"/>
+    <hyperlink r:id="rId111" ref="E167"/>
+    <hyperlink r:id="rId112" ref="E168"/>
+    <hyperlink r:id="rId113" ref="E170"/>
+    <hyperlink r:id="rId114" ref="E171"/>
+    <hyperlink r:id="rId115" ref="E173"/>
+    <hyperlink r:id="rId116" ref="E175"/>
+    <hyperlink r:id="rId117" ref="E176"/>
+    <hyperlink r:id="rId118" ref="E178"/>
+    <hyperlink r:id="rId119" ref="E179"/>
+    <hyperlink r:id="rId120" ref="E181"/>
+    <hyperlink r:id="rId121" ref="E182"/>
+    <hyperlink r:id="rId122" ref="E184"/>
+    <hyperlink r:id="rId123" ref="E185"/>
+    <hyperlink r:id="rId124" ref="E186"/>
+    <hyperlink r:id="rId125" ref="E187"/>
+    <hyperlink r:id="rId126" ref="E188"/>
+    <hyperlink r:id="rId127" ref="E190"/>
+    <hyperlink r:id="rId128" ref="E191"/>
+    <hyperlink r:id="rId129" ref="E192"/>
+    <hyperlink r:id="rId130" ref="E193"/>
+    <hyperlink r:id="rId131" ref="E194"/>
+    <hyperlink r:id="rId132" ref="E195"/>
+    <hyperlink r:id="rId133" ref="E196"/>
+    <hyperlink r:id="rId134" ref="E197"/>
+    <hyperlink r:id="rId135" ref="E199"/>
+    <hyperlink r:id="rId136" ref="E200"/>
   </hyperlinks>
-  <drawing r:id="rId130"/>
+  <drawing r:id="rId137"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="341">
   <si>
     <t>id</t>
   </si>
@@ -292,6 +292,9 @@
     <t>READY OR NOT!</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=0Uw26ZRK404</t>
+  </si>
+  <si>
     <t>Sonny</t>
   </si>
   <si>
@@ -466,6 +469,9 @@
     <t>EARTHBOUND - PART 1</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=M22BHxTcXZo</t>
+  </si>
+  <si>
     <t>Reimu</t>
   </si>
   <si>
@@ -574,6 +580,9 @@
     <t>GENSHIN IMPACT</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iOSWjXi5MOM</t>
+  </si>
+  <si>
     <t>Selen</t>
   </si>
   <si>
@@ -718,6 +727,9 @@
     <t>150k Celebration Cover Release</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=oRtIiXyVW1w</t>
+  </si>
+  <si>
     <t>Mario Party w/ Petra Mysta &amp; Vox</t>
   </si>
   <si>
@@ -865,9 +877,6 @@
     <t>https://www.youtube.com/watch?v=10qibkrCUho</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>YuGiOh! Master Duel</t>
   </si>
   <si>
@@ -875,6 +884,9 @@
   </si>
   <si>
     <t>The Walking Dead S2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TDHjKMFCTTM</t>
   </si>
   <si>
     <t>https://t.co/TOERpmlJp8</t>
@@ -1036,7 +1048,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1046,7 +1058,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
@@ -1101,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1117,16 +1128,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1135,7 +1143,7 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1163,17 +1171,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1419,7 +1421,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1463,17 +1465,17 @@
       <c r="D2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
       <c r="J2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>44612.541666666664</v>
       </c>
       <c r="L2" s="1">
@@ -1483,7 +1485,7 @@
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="7"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" hidden="1">
       <c r="A3" s="1">
@@ -1498,7 +1500,7 @@
       <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="1"/>
@@ -1508,7 +1510,7 @@
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>44612.666666666664</v>
       </c>
       <c r="L3" s="1">
@@ -1518,7 +1520,7 @@
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="7"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" hidden="1">
       <c r="A4" s="1">
@@ -1533,7 +1535,7 @@
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F4" s="1"/>
@@ -1543,7 +1545,7 @@
       <c r="J4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>44613.541666666664</v>
       </c>
       <c r="L4" s="1">
@@ -1553,7 +1555,7 @@
       <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" hidden="1">
       <c r="A5" s="1">
@@ -1568,7 +1570,7 @@
       <c r="D5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F5" s="1"/>
@@ -1578,7 +1580,7 @@
       <c r="J5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>44614.583333333336</v>
       </c>
       <c r="L5" s="1">
@@ -1588,7 +1590,7 @@
       <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" hidden="1">
       <c r="A6" s="1">
@@ -1603,17 +1605,17 @@
       <c r="D6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>44615.541666666664</v>
       </c>
       <c r="L6" s="1">
@@ -1623,7 +1625,7 @@
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="7"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" hidden="1">
       <c r="A7" s="1">
@@ -1638,17 +1640,17 @@
       <c r="D7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>44616.541666666664</v>
       </c>
       <c r="L7" s="1">
@@ -1658,7 +1660,7 @@
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" hidden="1">
       <c r="A8" s="1">
@@ -1673,17 +1675,17 @@
       <c r="D8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>44617.541666666664</v>
       </c>
       <c r="L8" s="1">
@@ -1693,7 +1695,7 @@
       <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="7"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" hidden="1">
       <c r="A9" s="1">
@@ -1708,17 +1710,17 @@
       <c r="D9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
       <c r="J9" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>44611.75</v>
       </c>
       <c r="L9" s="1">
@@ -1728,7 +1730,7 @@
       <c r="M9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="7"/>
+      <c r="N9" s="6"/>
     </row>
     <row r="10" hidden="1">
       <c r="A10" s="1">
@@ -1743,7 +1745,7 @@
       <c r="D10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="1"/>
@@ -1753,7 +1755,7 @@
       <c r="J10" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>44612.5</v>
       </c>
       <c r="L10" s="1">
@@ -1763,7 +1765,7 @@
       <c r="M10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="7"/>
+      <c r="N10" s="6"/>
     </row>
     <row r="11" hidden="1">
       <c r="A11" s="1">
@@ -1778,17 +1780,17 @@
       <c r="D11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>44614.791666666664</v>
       </c>
       <c r="L11" s="1">
@@ -1798,7 +1800,7 @@
       <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="7"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" hidden="1">
       <c r="A12" s="1">
@@ -1813,7 +1815,7 @@
       <c r="D12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="1"/>
@@ -1823,7 +1825,7 @@
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <v>44615.708333333336</v>
       </c>
       <c r="L12" s="1">
@@ -1833,7 +1835,7 @@
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="6"/>
     </row>
     <row r="13" hidden="1">
       <c r="A13" s="1">
@@ -1849,7 +1851,7 @@
       <c r="M13" s="1">
         <v>6.0</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="6"/>
     </row>
     <row r="14" hidden="1">
       <c r="A14" s="1">
@@ -1865,7 +1867,7 @@
       <c r="M14" s="1">
         <v>29.0</v>
       </c>
-      <c r="N14" s="7"/>
+      <c r="N14" s="6"/>
     </row>
     <row r="15" hidden="1">
       <c r="A15" s="1">
@@ -1880,7 +1882,7 @@
       <c r="D15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="1"/>
@@ -1890,7 +1892,7 @@
       <c r="J15" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <v>44617.666666666664</v>
       </c>
       <c r="L15" s="1">
@@ -1900,7 +1902,7 @@
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="7"/>
+      <c r="N15" s="6"/>
     </row>
     <row r="16" hidden="1">
       <c r="A16" s="1">
@@ -1915,17 +1917,17 @@
       <c r="D16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
       <c r="J16" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>44618.541666666664</v>
       </c>
       <c r="L16" s="1">
@@ -1935,7 +1937,7 @@
       <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="7"/>
+      <c r="N16" s="6"/>
     </row>
     <row r="17" hidden="1">
       <c r="A17" s="1">
@@ -1951,7 +1953,7 @@
       <c r="M17" s="1">
         <v>17.0</v>
       </c>
-      <c r="N17" s="7"/>
+      <c r="N17" s="6"/>
     </row>
     <row r="18" hidden="1">
       <c r="A18" s="1">
@@ -1966,7 +1968,7 @@
       <c r="D18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="F18" s="1"/>
@@ -1976,7 +1978,7 @@
       <c r="J18" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>44619.083333333336</v>
       </c>
       <c r="L18" s="1">
@@ -1986,7 +1988,7 @@
       <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="7"/>
+      <c r="N18" s="6"/>
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="1">
@@ -2002,7 +2004,7 @@
       <c r="M19" s="1">
         <v>29.0</v>
       </c>
-      <c r="N19" s="7"/>
+      <c r="N19" s="6"/>
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="1">
@@ -2017,17 +2019,17 @@
       <c r="D20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>44614.166666666664</v>
       </c>
       <c r="L20" s="1">
@@ -2037,7 +2039,7 @@
       <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="7"/>
+      <c r="N20" s="6"/>
     </row>
     <row r="21" hidden="1">
       <c r="A21" s="1">
@@ -2052,7 +2054,7 @@
       <c r="D21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F21" s="1"/>
@@ -2062,7 +2064,7 @@
       <c r="J21" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <v>44615.166666666664</v>
       </c>
       <c r="L21" s="1">
@@ -2072,7 +2074,7 @@
       <c r="M21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="7"/>
+      <c r="N21" s="6"/>
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="1">
@@ -2087,7 +2089,7 @@
       <c r="D22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="1"/>
@@ -2097,7 +2099,7 @@
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>44616.041666666664</v>
       </c>
       <c r="L22" s="1">
@@ -2107,7 +2109,7 @@
       <c r="M22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="7"/>
+      <c r="N22" s="6"/>
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="1">
@@ -2122,7 +2124,7 @@
       <c r="D23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F23" s="1"/>
@@ -2132,7 +2134,7 @@
       <c r="J23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>44617.041666666664</v>
       </c>
       <c r="L23" s="1">
@@ -2142,7 +2144,7 @@
       <c r="M23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="7"/>
+      <c r="N23" s="6"/>
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="1">
@@ -2158,7 +2160,7 @@
       <c r="M24" s="1">
         <v>22.0</v>
       </c>
-      <c r="N24" s="7"/>
+      <c r="N24" s="6"/>
     </row>
     <row r="25" hidden="1">
       <c r="A25" s="1">
@@ -2174,7 +2176,7 @@
       <c r="M25" s="1">
         <v>29.0</v>
       </c>
-      <c r="N25" s="7"/>
+      <c r="N25" s="6"/>
     </row>
     <row r="26" hidden="1">
       <c r="A26" s="1">
@@ -2189,7 +2191,7 @@
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F26" s="1"/>
@@ -2199,7 +2201,7 @@
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="8">
         <v>44618.125</v>
       </c>
       <c r="L26" s="1">
@@ -2209,7 +2211,7 @@
       <c r="M26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="7"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" hidden="1">
       <c r="A27" s="1">
@@ -2224,7 +2226,7 @@
       <c r="D27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="1"/>
@@ -2234,7 +2236,7 @@
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <v>44612.666666666664</v>
       </c>
       <c r="L27" s="1">
@@ -2244,7 +2246,7 @@
       <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="7"/>
+      <c r="N27" s="6"/>
     </row>
     <row r="28" hidden="1">
       <c r="A28" s="1">
@@ -2259,17 +2261,17 @@
       <c r="D28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>58</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
       <c r="J28" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <v>44614.5</v>
       </c>
       <c r="L28" s="1">
@@ -2279,7 +2281,7 @@
       <c r="M28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="7"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" hidden="1">
       <c r="A29" s="1">
@@ -2294,17 +2296,17 @@
       <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>60</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
       <c r="J29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <v>44615.5</v>
       </c>
       <c r="L29" s="1">
@@ -2314,7 +2316,7 @@
       <c r="M29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="7"/>
+      <c r="N29" s="6"/>
     </row>
     <row r="30" hidden="1">
       <c r="A30" s="1">
@@ -2329,17 +2331,17 @@
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <v>44616.791666666664</v>
       </c>
       <c r="L30" s="1">
@@ -2349,7 +2351,7 @@
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" hidden="1">
       <c r="A31" s="1">
@@ -2364,17 +2366,17 @@
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <v>44617.5</v>
       </c>
       <c r="L31" s="1">
@@ -2384,7 +2386,7 @@
       <c r="M31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="7"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" hidden="1">
       <c r="A32" s="1">
@@ -2399,17 +2401,17 @@
       <c r="D32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>66</v>
       </c>
       <c r="F32" s="1"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
       <c r="J32" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <v>44618.5</v>
       </c>
       <c r="L32" s="1">
@@ -2419,7 +2421,7 @@
       <c r="M32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="6"/>
     </row>
     <row r="33" hidden="1">
       <c r="A33" s="1">
@@ -2434,17 +2436,17 @@
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>68</v>
       </c>
       <c r="F33" s="1"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <v>44612.666666666664</v>
       </c>
       <c r="L33" s="1">
@@ -2454,7 +2456,7 @@
       <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="7"/>
+      <c r="N33" s="6"/>
     </row>
     <row r="34" hidden="1">
       <c r="A34" s="1">
@@ -2469,17 +2471,17 @@
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>70</v>
       </c>
       <c r="F34" s="1"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <v>44614.958333333336</v>
       </c>
       <c r="L34" s="1">
@@ -2489,7 +2491,7 @@
       <c r="M34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N34" s="7"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" hidden="1">
       <c r="A35" s="1">
@@ -2508,7 +2510,7 @@
       <c r="J35" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <v>44615.833333333336</v>
       </c>
       <c r="L35" s="1">
@@ -2518,7 +2520,7 @@
       <c r="M35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N35" s="7"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" hidden="1">
       <c r="A36" s="1">
@@ -2534,7 +2536,7 @@
       <c r="M36" s="1">
         <v>29.0</v>
       </c>
-      <c r="N36" s="7"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" hidden="1">
       <c r="A37" s="1">
@@ -2549,7 +2551,7 @@
       <c r="D37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F37" s="1"/>
@@ -2559,7 +2561,7 @@
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <v>44617.833333333336</v>
       </c>
       <c r="L37" s="1">
@@ -2569,7 +2571,7 @@
       <c r="M37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N37" s="7"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" hidden="1">
       <c r="A38" s="1">
@@ -2584,7 +2586,7 @@
       <c r="D38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F38" s="1"/>
@@ -2594,7 +2596,7 @@
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <v>44618.125</v>
       </c>
       <c r="L38" s="1">
@@ -2604,7 +2606,7 @@
       <c r="M38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N38" s="7"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" hidden="1">
       <c r="A39" s="1">
@@ -2619,7 +2621,7 @@
       <c r="D39" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F39" s="1"/>
@@ -2629,7 +2631,7 @@
       <c r="J39" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <v>44619.833333333336</v>
       </c>
       <c r="L39" s="1">
@@ -2639,60 +2641,60 @@
       <c r="M39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N39" s="7"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" hidden="1">
-      <c r="A40" s="10">
+      <c r="A40" s="9">
         <v>39.0</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K40" s="12">
+      <c r="K40" s="11">
         <v>44619.291666666664</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L40" s="9">
         <f t="shared" si="5"/>
         <v>1645945200000</v>
       </c>
-      <c r="M40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="13"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
+      <c r="M40" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
     </row>
     <row r="41">
       <c r="A41" s="1">
@@ -2707,15 +2709,15 @@
       <c r="D41" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <v>44620.0</v>
       </c>
       <c r="L41" s="1">
@@ -2725,7 +2727,7 @@
       <c r="M41" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N41" s="7"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
@@ -2740,7 +2742,7 @@
       <c r="D42" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>83</v>
       </c>
       <c r="H42" s="1"/>
@@ -2748,7 +2750,7 @@
       <c r="J42" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <v>44621.083333333336</v>
       </c>
       <c r="L42" s="1">
@@ -2758,7 +2760,7 @@
       <c r="M42" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N42" s="7"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43">
       <c r="A43" s="1">
@@ -2773,7 +2775,7 @@
       <c r="D43" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="7" t="s">
         <v>85</v>
       </c>
       <c r="H43" s="1"/>
@@ -2781,7 +2783,7 @@
       <c r="J43" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <v>44622.0</v>
       </c>
       <c r="L43" s="1">
@@ -2791,7 +2793,7 @@
       <c r="M43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="7"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44">
       <c r="A44" s="1">
@@ -2806,7 +2808,7 @@
       <c r="D44" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H44" s="1"/>
@@ -2814,7 +2816,7 @@
       <c r="J44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <v>44623.0</v>
       </c>
       <c r="L44" s="1">
@@ -2824,7 +2826,7 @@
       <c r="M44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="7"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45">
       <c r="A45" s="1">
@@ -2839,7 +2841,7 @@
       <c r="D45" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="7" t="s">
         <v>89</v>
       </c>
       <c r="H45" s="1"/>
@@ -2847,7 +2849,7 @@
       <c r="J45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <v>44624.0</v>
       </c>
       <c r="L45" s="1">
@@ -2857,7 +2859,7 @@
       <c r="M45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="7"/>
+      <c r="N45" s="6"/>
     </row>
     <row r="46">
       <c r="A46" s="1">
@@ -2872,13 +2874,13 @@
       <c r="D46" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>91</v>
       </c>
       <c r="J46" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <v>44625.0</v>
       </c>
       <c r="L46" s="1">
@@ -2888,7 +2890,7 @@
       <c r="M46" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="7"/>
+      <c r="N46" s="6"/>
     </row>
     <row r="47">
       <c r="A47" s="1">
@@ -2903,10 +2905,13 @@
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E47" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="J47" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <v>44626.083333333336</v>
       </c>
       <c r="L47" s="1">
@@ -2916,30 +2921,30 @@
       <c r="M47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="7"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48">
       <c r="A48" s="1">
         <v>60.0</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="E48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
       <c r="J48" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <v>44620.083333333336</v>
       </c>
       <c r="L48" s="1">
@@ -2949,30 +2954,30 @@
       <c r="M48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="7"/>
+      <c r="N48" s="6"/>
     </row>
     <row r="49">
       <c r="A49" s="1">
         <v>61.0</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>97</v>
+      <c r="E49" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <v>44621.166666666664</v>
       </c>
       <c r="L49" s="1">
@@ -2982,30 +2987,30 @@
       <c r="M49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="7"/>
+      <c r="N49" s="6"/>
     </row>
     <row r="50">
       <c r="A50" s="1">
         <v>62.0</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D50" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>99</v>
+      <c r="E50" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <v>44622.083333333336</v>
       </c>
       <c r="L50" s="1">
@@ -3015,30 +3020,30 @@
       <c r="M50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="7"/>
+      <c r="N50" s="6"/>
     </row>
     <row r="51">
       <c r="A51" s="1">
         <v>63.0</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D51" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>101</v>
+      <c r="E51" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <v>44623.208333333336</v>
       </c>
       <c r="L51" s="1">
@@ -3048,30 +3053,30 @@
       <c r="M51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N51" s="7"/>
+      <c r="N51" s="6"/>
     </row>
     <row r="52">
       <c r="A52" s="1">
         <v>64.0</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E52" s="8" t="s">
-        <v>103</v>
+      <c r="E52" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <v>44624.333333333336</v>
       </c>
       <c r="L52" s="1">
@@ -3081,28 +3086,28 @@
       <c r="M52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N52" s="7"/>
+      <c r="N52" s="6"/>
     </row>
     <row r="53">
       <c r="A53" s="1">
         <v>65.0</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D53" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E53" s="8" t="s">
-        <v>105</v>
+      <c r="E53" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="J53" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <v>44625.333333333336</v>
       </c>
       <c r="L53" s="1">
@@ -3112,17 +3117,17 @@
       <c r="M53" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N53" s="7"/>
+      <c r="N53" s="6"/>
     </row>
     <row r="54">
       <c r="A54" s="1">
         <v>66.0</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D54" s="1" t="b">
         <v>1</v>
@@ -3130,7 +3135,7 @@
       <c r="J54" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <v>44626.083333333336</v>
       </c>
       <c r="L54" s="1">
@@ -3140,7 +3145,7 @@
       <c r="M54" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="6"/>
     </row>
     <row r="55">
       <c r="A55" s="1">
@@ -3150,20 +3155,20 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E55" s="8" t="s">
-        <v>108</v>
+      <c r="E55" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <v>44619.583333333336</v>
       </c>
       <c r="L55" s="1">
@@ -3173,7 +3178,7 @@
       <c r="M55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N55" s="7"/>
+      <c r="N55" s="6"/>
     </row>
     <row r="56">
       <c r="A56" s="1">
@@ -3183,20 +3188,20 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E56" s="8" t="s">
-        <v>110</v>
+      <c r="E56" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <v>44620.583333333336</v>
       </c>
       <c r="L56" s="1">
@@ -3206,7 +3211,7 @@
       <c r="M56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N56" s="7"/>
+      <c r="N56" s="6"/>
     </row>
     <row r="57">
       <c r="A57" s="1">
@@ -3216,20 +3221,20 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E57" s="8" t="s">
-        <v>112</v>
+      <c r="E57" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <v>44621.541666666664</v>
       </c>
       <c r="L57" s="1">
@@ -3239,7 +3244,7 @@
       <c r="M57" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="6"/>
     </row>
     <row r="58">
       <c r="A58" s="1">
@@ -3249,20 +3254,20 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>114</v>
+      <c r="E58" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <v>44622.583333333336</v>
       </c>
       <c r="L58" s="1">
@@ -3272,7 +3277,7 @@
       <c r="M58" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N58" s="7"/>
+      <c r="N58" s="6"/>
     </row>
     <row r="59">
       <c r="A59" s="1">
@@ -3282,13 +3287,13 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>116</v>
+      <c r="E59" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="G59" s="1" t="b">
         <v>1</v>
@@ -3296,7 +3301,7 @@
       <c r="J59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="14">
         <v>44624.5</v>
       </c>
       <c r="L59" s="1">
@@ -3306,7 +3311,7 @@
       <c r="M59" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N59" s="7"/>
+      <c r="N59" s="6"/>
     </row>
     <row r="60">
       <c r="A60" s="1">
@@ -3316,7 +3321,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
@@ -3327,7 +3332,7 @@
       <c r="J60" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <v>44624.541666666664</v>
       </c>
       <c r="L60" s="1">
@@ -3337,7 +3342,7 @@
       <c r="M60" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N60" s="7"/>
+      <c r="N60" s="6"/>
     </row>
     <row r="61">
       <c r="A61" s="1">
@@ -3347,20 +3352,20 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D61" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E61" s="8" t="s">
-        <v>119</v>
+      <c r="E61" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <v>44623.541666666664</v>
       </c>
       <c r="L61" s="1">
@@ -3370,7 +3375,7 @@
       <c r="M61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N61" s="7"/>
+      <c r="N61" s="6"/>
     </row>
     <row r="62">
       <c r="A62" s="1">
@@ -3380,20 +3385,20 @@
         <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="E62" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
       <c r="J62" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <v>44620.5</v>
       </c>
       <c r="L62" s="1">
@@ -3403,7 +3408,7 @@
       <c r="M62" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N62" s="7"/>
+      <c r="N62" s="6"/>
     </row>
     <row r="63">
       <c r="A63" s="1">
@@ -3413,20 +3418,20 @@
         <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E63" s="8" t="s">
-        <v>123</v>
+      <c r="E63" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <v>44621.916666666664</v>
       </c>
       <c r="L63" s="1">
@@ -3436,7 +3441,7 @@
       <c r="M63" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N63" s="7"/>
+      <c r="N63" s="6"/>
     </row>
     <row r="64">
       <c r="A64" s="1">
@@ -3446,20 +3451,20 @@
         <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E64" s="8" t="s">
-        <v>125</v>
+      <c r="E64" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <v>44622.625</v>
       </c>
       <c r="L64" s="1">
@@ -3469,7 +3474,7 @@
       <c r="M64" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N64" s="7"/>
+      <c r="N64" s="6"/>
     </row>
     <row r="65">
       <c r="A65" s="1">
@@ -3479,13 +3484,13 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>127</v>
+      <c r="E65" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3493,7 +3498,7 @@
       <c r="J65" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <v>44624.875</v>
       </c>
       <c r="L65" s="1">
@@ -3503,7 +3508,7 @@
       <c r="M65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N65" s="7"/>
+      <c r="N65" s="6"/>
     </row>
     <row r="66">
       <c r="A66" s="1">
@@ -3513,7 +3518,7 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
@@ -3521,7 +3526,7 @@
       <c r="J66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="15">
         <v>44625.625</v>
       </c>
       <c r="L66" s="1">
@@ -3531,7 +3536,7 @@
       <c r="M66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N66" s="7"/>
+      <c r="N66" s="6"/>
     </row>
     <row r="67">
       <c r="A67" s="1">
@@ -3541,7 +3546,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
@@ -3549,7 +3554,7 @@
       <c r="J67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <v>44626.583333333336</v>
       </c>
       <c r="L67" s="1">
@@ -3559,7 +3564,7 @@
       <c r="M67" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N67" s="7"/>
+      <c r="N67" s="6"/>
     </row>
     <row r="68">
       <c r="A68" s="1">
@@ -3568,21 +3573,21 @@
       <c r="B68" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>130</v>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E68" s="8" t="s">
-        <v>131</v>
+      <c r="E68" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <v>44620.416666666664</v>
       </c>
       <c r="L68" s="1">
@@ -3592,7 +3597,7 @@
       <c r="M68" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N68" s="7"/>
+      <c r="N68" s="6"/>
     </row>
     <row r="69">
       <c r="A69" s="1">
@@ -3602,20 +3607,20 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E69" s="8" t="s">
-        <v>133</v>
+      <c r="E69" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <v>44621.125</v>
       </c>
       <c r="L69" s="1">
@@ -3625,7 +3630,7 @@
       <c r="M69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N69" s="7"/>
+      <c r="N69" s="6"/>
     </row>
     <row r="70">
       <c r="A70" s="1">
@@ -3635,20 +3640,20 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>135</v>
+      <c r="E70" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <v>44622.0</v>
       </c>
       <c r="L70" s="1">
@@ -3658,7 +3663,7 @@
       <c r="M70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N70" s="7"/>
+      <c r="N70" s="6"/>
     </row>
     <row r="71">
       <c r="A71" s="1">
@@ -3668,20 +3673,20 @@
         <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>137</v>
+      <c r="E71" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <v>44623.0</v>
       </c>
       <c r="L71" s="1">
@@ -3691,7 +3696,7 @@
       <c r="M71" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N71" s="7"/>
+      <c r="N71" s="6"/>
     </row>
     <row r="72">
       <c r="A72" s="1">
@@ -3701,18 +3706,18 @@
         <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E72" s="8" t="s">
-        <v>139</v>
+      <c r="E72" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="J72" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <v>44623.791666666664</v>
       </c>
       <c r="L72" s="1">
@@ -3722,7 +3727,7 @@
       <c r="M72" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N72" s="7"/>
+      <c r="N72" s="6"/>
     </row>
     <row r="73">
       <c r="A73" s="1">
@@ -3732,7 +3737,7 @@
         <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
@@ -3740,7 +3745,7 @@
       <c r="J73" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>44625.583333333336</v>
       </c>
       <c r="L73" s="1">
@@ -3750,7 +3755,7 @@
       <c r="M73" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N73" s="7"/>
+      <c r="N73" s="6"/>
     </row>
     <row r="74">
       <c r="A74" s="1">
@@ -3768,7 +3773,7 @@
       <c r="J74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>44627.041666666664</v>
       </c>
       <c r="L74" s="1">
@@ -3778,30 +3783,30 @@
       <c r="M74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N74" s="7"/>
+      <c r="N74" s="6"/>
     </row>
     <row r="75">
       <c r="A75" s="1">
         <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E75" s="8" t="s">
-        <v>143</v>
+      <c r="E75" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K75" s="17">
+      <c r="K75" s="16">
         <v>44620.875</v>
       </c>
       <c r="L75" s="1">
@@ -3811,30 +3816,30 @@
       <c r="M75" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N75" s="7"/>
+      <c r="N75" s="6"/>
     </row>
     <row r="76">
       <c r="A76" s="1">
         <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>145</v>
+      <c r="E76" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="18">
+      <c r="K76" s="17">
         <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
@@ -3844,28 +3849,28 @@
       <c r="M76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N76" s="7"/>
+      <c r="N76" s="6"/>
     </row>
     <row r="77">
       <c r="A77" s="1">
         <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E77" s="8" t="s">
-        <v>147</v>
+      <c r="E77" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="J77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K77" s="18">
+      <c r="K77" s="17">
         <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
@@ -3875,28 +3880,28 @@
       <c r="M77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N77" s="7"/>
+      <c r="N77" s="6"/>
     </row>
     <row r="78">
       <c r="A78" s="1">
         <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>149</v>
+      <c r="E78" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K78" s="18">
+      <c r="K78" s="17">
         <v>44624.875</v>
       </c>
       <c r="L78" s="1">
@@ -3906,25 +3911,28 @@
       <c r="M78" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N78" s="7"/>
+      <c r="N78" s="6"/>
     </row>
     <row r="79">
       <c r="A79" s="1">
         <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E79" s="7" t="s">
+        <v>152</v>
+      </c>
       <c r="J79" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>44625.875</v>
       </c>
       <c r="L79" s="1">
@@ -3934,30 +3942,30 @@
       <c r="M79" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N79" s="7"/>
+      <c r="N79" s="6"/>
     </row>
     <row r="80">
       <c r="A80" s="1">
         <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="E80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
       <c r="J80" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>44620.75</v>
       </c>
       <c r="L80" s="1">
@@ -3967,30 +3975,30 @@
       <c r="M80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N80" s="7"/>
+      <c r="N80" s="6"/>
     </row>
     <row r="81">
       <c r="A81" s="1">
         <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>156</v>
+      <c r="E81" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K81" s="18">
         <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
@@ -4000,30 +4008,30 @@
       <c r="M81" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N81" s="7"/>
+      <c r="N81" s="6"/>
     </row>
     <row r="82">
       <c r="A82" s="1">
         <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="E82" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="5">
         <v>44621.5625</v>
       </c>
       <c r="L82" s="1">
@@ -4033,17 +4041,17 @@
       <c r="M82" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N82" s="7"/>
+      <c r="N82" s="6"/>
     </row>
     <row r="83">
       <c r="A83" s="1">
         <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
@@ -4051,7 +4059,7 @@
       <c r="J83" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>44622.552083333336</v>
       </c>
       <c r="L83" s="1">
@@ -4061,30 +4069,30 @@
       <c r="M83" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N83" s="7"/>
+      <c r="N83" s="6"/>
     </row>
     <row r="84">
       <c r="A84" s="1">
         <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="E84" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
       <c r="J84" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="5">
         <v>44623.21875</v>
       </c>
       <c r="L84" s="1">
@@ -4094,17 +4102,17 @@
       <c r="M84" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N84" s="7"/>
+      <c r="N84" s="6"/>
     </row>
     <row r="85">
       <c r="A85" s="1">
         <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>1</v>
@@ -4115,7 +4123,7 @@
       <c r="J85" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>44624.604166666664</v>
       </c>
       <c r="L85" s="1">
@@ -4125,28 +4133,28 @@
       <c r="M85" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N85" s="7"/>
+      <c r="N85" s="6"/>
     </row>
     <row r="86">
       <c r="A86" s="1">
         <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F86" s="1" t="b">
+      <c r="H86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J86" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>44625.416666666664</v>
       </c>
       <c r="L86" s="1">
@@ -4156,17 +4164,17 @@
       <c r="M86" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N86" s="7"/>
+      <c r="N86" s="6"/>
     </row>
     <row r="87">
       <c r="A87" s="1">
         <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4174,7 +4182,7 @@
       <c r="J87" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>44626.708333333336</v>
       </c>
       <c r="L87" s="1">
@@ -4184,30 +4192,30 @@
       <c r="M87" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N87" s="7"/>
+      <c r="N87" s="6"/>
     </row>
     <row r="88">
       <c r="A88" s="1">
         <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E88" s="8" t="s">
-        <v>167</v>
+      <c r="E88" s="7" t="s">
+        <v>169</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K88" s="17">
+      <c r="K88" s="16">
         <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
@@ -4217,30 +4225,30 @@
       <c r="M88" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N88" s="7"/>
+      <c r="N88" s="6"/>
     </row>
     <row r="89">
       <c r="A89" s="1">
         <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E89" s="8" t="s">
-        <v>169</v>
+      <c r="E89" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K89" s="17">
+      <c r="K89" s="16">
         <v>44622.0</v>
       </c>
       <c r="L89" s="1">
@@ -4250,30 +4258,30 @@
       <c r="M89" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N89" s="7"/>
+      <c r="N89" s="6"/>
     </row>
     <row r="90">
       <c r="A90" s="1">
         <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E90" s="8" t="s">
-        <v>171</v>
+      <c r="E90" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K90" s="17">
+      <c r="K90" s="16">
         <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
@@ -4283,28 +4291,28 @@
       <c r="M90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N90" s="7"/>
+      <c r="N90" s="6"/>
     </row>
     <row r="91">
       <c r="A91" s="1">
         <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E91" s="8" t="s">
-        <v>173</v>
+      <c r="E91" s="7" t="s">
+        <v>175</v>
       </c>
       <c r="J91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K91" s="17">
+      <c r="K91" s="16">
         <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
@@ -4314,17 +4322,17 @@
       <c r="M91" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N91" s="7"/>
+      <c r="N91" s="6"/>
     </row>
     <row r="92">
       <c r="A92" s="1">
         <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
@@ -4332,7 +4340,7 @@
       <c r="J92" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="16">
         <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
@@ -4342,30 +4350,30 @@
       <c r="M92" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N92" s="7"/>
+      <c r="N92" s="6"/>
     </row>
     <row r="93">
       <c r="A93" s="1">
         <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E93" s="8" t="s">
-        <v>177</v>
+      <c r="E93" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K93" s="17">
+      <c r="K93" s="16">
         <v>44620.875</v>
       </c>
       <c r="L93" s="1">
@@ -4375,30 +4383,30 @@
       <c r="M93" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N93" s="7"/>
+      <c r="N93" s="6"/>
     </row>
     <row r="94">
       <c r="A94" s="1">
         <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E94" s="8" t="s">
-        <v>179</v>
+      <c r="E94" s="7" t="s">
+        <v>181</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K94" s="17">
+      <c r="K94" s="16">
         <v>44621.875</v>
       </c>
       <c r="L94" s="1">
@@ -4408,30 +4416,30 @@
       <c r="M94" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N94" s="7"/>
+      <c r="N94" s="6"/>
     </row>
     <row r="95">
       <c r="A95" s="1">
         <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>181</v>
+      <c r="E95" s="7" t="s">
+        <v>183</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K95" s="17">
+      <c r="K95" s="16">
         <v>44622.875</v>
       </c>
       <c r="L95" s="1">
@@ -4441,28 +4449,28 @@
       <c r="M95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N95" s="7"/>
+      <c r="N95" s="6"/>
     </row>
     <row r="96">
       <c r="A96" s="1">
         <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>183</v>
+      <c r="E96" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K96" s="17">
+      <c r="K96" s="16">
         <v>44623.875</v>
       </c>
       <c r="L96" s="1">
@@ -4472,28 +4480,28 @@
       <c r="M96" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N96" s="7"/>
+      <c r="N96" s="6"/>
     </row>
     <row r="97">
       <c r="A97" s="1">
         <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E97" s="8" t="s">
-        <v>185</v>
+      <c r="E97" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="J97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="20">
+      <c r="K97" s="19">
         <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
@@ -4503,25 +4511,28 @@
       <c r="M97" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N97" s="7"/>
+      <c r="N97" s="6"/>
     </row>
     <row r="98">
       <c r="A98" s="1">
         <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E98" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="J98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K98" s="17">
+      <c r="K98" s="16">
         <v>44625.875</v>
       </c>
       <c r="L98" s="1">
@@ -4531,7 +4542,7 @@
       <c r="M98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N98" s="7"/>
+      <c r="N98" s="6"/>
     </row>
     <row r="99">
       <c r="A99" s="1">
@@ -4546,14 +4557,14 @@
       <c r="M99" s="1">
         <v>117.0</v>
       </c>
-      <c r="N99" s="7"/>
+      <c r="N99" s="6"/>
     </row>
     <row r="100">
       <c r="A100" s="1">
         <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
@@ -4561,14 +4572,14 @@
       <c r="M100" s="1">
         <v>117.0</v>
       </c>
-      <c r="N100" s="7"/>
+      <c r="N100" s="6"/>
     </row>
     <row r="101">
       <c r="A101" s="1">
         <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
@@ -4576,14 +4587,14 @@
       <c r="M101" s="1">
         <v>117.0</v>
       </c>
-      <c r="N101" s="7"/>
+      <c r="N101" s="6"/>
     </row>
     <row r="102">
       <c r="A102" s="1">
         <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>0</v>
@@ -4591,30 +4602,30 @@
       <c r="M102" s="1">
         <v>111.0</v>
       </c>
-      <c r="N102" s="7"/>
+      <c r="N102" s="6"/>
     </row>
     <row r="103">
       <c r="A103" s="1">
         <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E103" s="8" t="s">
-        <v>190</v>
+      <c r="E103" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="17">
+      <c r="K103" s="16">
         <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
@@ -4624,30 +4635,30 @@
       <c r="M103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N103" s="7"/>
+      <c r="N103" s="6"/>
     </row>
     <row r="104">
       <c r="A104" s="1">
         <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E104" s="8" t="s">
-        <v>192</v>
+      <c r="E104" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="17">
+      <c r="K104" s="16">
         <v>44621.875</v>
       </c>
       <c r="L104" s="1">
@@ -4657,30 +4668,30 @@
       <c r="M104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N104" s="7"/>
+      <c r="N104" s="6"/>
     </row>
     <row r="105">
       <c r="A105" s="1">
         <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E105" s="8" t="s">
-        <v>194</v>
+      <c r="E105" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K105" s="17">
+      <c r="K105" s="16">
         <v>44622.125</v>
       </c>
       <c r="L105" s="1">
@@ -4690,30 +4701,30 @@
       <c r="M105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N105" s="7"/>
+      <c r="N105" s="6"/>
     </row>
     <row r="106">
       <c r="A106" s="1">
         <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="E106" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
       <c r="J106" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K106" s="17">
+      <c r="K106" s="16">
         <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
@@ -4723,23 +4734,23 @@
       <c r="M106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N106" s="7"/>
+      <c r="N106" s="6"/>
     </row>
     <row r="107">
       <c r="A107" s="1">
         <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E107" s="8" t="s">
-        <v>198</v>
+      <c r="E107" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>1</v>
@@ -4747,7 +4758,7 @@
       <c r="J107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="17">
+      <c r="K107" s="16">
         <v>44624.875</v>
       </c>
       <c r="L107" s="1">
@@ -4757,28 +4768,28 @@
       <c r="M107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N107" s="7"/>
+      <c r="N107" s="6"/>
     </row>
     <row r="108">
       <c r="A108" s="1">
         <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E108" s="8" t="s">
-        <v>200</v>
+      <c r="E108" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="J108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="17">
+      <c r="K108" s="16">
         <v>44625.125</v>
       </c>
       <c r="L108" s="1">
@@ -4788,28 +4799,28 @@
       <c r="M108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N108" s="7"/>
+      <c r="N108" s="6"/>
     </row>
     <row r="109">
       <c r="A109" s="1">
         <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E109" s="8" t="s">
-        <v>202</v>
+      <c r="E109" s="7" t="s">
+        <v>205</v>
       </c>
       <c r="J109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K109" s="17">
+      <c r="K109" s="16">
         <v>44626.0</v>
       </c>
       <c r="L109" s="1">
@@ -4819,7 +4830,7 @@
       <c r="M109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N109" s="7"/>
+      <c r="N109" s="6"/>
     </row>
     <row r="110">
       <c r="A110" s="1">
@@ -4834,14 +4845,14 @@
       <c r="M110" s="1">
         <v>127.0</v>
       </c>
-      <c r="N110" s="7"/>
+      <c r="N110" s="6"/>
     </row>
     <row r="111">
       <c r="A111" s="1">
         <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>0</v>
@@ -4849,14 +4860,14 @@
       <c r="M111" s="1">
         <v>128.0</v>
       </c>
-      <c r="N111" s="7"/>
+      <c r="N111" s="6"/>
     </row>
     <row r="112">
       <c r="A112" s="1">
         <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
@@ -4864,14 +4875,14 @@
       <c r="M112" s="1">
         <v>128.0</v>
       </c>
-      <c r="N112" s="7"/>
+      <c r="N112" s="6"/>
     </row>
     <row r="113">
       <c r="A113" s="1">
         <v>133.0</v>
       </c>
-      <c r="B113" s="21" t="s">
-        <v>205</v>
+      <c r="B113" s="20" t="s">
+        <v>208</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4879,14 +4890,14 @@
       <c r="M113" s="1">
         <v>128.0</v>
       </c>
-      <c r="N113" s="7"/>
+      <c r="N113" s="6"/>
     </row>
     <row r="114">
       <c r="A114" s="1">
         <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4894,30 +4905,30 @@
       <c r="M114" s="1">
         <v>83.0</v>
       </c>
-      <c r="N114" s="7"/>
+      <c r="N114" s="6"/>
     </row>
     <row r="115">
       <c r="A115" s="1">
         <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E115" s="8" t="s">
-        <v>209</v>
+      <c r="E115" s="7" t="s">
+        <v>212</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K115" s="17">
+      <c r="K115" s="16">
         <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
@@ -4927,30 +4938,30 @@
       <c r="M115" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N115" s="7"/>
+      <c r="N115" s="6"/>
     </row>
     <row r="116">
       <c r="A116" s="1">
         <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>211</v>
+      <c r="E116" s="7" t="s">
+        <v>214</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K116" s="17">
+      <c r="K116" s="16">
         <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
@@ -4960,30 +4971,30 @@
       <c r="M116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N116" s="7"/>
+      <c r="N116" s="6"/>
     </row>
     <row r="117">
       <c r="A117" s="1">
         <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>212</v>
+        <v>190</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E117" s="8" t="s">
-        <v>213</v>
+      <c r="E117" s="7" t="s">
+        <v>216</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K117" s="17">
+      <c r="K117" s="16">
         <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
@@ -4993,30 +5004,30 @@
       <c r="M117" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N117" s="7"/>
+      <c r="N117" s="6"/>
     </row>
     <row r="118">
       <c r="A118" s="1">
         <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E118" s="8" t="s">
-        <v>215</v>
+      <c r="E118" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K118" s="17">
+      <c r="K118" s="16">
         <v>44622.083333333336</v>
       </c>
       <c r="L118" s="1">
@@ -5026,30 +5037,30 @@
       <c r="M118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N118" s="7"/>
+      <c r="N118" s="6"/>
     </row>
     <row r="119">
       <c r="A119" s="1">
         <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E119" s="8" t="s">
-        <v>217</v>
+      <c r="E119" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K119" s="20">
+      <c r="K119" s="19">
         <v>44622.833333333336</v>
       </c>
       <c r="L119" s="1">
@@ -5059,17 +5070,17 @@
       <c r="M119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N119" s="7"/>
+      <c r="N119" s="6"/>
     </row>
     <row r="120">
       <c r="A120" s="1">
         <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>1</v>
@@ -5077,7 +5088,7 @@
       <c r="J120" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K120" s="17">
+      <c r="K120" s="16">
         <v>44623.833333333336</v>
       </c>
       <c r="L120" s="1">
@@ -5087,28 +5098,28 @@
       <c r="M120" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N120" s="7"/>
+      <c r="N120" s="6"/>
     </row>
     <row r="121">
       <c r="A121" s="1">
         <v>141.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>173</v>
+      <c r="E121" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="J121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K121" s="17">
+      <c r="K121" s="16">
         <v>44625.083333333336</v>
       </c>
       <c r="L121" s="1">
@@ -5118,28 +5129,28 @@
       <c r="M121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N121" s="7"/>
+      <c r="N121" s="6"/>
     </row>
     <row r="122">
       <c r="A122" s="1">
         <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F122" s="1" t="b">
+      <c r="H122" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K122" s="17">
+      <c r="K122" s="16">
         <v>44625.416666666664</v>
       </c>
       <c r="L122" s="1">
@@ -5149,17 +5160,17 @@
       <c r="M122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N122" s="7"/>
+      <c r="N122" s="6"/>
     </row>
     <row r="123">
       <c r="A123" s="1">
         <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
@@ -5167,7 +5178,7 @@
       <c r="J123" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K123" s="17">
+      <c r="K123" s="16">
         <v>44626.0</v>
       </c>
       <c r="L123" s="1">
@@ -5177,14 +5188,14 @@
       <c r="M123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N123" s="7"/>
+      <c r="N123" s="6"/>
     </row>
     <row r="124">
       <c r="A124" s="1">
         <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
@@ -5192,14 +5203,14 @@
       <c r="M124" s="1">
         <v>141.0</v>
       </c>
-      <c r="N124" s="7"/>
+      <c r="N124" s="6"/>
     </row>
     <row r="125">
       <c r="A125" s="1">
         <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -5207,14 +5218,14 @@
       <c r="M125" s="1">
         <v>142.0</v>
       </c>
-      <c r="N125" s="7"/>
+      <c r="N125" s="6"/>
     </row>
     <row r="126">
       <c r="A126" s="1">
         <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
@@ -5222,17 +5233,17 @@
       <c r="M126" s="1">
         <v>142.0</v>
       </c>
-      <c r="N126" s="7"/>
+      <c r="N126" s="6"/>
     </row>
     <row r="127">
       <c r="A127" s="1">
         <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
@@ -5240,7 +5251,7 @@
       <c r="J127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K127" s="15">
+      <c r="K127" s="14">
         <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
@@ -5250,30 +5261,30 @@
       <c r="M127" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N127" s="7"/>
+      <c r="N127" s="6"/>
     </row>
     <row r="128">
       <c r="A128" s="1">
         <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E128" s="8" t="s">
-        <v>228</v>
+      <c r="E128" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K128" s="17">
+      <c r="K128" s="16">
         <v>44622.625</v>
       </c>
       <c r="L128" s="1">
@@ -5283,30 +5294,30 @@
       <c r="M128" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N128" s="7"/>
+      <c r="N128" s="6"/>
     </row>
     <row r="129">
       <c r="A129" s="1">
         <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E129" s="8" t="s">
-        <v>230</v>
+      <c r="E129" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K129" s="17">
+      <c r="K129" s="16">
         <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
@@ -5316,28 +5327,28 @@
       <c r="M129" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N129" s="7"/>
+      <c r="N129" s="6"/>
     </row>
     <row r="130">
       <c r="A130" s="1">
         <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E130" s="8" t="s">
-        <v>232</v>
+      <c r="E130" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="J130" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K130" s="17">
+      <c r="K130" s="16">
         <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
@@ -5347,28 +5358,28 @@
       <c r="M130" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N130" s="7"/>
+      <c r="N130" s="6"/>
     </row>
     <row r="131">
       <c r="A131" s="1">
         <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E131" s="8" t="s">
-        <v>200</v>
+      <c r="E131" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="J131" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K131" s="17">
+      <c r="K131" s="16">
         <v>44625.125</v>
       </c>
       <c r="L131" s="1">
@@ -5378,25 +5389,28 @@
       <c r="M131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N131" s="7"/>
+      <c r="N131" s="6"/>
     </row>
     <row r="132">
       <c r="A132" s="1">
         <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E132" s="7" t="s">
+        <v>238</v>
+      </c>
       <c r="J132" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K132" s="17">
+      <c r="K132" s="16">
         <v>44625.71875</v>
       </c>
       <c r="L132" s="1">
@@ -5406,17 +5420,17 @@
       <c r="M132" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N132" s="7"/>
+      <c r="N132" s="6"/>
     </row>
     <row r="133">
       <c r="A133" s="1">
         <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>1</v>
@@ -5424,7 +5438,7 @@
       <c r="J133" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K133" s="17">
+      <c r="K133" s="16">
         <v>44626.5</v>
       </c>
       <c r="L133" s="1">
@@ -5434,14 +5448,14 @@
       <c r="M133" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N133" s="7"/>
+      <c r="N133" s="6"/>
     </row>
     <row r="134">
       <c r="A134" s="1">
         <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -5449,14 +5463,14 @@
       <c r="M134" s="1">
         <v>151.0</v>
       </c>
-      <c r="N134" s="7"/>
+      <c r="N134" s="6"/>
     </row>
     <row r="135">
       <c r="A135" s="1">
         <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D135" s="1" t="b">
         <v>0</v>
@@ -5464,14 +5478,14 @@
       <c r="M135" s="1">
         <v>151.0</v>
       </c>
-      <c r="N135" s="7"/>
+      <c r="N135" s="6"/>
     </row>
     <row r="136">
       <c r="A136" s="1">
         <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -5479,14 +5493,14 @@
       <c r="M136" s="1">
         <v>151.0</v>
       </c>
-      <c r="N136" s="7"/>
+      <c r="N136" s="6"/>
     </row>
     <row r="137">
       <c r="A137" s="1">
         <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
@@ -5494,14 +5508,14 @@
       <c r="M137" s="1">
         <v>148.0</v>
       </c>
-      <c r="N137" s="7"/>
+      <c r="N137" s="6"/>
     </row>
     <row r="138">
       <c r="A138" s="1">
         <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D138" s="1" t="b">
         <v>0</v>
@@ -5509,14 +5523,14 @@
       <c r="M138" s="1">
         <v>153.0</v>
       </c>
-      <c r="N138" s="7"/>
+      <c r="N138" s="6"/>
     </row>
     <row r="139">
       <c r="A139" s="1">
         <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>0</v>
@@ -5524,7 +5538,7 @@
       <c r="M139" s="1">
         <v>153.0</v>
       </c>
-      <c r="N139" s="7"/>
+      <c r="N139" s="6"/>
     </row>
     <row r="140">
       <c r="A140" s="1">
@@ -5539,30 +5553,30 @@
       <c r="M140" s="1">
         <v>153.0</v>
       </c>
-      <c r="N140" s="7"/>
+      <c r="N140" s="6"/>
     </row>
     <row r="141">
       <c r="A141" s="1">
         <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E141" s="8" t="s">
-        <v>240</v>
+      <c r="E141" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="15">
+      <c r="K141" s="14">
         <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
@@ -5572,30 +5586,30 @@
       <c r="M141" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N141" s="7"/>
+      <c r="N141" s="6"/>
     </row>
     <row r="142">
       <c r="A142" s="1">
         <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E142" s="8" t="s">
-        <v>242</v>
+      <c r="E142" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="15">
+      <c r="K142" s="14">
         <v>44622.166666666664</v>
       </c>
       <c r="L142" s="1">
@@ -5605,30 +5619,30 @@
       <c r="M142" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N142" s="7"/>
+      <c r="N142" s="6"/>
     </row>
     <row r="143">
       <c r="A143" s="1">
         <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E143" s="8" t="s">
-        <v>244</v>
+      <c r="E143" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="15">
+      <c r="K143" s="14">
         <v>44623.166666666664</v>
       </c>
       <c r="L143" s="1">
@@ -5638,28 +5652,28 @@
       <c r="M143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N143" s="7"/>
+      <c r="N143" s="6"/>
     </row>
     <row r="144">
       <c r="A144" s="1">
         <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E144" s="8" t="s">
-        <v>245</v>
+      <c r="E144" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="J144" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="15">
+      <c r="K144" s="14">
         <v>44624.125</v>
       </c>
       <c r="L144" s="1">
@@ -5669,28 +5683,28 @@
       <c r="M144" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N144" s="7"/>
+      <c r="N144" s="6"/>
     </row>
     <row r="145">
       <c r="A145" s="1">
         <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E145" s="8" t="s">
-        <v>200</v>
+      <c r="E145" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="J145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K145" s="15">
+      <c r="K145" s="14">
         <v>44625.125</v>
       </c>
       <c r="L145" s="1">
@@ -5700,25 +5714,28 @@
       <c r="M145" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N145" s="7"/>
+      <c r="N145" s="6"/>
     </row>
     <row r="146">
       <c r="A146" s="1">
         <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F146" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J146" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="15">
+      <c r="K146" s="14">
         <v>44625.458333333336</v>
       </c>
       <c r="L146" s="1">
@@ -5728,17 +5745,17 @@
       <c r="M146" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N146" s="7"/>
+      <c r="N146" s="6"/>
     </row>
     <row r="147">
       <c r="A147" s="1">
         <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -5746,7 +5763,7 @@
       <c r="J147" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="15">
+      <c r="K147" s="14">
         <v>44626.125</v>
       </c>
       <c r="L147" s="1">
@@ -5756,17 +5773,17 @@
       <c r="M147" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N147" s="7"/>
+      <c r="N147" s="6"/>
     </row>
     <row r="148">
       <c r="A148" s="1">
         <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D148" s="1" t="b">
         <v>1</v>
@@ -5774,7 +5791,7 @@
       <c r="J148" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K148" s="15">
+      <c r="K148" s="14">
         <v>44626.5</v>
       </c>
       <c r="L148" s="1">
@@ -5784,7 +5801,7 @@
       <c r="M148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N148" s="7"/>
+      <c r="N148" s="6"/>
     </row>
     <row r="149">
       <c r="A149" s="1">
@@ -5794,20 +5811,20 @@
         <v>44</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E149" s="8" t="s">
-        <v>251</v>
+      <c r="E149" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="15">
+      <c r="K149" s="14">
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
@@ -5817,7 +5834,7 @@
       <c r="M149" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N149" s="7"/>
+      <c r="N149" s="6"/>
     </row>
     <row r="150">
       <c r="A150" s="1">
@@ -5827,20 +5844,20 @@
         <v>44</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E150" s="8" t="s">
-        <v>253</v>
+      <c r="E150" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="15">
+      <c r="K150" s="14">
         <v>44622.166666666664</v>
       </c>
       <c r="L150" s="1">
@@ -5850,7 +5867,7 @@
       <c r="M150" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N150" s="7"/>
+      <c r="N150" s="6"/>
     </row>
     <row r="151">
       <c r="A151" s="1">
@@ -5860,20 +5877,20 @@
         <v>44</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E151" s="8" t="s">
-        <v>255</v>
+      <c r="E151" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K151" s="15">
+      <c r="K151" s="14">
         <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
@@ -5883,7 +5900,7 @@
       <c r="M151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N151" s="7"/>
+      <c r="N151" s="6"/>
     </row>
     <row r="152">
       <c r="A152" s="1">
@@ -5893,18 +5910,18 @@
         <v>44</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E152" s="8" t="s">
-        <v>257</v>
+      <c r="E152" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="15">
+      <c r="K152" s="14">
         <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
@@ -5914,7 +5931,7 @@
       <c r="M152" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N152" s="7"/>
+      <c r="N152" s="6"/>
     </row>
     <row r="153">
       <c r="A153" s="1">
@@ -5924,18 +5941,18 @@
         <v>44</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E153" s="8" t="s">
-        <v>259</v>
+      <c r="E153" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="J153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K153" s="15">
+      <c r="K153" s="14">
         <v>44624.5</v>
       </c>
       <c r="L153" s="1">
@@ -5945,7 +5962,7 @@
       <c r="M153" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N153" s="7"/>
+      <c r="N153" s="6"/>
     </row>
     <row r="154">
       <c r="A154" s="1">
@@ -5955,18 +5972,18 @@
         <v>44</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E154" s="8" t="s">
-        <v>261</v>
+      <c r="E154" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="J154" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="15">
+      <c r="K154" s="14">
         <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
@@ -5976,7 +5993,7 @@
       <c r="M154" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N154" s="7"/>
+      <c r="N154" s="6"/>
     </row>
     <row r="155">
       <c r="A155" s="1">
@@ -5986,7 +6003,7 @@
         <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
@@ -5994,7 +6011,7 @@
       <c r="J155" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="15">
+      <c r="K155" s="14">
         <v>44626.166666666664</v>
       </c>
       <c r="L155" s="1">
@@ -6004,7 +6021,7 @@
       <c r="M155" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N155" s="7"/>
+      <c r="N155" s="6"/>
     </row>
     <row r="156">
       <c r="A156" s="1">
@@ -6014,20 +6031,20 @@
         <v>56</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E156" s="8" t="s">
-        <v>264</v>
+      <c r="E156" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="15">
+      <c r="K156" s="14">
         <v>44621.5</v>
       </c>
       <c r="L156" s="1">
@@ -6037,7 +6054,7 @@
       <c r="M156" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N156" s="7"/>
+      <c r="N156" s="6"/>
     </row>
     <row r="157">
       <c r="A157" s="1">
@@ -6047,20 +6064,20 @@
         <v>56</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E157" s="8" t="s">
-        <v>266</v>
+      <c r="E157" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K157" s="15">
+      <c r="K157" s="14">
         <v>44622.5</v>
       </c>
       <c r="L157" s="1">
@@ -6070,7 +6087,7 @@
       <c r="M157" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N157" s="7"/>
+      <c r="N157" s="6"/>
     </row>
     <row r="158">
       <c r="A158" s="1">
@@ -6080,20 +6097,20 @@
         <v>56</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E158" s="8" t="s">
-        <v>268</v>
+      <c r="E158" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K158" s="15">
+      <c r="K158" s="14">
         <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
@@ -6103,7 +6120,7 @@
       <c r="M158" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N158" s="7"/>
+      <c r="N158" s="6"/>
     </row>
     <row r="159">
       <c r="A159" s="1">
@@ -6113,18 +6130,18 @@
         <v>56</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E159" s="8" t="s">
-        <v>270</v>
+      <c r="E159" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="J159" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K159" s="22">
+      <c r="K159" s="21">
         <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
@@ -6134,7 +6151,7 @@
       <c r="M159" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N159" s="7"/>
+      <c r="N159" s="6"/>
     </row>
     <row r="160">
       <c r="A160" s="1">
@@ -6144,28 +6161,31 @@
         <v>56</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F160" s="1" t="b">
+      <c r="G160" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J160" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K160" s="15">
-        <v>44625.5</v>
+      <c r="K160" s="5">
+        <v>44625.416666666664</v>
       </c>
       <c r="L160" s="1">
         <f t="shared" si="9"/>
-        <v>1646481600000</v>
+        <v>1646474400000</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N160" s="7"/>
+      <c r="N160" s="6"/>
     </row>
     <row r="161">
       <c r="A161" s="1">
@@ -6175,7 +6195,7 @@
         <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
@@ -6183,7 +6203,7 @@
       <c r="J161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K161" s="15">
+      <c r="K161" s="14">
         <v>44626.5</v>
       </c>
       <c r="L161" s="1">
@@ -6193,7 +6213,7 @@
       <c r="M161" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N161" s="7"/>
+      <c r="N161" s="6"/>
     </row>
     <row r="162">
       <c r="A162" s="1">
@@ -6208,14 +6228,14 @@
       <c r="M162" s="1">
         <v>72.0</v>
       </c>
-      <c r="N162" s="7"/>
+      <c r="N162" s="6"/>
     </row>
     <row r="163">
       <c r="A163" s="1">
         <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>0</v>
@@ -6223,30 +6243,30 @@
       <c r="M163" s="1">
         <v>180.0</v>
       </c>
-      <c r="N163" s="7"/>
+      <c r="N163" s="6"/>
     </row>
     <row r="164">
       <c r="A164" s="1">
         <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E164" s="8" t="s">
-        <v>275</v>
+      <c r="E164" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K164" s="15">
+      <c r="K164" s="14">
         <v>44622.75</v>
       </c>
       <c r="L164" s="1">
@@ -6256,28 +6276,28 @@
       <c r="M164" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N164" s="7"/>
+      <c r="N164" s="6"/>
     </row>
     <row r="165">
       <c r="A165" s="1">
         <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E165" s="8" t="s">
-        <v>277</v>
+      <c r="E165" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J165" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K165" s="15">
+      <c r="K165" s="14">
         <v>44623.75</v>
       </c>
       <c r="L165" s="1">
@@ -6287,28 +6307,28 @@
       <c r="M165" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N165" s="7"/>
+      <c r="N165" s="6"/>
     </row>
     <row r="166">
       <c r="A166" s="1">
         <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E166" s="8" t="s">
-        <v>277</v>
+      <c r="E166" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="J166" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K166" s="22">
+      <c r="K166" s="21">
         <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
@@ -6318,28 +6338,28 @@
       <c r="M166" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N166" s="7"/>
+      <c r="N166" s="6"/>
     </row>
     <row r="167">
       <c r="A167" s="1">
         <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>200</v>
+      <c r="E167" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="J167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K167" s="15">
+      <c r="K167" s="14">
         <v>44625.125</v>
       </c>
       <c r="L167" s="1">
@@ -6349,7 +6369,7 @@
       <c r="M167" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N167" s="7"/>
+      <c r="N167" s="6"/>
     </row>
     <row r="168">
       <c r="A168" s="1">
@@ -6359,20 +6379,20 @@
         <v>51</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E168" s="8" t="s">
-        <v>281</v>
+      <c r="E168" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K168" s="6">
+      <c r="K168" s="5">
         <v>44624.041666666664</v>
       </c>
       <c r="L168" s="1">
@@ -6382,7 +6402,7 @@
       <c r="M168" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N168" s="7"/>
+      <c r="N168" s="6"/>
     </row>
     <row r="169">
       <c r="A169" s="1">
@@ -6397,30 +6417,30 @@
       <c r="M169" s="1">
         <v>188.0</v>
       </c>
-      <c r="N169" s="7"/>
+      <c r="N169" s="6"/>
     </row>
     <row r="170">
       <c r="A170" s="1">
         <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E170" s="8" t="s">
-        <v>283</v>
+      <c r="E170" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K170" s="6">
+      <c r="J170" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K170" s="5">
         <v>44621.916666666664</v>
       </c>
       <c r="L170" s="1">
@@ -6430,30 +6450,30 @@
       <c r="M170" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N170" s="7"/>
+      <c r="N170" s="6"/>
     </row>
     <row r="171">
       <c r="A171" s="1">
         <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K171" s="22">
+      <c r="E171" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K171" s="21">
         <v>44623.666666666664</v>
       </c>
       <c r="L171" s="1">
@@ -6463,45 +6483,45 @@
       <c r="M171" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N171" s="7"/>
+      <c r="N171" s="6"/>
     </row>
     <row r="172">
       <c r="A172" s="1">
         <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D172" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F172" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K172" s="15">
-        <v>44624.666666666664</v>
+      <c r="E172" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="J172" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K172" s="14">
+        <v>44625.666666666664</v>
       </c>
       <c r="L172" s="1">
         <f t="shared" si="11"/>
-        <v>1646409600000</v>
+        <v>1646496000000</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N172" s="7"/>
+      <c r="N172" s="6"/>
     </row>
     <row r="173">
       <c r="A173" s="1">
         <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>71</v>
@@ -6509,15 +6529,15 @@
       <c r="D173" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E173" s="8" t="s">
-        <v>288</v>
+      <c r="E173" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K173" s="15">
+      <c r="J173" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K173" s="14">
         <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
@@ -6527,25 +6547,25 @@
       <c r="M173" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N173" s="7"/>
+      <c r="N173" s="6"/>
     </row>
     <row r="174">
       <c r="A174" s="1">
         <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D174" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J174" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="K174" s="15">
+      <c r="J174" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K174" s="14">
         <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
@@ -6555,14 +6575,14 @@
       <c r="M174" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N174" s="7"/>
+      <c r="N174" s="6"/>
     </row>
     <row r="175">
       <c r="A175" s="1">
         <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>80</v>
@@ -6570,15 +6590,15 @@
       <c r="D175" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E175" s="8" t="s">
-        <v>291</v>
+      <c r="E175" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K175" s="6">
+      <c r="K175" s="5">
         <v>44619.916666666664</v>
       </c>
       <c r="L175" s="1">
@@ -6588,30 +6608,30 @@
       <c r="M175" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N175" s="7"/>
+      <c r="N175" s="6"/>
     </row>
     <row r="176">
       <c r="A176" s="1">
         <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E176" s="8" t="s">
-        <v>293</v>
+      <c r="E176" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K176" s="6">
+      <c r="K176" s="5">
         <v>44621.0</v>
       </c>
       <c r="L176" s="1">
@@ -6621,17 +6641,17 @@
       <c r="M176" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N176" s="7"/>
+      <c r="N176" s="6"/>
     </row>
     <row r="177">
       <c r="A177" s="1">
         <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D177" s="1" t="b">
         <v>1</v>
@@ -6642,7 +6662,7 @@
       <c r="J177" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="19">
+      <c r="K177" s="18">
         <v>44621.916666666664</v>
       </c>
       <c r="L177" s="1">
@@ -6652,23 +6672,23 @@
       <c r="M177" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N177" s="7"/>
+      <c r="N177" s="6"/>
     </row>
     <row r="178">
       <c r="A178" s="1">
         <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E178" s="8" t="s">
-        <v>296</v>
+      <c r="E178" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="G178" s="1" t="b">
         <v>1</v>
@@ -6678,7 +6698,7 @@
       <c r="J178" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="19">
+      <c r="K178" s="18">
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
@@ -6688,23 +6708,23 @@
       <c r="M178" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N178" s="7"/>
+      <c r="N178" s="6"/>
     </row>
     <row r="179">
       <c r="A179" s="1">
         <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E179" s="8" t="s">
-        <v>298</v>
+      <c r="E179" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1" t="b">
@@ -6713,7 +6733,7 @@
       <c r="J179" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K179" s="6">
+      <c r="K179" s="5">
         <v>44622.958333333336</v>
       </c>
       <c r="L179" s="1">
@@ -6723,17 +6743,17 @@
       <c r="M179" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N179" s="7"/>
+      <c r="N179" s="6"/>
     </row>
     <row r="180">
       <c r="A180" s="1">
         <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
@@ -6744,7 +6764,7 @@
       <c r="J180" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K180" s="6">
+      <c r="K180" s="5">
         <v>44625.041666666664</v>
       </c>
       <c r="L180" s="1">
@@ -6754,23 +6774,23 @@
       <c r="M180" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N180" s="7"/>
+      <c r="N180" s="6"/>
     </row>
     <row r="181">
       <c r="A181" s="1">
         <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E181" s="8" t="s">
-        <v>300</v>
+      <c r="E181" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>1</v>
@@ -6778,7 +6798,7 @@
       <c r="J181" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K181" s="6">
+      <c r="K181" s="5">
         <v>44625.041666666664</v>
       </c>
       <c r="L181" s="1">
@@ -6788,33 +6808,33 @@
       <c r="M181" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N181" s="7"/>
+      <c r="N181" s="6"/>
     </row>
     <row r="182">
       <c r="A182" s="1">
         <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>302</v>
+      <c r="E182" s="3" t="s">
+        <v>306</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
       <c r="J182" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K182" s="6">
+      <c r="K182" s="5">
         <v>44623.916666666664</v>
       </c>
       <c r="L182" s="1">
@@ -6824,17 +6844,17 @@
       <c r="M182" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N182" s="7"/>
+      <c r="N182" s="6"/>
     </row>
     <row r="183">
       <c r="A183" s="1">
         <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>1</v>
@@ -6842,7 +6862,7 @@
       <c r="J183" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K183" s="6">
+      <c r="K183" s="5">
         <v>44626.083333333336</v>
       </c>
       <c r="L183" s="1">
@@ -6852,30 +6872,30 @@
       <c r="M183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N183" s="7"/>
+      <c r="N183" s="6"/>
     </row>
     <row r="184">
       <c r="A184" s="1">
         <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E184" s="8" t="s">
-        <v>306</v>
+      <c r="E184" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K184" s="19">
+      <c r="K184" s="18">
         <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
@@ -6885,30 +6905,30 @@
       <c r="M184" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N184" s="7"/>
+      <c r="N184" s="6"/>
     </row>
     <row r="185">
       <c r="A185" s="1">
         <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E185" s="8" t="s">
-        <v>308</v>
+      <c r="E185" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K185" s="6">
+      <c r="K185" s="5">
         <v>44620.666666666664</v>
       </c>
       <c r="L185" s="1">
@@ -6918,30 +6938,30 @@
       <c r="M185" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N185" s="7"/>
+      <c r="N185" s="6"/>
     </row>
     <row r="186">
       <c r="A186" s="1">
         <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E186" s="8" t="s">
-        <v>310</v>
+      <c r="E186" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K186" s="6">
+      <c r="K186" s="5">
         <v>44621.916666666664</v>
       </c>
       <c r="L186" s="1">
@@ -6951,30 +6971,30 @@
       <c r="M186" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N186" s="7"/>
+      <c r="N186" s="6"/>
     </row>
     <row r="187">
       <c r="A187" s="1">
         <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E187" s="8" t="s">
-        <v>312</v>
+      <c r="E187" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K187" s="6">
+      <c r="K187" s="5">
         <v>44622.916666666664</v>
       </c>
       <c r="L187" s="1">
@@ -6984,28 +7004,28 @@
       <c r="M187" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N187" s="7"/>
+      <c r="N187" s="6"/>
     </row>
     <row r="188">
       <c r="A188" s="1">
         <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E188" s="8" t="s">
-        <v>314</v>
+      <c r="E188" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="J188" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K188" s="6">
+      <c r="K188" s="5">
         <v>44625.041666666664</v>
       </c>
       <c r="L188" s="1">
@@ -7015,17 +7035,17 @@
       <c r="M188" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N188" s="7"/>
+      <c r="N188" s="6"/>
     </row>
     <row r="189">
       <c r="A189" s="1">
         <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
@@ -7033,7 +7053,7 @@
       <c r="J189" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K189" s="6">
+      <c r="K189" s="5">
         <v>44625.583333333336</v>
       </c>
       <c r="L189" s="1">
@@ -7043,23 +7063,23 @@
       <c r="M189" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N189" s="7"/>
+      <c r="N189" s="6"/>
     </row>
     <row r="190">
       <c r="A190" s="1">
         <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E190" s="8" t="s">
-        <v>317</v>
+      <c r="E190" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
@@ -7067,7 +7087,7 @@
       <c r="J190" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K190" s="6">
+      <c r="K190" s="5">
         <v>44623.958333333336</v>
       </c>
       <c r="L190" s="1">
@@ -7083,23 +7103,23 @@
         <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E191" s="8" t="s">
-        <v>320</v>
+      <c r="E191" s="7" t="s">
+        <v>324</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K191" s="6">
+      <c r="K191" s="5">
         <v>44619.5</v>
       </c>
       <c r="L191" s="1">
@@ -7109,14 +7129,14 @@
       <c r="M191" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N191" s="7"/>
+      <c r="N191" s="6"/>
     </row>
     <row r="192">
       <c r="A192" s="1">
         <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>80</v>
@@ -7124,15 +7144,15 @@
       <c r="D192" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E192" s="8" t="s">
-        <v>321</v>
+      <c r="E192" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K192" s="6">
+      <c r="K192" s="5">
         <v>44620.5</v>
       </c>
       <c r="L192" s="1">
@@ -7142,30 +7162,30 @@
       <c r="M192" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N192" s="7"/>
+      <c r="N192" s="6"/>
     </row>
     <row r="193">
       <c r="A193" s="1">
         <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E193" s="8" t="s">
-        <v>323</v>
+      <c r="E193" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K193" s="6">
+      <c r="K193" s="5">
         <v>44621.541666666664</v>
       </c>
       <c r="L193" s="1">
@@ -7175,30 +7195,30 @@
       <c r="M193" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N193" s="7"/>
+      <c r="N193" s="6"/>
     </row>
     <row r="194">
       <c r="A194" s="1">
         <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E194" s="8" t="s">
-        <v>325</v>
+      <c r="E194" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K194" s="6">
+      <c r="K194" s="5">
         <v>44622.5</v>
       </c>
       <c r="L194" s="1">
@@ -7208,28 +7228,28 @@
       <c r="M194" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N194" s="7"/>
+      <c r="N194" s="6"/>
     </row>
     <row r="195">
       <c r="A195" s="1">
         <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E195" s="8" t="s">
-        <v>327</v>
+      <c r="E195" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="J195" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K195" s="6">
+      <c r="K195" s="5">
         <v>44623.541666666664</v>
       </c>
       <c r="L195" s="1">
@@ -7239,28 +7259,28 @@
       <c r="M195" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N195" s="7"/>
+      <c r="N195" s="6"/>
     </row>
     <row r="196">
       <c r="A196" s="1">
         <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E196" s="8" t="s">
-        <v>329</v>
+      <c r="E196" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="J196" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K196" s="6">
+      <c r="K196" s="5">
         <v>44624.5</v>
       </c>
       <c r="L196" s="1">
@@ -7270,28 +7290,28 @@
       <c r="M196" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N196" s="7"/>
+      <c r="N196" s="6"/>
     </row>
     <row r="197">
       <c r="A197" s="1">
         <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E197" s="8" t="s">
-        <v>331</v>
+      <c r="E197" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K197" s="6">
+      <c r="K197" s="5">
         <v>44624.875</v>
       </c>
       <c r="L197" s="1">
@@ -7301,17 +7321,17 @@
       <c r="M197" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N197" s="7"/>
+      <c r="N197" s="6"/>
     </row>
     <row r="198">
       <c r="A198" s="1">
         <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
@@ -7319,7 +7339,7 @@
       <c r="J198" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K198" s="6">
+      <c r="K198" s="5">
         <v>44626.083333333336</v>
       </c>
       <c r="L198" s="1">
@@ -7329,23 +7349,23 @@
       <c r="M198" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N198" s="7"/>
+      <c r="N198" s="6"/>
     </row>
     <row r="199">
       <c r="A199" s="1">
         <v>219.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E199" s="8" t="s">
-        <v>334</v>
+      <c r="E199" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
@@ -7353,7 +7373,7 @@
       <c r="J199" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K199" s="6">
+      <c r="K199" s="5">
         <v>44624.416666666664</v>
       </c>
       <c r="L199" s="1">
@@ -7372,13 +7392,13 @@
         <v>13</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D200" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E200" s="8" t="s">
-        <v>336</v>
+      <c r="E200" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="I200" s="1" t="b">
         <v>1</v>
@@ -7386,7 +7406,7 @@
       <c r="J200" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K200" s="24">
+      <c r="K200" s="5">
         <v>44625.541666666664</v>
       </c>
       <c r="L200" s="1">
@@ -7395,6 +7415,23 @@
       </c>
       <c r="M200" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1">
+        <v>221.0</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D201" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M201" s="1">
+        <v>59.0</v>
       </c>
     </row>
   </sheetData>
@@ -7436,106 +7473,111 @@
     <hyperlink r:id="rId35" ref="E44"/>
     <hyperlink r:id="rId36" ref="E45"/>
     <hyperlink r:id="rId37" ref="E46"/>
-    <hyperlink r:id="rId38" ref="E48"/>
-    <hyperlink r:id="rId39" ref="E49"/>
-    <hyperlink r:id="rId40" ref="E50"/>
-    <hyperlink r:id="rId41" ref="E51"/>
-    <hyperlink r:id="rId42" ref="E52"/>
-    <hyperlink r:id="rId43" ref="E53"/>
-    <hyperlink r:id="rId44" ref="E55"/>
-    <hyperlink r:id="rId45" ref="E56"/>
-    <hyperlink r:id="rId46" ref="E57"/>
-    <hyperlink r:id="rId47" ref="E58"/>
-    <hyperlink r:id="rId48" ref="E59"/>
-    <hyperlink r:id="rId49" ref="E61"/>
-    <hyperlink r:id="rId50" ref="E62"/>
-    <hyperlink r:id="rId51" ref="E63"/>
-    <hyperlink r:id="rId52" ref="E64"/>
-    <hyperlink r:id="rId53" ref="E65"/>
-    <hyperlink r:id="rId54" ref="E68"/>
-    <hyperlink r:id="rId55" ref="E69"/>
-    <hyperlink r:id="rId56" ref="E70"/>
-    <hyperlink r:id="rId57" ref="E71"/>
-    <hyperlink r:id="rId58" ref="E72"/>
-    <hyperlink r:id="rId59" ref="E75"/>
-    <hyperlink r:id="rId60" ref="E76"/>
-    <hyperlink r:id="rId61" ref="E77"/>
-    <hyperlink r:id="rId62" ref="E78"/>
-    <hyperlink r:id="rId63" ref="E80"/>
-    <hyperlink r:id="rId64" ref="E81"/>
-    <hyperlink r:id="rId65" ref="E82"/>
-    <hyperlink r:id="rId66" ref="E84"/>
-    <hyperlink r:id="rId67" ref="E88"/>
-    <hyperlink r:id="rId68" ref="E89"/>
-    <hyperlink r:id="rId69" ref="E90"/>
-    <hyperlink r:id="rId70" ref="E91"/>
-    <hyperlink r:id="rId71" ref="E93"/>
-    <hyperlink r:id="rId72" ref="E94"/>
-    <hyperlink r:id="rId73" ref="E95"/>
-    <hyperlink r:id="rId74" ref="E96"/>
-    <hyperlink r:id="rId75" ref="E97"/>
-    <hyperlink r:id="rId76" ref="E103"/>
-    <hyperlink r:id="rId77" ref="E104"/>
-    <hyperlink r:id="rId78" ref="E105"/>
-    <hyperlink r:id="rId79" ref="E106"/>
-    <hyperlink r:id="rId80" ref="E107"/>
-    <hyperlink r:id="rId81" ref="E108"/>
-    <hyperlink r:id="rId82" ref="E109"/>
-    <hyperlink r:id="rId83" ref="E115"/>
-    <hyperlink r:id="rId84" ref="E116"/>
-    <hyperlink r:id="rId85" ref="E117"/>
-    <hyperlink r:id="rId86" ref="E118"/>
-    <hyperlink r:id="rId87" ref="E119"/>
-    <hyperlink r:id="rId88" ref="E121"/>
-    <hyperlink r:id="rId89" ref="E128"/>
-    <hyperlink r:id="rId90" ref="E129"/>
-    <hyperlink r:id="rId91" ref="E130"/>
-    <hyperlink r:id="rId92" ref="E131"/>
-    <hyperlink r:id="rId93" ref="E141"/>
-    <hyperlink r:id="rId94" ref="E142"/>
-    <hyperlink r:id="rId95" ref="E143"/>
-    <hyperlink r:id="rId96" ref="E144"/>
-    <hyperlink r:id="rId97" ref="E145"/>
-    <hyperlink r:id="rId98" ref="E149"/>
-    <hyperlink r:id="rId99" ref="E150"/>
-    <hyperlink r:id="rId100" ref="E151"/>
-    <hyperlink r:id="rId101" ref="E152"/>
-    <hyperlink r:id="rId102" ref="E153"/>
-    <hyperlink r:id="rId103" ref="E154"/>
-    <hyperlink r:id="rId104" ref="E156"/>
-    <hyperlink r:id="rId105" ref="E157"/>
-    <hyperlink r:id="rId106" ref="E158"/>
-    <hyperlink r:id="rId107" ref="E159"/>
-    <hyperlink r:id="rId108" ref="E164"/>
-    <hyperlink r:id="rId109" ref="E165"/>
-    <hyperlink r:id="rId110" ref="E166"/>
-    <hyperlink r:id="rId111" ref="E167"/>
-    <hyperlink r:id="rId112" ref="E168"/>
-    <hyperlink r:id="rId113" ref="E170"/>
-    <hyperlink r:id="rId114" ref="E171"/>
-    <hyperlink r:id="rId115" ref="E173"/>
-    <hyperlink r:id="rId116" ref="E175"/>
-    <hyperlink r:id="rId117" ref="E176"/>
-    <hyperlink r:id="rId118" ref="E178"/>
-    <hyperlink r:id="rId119" ref="E179"/>
-    <hyperlink r:id="rId120" ref="E181"/>
-    <hyperlink r:id="rId121" ref="E182"/>
-    <hyperlink r:id="rId122" ref="E184"/>
-    <hyperlink r:id="rId123" ref="E185"/>
-    <hyperlink r:id="rId124" ref="E186"/>
-    <hyperlink r:id="rId125" ref="E187"/>
-    <hyperlink r:id="rId126" ref="E188"/>
-    <hyperlink r:id="rId127" ref="E190"/>
-    <hyperlink r:id="rId128" ref="E191"/>
-    <hyperlink r:id="rId129" ref="E192"/>
-    <hyperlink r:id="rId130" ref="E193"/>
-    <hyperlink r:id="rId131" ref="E194"/>
-    <hyperlink r:id="rId132" ref="E195"/>
-    <hyperlink r:id="rId133" ref="E196"/>
-    <hyperlink r:id="rId134" ref="E197"/>
-    <hyperlink r:id="rId135" ref="E199"/>
-    <hyperlink r:id="rId136" ref="E200"/>
+    <hyperlink r:id="rId38" ref="E47"/>
+    <hyperlink r:id="rId39" ref="E48"/>
+    <hyperlink r:id="rId40" ref="E49"/>
+    <hyperlink r:id="rId41" ref="E50"/>
+    <hyperlink r:id="rId42" ref="E51"/>
+    <hyperlink r:id="rId43" ref="E52"/>
+    <hyperlink r:id="rId44" ref="E53"/>
+    <hyperlink r:id="rId45" ref="E55"/>
+    <hyperlink r:id="rId46" ref="E56"/>
+    <hyperlink r:id="rId47" ref="E57"/>
+    <hyperlink r:id="rId48" ref="E58"/>
+    <hyperlink r:id="rId49" ref="E59"/>
+    <hyperlink r:id="rId50" ref="E61"/>
+    <hyperlink r:id="rId51" ref="E62"/>
+    <hyperlink r:id="rId52" ref="E63"/>
+    <hyperlink r:id="rId53" ref="E64"/>
+    <hyperlink r:id="rId54" ref="E65"/>
+    <hyperlink r:id="rId55" ref="E68"/>
+    <hyperlink r:id="rId56" ref="E69"/>
+    <hyperlink r:id="rId57" ref="E70"/>
+    <hyperlink r:id="rId58" ref="E71"/>
+    <hyperlink r:id="rId59" ref="E72"/>
+    <hyperlink r:id="rId60" ref="E75"/>
+    <hyperlink r:id="rId61" ref="E76"/>
+    <hyperlink r:id="rId62" ref="E77"/>
+    <hyperlink r:id="rId63" ref="E78"/>
+    <hyperlink r:id="rId64" ref="E79"/>
+    <hyperlink r:id="rId65" ref="E80"/>
+    <hyperlink r:id="rId66" ref="E81"/>
+    <hyperlink r:id="rId67" ref="E82"/>
+    <hyperlink r:id="rId68" ref="E84"/>
+    <hyperlink r:id="rId69" ref="E88"/>
+    <hyperlink r:id="rId70" ref="E89"/>
+    <hyperlink r:id="rId71" ref="E90"/>
+    <hyperlink r:id="rId72" ref="E91"/>
+    <hyperlink r:id="rId73" ref="E93"/>
+    <hyperlink r:id="rId74" ref="E94"/>
+    <hyperlink r:id="rId75" ref="E95"/>
+    <hyperlink r:id="rId76" ref="E96"/>
+    <hyperlink r:id="rId77" ref="E97"/>
+    <hyperlink r:id="rId78" ref="E98"/>
+    <hyperlink r:id="rId79" ref="E103"/>
+    <hyperlink r:id="rId80" ref="E104"/>
+    <hyperlink r:id="rId81" ref="E105"/>
+    <hyperlink r:id="rId82" ref="E106"/>
+    <hyperlink r:id="rId83" ref="E107"/>
+    <hyperlink r:id="rId84" ref="E108"/>
+    <hyperlink r:id="rId85" ref="E109"/>
+    <hyperlink r:id="rId86" ref="E115"/>
+    <hyperlink r:id="rId87" ref="E116"/>
+    <hyperlink r:id="rId88" ref="E117"/>
+    <hyperlink r:id="rId89" ref="E118"/>
+    <hyperlink r:id="rId90" ref="E119"/>
+    <hyperlink r:id="rId91" ref="E121"/>
+    <hyperlink r:id="rId92" ref="E128"/>
+    <hyperlink r:id="rId93" ref="E129"/>
+    <hyperlink r:id="rId94" ref="E130"/>
+    <hyperlink r:id="rId95" ref="E131"/>
+    <hyperlink r:id="rId96" ref="E132"/>
+    <hyperlink r:id="rId97" ref="E141"/>
+    <hyperlink r:id="rId98" ref="E142"/>
+    <hyperlink r:id="rId99" ref="E143"/>
+    <hyperlink r:id="rId100" ref="E144"/>
+    <hyperlink r:id="rId101" ref="E145"/>
+    <hyperlink r:id="rId102" ref="E149"/>
+    <hyperlink r:id="rId103" ref="E150"/>
+    <hyperlink r:id="rId104" ref="E151"/>
+    <hyperlink r:id="rId105" ref="E152"/>
+    <hyperlink r:id="rId106" ref="E153"/>
+    <hyperlink r:id="rId107" ref="E154"/>
+    <hyperlink r:id="rId108" ref="E156"/>
+    <hyperlink r:id="rId109" ref="E157"/>
+    <hyperlink r:id="rId110" ref="E158"/>
+    <hyperlink r:id="rId111" ref="E159"/>
+    <hyperlink r:id="rId112" ref="E164"/>
+    <hyperlink r:id="rId113" ref="E165"/>
+    <hyperlink r:id="rId114" ref="E166"/>
+    <hyperlink r:id="rId115" ref="E167"/>
+    <hyperlink r:id="rId116" ref="E168"/>
+    <hyperlink r:id="rId117" ref="E170"/>
+    <hyperlink r:id="rId118" ref="E171"/>
+    <hyperlink r:id="rId119" ref="E172"/>
+    <hyperlink r:id="rId120" ref="E173"/>
+    <hyperlink r:id="rId121" ref="E175"/>
+    <hyperlink r:id="rId122" ref="E176"/>
+    <hyperlink r:id="rId123" ref="E178"/>
+    <hyperlink r:id="rId124" ref="E179"/>
+    <hyperlink r:id="rId125" ref="E181"/>
+    <hyperlink r:id="rId126" ref="E182"/>
+    <hyperlink r:id="rId127" ref="E184"/>
+    <hyperlink r:id="rId128" ref="E185"/>
+    <hyperlink r:id="rId129" ref="E186"/>
+    <hyperlink r:id="rId130" ref="E187"/>
+    <hyperlink r:id="rId131" ref="E188"/>
+    <hyperlink r:id="rId132" ref="E190"/>
+    <hyperlink r:id="rId133" ref="E191"/>
+    <hyperlink r:id="rId134" ref="E192"/>
+    <hyperlink r:id="rId135" ref="E193"/>
+    <hyperlink r:id="rId136" ref="E194"/>
+    <hyperlink r:id="rId137" ref="E195"/>
+    <hyperlink r:id="rId138" ref="E196"/>
+    <hyperlink r:id="rId139" ref="E197"/>
+    <hyperlink r:id="rId140" ref="E199"/>
+    <hyperlink r:id="rId141" ref="E200"/>
   </hyperlinks>
-  <drawing r:id="rId137"/>
+  <drawing r:id="rId142"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="352">
   <si>
     <t>id</t>
   </si>
@@ -337,6 +337,9 @@
     <t>Ready or Not</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=FxOYfNVyzOM</t>
+  </si>
+  <si>
     <t>SIMS - LUXIEM ALTERS</t>
   </si>
   <si>
@@ -403,6 +406,9 @@
     <t>FREE CHATTING</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EoPuhw3GzzM</t>
+  </si>
+  <si>
     <t>MAFIA MIX-BREAKDOWN members-only</t>
   </si>
   <si>
@@ -439,6 +445,9 @@
     <t>日本語雜談!</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=jyeYLcWasz0</t>
+  </si>
+  <si>
     <t>Elira</t>
   </si>
   <si>
@@ -688,6 +697,9 @@
     <t>TEST YOUR LUCK IF YOU WIN: RFA STREAM</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tonzc1sDQjw</t>
+  </si>
+  <si>
     <t>PomuX</t>
   </si>
   <si>
@@ -811,7 +823,10 @@
     <t>https://www.youtube.com/watch?v=O2T2X_d40k8</t>
   </si>
   <si>
-    <t>LITTLE NIGHTMAREW II</t>
+    <t>LITTLE NIGHTMARES II</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-oOlOJZ8Rog</t>
   </si>
   <si>
     <t>Live Reaction [debut stream]</t>
@@ -844,6 +859,9 @@
     <t>Mario Party [Enna, Petra, Vox]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EjU3i23n69U</t>
+  </si>
+  <si>
     <t>Millie</t>
   </si>
   <si>
@@ -937,6 +955,9 @@
     <t>NOCTYX COLLAB - READY OR NOT</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=iFvSac_hD_0</t>
+  </si>
+  <si>
     <t>Fulgur</t>
   </si>
   <si>
@@ -973,6 +994,9 @@
     <t>Legatus 505 - Stroytime</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=aXfINz9wKN8</t>
+  </si>
+  <si>
     <t>【Dono Zatsudan】 Thanks for the Fu-ud Funds</t>
   </si>
   <si>
@@ -1024,6 +1048,9 @@
     <t>READY OR NOT NOCTYX COLLAB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=RShp1-CVdfA</t>
+  </si>
+  <si>
     <t>【GUERILLA STREAM】Who will take my V?</t>
   </si>
   <si>
@@ -1034,6 +1061,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vBboKFjVtDA</t>
+  </si>
+  <si>
+    <t>ASMR ENDURANCE UNTIL 400K【RP ASMR】</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zNJf_lyI87Q</t>
   </si>
 </sst>
 </file>
@@ -3132,6 +3165,9 @@
       <c r="D54" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E54" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="J54" s="1" t="b">
         <v>1</v>
       </c>
@@ -3155,13 +3191,13 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
@@ -3188,13 +3224,13 @@
         <v>13</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3221,13 +3257,13 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -3254,13 +3290,13 @@
         <v>13</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -3287,13 +3323,13 @@
         <v>13</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G59" s="1" t="b">
         <v>1</v>
@@ -3321,7 +3357,7 @@
         <v>13</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D60" s="1" t="b">
         <v>1</v>
@@ -3352,16 +3388,18 @@
         <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="I61" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J61" s="1" t="b">
         <v>0</v>
       </c>
@@ -3385,13 +3423,13 @@
         <v>29</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D62" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
@@ -3418,13 +3456,13 @@
         <v>29</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3451,13 +3489,13 @@
         <v>29</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3484,13 +3522,13 @@
         <v>29</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>1</v>
@@ -3518,10 +3556,13 @@
         <v>29</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="J66" s="1" t="b">
         <v>0</v>
@@ -3546,7 +3587,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>1</v>
@@ -3574,13 +3615,13 @@
         <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3607,13 +3648,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3640,13 +3681,13 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3673,13 +3714,13 @@
         <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3706,13 +3747,13 @@
         <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="J72" s="1" t="b">
         <v>0</v>
@@ -3737,10 +3778,13 @@
         <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="J73" s="1" t="b">
         <v>0</v>
@@ -3790,16 +3834,16 @@
         <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
@@ -3823,16 +3867,16 @@
         <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
@@ -3856,16 +3900,16 @@
         <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J77" s="1" t="b">
         <v>0</v>
@@ -3887,16 +3931,16 @@
         <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
@@ -3918,16 +3962,16 @@
         <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J79" s="1" t="b">
         <v>0</v>
@@ -3949,16 +3993,16 @@
         <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -3982,16 +4026,16 @@
         <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
@@ -4015,16 +4059,16 @@
         <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4048,10 +4092,10 @@
         <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
@@ -4076,16 +4120,16 @@
         <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4109,10 +4153,10 @@
         <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>1</v>
@@ -4140,10 +4184,10 @@
         <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
@@ -4171,10 +4215,10 @@
         <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
@@ -4199,16 +4243,16 @@
         <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -4232,16 +4276,16 @@
         <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -4265,16 +4309,16 @@
         <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -4298,16 +4342,16 @@
         <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J91" s="1" t="b">
         <v>0</v>
@@ -4329,12 +4373,15 @@
         <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D92" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J92" s="1" t="b">
@@ -4357,16 +4404,16 @@
         <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -4390,16 +4437,16 @@
         <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4423,16 +4470,16 @@
         <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4456,16 +4503,16 @@
         <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
@@ -4487,16 +4534,16 @@
         <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J97" s="1" t="b">
         <v>1</v>
@@ -4518,16 +4565,16 @@
         <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J98" s="1" t="b">
         <v>0</v>
@@ -4564,7 +4611,7 @@
         <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
@@ -4579,7 +4626,7 @@
         <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
@@ -4594,7 +4641,7 @@
         <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>0</v>
@@ -4609,16 +4656,16 @@
         <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
@@ -4642,16 +4689,16 @@
         <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
@@ -4675,16 +4722,16 @@
         <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
@@ -4708,16 +4755,16 @@
         <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
@@ -4741,16 +4788,16 @@
         <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>1</v>
@@ -4775,16 +4822,16 @@
         <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J108" s="1" t="b">
         <v>1</v>
@@ -4806,16 +4853,16 @@
         <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J109" s="1" t="b">
         <v>0</v>
@@ -4852,7 +4899,7 @@
         <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>0</v>
@@ -4867,7 +4914,7 @@
         <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
@@ -4882,7 +4929,7 @@
         <v>133.0</v>
       </c>
       <c r="B113" s="20" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4897,7 +4944,7 @@
         <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4912,16 +4959,16 @@
         <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
@@ -4945,16 +4992,16 @@
         <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
@@ -4978,16 +5025,16 @@
         <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -5011,16 +5058,16 @@
         <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -5044,16 +5091,16 @@
         <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -5077,10 +5124,10 @@
         <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>1</v>
@@ -5105,16 +5152,16 @@
         <v>141.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J121" s="1" t="b">
         <v>1</v>
@@ -5136,10 +5183,10 @@
         <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -5167,13 +5214,16 @@
         <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>228</v>
       </c>
       <c r="J123" s="1" t="b">
         <v>0</v>
@@ -5195,7 +5245,7 @@
         <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
@@ -5210,7 +5260,7 @@
         <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -5225,7 +5275,7 @@
         <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
@@ -5240,10 +5290,10 @@
         <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
@@ -5268,16 +5318,16 @@
         <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5301,16 +5351,16 @@
         <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -5334,16 +5384,16 @@
         <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J130" s="1" t="b">
         <v>0</v>
@@ -5365,16 +5415,16 @@
         <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J131" s="1" t="b">
         <v>1</v>
@@ -5396,16 +5446,16 @@
         <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="J132" s="1" t="b">
         <v>0</v>
@@ -5427,10 +5477,10 @@
         <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>1</v>
@@ -5455,7 +5505,7 @@
         <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -5470,7 +5520,7 @@
         <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D135" s="1" t="b">
         <v>0</v>
@@ -5485,7 +5535,7 @@
         <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -5500,7 +5550,7 @@
         <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
@@ -5515,7 +5565,7 @@
         <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D138" s="1" t="b">
         <v>0</v>
@@ -5530,7 +5580,7 @@
         <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>0</v>
@@ -5551,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="1">
-        <v>153.0</v>
+        <v>181.0</v>
       </c>
       <c r="N140" s="6"/>
     </row>
@@ -5560,16 +5610,16 @@
         <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
@@ -5593,16 +5643,16 @@
         <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
@@ -5626,16 +5676,16 @@
         <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
@@ -5659,16 +5709,16 @@
         <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J144" s="1" t="b">
         <v>0</v>
@@ -5690,16 +5740,16 @@
         <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J145" s="1" t="b">
         <v>1</v>
@@ -5721,10 +5771,10 @@
         <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>1</v>
@@ -5752,10 +5802,10 @@
         <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -5780,10 +5830,10 @@
         <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D148" s="1" t="b">
         <v>1</v>
@@ -5811,13 +5861,13 @@
         <v>44</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5844,13 +5894,13 @@
         <v>44</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5877,13 +5927,13 @@
         <v>44</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5910,13 +5960,13 @@
         <v>44</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
@@ -5941,13 +5991,13 @@
         <v>44</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J153" s="1" t="b">
         <v>1</v>
@@ -5972,13 +6022,13 @@
         <v>44</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J154" s="1" t="b">
         <v>0</v>
@@ -6003,10 +6053,13 @@
         <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="J155" s="1" t="b">
         <v>0</v>
@@ -6031,13 +6084,13 @@
         <v>56</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -6064,13 +6117,13 @@
         <v>56</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -6097,13 +6150,13 @@
         <v>56</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
@@ -6130,13 +6183,13 @@
         <v>56</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="J159" s="1" t="b">
         <v>0</v>
@@ -6161,7 +6214,7 @@
         <v>56</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
@@ -6195,10 +6248,13 @@
         <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="J161" s="1" t="b">
         <v>1</v>
@@ -6235,7 +6291,7 @@
         <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>0</v>
@@ -6250,16 +6306,16 @@
         <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
@@ -6283,16 +6339,16 @@
         <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J165" s="1" t="b">
         <v>0</v>
@@ -6314,16 +6370,16 @@
         <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="J166" s="1" t="b">
         <v>0</v>
@@ -6345,16 +6401,16 @@
         <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J167" s="1" t="b">
         <v>1</v>
@@ -6379,13 +6435,13 @@
         <v>51</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -6424,16 +6480,16 @@
         <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -6457,16 +6513,16 @@
         <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
@@ -6490,16 +6546,16 @@
         <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="J172" s="1" t="b">
         <v>0</v>
@@ -6521,7 +6577,7 @@
         <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>71</v>
@@ -6530,7 +6586,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
@@ -6554,10 +6610,10 @@
         <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D174" s="1" t="b">
         <v>1</v>
@@ -6582,7 +6638,7 @@
         <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>80</v>
@@ -6591,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -6615,16 +6671,16 @@
         <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6648,10 +6704,10 @@
         <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D177" s="1" t="b">
         <v>1</v>
@@ -6679,16 +6735,16 @@
         <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G178" s="1" t="b">
         <v>1</v>
@@ -6715,16 +6771,16 @@
         <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1" t="b">
@@ -6750,10 +6806,10 @@
         <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
@@ -6781,16 +6837,16 @@
         <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>1</v>
@@ -6815,16 +6871,16 @@
         <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>1</v>
@@ -6851,13 +6907,16 @@
         <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="J183" s="1" t="b">
         <v>1</v>
@@ -6879,16 +6938,16 @@
         <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6912,16 +6971,16 @@
         <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6945,16 +7004,16 @@
         <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6978,16 +7037,16 @@
         <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -7011,16 +7070,16 @@
         <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="J188" s="1" t="b">
         <v>0</v>
@@ -7042,13 +7101,16 @@
         <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="J189" s="1" t="b">
         <v>0</v>
@@ -7070,16 +7132,16 @@
         <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
@@ -7103,16 +7165,16 @@
         <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -7136,7 +7198,7 @@
         <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>80</v>
@@ -7145,7 +7207,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -7169,16 +7231,16 @@
         <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -7202,16 +7264,16 @@
         <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -7235,16 +7297,16 @@
         <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="J195" s="1" t="b">
         <v>0</v>
@@ -7266,16 +7328,16 @@
         <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J196" s="1" t="b">
         <v>0</v>
@@ -7297,16 +7359,16 @@
         <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
@@ -7328,13 +7390,16 @@
         <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>345</v>
       </c>
       <c r="J198" s="1" t="b">
         <v>1</v>
@@ -7356,16 +7421,16 @@
         <v>219.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
@@ -7392,13 +7457,13 @@
         <v>13</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D200" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="I200" s="1" t="b">
         <v>1</v>
@@ -7422,7 +7487,7 @@
         <v>221.0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>107</v>
@@ -7432,6 +7497,36 @@
       </c>
       <c r="M201" s="1">
         <v>59.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1">
+        <v>222.0</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D202" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="J202" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" s="5">
+        <v>44626.583333333336</v>
+      </c>
+      <c r="L202" s="1">
+        <f>(K202-Date(1970,1,1))*86400*1000</f>
+        <v>1646575200000</v>
+      </c>
+      <c r="M202" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -7480,104 +7575,114 @@
     <hyperlink r:id="rId42" ref="E51"/>
     <hyperlink r:id="rId43" ref="E52"/>
     <hyperlink r:id="rId44" ref="E53"/>
-    <hyperlink r:id="rId45" ref="E55"/>
-    <hyperlink r:id="rId46" ref="E56"/>
-    <hyperlink r:id="rId47" ref="E57"/>
-    <hyperlink r:id="rId48" ref="E58"/>
-    <hyperlink r:id="rId49" ref="E59"/>
-    <hyperlink r:id="rId50" ref="E61"/>
-    <hyperlink r:id="rId51" ref="E62"/>
-    <hyperlink r:id="rId52" ref="E63"/>
-    <hyperlink r:id="rId53" ref="E64"/>
-    <hyperlink r:id="rId54" ref="E65"/>
-    <hyperlink r:id="rId55" ref="E68"/>
-    <hyperlink r:id="rId56" ref="E69"/>
-    <hyperlink r:id="rId57" ref="E70"/>
-    <hyperlink r:id="rId58" ref="E71"/>
-    <hyperlink r:id="rId59" ref="E72"/>
-    <hyperlink r:id="rId60" ref="E75"/>
-    <hyperlink r:id="rId61" ref="E76"/>
-    <hyperlink r:id="rId62" ref="E77"/>
-    <hyperlink r:id="rId63" ref="E78"/>
-    <hyperlink r:id="rId64" ref="E79"/>
-    <hyperlink r:id="rId65" ref="E80"/>
-    <hyperlink r:id="rId66" ref="E81"/>
-    <hyperlink r:id="rId67" ref="E82"/>
-    <hyperlink r:id="rId68" ref="E84"/>
-    <hyperlink r:id="rId69" ref="E88"/>
-    <hyperlink r:id="rId70" ref="E89"/>
-    <hyperlink r:id="rId71" ref="E90"/>
-    <hyperlink r:id="rId72" ref="E91"/>
-    <hyperlink r:id="rId73" ref="E93"/>
-    <hyperlink r:id="rId74" ref="E94"/>
-    <hyperlink r:id="rId75" ref="E95"/>
-    <hyperlink r:id="rId76" ref="E96"/>
-    <hyperlink r:id="rId77" ref="E97"/>
-    <hyperlink r:id="rId78" ref="E98"/>
-    <hyperlink r:id="rId79" ref="E103"/>
-    <hyperlink r:id="rId80" ref="E104"/>
-    <hyperlink r:id="rId81" ref="E105"/>
-    <hyperlink r:id="rId82" ref="E106"/>
-    <hyperlink r:id="rId83" ref="E107"/>
-    <hyperlink r:id="rId84" ref="E108"/>
-    <hyperlink r:id="rId85" ref="E109"/>
-    <hyperlink r:id="rId86" ref="E115"/>
-    <hyperlink r:id="rId87" ref="E116"/>
-    <hyperlink r:id="rId88" ref="E117"/>
-    <hyperlink r:id="rId89" ref="E118"/>
-    <hyperlink r:id="rId90" ref="E119"/>
-    <hyperlink r:id="rId91" ref="E121"/>
-    <hyperlink r:id="rId92" ref="E128"/>
-    <hyperlink r:id="rId93" ref="E129"/>
-    <hyperlink r:id="rId94" ref="E130"/>
-    <hyperlink r:id="rId95" ref="E131"/>
-    <hyperlink r:id="rId96" ref="E132"/>
-    <hyperlink r:id="rId97" ref="E141"/>
-    <hyperlink r:id="rId98" ref="E142"/>
-    <hyperlink r:id="rId99" ref="E143"/>
-    <hyperlink r:id="rId100" ref="E144"/>
-    <hyperlink r:id="rId101" ref="E145"/>
-    <hyperlink r:id="rId102" ref="E149"/>
-    <hyperlink r:id="rId103" ref="E150"/>
-    <hyperlink r:id="rId104" ref="E151"/>
-    <hyperlink r:id="rId105" ref="E152"/>
-    <hyperlink r:id="rId106" ref="E153"/>
-    <hyperlink r:id="rId107" ref="E154"/>
-    <hyperlink r:id="rId108" ref="E156"/>
-    <hyperlink r:id="rId109" ref="E157"/>
-    <hyperlink r:id="rId110" ref="E158"/>
-    <hyperlink r:id="rId111" ref="E159"/>
-    <hyperlink r:id="rId112" ref="E164"/>
-    <hyperlink r:id="rId113" ref="E165"/>
-    <hyperlink r:id="rId114" ref="E166"/>
-    <hyperlink r:id="rId115" ref="E167"/>
-    <hyperlink r:id="rId116" ref="E168"/>
-    <hyperlink r:id="rId117" ref="E170"/>
-    <hyperlink r:id="rId118" ref="E171"/>
-    <hyperlink r:id="rId119" ref="E172"/>
-    <hyperlink r:id="rId120" ref="E173"/>
-    <hyperlink r:id="rId121" ref="E175"/>
-    <hyperlink r:id="rId122" ref="E176"/>
-    <hyperlink r:id="rId123" ref="E178"/>
-    <hyperlink r:id="rId124" ref="E179"/>
-    <hyperlink r:id="rId125" ref="E181"/>
-    <hyperlink r:id="rId126" ref="E182"/>
-    <hyperlink r:id="rId127" ref="E184"/>
-    <hyperlink r:id="rId128" ref="E185"/>
-    <hyperlink r:id="rId129" ref="E186"/>
-    <hyperlink r:id="rId130" ref="E187"/>
-    <hyperlink r:id="rId131" ref="E188"/>
-    <hyperlink r:id="rId132" ref="E190"/>
-    <hyperlink r:id="rId133" ref="E191"/>
-    <hyperlink r:id="rId134" ref="E192"/>
-    <hyperlink r:id="rId135" ref="E193"/>
-    <hyperlink r:id="rId136" ref="E194"/>
-    <hyperlink r:id="rId137" ref="E195"/>
-    <hyperlink r:id="rId138" ref="E196"/>
-    <hyperlink r:id="rId139" ref="E197"/>
-    <hyperlink r:id="rId140" ref="E199"/>
-    <hyperlink r:id="rId141" ref="E200"/>
+    <hyperlink r:id="rId45" ref="E54"/>
+    <hyperlink r:id="rId46" ref="E55"/>
+    <hyperlink r:id="rId47" ref="E56"/>
+    <hyperlink r:id="rId48" ref="E57"/>
+    <hyperlink r:id="rId49" ref="E58"/>
+    <hyperlink r:id="rId50" ref="E59"/>
+    <hyperlink r:id="rId51" ref="E61"/>
+    <hyperlink r:id="rId52" ref="E62"/>
+    <hyperlink r:id="rId53" ref="E63"/>
+    <hyperlink r:id="rId54" ref="E64"/>
+    <hyperlink r:id="rId55" ref="E65"/>
+    <hyperlink r:id="rId56" ref="E66"/>
+    <hyperlink r:id="rId57" ref="E68"/>
+    <hyperlink r:id="rId58" ref="E69"/>
+    <hyperlink r:id="rId59" ref="E70"/>
+    <hyperlink r:id="rId60" ref="E71"/>
+    <hyperlink r:id="rId61" ref="E72"/>
+    <hyperlink r:id="rId62" ref="E73"/>
+    <hyperlink r:id="rId63" ref="E75"/>
+    <hyperlink r:id="rId64" ref="E76"/>
+    <hyperlink r:id="rId65" ref="E77"/>
+    <hyperlink r:id="rId66" ref="E78"/>
+    <hyperlink r:id="rId67" ref="E79"/>
+    <hyperlink r:id="rId68" ref="E80"/>
+    <hyperlink r:id="rId69" ref="E81"/>
+    <hyperlink r:id="rId70" ref="E82"/>
+    <hyperlink r:id="rId71" ref="E84"/>
+    <hyperlink r:id="rId72" ref="E88"/>
+    <hyperlink r:id="rId73" ref="E89"/>
+    <hyperlink r:id="rId74" ref="E90"/>
+    <hyperlink r:id="rId75" ref="E91"/>
+    <hyperlink r:id="rId76" ref="E93"/>
+    <hyperlink r:id="rId77" ref="E94"/>
+    <hyperlink r:id="rId78" ref="E95"/>
+    <hyperlink r:id="rId79" ref="E96"/>
+    <hyperlink r:id="rId80" ref="E97"/>
+    <hyperlink r:id="rId81" ref="E98"/>
+    <hyperlink r:id="rId82" ref="E103"/>
+    <hyperlink r:id="rId83" ref="E104"/>
+    <hyperlink r:id="rId84" ref="E105"/>
+    <hyperlink r:id="rId85" ref="E106"/>
+    <hyperlink r:id="rId86" ref="E107"/>
+    <hyperlink r:id="rId87" ref="E108"/>
+    <hyperlink r:id="rId88" ref="E109"/>
+    <hyperlink r:id="rId89" ref="E115"/>
+    <hyperlink r:id="rId90" ref="E116"/>
+    <hyperlink r:id="rId91" ref="E117"/>
+    <hyperlink r:id="rId92" ref="E118"/>
+    <hyperlink r:id="rId93" ref="E119"/>
+    <hyperlink r:id="rId94" ref="E121"/>
+    <hyperlink r:id="rId95" ref="E123"/>
+    <hyperlink r:id="rId96" ref="E128"/>
+    <hyperlink r:id="rId97" ref="E129"/>
+    <hyperlink r:id="rId98" ref="E130"/>
+    <hyperlink r:id="rId99" ref="E131"/>
+    <hyperlink r:id="rId100" ref="E132"/>
+    <hyperlink r:id="rId101" ref="E141"/>
+    <hyperlink r:id="rId102" ref="E142"/>
+    <hyperlink r:id="rId103" ref="E143"/>
+    <hyperlink r:id="rId104" ref="E144"/>
+    <hyperlink r:id="rId105" ref="E145"/>
+    <hyperlink r:id="rId106" ref="E149"/>
+    <hyperlink r:id="rId107" ref="E150"/>
+    <hyperlink r:id="rId108" ref="E151"/>
+    <hyperlink r:id="rId109" ref="E152"/>
+    <hyperlink r:id="rId110" ref="E153"/>
+    <hyperlink r:id="rId111" ref="E154"/>
+    <hyperlink r:id="rId112" ref="E155"/>
+    <hyperlink r:id="rId113" ref="E156"/>
+    <hyperlink r:id="rId114" ref="E157"/>
+    <hyperlink r:id="rId115" ref="E158"/>
+    <hyperlink r:id="rId116" ref="E159"/>
+    <hyperlink r:id="rId117" ref="E161"/>
+    <hyperlink r:id="rId118" ref="E164"/>
+    <hyperlink r:id="rId119" ref="E165"/>
+    <hyperlink r:id="rId120" ref="E166"/>
+    <hyperlink r:id="rId121" ref="E167"/>
+    <hyperlink r:id="rId122" ref="E168"/>
+    <hyperlink r:id="rId123" ref="E170"/>
+    <hyperlink r:id="rId124" ref="E171"/>
+    <hyperlink r:id="rId125" ref="E172"/>
+    <hyperlink r:id="rId126" ref="E173"/>
+    <hyperlink r:id="rId127" ref="E175"/>
+    <hyperlink r:id="rId128" ref="E176"/>
+    <hyperlink r:id="rId129" ref="E178"/>
+    <hyperlink r:id="rId130" ref="E179"/>
+    <hyperlink r:id="rId131" ref="E181"/>
+    <hyperlink r:id="rId132" ref="E182"/>
+    <hyperlink r:id="rId133" ref="E183"/>
+    <hyperlink r:id="rId134" ref="E184"/>
+    <hyperlink r:id="rId135" ref="E185"/>
+    <hyperlink r:id="rId136" ref="E186"/>
+    <hyperlink r:id="rId137" ref="E187"/>
+    <hyperlink r:id="rId138" ref="E188"/>
+    <hyperlink r:id="rId139" ref="E189"/>
+    <hyperlink r:id="rId140" ref="E190"/>
+    <hyperlink r:id="rId141" ref="E191"/>
+    <hyperlink r:id="rId142" ref="E192"/>
+    <hyperlink r:id="rId143" ref="E193"/>
+    <hyperlink r:id="rId144" ref="E194"/>
+    <hyperlink r:id="rId145" ref="E195"/>
+    <hyperlink r:id="rId146" ref="E196"/>
+    <hyperlink r:id="rId147" ref="E197"/>
+    <hyperlink r:id="rId148" ref="E198"/>
+    <hyperlink r:id="rId149" ref="E199"/>
+    <hyperlink r:id="rId150" ref="E200"/>
+    <hyperlink r:id="rId151" ref="E202"/>
   </hyperlinks>
-  <drawing r:id="rId142"/>
+  <drawing r:id="rId152"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="397">
   <si>
     <t>id</t>
   </si>
@@ -412,6 +412,9 @@
     <t>MAFIA MIX-BREAKDOWN members-only</t>
   </si>
   <si>
+    <t>https://youtu.be/-apHDgGBTNI</t>
+  </si>
+  <si>
     <t>Call Me By Your Name and I'll Call You By Mine...【MEMBERS ONLY WATCHALONG】</t>
   </si>
   <si>
@@ -448,6 +451,9 @@
     <t>https://www.youtube.com/watch?v=jyeYLcWasz0</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=YNvWo_WTuYg</t>
+  </si>
+  <si>
     <t>Elira</t>
   </si>
   <si>
@@ -523,6 +529,9 @@
     <t>200K PARTY JP DOULINGO</t>
   </si>
   <si>
+    <t>https://t.co/fqplTQnUIs</t>
+  </si>
+  <si>
     <t>Pomu</t>
   </si>
   <si>
@@ -745,6 +754,9 @@
     <t>Mario Party w/ Petra Mysta &amp; Vox</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=EjU3i23n69U</t>
+  </si>
+  <si>
     <t>ReimuX</t>
   </si>
   <si>
@@ -787,6 +799,9 @@
     <t>MARIO PARTY w/ ENNA, MYSTA, VOX</t>
   </si>
   <si>
+    <t>https://youtu.be/HWZ5EusRVPs</t>
+  </si>
+  <si>
     <t>ZATSU &amp; MILESTONES</t>
   </si>
   <si>
@@ -859,9 +874,6 @@
     <t>Mario Party [Enna, Petra, Vox]</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EjU3i23n69U</t>
-  </si>
-  <si>
     <t>Millie</t>
   </si>
   <si>
@@ -1067,6 +1079,129 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=zNJf_lyI87Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UJU_MhSX_N4</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077-Here's Johnny</t>
+  </si>
+  <si>
+    <t>Zelda: Majora's Mask</t>
+  </si>
+  <si>
+    <t>Smash ultimate w/ Voxxy</t>
+  </si>
+  <si>
+    <t>Apex Legends w/ Selen/ Alban</t>
+  </si>
+  <si>
+    <t>Valorant w/ Noctyx</t>
+  </si>
+  <si>
+    <t>Zatsudan - Comfy Chat</t>
+  </si>
+  <si>
+    <t>DISHONORED</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0dmm5is1KIc</t>
+  </si>
+  <si>
+    <t>100K ZATSU CELEBRATION! 1ST WEEK RECAP</t>
+  </si>
+  <si>
+    <t>THE CONVENIENCE STORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APEX COLLAB FT. SELEN &amp; FULGUR </t>
+  </si>
+  <si>
+    <t>MISTS OF AIDEN</t>
+  </si>
+  <si>
+    <t>NOCTYX - VALORANT COLLAB</t>
+  </si>
+  <si>
+    <t>ZATSUDAN (catch up on superchats)</t>
+  </si>
+  <si>
+    <t>APEX Legends with Sonny &amp; Reimu</t>
+  </si>
+  <si>
+    <t>DBD COLLAB</t>
+  </si>
+  <si>
+    <t>VOLORANT  with NOCTYX</t>
+  </si>
+  <si>
+    <t>DON'T STARVE TOGETHER W/ LAZULIGHT &amp; OBSYDIA</t>
+  </si>
+  <si>
+    <t>YU-GI-OH! MASTER DEUL(TRAINING ARC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEAD BY DAYLIGHT W/ PETRA, UKI, ROSEMI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAKUZA: 0 FINALE </t>
+  </si>
+  <si>
+    <t>POWERWASH W/ MENBERFEESH (FINANCE)</t>
+  </si>
+  <si>
+    <t>GENSHIN</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>DEVIL MAY CRY 5</t>
+  </si>
+  <si>
+    <t>PORTAL 2 COOP w/ SONNY</t>
+  </si>
+  <si>
+    <t>DUOLINGO</t>
+  </si>
+  <si>
+    <t>VALORANT NOCTYX</t>
+  </si>
+  <si>
+    <t>ZATSUDAN/FREETALK</t>
+  </si>
+  <si>
+    <t>GOOSE GAME</t>
+  </si>
+  <si>
+    <t>PORTAL 2 COOP w/ YUGO</t>
+  </si>
+  <si>
+    <t>APEX w/ REIMU+UKI</t>
+  </si>
+  <si>
+    <t>VALORANT w/ NOCTYX</t>
+  </si>
+  <si>
+    <t>METAL GEAR RISING</t>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>Worms:NIJI EN</t>
+  </si>
+  <si>
+    <t>WilderMyth</t>
+  </si>
+  <si>
+    <t>PYRE</t>
+  </si>
+  <si>
+    <t>PYRE #2</t>
+  </si>
+  <si>
+    <t>One Step From Eden</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1216,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1109,8 +1244,21 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1139,13 +1287,23 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1186,6 +1344,22 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1204,11 +1378,21 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,7 +1615,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.29"/>
     <col customWidth="1" min="2" max="2" width="12.29"/>
-    <col customWidth="1" min="3" max="3" width="34.29"/>
+    <col customWidth="1" min="3" max="3" width="37.0"/>
     <col customWidth="1" min="4" max="4" width="10.71"/>
     <col customWidth="1" min="5" max="5" width="21.43"/>
     <col customWidth="1" min="6" max="6" width="9.14"/>
@@ -1485,7 +1669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
@@ -1520,7 +1704,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
@@ -1555,7 +1739,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
@@ -1590,7 +1774,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
@@ -1625,7 +1809,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
@@ -1660,7 +1844,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
@@ -1695,7 +1879,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
@@ -1730,7 +1914,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
@@ -1765,7 +1949,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
@@ -1800,7 +1984,7 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
@@ -1835,7 +2019,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
@@ -1870,7 +2054,7 @@
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
@@ -1886,7 +2070,7 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
@@ -1902,7 +2086,7 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
@@ -1937,7 +2121,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
@@ -1972,7 +2156,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
@@ -1988,7 +2172,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
@@ -2023,7 +2207,7 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
@@ -2039,7 +2223,7 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
@@ -2074,7 +2258,7 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
@@ -2109,7 +2293,7 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
@@ -2144,7 +2328,7 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
@@ -2179,7 +2363,7 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
@@ -2195,7 +2379,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
@@ -2211,7 +2395,7 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
@@ -2246,7 +2430,7 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
@@ -2281,7 +2465,7 @@
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
@@ -2316,7 +2500,7 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
@@ -2351,7 +2535,7 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
@@ -2386,7 +2570,7 @@
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="1">
         <v>30.0</v>
       </c>
@@ -2421,7 +2605,7 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
@@ -2456,7 +2640,7 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="1">
         <v>32.0</v>
       </c>
@@ -2491,7 +2675,7 @@
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
@@ -2526,7 +2710,7 @@
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
@@ -2555,7 +2739,7 @@
       </c>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
@@ -2571,7 +2755,7 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="1">
         <v>36.0</v>
       </c>
@@ -2606,7 +2790,7 @@
       </c>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
@@ -2641,7 +2825,7 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="1">
         <v>38.0</v>
       </c>
@@ -2676,7 +2860,7 @@
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="9">
         <v>39.0</v>
       </c>
@@ -2730,37 +2914,57 @@
       <c r="AF40" s="13"/>
     </row>
     <row r="41">
-      <c r="A41" s="1">
+      <c r="A41" s="14">
         <v>53.0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="D41" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="5">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
         <v>44620.0</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L41" s="14">
         <f t="shared" si="5"/>
         <v>1646006400000</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="6"/>
+      <c r="M41" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="19"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="16"/>
+      <c r="Z41" s="16"/>
+      <c r="AA41" s="16"/>
+      <c r="AB41" s="16"/>
+      <c r="AC41" s="16"/>
+      <c r="AD41" s="16"/>
+      <c r="AE41" s="16"/>
+      <c r="AF41" s="16"/>
     </row>
     <row r="42">
       <c r="A42" s="1">
@@ -3337,7 +3541,7 @@
       <c r="J59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="20">
         <v>44624.5</v>
       </c>
       <c r="L59" s="1">
@@ -3567,7 +3771,7 @@
       <c r="J66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="21">
         <v>44625.625</v>
       </c>
       <c r="L66" s="1">
@@ -3592,6 +3796,9 @@
       <c r="D67" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E67" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="J67" s="1" t="b">
         <v>0</v>
       </c>
@@ -3615,13 +3822,13 @@
         <v>13</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D68" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3648,13 +3855,13 @@
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D69" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3681,13 +3888,13 @@
         <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D70" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3714,13 +3921,13 @@
         <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
@@ -3747,13 +3954,13 @@
         <v>67</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D72" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J72" s="1" t="b">
         <v>0</v>
@@ -3778,13 +3985,13 @@
         <v>67</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J73" s="1" t="b">
         <v>0</v>
@@ -3814,6 +4021,9 @@
       <c r="D74" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E74" s="7" t="s">
+        <v>146</v>
+      </c>
       <c r="J74" s="1" t="b">
         <v>0</v>
       </c>
@@ -3834,23 +4044,23 @@
         <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="22">
         <v>44620.875</v>
       </c>
       <c r="L75" s="1">
@@ -3867,23 +4077,23 @@
         <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="17">
+      <c r="K76" s="23">
         <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
@@ -3900,21 +4110,21 @@
         <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K77" s="17">
+      <c r="K77" s="23">
         <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
@@ -3931,21 +4141,21 @@
         <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K78" s="17">
+      <c r="K78" s="23">
         <v>44624.875</v>
       </c>
       <c r="L78" s="1">
@@ -3962,16 +4172,16 @@
         <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D79" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J79" s="1" t="b">
         <v>0</v>
@@ -3993,16 +4203,16 @@
         <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
@@ -4026,23 +4236,23 @@
         <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D81" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="18">
+      <c r="K81" s="24">
         <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
@@ -4059,16 +4269,16 @@
         <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D82" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
@@ -4092,10 +4302,10 @@
         <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D83" s="1" t="b">
         <v>1</v>
@@ -4120,16 +4330,16 @@
         <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D84" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
@@ -4153,10 +4363,10 @@
         <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D85" s="1" t="b">
         <v>1</v>
@@ -4184,10 +4394,10 @@
         <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D86" s="1" t="b">
         <v>1</v>
@@ -4215,13 +4425,16 @@
         <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D87" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="J87" s="1" t="b">
         <v>0</v>
@@ -4243,23 +4456,23 @@
         <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="22">
         <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
@@ -4276,23 +4489,23 @@
         <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D89" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="22">
         <v>44622.0</v>
       </c>
       <c r="L89" s="1">
@@ -4309,23 +4522,23 @@
         <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D90" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="22">
         <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
@@ -4342,21 +4555,21 @@
         <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="22">
         <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
@@ -4373,21 +4586,22 @@
         <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D92" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F92" s="1" t="b">
+      <c r="F92" s="1"/>
+      <c r="H92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J92" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="22">
         <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
@@ -4404,23 +4618,23 @@
         <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="22">
         <v>44620.875</v>
       </c>
       <c r="L93" s="1">
@@ -4437,23 +4651,23 @@
         <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K94" s="16">
+      <c r="K94" s="22">
         <v>44621.875</v>
       </c>
       <c r="L94" s="1">
@@ -4470,23 +4684,23 @@
         <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D95" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K95" s="16">
+      <c r="K95" s="22">
         <v>44622.875</v>
       </c>
       <c r="L95" s="1">
@@ -4503,21 +4717,21 @@
         <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="J96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K96" s="16">
+      <c r="K96" s="22">
         <v>44623.875</v>
       </c>
       <c r="L96" s="1">
@@ -4534,21 +4748,21 @@
         <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D97" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="J97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="19">
+      <c r="K97" s="25">
         <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
@@ -4565,21 +4779,21 @@
         <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D98" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="J98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="22">
         <v>44625.875</v>
       </c>
       <c r="L98" s="1">
@@ -4611,7 +4825,7 @@
         <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D100" s="1" t="b">
         <v>0</v>
@@ -4626,7 +4840,7 @@
         <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D101" s="1" t="b">
         <v>0</v>
@@ -4641,7 +4855,7 @@
         <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D102" s="1" t="b">
         <v>0</v>
@@ -4656,23 +4870,23 @@
         <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D103" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="16">
+      <c r="K103" s="22">
         <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
@@ -4689,23 +4903,23 @@
         <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D104" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="16">
+      <c r="K104" s="22">
         <v>44621.875</v>
       </c>
       <c r="L104" s="1">
@@ -4722,23 +4936,23 @@
         <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K105" s="16">
+      <c r="K105" s="22">
         <v>44622.125</v>
       </c>
       <c r="L105" s="1">
@@ -4755,23 +4969,23 @@
         <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D106" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K106" s="16">
+      <c r="K106" s="22">
         <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
@@ -4788,16 +5002,16 @@
         <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D107" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H107" s="1" t="b">
         <v>1</v>
@@ -4805,7 +5019,7 @@
       <c r="J107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="16">
+      <c r="K107" s="22">
         <v>44624.875</v>
       </c>
       <c r="L107" s="1">
@@ -4822,21 +5036,21 @@
         <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D108" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="16">
+      <c r="K108" s="22">
         <v>44625.125</v>
       </c>
       <c r="L108" s="1">
@@ -4853,21 +5067,21 @@
         <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D109" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K109" s="16">
+      <c r="K109" s="22">
         <v>44626.0</v>
       </c>
       <c r="L109" s="1">
@@ -4899,7 +5113,7 @@
         <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D111" s="1" t="b">
         <v>0</v>
@@ -4914,7 +5128,7 @@
         <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D112" s="1" t="b">
         <v>0</v>
@@ -4928,8 +5142,8 @@
       <c r="A113" s="1">
         <v>133.0</v>
       </c>
-      <c r="B113" s="20" t="s">
-        <v>211</v>
+      <c r="B113" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="D113" s="1" t="b">
         <v>0</v>
@@ -4944,7 +5158,7 @@
         <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D114" s="1" t="b">
         <v>0</v>
@@ -4959,23 +5173,23 @@
         <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D115" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K115" s="16">
+      <c r="K115" s="22">
         <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
@@ -4992,23 +5206,23 @@
         <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D116" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K116" s="16">
+      <c r="K116" s="22">
         <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
@@ -5025,23 +5239,23 @@
         <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D117" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K117" s="16">
+      <c r="K117" s="22">
         <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
@@ -5058,23 +5272,23 @@
         <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D118" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K118" s="16">
+      <c r="K118" s="22">
         <v>44622.083333333336</v>
       </c>
       <c r="L118" s="1">
@@ -5091,23 +5305,23 @@
         <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D119" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K119" s="19">
+      <c r="K119" s="25">
         <v>44622.833333333336</v>
       </c>
       <c r="L119" s="1">
@@ -5124,10 +5338,10 @@
         <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D120" s="1" t="b">
         <v>1</v>
@@ -5135,7 +5349,7 @@
       <c r="J120" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K120" s="16">
+      <c r="K120" s="22">
         <v>44623.833333333336</v>
       </c>
       <c r="L120" s="1">
@@ -5152,21 +5366,21 @@
         <v>141.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D121" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K121" s="16">
+      <c r="K121" s="22">
         <v>44625.083333333336</v>
       </c>
       <c r="L121" s="1">
@@ -5183,10 +5397,10 @@
         <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D122" s="1" t="b">
         <v>1</v>
@@ -5197,7 +5411,7 @@
       <c r="J122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K122" s="16">
+      <c r="K122" s="22">
         <v>44625.416666666664</v>
       </c>
       <c r="L122" s="1">
@@ -5214,21 +5428,21 @@
         <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D123" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J123" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K123" s="16">
+      <c r="K123" s="22">
         <v>44626.0</v>
       </c>
       <c r="L123" s="1">
@@ -5245,7 +5459,7 @@
         <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D124" s="1" t="b">
         <v>0</v>
@@ -5260,7 +5474,7 @@
         <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D125" s="1" t="b">
         <v>0</v>
@@ -5275,7 +5489,7 @@
         <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D126" s="1" t="b">
         <v>0</v>
@@ -5290,10 +5504,10 @@
         <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D127" s="1" t="b">
         <v>1</v>
@@ -5301,7 +5515,7 @@
       <c r="J127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K127" s="14">
+      <c r="K127" s="20">
         <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
@@ -5318,23 +5532,23 @@
         <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D128" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K128" s="16">
+      <c r="K128" s="22">
         <v>44622.625</v>
       </c>
       <c r="L128" s="1">
@@ -5351,23 +5565,23 @@
         <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D129" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K129" s="16">
+      <c r="K129" s="22">
         <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
@@ -5384,21 +5598,21 @@
         <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D130" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="J130" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K130" s="16">
+      <c r="K130" s="22">
         <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
@@ -5415,21 +5629,21 @@
         <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D131" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J131" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K131" s="16">
+      <c r="K131" s="22">
         <v>44625.125</v>
       </c>
       <c r="L131" s="1">
@@ -5446,21 +5660,21 @@
         <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D132" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="J132" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K132" s="16">
+      <c r="K132" s="22">
         <v>44625.71875</v>
       </c>
       <c r="L132" s="1">
@@ -5477,18 +5691,21 @@
         <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D133" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E133" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="J133" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K133" s="16">
+      <c r="K133" s="22">
         <v>44626.5</v>
       </c>
       <c r="L133" s="1">
@@ -5505,7 +5722,7 @@
         <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D134" s="1" t="b">
         <v>0</v>
@@ -5520,7 +5737,7 @@
         <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D135" s="1" t="b">
         <v>0</v>
@@ -5535,7 +5752,7 @@
         <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D136" s="1" t="b">
         <v>0</v>
@@ -5550,7 +5767,7 @@
         <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D137" s="1" t="b">
         <v>0</v>
@@ -5565,7 +5782,7 @@
         <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D138" s="1" t="b">
         <v>0</v>
@@ -5580,7 +5797,7 @@
         <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D139" s="1" t="b">
         <v>0</v>
@@ -5610,23 +5827,23 @@
         <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D141" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E141" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="14">
+      <c r="K141" s="20">
         <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
@@ -5643,23 +5860,23 @@
         <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D142" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="14">
+      <c r="K142" s="20">
         <v>44622.166666666664</v>
       </c>
       <c r="L142" s="1">
@@ -5676,23 +5893,23 @@
         <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D143" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E143" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="14">
+      <c r="K143" s="20">
         <v>44623.166666666664</v>
       </c>
       <c r="L143" s="1">
@@ -5709,21 +5926,21 @@
         <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D144" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J144" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="14">
+      <c r="K144" s="20">
         <v>44624.125</v>
       </c>
       <c r="L144" s="1">
@@ -5740,21 +5957,21 @@
         <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D145" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K145" s="14">
+      <c r="K145" s="20">
         <v>44625.125</v>
       </c>
       <c r="L145" s="1">
@@ -5771,10 +5988,10 @@
         <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D146" s="1" t="b">
         <v>1</v>
@@ -5785,7 +6002,7 @@
       <c r="J146" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="14">
+      <c r="K146" s="20">
         <v>44625.458333333336</v>
       </c>
       <c r="L146" s="1">
@@ -5802,10 +6019,10 @@
         <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D147" s="1" t="b">
         <v>1</v>
@@ -5813,7 +6030,7 @@
       <c r="J147" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="14">
+      <c r="K147" s="20">
         <v>44626.125</v>
       </c>
       <c r="L147" s="1">
@@ -5830,18 +6047,21 @@
         <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D148" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E148" s="7" t="s">
+        <v>262</v>
+      </c>
       <c r="J148" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K148" s="14">
+      <c r="K148" s="20">
         <v>44626.5</v>
       </c>
       <c r="L148" s="1">
@@ -5861,20 +6081,20 @@
         <v>44</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="14">
+      <c r="K149" s="20">
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
@@ -5894,20 +6114,20 @@
         <v>44</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D150" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="14">
+      <c r="K150" s="20">
         <v>44622.166666666664</v>
       </c>
       <c r="L150" s="1">
@@ -5927,20 +6147,20 @@
         <v>44</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D151" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K151" s="14">
+      <c r="K151" s="20">
         <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
@@ -5960,18 +6180,18 @@
         <v>44</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D152" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="J152" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="14">
+      <c r="K152" s="20">
         <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
@@ -5991,18 +6211,18 @@
         <v>44</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D153" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="J153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K153" s="14">
+      <c r="K153" s="20">
         <v>44624.5</v>
       </c>
       <c r="L153" s="1">
@@ -6022,18 +6242,18 @@
         <v>44</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D154" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="J154" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="14">
+      <c r="K154" s="20">
         <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
@@ -6053,23 +6273,26 @@
         <v>44</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D155" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
+      </c>
+      <c r="G155" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J155" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="14">
-        <v>44626.166666666664</v>
+      <c r="K155" s="20">
+        <v>44626.25</v>
       </c>
       <c r="L155" s="1">
         <f t="shared" si="9"/>
-        <v>1646539200000</v>
+        <v>1646546400000</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>16</v>
@@ -6084,20 +6307,20 @@
         <v>56</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D156" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="14">
+      <c r="K156" s="20">
         <v>44621.5</v>
       </c>
       <c r="L156" s="1">
@@ -6117,20 +6340,20 @@
         <v>56</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D157" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E157" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K157" s="14">
+      <c r="K157" s="20">
         <v>44622.5</v>
       </c>
       <c r="L157" s="1">
@@ -6150,20 +6373,20 @@
         <v>56</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D158" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K158" s="14">
+      <c r="K158" s="20">
         <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
@@ -6183,18 +6406,18 @@
         <v>56</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D159" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="J159" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K159" s="21">
+      <c r="K159" s="27">
         <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
@@ -6214,7 +6437,7 @@
         <v>56</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D160" s="1" t="b">
         <v>1</v>
@@ -6248,18 +6471,18 @@
         <v>56</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D161" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="J161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K161" s="14">
+      <c r="K161" s="20">
         <v>44626.5</v>
       </c>
       <c r="L161" s="1">
@@ -6291,7 +6514,7 @@
         <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D163" s="1" t="b">
         <v>0</v>
@@ -6306,23 +6529,23 @@
         <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D164" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K164" s="14">
+      <c r="K164" s="20">
         <v>44622.75</v>
       </c>
       <c r="L164" s="1">
@@ -6339,21 +6562,21 @@
         <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D165" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E165" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J165" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K165" s="14">
+      <c r="K165" s="20">
         <v>44623.75</v>
       </c>
       <c r="L165" s="1">
@@ -6370,21 +6593,21 @@
         <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D166" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="J166" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K166" s="21">
+      <c r="K166" s="27">
         <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
@@ -6401,21 +6624,21 @@
         <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="D167" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="J167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K167" s="14">
+      <c r="K167" s="20">
         <v>44625.125</v>
       </c>
       <c r="L167" s="1">
@@ -6435,13 +6658,13 @@
         <v>51</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D168" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
@@ -6480,16 +6703,16 @@
         <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D170" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -6513,23 +6736,23 @@
         <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D171" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K171" s="21">
+      <c r="K171" s="27">
         <v>44623.666666666664</v>
       </c>
       <c r="L171" s="1">
@@ -6546,21 +6769,21 @@
         <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D172" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="J172" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K172" s="14">
+      <c r="K172" s="20">
         <v>44625.666666666664</v>
       </c>
       <c r="L172" s="1">
@@ -6577,7 +6800,7 @@
         <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>71</v>
@@ -6586,14 +6809,14 @@
         <v>1</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K173" s="14">
+      <c r="K173" s="20">
         <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
@@ -6610,10 +6833,10 @@
         <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D174" s="1" t="b">
         <v>1</v>
@@ -6621,7 +6844,7 @@
       <c r="J174" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K174" s="14">
+      <c r="K174" s="20">
         <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
@@ -6638,7 +6861,7 @@
         <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>80</v>
@@ -6647,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
@@ -6671,16 +6894,16 @@
         <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D176" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6704,10 +6927,10 @@
         <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D177" s="1" t="b">
         <v>1</v>
@@ -6718,7 +6941,7 @@
       <c r="J177" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="18">
+      <c r="K177" s="24">
         <v>44621.916666666664</v>
       </c>
       <c r="L177" s="1">
@@ -6735,16 +6958,16 @@
         <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D178" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G178" s="1" t="b">
         <v>1</v>
@@ -6754,7 +6977,7 @@
       <c r="J178" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="18">
+      <c r="K178" s="24">
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
@@ -6771,16 +6994,16 @@
         <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D179" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1" t="b">
@@ -6806,10 +7029,10 @@
         <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D180" s="1" t="b">
         <v>1</v>
@@ -6837,16 +7060,16 @@
         <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D181" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I181" s="1" t="b">
         <v>1</v>
@@ -6871,16 +7094,16 @@
         <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D182" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G182" s="1" t="b">
         <v>1</v>
@@ -6907,16 +7130,16 @@
         <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D183" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E183" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J183" s="1" t="b">
         <v>1</v>
@@ -6938,23 +7161,23 @@
         <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D184" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K184" s="18">
+      <c r="K184" s="24">
         <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
@@ -6971,16 +7194,16 @@
         <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D185" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -7004,16 +7227,16 @@
         <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D186" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -7037,16 +7260,16 @@
         <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D187" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
@@ -7070,16 +7293,16 @@
         <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D188" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="J188" s="1" t="b">
         <v>0</v>
@@ -7101,16 +7324,16 @@
         <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D189" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="J189" s="1" t="b">
         <v>0</v>
@@ -7132,16 +7355,16 @@
         <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D190" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I190" s="1" t="b">
         <v>1</v>
@@ -7165,16 +7388,16 @@
         <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D191" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -7198,7 +7421,7 @@
         <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>80</v>
@@ -7207,7 +7430,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
@@ -7231,16 +7454,16 @@
         <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D193" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E193" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
@@ -7264,16 +7487,16 @@
         <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D194" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
@@ -7297,16 +7520,16 @@
         <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D195" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J195" s="1" t="b">
         <v>0</v>
@@ -7328,16 +7551,16 @@
         <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D196" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="J196" s="1" t="b">
         <v>0</v>
@@ -7359,16 +7582,16 @@
         <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D197" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="J197" s="1" t="b">
         <v>0</v>
@@ -7390,16 +7613,16 @@
         <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D198" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="J198" s="1" t="b">
         <v>1</v>
@@ -7421,16 +7644,16 @@
         <v>219.0</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D199" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="I199" s="1" t="b">
         <v>1</v>
@@ -7457,13 +7680,13 @@
         <v>13</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D200" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="I200" s="1" t="b">
         <v>1</v>
@@ -7487,7 +7710,7 @@
         <v>221.0</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>107</v>
@@ -7500,33 +7723,1273 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1">
+      <c r="A202" s="28">
         <v>222.0</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B202" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D202" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E202" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="J202" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K202" s="5">
-        <v>44626.583333333336</v>
-      </c>
-      <c r="L202" s="1">
-        <f>(K202-Date(1970,1,1))*86400*1000</f>
-        <v>1646575200000</v>
-      </c>
-      <c r="M202" s="1" t="s">
-        <v>16</v>
+      <c r="C202" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D202" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="F202" s="30"/>
+      <c r="G202" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="30"/>
+      <c r="I202" s="30"/>
+      <c r="J202" s="28" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" s="31">
+        <v>44626.604166666664</v>
+      </c>
+      <c r="L202" s="28">
+        <f t="shared" ref="L202:L249" si="12">(K202-Date(1970,1,1))*86400*1000</f>
+        <v>1646577000000</v>
+      </c>
+      <c r="M202" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N202" s="30"/>
+      <c r="O202" s="30"/>
+      <c r="P202" s="30"/>
+      <c r="Q202" s="30"/>
+      <c r="R202" s="30"/>
+      <c r="S202" s="30"/>
+      <c r="T202" s="30"/>
+      <c r="U202" s="30"/>
+      <c r="V202" s="30"/>
+      <c r="W202" s="30"/>
+      <c r="X202" s="30"/>
+      <c r="Y202" s="30"/>
+      <c r="Z202" s="30"/>
+      <c r="AA202" s="30"/>
+      <c r="AB202" s="30"/>
+      <c r="AC202" s="30"/>
+      <c r="AD202" s="30"/>
+      <c r="AE202" s="30"/>
+      <c r="AF202" s="30"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1">
+        <v>223.0</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D203" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K203" s="5">
+        <v>44626.666666666664</v>
+      </c>
+      <c r="L203" s="1">
+        <f t="shared" si="12"/>
+        <v>1646582400000</v>
+      </c>
+      <c r="M203" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1">
+        <v>224.0</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D204" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K204" s="5">
+        <v>44627.666666666664</v>
+      </c>
+      <c r="L204" s="1">
+        <f t="shared" si="12"/>
+        <v>1646668800000</v>
+      </c>
+      <c r="M204" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1">
+        <v>225.0</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D205" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K205" s="5">
+        <v>44628.666666666664</v>
+      </c>
+      <c r="L205" s="1">
+        <f t="shared" si="12"/>
+        <v>1646755200000</v>
+      </c>
+      <c r="M205" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1">
+        <v>226.0</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D206" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J206" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K206" s="5">
+        <v>44629.833333333336</v>
+      </c>
+      <c r="L206" s="1">
+        <f t="shared" si="12"/>
+        <v>1646856000000</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1">
+        <v>227.0</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D207" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K207" s="5">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="L207" s="1">
+        <f t="shared" si="12"/>
+        <v>1646960400000</v>
+      </c>
+      <c r="M207" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1">
+        <v>228.0</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D208" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K208" s="5">
+        <v>44632.083333333336</v>
+      </c>
+      <c r="L208" s="1">
+        <f t="shared" si="12"/>
+        <v>1647050400000</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1">
+        <v>229.0</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D209" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K209" s="5">
+        <v>44632.625</v>
+      </c>
+      <c r="L209" s="1">
+        <f t="shared" si="12"/>
+        <v>1647097200000</v>
+      </c>
+      <c r="M209" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1">
+        <v>230.0</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D210" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K210" s="5">
+        <v>44627.0</v>
+      </c>
+      <c r="L210" s="1">
+        <f t="shared" si="12"/>
+        <v>1646611200000</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1">
+        <v>231.0</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D211" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K211" s="5">
+        <v>44628.0</v>
+      </c>
+      <c r="L211" s="1">
+        <f t="shared" si="12"/>
+        <v>1646697600000</v>
+      </c>
+      <c r="M211" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1">
+        <v>232.0</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D212" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K212" s="5">
+        <v>44629.0</v>
+      </c>
+      <c r="L212" s="1">
+        <f t="shared" si="12"/>
+        <v>1646784000000</v>
+      </c>
+      <c r="M212" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1">
+        <v>233.0</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D213" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K213" s="5">
+        <v>44630.041666666664</v>
+      </c>
+      <c r="L213" s="1">
+        <f t="shared" si="12"/>
+        <v>1646874000000</v>
+      </c>
+      <c r="M213" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1">
+        <v>234.0</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D214" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J214" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K214" s="5">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="L214" s="1">
+        <f t="shared" si="12"/>
+        <v>1646960400000</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1">
+        <v>235.0</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D215" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G215" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K215" s="5">
+        <v>44633.0</v>
+      </c>
+      <c r="L215" s="1">
+        <f t="shared" si="12"/>
+        <v>1647129600000</v>
+      </c>
+      <c r="M215" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1">
+        <v>236.0</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D216" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G216" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J216" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K216" s="5">
+        <v>44632.083333333336</v>
+      </c>
+      <c r="L216" s="1">
+        <f t="shared" si="12"/>
+        <v>1647050400000</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1">
+        <v>237.0</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D217" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K217" s="5">
+        <v>44627.125</v>
+      </c>
+      <c r="L217" s="1">
+        <f t="shared" si="12"/>
+        <v>1646622000000</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1">
+        <v>238.0</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D218" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K218" s="5">
+        <v>44628.041666666664</v>
+      </c>
+      <c r="L218" s="1">
+        <f t="shared" si="12"/>
+        <v>1646701200000</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1">
+        <v>239.0</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D219" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K219" s="5">
+        <v>44629.125</v>
+      </c>
+      <c r="L219" s="1">
+        <f t="shared" si="12"/>
+        <v>1646794800000</v>
+      </c>
+      <c r="M219" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1">
+        <v>240.0</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D220" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K220" s="5">
+        <v>44630.041666666664</v>
+      </c>
+      <c r="L220" s="1">
+        <f t="shared" si="12"/>
+        <v>1646874000000</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1">
+        <v>241.0</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D221" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J221" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K221" s="5">
+        <v>44630.875</v>
+      </c>
+      <c r="L221" s="1">
+        <f t="shared" si="12"/>
+        <v>1646946000000</v>
+      </c>
+      <c r="M221" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1">
+        <v>242.0</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D222" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J222" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K222" s="5">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="L222" s="1">
+        <f t="shared" si="12"/>
+        <v>1646960400000</v>
+      </c>
+      <c r="M222" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1">
+        <v>243.0</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D223" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J223" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K223" s="5">
+        <v>44632.083333333336</v>
+      </c>
+      <c r="L223" s="1">
+        <f t="shared" si="12"/>
+        <v>1647050400000</v>
+      </c>
+      <c r="M223" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1">
+        <v>244.0</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" s="5">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="L224" s="1">
+        <f t="shared" si="12"/>
+        <v>1646618400000</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1">
+        <v>245.0</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D225" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K225" s="5">
+        <v>44627.875</v>
+      </c>
+      <c r="L225" s="1">
+        <f t="shared" si="12"/>
+        <v>1646686800000</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1">
+        <v>246.0</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D226" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K226" s="5">
+        <v>44628.958333333336</v>
+      </c>
+      <c r="L226" s="1">
+        <f t="shared" si="12"/>
+        <v>1646780400000</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1">
+        <v>247.0</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D227" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K227" s="5">
+        <v>44630.958333333336</v>
+      </c>
+      <c r="L227" s="1">
+        <f t="shared" si="12"/>
+        <v>1646953200000</v>
+      </c>
+      <c r="M227" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1">
+        <v>248.0</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D228" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K228" s="5">
+        <v>44631.875</v>
+      </c>
+      <c r="L228" s="1">
+        <f t="shared" si="12"/>
+        <v>1647032400000</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1">
+        <v>249.0</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D229" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K229" s="5">
+        <v>44632.958333333336</v>
+      </c>
+      <c r="L229" s="1">
+        <f t="shared" si="12"/>
+        <v>1647126000000</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1">
+        <v>250.0</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D230" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K230" s="5">
+        <v>44627.5</v>
+      </c>
+      <c r="L230" s="1">
+        <f t="shared" si="12"/>
+        <v>1646654400000</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1">
+        <v>251.0</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D231" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K231" s="5">
+        <v>44628.5</v>
+      </c>
+      <c r="L231" s="1">
+        <f t="shared" si="12"/>
+        <v>1646740800000</v>
+      </c>
+      <c r="M231" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1">
+        <v>252.0</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D232" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K232" s="8">
+        <v>44629.5</v>
+      </c>
+      <c r="L232" s="1">
+        <f t="shared" si="12"/>
+        <v>1646827200000</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1">
+        <v>253.0</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D233" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K233" s="5">
+        <v>44630.375</v>
+      </c>
+      <c r="L233" s="1">
+        <f t="shared" si="12"/>
+        <v>1646902800000</v>
+      </c>
+      <c r="M233" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1">
+        <v>254.0</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D234" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K234" s="5">
+        <v>44631.5</v>
+      </c>
+      <c r="L234" s="1">
+        <f t="shared" si="12"/>
+        <v>1647000000000</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D235" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K235" s="5">
+        <v>44632.083333333336</v>
+      </c>
+      <c r="L235" s="1">
+        <f t="shared" si="12"/>
+        <v>1647050400000</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1">
+        <v>256.0</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D236" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K236" s="5">
+        <v>44633.083333333336</v>
+      </c>
+      <c r="L236" s="1">
+        <f t="shared" si="12"/>
+        <v>1647136800000</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1">
+        <v>257.0</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D237" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K237" s="5">
+        <v>44627.375</v>
+      </c>
+      <c r="L237" s="1">
+        <f t="shared" si="12"/>
+        <v>1646643600000</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1">
+        <v>258.0</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D238" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K238" s="5">
+        <v>44628.375</v>
+      </c>
+      <c r="L238" s="1">
+        <f t="shared" si="12"/>
+        <v>1646730000000</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1">
+        <v>259.0</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D239" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K239" s="8">
+        <v>44629.25</v>
+      </c>
+      <c r="L239" s="1">
+        <f t="shared" si="12"/>
+        <v>1646805600000</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1">
+        <v>260.0</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D240" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J240" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K240" s="5">
+        <v>44630.375</v>
+      </c>
+      <c r="L240" s="1">
+        <f t="shared" si="12"/>
+        <v>1646902800000</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1">
+        <v>261.0</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D241" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J241" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K241" s="5">
+        <v>44630.875</v>
+      </c>
+      <c r="L241" s="1">
+        <f t="shared" si="12"/>
+        <v>1646946000000</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1">
+        <v>262.0</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D242" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J242" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K242" s="5">
+        <v>44632.083333333336</v>
+      </c>
+      <c r="L242" s="1">
+        <f t="shared" si="12"/>
+        <v>1647050400000</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1">
+        <v>263.0</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D243" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K243" s="5">
+        <v>44633.166666666664</v>
+      </c>
+      <c r="L243" s="1">
+        <f t="shared" si="12"/>
+        <v>1647144000000</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1">
+        <v>264.0</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D244" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" s="5">
+        <v>44627.791666666664</v>
+      </c>
+      <c r="L244" s="1">
+        <f t="shared" si="12"/>
+        <v>1646679600000</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1">
+        <v>265.0</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D245" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K245" s="5">
+        <v>44628.041666666664</v>
+      </c>
+      <c r="L245" s="1">
+        <f t="shared" si="12"/>
+        <v>1646701200000</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1">
+        <v>266.0</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D246" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" s="8">
+        <v>44629.791666666664</v>
+      </c>
+      <c r="L246" s="1">
+        <f t="shared" si="12"/>
+        <v>1646852400000</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1">
+        <v>267.0</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D247" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K247" s="5">
+        <v>44630.791666666664</v>
+      </c>
+      <c r="L247" s="1">
+        <f t="shared" si="12"/>
+        <v>1646938800000</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1">
+        <v>268.0</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D248" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K248" s="5">
+        <v>44631.791666666664</v>
+      </c>
+      <c r="L248" s="1">
+        <f t="shared" si="12"/>
+        <v>1647025200000</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1">
+        <v>269.0</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D249" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K249" s="5">
+        <v>44632.791666666664</v>
+      </c>
+      <c r="L249" s="1">
+        <f t="shared" si="12"/>
+        <v>1647111600000</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1">
+        <v>270.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1">
+        <v>271.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1">
+        <v>272.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1">
+        <v>273.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1">
+        <v>274.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1">
+        <v>275.0</v>
       </c>
     </row>
   </sheetData>
@@ -7587,102 +9050,109 @@
     <hyperlink r:id="rId54" ref="E64"/>
     <hyperlink r:id="rId55" ref="E65"/>
     <hyperlink r:id="rId56" ref="E66"/>
-    <hyperlink r:id="rId57" ref="E68"/>
-    <hyperlink r:id="rId58" ref="E69"/>
-    <hyperlink r:id="rId59" ref="E70"/>
-    <hyperlink r:id="rId60" ref="E71"/>
-    <hyperlink r:id="rId61" ref="E72"/>
-    <hyperlink r:id="rId62" ref="E73"/>
-    <hyperlink r:id="rId63" ref="E75"/>
-    <hyperlink r:id="rId64" ref="E76"/>
-    <hyperlink r:id="rId65" ref="E77"/>
-    <hyperlink r:id="rId66" ref="E78"/>
-    <hyperlink r:id="rId67" ref="E79"/>
-    <hyperlink r:id="rId68" ref="E80"/>
-    <hyperlink r:id="rId69" ref="E81"/>
-    <hyperlink r:id="rId70" ref="E82"/>
-    <hyperlink r:id="rId71" ref="E84"/>
-    <hyperlink r:id="rId72" ref="E88"/>
-    <hyperlink r:id="rId73" ref="E89"/>
-    <hyperlink r:id="rId74" ref="E90"/>
-    <hyperlink r:id="rId75" ref="E91"/>
-    <hyperlink r:id="rId76" ref="E93"/>
-    <hyperlink r:id="rId77" ref="E94"/>
-    <hyperlink r:id="rId78" ref="E95"/>
-    <hyperlink r:id="rId79" ref="E96"/>
-    <hyperlink r:id="rId80" ref="E97"/>
-    <hyperlink r:id="rId81" ref="E98"/>
-    <hyperlink r:id="rId82" ref="E103"/>
-    <hyperlink r:id="rId83" ref="E104"/>
-    <hyperlink r:id="rId84" ref="E105"/>
-    <hyperlink r:id="rId85" ref="E106"/>
-    <hyperlink r:id="rId86" ref="E107"/>
-    <hyperlink r:id="rId87" ref="E108"/>
-    <hyperlink r:id="rId88" ref="E109"/>
-    <hyperlink r:id="rId89" ref="E115"/>
-    <hyperlink r:id="rId90" ref="E116"/>
-    <hyperlink r:id="rId91" ref="E117"/>
-    <hyperlink r:id="rId92" ref="E118"/>
-    <hyperlink r:id="rId93" ref="E119"/>
-    <hyperlink r:id="rId94" ref="E121"/>
-    <hyperlink r:id="rId95" ref="E123"/>
-    <hyperlink r:id="rId96" ref="E128"/>
-    <hyperlink r:id="rId97" ref="E129"/>
-    <hyperlink r:id="rId98" ref="E130"/>
-    <hyperlink r:id="rId99" ref="E131"/>
-    <hyperlink r:id="rId100" ref="E132"/>
-    <hyperlink r:id="rId101" ref="E141"/>
-    <hyperlink r:id="rId102" ref="E142"/>
-    <hyperlink r:id="rId103" ref="E143"/>
-    <hyperlink r:id="rId104" ref="E144"/>
-    <hyperlink r:id="rId105" ref="E145"/>
-    <hyperlink r:id="rId106" ref="E149"/>
-    <hyperlink r:id="rId107" ref="E150"/>
-    <hyperlink r:id="rId108" ref="E151"/>
-    <hyperlink r:id="rId109" ref="E152"/>
-    <hyperlink r:id="rId110" ref="E153"/>
-    <hyperlink r:id="rId111" ref="E154"/>
-    <hyperlink r:id="rId112" ref="E155"/>
-    <hyperlink r:id="rId113" ref="E156"/>
-    <hyperlink r:id="rId114" ref="E157"/>
-    <hyperlink r:id="rId115" ref="E158"/>
-    <hyperlink r:id="rId116" ref="E159"/>
-    <hyperlink r:id="rId117" ref="E161"/>
-    <hyperlink r:id="rId118" ref="E164"/>
-    <hyperlink r:id="rId119" ref="E165"/>
-    <hyperlink r:id="rId120" ref="E166"/>
-    <hyperlink r:id="rId121" ref="E167"/>
-    <hyperlink r:id="rId122" ref="E168"/>
-    <hyperlink r:id="rId123" ref="E170"/>
-    <hyperlink r:id="rId124" ref="E171"/>
-    <hyperlink r:id="rId125" ref="E172"/>
-    <hyperlink r:id="rId126" ref="E173"/>
-    <hyperlink r:id="rId127" ref="E175"/>
-    <hyperlink r:id="rId128" ref="E176"/>
-    <hyperlink r:id="rId129" ref="E178"/>
-    <hyperlink r:id="rId130" ref="E179"/>
-    <hyperlink r:id="rId131" ref="E181"/>
-    <hyperlink r:id="rId132" ref="E182"/>
-    <hyperlink r:id="rId133" ref="E183"/>
-    <hyperlink r:id="rId134" ref="E184"/>
-    <hyperlink r:id="rId135" ref="E185"/>
-    <hyperlink r:id="rId136" ref="E186"/>
-    <hyperlink r:id="rId137" ref="E187"/>
-    <hyperlink r:id="rId138" ref="E188"/>
-    <hyperlink r:id="rId139" ref="E189"/>
-    <hyperlink r:id="rId140" ref="E190"/>
-    <hyperlink r:id="rId141" ref="E191"/>
-    <hyperlink r:id="rId142" ref="E192"/>
-    <hyperlink r:id="rId143" ref="E193"/>
-    <hyperlink r:id="rId144" ref="E194"/>
-    <hyperlink r:id="rId145" ref="E195"/>
-    <hyperlink r:id="rId146" ref="E196"/>
-    <hyperlink r:id="rId147" ref="E197"/>
-    <hyperlink r:id="rId148" ref="E198"/>
-    <hyperlink r:id="rId149" ref="E199"/>
-    <hyperlink r:id="rId150" ref="E200"/>
-    <hyperlink r:id="rId151" ref="E202"/>
+    <hyperlink r:id="rId57" ref="E67"/>
+    <hyperlink r:id="rId58" ref="E68"/>
+    <hyperlink r:id="rId59" ref="E69"/>
+    <hyperlink r:id="rId60" ref="E70"/>
+    <hyperlink r:id="rId61" ref="E71"/>
+    <hyperlink r:id="rId62" ref="E72"/>
+    <hyperlink r:id="rId63" ref="E73"/>
+    <hyperlink r:id="rId64" ref="E74"/>
+    <hyperlink r:id="rId65" ref="E75"/>
+    <hyperlink r:id="rId66" ref="E76"/>
+    <hyperlink r:id="rId67" ref="E77"/>
+    <hyperlink r:id="rId68" ref="E78"/>
+    <hyperlink r:id="rId69" ref="E79"/>
+    <hyperlink r:id="rId70" ref="E80"/>
+    <hyperlink r:id="rId71" ref="E81"/>
+    <hyperlink r:id="rId72" ref="E82"/>
+    <hyperlink r:id="rId73" ref="E84"/>
+    <hyperlink r:id="rId74" ref="E87"/>
+    <hyperlink r:id="rId75" ref="E88"/>
+    <hyperlink r:id="rId76" ref="E89"/>
+    <hyperlink r:id="rId77" ref="E90"/>
+    <hyperlink r:id="rId78" ref="E91"/>
+    <hyperlink r:id="rId79" ref="E93"/>
+    <hyperlink r:id="rId80" ref="E94"/>
+    <hyperlink r:id="rId81" ref="E95"/>
+    <hyperlink r:id="rId82" ref="E96"/>
+    <hyperlink r:id="rId83" ref="E97"/>
+    <hyperlink r:id="rId84" ref="E98"/>
+    <hyperlink r:id="rId85" ref="E103"/>
+    <hyperlink r:id="rId86" ref="E104"/>
+    <hyperlink r:id="rId87" ref="E105"/>
+    <hyperlink r:id="rId88" ref="E106"/>
+    <hyperlink r:id="rId89" ref="E107"/>
+    <hyperlink r:id="rId90" ref="E108"/>
+    <hyperlink r:id="rId91" ref="E109"/>
+    <hyperlink r:id="rId92" ref="E115"/>
+    <hyperlink r:id="rId93" ref="E116"/>
+    <hyperlink r:id="rId94" ref="E117"/>
+    <hyperlink r:id="rId95" ref="E118"/>
+    <hyperlink r:id="rId96" ref="E119"/>
+    <hyperlink r:id="rId97" ref="E121"/>
+    <hyperlink r:id="rId98" ref="E123"/>
+    <hyperlink r:id="rId99" ref="E128"/>
+    <hyperlink r:id="rId100" ref="E129"/>
+    <hyperlink r:id="rId101" ref="E130"/>
+    <hyperlink r:id="rId102" ref="E131"/>
+    <hyperlink r:id="rId103" ref="E132"/>
+    <hyperlink r:id="rId104" ref="E133"/>
+    <hyperlink r:id="rId105" ref="E141"/>
+    <hyperlink r:id="rId106" ref="E142"/>
+    <hyperlink r:id="rId107" ref="E143"/>
+    <hyperlink r:id="rId108" ref="E144"/>
+    <hyperlink r:id="rId109" ref="E145"/>
+    <hyperlink r:id="rId110" ref="E148"/>
+    <hyperlink r:id="rId111" ref="E149"/>
+    <hyperlink r:id="rId112" ref="E150"/>
+    <hyperlink r:id="rId113" ref="E151"/>
+    <hyperlink r:id="rId114" ref="E152"/>
+    <hyperlink r:id="rId115" ref="E153"/>
+    <hyperlink r:id="rId116" ref="E154"/>
+    <hyperlink r:id="rId117" ref="E155"/>
+    <hyperlink r:id="rId118" ref="E156"/>
+    <hyperlink r:id="rId119" ref="E157"/>
+    <hyperlink r:id="rId120" ref="E158"/>
+    <hyperlink r:id="rId121" ref="E159"/>
+    <hyperlink r:id="rId122" ref="E161"/>
+    <hyperlink r:id="rId123" ref="E164"/>
+    <hyperlink r:id="rId124" ref="E165"/>
+    <hyperlink r:id="rId125" ref="E166"/>
+    <hyperlink r:id="rId126" ref="E167"/>
+    <hyperlink r:id="rId127" ref="E168"/>
+    <hyperlink r:id="rId128" ref="E170"/>
+    <hyperlink r:id="rId129" ref="E171"/>
+    <hyperlink r:id="rId130" ref="E172"/>
+    <hyperlink r:id="rId131" ref="E173"/>
+    <hyperlink r:id="rId132" ref="E175"/>
+    <hyperlink r:id="rId133" ref="E176"/>
+    <hyperlink r:id="rId134" ref="E178"/>
+    <hyperlink r:id="rId135" ref="E179"/>
+    <hyperlink r:id="rId136" ref="E181"/>
+    <hyperlink r:id="rId137" ref="E182"/>
+    <hyperlink r:id="rId138" ref="E183"/>
+    <hyperlink r:id="rId139" ref="E184"/>
+    <hyperlink r:id="rId140" ref="E185"/>
+    <hyperlink r:id="rId141" ref="E186"/>
+    <hyperlink r:id="rId142" ref="E187"/>
+    <hyperlink r:id="rId143" ref="E188"/>
+    <hyperlink r:id="rId144" ref="E189"/>
+    <hyperlink r:id="rId145" ref="E190"/>
+    <hyperlink r:id="rId146" ref="E191"/>
+    <hyperlink r:id="rId147" ref="E192"/>
+    <hyperlink r:id="rId148" ref="E193"/>
+    <hyperlink r:id="rId149" ref="E194"/>
+    <hyperlink r:id="rId150" ref="E195"/>
+    <hyperlink r:id="rId151" ref="E196"/>
+    <hyperlink r:id="rId152" ref="E197"/>
+    <hyperlink r:id="rId153" ref="E198"/>
+    <hyperlink r:id="rId154" ref="E199"/>
+    <hyperlink r:id="rId155" ref="E200"/>
+    <hyperlink r:id="rId156" ref="E202"/>
+    <hyperlink r:id="rId157" ref="E203"/>
+    <hyperlink r:id="rId158" ref="E210"/>
   </hyperlinks>
-  <drawing r:id="rId152"/>
+  <drawing r:id="rId159"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="405">
   <si>
     <t>id</t>
   </si>
@@ -1202,6 +1202,30 @@
   </si>
   <si>
     <t>One Step From Eden</t>
+  </si>
+  <si>
+    <t>DON'T STARVE TOGETER: LAZUSYDIA COLLAB</t>
+  </si>
+  <si>
+    <t>WORMS ARMAGEDDON: NIJI EN COLLAB</t>
+  </si>
+  <si>
+    <t>XENOBLADE CHRONICLES: FUTURE CONNECTED</t>
+  </si>
+  <si>
+    <t>TWISTED WONDERLAND w/ PETRA</t>
+  </si>
+  <si>
+    <t>DARK SOULS 3: WORM REVENGE</t>
+  </si>
+  <si>
+    <t>AI SOMNIUM FILES: PART 2</t>
+  </si>
+  <si>
+    <t>LUCKY DRAGON HOST CLUB</t>
+  </si>
+  <si>
+    <t>MEMBERS HXH2011 WATCHALONG</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1240,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1241,10 +1265,6 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF1155CC"/>
     </font>
     <font>
@@ -1261,7 +1281,7 @@
       <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1272,12 +1292,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1303,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1331,27 +1345,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -1378,7 +1379,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -1387,7 +1388,7 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1615,9 +1616,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.29"/>
     <col customWidth="1" min="2" max="2" width="12.29"/>
-    <col customWidth="1" min="3" max="3" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="43.0"/>
     <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="21.43"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
     <col customWidth="1" min="6" max="6" width="9.14"/>
     <col customWidth="1" min="7" max="7" width="9.71"/>
     <col customWidth="1" min="8" max="8" width="11.29"/>
@@ -1669,7 +1670,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="1">
         <v>1.0</v>
       </c>
@@ -1704,7 +1705,7 @@
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
@@ -1739,7 +1740,7 @@
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
@@ -1774,7 +1775,7 @@
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
@@ -1809,7 +1810,7 @@
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="1">
         <v>5.0</v>
       </c>
@@ -1844,7 +1845,7 @@
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="1">
         <v>6.0</v>
       </c>
@@ -1879,7 +1880,7 @@
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="1">
         <v>7.0</v>
       </c>
@@ -1914,7 +1915,7 @@
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>8.0</v>
       </c>
@@ -1949,7 +1950,7 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="1">
         <v>9.0</v>
       </c>
@@ -1984,7 +1985,7 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="1">
         <v>10.0</v>
       </c>
@@ -2019,7 +2020,7 @@
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="1">
         <v>11.0</v>
       </c>
@@ -2054,7 +2055,7 @@
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="1">
         <v>12.0</v>
       </c>
@@ -2070,7 +2071,7 @@
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="1">
         <v>13.0</v>
       </c>
@@ -2086,7 +2087,7 @@
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="1">
         <v>14.0</v>
       </c>
@@ -2121,7 +2122,7 @@
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="1">
         <v>15.0</v>
       </c>
@@ -2156,7 +2157,7 @@
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="1">
         <v>16.0</v>
       </c>
@@ -2172,7 +2173,7 @@
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="1">
         <v>17.0</v>
       </c>
@@ -2207,7 +2208,7 @@
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="1">
         <v>18.0</v>
       </c>
@@ -2223,7 +2224,7 @@
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="1">
         <v>19.0</v>
       </c>
@@ -2258,7 +2259,7 @@
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="1">
         <v>20.0</v>
       </c>
@@ -2293,7 +2294,7 @@
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="1">
         <v>21.0</v>
       </c>
@@ -2328,7 +2329,7 @@
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="1">
         <v>22.0</v>
       </c>
@@ -2363,7 +2364,7 @@
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="1">
         <v>23.0</v>
       </c>
@@ -2379,7 +2380,7 @@
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="1">
         <v>24.0</v>
       </c>
@@ -2395,7 +2396,7 @@
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="1">
         <v>25.0</v>
       </c>
@@ -2430,7 +2431,7 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="1">
         <v>26.0</v>
       </c>
@@ -2465,7 +2466,7 @@
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="1">
         <v>27.0</v>
       </c>
@@ -2500,7 +2501,7 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="1">
         <v>28.0</v>
       </c>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="1">
         <v>29.0</v>
       </c>
@@ -2570,7 +2571,7 @@
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="1">
         <v>30.0</v>
       </c>
@@ -2605,7 +2606,7 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="1">
         <v>31.0</v>
       </c>
@@ -2640,7 +2641,7 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="1">
         <v>32.0</v>
       </c>
@@ -2675,7 +2676,7 @@
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="1">
         <v>33.0</v>
       </c>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="1">
         <v>34.0</v>
       </c>
@@ -2739,7 +2740,7 @@
       </c>
       <c r="N35" s="6"/>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="1">
         <v>35.0</v>
       </c>
@@ -2755,7 +2756,7 @@
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="1">
         <v>36.0</v>
       </c>
@@ -2790,7 +2791,7 @@
       </c>
       <c r="N37" s="6"/>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="1">
         <v>37.0</v>
       </c>
@@ -2825,7 +2826,7 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="1">
         <v>38.0</v>
       </c>
@@ -2860,113 +2861,95 @@
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40">
-      <c r="A40" s="9">
+    <row r="40" hidden="1">
+      <c r="A40" s="1">
         <v>39.0</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D40" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="1"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
       <c r="J40" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K40" s="11">
+      <c r="K40" s="5">
         <v>44619.291666666664</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="1">
         <f t="shared" si="5"/>
         <v>1645945200000</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N40" s="12"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="14">
+      <c r="M40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N40" s="6"/>
+    </row>
+    <row r="41" hidden="1">
+      <c r="A41" s="9">
         <v>53.0</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="14" t="s">
+      <c r="C41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="K41" s="18">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
         <v>44620.0</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="9">
         <f t="shared" si="5"/>
         <v>1646006400000</v>
       </c>
-      <c r="M41" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-      <c r="W41" s="16"/>
-      <c r="X41" s="16"/>
-      <c r="Y41" s="16"/>
-      <c r="Z41" s="16"/>
-      <c r="AA41" s="16"/>
-      <c r="AB41" s="16"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-    </row>
-    <row r="42">
+      <c r="M41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N41" s="14"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+    </row>
+    <row r="42" hidden="1">
       <c r="A42" s="1">
         <v>54.0</v>
       </c>
@@ -2999,7 +2982,7 @@
       </c>
       <c r="N42" s="6"/>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="1">
         <v>55.0</v>
       </c>
@@ -3032,7 +3015,7 @@
       </c>
       <c r="N43" s="6"/>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="1">
         <v>56.0</v>
       </c>
@@ -3065,7 +3048,7 @@
       </c>
       <c r="N44" s="6"/>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="1">
         <v>57.0</v>
       </c>
@@ -3098,7 +3081,7 @@
       </c>
       <c r="N45" s="6"/>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="1">
         <v>58.0</v>
       </c>
@@ -3129,7 +3112,7 @@
       </c>
       <c r="N46" s="6"/>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="1">
         <v>59.0</v>
       </c>
@@ -3160,7 +3143,7 @@
       </c>
       <c r="N47" s="6"/>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="1">
         <v>60.0</v>
       </c>
@@ -3193,7 +3176,7 @@
       </c>
       <c r="N48" s="6"/>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="1">
         <v>61.0</v>
       </c>
@@ -3226,7 +3209,7 @@
       </c>
       <c r="N49" s="6"/>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="1">
         <v>62.0</v>
       </c>
@@ -3259,7 +3242,7 @@
       </c>
       <c r="N50" s="6"/>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="1">
         <v>63.0</v>
       </c>
@@ -3292,7 +3275,7 @@
       </c>
       <c r="N51" s="6"/>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="1">
         <v>64.0</v>
       </c>
@@ -3325,7 +3308,7 @@
       </c>
       <c r="N52" s="6"/>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="1">
         <v>65.0</v>
       </c>
@@ -3356,7 +3339,7 @@
       </c>
       <c r="N53" s="6"/>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="1">
         <v>66.0</v>
       </c>
@@ -3387,7 +3370,7 @@
       </c>
       <c r="N54" s="6"/>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="1">
         <v>67.0</v>
       </c>
@@ -3420,7 +3403,7 @@
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="1">
         <v>68.0</v>
       </c>
@@ -3453,7 +3436,7 @@
       </c>
       <c r="N56" s="6"/>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="1">
         <v>69.0</v>
       </c>
@@ -3486,7 +3469,7 @@
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="1">
         <v>70.0</v>
       </c>
@@ -3519,7 +3502,7 @@
       </c>
       <c r="N58" s="6"/>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="1">
         <v>71.0</v>
       </c>
@@ -3541,7 +3524,7 @@
       <c r="J59" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K59" s="15">
         <v>44624.5</v>
       </c>
       <c r="L59" s="1">
@@ -3553,7 +3536,7 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="1">
         <v>72.0</v>
       </c>
@@ -3584,7 +3567,7 @@
       </c>
       <c r="N60" s="6"/>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="1">
         <v>73.0</v>
       </c>
@@ -3619,7 +3602,7 @@
       </c>
       <c r="N61" s="6"/>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="1">
         <v>82.0</v>
       </c>
@@ -3652,7 +3635,7 @@
       </c>
       <c r="N62" s="6"/>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="A63" s="1">
         <v>83.0</v>
       </c>
@@ -3685,7 +3668,7 @@
       </c>
       <c r="N63" s="6"/>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="1">
         <v>84.0</v>
       </c>
@@ -3718,7 +3701,7 @@
       </c>
       <c r="N64" s="6"/>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="1">
         <v>85.0</v>
       </c>
@@ -3752,7 +3735,7 @@
       </c>
       <c r="N65" s="6"/>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="1">
         <v>86.0</v>
       </c>
@@ -3771,7 +3754,7 @@
       <c r="J66" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K66" s="21">
+      <c r="K66" s="16">
         <v>44625.625</v>
       </c>
       <c r="L66" s="1">
@@ -3783,7 +3766,7 @@
       </c>
       <c r="N66" s="6"/>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="1">
         <v>87.0</v>
       </c>
@@ -3814,7 +3797,7 @@
       </c>
       <c r="N67" s="6"/>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="1">
         <v>88.0</v>
       </c>
@@ -3847,7 +3830,7 @@
       </c>
       <c r="N68" s="6"/>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="1">
         <v>89.0</v>
       </c>
@@ -3880,7 +3863,7 @@
       </c>
       <c r="N69" s="6"/>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="1">
         <v>90.0</v>
       </c>
@@ -3913,7 +3896,7 @@
       </c>
       <c r="N70" s="6"/>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="1">
         <v>91.0</v>
       </c>
@@ -3946,7 +3929,7 @@
       </c>
       <c r="N71" s="6"/>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="1">
         <v>92.0</v>
       </c>
@@ -3977,7 +3960,7 @@
       </c>
       <c r="N72" s="6"/>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="1">
         <v>93.0</v>
       </c>
@@ -4008,7 +3991,7 @@
       </c>
       <c r="N73" s="6"/>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="1">
         <v>94.0</v>
       </c>
@@ -4039,7 +4022,7 @@
       </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="1">
         <v>95.0</v>
       </c>
@@ -4060,7 +4043,7 @@
       <c r="J75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K75" s="22">
+      <c r="K75" s="17">
         <v>44620.875</v>
       </c>
       <c r="L75" s="1">
@@ -4072,7 +4055,7 @@
       </c>
       <c r="N75" s="6"/>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="1">
         <v>96.0</v>
       </c>
@@ -4093,7 +4076,7 @@
       <c r="J76" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K76" s="18">
         <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
@@ -4105,7 +4088,7 @@
       </c>
       <c r="N76" s="6"/>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="1">
         <v>97.0</v>
       </c>
@@ -4124,7 +4107,7 @@
       <c r="J77" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K77" s="23">
+      <c r="K77" s="18">
         <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
@@ -4136,7 +4119,7 @@
       </c>
       <c r="N77" s="6"/>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="1">
         <v>98.0</v>
       </c>
@@ -4155,7 +4138,7 @@
       <c r="J78" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K78" s="23">
+      <c r="K78" s="18">
         <v>44624.875</v>
       </c>
       <c r="L78" s="1">
@@ -4167,7 +4150,7 @@
       </c>
       <c r="N78" s="6"/>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="1">
         <v>99.0</v>
       </c>
@@ -4198,7 +4181,7 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="1">
         <v>100.0</v>
       </c>
@@ -4231,7 +4214,7 @@
       </c>
       <c r="N80" s="6"/>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="1">
         <v>101.0</v>
       </c>
@@ -4252,7 +4235,7 @@
       <c r="J81" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K81" s="24">
+      <c r="K81" s="19">
         <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
@@ -4264,7 +4247,7 @@
       </c>
       <c r="N81" s="6"/>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="A82" s="1">
         <v>102.0</v>
       </c>
@@ -4297,7 +4280,7 @@
       </c>
       <c r="N82" s="6"/>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="1">
         <v>103.0</v>
       </c>
@@ -4325,7 +4308,7 @@
       </c>
       <c r="N83" s="6"/>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="1">
         <v>104.0</v>
       </c>
@@ -4358,7 +4341,7 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="1">
         <v>105.0</v>
       </c>
@@ -4389,7 +4372,7 @@
       </c>
       <c r="N85" s="6"/>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="1">
         <v>106.0</v>
       </c>
@@ -4420,7 +4403,7 @@
       </c>
       <c r="N86" s="6"/>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="1">
         <v>107.0</v>
       </c>
@@ -4451,7 +4434,7 @@
       </c>
       <c r="N87" s="6"/>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="1">
         <v>108.0</v>
       </c>
@@ -4472,7 +4455,7 @@
       <c r="J88" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K88" s="22">
+      <c r="K88" s="17">
         <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
@@ -4484,7 +4467,7 @@
       </c>
       <c r="N88" s="6"/>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="1">
         <v>109.0</v>
       </c>
@@ -4505,7 +4488,7 @@
       <c r="J89" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K89" s="22">
+      <c r="K89" s="17">
         <v>44622.0</v>
       </c>
       <c r="L89" s="1">
@@ -4517,7 +4500,7 @@
       </c>
       <c r="N89" s="6"/>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="1">
         <v>110.0</v>
       </c>
@@ -4538,7 +4521,7 @@
       <c r="J90" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K90" s="22">
+      <c r="K90" s="17">
         <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
@@ -4550,7 +4533,7 @@
       </c>
       <c r="N90" s="6"/>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="1">
         <v>111.0</v>
       </c>
@@ -4569,7 +4552,7 @@
       <c r="J91" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K91" s="22">
+      <c r="K91" s="17">
         <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
@@ -4581,7 +4564,7 @@
       </c>
       <c r="N91" s="6"/>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="1">
         <v>112.0</v>
       </c>
@@ -4601,7 +4584,7 @@
       <c r="J92" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K92" s="22">
+      <c r="K92" s="17">
         <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
@@ -4613,7 +4596,7 @@
       </c>
       <c r="N92" s="6"/>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="1">
         <v>113.0</v>
       </c>
@@ -4634,7 +4617,7 @@
       <c r="J93" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K93" s="22">
+      <c r="K93" s="17">
         <v>44620.875</v>
       </c>
       <c r="L93" s="1">
@@ -4646,7 +4629,7 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94">
+    <row r="94" hidden="1">
       <c r="A94" s="1">
         <v>114.0</v>
       </c>
@@ -4667,7 +4650,7 @@
       <c r="J94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K94" s="22">
+      <c r="K94" s="17">
         <v>44621.875</v>
       </c>
       <c r="L94" s="1">
@@ -4679,7 +4662,7 @@
       </c>
       <c r="N94" s="6"/>
     </row>
-    <row r="95">
+    <row r="95" hidden="1">
       <c r="A95" s="1">
         <v>115.0</v>
       </c>
@@ -4700,7 +4683,7 @@
       <c r="J95" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K95" s="22">
+      <c r="K95" s="17">
         <v>44622.875</v>
       </c>
       <c r="L95" s="1">
@@ -4712,7 +4695,7 @@
       </c>
       <c r="N95" s="6"/>
     </row>
-    <row r="96">
+    <row r="96" hidden="1">
       <c r="A96" s="1">
         <v>116.0</v>
       </c>
@@ -4731,7 +4714,7 @@
       <c r="J96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K96" s="22">
+      <c r="K96" s="17">
         <v>44623.875</v>
       </c>
       <c r="L96" s="1">
@@ -4743,7 +4726,7 @@
       </c>
       <c r="N96" s="6"/>
     </row>
-    <row r="97">
+    <row r="97" hidden="1">
       <c r="A97" s="1">
         <v>117.0</v>
       </c>
@@ -4762,7 +4745,7 @@
       <c r="J97" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K97" s="25">
+      <c r="K97" s="20">
         <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
@@ -4774,7 +4757,7 @@
       </c>
       <c r="N97" s="6"/>
     </row>
-    <row r="98">
+    <row r="98" hidden="1">
       <c r="A98" s="1">
         <v>118.0</v>
       </c>
@@ -4793,7 +4776,7 @@
       <c r="J98" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K98" s="22">
+      <c r="K98" s="17">
         <v>44625.875</v>
       </c>
       <c r="L98" s="1">
@@ -4805,7 +4788,7 @@
       </c>
       <c r="N98" s="6"/>
     </row>
-    <row r="99">
+    <row r="99" hidden="1">
       <c r="A99" s="1">
         <v>119.0</v>
       </c>
@@ -4820,7 +4803,7 @@
       </c>
       <c r="N99" s="6"/>
     </row>
-    <row r="100">
+    <row r="100" hidden="1">
       <c r="A100" s="1">
         <v>120.0</v>
       </c>
@@ -4835,7 +4818,7 @@
       </c>
       <c r="N100" s="6"/>
     </row>
-    <row r="101">
+    <row r="101" hidden="1">
       <c r="A101" s="1">
         <v>121.0</v>
       </c>
@@ -4850,7 +4833,7 @@
       </c>
       <c r="N101" s="6"/>
     </row>
-    <row r="102">
+    <row r="102" hidden="1">
       <c r="A102" s="1">
         <v>122.0</v>
       </c>
@@ -4865,7 +4848,7 @@
       </c>
       <c r="N102" s="6"/>
     </row>
-    <row r="103">
+    <row r="103" hidden="1">
       <c r="A103" s="1">
         <v>123.0</v>
       </c>
@@ -4886,7 +4869,7 @@
       <c r="J103" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K103" s="22">
+      <c r="K103" s="17">
         <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
@@ -4898,7 +4881,7 @@
       </c>
       <c r="N103" s="6"/>
     </row>
-    <row r="104">
+    <row r="104" hidden="1">
       <c r="A104" s="1">
         <v>124.0</v>
       </c>
@@ -4919,7 +4902,7 @@
       <c r="J104" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K104" s="22">
+      <c r="K104" s="17">
         <v>44621.875</v>
       </c>
       <c r="L104" s="1">
@@ -4931,7 +4914,7 @@
       </c>
       <c r="N104" s="6"/>
     </row>
-    <row r="105">
+    <row r="105" hidden="1">
       <c r="A105" s="1">
         <v>125.0</v>
       </c>
@@ -4952,7 +4935,7 @@
       <c r="J105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K105" s="22">
+      <c r="K105" s="17">
         <v>44622.125</v>
       </c>
       <c r="L105" s="1">
@@ -4964,7 +4947,7 @@
       </c>
       <c r="N105" s="6"/>
     </row>
-    <row r="106">
+    <row r="106" hidden="1">
       <c r="A106" s="1">
         <v>126.0</v>
       </c>
@@ -4985,7 +4968,7 @@
       <c r="J106" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K106" s="22">
+      <c r="K106" s="17">
         <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
@@ -4997,7 +4980,7 @@
       </c>
       <c r="N106" s="6"/>
     </row>
-    <row r="107">
+    <row r="107" hidden="1">
       <c r="A107" s="1">
         <v>127.0</v>
       </c>
@@ -5019,7 +5002,7 @@
       <c r="J107" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K107" s="22">
+      <c r="K107" s="17">
         <v>44624.875</v>
       </c>
       <c r="L107" s="1">
@@ -5031,7 +5014,7 @@
       </c>
       <c r="N107" s="6"/>
     </row>
-    <row r="108">
+    <row r="108" hidden="1">
       <c r="A108" s="1">
         <v>128.0</v>
       </c>
@@ -5050,7 +5033,7 @@
       <c r="J108" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K108" s="22">
+      <c r="K108" s="17">
         <v>44625.125</v>
       </c>
       <c r="L108" s="1">
@@ -5062,7 +5045,7 @@
       </c>
       <c r="N108" s="6"/>
     </row>
-    <row r="109">
+    <row r="109" hidden="1">
       <c r="A109" s="1">
         <v>129.0</v>
       </c>
@@ -5081,7 +5064,7 @@
       <c r="J109" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K109" s="22">
+      <c r="K109" s="17">
         <v>44626.0</v>
       </c>
       <c r="L109" s="1">
@@ -5093,7 +5076,7 @@
       </c>
       <c r="N109" s="6"/>
     </row>
-    <row r="110">
+    <row r="110" hidden="1">
       <c r="A110" s="1">
         <v>130.0</v>
       </c>
@@ -5108,7 +5091,7 @@
       </c>
       <c r="N110" s="6"/>
     </row>
-    <row r="111">
+    <row r="111" hidden="1">
       <c r="A111" s="1">
         <v>131.0</v>
       </c>
@@ -5123,7 +5106,7 @@
       </c>
       <c r="N111" s="6"/>
     </row>
-    <row r="112">
+    <row r="112" hidden="1">
       <c r="A112" s="1">
         <v>132.0</v>
       </c>
@@ -5138,11 +5121,11 @@
       </c>
       <c r="N112" s="6"/>
     </row>
-    <row r="113">
+    <row r="113" hidden="1">
       <c r="A113" s="1">
         <v>133.0</v>
       </c>
-      <c r="B113" s="26" t="s">
+      <c r="B113" s="21" t="s">
         <v>214</v>
       </c>
       <c r="D113" s="1" t="b">
@@ -5153,7 +5136,7 @@
       </c>
       <c r="N113" s="6"/>
     </row>
-    <row r="114">
+    <row r="114" hidden="1">
       <c r="A114" s="1">
         <v>134.0</v>
       </c>
@@ -5168,7 +5151,7 @@
       </c>
       <c r="N114" s="6"/>
     </row>
-    <row r="115">
+    <row r="115" hidden="1">
       <c r="A115" s="1">
         <v>135.0</v>
       </c>
@@ -5189,7 +5172,7 @@
       <c r="J115" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K115" s="22">
+      <c r="K115" s="17">
         <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
@@ -5201,7 +5184,7 @@
       </c>
       <c r="N115" s="6"/>
     </row>
-    <row r="116">
+    <row r="116" hidden="1">
       <c r="A116" s="1">
         <v>136.0</v>
       </c>
@@ -5222,7 +5205,7 @@
       <c r="J116" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K116" s="22">
+      <c r="K116" s="17">
         <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
@@ -5234,7 +5217,7 @@
       </c>
       <c r="N116" s="6"/>
     </row>
-    <row r="117">
+    <row r="117" hidden="1">
       <c r="A117" s="1">
         <v>137.0</v>
       </c>
@@ -5255,7 +5238,7 @@
       <c r="J117" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K117" s="22">
+      <c r="K117" s="17">
         <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
@@ -5267,7 +5250,7 @@
       </c>
       <c r="N117" s="6"/>
     </row>
-    <row r="118">
+    <row r="118" hidden="1">
       <c r="A118" s="1">
         <v>138.0</v>
       </c>
@@ -5288,7 +5271,7 @@
       <c r="J118" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K118" s="22">
+      <c r="K118" s="17">
         <v>44622.083333333336</v>
       </c>
       <c r="L118" s="1">
@@ -5300,7 +5283,7 @@
       </c>
       <c r="N118" s="6"/>
     </row>
-    <row r="119">
+    <row r="119" hidden="1">
       <c r="A119" s="1">
         <v>139.0</v>
       </c>
@@ -5321,7 +5304,7 @@
       <c r="J119" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K119" s="25">
+      <c r="K119" s="20">
         <v>44622.833333333336</v>
       </c>
       <c r="L119" s="1">
@@ -5333,7 +5316,7 @@
       </c>
       <c r="N119" s="6"/>
     </row>
-    <row r="120">
+    <row r="120" hidden="1">
       <c r="A120" s="1">
         <v>140.0</v>
       </c>
@@ -5349,7 +5332,7 @@
       <c r="J120" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K120" s="22">
+      <c r="K120" s="17">
         <v>44623.833333333336</v>
       </c>
       <c r="L120" s="1">
@@ -5361,7 +5344,7 @@
       </c>
       <c r="N120" s="6"/>
     </row>
-    <row r="121">
+    <row r="121" hidden="1">
       <c r="A121" s="1">
         <v>141.0</v>
       </c>
@@ -5380,7 +5363,7 @@
       <c r="J121" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K121" s="22">
+      <c r="K121" s="17">
         <v>44625.083333333336</v>
       </c>
       <c r="L121" s="1">
@@ -5392,7 +5375,7 @@
       </c>
       <c r="N121" s="6"/>
     </row>
-    <row r="122">
+    <row r="122" hidden="1">
       <c r="A122" s="1">
         <v>142.0</v>
       </c>
@@ -5411,7 +5394,7 @@
       <c r="J122" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K122" s="22">
+      <c r="K122" s="17">
         <v>44625.416666666664</v>
       </c>
       <c r="L122" s="1">
@@ -5423,7 +5406,7 @@
       </c>
       <c r="N122" s="6"/>
     </row>
-    <row r="123">
+    <row r="123" hidden="1">
       <c r="A123" s="1">
         <v>143.0</v>
       </c>
@@ -5442,7 +5425,7 @@
       <c r="J123" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K123" s="22">
+      <c r="K123" s="17">
         <v>44626.0</v>
       </c>
       <c r="L123" s="1">
@@ -5454,7 +5437,7 @@
       </c>
       <c r="N123" s="6"/>
     </row>
-    <row r="124">
+    <row r="124" hidden="1">
       <c r="A124" s="1">
         <v>144.0</v>
       </c>
@@ -5469,7 +5452,7 @@
       </c>
       <c r="N124" s="6"/>
     </row>
-    <row r="125">
+    <row r="125" hidden="1">
       <c r="A125" s="1">
         <v>145.0</v>
       </c>
@@ -5484,7 +5467,7 @@
       </c>
       <c r="N125" s="6"/>
     </row>
-    <row r="126">
+    <row r="126" hidden="1">
       <c r="A126" s="1">
         <v>146.0</v>
       </c>
@@ -5499,7 +5482,7 @@
       </c>
       <c r="N126" s="6"/>
     </row>
-    <row r="127">
+    <row r="127" hidden="1">
       <c r="A127" s="1">
         <v>147.0</v>
       </c>
@@ -5515,7 +5498,7 @@
       <c r="J127" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K127" s="20">
+      <c r="K127" s="15">
         <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
@@ -5527,7 +5510,7 @@
       </c>
       <c r="N127" s="6"/>
     </row>
-    <row r="128">
+    <row r="128" hidden="1">
       <c r="A128" s="1">
         <v>148.0</v>
       </c>
@@ -5548,7 +5531,7 @@
       <c r="J128" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K128" s="22">
+      <c r="K128" s="17">
         <v>44622.625</v>
       </c>
       <c r="L128" s="1">
@@ -5560,7 +5543,7 @@
       </c>
       <c r="N128" s="6"/>
     </row>
-    <row r="129">
+    <row r="129" hidden="1">
       <c r="A129" s="1">
         <v>149.0</v>
       </c>
@@ -5581,7 +5564,7 @@
       <c r="J129" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K129" s="22">
+      <c r="K129" s="17">
         <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
@@ -5593,7 +5576,7 @@
       </c>
       <c r="N129" s="6"/>
     </row>
-    <row r="130">
+    <row r="130" hidden="1">
       <c r="A130" s="1">
         <v>150.0</v>
       </c>
@@ -5612,7 +5595,7 @@
       <c r="J130" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K130" s="22">
+      <c r="K130" s="17">
         <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
@@ -5624,7 +5607,7 @@
       </c>
       <c r="N130" s="6"/>
     </row>
-    <row r="131">
+    <row r="131" hidden="1">
       <c r="A131" s="1">
         <v>151.0</v>
       </c>
@@ -5643,7 +5626,7 @@
       <c r="J131" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K131" s="22">
+      <c r="K131" s="17">
         <v>44625.125</v>
       </c>
       <c r="L131" s="1">
@@ -5655,7 +5638,7 @@
       </c>
       <c r="N131" s="6"/>
     </row>
-    <row r="132">
+    <row r="132" hidden="1">
       <c r="A132" s="1">
         <v>152.0</v>
       </c>
@@ -5674,7 +5657,7 @@
       <c r="J132" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K132" s="22">
+      <c r="K132" s="17">
         <v>44625.71875</v>
       </c>
       <c r="L132" s="1">
@@ -5686,7 +5669,7 @@
       </c>
       <c r="N132" s="6"/>
     </row>
-    <row r="133">
+    <row r="133" hidden="1">
       <c r="A133" s="1">
         <v>153.0</v>
       </c>
@@ -5705,7 +5688,7 @@
       <c r="J133" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K133" s="22">
+      <c r="K133" s="17">
         <v>44626.5</v>
       </c>
       <c r="L133" s="1">
@@ -5717,7 +5700,7 @@
       </c>
       <c r="N133" s="6"/>
     </row>
-    <row r="134">
+    <row r="134" hidden="1">
       <c r="A134" s="1">
         <v>154.0</v>
       </c>
@@ -5732,7 +5715,7 @@
       </c>
       <c r="N134" s="6"/>
     </row>
-    <row r="135">
+    <row r="135" hidden="1">
       <c r="A135" s="1">
         <v>155.0</v>
       </c>
@@ -5747,7 +5730,7 @@
       </c>
       <c r="N135" s="6"/>
     </row>
-    <row r="136">
+    <row r="136" hidden="1">
       <c r="A136" s="1">
         <v>156.0</v>
       </c>
@@ -5762,7 +5745,7 @@
       </c>
       <c r="N136" s="6"/>
     </row>
-    <row r="137">
+    <row r="137" hidden="1">
       <c r="A137" s="1">
         <v>157.0</v>
       </c>
@@ -5777,7 +5760,7 @@
       </c>
       <c r="N137" s="6"/>
     </row>
-    <row r="138">
+    <row r="138" hidden="1">
       <c r="A138" s="1">
         <v>158.0</v>
       </c>
@@ -5792,7 +5775,7 @@
       </c>
       <c r="N138" s="6"/>
     </row>
-    <row r="139">
+    <row r="139" hidden="1">
       <c r="A139" s="1">
         <v>159.0</v>
       </c>
@@ -5807,7 +5790,7 @@
       </c>
       <c r="N139" s="6"/>
     </row>
-    <row r="140">
+    <row r="140" hidden="1">
       <c r="A140" s="1">
         <v>160.0</v>
       </c>
@@ -5822,7 +5805,7 @@
       </c>
       <c r="N140" s="6"/>
     </row>
-    <row r="141">
+    <row r="141" hidden="1">
       <c r="A141" s="1">
         <v>161.0</v>
       </c>
@@ -5843,7 +5826,7 @@
       <c r="J141" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K141" s="20">
+      <c r="K141" s="15">
         <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
@@ -5855,7 +5838,7 @@
       </c>
       <c r="N141" s="6"/>
     </row>
-    <row r="142">
+    <row r="142" hidden="1">
       <c r="A142" s="1">
         <v>162.0</v>
       </c>
@@ -5876,7 +5859,7 @@
       <c r="J142" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K142" s="20">
+      <c r="K142" s="15">
         <v>44622.166666666664</v>
       </c>
       <c r="L142" s="1">
@@ -5888,7 +5871,7 @@
       </c>
       <c r="N142" s="6"/>
     </row>
-    <row r="143">
+    <row r="143" hidden="1">
       <c r="A143" s="1">
         <v>163.0</v>
       </c>
@@ -5909,7 +5892,7 @@
       <c r="J143" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K143" s="20">
+      <c r="K143" s="15">
         <v>44623.166666666664</v>
       </c>
       <c r="L143" s="1">
@@ -5921,7 +5904,7 @@
       </c>
       <c r="N143" s="6"/>
     </row>
-    <row r="144">
+    <row r="144" hidden="1">
       <c r="A144" s="1">
         <v>164.0</v>
       </c>
@@ -5940,7 +5923,7 @@
       <c r="J144" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K144" s="20">
+      <c r="K144" s="15">
         <v>44624.125</v>
       </c>
       <c r="L144" s="1">
@@ -5952,7 +5935,7 @@
       </c>
       <c r="N144" s="6"/>
     </row>
-    <row r="145">
+    <row r="145" hidden="1">
       <c r="A145" s="1">
         <v>165.0</v>
       </c>
@@ -5971,7 +5954,7 @@
       <c r="J145" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K145" s="20">
+      <c r="K145" s="15">
         <v>44625.125</v>
       </c>
       <c r="L145" s="1">
@@ -5983,7 +5966,7 @@
       </c>
       <c r="N145" s="6"/>
     </row>
-    <row r="146">
+    <row r="146" hidden="1">
       <c r="A146" s="1">
         <v>166.0</v>
       </c>
@@ -6002,7 +5985,7 @@
       <c r="J146" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K146" s="20">
+      <c r="K146" s="15">
         <v>44625.458333333336</v>
       </c>
       <c r="L146" s="1">
@@ -6014,7 +5997,7 @@
       </c>
       <c r="N146" s="6"/>
     </row>
-    <row r="147">
+    <row r="147" hidden="1">
       <c r="A147" s="1">
         <v>167.0</v>
       </c>
@@ -6030,7 +6013,7 @@
       <c r="J147" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K147" s="20">
+      <c r="K147" s="15">
         <v>44626.125</v>
       </c>
       <c r="L147" s="1">
@@ -6042,7 +6025,7 @@
       </c>
       <c r="N147" s="6"/>
     </row>
-    <row r="148">
+    <row r="148" hidden="1">
       <c r="A148" s="1">
         <v>168.0</v>
       </c>
@@ -6061,7 +6044,7 @@
       <c r="J148" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K148" s="20">
+      <c r="K148" s="15">
         <v>44626.5</v>
       </c>
       <c r="L148" s="1">
@@ -6073,7 +6056,7 @@
       </c>
       <c r="N148" s="6"/>
     </row>
-    <row r="149">
+    <row r="149" hidden="1">
       <c r="A149" s="1">
         <v>169.0</v>
       </c>
@@ -6094,7 +6077,7 @@
       <c r="J149" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K149" s="20">
+      <c r="K149" s="15">
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
@@ -6106,7 +6089,7 @@
       </c>
       <c r="N149" s="6"/>
     </row>
-    <row r="150">
+    <row r="150" hidden="1">
       <c r="A150" s="1">
         <v>170.0</v>
       </c>
@@ -6127,7 +6110,7 @@
       <c r="J150" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K150" s="20">
+      <c r="K150" s="15">
         <v>44622.166666666664</v>
       </c>
       <c r="L150" s="1">
@@ -6139,7 +6122,7 @@
       </c>
       <c r="N150" s="6"/>
     </row>
-    <row r="151">
+    <row r="151" hidden="1">
       <c r="A151" s="1">
         <v>171.0</v>
       </c>
@@ -6160,7 +6143,7 @@
       <c r="J151" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K151" s="20">
+      <c r="K151" s="15">
         <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
@@ -6172,7 +6155,7 @@
       </c>
       <c r="N151" s="6"/>
     </row>
-    <row r="152">
+    <row r="152" hidden="1">
       <c r="A152" s="1">
         <v>172.0</v>
       </c>
@@ -6191,7 +6174,7 @@
       <c r="J152" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K152" s="20">
+      <c r="K152" s="15">
         <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
@@ -6203,7 +6186,7 @@
       </c>
       <c r="N152" s="6"/>
     </row>
-    <row r="153">
+    <row r="153" hidden="1">
       <c r="A153" s="1">
         <v>173.0</v>
       </c>
@@ -6222,7 +6205,7 @@
       <c r="J153" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K153" s="20">
+      <c r="K153" s="15">
         <v>44624.5</v>
       </c>
       <c r="L153" s="1">
@@ -6234,7 +6217,7 @@
       </c>
       <c r="N153" s="6"/>
     </row>
-    <row r="154">
+    <row r="154" hidden="1">
       <c r="A154" s="1">
         <v>174.0</v>
       </c>
@@ -6253,7 +6236,7 @@
       <c r="J154" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K154" s="20">
+      <c r="K154" s="15">
         <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
@@ -6265,7 +6248,7 @@
       </c>
       <c r="N154" s="6"/>
     </row>
-    <row r="155">
+    <row r="155" hidden="1">
       <c r="A155" s="1">
         <v>175.0</v>
       </c>
@@ -6287,7 +6270,7 @@
       <c r="J155" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K155" s="20">
+      <c r="K155" s="15">
         <v>44626.25</v>
       </c>
       <c r="L155" s="1">
@@ -6299,7 +6282,7 @@
       </c>
       <c r="N155" s="6"/>
     </row>
-    <row r="156">
+    <row r="156" hidden="1">
       <c r="A156" s="1">
         <v>176.0</v>
       </c>
@@ -6320,7 +6303,7 @@
       <c r="J156" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K156" s="20">
+      <c r="K156" s="15">
         <v>44621.5</v>
       </c>
       <c r="L156" s="1">
@@ -6332,7 +6315,7 @@
       </c>
       <c r="N156" s="6"/>
     </row>
-    <row r="157">
+    <row r="157" hidden="1">
       <c r="A157" s="1">
         <v>177.0</v>
       </c>
@@ -6353,7 +6336,7 @@
       <c r="J157" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K157" s="20">
+      <c r="K157" s="15">
         <v>44622.5</v>
       </c>
       <c r="L157" s="1">
@@ -6365,7 +6348,7 @@
       </c>
       <c r="N157" s="6"/>
     </row>
-    <row r="158">
+    <row r="158" hidden="1">
       <c r="A158" s="1">
         <v>178.0</v>
       </c>
@@ -6386,7 +6369,7 @@
       <c r="J158" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K158" s="20">
+      <c r="K158" s="15">
         <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
@@ -6398,7 +6381,7 @@
       </c>
       <c r="N158" s="6"/>
     </row>
-    <row r="159">
+    <row r="159" hidden="1">
       <c r="A159" s="1">
         <v>179.0</v>
       </c>
@@ -6417,7 +6400,7 @@
       <c r="J159" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K159" s="27">
+      <c r="K159" s="22">
         <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
@@ -6429,7 +6412,7 @@
       </c>
       <c r="N159" s="6"/>
     </row>
-    <row r="160">
+    <row r="160" hidden="1">
       <c r="A160" s="1">
         <v>180.0</v>
       </c>
@@ -6463,7 +6446,7 @@
       </c>
       <c r="N160" s="6"/>
     </row>
-    <row r="161">
+    <row r="161" hidden="1">
       <c r="A161" s="1">
         <v>181.0</v>
       </c>
@@ -6482,7 +6465,7 @@
       <c r="J161" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K161" s="20">
+      <c r="K161" s="15">
         <v>44626.5</v>
       </c>
       <c r="L161" s="1">
@@ -6494,7 +6477,7 @@
       </c>
       <c r="N161" s="6"/>
     </row>
-    <row r="162">
+    <row r="162" hidden="1">
       <c r="A162" s="1">
         <v>182.0</v>
       </c>
@@ -6509,7 +6492,7 @@
       </c>
       <c r="N162" s="6"/>
     </row>
-    <row r="163">
+    <row r="163" hidden="1">
       <c r="A163" s="1">
         <v>183.0</v>
       </c>
@@ -6524,7 +6507,7 @@
       </c>
       <c r="N163" s="6"/>
     </row>
-    <row r="164">
+    <row r="164" hidden="1">
       <c r="A164" s="1">
         <v>184.0</v>
       </c>
@@ -6545,7 +6528,7 @@
       <c r="J164" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K164" s="20">
+      <c r="K164" s="15">
         <v>44622.75</v>
       </c>
       <c r="L164" s="1">
@@ -6557,7 +6540,7 @@
       </c>
       <c r="N164" s="6"/>
     </row>
-    <row r="165">
+    <row r="165" hidden="1">
       <c r="A165" s="1">
         <v>185.0</v>
       </c>
@@ -6576,7 +6559,7 @@
       <c r="J165" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K165" s="20">
+      <c r="K165" s="15">
         <v>44623.75</v>
       </c>
       <c r="L165" s="1">
@@ -6588,7 +6571,7 @@
       </c>
       <c r="N165" s="6"/>
     </row>
-    <row r="166">
+    <row r="166" hidden="1">
       <c r="A166" s="1">
         <v>186.0</v>
       </c>
@@ -6607,7 +6590,7 @@
       <c r="J166" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K166" s="27">
+      <c r="K166" s="22">
         <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
@@ -6619,7 +6602,7 @@
       </c>
       <c r="N166" s="6"/>
     </row>
-    <row r="167">
+    <row r="167" hidden="1">
       <c r="A167" s="1">
         <v>187.0</v>
       </c>
@@ -6638,7 +6621,7 @@
       <c r="J167" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K167" s="20">
+      <c r="K167" s="15">
         <v>44625.125</v>
       </c>
       <c r="L167" s="1">
@@ -6650,7 +6633,7 @@
       </c>
       <c r="N167" s="6"/>
     </row>
-    <row r="168">
+    <row r="168" hidden="1">
       <c r="A168" s="1">
         <v>188.0</v>
       </c>
@@ -6683,7 +6666,7 @@
       </c>
       <c r="N168" s="6"/>
     </row>
-    <row r="169">
+    <row r="169" hidden="1">
       <c r="A169" s="1">
         <v>189.0</v>
       </c>
@@ -6698,7 +6681,7 @@
       </c>
       <c r="N169" s="6"/>
     </row>
-    <row r="170">
+    <row r="170" hidden="1">
       <c r="A170" s="1">
         <v>190.0</v>
       </c>
@@ -6731,7 +6714,7 @@
       </c>
       <c r="N170" s="6"/>
     </row>
-    <row r="171">
+    <row r="171" hidden="1">
       <c r="A171" s="1">
         <v>191.0</v>
       </c>
@@ -6752,7 +6735,7 @@
       <c r="J171" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K171" s="27">
+      <c r="K171" s="22">
         <v>44623.666666666664</v>
       </c>
       <c r="L171" s="1">
@@ -6764,7 +6747,7 @@
       </c>
       <c r="N171" s="6"/>
     </row>
-    <row r="172">
+    <row r="172" hidden="1">
       <c r="A172" s="1">
         <v>192.0</v>
       </c>
@@ -6783,7 +6766,7 @@
       <c r="J172" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K172" s="20">
+      <c r="K172" s="15">
         <v>44625.666666666664</v>
       </c>
       <c r="L172" s="1">
@@ -6795,7 +6778,7 @@
       </c>
       <c r="N172" s="6"/>
     </row>
-    <row r="173">
+    <row r="173" hidden="1">
       <c r="A173" s="1">
         <v>193.0</v>
       </c>
@@ -6816,7 +6799,7 @@
       <c r="J173" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K173" s="20">
+      <c r="K173" s="15">
         <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
@@ -6828,7 +6811,7 @@
       </c>
       <c r="N173" s="6"/>
     </row>
-    <row r="174">
+    <row r="174" hidden="1">
       <c r="A174" s="1">
         <v>194.0</v>
       </c>
@@ -6844,7 +6827,7 @@
       <c r="J174" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K174" s="20">
+      <c r="K174" s="15">
         <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
@@ -6856,7 +6839,7 @@
       </c>
       <c r="N174" s="6"/>
     </row>
-    <row r="175">
+    <row r="175" hidden="1">
       <c r="A175" s="1">
         <v>195.0</v>
       </c>
@@ -6889,7 +6872,7 @@
       </c>
       <c r="N175" s="6"/>
     </row>
-    <row r="176">
+    <row r="176" hidden="1">
       <c r="A176" s="1">
         <v>196.0</v>
       </c>
@@ -6922,7 +6905,7 @@
       </c>
       <c r="N176" s="6"/>
     </row>
-    <row r="177">
+    <row r="177" hidden="1">
       <c r="A177" s="1">
         <v>197.0</v>
       </c>
@@ -6941,7 +6924,7 @@
       <c r="J177" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K177" s="24">
+      <c r="K177" s="19">
         <v>44621.916666666664</v>
       </c>
       <c r="L177" s="1">
@@ -6953,7 +6936,7 @@
       </c>
       <c r="N177" s="6"/>
     </row>
-    <row r="178">
+    <row r="178" hidden="1">
       <c r="A178" s="1">
         <v>198.0</v>
       </c>
@@ -6977,7 +6960,7 @@
       <c r="J178" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K178" s="24">
+      <c r="K178" s="19">
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
@@ -6989,7 +6972,7 @@
       </c>
       <c r="N178" s="6"/>
     </row>
-    <row r="179">
+    <row r="179" hidden="1">
       <c r="A179" s="1">
         <v>199.0</v>
       </c>
@@ -7024,7 +7007,7 @@
       </c>
       <c r="N179" s="6"/>
     </row>
-    <row r="180">
+    <row r="180" hidden="1">
       <c r="A180" s="1">
         <v>200.0</v>
       </c>
@@ -7055,7 +7038,7 @@
       </c>
       <c r="N180" s="6"/>
     </row>
-    <row r="181">
+    <row r="181" hidden="1">
       <c r="A181" s="1">
         <v>201.0</v>
       </c>
@@ -7089,7 +7072,7 @@
       </c>
       <c r="N181" s="6"/>
     </row>
-    <row r="182">
+    <row r="182" hidden="1">
       <c r="A182" s="1">
         <v>202.0</v>
       </c>
@@ -7125,7 +7108,7 @@
       </c>
       <c r="N182" s="6"/>
     </row>
-    <row r="183">
+    <row r="183" hidden="1">
       <c r="A183" s="1">
         <v>203.0</v>
       </c>
@@ -7156,7 +7139,7 @@
       </c>
       <c r="N183" s="6"/>
     </row>
-    <row r="184">
+    <row r="184" hidden="1">
       <c r="A184" s="1">
         <v>204.0</v>
       </c>
@@ -7177,7 +7160,7 @@
       <c r="J184" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="K184" s="24">
+      <c r="K184" s="19">
         <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
@@ -7189,7 +7172,7 @@
       </c>
       <c r="N184" s="6"/>
     </row>
-    <row r="185">
+    <row r="185" hidden="1">
       <c r="A185" s="1">
         <v>205.0</v>
       </c>
@@ -7222,7 +7205,7 @@
       </c>
       <c r="N185" s="6"/>
     </row>
-    <row r="186">
+    <row r="186" hidden="1">
       <c r="A186" s="1">
         <v>206.0</v>
       </c>
@@ -7255,7 +7238,7 @@
       </c>
       <c r="N186" s="6"/>
     </row>
-    <row r="187">
+    <row r="187" hidden="1">
       <c r="A187" s="1">
         <v>207.0</v>
       </c>
@@ -7288,7 +7271,7 @@
       </c>
       <c r="N187" s="6"/>
     </row>
-    <row r="188">
+    <row r="188" hidden="1">
       <c r="A188" s="1">
         <v>208.0</v>
       </c>
@@ -7319,7 +7302,7 @@
       </c>
       <c r="N188" s="6"/>
     </row>
-    <row r="189">
+    <row r="189" hidden="1">
       <c r="A189" s="1">
         <v>209.0</v>
       </c>
@@ -7350,7 +7333,7 @@
       </c>
       <c r="N189" s="6"/>
     </row>
-    <row r="190">
+    <row r="190" hidden="1">
       <c r="A190" s="1">
         <v>210.0</v>
       </c>
@@ -7383,7 +7366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" hidden="1">
       <c r="A191" s="1">
         <v>211.0</v>
       </c>
@@ -7416,7 +7399,7 @@
       </c>
       <c r="N191" s="6"/>
     </row>
-    <row r="192">
+    <row r="192" hidden="1">
       <c r="A192" s="1">
         <v>212.0</v>
       </c>
@@ -7449,7 +7432,7 @@
       </c>
       <c r="N192" s="6"/>
     </row>
-    <row r="193">
+    <row r="193" hidden="1">
       <c r="A193" s="1">
         <v>213.0</v>
       </c>
@@ -7482,7 +7465,7 @@
       </c>
       <c r="N193" s="6"/>
     </row>
-    <row r="194">
+    <row r="194" hidden="1">
       <c r="A194" s="1">
         <v>214.0</v>
       </c>
@@ -7515,7 +7498,7 @@
       </c>
       <c r="N194" s="6"/>
     </row>
-    <row r="195">
+    <row r="195" hidden="1">
       <c r="A195" s="1">
         <v>215.0</v>
       </c>
@@ -7546,7 +7529,7 @@
       </c>
       <c r="N195" s="6"/>
     </row>
-    <row r="196">
+    <row r="196" hidden="1">
       <c r="A196" s="1">
         <v>216.0</v>
       </c>
@@ -7577,7 +7560,7 @@
       </c>
       <c r="N196" s="6"/>
     </row>
-    <row r="197">
+    <row r="197" hidden="1">
       <c r="A197" s="1">
         <v>217.0</v>
       </c>
@@ -7608,7 +7591,7 @@
       </c>
       <c r="N197" s="6"/>
     </row>
-    <row r="198">
+    <row r="198" hidden="1">
       <c r="A198" s="1">
         <v>218.0</v>
       </c>
@@ -7639,7 +7622,7 @@
       </c>
       <c r="N198" s="6"/>
     </row>
-    <row r="199">
+    <row r="199" hidden="1">
       <c r="A199" s="1">
         <v>219.0</v>
       </c>
@@ -7672,7 +7655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" hidden="1">
       <c r="A200" s="1">
         <v>220.0</v>
       </c>
@@ -7705,7 +7688,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" hidden="1">
       <c r="A201" s="1">
         <v>221.0</v>
       </c>
@@ -7722,60 +7705,60 @@
         <v>59.0</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="28">
+    <row r="202" hidden="1">
+      <c r="A202" s="23">
         <v>222.0</v>
       </c>
-      <c r="B202" s="28" t="s">
+      <c r="B202" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C202" s="28" t="s">
+      <c r="C202" s="23" t="s">
         <v>354</v>
       </c>
-      <c r="D202" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="E202" s="29" t="s">
+      <c r="D202" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E202" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="F202" s="30"/>
-      <c r="G202" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H202" s="30"/>
-      <c r="I202" s="30"/>
-      <c r="J202" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="K202" s="31">
+      <c r="F202" s="25"/>
+      <c r="G202" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H202" s="25"/>
+      <c r="I202" s="25"/>
+      <c r="J202" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="K202" s="26">
         <v>44626.604166666664</v>
       </c>
-      <c r="L202" s="28">
-        <f t="shared" ref="L202:L249" si="12">(K202-Date(1970,1,1))*86400*1000</f>
+      <c r="L202" s="23">
+        <f t="shared" ref="L202:L207" si="12">(K202-Date(1970,1,1))*86400*1000</f>
         <v>1646577000000</v>
       </c>
-      <c r="M202" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="N202" s="30"/>
-      <c r="O202" s="30"/>
-      <c r="P202" s="30"/>
-      <c r="Q202" s="30"/>
-      <c r="R202" s="30"/>
-      <c r="S202" s="30"/>
-      <c r="T202" s="30"/>
-      <c r="U202" s="30"/>
-      <c r="V202" s="30"/>
-      <c r="W202" s="30"/>
-      <c r="X202" s="30"/>
-      <c r="Y202" s="30"/>
-      <c r="Z202" s="30"/>
-      <c r="AA202" s="30"/>
-      <c r="AB202" s="30"/>
-      <c r="AC202" s="30"/>
-      <c r="AD202" s="30"/>
-      <c r="AE202" s="30"/>
-      <c r="AF202" s="30"/>
+      <c r="M202" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="N202" s="25"/>
+      <c r="O202" s="25"/>
+      <c r="P202" s="25"/>
+      <c r="Q202" s="25"/>
+      <c r="R202" s="25"/>
+      <c r="S202" s="25"/>
+      <c r="T202" s="25"/>
+      <c r="U202" s="25"/>
+      <c r="V202" s="25"/>
+      <c r="W202" s="25"/>
+      <c r="X202" s="25"/>
+      <c r="Y202" s="25"/>
+      <c r="Z202" s="25"/>
+      <c r="AA202" s="25"/>
+      <c r="AB202" s="25"/>
+      <c r="AC202" s="25"/>
+      <c r="AD202" s="25"/>
+      <c r="AE202" s="25"/>
+      <c r="AF202" s="25"/>
     </row>
     <row r="203">
       <c r="A203" s="1">
@@ -7907,78 +7890,55 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1">
-        <v>228.0</v>
-      </c>
+      <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D208" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K208" s="5">
-        <v>44632.083333333336</v>
-      </c>
-      <c r="L208" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000</v>
-      </c>
-      <c r="M208" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="5"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1">
+        <v>226.0</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1">
-        <v>229.0</v>
-      </c>
+      <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D209" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K209" s="5">
-        <v>44632.625</v>
-      </c>
-      <c r="L209" s="1">
-        <f t="shared" si="12"/>
-        <v>1647097200000</v>
-      </c>
-      <c r="M209" s="1" t="s">
-        <v>16</v>
+        <v>196</v>
+      </c>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1">
+        <v>227.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1">
-        <v>230.0</v>
+        <v>228.0</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E210" s="7" t="s">
-        <v>364</v>
+      <c r="J210" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="K210" s="5">
-        <v>44627.0</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" si="12"/>
-        <v>1646611200000</v>
+        <f t="shared" ref="L210:L223" si="13">(K210-Date(1970,1,1))*86400*1000</f>
+        <v>1647050400000</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>16</v>
@@ -7986,23 +7946,23 @@
     </row>
     <row r="211">
       <c r="A211" s="1">
-        <v>231.0</v>
+        <v>229.0</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K211" s="5">
-        <v>44628.0</v>
+        <v>44632.625</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="12"/>
-        <v>1646697600000</v>
+        <f t="shared" si="13"/>
+        <v>1647097200000</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>16</v>
@@ -8010,7 +7970,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1">
-        <v>232.0</v>
+        <v>230.0</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>304</v>
@@ -8021,12 +7981,15 @@
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E212" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="K212" s="5">
-        <v>44629.0</v>
+        <v>44627.0</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="12"/>
-        <v>1646784000000</v>
+        <f t="shared" si="13"/>
+        <v>1646611200000</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>16</v>
@@ -8034,23 +7997,23 @@
     </row>
     <row r="213">
       <c r="A213" s="1">
-        <v>233.0</v>
+        <v>231.0</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K213" s="5">
-        <v>44630.041666666664</v>
+        <v>44628.0</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="12"/>
-        <v>1646874000000</v>
+        <f t="shared" si="13"/>
+        <v>1646697600000</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>16</v>
@@ -8058,26 +8021,23 @@
     </row>
     <row r="214">
       <c r="A214" s="1">
-        <v>234.0</v>
+        <v>232.0</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J214" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K214" s="5">
-        <v>44631.041666666664</v>
+        <v>44629.0</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="12"/>
-        <v>1646960400000</v>
+        <f t="shared" si="13"/>
+        <v>1646784000000</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>16</v>
@@ -8085,26 +8045,23 @@
     </row>
     <row r="215">
       <c r="A215" s="1">
-        <v>235.0</v>
+        <v>233.0</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G215" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K215" s="5">
-        <v>44633.0</v>
+        <v>44630.041666666664</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="12"/>
-        <v>1647129600000</v>
+        <f t="shared" si="13"/>
+        <v>1646874000000</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>16</v>
@@ -8112,29 +8069,26 @@
     </row>
     <row r="216">
       <c r="A216" s="1">
-        <v>236.0</v>
+        <v>234.0</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G216" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J216" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K216" s="5">
-        <v>44632.083333333336</v>
+        <v>44631.041666666664</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000</v>
+        <f t="shared" si="13"/>
+        <v>1646960400000</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>16</v>
@@ -8142,23 +8096,26 @@
     </row>
     <row r="217">
       <c r="A217" s="1">
-        <v>237.0</v>
+        <v>235.0</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G217" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K217" s="5">
-        <v>44627.125</v>
+        <v>44633.0</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="12"/>
-        <v>1646622000000</v>
+        <f t="shared" si="13"/>
+        <v>1647129600000</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>16</v>
@@ -8166,23 +8123,29 @@
     </row>
     <row r="218">
       <c r="A218" s="1">
-        <v>238.0</v>
+        <v>236.0</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="G218" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J218" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K218" s="5">
-        <v>44628.041666666664</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="12"/>
-        <v>1646701200000</v>
+        <f t="shared" si="13"/>
+        <v>1647050400000</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>16</v>
@@ -8190,23 +8153,23 @@
     </row>
     <row r="219">
       <c r="A219" s="1">
-        <v>239.0</v>
+        <v>237.0</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>84</v>
+        <v>370</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K219" s="5">
-        <v>44629.125</v>
+        <v>44627.125</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="12"/>
-        <v>1646794800000</v>
+        <f t="shared" si="13"/>
+        <v>1646622000000</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>16</v>
@@ -8214,23 +8177,23 @@
     </row>
     <row r="220">
       <c r="A220" s="1">
-        <v>240.0</v>
+        <v>238.0</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D220" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K220" s="5">
-        <v>44630.041666666664</v>
+        <v>44628.041666666664</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="12"/>
-        <v>1646874000000</v>
+        <f t="shared" si="13"/>
+        <v>1646701200000</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>16</v>
@@ -8238,26 +8201,23 @@
     </row>
     <row r="221">
       <c r="A221" s="1">
-        <v>241.0</v>
+        <v>239.0</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>371</v>
+        <v>84</v>
       </c>
       <c r="D221" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J221" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K221" s="5">
-        <v>44630.875</v>
+        <v>44629.125</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="12"/>
-        <v>1646946000000</v>
+        <f t="shared" si="13"/>
+        <v>1646794800000</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>16</v>
@@ -8265,26 +8225,23 @@
     </row>
     <row r="222">
       <c r="A222" s="1">
-        <v>242.0</v>
+        <v>240.0</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>372</v>
+        <v>86</v>
       </c>
       <c r="D222" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J222" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K222" s="5">
-        <v>44631.041666666664</v>
+        <v>44630.041666666664</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="12"/>
-        <v>1646960400000</v>
+        <f t="shared" si="13"/>
+        <v>1646874000000</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>16</v>
@@ -8292,13 +8249,13 @@
     </row>
     <row r="223">
       <c r="A223" s="1">
-        <v>243.0</v>
+        <v>241.0</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8307,62 +8264,55 @@
         <v>1</v>
       </c>
       <c r="K223" s="5">
-        <v>44632.083333333336</v>
+        <v>44630.875</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000</v>
+        <f t="shared" si="13"/>
+        <v>1646946000000</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1">
-        <v>244.0</v>
-      </c>
+      <c r="A224" s="1"/>
       <c r="B224" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D224" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J224" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K224" s="5">
-        <v>44627.083333333336</v>
-      </c>
-      <c r="L224" s="1">
-        <f t="shared" si="12"/>
-        <v>1646618400000</v>
-      </c>
-      <c r="M224" s="1" t="s">
-        <v>16</v>
+        <v>158</v>
+      </c>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="5"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1">
+        <v>241.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>245.0</v>
+        <v>242.0</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>184</v>
+        <v>372</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F225" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K225" s="5">
-        <v>44627.875</v>
+        <v>44631.041666666664</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="12"/>
-        <v>1646686800000</v>
+        <f t="shared" ref="L225:L230" si="14">(K225-Date(1970,1,1))*86400*1000</f>
+        <v>1646960400000</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>16</v>
@@ -8370,23 +8320,26 @@
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>246.0</v>
+        <v>243.0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J226" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K226" s="5">
-        <v>44628.958333333336</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="12"/>
-        <v>1646780400000</v>
+        <f t="shared" si="14"/>
+        <v>1647050400000</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>16</v>
@@ -8394,13 +8347,13 @@
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>247.0</v>
+        <v>244.0</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D227" s="1" t="b">
         <v>1</v>
@@ -8409,11 +8362,11 @@
         <v>1</v>
       </c>
       <c r="K227" s="5">
-        <v>44630.958333333336</v>
+        <v>44627.083333333336</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="12"/>
-        <v>1646953200000</v>
+        <f t="shared" si="14"/>
+        <v>1646618400000</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>16</v>
@@ -8421,23 +8374,23 @@
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>248.0</v>
+        <v>245.0</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>377</v>
+        <v>184</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K228" s="5">
-        <v>44631.875</v>
+        <v>44627.875</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="12"/>
-        <v>1647032400000</v>
+        <f t="shared" si="14"/>
+        <v>1646686800000</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>16</v>
@@ -8445,23 +8398,23 @@
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>249.0</v>
+        <v>246.0</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K229" s="5">
-        <v>44632.958333333336</v>
+        <v>44628.958333333336</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="12"/>
-        <v>1647126000000</v>
+        <f t="shared" si="14"/>
+        <v>1646780400000</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>16</v>
@@ -8469,98 +8422,79 @@
     </row>
     <row r="230">
       <c r="A230" s="1">
-        <v>250.0</v>
+        <v>247.0</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D230" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F230" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K230" s="5">
-        <v>44627.5</v>
+        <v>44630.958333333336</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="12"/>
-        <v>1646654400000</v>
+        <f t="shared" si="14"/>
+        <v>1646953200000</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1">
-        <v>251.0</v>
-      </c>
+      <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D231" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K231" s="5">
-        <v>44628.5</v>
-      </c>
-      <c r="L231" s="1">
-        <f t="shared" si="12"/>
-        <v>1646740800000</v>
-      </c>
-      <c r="M231" s="1" t="s">
-        <v>16</v>
+        <v>250</v>
+      </c>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="K231" s="5"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="1">
+        <v>247.0</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1">
-        <v>252.0</v>
-      </c>
+      <c r="A232" s="1"/>
       <c r="B232" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D232" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K232" s="8">
-        <v>44629.5</v>
-      </c>
-      <c r="L232" s="1">
-        <f t="shared" si="12"/>
-        <v>1646827200000</v>
-      </c>
-      <c r="M232" s="1" t="s">
-        <v>16</v>
+        <v>216</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="K232" s="5"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="1">
+        <v>247.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>253.0</v>
+        <v>248.0</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J233" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K233" s="5">
-        <v>44630.375</v>
+        <v>44631.875</v>
       </c>
       <c r="L233" s="1">
-        <f t="shared" si="12"/>
-        <v>1646902800000</v>
+        <f t="shared" ref="L233:L262" si="15">(K233-Date(1970,1,1))*86400*1000</f>
+        <v>1647032400000</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>16</v>
@@ -8568,23 +8502,23 @@
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>254.0</v>
+        <v>249.0</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>334</v>
+        <v>183</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K234" s="5">
-        <v>44631.5</v>
+        <v>44632.958333333336</v>
       </c>
       <c r="L234" s="1">
-        <f t="shared" si="12"/>
-        <v>1647000000000</v>
+        <f t="shared" si="15"/>
+        <v>1647126000000</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>16</v>
@@ -8592,26 +8526,23 @@
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>255.0</v>
+        <v>250.0</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J235" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K235" s="5">
-        <v>44632.083333333336</v>
+        <v>44627.5</v>
       </c>
       <c r="L235" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000</v>
+        <f t="shared" si="15"/>
+        <v>1646654400000</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>16</v>
@@ -8619,23 +8550,23 @@
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>256.0</v>
+        <v>251.0</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K236" s="5">
-        <v>44633.083333333336</v>
+        <v>44628.5</v>
       </c>
       <c r="L236" s="1">
-        <f t="shared" si="12"/>
-        <v>1647136800000</v>
+        <f t="shared" si="15"/>
+        <v>1646740800000</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>16</v>
@@ -8643,23 +8574,23 @@
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>257.0</v>
+        <v>252.0</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K237" s="5">
-        <v>44627.375</v>
+      <c r="K237" s="8">
+        <v>44629.5</v>
       </c>
       <c r="L237" s="1">
-        <f t="shared" si="12"/>
-        <v>1646643600000</v>
+        <f t="shared" si="15"/>
+        <v>1646827200000</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>16</v>
@@ -8667,23 +8598,26 @@
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>258.0</v>
+        <v>253.0</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>97</v>
+        <v>382</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J238" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K238" s="5">
-        <v>44628.375</v>
+        <v>44630.375</v>
       </c>
       <c r="L238" s="1">
-        <f t="shared" si="12"/>
-        <v>1646730000000</v>
+        <f t="shared" si="15"/>
+        <v>1646902800000</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>16</v>
@@ -8691,23 +8625,23 @@
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>259.0</v>
+        <v>254.0</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K239" s="8">
-        <v>44629.25</v>
+      <c r="K239" s="5">
+        <v>44631.5</v>
       </c>
       <c r="L239" s="1">
-        <f t="shared" si="12"/>
-        <v>1646805600000</v>
+        <f t="shared" si="15"/>
+        <v>1647000000000</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>16</v>
@@ -8715,13 +8649,13 @@
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>260.0</v>
+        <v>255.0</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>1</v>
@@ -8730,11 +8664,11 @@
         <v>1</v>
       </c>
       <c r="K240" s="5">
-        <v>44630.375</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L240" s="1">
-        <f t="shared" si="12"/>
-        <v>1646902800000</v>
+        <f t="shared" si="15"/>
+        <v>1647050400000</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>16</v>
@@ -8742,26 +8676,23 @@
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>261.0</v>
+        <v>256.0</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J241" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K241" s="5">
-        <v>44630.875</v>
+        <v>44633.083333333336</v>
       </c>
       <c r="L241" s="1">
-        <f t="shared" si="12"/>
-        <v>1646946000000</v>
+        <f t="shared" si="15"/>
+        <v>1647136800000</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>16</v>
@@ -8769,26 +8700,23 @@
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>262.0</v>
+        <v>257.0</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D242" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J242" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K242" s="5">
-        <v>44632.083333333336</v>
+        <v>44627.375</v>
       </c>
       <c r="L242" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000</v>
+        <f t="shared" si="15"/>
+        <v>1646643600000</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>16</v>
@@ -8796,23 +8724,23 @@
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>263.0</v>
+        <v>258.0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K243" s="5">
-        <v>44633.166666666664</v>
+        <v>44628.375</v>
       </c>
       <c r="L243" s="1">
-        <f t="shared" si="12"/>
-        <v>1647144000000</v>
+        <f t="shared" si="15"/>
+        <v>1646730000000</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>16</v>
@@ -8820,23 +8748,23 @@
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>264.0</v>
+        <v>259.0</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K244" s="5">
-        <v>44627.791666666664</v>
+      <c r="K244" s="8">
+        <v>44629.25</v>
       </c>
       <c r="L244" s="1">
-        <f t="shared" si="12"/>
-        <v>1646679600000</v>
+        <f t="shared" si="15"/>
+        <v>1646805600000</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>16</v>
@@ -8844,23 +8772,26 @@
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>265.0</v>
+        <v>260.0</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J245" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K245" s="5">
-        <v>44628.041666666664</v>
+        <v>44630.375</v>
       </c>
       <c r="L245" s="1">
-        <f t="shared" si="12"/>
-        <v>1646701200000</v>
+        <f t="shared" si="15"/>
+        <v>1646902800000</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>16</v>
@@ -8868,23 +8799,26 @@
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>266.0</v>
+        <v>261.0</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K246" s="8">
-        <v>44629.791666666664</v>
+      <c r="J246" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K246" s="5">
+        <v>44630.875</v>
       </c>
       <c r="L246" s="1">
-        <f t="shared" si="12"/>
-        <v>1646852400000</v>
+        <f t="shared" si="15"/>
+        <v>1646946000000</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>16</v>
@@ -8892,23 +8826,26 @@
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>267.0</v>
+        <v>262.0</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J247" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K247" s="5">
-        <v>44630.791666666664</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L247" s="1">
-        <f t="shared" si="12"/>
-        <v>1646938800000</v>
+        <f t="shared" si="15"/>
+        <v>1647050400000</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>16</v>
@@ -8916,23 +8853,23 @@
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>268.0</v>
+        <v>263.0</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K248" s="5">
-        <v>44631.791666666664</v>
+        <v>44633.166666666664</v>
       </c>
       <c r="L248" s="1">
-        <f t="shared" si="12"/>
-        <v>1647025200000</v>
+        <f t="shared" si="15"/>
+        <v>1647144000000</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>16</v>
@@ -8940,23 +8877,23 @@
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>269.0</v>
+        <v>264.0</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K249" s="5">
-        <v>44632.791666666664</v>
+        <v>44627.791666666664</v>
       </c>
       <c r="L249" s="1">
-        <f t="shared" si="12"/>
-        <v>1647111600000</v>
+        <f t="shared" si="15"/>
+        <v>1646679600000</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>16</v>
@@ -8964,32 +8901,323 @@
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>270.0</v>
+        <v>265.0</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D250" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K250" s="5">
+        <v>44629.041666666664</v>
+      </c>
+      <c r="L250" s="1">
+        <f t="shared" si="15"/>
+        <v>1646787600000</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>271.0</v>
+        <v>266.0</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D251" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K251" s="8">
+        <v>44629.791666666664</v>
+      </c>
+      <c r="L251" s="1">
+        <f t="shared" si="15"/>
+        <v>1646852400000</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>272.0</v>
+        <v>267.0</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D252" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K252" s="5">
+        <v>44630.791666666664</v>
+      </c>
+      <c r="L252" s="1">
+        <f t="shared" si="15"/>
+        <v>1646938800000</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>273.0</v>
+        <v>268.0</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D253" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" s="5">
+        <v>44631.791666666664</v>
+      </c>
+      <c r="L253" s="1">
+        <f t="shared" si="15"/>
+        <v>1647025200000</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>274.0</v>
+        <v>269.0</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D254" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K254" s="5">
+        <v>44632.791666666664</v>
+      </c>
+      <c r="L254" s="1">
+        <f t="shared" si="15"/>
+        <v>1647111600000</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1">
+        <v>270.0</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D255" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J255" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K255" s="5">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="L255" s="1">
+        <f t="shared" si="15"/>
+        <v>1646618400000</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>271.0</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D256" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J256" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K256" s="5">
+        <v>44629.0</v>
+      </c>
+      <c r="L256" s="1">
+        <f t="shared" si="15"/>
+        <v>1646784000000</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>272.0</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D257" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K257" s="5">
+        <v>44629.875</v>
+      </c>
+      <c r="L257" s="1">
+        <f t="shared" si="15"/>
+        <v>1646859600000</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>273.0</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D258" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J258" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K258" s="5">
+        <v>44630.125</v>
+      </c>
+      <c r="L258" s="1">
+        <f t="shared" si="15"/>
+        <v>1646881200000</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>274.0</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D259" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K259" s="5">
+        <v>44631.0</v>
+      </c>
+      <c r="L259" s="1">
+        <f t="shared" si="15"/>
+        <v>1646956800000</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
         <v>275.0</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D260" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K260" s="5">
+        <v>44631.833333333336</v>
+      </c>
+      <c r="L260" s="1">
+        <f t="shared" si="15"/>
+        <v>1647028800000</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>276.0</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D261" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K261" s="5">
+        <v>44632.729166666664</v>
+      </c>
+      <c r="L261" s="1">
+        <f t="shared" si="15"/>
+        <v>1647106200000</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>277.0</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D262" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K262" s="5">
+        <v>44633.0</v>
+      </c>
+      <c r="L262" s="1">
+        <f t="shared" si="15"/>
+        <v>1647129600000</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -9151,7 +9379,7 @@
     <hyperlink r:id="rId155" ref="E200"/>
     <hyperlink r:id="rId156" ref="E202"/>
     <hyperlink r:id="rId157" ref="E203"/>
-    <hyperlink r:id="rId158" ref="E210"/>
+    <hyperlink r:id="rId158" ref="E212"/>
   </hyperlinks>
   <drawing r:id="rId159"/>
 </worksheet>

--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="435">
   <si>
     <t>id</t>
   </si>
@@ -1096,6 +1096,9 @@
     <t>Apex Legends w/ Selen/ Alban</t>
   </si>
   <si>
+    <t>VoxX</t>
+  </si>
+  <si>
     <t>Valorant w/ Noctyx</t>
   </si>
   <si>
@@ -1111,6 +1114,9 @@
     <t>100K ZATSU CELEBRATION! 1ST WEEK RECAP</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=mVKT0TR_2Ss</t>
+  </si>
+  <si>
     <t>THE CONVENIENCE STORE</t>
   </si>
   <si>
@@ -1126,6 +1132,12 @@
     <t>ZATSUDAN (catch up on superchats)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=sxBMnFqqKtM&amp;t=173s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8pyuWjc3Wrg</t>
+  </si>
+  <si>
     <t>APEX Legends with Sonny &amp; Reimu</t>
   </si>
   <si>
@@ -1138,6 +1150,9 @@
     <t>DON'T STARVE TOGETHER W/ LAZULIGHT &amp; OBSYDIA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=uyKWfb554tI</t>
+  </si>
+  <si>
     <t>YU-GI-OH! MASTER DEUL(TRAINING ARC)</t>
   </si>
   <si>
@@ -1171,6 +1186,9 @@
     <t>ZATSUDAN/FREETALK</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=72OquP2uJgQ</t>
+  </si>
+  <si>
     <t>GOOSE GAME</t>
   </si>
   <si>
@@ -1189,6 +1207,9 @@
     <t>Bastion</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=2J_9_7p2Qfc</t>
+  </si>
+  <si>
     <t>Worms:NIJI EN</t>
   </si>
   <si>
@@ -1207,6 +1228,9 @@
     <t>DON'T STARVE TOGETER: LAZUSYDIA COLLAB</t>
   </si>
   <si>
+    <t>https://t.co/ZknhxyH1Gj</t>
+  </si>
+  <si>
     <t>WORMS ARMAGEDDON: NIJI EN COLLAB</t>
   </si>
   <si>
@@ -1226,6 +1250,72 @@
   </si>
   <si>
     <t>MEMBERS HXH2011 WATCHALONG</t>
+  </si>
+  <si>
+    <t>400K AFTER PARTY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S9Zvwd8OMC4</t>
+  </si>
+  <si>
+    <t>STUDY WITH VOX ASMR</t>
+  </si>
+  <si>
+    <t>SMASH VS FULGUR</t>
+  </si>
+  <si>
+    <t>APEX w/ MYSTA &amp; RPR</t>
+  </si>
+  <si>
+    <t>SIMS 4 - THE FATED PARTY</t>
+  </si>
+  <si>
+    <t>FNAF 10/20 ATTEMPTS</t>
+  </si>
+  <si>
+    <t>DOULINGO</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eTzP5_A1l7w&amp;t=9s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5NjV6vdWlws</t>
+  </si>
+  <si>
+    <t>POKEMON LEGENDS ARCEUS</t>
+  </si>
+  <si>
+    <t>WORMS ARMAFEDDON COLLAB</t>
+  </si>
+  <si>
+    <t>APEX LEGENDS w/ Sonny Uki</t>
+  </si>
+  <si>
+    <t>PATH OF EXILE</t>
+  </si>
+  <si>
+    <t>UNI w/ Vox Ike Shoto</t>
+  </si>
+  <si>
+    <t>KARAOKE</t>
+  </si>
+  <si>
+    <t>MEMBERS ONLY Watchalong: The lighthouse</t>
+  </si>
+  <si>
+    <t>DON'T STARVE TOGETHER: LAZUSYDIA COLLAB</t>
+  </si>
+  <si>
+    <t>FAIRYOKE?!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FKxcJf8jUEw</t>
+  </si>
+  <si>
+    <t>YU-GI-OH! MASTER DUEL</t>
+  </si>
+  <si>
+    <t>ZATSUDAN DEFORE BREAK</t>
   </si>
 </sst>
 </file>
@@ -1615,14 +1705,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.29"/>
-    <col customWidth="1" min="2" max="2" width="12.29"/>
+    <col customWidth="1" min="2" max="2" width="10.0"/>
     <col customWidth="1" min="3" max="3" width="43.0"/>
     <col customWidth="1" min="4" max="4" width="10.71"/>
     <col customWidth="1" min="5" max="5" width="8.0"/>
     <col customWidth="1" min="6" max="6" width="9.14"/>
     <col customWidth="1" min="7" max="7" width="9.71"/>
     <col customWidth="1" min="8" max="8" width="11.29"/>
-    <col customWidth="1" min="9" max="9" width="11.14"/>
+    <col customWidth="1" min="9" max="9" width="8.86"/>
     <col customWidth="1" min="10" max="10" width="7.86"/>
     <col customWidth="1" min="11" max="11" width="20.71"/>
     <col customWidth="1" min="12" max="12" width="14.71"/>
@@ -7892,7 +7982,7 @@
     <row r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7925,7 +8015,7 @@
         <v>319</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>1</v>
@@ -7937,7 +8027,7 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" ref="L210:L223" si="13">(K210-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L210:L229" si="13">(K210-Date(1970,1,1))*86400*1000</f>
         <v>1647050400000</v>
       </c>
       <c r="M210" s="1" t="s">
@@ -7952,7 +8042,7 @@
         <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
@@ -7976,13 +8066,13 @@
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K212" s="5">
         <v>44627.0</v>
@@ -8003,10 +8093,13 @@
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>367</v>
       </c>
       <c r="K213" s="5">
         <v>44628.0</v>
@@ -8027,7 +8120,7 @@
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
@@ -8051,7 +8144,7 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
@@ -8075,7 +8168,7 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
@@ -8102,7 +8195,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8129,7 +8222,7 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8159,10 +8252,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8188,6 +8284,9 @@
       <c r="D220" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E220" s="7" t="s">
+        <v>374</v>
+      </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
       </c>
@@ -8255,7 +8354,7 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8275,44 +8374,57 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>242.0</v>
+      </c>
       <c r="B224" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="J224" s="1"/>
-      <c r="K224" s="5"/>
-      <c r="L224" s="1"/>
-      <c r="M224" s="1">
-        <v>241.0</v>
+        <v>79</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J224" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" s="5">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="L224" s="1">
+        <f t="shared" si="13"/>
+        <v>1646960400000</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1">
-        <v>242.0</v>
+        <v>243.0</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F225" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J225" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K225" s="5">
-        <v>44631.041666666664</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" ref="L225:L230" si="14">(K225-Date(1970,1,1))*86400*1000</f>
-        <v>1646960400000</v>
+        <f t="shared" si="13"/>
+        <v>1647050400000</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>16</v>
@@ -8320,26 +8432,29 @@
     </row>
     <row r="226">
       <c r="A226" s="1">
-        <v>243.0</v>
+        <v>244.0</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E226" s="7" t="s">
+        <v>379</v>
+      </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K226" s="5">
-        <v>44632.083333333336</v>
+        <v>44627.083333333336</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="14"/>
-        <v>1647050400000</v>
+        <f t="shared" si="13"/>
+        <v>1646618400000</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>16</v>
@@ -8347,26 +8462,23 @@
     </row>
     <row r="227">
       <c r="A227" s="1">
-        <v>244.0</v>
+        <v>245.0</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>374</v>
+        <v>184</v>
       </c>
       <c r="D227" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J227" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K227" s="5">
-        <v>44627.083333333336</v>
+        <v>44627.875</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="14"/>
-        <v>1646618400000</v>
+        <f t="shared" si="13"/>
+        <v>1646686800000</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>16</v>
@@ -8374,23 +8486,23 @@
     </row>
     <row r="228">
       <c r="A228" s="1">
-        <v>245.0</v>
+        <v>246.0</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>184</v>
+        <v>380</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K228" s="5">
-        <v>44627.875</v>
+        <v>44628.958333333336</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="14"/>
-        <v>1646686800000</v>
+        <f t="shared" si="13"/>
+        <v>1646780400000</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>16</v>
@@ -8398,62 +8510,51 @@
     </row>
     <row r="229">
       <c r="A229" s="1">
-        <v>246.0</v>
+        <v>247.0</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F229" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K229" s="5">
-        <v>44628.958333333336</v>
+        <v>44630.958333333336</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="14"/>
-        <v>1646780400000</v>
+        <f t="shared" si="13"/>
+        <v>1646953200000</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1">
         <v>247.0</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D230" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F230" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K230" s="5">
-        <v>44630.958333333336</v>
-      </c>
-      <c r="L230" s="1">
-        <f t="shared" si="14"/>
-        <v>1646953200000</v>
-      </c>
-      <c r="M230" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -8464,37 +8565,48 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>248.0</v>
+      </c>
       <c r="B232" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C232" s="1"/>
-      <c r="D232" s="1"/>
-      <c r="K232" s="5"/>
-      <c r="L232" s="1"/>
-      <c r="M232" s="1">
-        <v>247.0</v>
+        <v>183</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D232" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K232" s="5">
+        <v>44631.875</v>
+      </c>
+      <c r="L232" s="1">
+        <f t="shared" ref="L232:L257" si="14">(K232-Date(1970,1,1))*86400*1000</f>
+        <v>1647032400000</v>
+      </c>
+      <c r="M232" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1">
-        <v>248.0</v>
+        <v>249.0</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K233" s="5">
-        <v>44631.875</v>
+        <v>44632.958333333336</v>
       </c>
       <c r="L233" s="1">
-        <f t="shared" ref="L233:L262" si="15">(K233-Date(1970,1,1))*86400*1000</f>
-        <v>1647032400000</v>
+        <f t="shared" si="14"/>
+        <v>1647126000000</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>16</v>
@@ -8502,23 +8614,23 @@
     </row>
     <row r="234">
       <c r="A234" s="1">
-        <v>249.0</v>
+        <v>250.0</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>183</v>
+        <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K234" s="5">
-        <v>44632.958333333336</v>
+        <v>44627.5</v>
       </c>
       <c r="L234" s="1">
-        <f t="shared" si="15"/>
-        <v>1647126000000</v>
+        <f t="shared" si="14"/>
+        <v>1646654400000</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>16</v>
@@ -8526,23 +8638,23 @@
     </row>
     <row r="235">
       <c r="A235" s="1">
-        <v>250.0</v>
+        <v>251.0</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K235" s="5">
-        <v>44627.5</v>
+        <v>44628.5</v>
       </c>
       <c r="L235" s="1">
-        <f t="shared" si="15"/>
-        <v>1646654400000</v>
+        <f t="shared" si="14"/>
+        <v>1646740800000</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>16</v>
@@ -8550,23 +8662,23 @@
     </row>
     <row r="236">
       <c r="A236" s="1">
-        <v>251.0</v>
+        <v>252.0</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K236" s="5">
-        <v>44628.5</v>
+      <c r="K236" s="8">
+        <v>44629.5</v>
       </c>
       <c r="L236" s="1">
-        <f t="shared" si="15"/>
-        <v>1646740800000</v>
+        <f t="shared" si="14"/>
+        <v>1646827200000</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>16</v>
@@ -8574,23 +8686,26 @@
     </row>
     <row r="237">
       <c r="A237" s="1">
-        <v>252.0</v>
+        <v>253.0</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K237" s="8">
-        <v>44629.5</v>
+      <c r="J237" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K237" s="5">
+        <v>44630.375</v>
       </c>
       <c r="L237" s="1">
-        <f t="shared" si="15"/>
-        <v>1646827200000</v>
+        <f t="shared" si="14"/>
+        <v>1646902800000</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>16</v>
@@ -8598,26 +8713,23 @@
     </row>
     <row r="238">
       <c r="A238" s="1">
-        <v>253.0</v>
+        <v>254.0</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J238" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K238" s="5">
-        <v>44630.375</v>
+        <v>44631.5</v>
       </c>
       <c r="L238" s="1">
-        <f t="shared" si="15"/>
-        <v>1646902800000</v>
+        <f t="shared" si="14"/>
+        <v>1647000000000</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>16</v>
@@ -8625,23 +8737,26 @@
     </row>
     <row r="239">
       <c r="A239" s="1">
-        <v>254.0</v>
+        <v>255.0</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J239" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K239" s="5">
-        <v>44631.5</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L239" s="1">
-        <f t="shared" si="15"/>
-        <v>1647000000000</v>
+        <f t="shared" si="14"/>
+        <v>1647050400000</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>16</v>
@@ -8649,26 +8764,23 @@
     </row>
     <row r="240">
       <c r="A240" s="1">
-        <v>255.0</v>
+        <v>256.0</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="D240" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J240" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K240" s="5">
-        <v>44632.083333333336</v>
+        <v>44633.083333333336</v>
       </c>
       <c r="L240" s="1">
-        <f t="shared" si="15"/>
-        <v>1647050400000</v>
+        <f t="shared" si="14"/>
+        <v>1647136800000</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>16</v>
@@ -8676,23 +8788,26 @@
     </row>
     <row r="241">
       <c r="A241" s="1">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>334</v>
+        <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E241" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="K241" s="5">
-        <v>44633.083333333336</v>
+        <v>44627.375</v>
       </c>
       <c r="L241" s="1">
-        <f t="shared" si="15"/>
-        <v>1647136800000</v>
+        <f t="shared" si="14"/>
+        <v>1646643600000</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>16</v>
@@ -8700,23 +8815,26 @@
     </row>
     <row r="242">
       <c r="A242" s="1">
-        <v>257.0</v>
+        <v>258.0</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>385</v>
+        <v>97</v>
       </c>
       <c r="D242" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E242" s="7" t="s">
+        <v>391</v>
+      </c>
       <c r="K242" s="5">
-        <v>44627.375</v>
+        <v>44628.375</v>
       </c>
       <c r="L242" s="1">
-        <f t="shared" si="15"/>
-        <v>1646643600000</v>
+        <f t="shared" si="14"/>
+        <v>1646730000000</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>16</v>
@@ -8724,23 +8842,23 @@
     </row>
     <row r="243">
       <c r="A243" s="1">
-        <v>258.0</v>
+        <v>259.0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>97</v>
+        <v>392</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K243" s="5">
-        <v>44628.375</v>
+      <c r="K243" s="8">
+        <v>44629.25</v>
       </c>
       <c r="L243" s="1">
-        <f t="shared" si="15"/>
-        <v>1646730000000</v>
+        <f t="shared" si="14"/>
+        <v>1646805600000</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>16</v>
@@ -8748,23 +8866,26 @@
     </row>
     <row r="244">
       <c r="A244" s="1">
-        <v>259.0</v>
+        <v>260.0</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K244" s="8">
-        <v>44629.25</v>
+      <c r="J244" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K244" s="5">
+        <v>44630.375</v>
       </c>
       <c r="L244" s="1">
-        <f t="shared" si="15"/>
-        <v>1646805600000</v>
+        <f t="shared" si="14"/>
+        <v>1646902800000</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>16</v>
@@ -8772,13 +8893,13 @@
     </row>
     <row r="245">
       <c r="A245" s="1">
-        <v>260.0</v>
+        <v>261.0</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -8787,11 +8908,11 @@
         <v>1</v>
       </c>
       <c r="K245" s="5">
-        <v>44630.375</v>
+        <v>44630.875</v>
       </c>
       <c r="L245" s="1">
-        <f t="shared" si="15"/>
-        <v>1646902800000</v>
+        <f t="shared" si="14"/>
+        <v>1646946000000</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>16</v>
@@ -8799,13 +8920,13 @@
     </row>
     <row r="246">
       <c r="A246" s="1">
-        <v>261.0</v>
+        <v>262.0</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -8814,11 +8935,11 @@
         <v>1</v>
       </c>
       <c r="K246" s="5">
-        <v>44630.875</v>
+        <v>44632.083333333336</v>
       </c>
       <c r="L246" s="1">
-        <f t="shared" si="15"/>
-        <v>1646946000000</v>
+        <f t="shared" si="14"/>
+        <v>1647050400000</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>16</v>
@@ -8826,26 +8947,23 @@
     </row>
     <row r="247">
       <c r="A247" s="1">
-        <v>262.0</v>
+        <v>263.0</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J247" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K247" s="5">
-        <v>44632.083333333336</v>
+        <v>44633.166666666664</v>
       </c>
       <c r="L247" s="1">
-        <f t="shared" si="15"/>
-        <v>1647050400000</v>
+        <f t="shared" si="14"/>
+        <v>1647144000000</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>16</v>
@@ -8853,23 +8971,26 @@
     </row>
     <row r="248">
       <c r="A248" s="1">
-        <v>263.0</v>
+        <v>264.0</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>94</v>
+        <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E248" s="7" t="s">
+        <v>398</v>
+      </c>
       <c r="K248" s="5">
-        <v>44633.166666666664</v>
+        <v>44627.791666666664</v>
       </c>
       <c r="L248" s="1">
-        <f t="shared" si="15"/>
-        <v>1647144000000</v>
+        <f t="shared" si="14"/>
+        <v>1646679600000</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>16</v>
@@ -8877,23 +8998,23 @@
     </row>
     <row r="249">
       <c r="A249" s="1">
-        <v>264.0</v>
+        <v>265.0</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K249" s="5">
-        <v>44627.791666666664</v>
+        <v>44629.041666666664</v>
       </c>
       <c r="L249" s="1">
-        <f t="shared" si="15"/>
-        <v>1646679600000</v>
+        <f t="shared" si="14"/>
+        <v>1646787600000</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>16</v>
@@ -8901,23 +9022,23 @@
     </row>
     <row r="250">
       <c r="A250" s="1">
-        <v>265.0</v>
+        <v>266.0</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K250" s="5">
-        <v>44629.041666666664</v>
+      <c r="K250" s="8">
+        <v>44629.791666666664</v>
       </c>
       <c r="L250" s="1">
-        <f t="shared" si="15"/>
-        <v>1646787600000</v>
+        <f t="shared" si="14"/>
+        <v>1646852400000</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>16</v>
@@ -8925,23 +9046,23 @@
     </row>
     <row r="251">
       <c r="A251" s="1">
-        <v>266.0</v>
+        <v>267.0</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K251" s="8">
-        <v>44629.791666666664</v>
+      <c r="K251" s="5">
+        <v>44630.791666666664</v>
       </c>
       <c r="L251" s="1">
-        <f t="shared" si="15"/>
-        <v>1646852400000</v>
+        <f t="shared" si="14"/>
+        <v>1646938800000</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>16</v>
@@ -8949,23 +9070,23 @@
     </row>
     <row r="252">
       <c r="A252" s="1">
-        <v>267.0</v>
+        <v>268.0</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K252" s="5">
-        <v>44630.791666666664</v>
+        <v>44631.791666666664</v>
       </c>
       <c r="L252" s="1">
-        <f t="shared" si="15"/>
-        <v>1646938800000</v>
+        <f t="shared" si="14"/>
+        <v>1647025200000</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>16</v>
@@ -8973,23 +9094,23 @@
     </row>
     <row r="253">
       <c r="A253" s="1">
-        <v>268.0</v>
+        <v>269.0</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K253" s="5">
-        <v>44631.791666666664</v>
+        <v>44632.791666666664</v>
       </c>
       <c r="L253" s="1">
-        <f t="shared" si="15"/>
-        <v>1647025200000</v>
+        <f t="shared" si="14"/>
+        <v>1647111600000</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>16</v>
@@ -8997,23 +9118,29 @@
     </row>
     <row r="254">
       <c r="A254" s="1">
-        <v>269.0</v>
+        <v>270.0</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E254" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="J254" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K254" s="5">
-        <v>44632.791666666664</v>
+        <v>44627.083333333336</v>
       </c>
       <c r="L254" s="1">
-        <f t="shared" si="15"/>
-        <v>1647111600000</v>
+        <f t="shared" si="14"/>
+        <v>1646618400000</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>16</v>
@@ -9021,13 +9148,13 @@
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>270.0</v>
+        <v>271.0</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9036,11 +9163,11 @@
         <v>1</v>
       </c>
       <c r="K255" s="5">
-        <v>44627.083333333336</v>
+        <v>44629.0</v>
       </c>
       <c r="L255" s="1">
-        <f t="shared" si="15"/>
-        <v>1646618400000</v>
+        <f t="shared" si="14"/>
+        <v>1646784000000</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>16</v>
@@ -9048,26 +9175,23 @@
     </row>
     <row r="256">
       <c r="A256" s="1">
-        <v>271.0</v>
+        <v>272.0</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J256" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K256" s="5">
-        <v>44629.0</v>
+        <v>44629.875</v>
       </c>
       <c r="L256" s="1">
-        <f t="shared" si="15"/>
-        <v>1646784000000</v>
+        <f t="shared" si="14"/>
+        <v>1646859600000</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>16</v>
@@ -9075,53 +9199,42 @@
     </row>
     <row r="257">
       <c r="A257" s="1">
-        <v>272.0</v>
+        <v>273.0</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J257" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K257" s="5">
-        <v>44629.875</v>
+        <v>44630.125</v>
       </c>
       <c r="L257" s="1">
-        <f t="shared" si="15"/>
-        <v>1646859600000</v>
+        <f t="shared" si="14"/>
+        <v>1646881200000</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="1">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="1"/>
+      <c r="M258" s="1">
         <v>273.0</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D258" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J258" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K258" s="5">
-        <v>44630.125</v>
-      </c>
-      <c r="L258" s="1">
-        <f t="shared" si="15"/>
-        <v>1646881200000</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="259">
@@ -9132,7 +9245,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9141,7 +9254,7 @@
         <v>44631.0</v>
       </c>
       <c r="L259" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="L259:L269" si="15">(K259-Date(1970,1,1))*86400*1000</f>
         <v>1646956800000</v>
       </c>
       <c r="M259" s="1" t="s">
@@ -9156,7 +9269,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9180,7 +9293,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9204,7 +9317,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9217,6 +9330,550 @@
         <v>1647129600000</v>
       </c>
       <c r="M262" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>278.0</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D263" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K263" s="5">
+        <v>44627.458333333336</v>
+      </c>
+      <c r="L263" s="1">
+        <f t="shared" si="15"/>
+        <v>1646650800000</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>279.0</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D264" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K264" s="5">
+        <v>44629.541666666664</v>
+      </c>
+      <c r="L264" s="1">
+        <f t="shared" si="15"/>
+        <v>1646830800000</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>280.0</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D265" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K265" s="5">
+        <v>44629.875</v>
+      </c>
+      <c r="L265" s="1">
+        <f t="shared" si="15"/>
+        <v>1646859600000</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>281.0</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D266" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K266" s="5">
+        <v>44630.541666666664</v>
+      </c>
+      <c r="L266" s="1">
+        <f t="shared" si="15"/>
+        <v>1646917200000</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>282.0</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D267" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K267" s="5">
+        <v>44631.583333333336</v>
+      </c>
+      <c r="L267" s="1">
+        <f t="shared" si="15"/>
+        <v>1647007200000</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>283.0</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D268" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K268" s="19">
+        <v>44632.541666666664</v>
+      </c>
+      <c r="L268" s="1">
+        <f t="shared" si="15"/>
+        <v>1647090000000</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>284.0</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D269" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K269" s="5">
+        <v>44633.583333333336</v>
+      </c>
+      <c r="L269" s="1">
+        <f t="shared" si="15"/>
+        <v>1647180000000</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M270" s="1">
+        <v>281.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>285.0</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D271" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="J271" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K271" s="5">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="L271" s="1">
+        <f t="shared" ref="L271:L277" si="16">(K271-Date(1970,1,1))*86400*1000</f>
+        <v>1646618400000</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>286.0</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D272" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="G272" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K272" s="5">
+        <v>44627.958333333336</v>
+      </c>
+      <c r="L272" s="1">
+        <f t="shared" si="16"/>
+        <v>1646694000000</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>287.0</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D273" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K273" s="5">
+        <v>44628.875</v>
+      </c>
+      <c r="L273" s="1">
+        <f t="shared" si="16"/>
+        <v>1646773200000</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>288.0</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D274" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K274" s="5">
+        <v>44629.041666666664</v>
+      </c>
+      <c r="L274" s="1">
+        <f t="shared" si="16"/>
+        <v>1646787600000</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>289.0</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D275" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K275" s="5">
+        <v>44630.875</v>
+      </c>
+      <c r="L275" s="1">
+        <f t="shared" si="16"/>
+        <v>1646946000000</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>290.0</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D276" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K276" s="5">
+        <v>44631.666666666664</v>
+      </c>
+      <c r="L276" s="1">
+        <f t="shared" si="16"/>
+        <v>1647014400000</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>291.0</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D277" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K277" s="5">
+        <v>44631.875</v>
+      </c>
+      <c r="L277" s="1">
+        <f t="shared" si="16"/>
+        <v>1647032400000</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="1"/>
+      <c r="M278" s="1">
+        <v>291.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="K279" s="5"/>
+      <c r="L279" s="1"/>
+      <c r="M279" s="1">
+        <v>291.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>292.0</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D280" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K280" s="5">
+        <v>44632.75</v>
+      </c>
+      <c r="L280" s="1">
+        <f t="shared" ref="L280:L285" si="17">(K280-Date(1970,1,1))*86400*1000</f>
+        <v>1647108000000</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>293.0</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D281" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K281" s="5">
+        <v>44633.125</v>
+      </c>
+      <c r="L281" s="1">
+        <f t="shared" si="17"/>
+        <v>1647140400000</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>294.0</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D282" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K282" s="5">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="L282" s="1">
+        <f t="shared" si="17"/>
+        <v>1646618400000</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>295.0</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D283" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="K283" s="5">
+        <v>44628.0</v>
+      </c>
+      <c r="L283" s="1">
+        <f t="shared" si="17"/>
+        <v>1646697600000</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>296.0</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D284" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K284" s="5">
+        <v>44628.75</v>
+      </c>
+      <c r="L284" s="1">
+        <f t="shared" si="17"/>
+        <v>1646762400000</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>297.0</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D285" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K285" s="5">
+        <v>44630.0</v>
+      </c>
+      <c r="L285" s="1">
+        <f t="shared" si="17"/>
+        <v>1646870400000</v>
+      </c>
+      <c r="M285" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9380,7 +10037,19 @@
     <hyperlink r:id="rId156" ref="E202"/>
     <hyperlink r:id="rId157" ref="E203"/>
     <hyperlink r:id="rId158" ref="E212"/>
+    <hyperlink r:id="rId159" ref="E213"/>
+    <hyperlink r:id="rId160" ref="E219"/>
+    <hyperlink r:id="rId161" ref="E220"/>
+    <hyperlink r:id="rId162" ref="E226"/>
+    <hyperlink r:id="rId163" ref="E241"/>
+    <hyperlink r:id="rId164" ref="E242"/>
+    <hyperlink r:id="rId165" ref="E248"/>
+    <hyperlink r:id="rId166" ref="E254"/>
+    <hyperlink r:id="rId167" ref="E263"/>
+    <hyperlink r:id="rId168" ref="E271"/>
+    <hyperlink r:id="rId169" ref="E272"/>
+    <hyperlink r:id="rId170" ref="E283"/>
   </hyperlinks>
-  <drawing r:id="rId159"/>
+  <drawing r:id="rId171"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -1294,7 +1294,7 @@
     <t>PATH OF EXILE</t>
   </si>
   <si>
-    <t>UNI w/ Vox Ike Shoto</t>
+    <t>UNO w/ Vox Ike Shoto</t>
   </si>
   <si>
     <t>KARAOKE</t>
@@ -7938,6 +7938,9 @@
       <c r="D206" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F206" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J206" s="1" t="b">
         <v>1</v>
       </c>
@@ -9009,6 +9012,9 @@
       <c r="D249" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F249" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K249" s="5">
         <v>44629.041666666664</v>
       </c>
@@ -9157,6 +9163,9 @@
         <v>406</v>
       </c>
       <c r="D255" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F255" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J255" s="1" t="b">
@@ -9397,6 +9406,9 @@
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F265" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K265" s="5">
         <v>44629.875</v>
       </c>
@@ -9610,6 +9622,9 @@
         <v>424</v>
       </c>
       <c r="D274" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F274" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J274" s="1" t="b">

--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="464">
   <si>
     <t>id</t>
   </si>
@@ -1087,6 +1087,9 @@
     <t>Cyberpunk 2077-Here's Johnny</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=YCxJxDEAdQ0</t>
+  </si>
+  <si>
     <t>Zelda: Majora's Mask</t>
   </si>
   <si>
@@ -1168,6 +1171,9 @@
     <t>GENSHIN</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tAg-8FiMrz0</t>
+  </si>
+  <si>
     <t>?????</t>
   </si>
   <si>
@@ -1276,46 +1282,127 @@
     <t>DOULINGO</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5NjV6vdWlws</t>
+  </si>
+  <si>
+    <t>POKEMON LEGENDS ARCEUS</t>
+  </si>
+  <si>
+    <t>WORMS ARMAGEDDON COLLAB</t>
+  </si>
+  <si>
+    <t>APEX LEGENDS w/ Sonny Uki</t>
+  </si>
+  <si>
+    <t>PATH OF EXILE</t>
+  </si>
+  <si>
+    <t>UNO w/ Vox Ike Shoto</t>
+  </si>
+  <si>
+    <t>KARAOKE</t>
+  </si>
+  <si>
+    <t>MEMBERS ONLY Watchalong: The lighthouse</t>
+  </si>
+  <si>
+    <t>DON'T STARVE TOGETHER: LAZUSYDIA COLLAB</t>
+  </si>
+  <si>
+    <t>FAIRYOKE?!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FKxcJf8jUEw</t>
+  </si>
+  <si>
+    <t>YU-GI-OH! MASTER DUEL</t>
+  </si>
+  <si>
+    <t>ZATSUDAN DEFORE BREAK</t>
+  </si>
+  <si>
+    <t>300K VR FULLBODY</t>
+  </si>
+  <si>
+    <t>THE WALKING DEAD</t>
+  </si>
+  <si>
+    <t>MINECRAFT: NIJI WORLD SERVER</t>
+  </si>
+  <si>
+    <t>COMFY VOICE AMA</t>
+  </si>
+  <si>
+    <t>ELDEN RING</t>
+  </si>
+  <si>
+    <t>DARK DECEPTION PT.2</t>
+  </si>
+  <si>
+    <t>#MYSMI [Keep Talking and Nobody Explodes]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KyF3RQe1d2k</t>
+  </si>
+  <si>
+    <t>We Were Here [Ike Collab]</t>
+  </si>
+  <si>
+    <t>Apex Legends [Vox, Rpr Collab]</t>
+  </si>
+  <si>
+    <t>KARAOKE????? (if everything goes to plan)</t>
+  </si>
+  <si>
+    <t>Night Delivery [No talking/Harmonica in mouth]</t>
+  </si>
+  <si>
+    <t>WE WERE HERE W/ MYSTA</t>
+  </si>
+  <si>
+    <t>MINECRART (WORLD SERVER)</t>
+  </si>
+  <si>
+    <t>MEGA MAN X</t>
+  </si>
+  <si>
+    <t>UNO COLLAB W/ VOX, REIMU, SHOTO</t>
+  </si>
+  <si>
+    <t>SUPER CHAT READING</t>
+  </si>
+  <si>
+    <t>more Yu-Gi-Oh Master Duel!!!!!</t>
+  </si>
+  <si>
+    <t>https://t.co/p4gtRZ6luc</t>
+  </si>
+  <si>
+    <t>Don't Starve Together w/ Lazusydia</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=eTzP5_A1l7w&amp;t=9s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5NjV6vdWlws</t>
-  </si>
-  <si>
-    <t>POKEMON LEGENDS ARCEUS</t>
-  </si>
-  <si>
-    <t>WORMS ARMAFEDDON COLLAB</t>
-  </si>
-  <si>
-    <t>APEX LEGENDS w/ Sonny Uki</t>
-  </si>
-  <si>
-    <t>PATH OF EXILE</t>
-  </si>
-  <si>
-    <t>UNO w/ Vox Ike Shoto</t>
-  </si>
-  <si>
-    <t>KARAOKE</t>
-  </si>
-  <si>
-    <t>MEMBERS ONLY Watchalong: The lighthouse</t>
-  </si>
-  <si>
-    <t>DON'T STARVE TOGETHER: LAZUSYDIA COLLAB</t>
-  </si>
-  <si>
-    <t>FAIRYOKE?!</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=FKxcJf8jUEw</t>
-  </si>
-  <si>
-    <t>YU-GI-OH! MASTER DUEL</t>
-  </si>
-  <si>
-    <t>ZATSUDAN DEFORE BREAK</t>
+    <t>Apex Solo Rank Gold to Plat?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IIxQbGKUNrs</t>
+  </si>
+  <si>
+    <t>Demon's Souls on twitch</t>
+  </si>
+  <si>
+    <t>Worms Armageddon w/ NIJIEN</t>
+  </si>
+  <si>
+    <t>Apex Legends w/ Fulgur &amp; Alban</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>200k Celebration ASMR prison break</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1417,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1370,6 +1457,11 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF0F1419"/>
+      <name val="TwitterChirp"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1407,7 +1499,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1483,6 +1575,9 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -7890,6 +7985,9 @@
       <c r="D204" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E204" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="K204" s="5">
         <v>44627.666666666664</v>
       </c>
@@ -7909,7 +8007,7 @@
         <v>319</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D205" s="1" t="b">
         <v>1</v>
@@ -7933,7 +8031,7 @@
         <v>319</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D206" s="1" t="b">
         <v>1</v>
@@ -7963,7 +8061,7 @@
         <v>319</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D207" s="1" t="b">
         <v>1</v>
@@ -7985,7 +8083,7 @@
     <row r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -7999,7 +8097,7 @@
     <row r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -8018,7 +8116,7 @@
         <v>319</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>1</v>
@@ -8045,7 +8143,7 @@
         <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
@@ -8069,13 +8167,13 @@
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K212" s="5">
         <v>44627.0</v>
@@ -8096,13 +8194,13 @@
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K213" s="5">
         <v>44628.0</v>
@@ -8123,7 +8221,7 @@
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
@@ -8147,7 +8245,7 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
@@ -8171,7 +8269,7 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
@@ -8198,7 +8296,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8225,7 +8323,7 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8255,13 +8353,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8288,7 +8386,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8357,7 +8455,7 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8384,7 +8482,7 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
@@ -8414,7 +8512,7 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
@@ -8441,13 +8539,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8476,6 +8574,9 @@
       <c r="D227" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E227" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="K227" s="5">
         <v>44627.875</v>
       </c>
@@ -8495,7 +8596,7 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
@@ -8519,7 +8620,7 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
@@ -8575,7 +8676,7 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -8599,7 +8700,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8623,10 +8724,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -8647,7 +8751,7 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
@@ -8671,7 +8775,7 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
@@ -8695,7 +8799,7 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
@@ -8722,7 +8826,7 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
@@ -8746,7 +8850,7 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -8797,13 +8901,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -8830,7 +8934,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -8851,7 +8955,7 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
@@ -8875,7 +8979,7 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
@@ -8902,7 +9006,7 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -8929,7 +9033,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -8956,7 +9060,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -8980,13 +9084,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9007,7 +9111,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9034,7 +9138,7 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
@@ -9058,7 +9162,7 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
@@ -9082,7 +9186,7 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9106,7 +9210,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9130,13 +9234,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9160,7 +9264,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9190,7 +9294,7 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
@@ -9214,7 +9318,7 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
@@ -9254,7 +9358,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9278,7 +9382,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9302,7 +9406,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9326,7 +9430,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9350,13 +9454,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9377,7 +9481,7 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
@@ -9401,7 +9505,7 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
@@ -9428,9 +9532,12 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D266" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J266" s="1" t="b">
@@ -9455,7 +9562,7 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9479,7 +9586,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9503,7 +9610,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9521,7 +9628,7 @@
     </row>
     <row r="270">
       <c r="B270" s="1" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="M270" s="1">
         <v>281.0</v>
@@ -9529,29 +9636,29 @@
     </row>
     <row r="271">
       <c r="A271" s="1">
-        <v>285.0</v>
+        <v>286.0</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>378</v>
+        <v>204</v>
       </c>
       <c r="D271" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E271" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="J271" s="1" t="b">
+      <c r="E271" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G271" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K271" s="5">
-        <v>44627.083333333336</v>
+        <v>44627.958333333336</v>
       </c>
       <c r="L271" s="1">
-        <f t="shared" ref="L271:L277" si="16">(K271-Date(1970,1,1))*86400*1000</f>
-        <v>1646618400000</v>
+        <f t="shared" ref="L271:L276" si="16">(K271-Date(1970,1,1))*86400*1000</f>
+        <v>1646694000000</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>16</v>
@@ -9559,29 +9666,23 @@
     </row>
     <row r="272">
       <c r="A272" s="1">
-        <v>286.0</v>
+        <v>287.0</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E272" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="G272" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K272" s="5">
-        <v>44627.958333333336</v>
+        <v>44628.875</v>
       </c>
       <c r="L272" s="1">
         <f t="shared" si="16"/>
-        <v>1646694000000</v>
+        <v>1646773200000</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>16</v>
@@ -9589,23 +9690,29 @@
     </row>
     <row r="273">
       <c r="A273" s="1">
-        <v>287.0</v>
+        <v>288.0</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F273" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K273" s="5">
-        <v>44628.875</v>
+        <v>44629.041666666664</v>
       </c>
       <c r="L273" s="1">
         <f t="shared" si="16"/>
-        <v>1646773200000</v>
+        <v>1646787600000</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>16</v>
@@ -9613,29 +9720,26 @@
     </row>
     <row r="274">
       <c r="A274" s="1">
-        <v>288.0</v>
+        <v>289.0</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F274" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J274" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K274" s="5">
-        <v>44629.041666666664</v>
+        <v>44630.875</v>
       </c>
       <c r="L274" s="1">
         <f t="shared" si="16"/>
-        <v>1646787600000</v>
+        <v>1646946000000</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>16</v>
@@ -9643,26 +9747,23 @@
     </row>
     <row r="275">
       <c r="A275" s="1">
-        <v>289.0</v>
+        <v>290.0</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J275" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K275" s="5">
-        <v>44630.875</v>
+        <v>44631.666666666664</v>
       </c>
       <c r="L275" s="1">
         <f t="shared" si="16"/>
-        <v>1646946000000</v>
+        <v>1647014400000</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>16</v>
@@ -9670,59 +9771,48 @@
     </row>
     <row r="276">
       <c r="A276" s="1">
-        <v>290.0</v>
+        <v>291.0</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J276" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K276" s="5">
-        <v>44631.666666666664</v>
+        <v>44631.875</v>
       </c>
       <c r="L276" s="1">
         <f t="shared" si="16"/>
-        <v>1647014400000</v>
+        <v>1647032400000</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="1">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1">
         <v>291.0</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D277" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K277" s="5">
-        <v>44631.875</v>
-      </c>
-      <c r="L277" s="1">
-        <f t="shared" si="16"/>
-        <v>1647032400000</v>
-      </c>
-      <c r="M277" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
-        <v>13</v>
+        <v>249</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="1"/>
@@ -9733,37 +9823,48 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="1"/>
+      <c r="A279" s="1">
+        <v>292.0</v>
+      </c>
       <c r="B279" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C279" s="1"/>
-      <c r="D279" s="1"/>
-      <c r="K279" s="5"/>
-      <c r="L279" s="1"/>
-      <c r="M279" s="1">
-        <v>291.0</v>
+        <v>158</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D279" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K279" s="5">
+        <v>44632.75</v>
+      </c>
+      <c r="L279" s="1">
+        <f t="shared" ref="L279:L309" si="17">(K279-Date(1970,1,1))*86400*1000</f>
+        <v>1647108000000</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1">
-        <v>292.0</v>
+        <v>293.0</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K280" s="5">
-        <v>44632.75</v>
+        <v>44633.125</v>
       </c>
       <c r="L280" s="1">
-        <f t="shared" ref="L280:L285" si="17">(K280-Date(1970,1,1))*86400*1000</f>
-        <v>1647108000000</v>
+        <f t="shared" si="17"/>
+        <v>1647140400000</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>16</v>
@@ -9771,23 +9872,23 @@
     </row>
     <row r="281">
       <c r="A281" s="1">
-        <v>293.0</v>
+        <v>294.0</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K281" s="5">
-        <v>44633.125</v>
+        <v>44627.083333333336</v>
       </c>
       <c r="L281" s="1">
         <f t="shared" si="17"/>
-        <v>1647140400000</v>
+        <v>1646618400000</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>16</v>
@@ -9795,23 +9896,26 @@
     </row>
     <row r="282">
       <c r="A282" s="1">
-        <v>294.0</v>
+        <v>295.0</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E282" s="7" t="s">
+        <v>433</v>
+      </c>
       <c r="K282" s="5">
-        <v>44627.083333333336</v>
+        <v>44628.0</v>
       </c>
       <c r="L282" s="1">
         <f t="shared" si="17"/>
-        <v>1646618400000</v>
+        <v>1646697600000</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>16</v>
@@ -9819,26 +9923,23 @@
     </row>
     <row r="283">
       <c r="A283" s="1">
-        <v>295.0</v>
+        <v>296.0</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E283" s="7" t="s">
-        <v>432</v>
-      </c>
       <c r="K283" s="5">
-        <v>44628.0</v>
+        <v>44628.75</v>
       </c>
       <c r="L283" s="1">
         <f t="shared" si="17"/>
-        <v>1646697600000</v>
+        <v>1646762400000</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>16</v>
@@ -9846,23 +9947,23 @@
     </row>
     <row r="284">
       <c r="A284" s="1">
-        <v>296.0</v>
+        <v>297.0</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K284" s="5">
-        <v>44628.75</v>
+        <v>44630.0</v>
       </c>
       <c r="L284" s="1">
         <f t="shared" si="17"/>
-        <v>1646762400000</v>
+        <v>1646870400000</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>16</v>
@@ -9870,25 +9971,643 @@
     </row>
     <row r="285">
       <c r="A285" s="1">
-        <v>297.0</v>
+        <v>298.0</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>173</v>
+        <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K285" s="5">
-        <v>44630.0</v>
+        <v>44628.166666666664</v>
       </c>
       <c r="L285" s="1">
         <f t="shared" si="17"/>
-        <v>1646870400000</v>
+        <v>1646712000000</v>
       </c>
       <c r="M285" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>299.0</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D286" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K286" s="5">
+        <v>44629.166666666664</v>
+      </c>
+      <c r="L286" s="1">
+        <f t="shared" si="17"/>
+        <v>1646798400000</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>300.0</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D287" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K287" s="5">
+        <v>44630.083333333336</v>
+      </c>
+      <c r="L287" s="1">
+        <f t="shared" si="17"/>
+        <v>1646877600000</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>301.0</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D288" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K288" s="5">
+        <v>44631.25</v>
+      </c>
+      <c r="L288" s="1">
+        <f t="shared" si="17"/>
+        <v>1646978400000</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>302.0</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D289" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K289" s="5">
+        <v>44632.166666666664</v>
+      </c>
+      <c r="L289" s="1">
+        <f t="shared" si="17"/>
+        <v>1647057600000</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>303.0</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D290" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K290" s="5">
+        <v>44633.208333333336</v>
+      </c>
+      <c r="L290" s="1">
+        <f t="shared" si="17"/>
+        <v>1647147600000</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>304.0</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D291" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="K291" s="5">
+        <v>44628.541666666664</v>
+      </c>
+      <c r="L291" s="1">
+        <f t="shared" si="17"/>
+        <v>1646744400000</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>305.0</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D292" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J292" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K292" s="5">
+        <v>44629.5</v>
+      </c>
+      <c r="L292" s="1">
+        <f t="shared" si="17"/>
+        <v>1646827200000</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>306.0</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D293" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F293" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J293" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K293" s="5">
+        <v>44630.583333333336</v>
+      </c>
+      <c r="L293" s="1">
+        <f t="shared" si="17"/>
+        <v>1646920800000</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>307.0</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D294" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K294" s="5">
+        <v>44631.5</v>
+      </c>
+      <c r="L294" s="1">
+        <f t="shared" si="17"/>
+        <v>1647000000000</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>308.0</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D295" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K295" s="5">
+        <v>44632.5</v>
+      </c>
+      <c r="L295" s="1">
+        <f t="shared" si="17"/>
+        <v>1647086400000</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>309.0</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D296" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K296" s="5">
+        <v>44628.5</v>
+      </c>
+      <c r="L296" s="1">
+        <f t="shared" si="17"/>
+        <v>1646740800000</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D297" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J297" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K297" s="5">
+        <v>44629.5</v>
+      </c>
+      <c r="L297" s="1">
+        <f t="shared" si="17"/>
+        <v>1646827200000</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>311.0</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D298" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K298" s="5">
+        <v>44630.083333333336</v>
+      </c>
+      <c r="L298" s="1">
+        <f t="shared" si="17"/>
+        <v>1646877600000</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>312.0</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D299" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K299" s="5">
+        <v>44630.5</v>
+      </c>
+      <c r="L299" s="1">
+        <f t="shared" si="17"/>
+        <v>1646913600000</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>313.0</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D300" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J300" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K300" s="5">
+        <v>44631.875</v>
+      </c>
+      <c r="L300" s="1">
+        <f t="shared" si="17"/>
+        <v>1647032400000</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>314.0</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D301" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K301" s="5">
+        <v>44633.5</v>
+      </c>
+      <c r="L301" s="1">
+        <f t="shared" si="17"/>
+        <v>1647172800000</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>315.0</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C302" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="D302" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="I302" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K302" s="5">
+        <v>44627.833333333336</v>
+      </c>
+      <c r="L302" s="1">
+        <f t="shared" si="17"/>
+        <v>1646683200000</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>316.0</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D303" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="J303" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K303" s="5">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="L303" s="1">
+        <f t="shared" si="17"/>
+        <v>1646618400000</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>317.0</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D304" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K304" s="5">
+        <v>44627.833333333336</v>
+      </c>
+      <c r="L304" s="1">
+        <f t="shared" si="17"/>
+        <v>1646683200000</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>318.0</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D305" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K305" s="5">
+        <v>44628.145833333336</v>
+      </c>
+      <c r="L305" s="1">
+        <f t="shared" si="17"/>
+        <v>1646710200000</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>319.0</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D306" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F306" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J306" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K306" s="5">
+        <v>44629.0</v>
+      </c>
+      <c r="L306" s="1">
+        <f t="shared" si="17"/>
+        <v>1646784000000</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>321.0</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D307" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J307" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K307" s="5">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="L307" s="1">
+        <f t="shared" si="17"/>
+        <v>1646960400000</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>322.0</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D308" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K308" s="5">
+        <v>44631.958333333336</v>
+      </c>
+      <c r="L308" s="1">
+        <f t="shared" si="17"/>
+        <v>1647039600000</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>323.0</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D309" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K309" s="5">
+        <v>44632.833333333336</v>
+      </c>
+      <c r="L309" s="1">
+        <f t="shared" si="17"/>
+        <v>1647115200000</v>
+      </c>
+      <c r="M309" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10051,20 +10770,26 @@
     <hyperlink r:id="rId155" ref="E200"/>
     <hyperlink r:id="rId156" ref="E202"/>
     <hyperlink r:id="rId157" ref="E203"/>
-    <hyperlink r:id="rId158" ref="E212"/>
-    <hyperlink r:id="rId159" ref="E213"/>
-    <hyperlink r:id="rId160" ref="E219"/>
-    <hyperlink r:id="rId161" ref="E220"/>
-    <hyperlink r:id="rId162" ref="E226"/>
-    <hyperlink r:id="rId163" ref="E241"/>
-    <hyperlink r:id="rId164" ref="E242"/>
-    <hyperlink r:id="rId165" ref="E248"/>
-    <hyperlink r:id="rId166" ref="E254"/>
-    <hyperlink r:id="rId167" ref="E263"/>
-    <hyperlink r:id="rId168" ref="E271"/>
-    <hyperlink r:id="rId169" ref="E272"/>
-    <hyperlink r:id="rId170" ref="E283"/>
+    <hyperlink r:id="rId158" ref="E204"/>
+    <hyperlink r:id="rId159" ref="E212"/>
+    <hyperlink r:id="rId160" ref="E213"/>
+    <hyperlink r:id="rId161" ref="E219"/>
+    <hyperlink r:id="rId162" ref="E220"/>
+    <hyperlink r:id="rId163" ref="E226"/>
+    <hyperlink r:id="rId164" ref="E227"/>
+    <hyperlink r:id="rId165" ref="E234"/>
+    <hyperlink r:id="rId166" ref="E241"/>
+    <hyperlink r:id="rId167" ref="E242"/>
+    <hyperlink r:id="rId168" ref="E248"/>
+    <hyperlink r:id="rId169" ref="E254"/>
+    <hyperlink r:id="rId170" ref="E263"/>
+    <hyperlink r:id="rId171" ref="E271"/>
+    <hyperlink r:id="rId172" ref="E282"/>
+    <hyperlink r:id="rId173" ref="E291"/>
+    <hyperlink r:id="rId174" ref="E302"/>
+    <hyperlink r:id="rId175" ref="E303"/>
+    <hyperlink r:id="rId176" ref="E304"/>
   </hyperlinks>
-  <drawing r:id="rId171"/>
+  <drawing r:id="rId177"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="488">
   <si>
     <t>id</t>
   </si>
@@ -1120,6 +1120,9 @@
     <t>https://www.youtube.com/watch?v=mVKT0TR_2Ss</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rcr2fTH9M78</t>
+  </si>
+  <si>
     <t>THE CONVENIENCE STORE</t>
   </si>
   <si>
@@ -1159,6 +1162,9 @@
     <t>YU-GI-OH! MASTER DEUL(TRAINING ARC)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=e93VKRJ8Vq0</t>
+  </si>
+  <si>
     <t xml:space="preserve">DEAD BY DAYLIGHT W/ PETRA, UKI, ROSEMI </t>
   </si>
   <si>
@@ -1177,6 +1183,9 @@
     <t>?????</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=dsfccfR97QM</t>
+  </si>
+  <si>
     <t>DEVIL MAY CRY 5</t>
   </si>
   <si>
@@ -1288,6 +1297,9 @@
     <t>POKEMON LEGENDS ARCEUS</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=SDaCLmn5-6M</t>
+  </si>
+  <si>
     <t>WORMS ARMAGEDDON COLLAB</t>
   </si>
   <si>
@@ -1318,12 +1330,18 @@
     <t>YU-GI-OH! MASTER DUEL</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VqjP3GiSdE4</t>
+  </si>
+  <si>
     <t>ZATSUDAN DEFORE BREAK</t>
   </si>
   <si>
     <t>300K VR FULLBODY</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=cg7CMWbXkF4</t>
+  </si>
+  <si>
     <t>THE WALKING DEAD</t>
   </si>
   <si>
@@ -1357,6 +1375,9 @@
     <t>Night Delivery [No talking/Harmonica in mouth]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=AWCw1TRW3wQ</t>
+  </si>
+  <si>
     <t>WE WERE HERE W/ MYSTA</t>
   </si>
   <si>
@@ -1372,37 +1393,88 @@
     <t>SUPER CHAT READING</t>
   </si>
   <si>
-    <t>more Yu-Gi-Oh Master Duel!!!!!</t>
+    <t>Don't Starve Together w/ Lazusydia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eTzP5_A1l7w&amp;t=9s</t>
+  </si>
+  <si>
+    <t>Apex Solo Rank Gold to Plat?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IIxQbGKUNrs</t>
+  </si>
+  <si>
+    <t>Demon's Souls on twitch</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/videos/1418980918</t>
+  </si>
+  <si>
+    <t>Worms Armageddon w/ NIJIEN</t>
+  </si>
+  <si>
+    <t>Apex Legends w/ Fulgur &amp; Alban</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>200k Celebration ASMR prison break</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FPqyJBkKyrI</t>
+  </si>
+  <si>
+    <t>Worms Armageddon</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s9e_serxBDg</t>
+  </si>
+  <si>
+    <t>YGO! MD+DbD Collab</t>
+  </si>
+  <si>
+    <t>Rosemi Zatsudan</t>
+  </si>
+  <si>
+    <t>DON'T STARVE TGT W/ LAZASYDIA</t>
+  </si>
+  <si>
+    <t>TWISTED WONDERLAND W/ ELIRA</t>
+  </si>
+  <si>
+    <t>DEAD BY DAYLIGHT W/ FINANA, UKI, ROSEMI</t>
+  </si>
+  <si>
+    <t>PAYDAY 2 W/ SEFFYNA, SERA, KIRAME</t>
+  </si>
+  <si>
+    <t>DONATION READING (+1 EAT CORM CHEESE)</t>
+  </si>
+  <si>
+    <t>PROPNIGHT W/ REIMU, OLIVER, GENZUKI, MAYUZUMI</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh Master Duel</t>
   </si>
   <si>
     <t>https://t.co/p4gtRZ6luc</t>
   </si>
   <si>
-    <t>Don't Starve Together w/ Lazusydia</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eTzP5_A1l7w&amp;t=9s</t>
-  </si>
-  <si>
-    <t>Apex Solo Rank Gold to Plat?</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IIxQbGKUNrs</t>
-  </si>
-  <si>
-    <t>Demon's Souls on twitch</t>
-  </si>
-  <si>
-    <t>Worms Armageddon w/ NIJIEN</t>
-  </si>
-  <si>
-    <t>Apex Legends w/ Fulgur &amp; Alban</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>200k Celebration ASMR prison break</t>
+    <t>Worms Armageddon (No POV) ft. Rosemi, Selen, Millie, Reimu, Elira</t>
+  </si>
+  <si>
+    <t>NijiWorld Minecraft Server</t>
+  </si>
+  <si>
+    <t>Project Zomboid First time!</t>
+  </si>
+  <si>
+    <t>Pokemon Legends: Arceus Post-Game chill!</t>
+  </si>
+  <si>
+    <t>TBD!! - something</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1489,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1457,11 +1529,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF0F1419"/>
-      <name val="TwitterChirp"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1499,7 +1566,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1575,9 +1642,6 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1811,7 +1875,7 @@
     <col customWidth="1" min="10" max="10" width="7.86"/>
     <col customWidth="1" min="11" max="11" width="20.71"/>
     <col customWidth="1" min="12" max="12" width="14.71"/>
-    <col customWidth="1" min="13" max="13" width="10.86"/>
+    <col customWidth="1" min="13" max="13" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8226,6 +8290,9 @@
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E214" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="K214" s="5">
         <v>44629.0</v>
       </c>
@@ -8245,7 +8312,7 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
@@ -8269,7 +8336,7 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
@@ -8296,7 +8363,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8323,7 +8390,7 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8353,13 +8420,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8386,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8455,7 +8522,7 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8482,7 +8549,7 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
@@ -8512,7 +8579,7 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
@@ -8539,13 +8606,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8575,7 +8642,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8596,10 +8663,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>383</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8620,7 +8690,7 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
@@ -8645,7 +8715,7 @@
     <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -8658,7 +8728,7 @@
     <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -8676,7 +8746,7 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -8700,7 +8770,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8724,13 +8794,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -8751,10 +8821,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -8775,7 +8848,7 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
@@ -8799,7 +8872,7 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
@@ -8826,7 +8899,7 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
@@ -8850,7 +8923,7 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -8901,13 +8974,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -8934,7 +9007,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -8955,7 +9028,7 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
@@ -8979,7 +9052,7 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
@@ -9006,7 +9079,7 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -9033,7 +9106,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9060,7 +9133,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9084,13 +9157,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9111,7 +9184,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9138,7 +9211,7 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
@@ -9162,7 +9235,7 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
@@ -9186,7 +9259,7 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9210,7 +9283,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9234,13 +9307,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9264,7 +9337,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9294,7 +9367,7 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
@@ -9318,7 +9391,7 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
@@ -9340,7 +9413,7 @@
     <row r="258">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="1"/>
@@ -9358,7 +9431,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9382,7 +9455,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9406,7 +9479,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9430,7 +9503,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9454,13 +9527,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9481,7 +9554,7 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
@@ -9505,7 +9578,7 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
@@ -9532,7 +9605,7 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
@@ -9562,7 +9635,7 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9586,7 +9659,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9610,7 +9683,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9648,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9672,10 +9745,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>428</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -9696,7 +9772,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -9726,7 +9802,7 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
@@ -9753,7 +9829,7 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
@@ -9777,7 +9853,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -9830,7 +9906,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -9839,7 +9915,7 @@
         <v>44632.75</v>
       </c>
       <c r="L279" s="1">
-        <f t="shared" ref="L279:L309" si="17">(K279-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L279:L325" si="17">(K279-Date(1970,1,1))*86400*1000</f>
         <v>1647108000000</v>
       </c>
       <c r="M279" s="1" t="s">
@@ -9854,7 +9930,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -9878,7 +9954,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -9902,13 +9978,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -9929,10 +10005,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -9953,7 +10032,7 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
@@ -9977,10 +10056,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10001,7 +10083,7 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
@@ -10025,7 +10107,7 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
@@ -10049,7 +10131,7 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
@@ -10073,7 +10155,7 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
@@ -10097,7 +10179,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10121,13 +10203,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10148,7 +10230,7 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
@@ -10175,7 +10257,7 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
@@ -10205,7 +10287,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10229,7 +10311,7 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
@@ -10258,6 +10340,9 @@
       <c r="D296" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E296" s="7" t="s">
+        <v>454</v>
+      </c>
       <c r="K296" s="5">
         <v>44628.5</v>
       </c>
@@ -10277,7 +10362,7 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
@@ -10304,7 +10389,7 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
@@ -10328,7 +10413,7 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
@@ -10352,7 +10437,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -10379,7 +10464,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10397,29 +10482,29 @@
     </row>
     <row r="302">
       <c r="A302" s="1">
-        <v>315.0</v>
+        <v>316.0</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C302" s="27" t="s">
-        <v>453</v>
+        <v>196</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="I302" s="1" t="b">
+        <v>461</v>
+      </c>
+      <c r="J302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K302" s="5">
-        <v>44627.833333333336</v>
+        <v>44627.083333333336</v>
       </c>
       <c r="L302" s="1">
         <f t="shared" si="17"/>
-        <v>1646683200000</v>
+        <v>1646618400000</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>16</v>
@@ -10427,29 +10512,26 @@
     </row>
     <row r="303">
       <c r="A303" s="1">
-        <v>316.0</v>
+        <v>317.0</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="J303" s="1" t="b">
-        <v>1</v>
+        <v>463</v>
       </c>
       <c r="K303" s="5">
-        <v>44627.083333333336</v>
+        <v>44627.833333333336</v>
       </c>
       <c r="L303" s="1">
         <f t="shared" si="17"/>
-        <v>1646618400000</v>
+        <v>1646683200000</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>16</v>
@@ -10457,26 +10539,26 @@
     </row>
     <row r="304">
       <c r="A304" s="1">
-        <v>317.0</v>
+        <v>318.0</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="K304" s="5">
-        <v>44627.833333333336</v>
+        <v>44628.145833333336</v>
       </c>
       <c r="L304" s="1">
         <f t="shared" si="17"/>
-        <v>1646683200000</v>
+        <v>1646710200000</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>16</v>
@@ -10484,23 +10566,29 @@
     </row>
     <row r="305">
       <c r="A305" s="1">
-        <v>318.0</v>
+        <v>319.0</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F305" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J305" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K305" s="5">
-        <v>44628.145833333336</v>
+        <v>44629.0</v>
       </c>
       <c r="L305" s="1">
         <f t="shared" si="17"/>
-        <v>1646710200000</v>
+        <v>1646784000000</v>
       </c>
       <c r="M305" s="1" t="s">
         <v>16</v>
@@ -10508,29 +10596,26 @@
     </row>
     <row r="306">
       <c r="A306" s="1">
-        <v>319.0</v>
+        <v>321.0</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F306" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="J306" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K306" s="5">
-        <v>44629.0</v>
+        <v>44631.041666666664</v>
       </c>
       <c r="L306" s="1">
         <f t="shared" si="17"/>
-        <v>1646784000000</v>
+        <v>1646960400000</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>16</v>
@@ -10538,26 +10623,23 @@
     </row>
     <row r="307">
       <c r="A307" s="1">
-        <v>321.0</v>
+        <v>322.0</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J307" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K307" s="5">
-        <v>44631.041666666664</v>
+        <v>44631.958333333336</v>
       </c>
       <c r="L307" s="1">
         <f t="shared" si="17"/>
-        <v>1646960400000</v>
+        <v>1647039600000</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>16</v>
@@ -10565,23 +10647,23 @@
     </row>
     <row r="308">
       <c r="A308" s="1">
-        <v>322.0</v>
+        <v>323.0</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K308" s="5">
-        <v>44631.958333333336</v>
+        <v>44632.833333333336</v>
       </c>
       <c r="L308" s="1">
         <f t="shared" si="17"/>
-        <v>1647039600000</v>
+        <v>1647115200000</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>16</v>
@@ -10589,25 +10671,448 @@
     </row>
     <row r="309">
       <c r="A309" s="1">
-        <v>323.0</v>
+        <v>324.0</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>463</v>
+        <v>300</v>
       </c>
       <c r="D309" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E309" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="K309" s="5">
-        <v>44632.833333333336</v>
+        <v>44628.041666666664</v>
       </c>
       <c r="L309" s="1">
         <f t="shared" si="17"/>
-        <v>1647115200000</v>
+        <v>1646701200000</v>
       </c>
       <c r="M309" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>325.0</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D310" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E310" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F310" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K310" s="5">
+        <v>44629.041666666664</v>
+      </c>
+      <c r="L310" s="1">
+        <f t="shared" si="17"/>
+        <v>1646787600000</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>326.0</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D311" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F311" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K311" s="5">
+        <v>44630.958333333336</v>
+      </c>
+      <c r="L311" s="1">
+        <f t="shared" si="17"/>
+        <v>1646953200000</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>327.0</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D312" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K312" s="5">
+        <v>44632.0</v>
+      </c>
+      <c r="L312" s="1">
+        <f t="shared" si="17"/>
+        <v>1647043200000</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>328.0</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D313" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J313" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K313" s="5">
+        <v>44627.083333333336</v>
+      </c>
+      <c r="L313" s="1">
+        <f t="shared" si="17"/>
+        <v>1646618400000</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>329.0</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D314" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K314" s="5">
+        <v>44629.125</v>
+      </c>
+      <c r="L314" s="1">
+        <f t="shared" si="17"/>
+        <v>1646794800000</v>
+      </c>
+      <c r="M314" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D315" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J315" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K315" s="5">
+        <v>44630.125</v>
+      </c>
+      <c r="L315" s="1">
+        <f t="shared" si="17"/>
+        <v>1646881200000</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>331.0</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D316" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F316" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J316" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K316" s="5">
+        <v>44631.041666666664</v>
+      </c>
+      <c r="L316" s="1">
+        <f t="shared" si="17"/>
+        <v>1646960400000</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>332.0</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D317" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J317" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K317" s="5">
+        <v>44631.458333333336</v>
+      </c>
+      <c r="L317" s="1">
+        <f t="shared" si="17"/>
+        <v>1646996400000</v>
+      </c>
+      <c r="M317" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>333.0</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D318" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K318" s="5">
+        <v>44632.166666666664</v>
+      </c>
+      <c r="L318" s="1">
+        <f t="shared" si="17"/>
+        <v>1647057600000</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>334.0</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D319" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J319" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K319" s="5">
+        <v>44633.5</v>
+      </c>
+      <c r="L319" s="1">
+        <f t="shared" si="17"/>
+        <v>1647172800000</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>335.0</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D320" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E320" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I320" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K320" s="5">
+        <v>44627.833333333336</v>
+      </c>
+      <c r="L320" s="1">
+        <f t="shared" si="17"/>
+        <v>1646683200000</v>
+      </c>
+      <c r="M320" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>336.0</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D321" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F321" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K321" s="5">
+        <v>44629.041666666664</v>
+      </c>
+      <c r="L321" s="1">
+        <f t="shared" si="17"/>
+        <v>1646787600000</v>
+      </c>
+      <c r="M321" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>337.0</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D322" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K322" s="5">
+        <v>44630.083333333336</v>
+      </c>
+      <c r="L322" s="1">
+        <f t="shared" si="17"/>
+        <v>1646877600000</v>
+      </c>
+      <c r="M322" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>338.0</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D323" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K323" s="5">
+        <v>44631.958333333336</v>
+      </c>
+      <c r="L323" s="1">
+        <f t="shared" si="17"/>
+        <v>1647039600000</v>
+      </c>
+      <c r="M323" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>339.0</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D324" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K324" s="5">
+        <v>44632.583333333336</v>
+      </c>
+      <c r="L324" s="1">
+        <f t="shared" si="17"/>
+        <v>1647093600000</v>
+      </c>
+      <c r="M324" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>340.0</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D325" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K325" s="5">
+        <v>44633.916666666664</v>
+      </c>
+      <c r="L325" s="1">
+        <f t="shared" si="17"/>
+        <v>1647208800000</v>
+      </c>
+      <c r="M325" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -10773,23 +11278,33 @@
     <hyperlink r:id="rId158" ref="E204"/>
     <hyperlink r:id="rId159" ref="E212"/>
     <hyperlink r:id="rId160" ref="E213"/>
-    <hyperlink r:id="rId161" ref="E219"/>
-    <hyperlink r:id="rId162" ref="E220"/>
-    <hyperlink r:id="rId163" ref="E226"/>
-    <hyperlink r:id="rId164" ref="E227"/>
-    <hyperlink r:id="rId165" ref="E234"/>
-    <hyperlink r:id="rId166" ref="E241"/>
-    <hyperlink r:id="rId167" ref="E242"/>
-    <hyperlink r:id="rId168" ref="E248"/>
-    <hyperlink r:id="rId169" ref="E254"/>
-    <hyperlink r:id="rId170" ref="E263"/>
-    <hyperlink r:id="rId171" ref="E271"/>
-    <hyperlink r:id="rId172" ref="E282"/>
-    <hyperlink r:id="rId173" ref="E291"/>
-    <hyperlink r:id="rId174" ref="E302"/>
-    <hyperlink r:id="rId175" ref="E303"/>
-    <hyperlink r:id="rId176" ref="E304"/>
+    <hyperlink r:id="rId161" ref="E214"/>
+    <hyperlink r:id="rId162" ref="E219"/>
+    <hyperlink r:id="rId163" ref="E220"/>
+    <hyperlink r:id="rId164" ref="E226"/>
+    <hyperlink r:id="rId165" ref="E227"/>
+    <hyperlink r:id="rId166" ref="E228"/>
+    <hyperlink r:id="rId167" ref="E234"/>
+    <hyperlink r:id="rId168" ref="E235"/>
+    <hyperlink r:id="rId169" ref="E241"/>
+    <hyperlink r:id="rId170" ref="E242"/>
+    <hyperlink r:id="rId171" ref="E248"/>
+    <hyperlink r:id="rId172" ref="E254"/>
+    <hyperlink r:id="rId173" ref="E263"/>
+    <hyperlink r:id="rId174" ref="E271"/>
+    <hyperlink r:id="rId175" ref="E272"/>
+    <hyperlink r:id="rId176" ref="E282"/>
+    <hyperlink r:id="rId177" ref="E283"/>
+    <hyperlink r:id="rId178" ref="E285"/>
+    <hyperlink r:id="rId179" ref="E291"/>
+    <hyperlink r:id="rId180" ref="E296"/>
+    <hyperlink r:id="rId181" ref="E302"/>
+    <hyperlink r:id="rId182" ref="E303"/>
+    <hyperlink r:id="rId183" ref="E304"/>
+    <hyperlink r:id="rId184" ref="E309"/>
+    <hyperlink r:id="rId185" ref="E310"/>
+    <hyperlink r:id="rId186" ref="E320"/>
   </hyperlinks>
-  <drawing r:id="rId177"/>
+  <drawing r:id="rId187"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\workspace\nijisanji-schedule\src\assets\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35234B7-CB32-4ED5-BC16-C330D7439722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ALL" sheetId="1" r:id="rId4"/>
+    <sheet name="ALL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="501">
   <si>
     <t>id</t>
   </si>
@@ -1093,6 +1102,9 @@
     <t>Zelda: Majora's Mask</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=BDevdzMPueQ</t>
+  </si>
+  <si>
     <t>Smash ultimate w/ Voxxy</t>
   </si>
   <si>
@@ -1144,6 +1156,9 @@
     <t>https://www.youtube.com/watch?v=8pyuWjc3Wrg</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=d6RnmTlofzQ</t>
+  </si>
+  <si>
     <t>APEX Legends with Sonny &amp; Reimu</t>
   </si>
   <si>
@@ -1207,6 +1222,9 @@
     <t>GOOSE GAME</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=qZmSCyLaX6s</t>
+  </si>
+  <si>
     <t>PORTAL 2 COOP w/ YUGO</t>
   </si>
   <si>
@@ -1345,6 +1363,9 @@
     <t>THE WALKING DEAD</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=lzhvubjSlWU</t>
+  </si>
+  <si>
     <t>MINECRAFT: NIJI WORLD SERVER</t>
   </si>
   <si>
@@ -1414,6 +1435,9 @@
     <t>Worms Armageddon w/ NIJIEN</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rFmxfK9O7lE</t>
+  </si>
+  <si>
     <t>Apex Legends w/ Fulgur &amp; Alban</t>
   </si>
   <si>
@@ -1441,6 +1465,9 @@
     <t>DON'T STARVE TGT W/ LAZASYDIA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=7CQzWM9-ykI</t>
+  </si>
+  <si>
     <t>TWISTED WONDERLAND W/ ELIRA</t>
   </si>
   <si>
@@ -1475,59 +1502,105 @@
   </si>
   <si>
     <t>TBD!! - something</t>
+  </si>
+  <si>
+    <t>Big Brain Academy</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>Hades</t>
+  </si>
+  <si>
+    <t>Aloupeep Clay Painting</t>
+  </si>
+  <si>
+    <t>Collab w/ Millie</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TuXFqqI6NnU</t>
+  </si>
+  <si>
+    <t>WINE PARTY~ THANK YOU FOR 250,000 SUBSCRIBERS!</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="yyyy/mm/dd h:mm"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm"/>
-    <numFmt numFmtId="167" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd&quot; &quot;h&quot;:&quot;mm"/>
-    <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="179" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd&quot; &quot;h&quot;:&quot;mm"/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d\ am/pm\ h:mm:ss"/>
+    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1535,7 +1608,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1551,113 +1624,95 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1847,38 +1902,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AF332"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F310" sqref="F310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.29"/>
-    <col customWidth="1" min="2" max="2" width="10.0"/>
-    <col customWidth="1" min="3" max="3" width="43.0"/>
-    <col customWidth="1" min="4" max="4" width="10.71"/>
-    <col customWidth="1" min="5" max="5" width="8.0"/>
-    <col customWidth="1" min="6" max="6" width="9.14"/>
-    <col customWidth="1" min="7" max="7" width="9.71"/>
-    <col customWidth="1" min="8" max="8" width="11.29"/>
-    <col customWidth="1" min="9" max="9" width="8.86"/>
-    <col customWidth="1" min="10" max="10" width="7.86"/>
-    <col customWidth="1" min="11" max="11" width="20.71"/>
-    <col customWidth="1" min="12" max="12" width="14.71"/>
-    <col customWidth="1" min="13" max="13" width="8.0"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1919,9 +1977,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -1946,17 +2004,17 @@
         <v>44612.541666666664</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L12" si="1">(K2-Date(1970,1,1))*86400*1000</f>
-        <v>1645362000000</v>
+        <f t="shared" ref="L2:L12" si="0">(K2-DATE(1970,1,1))*86400*1000</f>
+        <v>1645361999999.9998</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" hidden="1">
+    <row r="3" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1981,17 +2039,17 @@
         <v>44612.666666666664</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="1"/>
-        <v>1645372800000</v>
+        <f t="shared" si="0"/>
+        <v>1645372799999.9998</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" hidden="1">
+    <row r="4" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2016,17 +2074,17 @@
         <v>44613.541666666664</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="1"/>
-        <v>1645448400000</v>
+        <f t="shared" si="0"/>
+        <v>1645448399999.9998</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" hidden="1">
+    <row r="5" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -2051,17 +2109,17 @@
         <v>44614.583333333336</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="1"/>
-        <v>1645538400000</v>
+        <f t="shared" si="0"/>
+        <v>1645538400000.0002</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" hidden="1">
+    <row r="6" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2086,17 +2144,17 @@
         <v>44615.541666666664</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="1"/>
-        <v>1645621200000</v>
+        <f t="shared" si="0"/>
+        <v>1645621199999.9998</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" hidden="1">
+    <row r="7" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -2121,17 +2179,17 @@
         <v>44616.541666666664</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="1"/>
-        <v>1645707600000</v>
+        <f t="shared" si="0"/>
+        <v>1645707599999.9998</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" hidden="1">
+    <row r="8" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2156,17 +2214,17 @@
         <v>44617.541666666664</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="1"/>
-        <v>1645794000000</v>
+        <f t="shared" si="0"/>
+        <v>1645793999999.9998</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" hidden="1">
+    <row r="9" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -2191,7 +2249,7 @@
         <v>44611.75</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1645293600000</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2199,9 +2257,9 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" hidden="1">
+    <row r="10" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -2226,7 +2284,7 @@
         <v>44612.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1645358400000</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2234,9 +2292,9 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" hidden="1">
+    <row r="11" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2261,17 +2319,17 @@
         <v>44614.791666666664</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="1"/>
-        <v>1645556400000</v>
+        <f t="shared" si="0"/>
+        <v>1645556399999.9998</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" hidden="1">
+    <row r="12" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -2296,17 +2354,17 @@
         <v>44615.708333333336</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="1"/>
-        <v>1645635600000</v>
+        <f t="shared" si="0"/>
+        <v>1645635600000.0002</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" hidden="1">
+    <row r="13" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2316,13 +2374,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="M13" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" hidden="1">
+    <row r="14" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -2332,13 +2390,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="M14" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" hidden="1">
+    <row r="15" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -2363,17 +2421,17 @@
         <v>44617.666666666664</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15:L16" si="2">(K15-Date(1970,1,1))*86400*1000</f>
-        <v>1645804800000</v>
+        <f t="shared" ref="L15:L16" si="1">(K15-DATE(1970,1,1))*86400*1000</f>
+        <v>1645804799999.9998</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" hidden="1">
+    <row r="16" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -2398,17 +2456,17 @@
         <v>44618.541666666664</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="2"/>
-        <v>1645880400000</v>
+        <f t="shared" si="1"/>
+        <v>1645880399999.9998</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" hidden="1">
+    <row r="17" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -2418,13 +2476,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="M17" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" hidden="1">
+    <row r="18" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -2449,17 +2507,17 @@
         <v>44619.083333333336</v>
       </c>
       <c r="L18" s="1">
-        <f>(K18-Date(1970,1,1))*86400*1000</f>
-        <v>1645927200000</v>
+        <f>(K18-DATE(1970,1,1))*86400*1000</f>
+        <v>1645927200000.0002</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" hidden="1">
+    <row r="19" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -2469,13 +2527,13 @@
       </c>
       <c r="F19" s="1"/>
       <c r="M19" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" hidden="1">
+    <row r="20" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -2500,17 +2558,17 @@
         <v>44614.166666666664</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L23" si="3">(K20-Date(1970,1,1))*86400*1000</f>
-        <v>1645502400000</v>
+        <f t="shared" ref="L20:L23" si="2">(K20-DATE(1970,1,1))*86400*1000</f>
+        <v>1645502399999.9998</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" hidden="1">
+    <row r="21" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
@@ -2535,17 +2593,17 @@
         <v>44615.166666666664</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="3"/>
-        <v>1645588800000</v>
+        <f t="shared" si="2"/>
+        <v>1645588799999.9998</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" hidden="1">
+    <row r="22" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -2570,17 +2628,17 @@
         <v>44616.041666666664</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="3"/>
-        <v>1645664400000</v>
+        <f t="shared" si="2"/>
+        <v>1645664399999.9998</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" hidden="1">
+    <row r="23" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -2605,17 +2663,17 @@
         <v>44617.041666666664</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="3"/>
-        <v>1645750800000</v>
+        <f t="shared" si="2"/>
+        <v>1645750799999.9998</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" hidden="1">
+    <row r="24" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
@@ -2625,13 +2683,13 @@
       </c>
       <c r="F24" s="1"/>
       <c r="M24" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" hidden="1">
+    <row r="25" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -2641,13 +2699,13 @@
       </c>
       <c r="F25" s="1"/>
       <c r="M25" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" hidden="1">
+    <row r="26" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -2672,7 +2730,7 @@
         <v>44618.125</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26:L35" si="4">(K26-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L26:L35" si="3">(K26-DATE(1970,1,1))*86400*1000</f>
         <v>1645844400000</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2680,9 +2738,9 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" hidden="1">
+    <row r="27" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -2707,17 +2765,17 @@
         <v>44612.666666666664</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="4"/>
-        <v>1645372800000</v>
+        <f t="shared" si="3"/>
+        <v>1645372799999.9998</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" hidden="1">
+    <row r="28" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
@@ -2742,7 +2800,7 @@
         <v>44614.5</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1645531200000</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -2750,9 +2808,9 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" hidden="1">
+    <row r="29" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>56</v>
@@ -2777,7 +2835,7 @@
         <v>44615.5</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1645617600000</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -2785,9 +2843,9 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>56</v>
@@ -2812,17 +2870,17 @@
         <v>44616.791666666664</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="4"/>
-        <v>1645729200000</v>
+        <f t="shared" si="3"/>
+        <v>1645729199999.9998</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>56</v>
@@ -2847,7 +2905,7 @@
         <v>44617.5</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1645790400000</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -2855,9 +2913,9 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
@@ -2882,7 +2940,7 @@
         <v>44618.5</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1645876800000</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -2890,9 +2948,9 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>67</v>
@@ -2917,17 +2975,17 @@
         <v>44612.666666666664</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="4"/>
-        <v>1645372800000</v>
+        <f t="shared" si="3"/>
+        <v>1645372799999.9998</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" hidden="1">
+    <row r="34" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>67</v>
@@ -2952,17 +3010,17 @@
         <v>44614.958333333336</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="4"/>
-        <v>1645570800000</v>
+        <f t="shared" si="3"/>
+        <v>1645570800000.0002</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" hidden="1">
+    <row r="35" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
@@ -2981,17 +3039,17 @@
         <v>44615.833333333336</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="4"/>
-        <v>1645646400000</v>
+        <f t="shared" si="3"/>
+        <v>1645646400000.0002</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" hidden="1">
+    <row r="36" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -3001,13 +3059,13 @@
       </c>
       <c r="F36" s="1"/>
       <c r="M36" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" hidden="1">
+    <row r="37" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
@@ -3032,17 +3090,17 @@
         <v>44617.833333333336</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" ref="L37:L98" si="5">(K37-Date(1970,1,1))*86400*1000</f>
-        <v>1645819200000</v>
+        <f t="shared" ref="L37:L98" si="4">(K37-DATE(1970,1,1))*86400*1000</f>
+        <v>1645819200000.0002</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" hidden="1">
+    <row r="38" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>67</v>
@@ -3067,7 +3125,7 @@
         <v>44618.125</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1645844400000</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -3075,9 +3133,9 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" hidden="1">
+    <row r="39" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>67</v>
@@ -3102,17 +3160,17 @@
         <v>44619.833333333336</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="5"/>
-        <v>1645992000000</v>
+        <f t="shared" si="4"/>
+        <v>1645992000000.0002</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" hidden="1">
+    <row r="40" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>44</v>
@@ -3137,17 +3195,17 @@
         <v>44619.291666666664</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="5"/>
-        <v>1645945200000</v>
+        <f t="shared" si="4"/>
+        <v>1645945199999.9998</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" hidden="1">
+    <row r="41" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>79</v>
@@ -3169,10 +3227,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>44620.0</v>
+        <v>44620</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646006400000</v>
       </c>
       <c r="M41" s="9" t="s">
@@ -3198,9 +3256,9 @@
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
     </row>
-    <row r="42" hidden="1">
+    <row r="42" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>79</v>
@@ -3223,17 +3281,17 @@
         <v>44621.083333333336</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="5"/>
-        <v>1646100000000</v>
+        <f t="shared" si="4"/>
+        <v>1646100000000.0002</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" hidden="1">
+    <row r="43" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>79</v>
@@ -3253,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646179200000</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -3264,9 +3322,9 @@
       </c>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" hidden="1">
+    <row r="44" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>79</v>
@@ -3286,10 +3344,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="5">
-        <v>44623.0</v>
+        <v>44623</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646265600000</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -3297,9 +3355,9 @@
       </c>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" hidden="1">
+    <row r="45" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>79</v>
@@ -3319,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="5">
-        <v>44624.0</v>
+        <v>44624</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646352000000</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -3330,9 +3388,9 @@
       </c>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" hidden="1">
+    <row r="46" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>79</v>
@@ -3350,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>44625.0</v>
+        <v>44625</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646438400000</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3361,9 +3419,9 @@
       </c>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" hidden="1">
+    <row r="47" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>79</v>
@@ -3384,17 +3442,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="5"/>
-        <v>1646532000000</v>
+        <f t="shared" si="4"/>
+        <v>1646532000000.0002</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" hidden="1">
+    <row r="48" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>94</v>
@@ -3417,17 +3475,17 @@
         <v>44620.083333333336</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="5"/>
-        <v>1646013600000</v>
+        <f t="shared" si="4"/>
+        <v>1646013600000.0002</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" hidden="1">
+    <row r="49" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>94</v>
@@ -3450,17 +3508,17 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="5"/>
-        <v>1646107200000</v>
+        <f t="shared" si="4"/>
+        <v>1646107199999.9998</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" hidden="1">
+    <row r="50" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>94</v>
@@ -3483,17 +3541,17 @@
         <v>44622.083333333336</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="5"/>
-        <v>1646186400000</v>
+        <f t="shared" si="4"/>
+        <v>1646186400000.0002</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" hidden="1">
+    <row r="51" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>94</v>
@@ -3516,17 +3574,17 @@
         <v>44623.208333333336</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="5"/>
-        <v>1646283600000</v>
+        <f t="shared" si="4"/>
+        <v>1646283600000.0002</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" hidden="1">
+    <row r="52" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
@@ -3549,17 +3607,17 @@
         <v>44624.333333333336</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="5"/>
-        <v>1646380800000</v>
+        <f t="shared" si="4"/>
+        <v>1646380800000.0002</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" hidden="1">
+    <row r="53" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>94</v>
@@ -3580,17 +3638,17 @@
         <v>44625.333333333336</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="5"/>
-        <v>1646467200000</v>
+        <f t="shared" si="4"/>
+        <v>1646467200000.0002</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" hidden="1">
+    <row r="54" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>94</v>
@@ -3611,17 +3669,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="5"/>
-        <v>1646532000000</v>
+        <f t="shared" si="4"/>
+        <v>1646532000000.0002</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" hidden="1">
+    <row r="55" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>13</v>
@@ -3644,17 +3702,17 @@
         <v>44619.583333333336</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="5"/>
-        <v>1645970400000</v>
+        <f t="shared" si="4"/>
+        <v>1645970400000.0002</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" hidden="1">
+    <row r="56" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
@@ -3677,17 +3735,17 @@
         <v>44620.583333333336</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="5"/>
-        <v>1646056800000</v>
+        <f t="shared" si="4"/>
+        <v>1646056800000.0002</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" hidden="1">
+    <row r="57" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
@@ -3710,17 +3768,17 @@
         <v>44621.541666666664</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="5"/>
-        <v>1646139600000</v>
+        <f t="shared" si="4"/>
+        <v>1646139599999.9998</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" hidden="1">
+    <row r="58" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -3743,17 +3801,17 @@
         <v>44622.583333333336</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="5"/>
-        <v>1646229600000</v>
+        <f t="shared" si="4"/>
+        <v>1646229600000.0002</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" hidden="1">
+    <row r="59" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>13</v>
@@ -3777,7 +3835,7 @@
         <v>44624.5</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646395200000</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -3785,9 +3843,9 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" hidden="1">
+    <row r="60" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>13</v>
@@ -3808,17 +3866,17 @@
         <v>44624.541666666664</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="5"/>
-        <v>1646398800000</v>
+        <f t="shared" si="4"/>
+        <v>1646398799999.9998</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" hidden="1">
+    <row r="61" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>13</v>
@@ -3843,17 +3901,17 @@
         <v>44623.541666666664</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="5"/>
-        <v>1646312400000</v>
+        <f t="shared" si="4"/>
+        <v>1646312399999.9998</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" hidden="1">
+    <row r="62" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>29</v>
@@ -3876,7 +3934,7 @@
         <v>44620.5</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646049600000</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -3884,9 +3942,9 @@
       </c>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" hidden="1">
+    <row r="63" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>29</v>
@@ -3909,17 +3967,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="5"/>
-        <v>1646172000000</v>
+        <f t="shared" si="4"/>
+        <v>1646171999999.9998</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" hidden="1">
+    <row r="64" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>29</v>
@@ -3942,7 +4000,7 @@
         <v>44622.625</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646233200000</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -3950,9 +4008,9 @@
       </c>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" hidden="1">
+    <row r="65" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>29</v>
@@ -3976,7 +4034,7 @@
         <v>44624.875</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646427600000</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -3984,9 +4042,9 @@
       </c>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" hidden="1">
+    <row r="66" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>29</v>
@@ -4007,7 +4065,7 @@
         <v>44625.625</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646492400000</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -4015,9 +4073,9 @@
       </c>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" hidden="1">
+    <row r="67" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>29</v>
@@ -4038,17 +4096,17 @@
         <v>44626.583333333336</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="5"/>
-        <v>1646575200000</v>
+        <f t="shared" si="4"/>
+        <v>1646575200000.0002</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" hidden="1">
+    <row r="68" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>13</v>
@@ -4071,17 +4129,17 @@
         <v>44620.416666666664</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="5"/>
-        <v>1646042400000</v>
+        <f t="shared" si="4"/>
+        <v>1646042399999.9998</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" hidden="1">
+    <row r="69" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
@@ -4104,7 +4162,7 @@
         <v>44621.125</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646103600000</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -4112,9 +4170,9 @@
       </c>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" hidden="1">
+    <row r="70" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>67</v>
@@ -4134,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="5">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646179200000</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -4145,9 +4203,9 @@
       </c>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" hidden="1">
+    <row r="71" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
@@ -4167,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="K71" s="5">
-        <v>44623.0</v>
+        <v>44623</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646265600000</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -4178,9 +4236,9 @@
       </c>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" hidden="1">
+    <row r="72" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>67</v>
@@ -4201,17 +4259,17 @@
         <v>44623.791666666664</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="5"/>
-        <v>1646334000000</v>
+        <f t="shared" si="4"/>
+        <v>1646333999999.9998</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" hidden="1">
+    <row r="73" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>67</v>
@@ -4232,17 +4290,17 @@
         <v>44625.583333333336</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="5"/>
-        <v>1646488800000</v>
+        <f t="shared" si="4"/>
+        <v>1646488800000.0002</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" hidden="1">
+    <row r="74" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>67</v>
@@ -4263,17 +4321,17 @@
         <v>44627.041666666664</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="5"/>
-        <v>1646614800000</v>
+        <f t="shared" si="4"/>
+        <v>1646614799999.9998</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" hidden="1">
+    <row r="75" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>147</v>
@@ -4296,7 +4354,7 @@
         <v>44620.875</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646082000000</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -4304,9 +4362,9 @@
       </c>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" hidden="1">
+    <row r="76" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>147</v>
@@ -4329,17 +4387,17 @@
         <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="5"/>
-        <v>1646272800000</v>
+        <f t="shared" si="4"/>
+        <v>1646272800000.0002</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" hidden="1">
+    <row r="77" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>147</v>
@@ -4360,17 +4418,17 @@
         <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="5"/>
-        <v>1646355600000</v>
+        <f t="shared" si="4"/>
+        <v>1646355599999.9998</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" hidden="1">
+    <row r="78" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>147</v>
@@ -4391,7 +4449,7 @@
         <v>44624.875</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646427600000</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -4399,9 +4457,9 @@
       </c>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" hidden="1">
+    <row r="79" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>147</v>
@@ -4422,7 +4480,7 @@
         <v>44625.875</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646514000000</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -4430,9 +4488,9 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" hidden="1">
+    <row r="80" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>158</v>
@@ -4455,7 +4513,7 @@
         <v>44620.75</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646071200000</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -4463,9 +4521,9 @@
       </c>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" hidden="1">
+    <row r="81" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>161</v>
@@ -4488,7 +4546,7 @@
         <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646055000000</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -4496,9 +4554,9 @@
       </c>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" hidden="1">
+    <row r="82" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>161</v>
@@ -4521,7 +4579,7 @@
         <v>44621.5625</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646141400000</v>
       </c>
       <c r="M82" s="1" t="s">
@@ -4529,9 +4587,9 @@
       </c>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" hidden="1">
+    <row r="83" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>161</v>
@@ -4549,17 +4607,17 @@
         <v>44622.552083333336</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="5"/>
-        <v>1646226900000</v>
+        <f t="shared" si="4"/>
+        <v>1646226900000.0002</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" hidden="1">
+    <row r="84" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>161</v>
@@ -4582,7 +4640,7 @@
         <v>44623.21875</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646284500000</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -4590,9 +4648,9 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" hidden="1">
+    <row r="85" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>161</v>
@@ -4613,17 +4671,17 @@
         <v>44624.604166666664</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="5"/>
-        <v>1646404200000</v>
+        <f t="shared" si="4"/>
+        <v>1646404199999.9998</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" hidden="1">
+    <row r="86" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>161</v>
@@ -4644,17 +4702,17 @@
         <v>44625.416666666664</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="5"/>
-        <v>1646474400000</v>
+        <f t="shared" si="4"/>
+        <v>1646474399999.9998</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" hidden="1">
+    <row r="87" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>161</v>
@@ -4675,17 +4733,17 @@
         <v>44626.708333333336</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="5"/>
-        <v>1646586000000</v>
+        <f t="shared" si="4"/>
+        <v>1646586000000.0002</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" hidden="1">
+    <row r="88" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>173</v>
@@ -4708,17 +4766,17 @@
         <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="5"/>
-        <v>1646089200000</v>
+        <f t="shared" si="4"/>
+        <v>1646089200000.0002</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" hidden="1">
+    <row r="89" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>173</v>
@@ -4738,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="17">
-        <v>44622.0</v>
+        <v>44622</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646179200000</v>
       </c>
       <c r="M89" s="1" t="s">
@@ -4749,9 +4807,9 @@
       </c>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" hidden="1">
+    <row r="90" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>173</v>
@@ -4774,17 +4832,17 @@
         <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="5"/>
-        <v>1646272800000</v>
+        <f t="shared" si="4"/>
+        <v>1646272800000.0002</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" hidden="1">
+    <row r="91" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>173</v>
@@ -4805,17 +4863,17 @@
         <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="5"/>
-        <v>1646445600000</v>
+        <f t="shared" si="4"/>
+        <v>1646445600000.0002</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" hidden="1">
+    <row r="92" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>173</v>
@@ -4837,17 +4895,17 @@
         <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="5"/>
-        <v>1646510400000</v>
+        <f t="shared" si="4"/>
+        <v>1646510400000.0002</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" hidden="1">
+    <row r="93" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>183</v>
@@ -4870,7 +4928,7 @@
         <v>44620.875</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646082000000</v>
       </c>
       <c r="M93" s="1" t="s">
@@ -4878,9 +4936,9 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" hidden="1">
+    <row r="94" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>183</v>
@@ -4903,7 +4961,7 @@
         <v>44621.875</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646168400000</v>
       </c>
       <c r="M94" s="1" t="s">
@@ -4911,9 +4969,9 @@
       </c>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" hidden="1">
+    <row r="95" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>183</v>
@@ -4936,7 +4994,7 @@
         <v>44622.875</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646254800000</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -4944,9 +5002,9 @@
       </c>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" hidden="1">
+    <row r="96" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>183</v>
@@ -4967,7 +5025,7 @@
         <v>44623.875</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646341200000</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -4975,9 +5033,9 @@
       </c>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" hidden="1">
+    <row r="97" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>183</v>
@@ -4998,17 +5056,17 @@
         <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="5"/>
-        <v>1646434800000</v>
+        <f t="shared" si="4"/>
+        <v>1646434800000.0002</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" hidden="1">
+    <row r="98" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>183</v>
@@ -5029,7 +5087,7 @@
         <v>44625.875</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1646514000000</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -5037,9 +5095,9 @@
       </c>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" hidden="1">
+    <row r="99" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>119.0</v>
+        <v>119</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>29</v>
@@ -5048,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" hidden="1">
+    <row r="100" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>173</v>
@@ -5063,13 +5121,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" hidden="1">
+    <row r="101" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>196</v>
@@ -5078,13 +5136,13 @@
         <v>0</v>
       </c>
       <c r="M101" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" hidden="1">
+    <row r="102" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>197</v>
@@ -5093,13 +5151,13 @@
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" hidden="1">
+    <row r="103" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>123.0</v>
+        <v>123</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>158</v>
@@ -5122,17 +5180,17 @@
         <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" ref="L103:L109" si="6">(K103-Date(1970,1,1))*86400*1000</f>
-        <v>1646100000000</v>
+        <f t="shared" ref="L103:L109" si="5">(K103-DATE(1970,1,1))*86400*1000</f>
+        <v>1646100000000.0002</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" hidden="1">
+    <row r="104" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>158</v>
@@ -5155,7 +5213,7 @@
         <v>44621.875</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1646168400000</v>
       </c>
       <c r="M104" s="1" t="s">
@@ -5163,9 +5221,9 @@
       </c>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" hidden="1">
+    <row r="105" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>158</v>
@@ -5188,7 +5246,7 @@
         <v>44622.125</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1646190000000</v>
       </c>
       <c r="M105" s="1" t="s">
@@ -5196,9 +5254,9 @@
       </c>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" hidden="1">
+    <row r="106" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>158</v>
@@ -5221,17 +5279,17 @@
         <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="6"/>
-        <v>1646334000000</v>
+        <f t="shared" si="5"/>
+        <v>1646333999999.9998</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" hidden="1">
+    <row r="107" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>158</v>
@@ -5255,7 +5313,7 @@
         <v>44624.875</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1646427600000</v>
       </c>
       <c r="M107" s="1" t="s">
@@ -5263,9 +5321,9 @@
       </c>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" hidden="1">
+    <row r="108" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>158</v>
@@ -5286,7 +5344,7 @@
         <v>44625.125</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1646449200000</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -5294,9 +5352,9 @@
       </c>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" hidden="1">
+    <row r="109" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>129.0</v>
+        <v>129</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>158</v>
@@ -5314,10 +5372,10 @@
         <v>0</v>
       </c>
       <c r="K109" s="17">
-        <v>44626.0</v>
+        <v>44626</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1646524800000</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -5325,9 +5383,9 @@
       </c>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" hidden="1">
+    <row r="110" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>13</v>
@@ -5336,13 +5394,13 @@
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" hidden="1">
+    <row r="111" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>212</v>
@@ -5351,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" hidden="1">
+    <row r="112" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>213</v>
@@ -5366,13 +5424,13 @@
         <v>0</v>
       </c>
       <c r="M112" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" hidden="1">
+    <row r="113" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>214</v>
@@ -5381,13 +5439,13 @@
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" hidden="1">
+    <row r="114" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>215</v>
@@ -5396,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="M114" s="1">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" hidden="1">
+    <row r="115" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>216</v>
@@ -5425,17 +5483,17 @@
         <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" ref="L115:L123" si="7">(K115-Date(1970,1,1))*86400*1000</f>
-        <v>1646096400000</v>
+        <f t="shared" ref="L115:L123" si="6">(K115-DATE(1970,1,1))*86400*1000</f>
+        <v>1646096399999.9998</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" hidden="1">
+    <row r="116" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>196</v>
@@ -5458,7 +5516,7 @@
         <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1646087400000</v>
       </c>
       <c r="M116" s="1" t="s">
@@ -5466,9 +5524,9 @@
       </c>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" hidden="1">
+    <row r="117" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>196</v>
@@ -5491,17 +5549,17 @@
         <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
-        <f t="shared" si="7"/>
-        <v>1646105400000</v>
+        <f t="shared" si="6"/>
+        <v>1646105400000.0002</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" hidden="1">
+    <row r="118" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>196</v>
@@ -5524,17 +5582,17 @@
         <v>44622.083333333336</v>
       </c>
       <c r="L118" s="1">
-        <f t="shared" si="7"/>
-        <v>1646186400000</v>
+        <f t="shared" si="6"/>
+        <v>1646186400000.0002</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" hidden="1">
+    <row r="119" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>196</v>
@@ -5557,17 +5615,17 @@
         <v>44622.833333333336</v>
       </c>
       <c r="L119" s="1">
-        <f t="shared" si="7"/>
-        <v>1646251200000</v>
+        <f t="shared" si="6"/>
+        <v>1646251200000.0002</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" hidden="1">
+    <row r="120" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>196</v>
@@ -5585,17 +5643,17 @@
         <v>44623.833333333336</v>
       </c>
       <c r="L120" s="1">
-        <f t="shared" si="7"/>
-        <v>1646337600000</v>
+        <f t="shared" si="6"/>
+        <v>1646337600000.0002</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" hidden="1">
+    <row r="121" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>196</v>
@@ -5616,17 +5674,17 @@
         <v>44625.083333333336</v>
       </c>
       <c r="L121" s="1">
-        <f t="shared" si="7"/>
-        <v>1646445600000</v>
+        <f t="shared" si="6"/>
+        <v>1646445600000.0002</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" hidden="1">
+    <row r="122" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>196</v>
@@ -5647,17 +5705,17 @@
         <v>44625.416666666664</v>
       </c>
       <c r="L122" s="1">
-        <f t="shared" si="7"/>
-        <v>1646474400000</v>
+        <f t="shared" si="6"/>
+        <v>1646474399999.9998</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" hidden="1">
+    <row r="123" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>143.0</v>
+        <v>143</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>196</v>
@@ -5675,10 +5733,10 @@
         <v>0</v>
       </c>
       <c r="K123" s="17">
-        <v>44626.0</v>
+        <v>44626</v>
       </c>
       <c r="L123" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1646524800000</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -5686,9 +5744,9 @@
       </c>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" hidden="1">
+    <row r="124" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>232</v>
@@ -5697,13 +5755,13 @@
         <v>0</v>
       </c>
       <c r="M124" s="1">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" hidden="1">
+    <row r="125" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>233</v>
@@ -5712,13 +5770,13 @@
         <v>0</v>
       </c>
       <c r="M125" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" hidden="1">
+    <row r="126" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>234</v>
@@ -5727,13 +5785,13 @@
         <v>0</v>
       </c>
       <c r="M126" s="1">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" hidden="1">
+    <row r="127" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>235</v>
@@ -5751,17 +5809,17 @@
         <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
-        <f t="shared" ref="L127:L133" si="8">(K127-Date(1970,1,1))*86400*1000</f>
-        <v>1646064000000</v>
+        <f t="shared" ref="L127:L133" si="7">(K127-DATE(1970,1,1))*86400*1000</f>
+        <v>1646063999999.9998</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" hidden="1">
+    <row r="128" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>235</v>
@@ -5784,7 +5842,7 @@
         <v>44622.625</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1646233200000</v>
       </c>
       <c r="M128" s="1" t="s">
@@ -5792,9 +5850,9 @@
       </c>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" hidden="1">
+    <row r="129" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>149.0</v>
+        <v>149</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>235</v>
@@ -5817,17 +5875,17 @@
         <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="8"/>
-        <v>1646326800000</v>
+        <f t="shared" si="7"/>
+        <v>1646326800000.0002</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" hidden="1">
+    <row r="130" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>235</v>
@@ -5848,17 +5906,17 @@
         <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" si="8"/>
-        <v>1646413200000</v>
+        <f t="shared" si="7"/>
+        <v>1646413200000.0002</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" hidden="1">
+    <row r="131" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>235</v>
@@ -5879,7 +5937,7 @@
         <v>44625.125</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1646449200000</v>
       </c>
       <c r="M131" s="1" t="s">
@@ -5887,9 +5945,9 @@
       </c>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" hidden="1">
+    <row r="132" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>235</v>
@@ -5910,7 +5968,7 @@
         <v>44625.71875</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1646500500000</v>
       </c>
       <c r="M132" s="1" t="s">
@@ -5918,9 +5976,9 @@
       </c>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" hidden="1">
+    <row r="133" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>235</v>
@@ -5941,7 +5999,7 @@
         <v>44626.5</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1646568000000</v>
       </c>
       <c r="M133" s="1" t="s">
@@ -5949,9 +6007,9 @@
       </c>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" hidden="1">
+    <row r="134" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>154.0</v>
+        <v>154</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>213</v>
@@ -5960,13 +6018,13 @@
         <v>0</v>
       </c>
       <c r="M134" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" hidden="1">
+    <row r="135" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>248</v>
@@ -5975,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="M135" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" hidden="1">
+    <row r="136" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>214</v>
@@ -5990,13 +6048,13 @@
         <v>0</v>
       </c>
       <c r="M136" s="1">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" hidden="1">
+    <row r="137" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>157.0</v>
+        <v>157</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>249</v>
@@ -6005,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="M137" s="1">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" hidden="1">
+    <row r="138" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>213</v>
@@ -6020,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="M138" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" hidden="1">
+    <row r="139" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>234</v>
@@ -6035,13 +6093,13 @@
         <v>0</v>
       </c>
       <c r="M139" s="1">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" hidden="1">
+    <row r="140" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>13</v>
@@ -6050,13 +6108,13 @@
         <v>0</v>
       </c>
       <c r="M140" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" hidden="1">
+    <row r="141" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>161.0</v>
+        <v>161</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>250</v>
@@ -6079,17 +6137,17 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" ref="L141:L161" si="9">(K141-Date(1970,1,1))*86400*1000</f>
-        <v>1646107200000</v>
+        <f t="shared" ref="L141:L161" si="8">(K141-DATE(1970,1,1))*86400*1000</f>
+        <v>1646107199999.9998</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" hidden="1">
+    <row r="142" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>250</v>
@@ -6112,17 +6170,17 @@
         <v>44622.166666666664</v>
       </c>
       <c r="L142" s="1">
-        <f t="shared" si="9"/>
-        <v>1646193600000</v>
+        <f t="shared" si="8"/>
+        <v>1646193599999.9998</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" hidden="1">
+    <row r="143" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>250</v>
@@ -6145,17 +6203,17 @@
         <v>44623.166666666664</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="9"/>
-        <v>1646280000000</v>
+        <f t="shared" si="8"/>
+        <v>1646279999999.9998</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" hidden="1">
+    <row r="144" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>164.0</v>
+        <v>164</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>250</v>
@@ -6176,7 +6234,7 @@
         <v>44624.125</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646362800000</v>
       </c>
       <c r="M144" s="1" t="s">
@@ -6184,9 +6242,9 @@
       </c>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" hidden="1">
+    <row r="145" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>250</v>
@@ -6207,7 +6265,7 @@
         <v>44625.125</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646449200000</v>
       </c>
       <c r="M145" s="1" t="s">
@@ -6215,9 +6273,9 @@
       </c>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" hidden="1">
+    <row r="146" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>250</v>
@@ -6238,17 +6296,17 @@
         <v>44625.458333333336</v>
       </c>
       <c r="L146" s="1">
-        <f t="shared" si="9"/>
-        <v>1646478000000</v>
+        <f t="shared" si="8"/>
+        <v>1646478000000.0002</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" hidden="1">
+    <row r="147" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>250</v>
@@ -6266,7 +6324,7 @@
         <v>44626.125</v>
       </c>
       <c r="L147" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646535600000</v>
       </c>
       <c r="M147" s="1" t="s">
@@ -6274,9 +6332,9 @@
       </c>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" hidden="1">
+    <row r="148" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>250</v>
@@ -6297,7 +6355,7 @@
         <v>44626.5</v>
       </c>
       <c r="L148" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646568000000</v>
       </c>
       <c r="M148" s="1" t="s">
@@ -6305,9 +6363,9 @@
       </c>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" hidden="1">
+    <row r="149" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>44</v>
@@ -6330,17 +6388,17 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
-        <f t="shared" si="9"/>
-        <v>1646107200000</v>
+        <f t="shared" si="8"/>
+        <v>1646107199999.9998</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" hidden="1">
+    <row r="150" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>44</v>
@@ -6363,17 +6421,17 @@
         <v>44622.166666666664</v>
       </c>
       <c r="L150" s="1">
-        <f t="shared" si="9"/>
-        <v>1646193600000</v>
+        <f t="shared" si="8"/>
+        <v>1646193599999.9998</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" hidden="1">
+    <row r="151" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>44</v>
@@ -6396,17 +6454,17 @@
         <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
-        <f t="shared" si="9"/>
-        <v>1646272800000</v>
+        <f t="shared" si="8"/>
+        <v>1646272800000.0002</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" hidden="1">
+    <row r="152" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>172.0</v>
+        <v>172</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>44</v>
@@ -6427,17 +6485,17 @@
         <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
-        <f t="shared" si="9"/>
-        <v>1646359200000</v>
+        <f t="shared" si="8"/>
+        <v>1646359200000.0002</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" hidden="1">
+    <row r="153" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>44</v>
@@ -6458,7 +6516,7 @@
         <v>44624.5</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646395200000</v>
       </c>
       <c r="M153" s="1" t="s">
@@ -6466,9 +6524,9 @@
       </c>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" hidden="1">
+    <row r="154" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>44</v>
@@ -6489,17 +6547,17 @@
         <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
-        <f t="shared" si="9"/>
-        <v>1646452800000</v>
+        <f t="shared" si="8"/>
+        <v>1646452799999.9998</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" hidden="1">
+    <row r="155" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>44</v>
@@ -6523,7 +6581,7 @@
         <v>44626.25</v>
       </c>
       <c r="L155" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646546400000</v>
       </c>
       <c r="M155" s="1" t="s">
@@ -6531,9 +6589,9 @@
       </c>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" hidden="1">
+    <row r="156" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>56</v>
@@ -6556,7 +6614,7 @@
         <v>44621.5</v>
       </c>
       <c r="L156" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646136000000</v>
       </c>
       <c r="M156" s="1" t="s">
@@ -6564,9 +6622,9 @@
       </c>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" hidden="1">
+    <row r="157" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>56</v>
@@ -6589,7 +6647,7 @@
         <v>44622.5</v>
       </c>
       <c r="L157" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646222400000</v>
       </c>
       <c r="M157" s="1" t="s">
@@ -6597,9 +6655,9 @@
       </c>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" hidden="1">
+    <row r="158" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>178.0</v>
+        <v>178</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>56</v>
@@ -6622,17 +6680,17 @@
         <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="9"/>
-        <v>1646305200000</v>
+        <f t="shared" si="8"/>
+        <v>1646305200000.0002</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" hidden="1">
+    <row r="159" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>179.0</v>
+        <v>179</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>56</v>
@@ -6653,17 +6711,17 @@
         <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
-        <f t="shared" si="9"/>
-        <v>1646391600000</v>
+        <f t="shared" si="8"/>
+        <v>1646391600000.0002</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" hidden="1">
+    <row r="160" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>56</v>
@@ -6687,17 +6745,17 @@
         <v>44625.416666666664</v>
       </c>
       <c r="L160" s="1">
-        <f t="shared" si="9"/>
-        <v>1646474400000</v>
+        <f t="shared" si="8"/>
+        <v>1646474399999.9998</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" hidden="1">
+    <row r="161" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>56</v>
@@ -6718,7 +6776,7 @@
         <v>44626.5</v>
       </c>
       <c r="L161" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1646568000000</v>
       </c>
       <c r="M161" s="1" t="s">
@@ -6726,9 +6784,9 @@
       </c>
       <c r="N161" s="6"/>
     </row>
-    <row r="162" hidden="1">
+    <row r="162" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>29</v>
@@ -6737,13 +6795,13 @@
         <v>0</v>
       </c>
       <c r="M162" s="1">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="N162" s="6"/>
     </row>
-    <row r="163" hidden="1">
+    <row r="163" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>183.0</v>
+        <v>183</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>250</v>
@@ -6752,13 +6810,13 @@
         <v>0</v>
       </c>
       <c r="M163" s="1">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="N163" s="6"/>
     </row>
-    <row r="164" hidden="1">
+    <row r="164" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>287</v>
@@ -6781,7 +6839,7 @@
         <v>44622.75</v>
       </c>
       <c r="L164" s="1">
-        <f t="shared" ref="L164:L168" si="10">(K164-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L164:L168" si="9">(K164-DATE(1970,1,1))*86400*1000</f>
         <v>1646244000000</v>
       </c>
       <c r="M164" s="1" t="s">
@@ -6789,9 +6847,9 @@
       </c>
       <c r="N164" s="6"/>
     </row>
-    <row r="165" hidden="1">
+    <row r="165" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>287</v>
@@ -6812,7 +6870,7 @@
         <v>44623.75</v>
       </c>
       <c r="L165" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1646330400000</v>
       </c>
       <c r="M165" s="1" t="s">
@@ -6820,9 +6878,9 @@
       </c>
       <c r="N165" s="6"/>
     </row>
-    <row r="166" hidden="1">
+    <row r="166" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>287</v>
@@ -6843,17 +6901,17 @@
         <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
-        <f t="shared" si="10"/>
-        <v>1646366400000</v>
+        <f t="shared" si="9"/>
+        <v>1646366399999.9998</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" hidden="1">
+    <row r="167" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>287</v>
@@ -6874,7 +6932,7 @@
         <v>44625.125</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1646449200000</v>
       </c>
       <c r="M167" s="1" t="s">
@@ -6882,9 +6940,9 @@
       </c>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" hidden="1">
+    <row r="168" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>51</v>
@@ -6907,17 +6965,17 @@
         <v>44624.041666666664</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="10"/>
-        <v>1646355600000</v>
+        <f t="shared" si="9"/>
+        <v>1646355599999.9998</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" hidden="1">
+    <row r="169" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>189.0</v>
+        <v>189</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>29</v>
@@ -6926,13 +6984,13 @@
         <v>0</v>
       </c>
       <c r="M169" s="1">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" hidden="1">
+    <row r="170" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>190.0</v>
+        <v>190</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>216</v>
@@ -6955,17 +7013,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L170" s="1">
-        <f t="shared" ref="L170:L200" si="11">(K170-Date(1970,1,1))*86400*1000</f>
-        <v>1646172000000</v>
+        <f t="shared" ref="L170:L200" si="10">(K170-DATE(1970,1,1))*86400*1000</f>
+        <v>1646171999999.9998</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" hidden="1">
+    <row r="171" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>191.0</v>
+        <v>191</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>216</v>
@@ -6988,17 +7046,17 @@
         <v>44623.666666666664</v>
       </c>
       <c r="L171" s="1">
-        <f t="shared" si="11"/>
-        <v>1646323200000</v>
+        <f t="shared" si="10"/>
+        <v>1646323199999.9998</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" hidden="1">
+    <row r="172" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>192.0</v>
+        <v>192</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>216</v>
@@ -7019,17 +7077,17 @@
         <v>44625.666666666664</v>
       </c>
       <c r="L172" s="1">
-        <f t="shared" si="11"/>
-        <v>1646496000000</v>
+        <f t="shared" si="10"/>
+        <v>1646495999999.9998</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" hidden="1">
+    <row r="173" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>161</v>
@@ -7052,17 +7110,17 @@
         <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
-        <f t="shared" si="11"/>
-        <v>1646161200000</v>
+        <f t="shared" si="10"/>
+        <v>1646161199999.9998</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" hidden="1">
+    <row r="174" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>161</v>
@@ -7080,17 +7138,17 @@
         <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
-        <f t="shared" si="11"/>
-        <v>1646337600000</v>
+        <f t="shared" si="10"/>
+        <v>1646337600000.0002</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" hidden="1">
+    <row r="175" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>304</v>
@@ -7113,17 +7171,17 @@
         <v>44619.916666666664</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" si="11"/>
-        <v>1645999200000</v>
+        <f t="shared" si="10"/>
+        <v>1645999199999.9998</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" hidden="1">
+    <row r="176" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>304</v>
@@ -7143,10 +7201,10 @@
         <v>0</v>
       </c>
       <c r="K176" s="5">
-        <v>44621.0</v>
+        <v>44621</v>
       </c>
       <c r="L176" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1646092800000</v>
       </c>
       <c r="M176" s="1" t="s">
@@ -7154,9 +7212,9 @@
       </c>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" hidden="1">
+    <row r="177" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>197.0</v>
+        <v>197</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>304</v>
@@ -7177,17 +7235,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L177" s="1">
-        <f t="shared" si="11"/>
-        <v>1646172000000</v>
+        <f t="shared" si="10"/>
+        <v>1646171999999.9998</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" hidden="1">
+    <row r="178" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>304</v>
@@ -7213,17 +7271,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
-        <f t="shared" si="11"/>
-        <v>1646172000000</v>
+        <f t="shared" si="10"/>
+        <v>1646171999999.9998</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" hidden="1">
+    <row r="179" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>304</v>
@@ -7248,17 +7306,17 @@
         <v>44622.958333333336</v>
       </c>
       <c r="L179" s="1">
-        <f t="shared" si="11"/>
-        <v>1646262000000</v>
+        <f t="shared" si="10"/>
+        <v>1646262000000.0002</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" hidden="1">
+    <row r="180" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>304</v>
@@ -7279,17 +7337,17 @@
         <v>44625.041666666664</v>
       </c>
       <c r="L180" s="1">
-        <f t="shared" si="11"/>
-        <v>1646442000000</v>
+        <f t="shared" si="10"/>
+        <v>1646441999999.9998</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" hidden="1">
+    <row r="181" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>304</v>
@@ -7313,17 +7371,17 @@
         <v>44625.041666666664</v>
       </c>
       <c r="L181" s="1">
-        <f t="shared" si="11"/>
-        <v>1646442000000</v>
+        <f t="shared" si="10"/>
+        <v>1646441999999.9998</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" hidden="1">
+    <row r="182" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>304</v>
@@ -7349,17 +7407,17 @@
         <v>44623.916666666664</v>
       </c>
       <c r="L182" s="1">
-        <f t="shared" si="11"/>
-        <v>1646344800000</v>
+        <f t="shared" si="10"/>
+        <v>1646344799999.9998</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" hidden="1">
+    <row r="183" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>304</v>
@@ -7380,17 +7438,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L183" s="1">
-        <f t="shared" si="11"/>
-        <v>1646532000000</v>
+        <f t="shared" si="10"/>
+        <v>1646532000000.0002</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" hidden="1">
+    <row r="184" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>319</v>
@@ -7413,17 +7471,17 @@
         <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
-        <f t="shared" si="11"/>
-        <v>1645970400000</v>
+        <f t="shared" si="10"/>
+        <v>1645970400000.0002</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" hidden="1">
+    <row r="185" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>319</v>
@@ -7446,17 +7504,17 @@
         <v>44620.666666666664</v>
       </c>
       <c r="L185" s="1">
-        <f t="shared" si="11"/>
-        <v>1646064000000</v>
+        <f t="shared" si="10"/>
+        <v>1646063999999.9998</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N185" s="6"/>
     </row>
-    <row r="186" hidden="1">
+    <row r="186" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>319</v>
@@ -7479,17 +7537,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L186" s="1">
-        <f t="shared" si="11"/>
-        <v>1646172000000</v>
+        <f t="shared" si="10"/>
+        <v>1646171999999.9998</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" hidden="1">
+    <row r="187" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>319</v>
@@ -7512,17 +7570,17 @@
         <v>44622.916666666664</v>
       </c>
       <c r="L187" s="1">
-        <f t="shared" si="11"/>
-        <v>1646258400000</v>
+        <f t="shared" si="10"/>
+        <v>1646258399999.9998</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N187" s="6"/>
     </row>
-    <row r="188" hidden="1">
+    <row r="188" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>319</v>
@@ -7543,17 +7601,17 @@
         <v>44625.041666666664</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" si="11"/>
-        <v>1646442000000</v>
+        <f t="shared" si="10"/>
+        <v>1646441999999.9998</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" hidden="1">
+    <row r="189" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>319</v>
@@ -7574,17 +7632,17 @@
         <v>44625.583333333336</v>
       </c>
       <c r="L189" s="1">
-        <f t="shared" si="11"/>
-        <v>1646488800000</v>
+        <f t="shared" si="10"/>
+        <v>1646488800000.0002</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" hidden="1">
+    <row r="190" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>319</v>
@@ -7608,16 +7666,16 @@
         <v>44623.958333333336</v>
       </c>
       <c r="L190" s="1">
-        <f t="shared" si="11"/>
-        <v>1646348400000</v>
+        <f t="shared" si="10"/>
+        <v>1646348400000.0002</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="191" hidden="1">
+    <row r="191" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>211.0</v>
+        <v>211</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>334</v>
@@ -7640,7 +7698,7 @@
         <v>44619.5</v>
       </c>
       <c r="L191" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1645963200000</v>
       </c>
       <c r="M191" s="1" t="s">
@@ -7648,9 +7706,9 @@
       </c>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" hidden="1">
+    <row r="192" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>334</v>
@@ -7673,7 +7731,7 @@
         <v>44620.5</v>
       </c>
       <c r="L192" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1646049600000</v>
       </c>
       <c r="M192" s="1" t="s">
@@ -7681,9 +7739,9 @@
       </c>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" hidden="1">
+    <row r="193" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>213.0</v>
+        <v>213</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>334</v>
@@ -7706,17 +7764,17 @@
         <v>44621.541666666664</v>
       </c>
       <c r="L193" s="1">
-        <f t="shared" si="11"/>
-        <v>1646139600000</v>
+        <f t="shared" si="10"/>
+        <v>1646139599999.9998</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" hidden="1">
+    <row r="194" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>334</v>
@@ -7739,7 +7797,7 @@
         <v>44622.5</v>
       </c>
       <c r="L194" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1646222400000</v>
       </c>
       <c r="M194" s="1" t="s">
@@ -7747,9 +7805,9 @@
       </c>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" hidden="1">
+    <row r="195" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>334</v>
@@ -7770,17 +7828,17 @@
         <v>44623.541666666664</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" si="11"/>
-        <v>1646312400000</v>
+        <f t="shared" si="10"/>
+        <v>1646312399999.9998</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" hidden="1">
+    <row r="196" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>334</v>
@@ -7801,7 +7859,7 @@
         <v>44624.5</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1646395200000</v>
       </c>
       <c r="M196" s="1" t="s">
@@ -7809,9 +7867,9 @@
       </c>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" hidden="1">
+    <row r="197" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>334</v>
@@ -7832,7 +7890,7 @@
         <v>44624.875</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1646427600000</v>
       </c>
       <c r="M197" s="1" t="s">
@@ -7840,9 +7898,9 @@
       </c>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" hidden="1">
+    <row r="198" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>334</v>
@@ -7863,17 +7921,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="11"/>
-        <v>1646532000000</v>
+        <f t="shared" si="10"/>
+        <v>1646532000000.0002</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" hidden="1">
+    <row r="199" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>219.0</v>
+        <v>219</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>334</v>
@@ -7897,16 +7955,16 @@
         <v>44624.416666666664</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="11"/>
-        <v>1646388000000</v>
+        <f t="shared" si="10"/>
+        <v>1646387999999.9998</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="200" hidden="1">
+    <row r="200" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>13</v>
@@ -7930,16 +7988,16 @@
         <v>44625.541666666664</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="11"/>
-        <v>1646485200000</v>
+        <f t="shared" si="10"/>
+        <v>1646485199999.9998</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="201" hidden="1">
+    <row r="201" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>319</v>
@@ -7951,12 +8009,12 @@
         <v>0</v>
       </c>
       <c r="M201" s="1">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="202" hidden="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="23">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>13</v>
@@ -7983,8 +8041,8 @@
         <v>44626.604166666664</v>
       </c>
       <c r="L202" s="23">
-        <f t="shared" ref="L202:L207" si="12">(K202-Date(1970,1,1))*86400*1000</f>
-        <v>1646577000000</v>
+        <f t="shared" ref="L202:L207" si="11">(K202-DATE(1970,1,1))*86400*1000</f>
+        <v>1646576999999.9998</v>
       </c>
       <c r="M202" s="23" t="s">
         <v>16</v>
@@ -8009,9 +8067,9 @@
       <c r="AE202" s="25"/>
       <c r="AF202" s="25"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>319</v>
@@ -8029,16 +8087,16 @@
         <v>44626.666666666664</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="12"/>
-        <v>1646582400000</v>
+        <f t="shared" si="11"/>
+        <v>1646582399999.9998</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>319</v>
@@ -8056,16 +8114,16 @@
         <v>44627.666666666664</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="12"/>
-        <v>1646668800000</v>
+        <f t="shared" si="11"/>
+        <v>1646668799999.9998</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>319</v>
@@ -8076,26 +8134,29 @@
       <c r="D205" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E205" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="K205" s="5">
         <v>44628.666666666664</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="12"/>
-        <v>1646755200000</v>
+        <f t="shared" si="11"/>
+        <v>1646755199999.9998</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D206" s="1" t="b">
         <v>1</v>
@@ -8110,22 +8171,22 @@
         <v>44629.833333333336</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="12"/>
-        <v>1646856000000</v>
+        <f t="shared" si="11"/>
+        <v>1646856000000.0002</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>227.0</v>
+        <v>227</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D207" s="1" t="b">
         <v>1</v>
@@ -8137,17 +8198,17 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="12"/>
-        <v>1646960400000</v>
+        <f t="shared" si="11"/>
+        <v>1646960399999.9998</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -8155,10 +8216,10 @@
       <c r="K208" s="5"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1">
-        <v>226.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>197</v>
@@ -8169,18 +8230,18 @@
       <c r="K209" s="5"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1">
-        <v>227.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>1</v>
@@ -8192,22 +8253,22 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" ref="L210:L229" si="13">(K210-Date(1970,1,1))*86400*1000</f>
-        <v>1647050400000</v>
+        <f t="shared" ref="L210:L229" si="12">(K210-DATE(1970,1,1))*86400*1000</f>
+        <v>1647050400000.0002</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
@@ -8216,103 +8277,103 @@
         <v>44632.625</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1647097200000</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="K212" s="5">
-        <v>44627.0</v>
+        <v>44627</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646611200000</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>231.0</v>
+        <v>231</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K213" s="5">
-        <v>44628.0</v>
+        <v>44628</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646697600000</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K214" s="5">
-        <v>44629.0</v>
+        <v>44629</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646784000000</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
@@ -8321,22 +8382,22 @@
         <v>44630.041666666664</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="13"/>
-        <v>1646874000000</v>
+        <f t="shared" si="12"/>
+        <v>1646873999999.9998</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
@@ -8348,22 +8409,22 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="13"/>
-        <v>1646960400000</v>
+        <f t="shared" si="12"/>
+        <v>1646960399999.9998</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8372,25 +8433,25 @@
         <v>1</v>
       </c>
       <c r="K217" s="5">
-        <v>44633.0</v>
+        <v>44633</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1647129600000</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8405,43 +8466,43 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="13"/>
-        <v>1647050400000</v>
+        <f t="shared" si="12"/>
+        <v>1647050400000.0002</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646622000000</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>79</v>
@@ -8453,22 +8514,22 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="13"/>
-        <v>1646701200000</v>
+        <f t="shared" si="12"/>
+        <v>1646701199999.9998</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>239.0</v>
+        <v>239</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>79</v>
@@ -8479,20 +8540,23 @@
       <c r="D221" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E221" s="7" t="s">
+        <v>378</v>
+      </c>
       <c r="K221" s="5">
         <v>44629.125</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646794800000</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>79</v>
@@ -8507,22 +8571,22 @@
         <v>44630.041666666664</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="13"/>
-        <v>1646874000000</v>
+        <f t="shared" si="12"/>
+        <v>1646873999999.9998</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8534,22 +8598,22 @@
         <v>44630.875</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646946000000</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
@@ -8564,22 +8628,22 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="13"/>
-        <v>1646960400000</v>
+        <f t="shared" si="12"/>
+        <v>1646960399999.9998</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
@@ -8591,28 +8655,28 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="13"/>
-        <v>1647050400000</v>
+        <f t="shared" si="12"/>
+        <v>1647050400000.0002</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8621,16 +8685,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="13"/>
-        <v>1646618400000</v>
+        <f t="shared" si="12"/>
+        <v>1646618400000.0002</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>183</v>
@@ -8642,55 +8706,55 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1646686800000</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="13"/>
-        <v>1646780400000</v>
+        <f t="shared" si="12"/>
+        <v>1646780400000.0002</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
@@ -8705,14 +8769,14 @@
         <v>44630.958333333336</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="13"/>
-        <v>1646953200000</v>
+        <f t="shared" si="12"/>
+        <v>1646953200000.0002</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>213</v>
@@ -8722,10 +8786,10 @@
       <c r="K230" s="5"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1">
-        <v>247.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>215</v>
@@ -8735,18 +8799,18 @@
       <c r="K231" s="5"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1">
-        <v>247.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -8755,22 +8819,22 @@
         <v>44631.875</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" ref="L232:L257" si="14">(K232-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L232:L257" si="13">(K232-DATE(1970,1,1))*86400*1000</f>
         <v>1647032400000</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>249.0</v>
+        <v>249</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8779,76 +8843,76 @@
         <v>44632.958333333336</v>
       </c>
       <c r="L233" s="1">
-        <f t="shared" si="14"/>
-        <v>1647126000000</v>
+        <f t="shared" si="13"/>
+        <v>1647126000000.0002</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
       </c>
       <c r="L234" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646654400000</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>251.0</v>
+        <v>251</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
       </c>
       <c r="L235" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646740800000</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
@@ -8857,22 +8921,22 @@
         <v>44629.5</v>
       </c>
       <c r="L236" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646827200000</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>253.0</v>
+        <v>253</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
@@ -8884,22 +8948,22 @@
         <v>44630.375</v>
       </c>
       <c r="L237" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646902800000</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>254.0</v>
+        <v>254</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
@@ -8908,22 +8972,22 @@
         <v>44631.5</v>
       </c>
       <c r="L238" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1647000000000</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>255.0</v>
+        <v>255</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -8935,16 +8999,16 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L239" s="1">
-        <f t="shared" si="14"/>
-        <v>1647050400000</v>
+        <f t="shared" si="13"/>
+        <v>1647050400000.0002</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>256.0</v>
+        <v>256</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>334</v>
@@ -8959,43 +9023,43 @@
         <v>44633.083333333336</v>
       </c>
       <c r="L240" s="1">
-        <f t="shared" si="14"/>
-        <v>1647136800000</v>
+        <f t="shared" si="13"/>
+        <v>1647136800000.0002</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
       </c>
       <c r="L241" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646643600000</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>258.0</v>
+        <v>258</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>94</v>
@@ -9007,52 +9071,55 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
       </c>
       <c r="L242" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646730000000</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>400</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
       </c>
       <c r="L243" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646805600000</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
@@ -9064,22 +9131,22 @@
         <v>44630.375</v>
       </c>
       <c r="L244" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646902800000</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -9091,22 +9158,22 @@
         <v>44630.875</v>
       </c>
       <c r="L245" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646946000000</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>262.0</v>
+        <v>262</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9118,22 +9185,22 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L246" s="1">
-        <f t="shared" si="14"/>
-        <v>1647050400000</v>
+        <f t="shared" si="13"/>
+        <v>1647050400000.0002</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9142,76 +9209,73 @@
         <v>44633.166666666664</v>
       </c>
       <c r="L247" s="1">
-        <f t="shared" si="14"/>
-        <v>1647144000000</v>
+        <f t="shared" si="13"/>
+        <v>1647143999999.9998</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
       </c>
       <c r="L248" s="1">
-        <f t="shared" si="14"/>
-        <v>1646679600000</v>
+        <f t="shared" si="13"/>
+        <v>1646679599999.9998</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D249" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F249" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K249" s="5">
         <v>44629.041666666664</v>
       </c>
       <c r="L249" s="1">
-        <f t="shared" si="14"/>
-        <v>1646787600000</v>
+        <f t="shared" si="13"/>
+        <v>1646787599999.9998</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
@@ -9220,22 +9284,22 @@
         <v>44629.791666666664</v>
       </c>
       <c r="L250" s="1">
-        <f t="shared" si="14"/>
-        <v>1646852400000</v>
+        <f t="shared" si="13"/>
+        <v>1646852399999.9998</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
@@ -9244,22 +9308,22 @@
         <v>44630.791666666664</v>
       </c>
       <c r="L251" s="1">
-        <f t="shared" si="14"/>
-        <v>1646938800000</v>
+        <f t="shared" si="13"/>
+        <v>1646938799999.9998</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>268.0</v>
+        <v>268</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9268,22 +9332,22 @@
         <v>44631.791666666664</v>
       </c>
       <c r="L252" s="1">
-        <f t="shared" si="14"/>
-        <v>1647025200000</v>
+        <f t="shared" si="13"/>
+        <v>1647025199999.9998</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9292,28 +9356,28 @@
         <v>44632.791666666664</v>
       </c>
       <c r="L253" s="1">
-        <f t="shared" si="14"/>
-        <v>1647111600000</v>
+        <f t="shared" si="13"/>
+        <v>1647111599999.9998</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9322,52 +9386,52 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L254" s="1">
-        <f t="shared" si="14"/>
-        <v>1646618400000</v>
+        <f t="shared" si="13"/>
+        <v>1646618400000.0002</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>271.0</v>
+        <v>271</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F255" s="1" t="b">
+      <c r="G255" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J255" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K255" s="5">
-        <v>44629.0</v>
+        <v>44629</v>
       </c>
       <c r="L255" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646784000000</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
@@ -9376,22 +9440,22 @@
         <v>44629.875</v>
       </c>
       <c r="L256" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646859600000</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>273.0</v>
+        <v>273</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
@@ -9403,14 +9467,14 @@
         <v>44630.125</v>
       </c>
       <c r="L257" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1646881200000</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>213</v>
@@ -9420,42 +9484,42 @@
       <c r="K258" s="5"/>
       <c r="L258" s="1"/>
       <c r="M258" s="1">
-        <v>273.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>274.0</v>
+        <v>274</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K259" s="5">
-        <v>44631.0</v>
+        <v>44631</v>
       </c>
       <c r="L259" s="1">
-        <f t="shared" ref="L259:L269" si="15">(K259-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L259:L269" si="14">(K259-DATE(1970,1,1))*86400*1000</f>
         <v>1646956800000</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>275.0</v>
+        <v>275</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9464,22 +9528,22 @@
         <v>44631.833333333336</v>
       </c>
       <c r="L260" s="1">
-        <f t="shared" si="15"/>
-        <v>1647028800000</v>
+        <f t="shared" si="14"/>
+        <v>1647028800000.0002</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9488,73 +9552,73 @@
         <v>44632.729166666664</v>
       </c>
       <c r="L261" s="1">
-        <f t="shared" si="15"/>
-        <v>1647106200000</v>
+        <f t="shared" si="14"/>
+        <v>1647106199999.9998</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K262" s="5">
-        <v>44633.0</v>
+        <v>44633</v>
       </c>
       <c r="L262" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1647129600000</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
       </c>
       <c r="L263" s="1">
-        <f t="shared" si="15"/>
-        <v>1646650800000</v>
+        <f t="shared" si="14"/>
+        <v>1646650800000.0002</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>279.0</v>
+        <v>279</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
@@ -9563,22 +9627,22 @@
         <v>44629.541666666664</v>
       </c>
       <c r="L264" s="1">
-        <f t="shared" si="15"/>
-        <v>1646830800000</v>
+        <f t="shared" si="14"/>
+        <v>1646830799999.9998</v>
       </c>
       <c r="M264" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
@@ -9590,22 +9654,22 @@
         <v>44629.875</v>
       </c>
       <c r="L265" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1646859600000</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>281.0</v>
+        <v>281</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
@@ -9620,22 +9684,22 @@
         <v>44630.541666666664</v>
       </c>
       <c r="L266" s="1">
-        <f t="shared" si="15"/>
-        <v>1646917200000</v>
+        <f t="shared" si="14"/>
+        <v>1646917199999.9998</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9644,22 +9708,22 @@
         <v>44631.583333333336</v>
       </c>
       <c r="L267" s="1">
-        <f t="shared" si="15"/>
-        <v>1647007200000</v>
+        <f t="shared" si="14"/>
+        <v>1647007200000.0002</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>283.0</v>
+        <v>283</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9668,22 +9732,22 @@
         <v>44632.541666666664</v>
       </c>
       <c r="L268" s="1">
-        <f t="shared" si="15"/>
-        <v>1647090000000</v>
+        <f t="shared" si="14"/>
+        <v>1647089999999.9998</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>284.0</v>
+        <v>284</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9692,24 +9756,24 @@
         <v>44633.583333333336</v>
       </c>
       <c r="L269" s="1">
-        <f t="shared" si="15"/>
-        <v>1647180000000</v>
+        <f t="shared" si="14"/>
+        <v>1647180000000.0002</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B270" s="1" t="s">
         <v>234</v>
       </c>
       <c r="M270" s="1">
-        <v>281.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>286.0</v>
+        <v>286</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>158</v>
@@ -9721,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9730,54 +9794,51 @@
         <v>44627.958333333336</v>
       </c>
       <c r="L271" s="1">
-        <f t="shared" ref="L271:L276" si="16">(K271-Date(1970,1,1))*86400*1000</f>
-        <v>1646694000000</v>
+        <f t="shared" ref="L271:L276" si="15">(K271-DATE(1970,1,1))*86400*1000</f>
+        <v>1646694000000.0002</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
       </c>
       <c r="L272" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1646773200000</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D273" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F273" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J273" s="1" t="b">
@@ -9787,22 +9848,22 @@
         <v>44629.041666666664</v>
       </c>
       <c r="L273" s="1">
-        <f t="shared" si="16"/>
-        <v>1646787600000</v>
+        <f t="shared" si="15"/>
+        <v>1646787599999.9998</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
@@ -9814,22 +9875,22 @@
         <v>44630.875</v>
       </c>
       <c r="L274" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1646946000000</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
@@ -9838,22 +9899,22 @@
         <v>44631.666666666664</v>
       </c>
       <c r="L275" s="1">
-        <f t="shared" si="16"/>
-        <v>1647014400000</v>
+        <f t="shared" si="15"/>
+        <v>1647014399999.9998</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>291.0</v>
+        <v>291</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -9865,14 +9926,14 @@
         <v>44631.875</v>
       </c>
       <c r="L276" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1647032400000</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>13</v>
@@ -9882,10 +9943,10 @@
       <c r="K277" s="5"/>
       <c r="L277" s="1"/>
       <c r="M277" s="1">
-        <v>291.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>249</v>
@@ -9895,18 +9956,18 @@
       <c r="K278" s="5"/>
       <c r="L278" s="1"/>
       <c r="M278" s="1">
-        <v>291.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -9915,22 +9976,22 @@
         <v>44632.75</v>
       </c>
       <c r="L279" s="1">
-        <f t="shared" ref="L279:L325" si="17">(K279-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L279:L325" si="16">(K279-DATE(1970,1,1))*86400*1000</f>
         <v>1647108000000</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -9939,22 +10000,22 @@
         <v>44633.125</v>
       </c>
       <c r="L280" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647140400000</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -9963,151 +10024,154 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L281" s="1">
-        <f t="shared" si="17"/>
-        <v>1646618400000</v>
+        <f t="shared" si="16"/>
+        <v>1646618400000.0002</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>295.0</v>
+        <v>295</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K282" s="5">
-        <v>44628.0</v>
+        <v>44628</v>
       </c>
       <c r="L282" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646697600000</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>296.0</v>
+        <v>296</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
       </c>
       <c r="L283" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646762400000</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K284" s="5">
-        <v>44630.0</v>
+        <v>44630</v>
       </c>
       <c r="L284" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646870400000</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
       </c>
       <c r="L285" s="1">
-        <f t="shared" si="17"/>
-        <v>1646712000000</v>
+        <f t="shared" si="16"/>
+        <v>1646711999999.9998</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>299.0</v>
+        <v>299</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>447</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
       </c>
       <c r="L286" s="1">
-        <f t="shared" si="17"/>
-        <v>1646798400000</v>
+        <f t="shared" si="16"/>
+        <v>1646798399999.9998</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
@@ -10116,22 +10180,22 @@
         <v>44630.083333333336</v>
       </c>
       <c r="L287" s="1">
-        <f t="shared" si="17"/>
-        <v>1646877600000</v>
+        <f t="shared" si="16"/>
+        <v>1646877600000.0002</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>301.0</v>
+        <v>301</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
@@ -10140,22 +10204,22 @@
         <v>44631.25</v>
       </c>
       <c r="L288" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646978400000</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>302.0</v>
+        <v>302</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
@@ -10164,22 +10228,22 @@
         <v>44632.166666666664</v>
       </c>
       <c r="L289" s="1">
-        <f t="shared" si="17"/>
-        <v>1647057600000</v>
+        <f t="shared" si="16"/>
+        <v>1647057599999.9998</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>303.0</v>
+        <v>303</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10188,49 +10252,49 @@
         <v>44633.208333333336</v>
       </c>
       <c r="L290" s="1">
-        <f t="shared" si="17"/>
-        <v>1647147600000</v>
+        <f t="shared" si="16"/>
+        <v>1647147600000.0002</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>304.0</v>
+        <v>304</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
       </c>
       <c r="L291" s="1">
-        <f t="shared" si="17"/>
-        <v>1646744400000</v>
+        <f t="shared" si="16"/>
+        <v>1646744399999.9998</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>305.0</v>
+        <v>305</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
@@ -10242,22 +10306,22 @@
         <v>44629.5</v>
       </c>
       <c r="L292" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646827200000</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
@@ -10272,22 +10336,22 @@
         <v>44630.583333333336</v>
       </c>
       <c r="L293" s="1">
-        <f t="shared" si="17"/>
-        <v>1646920800000</v>
+        <f t="shared" si="16"/>
+        <v>1646920800000.0002</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>307.0</v>
+        <v>307</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10296,22 +10360,22 @@
         <v>44631.5</v>
       </c>
       <c r="L294" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647000000000</v>
       </c>
       <c r="M294" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
@@ -10320,16 +10384,16 @@
         <v>44632.5</v>
       </c>
       <c r="L295" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647086400000</v>
       </c>
       <c r="M295" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>309.0</v>
+        <v>309</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>29</v>
@@ -10341,28 +10405,28 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
       </c>
       <c r="L296" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646740800000</v>
       </c>
       <c r="M296" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
@@ -10374,22 +10438,22 @@
         <v>44629.5</v>
       </c>
       <c r="L297" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646827200000</v>
       </c>
       <c r="M297" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
@@ -10398,22 +10462,22 @@
         <v>44630.083333333336</v>
       </c>
       <c r="L298" s="1">
-        <f t="shared" si="17"/>
-        <v>1646877600000</v>
+        <f t="shared" si="16"/>
+        <v>1646877600000.0002</v>
       </c>
       <c r="M298" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>312.0</v>
+        <v>312</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
@@ -10422,22 +10486,22 @@
         <v>44630.5</v>
       </c>
       <c r="L299" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646913600000</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>313.0</v>
+        <v>313</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -10449,22 +10513,22 @@
         <v>44631.875</v>
       </c>
       <c r="L300" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647032400000</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>314.0</v>
+        <v>314</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10473,28 +10537,28 @@
         <v>44633.5</v>
       </c>
       <c r="L301" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647172800000</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10503,106 +10567,109 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L302" s="1">
-        <f t="shared" si="17"/>
-        <v>1646618400000</v>
+        <f t="shared" si="16"/>
+        <v>1646618400000.0002</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>317.0</v>
+        <v>317</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
       </c>
       <c r="L303" s="1">
-        <f t="shared" si="17"/>
-        <v>1646683200000</v>
+        <f t="shared" si="16"/>
+        <v>1646683200000.0002</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
       </c>
       <c r="L304" s="1">
-        <f t="shared" si="17"/>
-        <v>1646710200000</v>
+        <f t="shared" si="16"/>
+        <v>1646710200000.0002</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F305" s="1" t="b">
+      <c r="E305" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K305" s="5">
-        <v>44629.0</v>
+        <v>44629</v>
       </c>
       <c r="L305" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646784000000</v>
       </c>
       <c r="M305" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
@@ -10614,22 +10681,22 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L306" s="1">
-        <f t="shared" si="17"/>
-        <v>1646960400000</v>
+        <f t="shared" si="16"/>
+        <v>1646960399999.9998</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>322.0</v>
+        <v>322</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
@@ -10638,22 +10705,22 @@
         <v>44631.958333333336</v>
       </c>
       <c r="L307" s="1">
-        <f t="shared" si="17"/>
-        <v>1647039600000</v>
+        <f t="shared" si="16"/>
+        <v>1647039600000.0002</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>323.0</v>
+        <v>323</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -10662,16 +10729,16 @@
         <v>44632.833333333336</v>
       </c>
       <c r="L308" s="1">
-        <f t="shared" si="17"/>
-        <v>1647115200000</v>
+        <f t="shared" si="16"/>
+        <v>1647115200000.0002</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>324.0</v>
+        <v>324</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>216</v>
@@ -10683,58 +10750,56 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
       </c>
       <c r="L309" s="1">
-        <f t="shared" si="17"/>
-        <v>1646701200000</v>
+        <f t="shared" si="16"/>
+        <v>1646701199999.9998</v>
       </c>
       <c r="M309" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>325.0</v>
+        <v>325</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F310" s="1" t="b">
-        <v>1</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="F310" s="1"/>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
       </c>
       <c r="L310" s="1">
-        <f t="shared" si="17"/>
-        <v>1646787600000</v>
+        <f t="shared" si="16"/>
+        <v>1646787599999.9998</v>
       </c>
       <c r="M310" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>326.0</v>
+        <v>326</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
@@ -10746,49 +10811,52 @@
         <v>44630.958333333336</v>
       </c>
       <c r="L311" s="1">
-        <f t="shared" si="17"/>
-        <v>1646953200000</v>
+        <f t="shared" si="16"/>
+        <v>1646953200000.0002</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K312" s="5">
-        <v>44632.0</v>
+        <v>44632</v>
       </c>
       <c r="L312" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647043200000</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E313" s="7" t="s">
+        <v>465</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -10797,16 +10865,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L313" s="1">
-        <f t="shared" si="17"/>
-        <v>1646618400000</v>
+        <f t="shared" si="16"/>
+        <v>1646618400000.0002</v>
       </c>
       <c r="M313" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>329.0</v>
+        <v>329</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>250</v>
@@ -10817,26 +10885,29 @@
       <c r="D314" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E314" s="7" t="s">
+        <v>481</v>
+      </c>
       <c r="K314" s="5">
         <v>44629.125</v>
       </c>
       <c r="L314" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646794800000</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -10848,22 +10919,22 @@
         <v>44630.125</v>
       </c>
       <c r="L315" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1646881200000</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -10878,22 +10949,22 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L316" s="1">
-        <f t="shared" si="17"/>
-        <v>1646960400000</v>
+        <f t="shared" si="16"/>
+        <v>1646960399999.9998</v>
       </c>
       <c r="M316" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -10905,22 +10976,22 @@
         <v>44631.458333333336</v>
       </c>
       <c r="L317" s="1">
-        <f t="shared" si="17"/>
-        <v>1646996400000</v>
+        <f t="shared" si="16"/>
+        <v>1646996400000.0002</v>
       </c>
       <c r="M317" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>333.0</v>
+        <v>333</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
@@ -10929,22 +11000,22 @@
         <v>44632.166666666664</v>
       </c>
       <c r="L318" s="1">
-        <f t="shared" si="17"/>
-        <v>1647057600000</v>
+        <f t="shared" si="16"/>
+        <v>1647057599999.9998</v>
       </c>
       <c r="M318" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>334.0</v>
+        <v>334</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -10956,28 +11027,28 @@
         <v>44633.5</v>
       </c>
       <c r="L319" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>1647172800000</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -10986,49 +11057,46 @@
         <v>44627.833333333336</v>
       </c>
       <c r="L320" s="1">
-        <f t="shared" si="17"/>
-        <v>1646683200000</v>
+        <f t="shared" si="16"/>
+        <v>1646683200000.0002</v>
       </c>
       <c r="M320" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>336.0</v>
+        <v>336</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D321" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F321" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K321" s="5">
         <v>44629.041666666664</v>
       </c>
       <c r="L321" s="1">
-        <f t="shared" si="17"/>
-        <v>1646787600000</v>
+        <f t="shared" si="16"/>
+        <v>1646787599999.9998</v>
       </c>
       <c r="M321" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
@@ -11037,22 +11105,22 @@
         <v>44630.083333333336</v>
       </c>
       <c r="L322" s="1">
-        <f t="shared" si="17"/>
-        <v>1646877600000</v>
+        <f t="shared" si="16"/>
+        <v>1646877600000.0002</v>
       </c>
       <c r="M322" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>338.0</v>
+        <v>338</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
@@ -11061,22 +11129,22 @@
         <v>44631.958333333336</v>
       </c>
       <c r="L323" s="1">
-        <f t="shared" si="17"/>
-        <v>1647039600000</v>
+        <f t="shared" si="16"/>
+        <v>1647039600000.0002</v>
       </c>
       <c r="M323" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
@@ -11085,22 +11153,22 @@
         <v>44632.583333333336</v>
       </c>
       <c r="L324" s="1">
-        <f t="shared" si="17"/>
-        <v>1647093600000</v>
+        <f t="shared" si="16"/>
+        <v>1647093600000.0002</v>
       </c>
       <c r="M324" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>340.0</v>
+        <v>340</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11109,202 +11177,371 @@
         <v>44633.916666666664</v>
       </c>
       <c r="L325" s="1">
+        <f t="shared" si="16"/>
+        <v>1647208799999.9998</v>
+      </c>
+      <c r="M325" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B326" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="M326" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>341</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D327" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K327" s="5">
+        <v>44629.708333333336</v>
+      </c>
+      <c r="L327" s="1">
+        <f t="shared" ref="L327:L332" si="17">(K327-DATE(1970,1,1))*86400*1000</f>
+        <v>1646845200000.0002</v>
+      </c>
+      <c r="M327" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>342</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D328" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K328" s="5">
+        <v>44630.708333333336</v>
+      </c>
+      <c r="L328" s="1">
         <f t="shared" si="17"/>
-        <v>1647208800000</v>
-      </c>
-      <c r="M325" s="1" t="s">
+        <v>1646931600000.0002</v>
+      </c>
+      <c r="M328" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>343</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D329" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K329" s="5">
+        <v>44631.708333333336</v>
+      </c>
+      <c r="L329" s="1">
+        <f t="shared" si="17"/>
+        <v>1647018000000.0002</v>
+      </c>
+      <c r="M329" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>344</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D330" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K330" s="5">
+        <v>44632.708333333336</v>
+      </c>
+      <c r="L330" s="1">
+        <f t="shared" si="17"/>
+        <v>1647104400000.0002</v>
+      </c>
+      <c r="M330" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>345</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D331" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J331" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K331" s="5">
+        <v>44634</v>
+      </c>
+      <c r="L331" s="1">
+        <f t="shared" si="17"/>
+        <v>1647216000000</v>
+      </c>
+      <c r="M331" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>346</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C332" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="D332" s="1"/>
+      <c r="E332" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I332" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K332" s="5">
+        <v>44628.854166666664</v>
+      </c>
+      <c r="L332" s="1">
+        <f t="shared" si="17"/>
+        <v>1646771399999.9998</v>
+      </c>
+      <c r="M332" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E2"/>
-    <hyperlink r:id="rId2" ref="E3"/>
-    <hyperlink r:id="rId3" ref="E4"/>
-    <hyperlink r:id="rId4" ref="E5"/>
-    <hyperlink r:id="rId5" ref="E6"/>
-    <hyperlink r:id="rId6" ref="E7"/>
-    <hyperlink r:id="rId7" ref="E8"/>
-    <hyperlink r:id="rId8" ref="E9"/>
-    <hyperlink r:id="rId9" ref="E10"/>
-    <hyperlink r:id="rId10" ref="E11"/>
-    <hyperlink r:id="rId11" ref="E12"/>
-    <hyperlink r:id="rId12" ref="E15"/>
-    <hyperlink r:id="rId13" ref="E16"/>
-    <hyperlink r:id="rId14" ref="E18"/>
-    <hyperlink r:id="rId15" ref="E20"/>
-    <hyperlink r:id="rId16" ref="E21"/>
-    <hyperlink r:id="rId17" ref="E22"/>
-    <hyperlink r:id="rId18" ref="E23"/>
-    <hyperlink r:id="rId19" ref="E26"/>
-    <hyperlink r:id="rId20" ref="E27"/>
-    <hyperlink r:id="rId21" ref="E28"/>
-    <hyperlink r:id="rId22" ref="E29"/>
-    <hyperlink r:id="rId23" ref="E30"/>
-    <hyperlink r:id="rId24" ref="E31"/>
-    <hyperlink r:id="rId25" ref="E32"/>
-    <hyperlink r:id="rId26" ref="E33"/>
-    <hyperlink r:id="rId27" ref="E34"/>
-    <hyperlink r:id="rId28" ref="E37"/>
-    <hyperlink r:id="rId29" ref="E38"/>
-    <hyperlink r:id="rId30" ref="E39"/>
-    <hyperlink r:id="rId31" ref="E40"/>
-    <hyperlink r:id="rId32" ref="E41"/>
-    <hyperlink r:id="rId33" ref="E42"/>
-    <hyperlink r:id="rId34" ref="E43"/>
-    <hyperlink r:id="rId35" ref="E44"/>
-    <hyperlink r:id="rId36" ref="E45"/>
-    <hyperlink r:id="rId37" ref="E46"/>
-    <hyperlink r:id="rId38" ref="E47"/>
-    <hyperlink r:id="rId39" ref="E48"/>
-    <hyperlink r:id="rId40" ref="E49"/>
-    <hyperlink r:id="rId41" ref="E50"/>
-    <hyperlink r:id="rId42" ref="E51"/>
-    <hyperlink r:id="rId43" ref="E52"/>
-    <hyperlink r:id="rId44" ref="E53"/>
-    <hyperlink r:id="rId45" ref="E54"/>
-    <hyperlink r:id="rId46" ref="E55"/>
-    <hyperlink r:id="rId47" ref="E56"/>
-    <hyperlink r:id="rId48" ref="E57"/>
-    <hyperlink r:id="rId49" ref="E58"/>
-    <hyperlink r:id="rId50" ref="E59"/>
-    <hyperlink r:id="rId51" ref="E61"/>
-    <hyperlink r:id="rId52" ref="E62"/>
-    <hyperlink r:id="rId53" ref="E63"/>
-    <hyperlink r:id="rId54" ref="E64"/>
-    <hyperlink r:id="rId55" ref="E65"/>
-    <hyperlink r:id="rId56" ref="E66"/>
-    <hyperlink r:id="rId57" ref="E67"/>
-    <hyperlink r:id="rId58" ref="E68"/>
-    <hyperlink r:id="rId59" ref="E69"/>
-    <hyperlink r:id="rId60" ref="E70"/>
-    <hyperlink r:id="rId61" ref="E71"/>
-    <hyperlink r:id="rId62" ref="E72"/>
-    <hyperlink r:id="rId63" ref="E73"/>
-    <hyperlink r:id="rId64" ref="E74"/>
-    <hyperlink r:id="rId65" ref="E75"/>
-    <hyperlink r:id="rId66" ref="E76"/>
-    <hyperlink r:id="rId67" ref="E77"/>
-    <hyperlink r:id="rId68" ref="E78"/>
-    <hyperlink r:id="rId69" ref="E79"/>
-    <hyperlink r:id="rId70" ref="E80"/>
-    <hyperlink r:id="rId71" ref="E81"/>
-    <hyperlink r:id="rId72" ref="E82"/>
-    <hyperlink r:id="rId73" ref="E84"/>
-    <hyperlink r:id="rId74" ref="E87"/>
-    <hyperlink r:id="rId75" ref="E88"/>
-    <hyperlink r:id="rId76" ref="E89"/>
-    <hyperlink r:id="rId77" ref="E90"/>
-    <hyperlink r:id="rId78" ref="E91"/>
-    <hyperlink r:id="rId79" ref="E93"/>
-    <hyperlink r:id="rId80" ref="E94"/>
-    <hyperlink r:id="rId81" ref="E95"/>
-    <hyperlink r:id="rId82" ref="E96"/>
-    <hyperlink r:id="rId83" ref="E97"/>
-    <hyperlink r:id="rId84" ref="E98"/>
-    <hyperlink r:id="rId85" ref="E103"/>
-    <hyperlink r:id="rId86" ref="E104"/>
-    <hyperlink r:id="rId87" ref="E105"/>
-    <hyperlink r:id="rId88" ref="E106"/>
-    <hyperlink r:id="rId89" ref="E107"/>
-    <hyperlink r:id="rId90" ref="E108"/>
-    <hyperlink r:id="rId91" ref="E109"/>
-    <hyperlink r:id="rId92" ref="E115"/>
-    <hyperlink r:id="rId93" ref="E116"/>
-    <hyperlink r:id="rId94" ref="E117"/>
-    <hyperlink r:id="rId95" ref="E118"/>
-    <hyperlink r:id="rId96" ref="E119"/>
-    <hyperlink r:id="rId97" ref="E121"/>
-    <hyperlink r:id="rId98" ref="E123"/>
-    <hyperlink r:id="rId99" ref="E128"/>
-    <hyperlink r:id="rId100" ref="E129"/>
-    <hyperlink r:id="rId101" ref="E130"/>
-    <hyperlink r:id="rId102" ref="E131"/>
-    <hyperlink r:id="rId103" ref="E132"/>
-    <hyperlink r:id="rId104" ref="E133"/>
-    <hyperlink r:id="rId105" ref="E141"/>
-    <hyperlink r:id="rId106" ref="E142"/>
-    <hyperlink r:id="rId107" ref="E143"/>
-    <hyperlink r:id="rId108" ref="E144"/>
-    <hyperlink r:id="rId109" ref="E145"/>
-    <hyperlink r:id="rId110" ref="E148"/>
-    <hyperlink r:id="rId111" ref="E149"/>
-    <hyperlink r:id="rId112" ref="E150"/>
-    <hyperlink r:id="rId113" ref="E151"/>
-    <hyperlink r:id="rId114" ref="E152"/>
-    <hyperlink r:id="rId115" ref="E153"/>
-    <hyperlink r:id="rId116" ref="E154"/>
-    <hyperlink r:id="rId117" ref="E155"/>
-    <hyperlink r:id="rId118" ref="E156"/>
-    <hyperlink r:id="rId119" ref="E157"/>
-    <hyperlink r:id="rId120" ref="E158"/>
-    <hyperlink r:id="rId121" ref="E159"/>
-    <hyperlink r:id="rId122" ref="E161"/>
-    <hyperlink r:id="rId123" ref="E164"/>
-    <hyperlink r:id="rId124" ref="E165"/>
-    <hyperlink r:id="rId125" ref="E166"/>
-    <hyperlink r:id="rId126" ref="E167"/>
-    <hyperlink r:id="rId127" ref="E168"/>
-    <hyperlink r:id="rId128" ref="E170"/>
-    <hyperlink r:id="rId129" ref="E171"/>
-    <hyperlink r:id="rId130" ref="E172"/>
-    <hyperlink r:id="rId131" ref="E173"/>
-    <hyperlink r:id="rId132" ref="E175"/>
-    <hyperlink r:id="rId133" ref="E176"/>
-    <hyperlink r:id="rId134" ref="E178"/>
-    <hyperlink r:id="rId135" ref="E179"/>
-    <hyperlink r:id="rId136" ref="E181"/>
-    <hyperlink r:id="rId137" ref="E182"/>
-    <hyperlink r:id="rId138" ref="E183"/>
-    <hyperlink r:id="rId139" ref="E184"/>
-    <hyperlink r:id="rId140" ref="E185"/>
-    <hyperlink r:id="rId141" ref="E186"/>
-    <hyperlink r:id="rId142" ref="E187"/>
-    <hyperlink r:id="rId143" ref="E188"/>
-    <hyperlink r:id="rId144" ref="E189"/>
-    <hyperlink r:id="rId145" ref="E190"/>
-    <hyperlink r:id="rId146" ref="E191"/>
-    <hyperlink r:id="rId147" ref="E192"/>
-    <hyperlink r:id="rId148" ref="E193"/>
-    <hyperlink r:id="rId149" ref="E194"/>
-    <hyperlink r:id="rId150" ref="E195"/>
-    <hyperlink r:id="rId151" ref="E196"/>
-    <hyperlink r:id="rId152" ref="E197"/>
-    <hyperlink r:id="rId153" ref="E198"/>
-    <hyperlink r:id="rId154" ref="E199"/>
-    <hyperlink r:id="rId155" ref="E200"/>
-    <hyperlink r:id="rId156" ref="E202"/>
-    <hyperlink r:id="rId157" ref="E203"/>
-    <hyperlink r:id="rId158" ref="E204"/>
-    <hyperlink r:id="rId159" ref="E212"/>
-    <hyperlink r:id="rId160" ref="E213"/>
-    <hyperlink r:id="rId161" ref="E214"/>
-    <hyperlink r:id="rId162" ref="E219"/>
-    <hyperlink r:id="rId163" ref="E220"/>
-    <hyperlink r:id="rId164" ref="E226"/>
-    <hyperlink r:id="rId165" ref="E227"/>
-    <hyperlink r:id="rId166" ref="E228"/>
-    <hyperlink r:id="rId167" ref="E234"/>
-    <hyperlink r:id="rId168" ref="E235"/>
-    <hyperlink r:id="rId169" ref="E241"/>
-    <hyperlink r:id="rId170" ref="E242"/>
-    <hyperlink r:id="rId171" ref="E248"/>
-    <hyperlink r:id="rId172" ref="E254"/>
-    <hyperlink r:id="rId173" ref="E263"/>
-    <hyperlink r:id="rId174" ref="E271"/>
-    <hyperlink r:id="rId175" ref="E272"/>
-    <hyperlink r:id="rId176" ref="E282"/>
-    <hyperlink r:id="rId177" ref="E283"/>
-    <hyperlink r:id="rId178" ref="E285"/>
-    <hyperlink r:id="rId179" ref="E291"/>
-    <hyperlink r:id="rId180" ref="E296"/>
-    <hyperlink r:id="rId181" ref="E302"/>
-    <hyperlink r:id="rId182" ref="E303"/>
-    <hyperlink r:id="rId183" ref="E304"/>
-    <hyperlink r:id="rId184" ref="E309"/>
-    <hyperlink r:id="rId185" ref="E310"/>
-    <hyperlink r:id="rId186" ref="E320"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="E27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="E42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="E43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="E45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="E46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="E48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="E51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="E53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="E54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="E59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="E62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="E63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="E65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="E66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="E67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="E68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="E70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="E71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="E73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="E75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="E78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="E80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="E81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="E82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="E84" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="E88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="E89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="E90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="E93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="E94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E95" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="E96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="E98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E103" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="E104" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="E105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E106" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="E107" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="E108" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E109" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="E115" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="E116" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="E117" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="E119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="E121" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E123" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="E128" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="E129" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E130" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="E131" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E132" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="E141" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E142" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="E143" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E144" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="E145" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="E148" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E149" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="E150" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E151" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="E152" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="E153" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E154" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="E155" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="E156" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E157" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="E158" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="E159" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="E161" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E164" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="E165" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="E166" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E167" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="E168" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="E170" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="E171" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E172" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="E173" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E175" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="E176" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="E178" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="E179" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="E181" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="E182" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E183" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="E184" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E185" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="E186" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="E187" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="E188" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E189" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="E190" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="E191" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E192" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="E193" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="E194" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E195" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="E196" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="E197" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="E198" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="E199" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E200" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="E202" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="E203" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E204" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="E205" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E212" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="E213" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E214" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="E219" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="E220" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="E221" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="E226" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E227" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="E228" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="E234" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="E235" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="E241" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E242" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="E243" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="E248" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="E254" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E263" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="E271" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="E272" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="E282" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="E283" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="E285" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E286" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="E291" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E296" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="E302" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E303" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="E304" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="E305" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E309" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="E310" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="E313" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E314" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="E320" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="E332" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
   </hyperlinks>
-  <drawing r:id="rId187"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId195"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\workspace\nijisanji-schedule\src\assets\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35234B7-CB32-4ED5-BC16-C330D7439722}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="ALL" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="ALL" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="503">
   <si>
     <t>id</t>
   </si>
@@ -1519,88 +1510,69 @@
     <t>Collab w/ Millie</t>
   </si>
   <si>
+    <t>WINE PARTY~ THANK YOU FOR 250 000 SUBSCRIBERS!</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=TuXFqqI6NnU</t>
   </si>
   <si>
-    <t>WINE PARTY~ THANK YOU FOR 250,000 SUBSCRIBERS!</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>【ASMR】Onomatopeia sounds~</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oI42Z2iNs70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ h:mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ h:mm"/>
-    <numFmt numFmtId="179" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd&quot; &quot;h&quot;:&quot;mm"/>
-    <numFmt numFmtId="180" formatCode="yyyy/m/d\ am/pm\ h:mm:ss"/>
-    <numFmt numFmtId="181" formatCode="yyyy/m/d\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd h:mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm"/>
+    <numFmt numFmtId="167" formatCode="yyyy&quot;/&quot;mm&quot;/&quot;dd&quot; &quot;h&quot;:&quot;mm"/>
+    <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
+    <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1608,7 +1580,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1624,95 +1596,113 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1902,41 +1892,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F310" sqref="F310"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="4.29"/>
+    <col customWidth="1" min="2" max="2" width="10.0"/>
+    <col customWidth="1" min="3" max="3" width="43.0"/>
+    <col customWidth="1" min="4" max="4" width="10.71"/>
+    <col customWidth="1" min="5" max="5" width="8.0"/>
+    <col customWidth="1" min="6" max="6" width="9.14"/>
+    <col customWidth="1" min="7" max="7" width="9.71"/>
+    <col customWidth="1" min="8" max="8" width="11.29"/>
+    <col customWidth="1" min="9" max="9" width="8.86"/>
+    <col customWidth="1" min="10" max="10" width="7.86"/>
+    <col customWidth="1" min="11" max="11" width="20.71"/>
+    <col customWidth="1" min="12" max="12" width="14.71"/>
+    <col customWidth="1" min="13" max="13" width="8.0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1977,9 +1964,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" hidden="1">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
@@ -2004,17 +1991,17 @@
         <v>44612.541666666664</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:L12" si="0">(K2-DATE(1970,1,1))*86400*1000</f>
-        <v>1645361999999.9998</v>
+        <f t="shared" ref="L2:L12" si="1">(K2-Date(1970,1,1))*86400*1000</f>
+        <v>1645362000000</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="6"/>
     </row>
-    <row r="3" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" hidden="1">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -2039,17 +2026,17 @@
         <v>44612.666666666664</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" si="0"/>
-        <v>1645372799999.9998</v>
+        <f t="shared" si="1"/>
+        <v>1645372800000</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" hidden="1">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
@@ -2074,17 +2061,17 @@
         <v>44613.541666666664</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" si="0"/>
-        <v>1645448399999.9998</v>
+        <f t="shared" si="1"/>
+        <v>1645448400000</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" hidden="1">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
@@ -2109,17 +2096,17 @@
         <v>44614.583333333336</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>1645538400000.0002</v>
+        <f t="shared" si="1"/>
+        <v>1645538400000</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N5" s="6"/>
     </row>
-    <row r="6" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" hidden="1">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -2144,17 +2131,17 @@
         <v>44615.541666666664</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>1645621199999.9998</v>
+        <f t="shared" si="1"/>
+        <v>1645621200000</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" hidden="1">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
@@ -2179,17 +2166,17 @@
         <v>44616.541666666664</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>1645707599999.9998</v>
+        <f t="shared" si="1"/>
+        <v>1645707600000</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" hidden="1">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -2214,17 +2201,17 @@
         <v>44617.541666666664</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>1645793999999.9998</v>
+        <f t="shared" si="1"/>
+        <v>1645794000000</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N8" s="6"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" hidden="1">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -2249,7 +2236,7 @@
         <v>44611.75</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1645293600000</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -2257,9 +2244,9 @@
       </c>
       <c r="N9" s="6"/>
     </row>
-    <row r="10" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" hidden="1">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -2284,7 +2271,7 @@
         <v>44612.5</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1645358400000</v>
       </c>
       <c r="M10" s="1" t="s">
@@ -2292,9 +2279,9 @@
       </c>
       <c r="N10" s="6"/>
     </row>
-    <row r="11" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" hidden="1">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2319,17 +2306,17 @@
         <v>44614.791666666664</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>1645556399999.9998</v>
+        <f t="shared" si="1"/>
+        <v>1645556400000</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N11" s="6"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" hidden="1">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -2354,17 +2341,17 @@
         <v>44615.708333333336</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>1645635600000.0002</v>
+        <f t="shared" si="1"/>
+        <v>1645635600000</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N12" s="6"/>
     </row>
-    <row r="13" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" hidden="1">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2374,13 +2361,13 @@
       </c>
       <c r="F13" s="1"/>
       <c r="M13" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="N13" s="6"/>
     </row>
-    <row r="14" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" hidden="1">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -2390,13 +2377,13 @@
       </c>
       <c r="F14" s="1"/>
       <c r="M14" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="N14" s="6"/>
     </row>
-    <row r="15" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" hidden="1">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
@@ -2421,17 +2408,17 @@
         <v>44617.666666666664</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" ref="L15:L16" si="1">(K15-DATE(1970,1,1))*86400*1000</f>
-        <v>1645804799999.9998</v>
+        <f t="shared" ref="L15:L16" si="2">(K15-Date(1970,1,1))*86400*1000</f>
+        <v>1645804800000</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N15" s="6"/>
     </row>
-    <row r="16" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" hidden="1">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -2456,17 +2443,17 @@
         <v>44618.541666666664</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="1"/>
-        <v>1645880399999.9998</v>
+        <f t="shared" si="2"/>
+        <v>1645880400000</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N16" s="6"/>
     </row>
-    <row r="17" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" hidden="1">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -2476,13 +2463,13 @@
       </c>
       <c r="F17" s="1"/>
       <c r="M17" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="N17" s="6"/>
     </row>
-    <row r="18" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" hidden="1">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>17.0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>41</v>
@@ -2507,17 +2494,17 @@
         <v>44619.083333333336</v>
       </c>
       <c r="L18" s="1">
-        <f>(K18-DATE(1970,1,1))*86400*1000</f>
-        <v>1645927200000.0002</v>
+        <f>(K18-Date(1970,1,1))*86400*1000</f>
+        <v>1645927200000</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N18" s="6"/>
     </row>
-    <row r="19" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" hidden="1">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
@@ -2527,13 +2514,13 @@
       </c>
       <c r="F19" s="1"/>
       <c r="M19" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="N19" s="6"/>
     </row>
-    <row r="20" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" hidden="1">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>19.0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -2558,17 +2545,17 @@
         <v>44614.166666666664</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" ref="L20:L23" si="2">(K20-DATE(1970,1,1))*86400*1000</f>
-        <v>1645502399999.9998</v>
+        <f t="shared" ref="L20:L23" si="3">(K20-Date(1970,1,1))*86400*1000</f>
+        <v>1645502400000</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N20" s="6"/>
     </row>
-    <row r="21" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" hidden="1">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>44</v>
@@ -2593,17 +2580,17 @@
         <v>44615.166666666664</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="2"/>
-        <v>1645588799999.9998</v>
+        <f t="shared" si="3"/>
+        <v>1645588800000</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="6"/>
     </row>
-    <row r="22" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" hidden="1">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
@@ -2628,17 +2615,17 @@
         <v>44616.041666666664</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="2"/>
-        <v>1645664399999.9998</v>
+        <f t="shared" si="3"/>
+        <v>1645664400000</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N22" s="6"/>
     </row>
-    <row r="23" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" hidden="1">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>51</v>
@@ -2663,17 +2650,17 @@
         <v>44617.041666666664</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="2"/>
-        <v>1645750799999.9998</v>
+        <f t="shared" si="3"/>
+        <v>1645750800000</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" hidden="1">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>44</v>
@@ -2683,13 +2670,13 @@
       </c>
       <c r="F24" s="1"/>
       <c r="M24" s="1">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" hidden="1">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>24.0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>44</v>
@@ -2699,13 +2686,13 @@
       </c>
       <c r="F25" s="1"/>
       <c r="M25" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" hidden="1">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
@@ -2730,7 +2717,7 @@
         <v>44618.125</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" ref="L26:L35" si="3">(K26-DATE(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L26:L35" si="4">(K26-Date(1970,1,1))*86400*1000</f>
         <v>1645844400000</v>
       </c>
       <c r="M26" s="1" t="s">
@@ -2738,9 +2725,9 @@
       </c>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" hidden="1">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>26.0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>56</v>
@@ -2765,17 +2752,17 @@
         <v>44612.666666666664</v>
       </c>
       <c r="L27" s="1">
-        <f t="shared" si="3"/>
-        <v>1645372799999.9998</v>
+        <f t="shared" si="4"/>
+        <v>1645372800000</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" hidden="1">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
@@ -2800,7 +2787,7 @@
         <v>44614.5</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1645531200000</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -2808,9 +2795,9 @@
       </c>
       <c r="N28" s="6"/>
     </row>
-    <row r="29" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" hidden="1">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>56</v>
@@ -2835,7 +2822,7 @@
         <v>44615.5</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1645617600000</v>
       </c>
       <c r="M29" s="1" t="s">
@@ -2843,9 +2830,9 @@
       </c>
       <c r="N29" s="6"/>
     </row>
-    <row r="30" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" hidden="1">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>56</v>
@@ -2870,17 +2857,17 @@
         <v>44616.791666666664</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="3"/>
-        <v>1645729199999.9998</v>
+        <f t="shared" si="4"/>
+        <v>1645729200000</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N30" s="6"/>
     </row>
-    <row r="31" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" hidden="1">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>56</v>
@@ -2905,7 +2892,7 @@
         <v>44617.5</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1645790400000</v>
       </c>
       <c r="M31" s="1" t="s">
@@ -2913,9 +2900,9 @@
       </c>
       <c r="N31" s="6"/>
     </row>
-    <row r="32" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" hidden="1">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
@@ -2940,7 +2927,7 @@
         <v>44618.5</v>
       </c>
       <c r="L32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1645876800000</v>
       </c>
       <c r="M32" s="1" t="s">
@@ -2948,9 +2935,9 @@
       </c>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" hidden="1">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>67</v>
@@ -2975,17 +2962,17 @@
         <v>44612.666666666664</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="3"/>
-        <v>1645372799999.9998</v>
+        <f t="shared" si="4"/>
+        <v>1645372800000</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N33" s="6"/>
     </row>
-    <row r="34" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" hidden="1">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>67</v>
@@ -3010,17 +2997,17 @@
         <v>44614.958333333336</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="3"/>
-        <v>1645570800000.0002</v>
+        <f t="shared" si="4"/>
+        <v>1645570800000</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N34" s="6"/>
     </row>
-    <row r="35" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" hidden="1">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>67</v>
@@ -3039,17 +3026,17 @@
         <v>44615.833333333336</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="3"/>
-        <v>1645646400000.0002</v>
+        <f t="shared" si="4"/>
+        <v>1645646400000</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N35" s="6"/>
     </row>
-    <row r="36" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" hidden="1">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>67</v>
@@ -3059,13 +3046,13 @@
       </c>
       <c r="F36" s="1"/>
       <c r="M36" s="1">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="N36" s="6"/>
     </row>
-    <row r="37" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" hidden="1">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>67</v>
@@ -3090,17 +3077,17 @@
         <v>44617.833333333336</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" ref="L37:L98" si="4">(K37-DATE(1970,1,1))*86400*1000</f>
-        <v>1645819200000.0002</v>
+        <f t="shared" ref="L37:L98" si="5">(K37-Date(1970,1,1))*86400*1000</f>
+        <v>1645819200000</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N37" s="6"/>
     </row>
-    <row r="38" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" hidden="1">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>67</v>
@@ -3125,7 +3112,7 @@
         <v>44618.125</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1645844400000</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -3133,9 +3120,9 @@
       </c>
       <c r="N38" s="6"/>
     </row>
-    <row r="39" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" hidden="1">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>38.0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>67</v>
@@ -3160,17 +3147,17 @@
         <v>44619.833333333336</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="4"/>
-        <v>1645992000000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1645992000000</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N39" s="6"/>
     </row>
-    <row r="40" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" hidden="1">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>39.0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>44</v>
@@ -3195,17 +3182,17 @@
         <v>44619.291666666664</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="4"/>
-        <v>1645945199999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1645945200000</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N40" s="6"/>
     </row>
-    <row r="41" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" hidden="1">
       <c r="A41" s="9">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>79</v>
@@ -3227,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="13">
-        <v>44620</v>
+        <v>44620.0</v>
       </c>
       <c r="L41" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646006400000</v>
       </c>
       <c r="M41" s="9" t="s">
@@ -3256,9 +3243,9 @@
       <c r="AE41" s="11"/>
       <c r="AF41" s="11"/>
     </row>
-    <row r="42" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" hidden="1">
       <c r="A42" s="1">
-        <v>54</v>
+        <v>54.0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>79</v>
@@ -3281,17 +3268,17 @@
         <v>44621.083333333336</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="4"/>
-        <v>1646100000000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646100000000</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N42" s="6"/>
     </row>
-    <row r="43" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" hidden="1">
       <c r="A43" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>79</v>
@@ -3311,10 +3298,10 @@
         <v>0</v>
       </c>
       <c r="K43" s="5">
-        <v>44622</v>
+        <v>44622.0</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646179200000</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -3322,9 +3309,9 @@
       </c>
       <c r="N43" s="6"/>
     </row>
-    <row r="44" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" hidden="1">
       <c r="A44" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>79</v>
@@ -3344,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="5">
-        <v>44623</v>
+        <v>44623.0</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646265600000</v>
       </c>
       <c r="M44" s="1" t="s">
@@ -3355,9 +3342,9 @@
       </c>
       <c r="N44" s="6"/>
     </row>
-    <row r="45" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" hidden="1">
       <c r="A45" s="1">
-        <v>57</v>
+        <v>57.0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>79</v>
@@ -3377,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="5">
-        <v>44624</v>
+        <v>44624.0</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646352000000</v>
       </c>
       <c r="M45" s="1" t="s">
@@ -3388,9 +3375,9 @@
       </c>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" hidden="1">
       <c r="A46" s="1">
-        <v>58</v>
+        <v>58.0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>79</v>
@@ -3408,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="5">
-        <v>44625</v>
+        <v>44625.0</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646438400000</v>
       </c>
       <c r="M46" s="1" t="s">
@@ -3419,9 +3406,9 @@
       </c>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" hidden="1">
       <c r="A47" s="1">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>79</v>
@@ -3442,17 +3429,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="4"/>
-        <v>1646532000000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646532000000</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" hidden="1">
       <c r="A48" s="1">
-        <v>60</v>
+        <v>60.0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>94</v>
@@ -3475,17 +3462,17 @@
         <v>44620.083333333336</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="4"/>
-        <v>1646013600000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646013600000</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" hidden="1">
       <c r="A49" s="1">
-        <v>61</v>
+        <v>61.0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>94</v>
@@ -3508,17 +3495,17 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L49" s="1">
-        <f t="shared" si="4"/>
-        <v>1646107199999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646107200000</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" hidden="1">
       <c r="A50" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>94</v>
@@ -3541,17 +3528,17 @@
         <v>44622.083333333336</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="4"/>
-        <v>1646186400000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646186400000</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" hidden="1">
       <c r="A51" s="1">
-        <v>63</v>
+        <v>63.0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>94</v>
@@ -3574,17 +3561,17 @@
         <v>44623.208333333336</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="4"/>
-        <v>1646283600000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646283600000</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" hidden="1">
       <c r="A52" s="1">
-        <v>64</v>
+        <v>64.0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>94</v>
@@ -3607,17 +3594,17 @@
         <v>44624.333333333336</v>
       </c>
       <c r="L52" s="1">
-        <f t="shared" si="4"/>
-        <v>1646380800000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646380800000</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" hidden="1">
       <c r="A53" s="1">
-        <v>65</v>
+        <v>65.0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>94</v>
@@ -3638,17 +3625,17 @@
         <v>44625.333333333336</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="4"/>
-        <v>1646467200000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646467200000</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" hidden="1">
       <c r="A54" s="1">
-        <v>66</v>
+        <v>66.0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>94</v>
@@ -3669,17 +3656,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="4"/>
-        <v>1646532000000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646532000000</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" hidden="1">
       <c r="A55" s="1">
-        <v>67</v>
+        <v>67.0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>13</v>
@@ -3702,17 +3689,17 @@
         <v>44619.583333333336</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="4"/>
-        <v>1645970400000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1645970400000</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" hidden="1">
       <c r="A56" s="1">
-        <v>68</v>
+        <v>68.0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>13</v>
@@ -3735,17 +3722,17 @@
         <v>44620.583333333336</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="4"/>
-        <v>1646056800000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646056800000</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" hidden="1">
       <c r="A57" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>13</v>
@@ -3768,17 +3755,17 @@
         <v>44621.541666666664</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="4"/>
-        <v>1646139599999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646139600000</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" hidden="1">
       <c r="A58" s="1">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>13</v>
@@ -3801,17 +3788,17 @@
         <v>44622.583333333336</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="4"/>
-        <v>1646229600000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646229600000</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" hidden="1">
       <c r="A59" s="1">
-        <v>71</v>
+        <v>71.0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>13</v>
@@ -3835,7 +3822,7 @@
         <v>44624.5</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646395200000</v>
       </c>
       <c r="M59" s="1" t="s">
@@ -3843,9 +3830,9 @@
       </c>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" hidden="1">
       <c r="A60" s="1">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>13</v>
@@ -3866,17 +3853,17 @@
         <v>44624.541666666664</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="4"/>
-        <v>1646398799999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646398800000</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N60" s="6"/>
     </row>
-    <row r="61" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" hidden="1">
       <c r="A61" s="1">
-        <v>73</v>
+        <v>73.0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>13</v>
@@ -3901,17 +3888,17 @@
         <v>44623.541666666664</v>
       </c>
       <c r="L61" s="1">
-        <f t="shared" si="4"/>
-        <v>1646312399999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646312400000</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N61" s="6"/>
     </row>
-    <row r="62" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" hidden="1">
       <c r="A62" s="1">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>29</v>
@@ -3934,7 +3921,7 @@
         <v>44620.5</v>
       </c>
       <c r="L62" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646049600000</v>
       </c>
       <c r="M62" s="1" t="s">
@@ -3942,9 +3929,9 @@
       </c>
       <c r="N62" s="6"/>
     </row>
-    <row r="63" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" hidden="1">
       <c r="A63" s="1">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>29</v>
@@ -3967,17 +3954,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L63" s="1">
-        <f t="shared" si="4"/>
-        <v>1646171999999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646172000000</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N63" s="6"/>
     </row>
-    <row r="64" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" hidden="1">
       <c r="A64" s="1">
-        <v>84</v>
+        <v>84.0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>29</v>
@@ -4000,7 +3987,7 @@
         <v>44622.625</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646233200000</v>
       </c>
       <c r="M64" s="1" t="s">
@@ -4008,9 +3995,9 @@
       </c>
       <c r="N64" s="6"/>
     </row>
-    <row r="65" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" hidden="1">
       <c r="A65" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>29</v>
@@ -4034,7 +4021,7 @@
         <v>44624.875</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646427600000</v>
       </c>
       <c r="M65" s="1" t="s">
@@ -4042,9 +4029,9 @@
       </c>
       <c r="N65" s="6"/>
     </row>
-    <row r="66" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" hidden="1">
       <c r="A66" s="1">
-        <v>86</v>
+        <v>86.0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>29</v>
@@ -4065,7 +4052,7 @@
         <v>44625.625</v>
       </c>
       <c r="L66" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646492400000</v>
       </c>
       <c r="M66" s="1" t="s">
@@ -4073,9 +4060,9 @@
       </c>
       <c r="N66" s="6"/>
     </row>
-    <row r="67" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" hidden="1">
       <c r="A67" s="1">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>29</v>
@@ -4096,17 +4083,17 @@
         <v>44626.583333333336</v>
       </c>
       <c r="L67" s="1">
-        <f t="shared" si="4"/>
-        <v>1646575200000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646575200000</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N67" s="6"/>
     </row>
-    <row r="68" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" hidden="1">
       <c r="A68" s="1">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>13</v>
@@ -4129,17 +4116,17 @@
         <v>44620.416666666664</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="4"/>
-        <v>1646042399999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646042400000</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N68" s="6"/>
     </row>
-    <row r="69" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" hidden="1">
       <c r="A69" s="1">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
@@ -4162,7 +4149,7 @@
         <v>44621.125</v>
       </c>
       <c r="L69" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646103600000</v>
       </c>
       <c r="M69" s="1" t="s">
@@ -4170,9 +4157,9 @@
       </c>
       <c r="N69" s="6"/>
     </row>
-    <row r="70" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" hidden="1">
       <c r="A70" s="1">
-        <v>90</v>
+        <v>90.0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>67</v>
@@ -4192,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="K70" s="5">
-        <v>44622</v>
+        <v>44622.0</v>
       </c>
       <c r="L70" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646179200000</v>
       </c>
       <c r="M70" s="1" t="s">
@@ -4203,9 +4190,9 @@
       </c>
       <c r="N70" s="6"/>
     </row>
-    <row r="71" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" hidden="1">
       <c r="A71" s="1">
-        <v>91</v>
+        <v>91.0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
@@ -4225,10 +4212,10 @@
         <v>0</v>
       </c>
       <c r="K71" s="5">
-        <v>44623</v>
+        <v>44623.0</v>
       </c>
       <c r="L71" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646265600000</v>
       </c>
       <c r="M71" s="1" t="s">
@@ -4236,9 +4223,9 @@
       </c>
       <c r="N71" s="6"/>
     </row>
-    <row r="72" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" hidden="1">
       <c r="A72" s="1">
-        <v>92</v>
+        <v>92.0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>67</v>
@@ -4259,17 +4246,17 @@
         <v>44623.791666666664</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="4"/>
-        <v>1646333999999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646334000000</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N72" s="6"/>
     </row>
-    <row r="73" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" hidden="1">
       <c r="A73" s="1">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>67</v>
@@ -4290,17 +4277,17 @@
         <v>44625.583333333336</v>
       </c>
       <c r="L73" s="1">
-        <f t="shared" si="4"/>
-        <v>1646488800000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646488800000</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N73" s="6"/>
     </row>
-    <row r="74" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" hidden="1">
       <c r="A74" s="1">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>67</v>
@@ -4321,17 +4308,17 @@
         <v>44627.041666666664</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="4"/>
-        <v>1646614799999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646614800000</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N74" s="6"/>
     </row>
-    <row r="75" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" hidden="1">
       <c r="A75" s="1">
-        <v>95</v>
+        <v>95.0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>147</v>
@@ -4354,7 +4341,7 @@
         <v>44620.875</v>
       </c>
       <c r="L75" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646082000000</v>
       </c>
       <c r="M75" s="1" t="s">
@@ -4362,9 +4349,9 @@
       </c>
       <c r="N75" s="6"/>
     </row>
-    <row r="76" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" hidden="1">
       <c r="A76" s="1">
-        <v>96</v>
+        <v>96.0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>147</v>
@@ -4387,17 +4374,17 @@
         <v>44623.083333333336</v>
       </c>
       <c r="L76" s="1">
-        <f t="shared" si="4"/>
-        <v>1646272800000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646272800000</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N76" s="6"/>
     </row>
-    <row r="77" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" hidden="1">
       <c r="A77" s="1">
-        <v>97</v>
+        <v>97.0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>147</v>
@@ -4418,17 +4405,17 @@
         <v>44624.041666666664</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="4"/>
-        <v>1646355599999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646355600000</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N77" s="6"/>
     </row>
-    <row r="78" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" hidden="1">
       <c r="A78" s="1">
-        <v>98</v>
+        <v>98.0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>147</v>
@@ -4449,7 +4436,7 @@
         <v>44624.875</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646427600000</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -4457,9 +4444,9 @@
       </c>
       <c r="N78" s="6"/>
     </row>
-    <row r="79" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" hidden="1">
       <c r="A79" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>147</v>
@@ -4480,7 +4467,7 @@
         <v>44625.875</v>
       </c>
       <c r="L79" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646514000000</v>
       </c>
       <c r="M79" s="1" t="s">
@@ -4488,9 +4475,9 @@
       </c>
       <c r="N79" s="6"/>
     </row>
-    <row r="80" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" hidden="1">
       <c r="A80" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>158</v>
@@ -4513,7 +4500,7 @@
         <v>44620.75</v>
       </c>
       <c r="L80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646071200000</v>
       </c>
       <c r="M80" s="1" t="s">
@@ -4521,9 +4508,9 @@
       </c>
       <c r="N80" s="6"/>
     </row>
-    <row r="81" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" hidden="1">
       <c r="A81" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>161</v>
@@ -4546,7 +4533,7 @@
         <v>44620.5625</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646055000000</v>
       </c>
       <c r="M81" s="1" t="s">
@@ -4554,9 +4541,9 @@
       </c>
       <c r="N81" s="6"/>
     </row>
-    <row r="82" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" hidden="1">
       <c r="A82" s="1">
-        <v>102</v>
+        <v>102.0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>161</v>
@@ -4579,7 +4566,7 @@
         <v>44621.5625</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646141400000</v>
       </c>
       <c r="M82" s="1" t="s">
@@ -4587,9 +4574,9 @@
       </c>
       <c r="N82" s="6"/>
     </row>
-    <row r="83" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" hidden="1">
       <c r="A83" s="1">
-        <v>103</v>
+        <v>103.0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>161</v>
@@ -4607,17 +4594,17 @@
         <v>44622.552083333336</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="4"/>
-        <v>1646226900000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646226900000</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N83" s="6"/>
     </row>
-    <row r="84" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" hidden="1">
       <c r="A84" s="1">
-        <v>104</v>
+        <v>104.0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>161</v>
@@ -4640,7 +4627,7 @@
         <v>44623.21875</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646284500000</v>
       </c>
       <c r="M84" s="1" t="s">
@@ -4648,9 +4635,9 @@
       </c>
       <c r="N84" s="6"/>
     </row>
-    <row r="85" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" hidden="1">
       <c r="A85" s="1">
-        <v>105</v>
+        <v>105.0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>161</v>
@@ -4671,17 +4658,17 @@
         <v>44624.604166666664</v>
       </c>
       <c r="L85" s="1">
-        <f t="shared" si="4"/>
-        <v>1646404199999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646404200000</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N85" s="6"/>
     </row>
-    <row r="86" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" hidden="1">
       <c r="A86" s="1">
-        <v>106</v>
+        <v>106.0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>161</v>
@@ -4702,17 +4689,17 @@
         <v>44625.416666666664</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="4"/>
-        <v>1646474399999.9998</v>
+        <f t="shared" si="5"/>
+        <v>1646474400000</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" hidden="1">
       <c r="A87" s="1">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>161</v>
@@ -4733,17 +4720,17 @@
         <v>44626.708333333336</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="4"/>
-        <v>1646586000000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646586000000</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" hidden="1">
       <c r="A88" s="1">
-        <v>108</v>
+        <v>108.0</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>173</v>
@@ -4766,17 +4753,17 @@
         <v>44620.958333333336</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="4"/>
-        <v>1646089200000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646089200000</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N88" s="6"/>
     </row>
-    <row r="89" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" hidden="1">
       <c r="A89" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>173</v>
@@ -4796,10 +4783,10 @@
         <v>0</v>
       </c>
       <c r="K89" s="17">
-        <v>44622</v>
+        <v>44622.0</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646179200000</v>
       </c>
       <c r="M89" s="1" t="s">
@@ -4807,9 +4794,9 @@
       </c>
       <c r="N89" s="6"/>
     </row>
-    <row r="90" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" hidden="1">
       <c r="A90" s="1">
-        <v>110</v>
+        <v>110.0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>173</v>
@@ -4832,17 +4819,17 @@
         <v>44623.083333333336</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="4"/>
-        <v>1646272800000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646272800000</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N90" s="6"/>
     </row>
-    <row r="91" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" hidden="1">
       <c r="A91" s="1">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>173</v>
@@ -4863,17 +4850,17 @@
         <v>44625.083333333336</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="4"/>
-        <v>1646445600000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646445600000</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N91" s="6"/>
     </row>
-    <row r="92" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" hidden="1">
       <c r="A92" s="1">
-        <v>112</v>
+        <v>112.0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>173</v>
@@ -4895,17 +4882,17 @@
         <v>44625.833333333336</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="4"/>
-        <v>1646510400000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646510400000</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N92" s="6"/>
     </row>
-    <row r="93" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" hidden="1">
       <c r="A93" s="1">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>183</v>
@@ -4928,7 +4915,7 @@
         <v>44620.875</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646082000000</v>
       </c>
       <c r="M93" s="1" t="s">
@@ -4936,9 +4923,9 @@
       </c>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" hidden="1">
       <c r="A94" s="1">
-        <v>114</v>
+        <v>114.0</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>183</v>
@@ -4961,7 +4948,7 @@
         <v>44621.875</v>
       </c>
       <c r="L94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646168400000</v>
       </c>
       <c r="M94" s="1" t="s">
@@ -4969,9 +4956,9 @@
       </c>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" hidden="1">
       <c r="A95" s="1">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>183</v>
@@ -4994,7 +4981,7 @@
         <v>44622.875</v>
       </c>
       <c r="L95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646254800000</v>
       </c>
       <c r="M95" s="1" t="s">
@@ -5002,9 +4989,9 @@
       </c>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" hidden="1">
       <c r="A96" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>183</v>
@@ -5025,7 +5012,7 @@
         <v>44623.875</v>
       </c>
       <c r="L96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646341200000</v>
       </c>
       <c r="M96" s="1" t="s">
@@ -5033,9 +5020,9 @@
       </c>
       <c r="N96" s="6"/>
     </row>
-    <row r="97" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" hidden="1">
       <c r="A97" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>183</v>
@@ -5056,17 +5043,17 @@
         <v>44624.958333333336</v>
       </c>
       <c r="L97" s="1">
-        <f t="shared" si="4"/>
-        <v>1646434800000.0002</v>
+        <f t="shared" si="5"/>
+        <v>1646434800000</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N97" s="6"/>
     </row>
-    <row r="98" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" hidden="1">
       <c r="A98" s="1">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>183</v>
@@ -5087,7 +5074,7 @@
         <v>44625.875</v>
       </c>
       <c r="L98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1646514000000</v>
       </c>
       <c r="M98" s="1" t="s">
@@ -5095,9 +5082,9 @@
       </c>
       <c r="N98" s="6"/>
     </row>
-    <row r="99" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" hidden="1">
       <c r="A99" s="1">
-        <v>119</v>
+        <v>119.0</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>29</v>
@@ -5106,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="N99" s="6"/>
     </row>
-    <row r="100" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" hidden="1">
       <c r="A100" s="1">
-        <v>120</v>
+        <v>120.0</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>173</v>
@@ -5121,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="M100" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="N100" s="6"/>
     </row>
-    <row r="101" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" hidden="1">
       <c r="A101" s="1">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>196</v>
@@ -5136,13 +5123,13 @@
         <v>0</v>
       </c>
       <c r="M101" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="N101" s="6"/>
     </row>
-    <row r="102" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" hidden="1">
       <c r="A102" s="1">
-        <v>122</v>
+        <v>122.0</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>197</v>
@@ -5151,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="M102" s="1">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="N102" s="6"/>
     </row>
-    <row r="103" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" hidden="1">
       <c r="A103" s="1">
-        <v>123</v>
+        <v>123.0</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>158</v>
@@ -5180,17 +5167,17 @@
         <v>44621.083333333336</v>
       </c>
       <c r="L103" s="1">
-        <f t="shared" ref="L103:L109" si="5">(K103-DATE(1970,1,1))*86400*1000</f>
-        <v>1646100000000.0002</v>
+        <f t="shared" ref="L103:L109" si="6">(K103-Date(1970,1,1))*86400*1000</f>
+        <v>1646100000000</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N103" s="6"/>
     </row>
-    <row r="104" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" hidden="1">
       <c r="A104" s="1">
-        <v>124</v>
+        <v>124.0</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>158</v>
@@ -5213,7 +5200,7 @@
         <v>44621.875</v>
       </c>
       <c r="L104" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1646168400000</v>
       </c>
       <c r="M104" s="1" t="s">
@@ -5221,9 +5208,9 @@
       </c>
       <c r="N104" s="6"/>
     </row>
-    <row r="105" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" hidden="1">
       <c r="A105" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>158</v>
@@ -5246,7 +5233,7 @@
         <v>44622.125</v>
       </c>
       <c r="L105" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1646190000000</v>
       </c>
       <c r="M105" s="1" t="s">
@@ -5254,9 +5241,9 @@
       </c>
       <c r="N105" s="6"/>
     </row>
-    <row r="106" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" hidden="1">
       <c r="A106" s="1">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>158</v>
@@ -5279,17 +5266,17 @@
         <v>44623.791666666664</v>
       </c>
       <c r="L106" s="1">
-        <f t="shared" si="5"/>
-        <v>1646333999999.9998</v>
+        <f t="shared" si="6"/>
+        <v>1646334000000</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N106" s="6"/>
     </row>
-    <row r="107" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" hidden="1">
       <c r="A107" s="1">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>158</v>
@@ -5313,7 +5300,7 @@
         <v>44624.875</v>
       </c>
       <c r="L107" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1646427600000</v>
       </c>
       <c r="M107" s="1" t="s">
@@ -5321,9 +5308,9 @@
       </c>
       <c r="N107" s="6"/>
     </row>
-    <row r="108" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" hidden="1">
       <c r="A108" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>158</v>
@@ -5344,7 +5331,7 @@
         <v>44625.125</v>
       </c>
       <c r="L108" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1646449200000</v>
       </c>
       <c r="M108" s="1" t="s">
@@ -5352,9 +5339,9 @@
       </c>
       <c r="N108" s="6"/>
     </row>
-    <row r="109" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" hidden="1">
       <c r="A109" s="1">
-        <v>129</v>
+        <v>129.0</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>158</v>
@@ -5372,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="K109" s="17">
-        <v>44626</v>
+        <v>44626.0</v>
       </c>
       <c r="L109" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1646524800000</v>
       </c>
       <c r="M109" s="1" t="s">
@@ -5383,9 +5370,9 @@
       </c>
       <c r="N109" s="6"/>
     </row>
-    <row r="110" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" hidden="1">
       <c r="A110" s="1">
-        <v>130</v>
+        <v>130.0</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>13</v>
@@ -5394,13 +5381,13 @@
         <v>0</v>
       </c>
       <c r="M110" s="1">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="N110" s="6"/>
     </row>
-    <row r="111" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" hidden="1">
       <c r="A111" s="1">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>212</v>
@@ -5409,13 +5396,13 @@
         <v>0</v>
       </c>
       <c r="M111" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="N111" s="6"/>
     </row>
-    <row r="112" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" hidden="1">
       <c r="A112" s="1">
-        <v>132</v>
+        <v>132.0</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>213</v>
@@ -5424,13 +5411,13 @@
         <v>0</v>
       </c>
       <c r="M112" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" hidden="1">
       <c r="A113" s="1">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>214</v>
@@ -5439,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" hidden="1">
       <c r="A114" s="1">
-        <v>134</v>
+        <v>134.0</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>215</v>
@@ -5454,13 +5441,13 @@
         <v>0</v>
       </c>
       <c r="M114" s="1">
-        <v>83</v>
+        <v>83.0</v>
       </c>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" hidden="1">
       <c r="A115" s="1">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>216</v>
@@ -5483,17 +5470,17 @@
         <v>44621.041666666664</v>
       </c>
       <c r="L115" s="1">
-        <f t="shared" ref="L115:L123" si="6">(K115-DATE(1970,1,1))*86400*1000</f>
-        <v>1646096399999.9998</v>
+        <f t="shared" ref="L115:L123" si="7">(K115-Date(1970,1,1))*86400*1000</f>
+        <v>1646096400000</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N115" s="6"/>
     </row>
-    <row r="116" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" hidden="1">
       <c r="A116" s="1">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>196</v>
@@ -5516,7 +5503,7 @@
         <v>44620.9375</v>
       </c>
       <c r="L116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1646087400000</v>
       </c>
       <c r="M116" s="1" t="s">
@@ -5524,9 +5511,9 @@
       </c>
       <c r="N116" s="6"/>
     </row>
-    <row r="117" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" hidden="1">
       <c r="A117" s="1">
-        <v>137</v>
+        <v>137.0</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>196</v>
@@ -5549,17 +5536,17 @@
         <v>44621.145833333336</v>
       </c>
       <c r="L117" s="1">
-        <f t="shared" si="6"/>
-        <v>1646105400000.0002</v>
+        <f t="shared" si="7"/>
+        <v>1646105400000</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N117" s="6"/>
     </row>
-    <row r="118" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" hidden="1">
       <c r="A118" s="1">
-        <v>138</v>
+        <v>138.0</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>196</v>
@@ -5582,17 +5569,17 @@
         <v>44622.083333333336</v>
       </c>
       <c r="L118" s="1">
-        <f t="shared" si="6"/>
-        <v>1646186400000.0002</v>
+        <f t="shared" si="7"/>
+        <v>1646186400000</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" hidden="1">
       <c r="A119" s="1">
-        <v>139</v>
+        <v>139.0</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>196</v>
@@ -5615,17 +5602,17 @@
         <v>44622.833333333336</v>
       </c>
       <c r="L119" s="1">
-        <f t="shared" si="6"/>
-        <v>1646251200000.0002</v>
+        <f t="shared" si="7"/>
+        <v>1646251200000</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" hidden="1">
       <c r="A120" s="1">
-        <v>140</v>
+        <v>140.0</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>196</v>
@@ -5643,17 +5630,17 @@
         <v>44623.833333333336</v>
       </c>
       <c r="L120" s="1">
-        <f t="shared" si="6"/>
-        <v>1646337600000.0002</v>
+        <f t="shared" si="7"/>
+        <v>1646337600000</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N120" s="6"/>
     </row>
-    <row r="121" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" hidden="1">
       <c r="A121" s="1">
-        <v>141</v>
+        <v>141.0</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>196</v>
@@ -5674,17 +5661,17 @@
         <v>44625.083333333336</v>
       </c>
       <c r="L121" s="1">
-        <f t="shared" si="6"/>
-        <v>1646445600000.0002</v>
+        <f t="shared" si="7"/>
+        <v>1646445600000</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N121" s="6"/>
     </row>
-    <row r="122" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" hidden="1">
       <c r="A122" s="1">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>196</v>
@@ -5705,17 +5692,17 @@
         <v>44625.416666666664</v>
       </c>
       <c r="L122" s="1">
-        <f t="shared" si="6"/>
-        <v>1646474399999.9998</v>
+        <f t="shared" si="7"/>
+        <v>1646474400000</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N122" s="6"/>
     </row>
-    <row r="123" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" hidden="1">
       <c r="A123" s="1">
-        <v>143</v>
+        <v>143.0</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>196</v>
@@ -5733,10 +5720,10 @@
         <v>0</v>
       </c>
       <c r="K123" s="17">
-        <v>44626</v>
+        <v>44626.0</v>
       </c>
       <c r="L123" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1646524800000</v>
       </c>
       <c r="M123" s="1" t="s">
@@ -5744,9 +5731,9 @@
       </c>
       <c r="N123" s="6"/>
     </row>
-    <row r="124" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" hidden="1">
       <c r="A124" s="1">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>232</v>
@@ -5755,13 +5742,13 @@
         <v>0</v>
       </c>
       <c r="M124" s="1">
-        <v>141</v>
+        <v>141.0</v>
       </c>
       <c r="N124" s="6"/>
     </row>
-    <row r="125" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" hidden="1">
       <c r="A125" s="1">
-        <v>145</v>
+        <v>145.0</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>233</v>
@@ -5770,13 +5757,13 @@
         <v>0</v>
       </c>
       <c r="M125" s="1">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" hidden="1">
       <c r="A126" s="1">
-        <v>146</v>
+        <v>146.0</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>234</v>
@@ -5785,13 +5772,13 @@
         <v>0</v>
       </c>
       <c r="M126" s="1">
-        <v>142</v>
+        <v>142.0</v>
       </c>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" hidden="1">
       <c r="A127" s="1">
-        <v>147</v>
+        <v>147.0</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>235</v>
@@ -5809,17 +5796,17 @@
         <v>44620.666666666664</v>
       </c>
       <c r="L127" s="1">
-        <f t="shared" ref="L127:L133" si="7">(K127-DATE(1970,1,1))*86400*1000</f>
-        <v>1646063999999.9998</v>
+        <f t="shared" ref="L127:L133" si="8">(K127-Date(1970,1,1))*86400*1000</f>
+        <v>1646064000000</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" hidden="1">
       <c r="A128" s="1">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>235</v>
@@ -5842,7 +5829,7 @@
         <v>44622.625</v>
       </c>
       <c r="L128" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1646233200000</v>
       </c>
       <c r="M128" s="1" t="s">
@@ -5850,9 +5837,9 @@
       </c>
       <c r="N128" s="6"/>
     </row>
-    <row r="129" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" hidden="1">
       <c r="A129" s="1">
-        <v>149</v>
+        <v>149.0</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>235</v>
@@ -5875,17 +5862,17 @@
         <v>44623.708333333336</v>
       </c>
       <c r="L129" s="1">
-        <f t="shared" si="7"/>
-        <v>1646326800000.0002</v>
+        <f t="shared" si="8"/>
+        <v>1646326800000</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N129" s="6"/>
     </row>
-    <row r="130" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" hidden="1">
       <c r="A130" s="1">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>235</v>
@@ -5906,17 +5893,17 @@
         <v>44624.708333333336</v>
       </c>
       <c r="L130" s="1">
-        <f t="shared" si="7"/>
-        <v>1646413200000.0002</v>
+        <f t="shared" si="8"/>
+        <v>1646413200000</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N130" s="6"/>
     </row>
-    <row r="131" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" hidden="1">
       <c r="A131" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>235</v>
@@ -5937,7 +5924,7 @@
         <v>44625.125</v>
       </c>
       <c r="L131" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1646449200000</v>
       </c>
       <c r="M131" s="1" t="s">
@@ -5945,9 +5932,9 @@
       </c>
       <c r="N131" s="6"/>
     </row>
-    <row r="132" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" hidden="1">
       <c r="A132" s="1">
-        <v>152</v>
+        <v>152.0</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>235</v>
@@ -5968,7 +5955,7 @@
         <v>44625.71875</v>
       </c>
       <c r="L132" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1646500500000</v>
       </c>
       <c r="M132" s="1" t="s">
@@ -5976,9 +5963,9 @@
       </c>
       <c r="N132" s="6"/>
     </row>
-    <row r="133" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" hidden="1">
       <c r="A133" s="1">
-        <v>153</v>
+        <v>153.0</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>235</v>
@@ -5999,7 +5986,7 @@
         <v>44626.5</v>
       </c>
       <c r="L133" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1646568000000</v>
       </c>
       <c r="M133" s="1" t="s">
@@ -6007,9 +5994,9 @@
       </c>
       <c r="N133" s="6"/>
     </row>
-    <row r="134" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" hidden="1">
       <c r="A134" s="1">
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>213</v>
@@ -6018,13 +6005,13 @@
         <v>0</v>
       </c>
       <c r="M134" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="N134" s="6"/>
     </row>
-    <row r="135" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" hidden="1">
       <c r="A135" s="1">
-        <v>155</v>
+        <v>155.0</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>248</v>
@@ -6033,13 +6020,13 @@
         <v>0</v>
       </c>
       <c r="M135" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="N135" s="6"/>
     </row>
-    <row r="136" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" hidden="1">
       <c r="A136" s="1">
-        <v>156</v>
+        <v>156.0</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>214</v>
@@ -6048,13 +6035,13 @@
         <v>0</v>
       </c>
       <c r="M136" s="1">
-        <v>151</v>
+        <v>151.0</v>
       </c>
       <c r="N136" s="6"/>
     </row>
-    <row r="137" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" hidden="1">
       <c r="A137" s="1">
-        <v>157</v>
+        <v>157.0</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>249</v>
@@ -6063,13 +6050,13 @@
         <v>0</v>
       </c>
       <c r="M137" s="1">
-        <v>148</v>
+        <v>148.0</v>
       </c>
       <c r="N137" s="6"/>
     </row>
-    <row r="138" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" hidden="1">
       <c r="A138" s="1">
-        <v>158</v>
+        <v>158.0</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>213</v>
@@ -6078,13 +6065,13 @@
         <v>0</v>
       </c>
       <c r="M138" s="1">
-        <v>153</v>
+        <v>153.0</v>
       </c>
       <c r="N138" s="6"/>
     </row>
-    <row r="139" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" hidden="1">
       <c r="A139" s="1">
-        <v>159</v>
+        <v>159.0</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>234</v>
@@ -6093,13 +6080,13 @@
         <v>0</v>
       </c>
       <c r="M139" s="1">
-        <v>153</v>
+        <v>153.0</v>
       </c>
       <c r="N139" s="6"/>
     </row>
-    <row r="140" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" hidden="1">
       <c r="A140" s="1">
-        <v>160</v>
+        <v>160.0</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>13</v>
@@ -6108,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="M140" s="1">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="N140" s="6"/>
     </row>
-    <row r="141" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" hidden="1">
       <c r="A141" s="1">
-        <v>161</v>
+        <v>161.0</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>250</v>
@@ -6137,17 +6124,17 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L141" s="1">
-        <f t="shared" ref="L141:L161" si="8">(K141-DATE(1970,1,1))*86400*1000</f>
-        <v>1646107199999.9998</v>
+        <f t="shared" ref="L141:L161" si="9">(K141-Date(1970,1,1))*86400*1000</f>
+        <v>1646107200000</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N141" s="6"/>
     </row>
-    <row r="142" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" hidden="1">
       <c r="A142" s="1">
-        <v>162</v>
+        <v>162.0</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>250</v>
@@ -6170,17 +6157,17 @@
         <v>44622.166666666664</v>
       </c>
       <c r="L142" s="1">
-        <f t="shared" si="8"/>
-        <v>1646193599999.9998</v>
+        <f t="shared" si="9"/>
+        <v>1646193600000</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N142" s="6"/>
     </row>
-    <row r="143" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" hidden="1">
       <c r="A143" s="1">
-        <v>163</v>
+        <v>163.0</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>250</v>
@@ -6203,17 +6190,17 @@
         <v>44623.166666666664</v>
       </c>
       <c r="L143" s="1">
-        <f t="shared" si="8"/>
-        <v>1646279999999.9998</v>
+        <f t="shared" si="9"/>
+        <v>1646280000000</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N143" s="6"/>
     </row>
-    <row r="144" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" hidden="1">
       <c r="A144" s="1">
-        <v>164</v>
+        <v>164.0</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>250</v>
@@ -6234,7 +6221,7 @@
         <v>44624.125</v>
       </c>
       <c r="L144" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646362800000</v>
       </c>
       <c r="M144" s="1" t="s">
@@ -6242,9 +6229,9 @@
       </c>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" hidden="1">
       <c r="A145" s="1">
-        <v>165</v>
+        <v>165.0</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>250</v>
@@ -6265,7 +6252,7 @@
         <v>44625.125</v>
       </c>
       <c r="L145" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646449200000</v>
       </c>
       <c r="M145" s="1" t="s">
@@ -6273,9 +6260,9 @@
       </c>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" hidden="1">
       <c r="A146" s="1">
-        <v>166</v>
+        <v>166.0</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>250</v>
@@ -6296,17 +6283,17 @@
         <v>44625.458333333336</v>
       </c>
       <c r="L146" s="1">
-        <f t="shared" si="8"/>
-        <v>1646478000000.0002</v>
+        <f t="shared" si="9"/>
+        <v>1646478000000</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" hidden="1">
       <c r="A147" s="1">
-        <v>167</v>
+        <v>167.0</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>250</v>
@@ -6324,7 +6311,7 @@
         <v>44626.125</v>
       </c>
       <c r="L147" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646535600000</v>
       </c>
       <c r="M147" s="1" t="s">
@@ -6332,9 +6319,9 @@
       </c>
       <c r="N147" s="6"/>
     </row>
-    <row r="148" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" hidden="1">
       <c r="A148" s="1">
-        <v>168</v>
+        <v>168.0</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>250</v>
@@ -6355,7 +6342,7 @@
         <v>44626.5</v>
       </c>
       <c r="L148" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646568000000</v>
       </c>
       <c r="M148" s="1" t="s">
@@ -6363,9 +6350,9 @@
       </c>
       <c r="N148" s="6"/>
     </row>
-    <row r="149" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" hidden="1">
       <c r="A149" s="1">
-        <v>169</v>
+        <v>169.0</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>44</v>
@@ -6388,17 +6375,17 @@
         <v>44621.166666666664</v>
       </c>
       <c r="L149" s="1">
-        <f t="shared" si="8"/>
-        <v>1646107199999.9998</v>
+        <f t="shared" si="9"/>
+        <v>1646107200000</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N149" s="6"/>
     </row>
-    <row r="150" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" hidden="1">
       <c r="A150" s="1">
-        <v>170</v>
+        <v>170.0</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>44</v>
@@ -6421,17 +6408,17 @@
         <v>44622.166666666664</v>
       </c>
       <c r="L150" s="1">
-        <f t="shared" si="8"/>
-        <v>1646193599999.9998</v>
+        <f t="shared" si="9"/>
+        <v>1646193600000</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N150" s="6"/>
     </row>
-    <row r="151" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" hidden="1">
       <c r="A151" s="1">
-        <v>171</v>
+        <v>171.0</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>44</v>
@@ -6454,17 +6441,17 @@
         <v>44623.083333333336</v>
       </c>
       <c r="L151" s="1">
-        <f t="shared" si="8"/>
-        <v>1646272800000.0002</v>
+        <f t="shared" si="9"/>
+        <v>1646272800000</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N151" s="6"/>
     </row>
-    <row r="152" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" hidden="1">
       <c r="A152" s="1">
-        <v>172</v>
+        <v>172.0</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>44</v>
@@ -6485,17 +6472,17 @@
         <v>44624.083333333336</v>
       </c>
       <c r="L152" s="1">
-        <f t="shared" si="8"/>
-        <v>1646359200000.0002</v>
+        <f t="shared" si="9"/>
+        <v>1646359200000</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N152" s="6"/>
     </row>
-    <row r="153" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" hidden="1">
       <c r="A153" s="1">
-        <v>173</v>
+        <v>173.0</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>44</v>
@@ -6516,7 +6503,7 @@
         <v>44624.5</v>
       </c>
       <c r="L153" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646395200000</v>
       </c>
       <c r="M153" s="1" t="s">
@@ -6524,9 +6511,9 @@
       </c>
       <c r="N153" s="6"/>
     </row>
-    <row r="154" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" hidden="1">
       <c r="A154" s="1">
-        <v>174</v>
+        <v>174.0</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>44</v>
@@ -6547,17 +6534,17 @@
         <v>44625.166666666664</v>
       </c>
       <c r="L154" s="1">
-        <f t="shared" si="8"/>
-        <v>1646452799999.9998</v>
+        <f t="shared" si="9"/>
+        <v>1646452800000</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N154" s="6"/>
     </row>
-    <row r="155" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" hidden="1">
       <c r="A155" s="1">
-        <v>175</v>
+        <v>175.0</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>44</v>
@@ -6581,7 +6568,7 @@
         <v>44626.25</v>
       </c>
       <c r="L155" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646546400000</v>
       </c>
       <c r="M155" s="1" t="s">
@@ -6589,9 +6576,9 @@
       </c>
       <c r="N155" s="6"/>
     </row>
-    <row r="156" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" hidden="1">
       <c r="A156" s="1">
-        <v>176</v>
+        <v>176.0</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>56</v>
@@ -6614,7 +6601,7 @@
         <v>44621.5</v>
       </c>
       <c r="L156" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646136000000</v>
       </c>
       <c r="M156" s="1" t="s">
@@ -6622,9 +6609,9 @@
       </c>
       <c r="N156" s="6"/>
     </row>
-    <row r="157" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" hidden="1">
       <c r="A157" s="1">
-        <v>177</v>
+        <v>177.0</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>56</v>
@@ -6647,7 +6634,7 @@
         <v>44622.5</v>
       </c>
       <c r="L157" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646222400000</v>
       </c>
       <c r="M157" s="1" t="s">
@@ -6655,9 +6642,9 @@
       </c>
       <c r="N157" s="6"/>
     </row>
-    <row r="158" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" hidden="1">
       <c r="A158" s="1">
-        <v>178</v>
+        <v>178.0</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>56</v>
@@ -6680,17 +6667,17 @@
         <v>44623.458333333336</v>
       </c>
       <c r="L158" s="1">
-        <f t="shared" si="8"/>
-        <v>1646305200000.0002</v>
+        <f t="shared" si="9"/>
+        <v>1646305200000</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N158" s="6"/>
     </row>
-    <row r="159" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" hidden="1">
       <c r="A159" s="1">
-        <v>179</v>
+        <v>179.0</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>56</v>
@@ -6711,17 +6698,17 @@
         <v>44624.458333333336</v>
       </c>
       <c r="L159" s="1">
-        <f t="shared" si="8"/>
-        <v>1646391600000.0002</v>
+        <f t="shared" si="9"/>
+        <v>1646391600000</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N159" s="6"/>
     </row>
-    <row r="160" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" hidden="1">
       <c r="A160" s="1">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>56</v>
@@ -6745,17 +6732,17 @@
         <v>44625.416666666664</v>
       </c>
       <c r="L160" s="1">
-        <f t="shared" si="8"/>
-        <v>1646474399999.9998</v>
+        <f t="shared" si="9"/>
+        <v>1646474400000</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N160" s="6"/>
     </row>
-    <row r="161" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" hidden="1">
       <c r="A161" s="1">
-        <v>181</v>
+        <v>181.0</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>56</v>
@@ -6776,7 +6763,7 @@
         <v>44626.5</v>
       </c>
       <c r="L161" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1646568000000</v>
       </c>
       <c r="M161" s="1" t="s">
@@ -6784,9 +6771,9 @@
       </c>
       <c r="N161" s="6"/>
     </row>
-    <row r="162" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" hidden="1">
       <c r="A162" s="1">
-        <v>182</v>
+        <v>182.0</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>29</v>
@@ -6795,13 +6782,13 @@
         <v>0</v>
       </c>
       <c r="M162" s="1">
-        <v>72</v>
+        <v>72.0</v>
       </c>
       <c r="N162" s="6"/>
     </row>
-    <row r="163" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" hidden="1">
       <c r="A163" s="1">
-        <v>183</v>
+        <v>183.0</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>250</v>
@@ -6810,13 +6797,13 @@
         <v>0</v>
       </c>
       <c r="M163" s="1">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="N163" s="6"/>
     </row>
-    <row r="164" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" hidden="1">
       <c r="A164" s="1">
-        <v>184</v>
+        <v>184.0</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>287</v>
@@ -6839,7 +6826,7 @@
         <v>44622.75</v>
       </c>
       <c r="L164" s="1">
-        <f t="shared" ref="L164:L168" si="9">(K164-DATE(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L164:L168" si="10">(K164-Date(1970,1,1))*86400*1000</f>
         <v>1646244000000</v>
       </c>
       <c r="M164" s="1" t="s">
@@ -6847,9 +6834,9 @@
       </c>
       <c r="N164" s="6"/>
     </row>
-    <row r="165" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" hidden="1">
       <c r="A165" s="1">
-        <v>185</v>
+        <v>185.0</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>287</v>
@@ -6870,7 +6857,7 @@
         <v>44623.75</v>
       </c>
       <c r="L165" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1646330400000</v>
       </c>
       <c r="M165" s="1" t="s">
@@ -6878,9 +6865,9 @@
       </c>
       <c r="N165" s="6"/>
     </row>
-    <row r="166" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" hidden="1">
       <c r="A166" s="1">
-        <v>186</v>
+        <v>186.0</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>287</v>
@@ -6901,17 +6888,17 @@
         <v>44624.166666666664</v>
       </c>
       <c r="L166" s="1">
-        <f t="shared" si="9"/>
-        <v>1646366399999.9998</v>
+        <f t="shared" si="10"/>
+        <v>1646366400000</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N166" s="6"/>
     </row>
-    <row r="167" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" hidden="1">
       <c r="A167" s="1">
-        <v>187</v>
+        <v>187.0</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>287</v>
@@ -6932,7 +6919,7 @@
         <v>44625.125</v>
       </c>
       <c r="L167" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1646449200000</v>
       </c>
       <c r="M167" s="1" t="s">
@@ -6940,9 +6927,9 @@
       </c>
       <c r="N167" s="6"/>
     </row>
-    <row r="168" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" hidden="1">
       <c r="A168" s="1">
-        <v>188</v>
+        <v>188.0</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>51</v>
@@ -6965,17 +6952,17 @@
         <v>44624.041666666664</v>
       </c>
       <c r="L168" s="1">
-        <f t="shared" si="9"/>
-        <v>1646355599999.9998</v>
+        <f t="shared" si="10"/>
+        <v>1646355600000</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N168" s="6"/>
     </row>
-    <row r="169" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" hidden="1">
       <c r="A169" s="1">
-        <v>189</v>
+        <v>189.0</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>29</v>
@@ -6984,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="M169" s="1">
-        <v>188</v>
+        <v>188.0</v>
       </c>
       <c r="N169" s="6"/>
     </row>
-    <row r="170" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" hidden="1">
       <c r="A170" s="1">
-        <v>190</v>
+        <v>190.0</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>216</v>
@@ -7013,17 +7000,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L170" s="1">
-        <f t="shared" ref="L170:L200" si="10">(K170-DATE(1970,1,1))*86400*1000</f>
-        <v>1646171999999.9998</v>
+        <f t="shared" ref="L170:L200" si="11">(K170-Date(1970,1,1))*86400*1000</f>
+        <v>1646172000000</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N170" s="6"/>
     </row>
-    <row r="171" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" hidden="1">
       <c r="A171" s="1">
-        <v>191</v>
+        <v>191.0</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>216</v>
@@ -7046,17 +7033,17 @@
         <v>44623.666666666664</v>
       </c>
       <c r="L171" s="1">
-        <f t="shared" si="10"/>
-        <v>1646323199999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646323200000</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N171" s="6"/>
     </row>
-    <row r="172" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" hidden="1">
       <c r="A172" s="1">
-        <v>192</v>
+        <v>192.0</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>216</v>
@@ -7077,17 +7064,17 @@
         <v>44625.666666666664</v>
       </c>
       <c r="L172" s="1">
-        <f t="shared" si="10"/>
-        <v>1646495999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646496000000</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N172" s="6"/>
     </row>
-    <row r="173" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" hidden="1">
       <c r="A173" s="1">
-        <v>193</v>
+        <v>193.0</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>161</v>
@@ -7110,17 +7097,17 @@
         <v>44621.791666666664</v>
       </c>
       <c r="L173" s="1">
-        <f t="shared" si="10"/>
-        <v>1646161199999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646161200000</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N173" s="6"/>
     </row>
-    <row r="174" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" hidden="1">
       <c r="A174" s="1">
-        <v>194</v>
+        <v>194.0</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>161</v>
@@ -7138,17 +7125,17 @@
         <v>44623.833333333336</v>
       </c>
       <c r="L174" s="1">
-        <f t="shared" si="10"/>
-        <v>1646337600000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1646337600000</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N174" s="6"/>
     </row>
-    <row r="175" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" hidden="1">
       <c r="A175" s="1">
-        <v>195</v>
+        <v>195.0</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>304</v>
@@ -7171,17 +7158,17 @@
         <v>44619.916666666664</v>
       </c>
       <c r="L175" s="1">
-        <f t="shared" si="10"/>
-        <v>1645999199999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1645999200000</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N175" s="6"/>
     </row>
-    <row r="176" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" hidden="1">
       <c r="A176" s="1">
-        <v>196</v>
+        <v>196.0</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>304</v>
@@ -7201,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="K176" s="5">
-        <v>44621</v>
+        <v>44621.0</v>
       </c>
       <c r="L176" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1646092800000</v>
       </c>
       <c r="M176" s="1" t="s">
@@ -7212,9 +7199,9 @@
       </c>
       <c r="N176" s="6"/>
     </row>
-    <row r="177" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" hidden="1">
       <c r="A177" s="1">
-        <v>197</v>
+        <v>197.0</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>304</v>
@@ -7235,17 +7222,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L177" s="1">
-        <f t="shared" si="10"/>
-        <v>1646171999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646172000000</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N177" s="6"/>
     </row>
-    <row r="178" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" hidden="1">
       <c r="A178" s="1">
-        <v>198</v>
+        <v>198.0</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>304</v>
@@ -7271,17 +7258,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L178" s="1">
-        <f t="shared" si="10"/>
-        <v>1646171999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646172000000</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N178" s="6"/>
     </row>
-    <row r="179" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" hidden="1">
       <c r="A179" s="1">
-        <v>199</v>
+        <v>199.0</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>304</v>
@@ -7306,17 +7293,17 @@
         <v>44622.958333333336</v>
       </c>
       <c r="L179" s="1">
-        <f t="shared" si="10"/>
-        <v>1646262000000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1646262000000</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N179" s="6"/>
     </row>
-    <row r="180" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" hidden="1">
       <c r="A180" s="1">
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>304</v>
@@ -7337,17 +7324,17 @@
         <v>44625.041666666664</v>
       </c>
       <c r="L180" s="1">
-        <f t="shared" si="10"/>
-        <v>1646441999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646442000000</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N180" s="6"/>
     </row>
-    <row r="181" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" hidden="1">
       <c r="A181" s="1">
-        <v>201</v>
+        <v>201.0</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>304</v>
@@ -7371,17 +7358,17 @@
         <v>44625.041666666664</v>
       </c>
       <c r="L181" s="1">
-        <f t="shared" si="10"/>
-        <v>1646441999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646442000000</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N181" s="6"/>
     </row>
-    <row r="182" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" hidden="1">
       <c r="A182" s="1">
-        <v>202</v>
+        <v>202.0</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>304</v>
@@ -7407,17 +7394,17 @@
         <v>44623.916666666664</v>
       </c>
       <c r="L182" s="1">
-        <f t="shared" si="10"/>
-        <v>1646344799999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646344800000</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N182" s="6"/>
     </row>
-    <row r="183" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" hidden="1">
       <c r="A183" s="1">
-        <v>203</v>
+        <v>203.0</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>304</v>
@@ -7438,17 +7425,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L183" s="1">
-        <f t="shared" si="10"/>
-        <v>1646532000000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1646532000000</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N183" s="6"/>
     </row>
-    <row r="184" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" hidden="1">
       <c r="A184" s="1">
-        <v>204</v>
+        <v>204.0</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>319</v>
@@ -7471,17 +7458,17 @@
         <v>44619.583333333336</v>
       </c>
       <c r="L184" s="1">
-        <f t="shared" si="10"/>
-        <v>1645970400000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1645970400000</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N184" s="6"/>
     </row>
-    <row r="185" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" hidden="1">
       <c r="A185" s="1">
-        <v>205</v>
+        <v>205.0</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>319</v>
@@ -7504,17 +7491,17 @@
         <v>44620.666666666664</v>
       </c>
       <c r="L185" s="1">
-        <f t="shared" si="10"/>
-        <v>1646063999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646064000000</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N185" s="6"/>
     </row>
-    <row r="186" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" hidden="1">
       <c r="A186" s="1">
-        <v>206</v>
+        <v>206.0</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>319</v>
@@ -7537,17 +7524,17 @@
         <v>44621.916666666664</v>
       </c>
       <c r="L186" s="1">
-        <f t="shared" si="10"/>
-        <v>1646171999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646172000000</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N186" s="6"/>
     </row>
-    <row r="187" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" hidden="1">
       <c r="A187" s="1">
-        <v>207</v>
+        <v>207.0</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>319</v>
@@ -7570,17 +7557,17 @@
         <v>44622.916666666664</v>
       </c>
       <c r="L187" s="1">
-        <f t="shared" si="10"/>
-        <v>1646258399999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646258400000</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N187" s="6"/>
     </row>
-    <row r="188" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" hidden="1">
       <c r="A188" s="1">
-        <v>208</v>
+        <v>208.0</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>319</v>
@@ -7601,17 +7588,17 @@
         <v>44625.041666666664</v>
       </c>
       <c r="L188" s="1">
-        <f t="shared" si="10"/>
-        <v>1646441999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646442000000</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N188" s="6"/>
     </row>
-    <row r="189" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" hidden="1">
       <c r="A189" s="1">
-        <v>209</v>
+        <v>209.0</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>319</v>
@@ -7632,17 +7619,17 @@
         <v>44625.583333333336</v>
       </c>
       <c r="L189" s="1">
-        <f t="shared" si="10"/>
-        <v>1646488800000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1646488800000</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N189" s="6"/>
     </row>
-    <row r="190" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" hidden="1">
       <c r="A190" s="1">
-        <v>210</v>
+        <v>210.0</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>319</v>
@@ -7666,16 +7653,16 @@
         <v>44623.958333333336</v>
       </c>
       <c r="L190" s="1">
-        <f t="shared" si="10"/>
-        <v>1646348400000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1646348400000</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" hidden="1">
       <c r="A191" s="1">
-        <v>211</v>
+        <v>211.0</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>334</v>
@@ -7698,7 +7685,7 @@
         <v>44619.5</v>
       </c>
       <c r="L191" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1645963200000</v>
       </c>
       <c r="M191" s="1" t="s">
@@ -7706,9 +7693,9 @@
       </c>
       <c r="N191" s="6"/>
     </row>
-    <row r="192" spans="1:14" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" hidden="1">
       <c r="A192" s="1">
-        <v>212</v>
+        <v>212.0</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>334</v>
@@ -7731,7 +7718,7 @@
         <v>44620.5</v>
       </c>
       <c r="L192" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1646049600000</v>
       </c>
       <c r="M192" s="1" t="s">
@@ -7739,9 +7726,9 @@
       </c>
       <c r="N192" s="6"/>
     </row>
-    <row r="193" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" hidden="1">
       <c r="A193" s="1">
-        <v>213</v>
+        <v>213.0</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>334</v>
@@ -7764,17 +7751,17 @@
         <v>44621.541666666664</v>
       </c>
       <c r="L193" s="1">
-        <f t="shared" si="10"/>
-        <v>1646139599999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646139600000</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N193" s="6"/>
     </row>
-    <row r="194" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" hidden="1">
       <c r="A194" s="1">
-        <v>214</v>
+        <v>214.0</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>334</v>
@@ -7797,7 +7784,7 @@
         <v>44622.5</v>
       </c>
       <c r="L194" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1646222400000</v>
       </c>
       <c r="M194" s="1" t="s">
@@ -7805,9 +7792,9 @@
       </c>
       <c r="N194" s="6"/>
     </row>
-    <row r="195" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" hidden="1">
       <c r="A195" s="1">
-        <v>215</v>
+        <v>215.0</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>334</v>
@@ -7828,17 +7815,17 @@
         <v>44623.541666666664</v>
       </c>
       <c r="L195" s="1">
-        <f t="shared" si="10"/>
-        <v>1646312399999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646312400000</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N195" s="6"/>
     </row>
-    <row r="196" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" hidden="1">
       <c r="A196" s="1">
-        <v>216</v>
+        <v>216.0</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>334</v>
@@ -7859,7 +7846,7 @@
         <v>44624.5</v>
       </c>
       <c r="L196" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1646395200000</v>
       </c>
       <c r="M196" s="1" t="s">
@@ -7867,9 +7854,9 @@
       </c>
       <c r="N196" s="6"/>
     </row>
-    <row r="197" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" hidden="1">
       <c r="A197" s="1">
-        <v>217</v>
+        <v>217.0</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>334</v>
@@ -7890,7 +7877,7 @@
         <v>44624.875</v>
       </c>
       <c r="L197" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1646427600000</v>
       </c>
       <c r="M197" s="1" t="s">
@@ -7898,9 +7885,9 @@
       </c>
       <c r="N197" s="6"/>
     </row>
-    <row r="198" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" hidden="1">
       <c r="A198" s="1">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>334</v>
@@ -7921,17 +7908,17 @@
         <v>44626.083333333336</v>
       </c>
       <c r="L198" s="1">
-        <f t="shared" si="10"/>
-        <v>1646532000000.0002</v>
+        <f t="shared" si="11"/>
+        <v>1646532000000</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N198" s="6"/>
     </row>
-    <row r="199" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" hidden="1">
       <c r="A199" s="1">
-        <v>219</v>
+        <v>219.0</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>334</v>
@@ -7955,16 +7942,16 @@
         <v>44624.416666666664</v>
       </c>
       <c r="L199" s="1">
-        <f t="shared" si="10"/>
-        <v>1646387999999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646388000000</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" hidden="1">
       <c r="A200" s="1">
-        <v>220</v>
+        <v>220.0</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>13</v>
@@ -7988,16 +7975,16 @@
         <v>44625.541666666664</v>
       </c>
       <c r="L200" s="1">
-        <f t="shared" si="10"/>
-        <v>1646485199999.9998</v>
+        <f t="shared" si="11"/>
+        <v>1646485200000</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" hidden="1">
       <c r="A201" s="1">
-        <v>221</v>
+        <v>221.0</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>319</v>
@@ -8009,12 +7996,12 @@
         <v>0</v>
       </c>
       <c r="M201" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="202" spans="1:32" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+        <v>59.0</v>
+      </c>
+    </row>
+    <row r="202" hidden="1">
       <c r="A202" s="23">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="B202" s="23" t="s">
         <v>13</v>
@@ -8041,8 +8028,8 @@
         <v>44626.604166666664</v>
       </c>
       <c r="L202" s="23">
-        <f t="shared" ref="L202:L207" si="11">(K202-DATE(1970,1,1))*86400*1000</f>
-        <v>1646576999999.9998</v>
+        <f t="shared" ref="L202:L207" si="12">(K202-Date(1970,1,1))*86400*1000</f>
+        <v>1646577000000</v>
       </c>
       <c r="M202" s="23" t="s">
         <v>16</v>
@@ -8067,9 +8054,9 @@
       <c r="AE202" s="25"/>
       <c r="AF202" s="25"/>
     </row>
-    <row r="203" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203">
       <c r="A203" s="1">
-        <v>223</v>
+        <v>223.0</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>319</v>
@@ -8087,16 +8074,16 @@
         <v>44626.666666666664</v>
       </c>
       <c r="L203" s="1">
-        <f t="shared" si="11"/>
-        <v>1646582399999.9998</v>
+        <f t="shared" si="12"/>
+        <v>1646582400000</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204">
       <c r="A204" s="1">
-        <v>224</v>
+        <v>224.0</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>319</v>
@@ -8114,16 +8101,16 @@
         <v>44627.666666666664</v>
       </c>
       <c r="L204" s="1">
-        <f t="shared" si="11"/>
-        <v>1646668799999.9998</v>
+        <f t="shared" si="12"/>
+        <v>1646668800000</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205">
       <c r="A205" s="1">
-        <v>225</v>
+        <v>225.0</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>319</v>
@@ -8141,16 +8128,16 @@
         <v>44628.666666666664</v>
       </c>
       <c r="L205" s="1">
-        <f t="shared" si="11"/>
-        <v>1646755199999.9998</v>
+        <f t="shared" si="12"/>
+        <v>1646755200000</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206">
       <c r="A206" s="1">
-        <v>226</v>
+        <v>226.0</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>319</v>
@@ -8171,16 +8158,16 @@
         <v>44629.833333333336</v>
       </c>
       <c r="L206" s="1">
-        <f t="shared" si="11"/>
-        <v>1646856000000.0002</v>
+        <f t="shared" si="12"/>
+        <v>1646856000000</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207">
       <c r="A207" s="1">
-        <v>227</v>
+        <v>227.0</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>319</v>
@@ -8198,14 +8185,14 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L207" s="1">
-        <f t="shared" si="11"/>
-        <v>1646960399999.9998</v>
+        <f t="shared" si="12"/>
+        <v>1646960400000</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>363</v>
@@ -8216,10 +8203,10 @@
       <c r="K208" s="5"/>
       <c r="L208" s="1"/>
       <c r="M208" s="1">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>226.0</v>
+      </c>
+    </row>
+    <row r="209">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>197</v>
@@ -8230,12 +8217,12 @@
       <c r="K209" s="5"/>
       <c r="L209" s="1"/>
       <c r="M209" s="1">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>227.0</v>
+      </c>
+    </row>
+    <row r="210">
       <c r="A210" s="1">
-        <v>228</v>
+        <v>228.0</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>319</v>
@@ -8253,16 +8240,16 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L210" s="1">
-        <f t="shared" ref="L210:L229" si="12">(K210-DATE(1970,1,1))*86400*1000</f>
-        <v>1647050400000.0002</v>
+        <f t="shared" ref="L210:L229" si="13">(K210-Date(1970,1,1))*86400*1000</f>
+        <v>1647050400000</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211">
       <c r="A211" s="1">
-        <v>229</v>
+        <v>229.0</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>319</v>
@@ -8277,16 +8264,16 @@
         <v>44632.625</v>
       </c>
       <c r="L211" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1647097200000</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212">
       <c r="A212" s="1">
-        <v>230</v>
+        <v>230.0</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>304</v>
@@ -8301,19 +8288,19 @@
         <v>367</v>
       </c>
       <c r="K212" s="5">
-        <v>44627</v>
+        <v>44627.0</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646611200000</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213">
       <c r="A213" s="1">
-        <v>231</v>
+        <v>231.0</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>304</v>
@@ -8328,19 +8315,19 @@
         <v>369</v>
       </c>
       <c r="K213" s="5">
-        <v>44628</v>
+        <v>44628.0</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646697600000</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214">
       <c r="A214" s="1">
-        <v>232</v>
+        <v>232.0</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>304</v>
@@ -8355,19 +8342,19 @@
         <v>370</v>
       </c>
       <c r="K214" s="5">
-        <v>44629</v>
+        <v>44629.0</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646784000000</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215">
       <c r="A215" s="1">
-        <v>233</v>
+        <v>233.0</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>304</v>
@@ -8382,16 +8369,16 @@
         <v>44630.041666666664</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="12"/>
-        <v>1646873999999.9998</v>
+        <f t="shared" si="13"/>
+        <v>1646874000000</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216">
       <c r="A216" s="1">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>304</v>
@@ -8409,16 +8396,16 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="12"/>
-        <v>1646960399999.9998</v>
+        <f t="shared" si="13"/>
+        <v>1646960400000</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217">
       <c r="A217" s="1">
-        <v>235</v>
+        <v>235.0</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>304</v>
@@ -8433,19 +8420,19 @@
         <v>1</v>
       </c>
       <c r="K217" s="5">
-        <v>44633</v>
+        <v>44633.0</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1647129600000</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218">
       <c r="A218" s="1">
-        <v>236</v>
+        <v>236.0</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>304</v>
@@ -8466,16 +8453,16 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000.0002</v>
+        <f t="shared" si="13"/>
+        <v>1647050400000</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219">
       <c r="A219" s="1">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>79</v>
@@ -8493,16 +8480,16 @@
         <v>44627.125</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646622000000</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220">
       <c r="A220" s="1">
-        <v>238</v>
+        <v>238.0</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>79</v>
@@ -8520,16 +8507,16 @@
         <v>44628.041666666664</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="12"/>
-        <v>1646701199999.9998</v>
+        <f t="shared" si="13"/>
+        <v>1646701200000</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221">
       <c r="A221" s="1">
-        <v>239</v>
+        <v>239.0</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>79</v>
@@ -8547,16 +8534,16 @@
         <v>44629.125</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646794800000</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222">
       <c r="A222" s="1">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>79</v>
@@ -8571,16 +8558,16 @@
         <v>44630.041666666664</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="12"/>
-        <v>1646873999999.9998</v>
+        <f t="shared" si="13"/>
+        <v>1646874000000</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223">
       <c r="A223" s="1">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>79</v>
@@ -8598,16 +8585,16 @@
         <v>44630.875</v>
       </c>
       <c r="L223" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646946000000</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224">
       <c r="A224" s="1">
-        <v>242</v>
+        <v>242.0</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>79</v>
@@ -8628,16 +8615,16 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L224" s="1">
-        <f t="shared" si="12"/>
-        <v>1646960399999.9998</v>
+        <f t="shared" si="13"/>
+        <v>1646960400000</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225">
       <c r="A225" s="1">
-        <v>243</v>
+        <v>243.0</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>79</v>
@@ -8655,16 +8642,16 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L225" s="1">
-        <f t="shared" si="12"/>
-        <v>1647050400000.0002</v>
+        <f t="shared" si="13"/>
+        <v>1647050400000</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226">
       <c r="A226" s="1">
-        <v>244</v>
+        <v>244.0</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>183</v>
@@ -8685,16 +8672,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L226" s="1">
-        <f t="shared" si="12"/>
-        <v>1646618400000.0002</v>
+        <f t="shared" si="13"/>
+        <v>1646618400000</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227">
       <c r="A227" s="1">
-        <v>245</v>
+        <v>245.0</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>183</v>
@@ -8712,16 +8699,16 @@
         <v>44627.875</v>
       </c>
       <c r="L227" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1646686800000</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228">
       <c r="A228" s="1">
-        <v>246</v>
+        <v>246.0</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>183</v>
@@ -8739,16 +8726,16 @@
         <v>44628.958333333336</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="12"/>
-        <v>1646780400000.0002</v>
+        <f t="shared" si="13"/>
+        <v>1646780400000</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229">
       <c r="A229" s="1">
-        <v>247</v>
+        <v>247.0</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>183</v>
@@ -8769,14 +8756,14 @@
         <v>44630.958333333336</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="12"/>
-        <v>1646953200000.0002</v>
+        <f t="shared" si="13"/>
+        <v>1646953200000</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>213</v>
@@ -8786,10 +8773,10 @@
       <c r="K230" s="5"/>
       <c r="L230" s="1"/>
       <c r="M230" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>247.0</v>
+      </c>
+    </row>
+    <row r="231">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>215</v>
@@ -8799,12 +8786,12 @@
       <c r="K231" s="5"/>
       <c r="L231" s="1"/>
       <c r="M231" s="1">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>247.0</v>
+      </c>
+    </row>
+    <row r="232">
       <c r="A232" s="1">
-        <v>248</v>
+        <v>248.0</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>183</v>
@@ -8819,16 +8806,16 @@
         <v>44631.875</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" ref="L232:L257" si="13">(K232-DATE(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L232:L257" si="14">(K232-Date(1970,1,1))*86400*1000</f>
         <v>1647032400000</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233">
       <c r="A233" s="1">
-        <v>249</v>
+        <v>249.0</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>183</v>
@@ -8843,16 +8830,16 @@
         <v>44632.958333333336</v>
       </c>
       <c r="L233" s="1">
-        <f t="shared" si="13"/>
-        <v>1647126000000.0002</v>
+        <f t="shared" si="14"/>
+        <v>1647126000000</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234">
       <c r="A234" s="1">
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>334</v>
@@ -8870,16 +8857,16 @@
         <v>44627.5</v>
       </c>
       <c r="L234" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646654400000</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235">
       <c r="A235" s="1">
-        <v>251</v>
+        <v>251.0</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>334</v>
@@ -8897,16 +8884,16 @@
         <v>44628.5</v>
       </c>
       <c r="L235" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646740800000</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236">
       <c r="A236" s="1">
-        <v>252</v>
+        <v>252.0</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>334</v>
@@ -8921,16 +8908,16 @@
         <v>44629.5</v>
       </c>
       <c r="L236" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646827200000</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237">
       <c r="A237" s="1">
-        <v>253</v>
+        <v>253.0</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>334</v>
@@ -8948,16 +8935,16 @@
         <v>44630.375</v>
       </c>
       <c r="L237" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646902800000</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238">
       <c r="A238" s="1">
-        <v>254</v>
+        <v>254.0</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>334</v>
@@ -8972,16 +8959,16 @@
         <v>44631.5</v>
       </c>
       <c r="L238" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1647000000000</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239">
       <c r="A239" s="1">
-        <v>255</v>
+        <v>255.0</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>334</v>
@@ -8999,16 +8986,16 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L239" s="1">
-        <f t="shared" si="13"/>
-        <v>1647050400000.0002</v>
+        <f t="shared" si="14"/>
+        <v>1647050400000</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240">
       <c r="A240" s="1">
-        <v>256</v>
+        <v>256.0</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>334</v>
@@ -9023,16 +9010,16 @@
         <v>44633.083333333336</v>
       </c>
       <c r="L240" s="1">
-        <f t="shared" si="13"/>
-        <v>1647136800000.0002</v>
+        <f t="shared" si="14"/>
+        <v>1647136800000</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241">
       <c r="A241" s="1">
-        <v>257</v>
+        <v>257.0</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>94</v>
@@ -9050,16 +9037,16 @@
         <v>44627.375</v>
       </c>
       <c r="L241" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646643600000</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242">
       <c r="A242" s="1">
-        <v>258</v>
+        <v>258.0</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>94</v>
@@ -9077,16 +9064,16 @@
         <v>44628.375</v>
       </c>
       <c r="L242" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646730000000</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243">
       <c r="A243" s="1">
-        <v>259</v>
+        <v>259.0</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>94</v>
@@ -9104,16 +9091,16 @@
         <v>44629.25</v>
       </c>
       <c r="L243" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646805600000</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244">
       <c r="A244" s="1">
-        <v>260</v>
+        <v>260.0</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>94</v>
@@ -9131,16 +9118,16 @@
         <v>44630.375</v>
       </c>
       <c r="L244" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646902800000</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245">
       <c r="A245" s="1">
-        <v>261</v>
+        <v>261.0</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>94</v>
@@ -9158,16 +9145,16 @@
         <v>44630.875</v>
       </c>
       <c r="L245" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646946000000</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246">
       <c r="A246" s="1">
-        <v>262</v>
+        <v>262.0</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>94</v>
@@ -9185,16 +9172,16 @@
         <v>44632.083333333336</v>
       </c>
       <c r="L246" s="1">
-        <f t="shared" si="13"/>
-        <v>1647050400000.0002</v>
+        <f t="shared" si="14"/>
+        <v>1647050400000</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247">
       <c r="A247" s="1">
-        <v>263</v>
+        <v>263.0</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>94</v>
@@ -9209,16 +9196,16 @@
         <v>44633.166666666664</v>
       </c>
       <c r="L247" s="1">
-        <f t="shared" si="13"/>
-        <v>1647143999999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1647144000000</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248">
       <c r="A248" s="1">
-        <v>264</v>
+        <v>264.0</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>287</v>
@@ -9236,16 +9223,16 @@
         <v>44627.791666666664</v>
       </c>
       <c r="L248" s="1">
-        <f t="shared" si="13"/>
-        <v>1646679599999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1646679600000</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249">
       <c r="A249" s="1">
-        <v>265</v>
+        <v>265.0</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>287</v>
@@ -9260,16 +9247,16 @@
         <v>44629.041666666664</v>
       </c>
       <c r="L249" s="1">
-        <f t="shared" si="13"/>
-        <v>1646787599999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1646787600000</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250">
       <c r="A250" s="1">
-        <v>266</v>
+        <v>266.0</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>287</v>
@@ -9284,16 +9271,16 @@
         <v>44629.791666666664</v>
       </c>
       <c r="L250" s="1">
-        <f t="shared" si="13"/>
-        <v>1646852399999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1646852400000</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251">
       <c r="A251" s="1">
-        <v>267</v>
+        <v>267.0</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>287</v>
@@ -9308,16 +9295,16 @@
         <v>44630.791666666664</v>
       </c>
       <c r="L251" s="1">
-        <f t="shared" si="13"/>
-        <v>1646938799999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1646938800000</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252">
       <c r="A252" s="1">
-        <v>268</v>
+        <v>268.0</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>287</v>
@@ -9332,16 +9319,16 @@
         <v>44631.791666666664</v>
       </c>
       <c r="L252" s="1">
-        <f t="shared" si="13"/>
-        <v>1647025199999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1647025200000</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253">
       <c r="A253" s="1">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>287</v>
@@ -9356,16 +9343,16 @@
         <v>44632.791666666664</v>
       </c>
       <c r="L253" s="1">
-        <f t="shared" si="13"/>
-        <v>1647111599999.9998</v>
+        <f t="shared" si="14"/>
+        <v>1647111600000</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254">
       <c r="A254" s="1">
-        <v>270</v>
+        <v>270.0</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>147</v>
@@ -9386,16 +9373,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L254" s="1">
-        <f t="shared" si="13"/>
-        <v>1646618400000.0002</v>
+        <f t="shared" si="14"/>
+        <v>1646618400000</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255">
       <c r="A255" s="1">
-        <v>271</v>
+        <v>271.0</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>147</v>
@@ -9413,19 +9400,19 @@
         <v>1</v>
       </c>
       <c r="K255" s="5">
-        <v>44629</v>
+        <v>44629.041666666664</v>
       </c>
       <c r="L255" s="1">
-        <f t="shared" si="13"/>
-        <v>1646784000000</v>
+        <f t="shared" si="14"/>
+        <v>1646787600000</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256">
       <c r="A256" s="1">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>147</v>
@@ -9440,16 +9427,16 @@
         <v>44629.875</v>
       </c>
       <c r="L256" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646859600000</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257">
       <c r="A257" s="1">
-        <v>273</v>
+        <v>273.0</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>147</v>
@@ -9467,14 +9454,14 @@
         <v>44630.125</v>
       </c>
       <c r="L257" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1646881200000</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>213</v>
@@ -9484,12 +9471,12 @@
       <c r="K258" s="5"/>
       <c r="L258" s="1"/>
       <c r="M258" s="1">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>273.0</v>
+      </c>
+    </row>
+    <row r="259">
       <c r="A259" s="1">
-        <v>274</v>
+        <v>274.0</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>147</v>
@@ -9501,19 +9488,19 @@
         <v>1</v>
       </c>
       <c r="K259" s="5">
-        <v>44631</v>
+        <v>44631.0</v>
       </c>
       <c r="L259" s="1">
-        <f t="shared" ref="L259:L269" si="14">(K259-DATE(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L259:L269" si="15">(K259-Date(1970,1,1))*86400*1000</f>
         <v>1646956800000</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260">
       <c r="A260" s="1">
-        <v>275</v>
+        <v>275.0</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>147</v>
@@ -9528,16 +9515,16 @@
         <v>44631.833333333336</v>
       </c>
       <c r="L260" s="1">
-        <f t="shared" si="14"/>
-        <v>1647028800000.0002</v>
+        <f t="shared" si="15"/>
+        <v>1647028800000</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261">
       <c r="A261" s="1">
-        <v>276</v>
+        <v>276.0</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>147</v>
@@ -9552,16 +9539,16 @@
         <v>44632.729166666664</v>
       </c>
       <c r="L261" s="1">
-        <f t="shared" si="14"/>
-        <v>1647106199999.9998</v>
+        <f t="shared" si="15"/>
+        <v>1647106200000</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262">
       <c r="A262" s="1">
-        <v>277</v>
+        <v>277.0</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>147</v>
@@ -9573,19 +9560,19 @@
         <v>1</v>
       </c>
       <c r="K262" s="5">
-        <v>44633</v>
+        <v>44633.0</v>
       </c>
       <c r="L262" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1647129600000</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263">
       <c r="A263" s="1">
-        <v>278</v>
+        <v>278.0</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>13</v>
@@ -9603,16 +9590,16 @@
         <v>44627.458333333336</v>
       </c>
       <c r="L263" s="1">
-        <f t="shared" si="14"/>
-        <v>1646650800000.0002</v>
+        <f t="shared" si="15"/>
+        <v>1646650800000</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264">
       <c r="A264" s="1">
-        <v>279</v>
+        <v>279.0</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>13</v>
@@ -9627,16 +9614,16 @@
         <v>44629.541666666664</v>
       </c>
       <c r="L264" s="1">
-        <f t="shared" si="14"/>
-        <v>1646830799999.9998</v>
+        <f t="shared" si="15"/>
+        <v>1646830800000</v>
       </c>
       <c r="M264" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265">
       <c r="A265" s="1">
-        <v>280</v>
+        <v>280.0</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>13</v>
@@ -9654,16 +9641,16 @@
         <v>44629.875</v>
       </c>
       <c r="L265" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1646859600000</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266">
       <c r="A266" s="1">
-        <v>281</v>
+        <v>281.0</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>13</v>
@@ -9684,16 +9671,16 @@
         <v>44630.541666666664</v>
       </c>
       <c r="L266" s="1">
-        <f t="shared" si="14"/>
-        <v>1646917199999.9998</v>
+        <f t="shared" si="15"/>
+        <v>1646917200000</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267">
       <c r="A267" s="1">
-        <v>282</v>
+        <v>282.0</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>13</v>
@@ -9708,16 +9695,16 @@
         <v>44631.583333333336</v>
       </c>
       <c r="L267" s="1">
-        <f t="shared" si="14"/>
-        <v>1647007200000.0002</v>
+        <f t="shared" si="15"/>
+        <v>1647007200000</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268">
       <c r="A268" s="1">
-        <v>283</v>
+        <v>283.0</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>13</v>
@@ -9732,16 +9719,16 @@
         <v>44632.541666666664</v>
       </c>
       <c r="L268" s="1">
-        <f t="shared" si="14"/>
-        <v>1647089999999.9998</v>
+        <f t="shared" si="15"/>
+        <v>1647090000000</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269">
       <c r="A269" s="1">
-        <v>284</v>
+        <v>284.0</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>13</v>
@@ -9756,24 +9743,24 @@
         <v>44633.583333333336</v>
       </c>
       <c r="L269" s="1">
-        <f t="shared" si="14"/>
-        <v>1647180000000.0002</v>
+        <f t="shared" si="15"/>
+        <v>1647180000000</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270">
       <c r="B270" s="1" t="s">
         <v>234</v>
       </c>
       <c r="M270" s="1">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>281.0</v>
+      </c>
+    </row>
+    <row r="271">
       <c r="A271" s="1">
-        <v>286</v>
+        <v>286.0</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>158</v>
@@ -9794,16 +9781,16 @@
         <v>44627.958333333336</v>
       </c>
       <c r="L271" s="1">
-        <f t="shared" ref="L271:L276" si="15">(K271-DATE(1970,1,1))*86400*1000</f>
-        <v>1646694000000.0002</v>
+        <f t="shared" ref="L271:L276" si="16">(K271-Date(1970,1,1))*86400*1000</f>
+        <v>1646694000000</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272">
       <c r="A272" s="1">
-        <v>287</v>
+        <v>287.0</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>158</v>
@@ -9821,16 +9808,16 @@
         <v>44628.875</v>
       </c>
       <c r="L272" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1646773200000</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273">
       <c r="A273" s="1">
-        <v>288</v>
+        <v>288.0</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>158</v>
@@ -9848,16 +9835,16 @@
         <v>44629.041666666664</v>
       </c>
       <c r="L273" s="1">
-        <f t="shared" si="15"/>
-        <v>1646787599999.9998</v>
+        <f t="shared" si="16"/>
+        <v>1646787600000</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274">
       <c r="A274" s="1">
-        <v>289</v>
+        <v>289.0</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>158</v>
@@ -9875,16 +9862,16 @@
         <v>44630.875</v>
       </c>
       <c r="L274" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1646946000000</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275">
       <c r="A275" s="1">
-        <v>290</v>
+        <v>290.0</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>158</v>
@@ -9899,16 +9886,16 @@
         <v>44631.666666666664</v>
       </c>
       <c r="L275" s="1">
-        <f t="shared" si="15"/>
-        <v>1647014399999.9998</v>
+        <f t="shared" si="16"/>
+        <v>1647014400000</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276">
       <c r="A276" s="1">
-        <v>291</v>
+        <v>291.0</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>158</v>
@@ -9926,14 +9913,14 @@
         <v>44631.875</v>
       </c>
       <c r="L276" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1647032400000</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>13</v>
@@ -9943,10 +9930,10 @@
       <c r="K277" s="5"/>
       <c r="L277" s="1"/>
       <c r="M277" s="1">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>291.0</v>
+      </c>
+    </row>
+    <row r="278">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>249</v>
@@ -9956,12 +9943,12 @@
       <c r="K278" s="5"/>
       <c r="L278" s="1"/>
       <c r="M278" s="1">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>291.0</v>
+      </c>
+    </row>
+    <row r="279">
       <c r="A279" s="1">
-        <v>292</v>
+        <v>292.0</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>158</v>
@@ -9976,16 +9963,16 @@
         <v>44632.75</v>
       </c>
       <c r="L279" s="1">
-        <f t="shared" ref="L279:L325" si="16">(K279-DATE(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L279:L325" si="17">(K279-Date(1970,1,1))*86400*1000</f>
         <v>1647108000000</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280">
       <c r="A280" s="1">
-        <v>293</v>
+        <v>293.0</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>158</v>
@@ -10000,16 +9987,16 @@
         <v>44633.125</v>
       </c>
       <c r="L280" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647140400000</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281">
       <c r="A281" s="1">
-        <v>294</v>
+        <v>294.0</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>173</v>
@@ -10024,16 +10011,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L281" s="1">
-        <f t="shared" si="16"/>
-        <v>1646618400000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646618400000</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282">
       <c r="A282" s="1">
-        <v>295</v>
+        <v>295.0</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>173</v>
@@ -10048,19 +10035,19 @@
         <v>440</v>
       </c>
       <c r="K282" s="5">
-        <v>44628</v>
+        <v>44628.0</v>
       </c>
       <c r="L282" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646697600000</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283">
       <c r="A283" s="1">
-        <v>296</v>
+        <v>296.0</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>173</v>
@@ -10078,16 +10065,16 @@
         <v>44628.75</v>
       </c>
       <c r="L283" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646762400000</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284">
       <c r="A284" s="1">
-        <v>297</v>
+        <v>297.0</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>173</v>
@@ -10099,19 +10086,19 @@
         <v>1</v>
       </c>
       <c r="K284" s="5">
-        <v>44630</v>
+        <v>44630.0</v>
       </c>
       <c r="L284" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646870400000</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285">
       <c r="A285" s="1">
-        <v>298</v>
+        <v>298.0</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>44</v>
@@ -10129,16 +10116,16 @@
         <v>44628.166666666664</v>
       </c>
       <c r="L285" s="1">
-        <f t="shared" si="16"/>
-        <v>1646711999999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646712000000</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286">
       <c r="A286" s="1">
-        <v>299</v>
+        <v>299.0</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>44</v>
@@ -10156,16 +10143,16 @@
         <v>44629.166666666664</v>
       </c>
       <c r="L286" s="1">
-        <f t="shared" si="16"/>
-        <v>1646798399999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646798400000</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287">
       <c r="A287" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>44</v>
@@ -10180,16 +10167,16 @@
         <v>44630.083333333336</v>
       </c>
       <c r="L287" s="1">
-        <f t="shared" si="16"/>
-        <v>1646877600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646877600000</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288">
       <c r="A288" s="1">
-        <v>301</v>
+        <v>301.0</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>44</v>
@@ -10204,16 +10191,16 @@
         <v>44631.25</v>
       </c>
       <c r="L288" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646978400000</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289">
       <c r="A289" s="1">
-        <v>302</v>
+        <v>302.0</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>44</v>
@@ -10228,16 +10215,16 @@
         <v>44632.166666666664</v>
       </c>
       <c r="L289" s="1">
-        <f t="shared" si="16"/>
-        <v>1647057599999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1647057600000</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290">
       <c r="A290" s="1">
-        <v>303</v>
+        <v>303.0</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>44</v>
@@ -10252,16 +10239,16 @@
         <v>44633.208333333336</v>
       </c>
       <c r="L290" s="1">
-        <f t="shared" si="16"/>
-        <v>1647147600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1647147600000</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291">
       <c r="A291" s="1">
-        <v>304</v>
+        <v>304.0</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>56</v>
@@ -10279,16 +10266,16 @@
         <v>44628.541666666664</v>
       </c>
       <c r="L291" s="1">
-        <f t="shared" si="16"/>
-        <v>1646744399999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646744400000</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292">
       <c r="A292" s="1">
-        <v>305</v>
+        <v>305.0</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>56</v>
@@ -10306,16 +10293,16 @@
         <v>44629.5</v>
       </c>
       <c r="L292" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646827200000</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293">
       <c r="A293" s="1">
-        <v>306</v>
+        <v>306.0</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>56</v>
@@ -10336,16 +10323,16 @@
         <v>44630.583333333336</v>
       </c>
       <c r="L293" s="1">
-        <f t="shared" si="16"/>
-        <v>1646920800000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646920800000</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294">
       <c r="A294" s="1">
-        <v>307</v>
+        <v>307.0</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>56</v>
@@ -10360,16 +10347,16 @@
         <v>44631.5</v>
       </c>
       <c r="L294" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647000000000</v>
       </c>
       <c r="M294" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295">
       <c r="A295" s="1">
-        <v>308</v>
+        <v>308.0</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>56</v>
@@ -10384,16 +10371,16 @@
         <v>44632.5</v>
       </c>
       <c r="L295" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647086400000</v>
       </c>
       <c r="M295" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296">
       <c r="A296" s="1">
-        <v>309</v>
+        <v>309.0</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>29</v>
@@ -10411,16 +10398,16 @@
         <v>44628.5</v>
       </c>
       <c r="L296" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646740800000</v>
       </c>
       <c r="M296" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297">
       <c r="A297" s="1">
-        <v>310</v>
+        <v>310.0</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>29</v>
@@ -10438,16 +10425,16 @@
         <v>44629.5</v>
       </c>
       <c r="L297" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646827200000</v>
       </c>
       <c r="M297" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298">
       <c r="A298" s="1">
-        <v>311</v>
+        <v>311.0</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>29</v>
@@ -10462,16 +10449,16 @@
         <v>44630.083333333336</v>
       </c>
       <c r="L298" s="1">
-        <f t="shared" si="16"/>
-        <v>1646877600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646877600000</v>
       </c>
       <c r="M298" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299">
       <c r="A299" s="1">
-        <v>312</v>
+        <v>312.0</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>29</v>
@@ -10486,16 +10473,16 @@
         <v>44630.5</v>
       </c>
       <c r="L299" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646913600000</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300">
       <c r="A300" s="1">
-        <v>313</v>
+        <v>313.0</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>29</v>
@@ -10513,16 +10500,16 @@
         <v>44631.875</v>
       </c>
       <c r="L300" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647032400000</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301">
       <c r="A301" s="1">
-        <v>314</v>
+        <v>314.0</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>29</v>
@@ -10537,16 +10524,16 @@
         <v>44633.5</v>
       </c>
       <c r="L301" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647172800000</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302">
       <c r="A302" s="1">
-        <v>316</v>
+        <v>316.0</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>196</v>
@@ -10567,16 +10554,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L302" s="1">
-        <f t="shared" si="16"/>
-        <v>1646618400000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646618400000</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303">
       <c r="A303" s="1">
-        <v>317</v>
+        <v>317.0</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>196</v>
@@ -10594,16 +10581,16 @@
         <v>44627.833333333336</v>
       </c>
       <c r="L303" s="1">
-        <f t="shared" si="16"/>
-        <v>1646683200000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646683200000</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304">
       <c r="A304" s="1">
-        <v>318</v>
+        <v>318.0</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>196</v>
@@ -10621,16 +10608,16 @@
         <v>44628.145833333336</v>
       </c>
       <c r="L304" s="1">
-        <f t="shared" si="16"/>
-        <v>1646710200000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646710200000</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305">
       <c r="A305" s="1">
-        <v>319</v>
+        <v>319.0</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>196</v>
@@ -10651,19 +10638,19 @@
         <v>1</v>
       </c>
       <c r="K305" s="5">
-        <v>44629</v>
+        <v>44629.041666666664</v>
       </c>
       <c r="L305" s="1">
-        <f t="shared" si="16"/>
-        <v>1646784000000</v>
+        <f t="shared" si="17"/>
+        <v>1646787600000</v>
       </c>
       <c r="M305" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306">
       <c r="A306" s="1">
-        <v>321</v>
+        <v>321.0</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>196</v>
@@ -10681,16 +10668,16 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L306" s="1">
-        <f t="shared" si="16"/>
-        <v>1646960399999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646960400000</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307">
       <c r="A307" s="1">
-        <v>322</v>
+        <v>322.0</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>196</v>
@@ -10705,16 +10692,16 @@
         <v>44631.958333333336</v>
       </c>
       <c r="L307" s="1">
-        <f t="shared" si="16"/>
-        <v>1647039600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1647039600000</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308">
       <c r="A308" s="1">
-        <v>323</v>
+        <v>323.0</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>196</v>
@@ -10729,16 +10716,16 @@
         <v>44632.833333333336</v>
       </c>
       <c r="L308" s="1">
-        <f t="shared" si="16"/>
-        <v>1647115200000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1647115200000</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309">
       <c r="A309" s="1">
-        <v>324</v>
+        <v>324.0</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>216</v>
@@ -10756,16 +10743,16 @@
         <v>44628.041666666664</v>
       </c>
       <c r="L309" s="1">
-        <f t="shared" si="16"/>
-        <v>1646701199999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646701200000</v>
       </c>
       <c r="M309" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310">
       <c r="A310" s="1">
-        <v>325</v>
+        <v>325.0</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>216</v>
@@ -10779,21 +10766,20 @@
       <c r="E310" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F310" s="1"/>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
       </c>
       <c r="L310" s="1">
-        <f t="shared" si="16"/>
-        <v>1646787599999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646787600000</v>
       </c>
       <c r="M310" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311">
       <c r="A311" s="1">
-        <v>326</v>
+        <v>326.0</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>216</v>
@@ -10811,16 +10797,16 @@
         <v>44630.958333333336</v>
       </c>
       <c r="L311" s="1">
-        <f t="shared" si="16"/>
-        <v>1646953200000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646953200000</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312">
       <c r="A312" s="1">
-        <v>327</v>
+        <v>327.0</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>216</v>
@@ -10832,19 +10818,19 @@
         <v>1</v>
       </c>
       <c r="K312" s="5">
-        <v>44632</v>
+        <v>44632.0</v>
       </c>
       <c r="L312" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647043200000</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313">
       <c r="A313" s="1">
-        <v>328</v>
+        <v>328.0</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>250</v>
@@ -10865,16 +10851,16 @@
         <v>44627.083333333336</v>
       </c>
       <c r="L313" s="1">
-        <f t="shared" si="16"/>
-        <v>1646618400000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646618400000</v>
       </c>
       <c r="M313" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314">
       <c r="A314" s="1">
-        <v>329</v>
+        <v>329.0</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>250</v>
@@ -10892,16 +10878,16 @@
         <v>44629.125</v>
       </c>
       <c r="L314" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646794800000</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315">
       <c r="A315" s="1">
-        <v>330</v>
+        <v>330.0</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>250</v>
@@ -10919,16 +10905,16 @@
         <v>44630.125</v>
       </c>
       <c r="L315" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1646881200000</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316">
       <c r="A316" s="1">
-        <v>331</v>
+        <v>331.0</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>250</v>
@@ -10949,16 +10935,16 @@
         <v>44631.041666666664</v>
       </c>
       <c r="L316" s="1">
-        <f t="shared" si="16"/>
-        <v>1646960399999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646960400000</v>
       </c>
       <c r="M316" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317">
       <c r="A317" s="1">
-        <v>332</v>
+        <v>332.0</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>250</v>
@@ -10976,16 +10962,16 @@
         <v>44631.458333333336</v>
       </c>
       <c r="L317" s="1">
-        <f t="shared" si="16"/>
-        <v>1646996400000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646996400000</v>
       </c>
       <c r="M317" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318">
       <c r="A318" s="1">
-        <v>333</v>
+        <v>333.0</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>250</v>
@@ -11000,16 +10986,16 @@
         <v>44632.166666666664</v>
       </c>
       <c r="L318" s="1">
-        <f t="shared" si="16"/>
-        <v>1647057599999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1647057600000</v>
       </c>
       <c r="M318" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319">
       <c r="A319" s="1">
-        <v>334</v>
+        <v>334.0</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>250</v>
@@ -11027,16 +11013,16 @@
         <v>44633.5</v>
       </c>
       <c r="L319" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1647172800000</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320">
       <c r="A320" s="1">
-        <v>335</v>
+        <v>335.0</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>67</v>
@@ -11057,16 +11043,16 @@
         <v>44627.833333333336</v>
       </c>
       <c r="L320" s="1">
-        <f t="shared" si="16"/>
-        <v>1646683200000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646683200000</v>
       </c>
       <c r="M320" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321">
       <c r="A321" s="1">
-        <v>336</v>
+        <v>336.0</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>67</v>
@@ -11081,16 +11067,16 @@
         <v>44629.041666666664</v>
       </c>
       <c r="L321" s="1">
-        <f t="shared" si="16"/>
-        <v>1646787599999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1646787600000</v>
       </c>
       <c r="M321" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322">
       <c r="A322" s="1">
-        <v>337</v>
+        <v>337.0</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>67</v>
@@ -11105,16 +11091,16 @@
         <v>44630.083333333336</v>
       </c>
       <c r="L322" s="1">
-        <f t="shared" si="16"/>
-        <v>1646877600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1646877600000</v>
       </c>
       <c r="M322" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323">
       <c r="A323" s="1">
-        <v>338</v>
+        <v>338.0</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>67</v>
@@ -11129,16 +11115,16 @@
         <v>44631.958333333336</v>
       </c>
       <c r="L323" s="1">
-        <f t="shared" si="16"/>
-        <v>1647039600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1647039600000</v>
       </c>
       <c r="M323" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324">
       <c r="A324" s="1">
-        <v>339</v>
+        <v>339.0</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>67</v>
@@ -11153,16 +11139,16 @@
         <v>44632.583333333336</v>
       </c>
       <c r="L324" s="1">
-        <f t="shared" si="16"/>
-        <v>1647093600000.0002</v>
+        <f t="shared" si="17"/>
+        <v>1647093600000</v>
       </c>
       <c r="M324" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325">
       <c r="A325" s="1">
-        <v>340</v>
+        <v>340.0</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>67</v>
@@ -11177,24 +11163,24 @@
         <v>44633.916666666664</v>
       </c>
       <c r="L325" s="1">
-        <f t="shared" si="16"/>
-        <v>1647208799999.9998</v>
+        <f t="shared" si="17"/>
+        <v>1647208800000</v>
       </c>
       <c r="M325" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326">
       <c r="B326" s="1" t="s">
         <v>158</v>
       </c>
       <c r="M326" s="1">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+        <v>334.0</v>
+      </c>
+    </row>
+    <row r="327">
       <c r="A327" s="1">
-        <v>341</v>
+        <v>341.0</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>235</v>
@@ -11209,16 +11195,16 @@
         <v>44629.708333333336</v>
       </c>
       <c r="L327" s="1">
-        <f t="shared" ref="L327:L332" si="17">(K327-DATE(1970,1,1))*86400*1000</f>
-        <v>1646845200000.0002</v>
+        <f t="shared" ref="L327:L333" si="18">(K327-Date(1970,1,1))*86400*1000</f>
+        <v>1646845200000</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328">
       <c r="A328" s="1">
-        <v>342</v>
+        <v>342.0</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>235</v>
@@ -11233,16 +11219,16 @@
         <v>44630.708333333336</v>
       </c>
       <c r="L328" s="1">
-        <f t="shared" si="17"/>
-        <v>1646931600000.0002</v>
+        <f t="shared" si="18"/>
+        <v>1646931600000</v>
       </c>
       <c r="M328" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329">
       <c r="A329" s="1">
-        <v>343</v>
+        <v>343.0</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>235</v>
@@ -11257,16 +11243,16 @@
         <v>44631.708333333336</v>
       </c>
       <c r="L329" s="1">
-        <f t="shared" si="17"/>
-        <v>1647018000000.0002</v>
+        <f t="shared" si="18"/>
+        <v>1647018000000</v>
       </c>
       <c r="M329" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330">
       <c r="A330" s="1">
-        <v>344</v>
+        <v>344.0</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>235</v>
@@ -11281,16 +11267,16 @@
         <v>44632.708333333336</v>
       </c>
       <c r="L330" s="1">
-        <f t="shared" si="17"/>
-        <v>1647104400000.0002</v>
+        <f t="shared" si="18"/>
+        <v>1647104400000</v>
       </c>
       <c r="M330" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331">
       <c r="A331" s="1">
-        <v>345</v>
+        <v>345.0</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>235</v>
@@ -11305,29 +11291,28 @@
         <v>1</v>
       </c>
       <c r="K331" s="5">
-        <v>44634</v>
+        <v>44634.0</v>
       </c>
       <c r="L331" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1647216000000</v>
       </c>
       <c r="M331" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332">
       <c r="A332" s="1">
-        <v>346</v>
+        <v>346.0</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C332" s="27" t="s">
+      <c r="C332" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E332" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="D332" s="1"/>
-      <c r="E332" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="I332" s="1" t="b">
         <v>1</v>
@@ -11336,212 +11321,238 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L332" s="1">
-        <f t="shared" si="17"/>
-        <v>1646771399999.9998</v>
+        <f t="shared" si="18"/>
+        <v>1646771400000</v>
       </c>
       <c r="M332" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>347.0</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="I333" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K333" s="5">
+        <v>44629.166666666664</v>
+      </c>
+      <c r="L333" s="1">
+        <f t="shared" si="18"/>
+        <v>1646798400000</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="E21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="E22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="E23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E26" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E27" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E28" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E29" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E30" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="E31" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E33" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E34" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E37" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="E38" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="E39" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E40" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E41" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="E42" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E43" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="E44" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="E45" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E46" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="E47" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E48" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E49" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E50" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E51" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E52" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E53" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E54" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E55" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="E58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E59" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="E61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="E77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="E78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="E79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="E80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="E81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="E82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="E84" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="E87" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="E88" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="E89" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="E90" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="E91" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="E93" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="E94" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="E95" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="E96" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="E97" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="E98" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="E103" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="E104" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="E105" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="E106" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="E107" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="E108" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="E109" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="E115" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="E116" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="E117" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="E118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="E119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="E121" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="E123" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="E128" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="E129" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="E130" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="E131" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="E132" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="E133" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="E141" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="E142" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="E143" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="E144" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="E145" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="E148" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="E149" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="E150" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="E151" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="E152" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="E153" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="E154" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="E155" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="E156" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="E157" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="E158" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="E159" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="E161" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="E164" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="E165" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="E166" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="E167" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="E168" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="E170" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="E171" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="E172" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="E173" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="E175" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="E176" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="E178" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="E179" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="E181" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="E182" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="E183" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="E184" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="E185" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="E186" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="E187" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="E188" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="E189" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="E190" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="E191" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="E192" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="E193" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="E194" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="E195" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="E196" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="E197" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="E198" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="E199" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="E200" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="E202" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="E203" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="E204" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="E205" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="E212" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="E213" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="E214" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="E219" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="E220" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="E221" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="E226" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="E227" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="E228" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="E234" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="E235" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="E241" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="E242" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="E243" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="E248" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="E254" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="E263" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="E271" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="E272" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="E282" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="E283" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="E285" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="E286" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="E291" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="E296" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="E302" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="E303" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="E304" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="E305" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="E309" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="E310" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="E313" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="E314" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="E320" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="E332" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E6"/>
+    <hyperlink r:id="rId6" ref="E7"/>
+    <hyperlink r:id="rId7" ref="E8"/>
+    <hyperlink r:id="rId8" ref="E9"/>
+    <hyperlink r:id="rId9" ref="E10"/>
+    <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E15"/>
+    <hyperlink r:id="rId13" ref="E16"/>
+    <hyperlink r:id="rId14" ref="E18"/>
+    <hyperlink r:id="rId15" ref="E20"/>
+    <hyperlink r:id="rId16" ref="E21"/>
+    <hyperlink r:id="rId17" ref="E22"/>
+    <hyperlink r:id="rId18" ref="E23"/>
+    <hyperlink r:id="rId19" ref="E26"/>
+    <hyperlink r:id="rId20" ref="E27"/>
+    <hyperlink r:id="rId21" ref="E28"/>
+    <hyperlink r:id="rId22" ref="E29"/>
+    <hyperlink r:id="rId23" ref="E30"/>
+    <hyperlink r:id="rId24" ref="E31"/>
+    <hyperlink r:id="rId25" ref="E32"/>
+    <hyperlink r:id="rId26" ref="E33"/>
+    <hyperlink r:id="rId27" ref="E34"/>
+    <hyperlink r:id="rId28" ref="E37"/>
+    <hyperlink r:id="rId29" ref="E38"/>
+    <hyperlink r:id="rId30" ref="E39"/>
+    <hyperlink r:id="rId31" ref="E40"/>
+    <hyperlink r:id="rId32" ref="E41"/>
+    <hyperlink r:id="rId33" ref="E42"/>
+    <hyperlink r:id="rId34" ref="E43"/>
+    <hyperlink r:id="rId35" ref="E44"/>
+    <hyperlink r:id="rId36" ref="E45"/>
+    <hyperlink r:id="rId37" ref="E46"/>
+    <hyperlink r:id="rId38" ref="E47"/>
+    <hyperlink r:id="rId39" ref="E48"/>
+    <hyperlink r:id="rId40" ref="E49"/>
+    <hyperlink r:id="rId41" ref="E50"/>
+    <hyperlink r:id="rId42" ref="E51"/>
+    <hyperlink r:id="rId43" ref="E52"/>
+    <hyperlink r:id="rId44" ref="E53"/>
+    <hyperlink r:id="rId45" ref="E54"/>
+    <hyperlink r:id="rId46" ref="E55"/>
+    <hyperlink r:id="rId47" ref="E56"/>
+    <hyperlink r:id="rId48" ref="E57"/>
+    <hyperlink r:id="rId49" ref="E58"/>
+    <hyperlink r:id="rId50" ref="E59"/>
+    <hyperlink r:id="rId51" ref="E61"/>
+    <hyperlink r:id="rId52" ref="E62"/>
+    <hyperlink r:id="rId53" ref="E63"/>
+    <hyperlink r:id="rId54" ref="E64"/>
+    <hyperlink r:id="rId55" ref="E65"/>
+    <hyperlink r:id="rId56" ref="E66"/>
+    <hyperlink r:id="rId57" ref="E67"/>
+    <hyperlink r:id="rId58" ref="E68"/>
+    <hyperlink r:id="rId59" ref="E69"/>
+    <hyperlink r:id="rId60" ref="E70"/>
+    <hyperlink r:id="rId61" ref="E71"/>
+    <hyperlink r:id="rId62" ref="E72"/>
+    <hyperlink r:id="rId63" ref="E73"/>
+    <hyperlink r:id="rId64" ref="E74"/>
+    <hyperlink r:id="rId65" ref="E75"/>
+    <hyperlink r:id="rId66" ref="E76"/>
+    <hyperlink r:id="rId67" ref="E77"/>
+    <hyperlink r:id="rId68" ref="E78"/>
+    <hyperlink r:id="rId69" ref="E79"/>
+    <hyperlink r:id="rId70" ref="E80"/>
+    <hyperlink r:id="rId71" ref="E81"/>
+    <hyperlink r:id="rId72" ref="E82"/>
+    <hyperlink r:id="rId73" ref="E84"/>
+    <hyperlink r:id="rId74" ref="E87"/>
+    <hyperlink r:id="rId75" ref="E88"/>
+    <hyperlink r:id="rId76" ref="E89"/>
+    <hyperlink r:id="rId77" ref="E90"/>
+    <hyperlink r:id="rId78" ref="E91"/>
+    <hyperlink r:id="rId79" ref="E93"/>
+    <hyperlink r:id="rId80" ref="E94"/>
+    <hyperlink r:id="rId81" ref="E95"/>
+    <hyperlink r:id="rId82" ref="E96"/>
+    <hyperlink r:id="rId83" ref="E97"/>
+    <hyperlink r:id="rId84" ref="E98"/>
+    <hyperlink r:id="rId85" ref="E103"/>
+    <hyperlink r:id="rId86" ref="E104"/>
+    <hyperlink r:id="rId87" ref="E105"/>
+    <hyperlink r:id="rId88" ref="E106"/>
+    <hyperlink r:id="rId89" ref="E107"/>
+    <hyperlink r:id="rId90" ref="E108"/>
+    <hyperlink r:id="rId91" ref="E109"/>
+    <hyperlink r:id="rId92" ref="E115"/>
+    <hyperlink r:id="rId93" ref="E116"/>
+    <hyperlink r:id="rId94" ref="E117"/>
+    <hyperlink r:id="rId95" ref="E118"/>
+    <hyperlink r:id="rId96" ref="E119"/>
+    <hyperlink r:id="rId97" ref="E121"/>
+    <hyperlink r:id="rId98" ref="E123"/>
+    <hyperlink r:id="rId99" ref="E128"/>
+    <hyperlink r:id="rId100" ref="E129"/>
+    <hyperlink r:id="rId101" ref="E130"/>
+    <hyperlink r:id="rId102" ref="E131"/>
+    <hyperlink r:id="rId103" ref="E132"/>
+    <hyperlink r:id="rId104" ref="E133"/>
+    <hyperlink r:id="rId105" ref="E141"/>
+    <hyperlink r:id="rId106" ref="E142"/>
+    <hyperlink r:id="rId107" ref="E143"/>
+    <hyperlink r:id="rId108" ref="E144"/>
+    <hyperlink r:id="rId109" ref="E145"/>
+    <hyperlink r:id="rId110" ref="E148"/>
+    <hyperlink r:id="rId111" ref="E149"/>
+    <hyperlink r:id="rId112" ref="E150"/>
+    <hyperlink r:id="rId113" ref="E151"/>
+    <hyperlink r:id="rId114" ref="E152"/>
+    <hyperlink r:id="rId115" ref="E153"/>
+    <hyperlink r:id="rId116" ref="E154"/>
+    <hyperlink r:id="rId117" ref="E155"/>
+    <hyperlink r:id="rId118" ref="E156"/>
+    <hyperlink r:id="rId119" ref="E157"/>
+    <hyperlink r:id="rId120" ref="E158"/>
+    <hyperlink r:id="rId121" ref="E159"/>
+    <hyperlink r:id="rId122" ref="E161"/>
+    <hyperlink r:id="rId123" ref="E164"/>
+    <hyperlink r:id="rId124" ref="E165"/>
+    <hyperlink r:id="rId125" ref="E166"/>
+    <hyperlink r:id="rId126" ref="E167"/>
+    <hyperlink r:id="rId127" ref="E168"/>
+    <hyperlink r:id="rId128" ref="E170"/>
+    <hyperlink r:id="rId129" ref="E171"/>
+    <hyperlink r:id="rId130" ref="E172"/>
+    <hyperlink r:id="rId131" ref="E173"/>
+    <hyperlink r:id="rId132" ref="E175"/>
+    <hyperlink r:id="rId133" ref="E176"/>
+    <hyperlink r:id="rId134" ref="E178"/>
+    <hyperlink r:id="rId135" ref="E179"/>
+    <hyperlink r:id="rId136" ref="E181"/>
+    <hyperlink r:id="rId137" ref="E182"/>
+    <hyperlink r:id="rId138" ref="E183"/>
+    <hyperlink r:id="rId139" ref="E184"/>
+    <hyperlink r:id="rId140" ref="E185"/>
+    <hyperlink r:id="rId141" ref="E186"/>
+    <hyperlink r:id="rId142" ref="E187"/>
+    <hyperlink r:id="rId143" ref="E188"/>
+    <hyperlink r:id="rId144" ref="E189"/>
+    <hyperlink r:id="rId145" ref="E190"/>
+    <hyperlink r:id="rId146" ref="E191"/>
+    <hyperlink r:id="rId147" ref="E192"/>
+    <hyperlink r:id="rId148" ref="E193"/>
+    <hyperlink r:id="rId149" ref="E194"/>
+    <hyperlink r:id="rId150" ref="E195"/>
+    <hyperlink r:id="rId151" ref="E196"/>
+    <hyperlink r:id="rId152" ref="E197"/>
+    <hyperlink r:id="rId153" ref="E198"/>
+    <hyperlink r:id="rId154" ref="E199"/>
+    <hyperlink r:id="rId155" ref="E200"/>
+    <hyperlink r:id="rId156" ref="E202"/>
+    <hyperlink r:id="rId157" ref="E203"/>
+    <hyperlink r:id="rId158" ref="E204"/>
+    <hyperlink r:id="rId159" ref="E205"/>
+    <hyperlink r:id="rId160" ref="E212"/>
+    <hyperlink r:id="rId161" ref="E213"/>
+    <hyperlink r:id="rId162" ref="E214"/>
+    <hyperlink r:id="rId163" ref="E219"/>
+    <hyperlink r:id="rId164" ref="E220"/>
+    <hyperlink r:id="rId165" ref="E221"/>
+    <hyperlink r:id="rId166" ref="E226"/>
+    <hyperlink r:id="rId167" ref="E227"/>
+    <hyperlink r:id="rId168" ref="E228"/>
+    <hyperlink r:id="rId169" ref="E234"/>
+    <hyperlink r:id="rId170" ref="E235"/>
+    <hyperlink r:id="rId171" ref="E241"/>
+    <hyperlink r:id="rId172" ref="E242"/>
+    <hyperlink r:id="rId173" ref="E243"/>
+    <hyperlink r:id="rId174" ref="E248"/>
+    <hyperlink r:id="rId175" ref="E254"/>
+    <hyperlink r:id="rId176" ref="E263"/>
+    <hyperlink r:id="rId177" ref="E271"/>
+    <hyperlink r:id="rId178" ref="E272"/>
+    <hyperlink r:id="rId179" ref="E282"/>
+    <hyperlink r:id="rId180" ref="E283"/>
+    <hyperlink r:id="rId181" ref="E285"/>
+    <hyperlink r:id="rId182" ref="E286"/>
+    <hyperlink r:id="rId183" ref="E291"/>
+    <hyperlink r:id="rId184" ref="E296"/>
+    <hyperlink r:id="rId185" ref="E302"/>
+    <hyperlink r:id="rId186" ref="E303"/>
+    <hyperlink r:id="rId187" ref="E304"/>
+    <hyperlink r:id="rId188" ref="E305"/>
+    <hyperlink r:id="rId189" ref="E309"/>
+    <hyperlink r:id="rId190" ref="E310"/>
+    <hyperlink r:id="rId191" ref="E313"/>
+    <hyperlink r:id="rId192" ref="E314"/>
+    <hyperlink r:id="rId193" ref="E320"/>
+    <hyperlink r:id="rId194" ref="E332"/>
+    <hyperlink r:id="rId195" ref="E333"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId195"/>
+  <drawing r:id="rId196"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="513">
   <si>
     <t>id</t>
   </si>
@@ -1129,6 +1129,9 @@
     <t>THE CONVENIENCE STORE</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=loxUwXqmI_I</t>
+  </si>
+  <si>
     <t xml:space="preserve">APEX COLLAB FT. SELEN &amp; FULGUR </t>
   </si>
   <si>
@@ -1150,6 +1153,9 @@
     <t>https://www.youtube.com/watch?v=d6RnmTlofzQ</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gQejfILDgV4</t>
+  </si>
+  <si>
     <t>APEX Legends with Sonny &amp; Reimu</t>
   </si>
   <si>
@@ -1195,6 +1201,9 @@
     <t>DEVIL MAY CRY 5</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=ZMsZhNX2c_E</t>
+  </si>
+  <si>
     <t>PORTAL 2 COOP w/ SONNY</t>
   </si>
   <si>
@@ -1240,6 +1249,9 @@
     <t>WilderMyth</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=XHheUqoiJgQ</t>
+  </si>
+  <si>
     <t>PYRE</t>
   </si>
   <si>
@@ -1264,6 +1276,9 @@
     <t>TWISTED WONDERLAND w/ PETRA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=QGvRsmza0t0</t>
+  </si>
+  <si>
     <t>DARK SOULS 3: WORM REVENGE</t>
   </si>
   <si>
@@ -1285,6 +1300,9 @@
     <t>STUDY WITH VOX ASMR</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=D6o8kEFLeeQ</t>
+  </si>
+  <si>
     <t>SMASH VS FULGUR</t>
   </si>
   <si>
@@ -1345,6 +1363,9 @@
     <t>ZATSUDAN DEFORE BREAK</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=OX54rHeSwWo</t>
+  </si>
+  <si>
     <t>300K VR FULLBODY</t>
   </si>
   <si>
@@ -1378,6 +1399,9 @@
     <t>We Were Here [Ike Collab]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Hz2mAMvBghM</t>
+  </si>
+  <si>
     <t>Apex Legends [Vox, Rpr Collab]</t>
   </si>
   <si>
@@ -1393,6 +1417,9 @@
     <t>WE WERE HERE W/ MYSTA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=2TX45epSL2M</t>
+  </si>
+  <si>
     <t>MINECRART (WORLD SERVER)</t>
   </si>
   <si>
@@ -1496,6 +1523,9 @@
   </si>
   <si>
     <t>Big Brain Academy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rohhTyUJjSI</t>
   </si>
   <si>
     <t>????</t>
@@ -8365,6 +8395,9 @@
       <c r="D215" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E215" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="K215" s="5">
         <v>44630.041666666664</v>
       </c>
@@ -8384,7 +8417,7 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
@@ -8411,7 +8444,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8438,7 +8471,7 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8468,13 +8501,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8501,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8528,7 +8561,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K221" s="5">
         <v>44629.125</v>
@@ -8554,6 +8587,9 @@
       <c r="D222" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E222" s="7" t="s">
+        <v>380</v>
+      </c>
       <c r="K222" s="5">
         <v>44630.041666666664</v>
       </c>
@@ -8573,7 +8609,7 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8600,7 +8636,7 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
@@ -8630,7 +8666,7 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
@@ -8657,13 +8693,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8693,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8714,13 +8750,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8741,7 +8777,7 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
@@ -8797,7 +8833,7 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -8821,7 +8857,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8845,13 +8881,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -8872,13 +8908,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -8899,10 +8935,13 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="K236" s="8">
         <v>44629.5</v>
@@ -8923,7 +8962,7 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
@@ -8950,7 +8989,7 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
@@ -8974,7 +9013,7 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -9025,13 +9064,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -9058,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -9079,13 +9118,13 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
@@ -9106,7 +9145,7 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
@@ -9133,7 +9172,7 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -9160,7 +9199,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9187,7 +9226,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9211,13 +9250,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9238,7 +9277,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9262,10 +9301,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>412</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9286,7 +9328,7 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
@@ -9310,7 +9352,7 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9334,7 +9376,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9358,13 +9400,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9388,7 +9430,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9418,7 +9460,7 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
@@ -9442,10 +9484,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9482,7 +9527,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9506,7 +9551,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9530,7 +9575,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9554,7 +9599,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9578,13 +9623,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9605,10 +9650,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>429</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9629,7 +9677,7 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
@@ -9656,7 +9704,7 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
@@ -9686,7 +9734,7 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9710,7 +9758,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9734,7 +9782,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9772,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9796,13 +9844,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -9823,7 +9871,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -9850,7 +9898,7 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
@@ -9877,7 +9925,7 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
@@ -9901,7 +9949,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -9954,7 +10002,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -9978,7 +10026,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10002,7 +10050,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10026,13 +10074,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10053,13 +10101,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10080,10 +10128,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>450</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10104,13 +10155,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10131,13 +10182,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10158,7 +10209,7 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
@@ -10182,7 +10233,7 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
@@ -10206,7 +10257,7 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
@@ -10230,7 +10281,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10254,13 +10305,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10281,10 +10332,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>462</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10308,7 +10362,7 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
@@ -10338,7 +10392,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10362,7 +10416,7 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
@@ -10392,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10413,10 +10467,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10440,7 +10497,7 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
@@ -10464,7 +10521,7 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
@@ -10488,7 +10545,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -10515,7 +10572,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10539,13 +10596,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10569,13 +10626,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10596,13 +10653,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10623,13 +10680,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10656,7 +10713,7 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
@@ -10683,7 +10740,7 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
@@ -10707,7 +10764,7 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -10737,7 +10794,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -10758,13 +10815,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -10785,7 +10842,7 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
@@ -10812,7 +10869,7 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
@@ -10836,13 +10893,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -10872,7 +10929,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -10893,7 +10950,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -10920,7 +10977,7 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -10950,7 +11007,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -10977,7 +11034,7 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
@@ -11001,7 +11058,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11028,13 +11085,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11058,7 +11115,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11082,7 +11139,7 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
@@ -11106,7 +11163,7 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
@@ -11130,7 +11187,7 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
@@ -11154,7 +11211,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11186,16 +11243,19 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E327" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
       </c>
       <c r="L327" s="1">
-        <f t="shared" ref="L327:L333" si="18">(K327-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L327:L331" si="18">(K327-Date(1970,1,1))*86400*1000</f>
         <v>1646845200000</v>
       </c>
       <c r="M327" s="1" t="s">
@@ -11210,7 +11270,7 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
@@ -11234,7 +11294,7 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
@@ -11258,7 +11318,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11282,7 +11342,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11302,56 +11362,70 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="1">
-        <v>346.0</v>
-      </c>
+      <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E332" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="I332" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K332" s="5">
-        <v>44628.854166666664</v>
-      </c>
-      <c r="L332" s="1">
-        <f t="shared" si="18"/>
-        <v>1646771400000</v>
-      </c>
-      <c r="M332" s="1" t="s">
-        <v>16</v>
+        <v>287</v>
+      </c>
+      <c r="C332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="I332" s="1"/>
+      <c r="K332" s="5"/>
+      <c r="L332" s="1"/>
+      <c r="M332" s="1">
+        <v>345.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1">
+        <v>346.0</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E333" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="I333" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K333" s="5">
+        <v>44628.854166666664</v>
+      </c>
+      <c r="L333" s="1">
+        <f t="shared" ref="L333:L334" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <v>1646771400000</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
         <v>347.0</v>
       </c>
-      <c r="B333" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C333" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="E333" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="I333" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K333" s="5">
+      <c r="C334" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E334" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="I334" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K334" s="5">
         <v>44629.166666666664</v>
       </c>
-      <c r="L333" s="1">
-        <f t="shared" si="18"/>
+      <c r="L334" s="1">
+        <f t="shared" si="19"/>
         <v>1646798400000</v>
       </c>
-      <c r="M333" s="1" t="s">
+      <c r="M334" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11519,40 +11593,50 @@
     <hyperlink r:id="rId160" ref="E212"/>
     <hyperlink r:id="rId161" ref="E213"/>
     <hyperlink r:id="rId162" ref="E214"/>
-    <hyperlink r:id="rId163" ref="E219"/>
-    <hyperlink r:id="rId164" ref="E220"/>
-    <hyperlink r:id="rId165" ref="E221"/>
-    <hyperlink r:id="rId166" ref="E226"/>
-    <hyperlink r:id="rId167" ref="E227"/>
-    <hyperlink r:id="rId168" ref="E228"/>
-    <hyperlink r:id="rId169" ref="E234"/>
-    <hyperlink r:id="rId170" ref="E235"/>
-    <hyperlink r:id="rId171" ref="E241"/>
-    <hyperlink r:id="rId172" ref="E242"/>
-    <hyperlink r:id="rId173" ref="E243"/>
-    <hyperlink r:id="rId174" ref="E248"/>
-    <hyperlink r:id="rId175" ref="E254"/>
-    <hyperlink r:id="rId176" ref="E263"/>
-    <hyperlink r:id="rId177" ref="E271"/>
-    <hyperlink r:id="rId178" ref="E272"/>
-    <hyperlink r:id="rId179" ref="E282"/>
-    <hyperlink r:id="rId180" ref="E283"/>
-    <hyperlink r:id="rId181" ref="E285"/>
-    <hyperlink r:id="rId182" ref="E286"/>
-    <hyperlink r:id="rId183" ref="E291"/>
-    <hyperlink r:id="rId184" ref="E296"/>
-    <hyperlink r:id="rId185" ref="E302"/>
-    <hyperlink r:id="rId186" ref="E303"/>
-    <hyperlink r:id="rId187" ref="E304"/>
-    <hyperlink r:id="rId188" ref="E305"/>
-    <hyperlink r:id="rId189" ref="E309"/>
-    <hyperlink r:id="rId190" ref="E310"/>
-    <hyperlink r:id="rId191" ref="E313"/>
-    <hyperlink r:id="rId192" ref="E314"/>
-    <hyperlink r:id="rId193" ref="E320"/>
-    <hyperlink r:id="rId194" ref="E332"/>
-    <hyperlink r:id="rId195" ref="E333"/>
+    <hyperlink r:id="rId163" ref="E215"/>
+    <hyperlink r:id="rId164" ref="E219"/>
+    <hyperlink r:id="rId165" ref="E220"/>
+    <hyperlink r:id="rId166" ref="E221"/>
+    <hyperlink r:id="rId167" ref="E222"/>
+    <hyperlink r:id="rId168" ref="E226"/>
+    <hyperlink r:id="rId169" ref="E227"/>
+    <hyperlink r:id="rId170" ref="E228"/>
+    <hyperlink r:id="rId171" ref="E234"/>
+    <hyperlink r:id="rId172" ref="E235"/>
+    <hyperlink r:id="rId173" ref="E236"/>
+    <hyperlink r:id="rId174" ref="E241"/>
+    <hyperlink r:id="rId175" ref="E242"/>
+    <hyperlink r:id="rId176" ref="E243"/>
+    <hyperlink r:id="rId177" ref="E248"/>
+    <hyperlink r:id="rId178" ref="E250"/>
+    <hyperlink r:id="rId179" ref="E254"/>
+    <hyperlink r:id="rId180" ref="E257"/>
+    <hyperlink r:id="rId181" ref="E263"/>
+    <hyperlink r:id="rId182" ref="E264"/>
+    <hyperlink r:id="rId183" ref="E271"/>
+    <hyperlink r:id="rId184" ref="E272"/>
+    <hyperlink r:id="rId185" ref="E282"/>
+    <hyperlink r:id="rId186" ref="E283"/>
+    <hyperlink r:id="rId187" ref="E284"/>
+    <hyperlink r:id="rId188" ref="E285"/>
+    <hyperlink r:id="rId189" ref="E286"/>
+    <hyperlink r:id="rId190" ref="E291"/>
+    <hyperlink r:id="rId191" ref="E292"/>
+    <hyperlink r:id="rId192" ref="E296"/>
+    <hyperlink r:id="rId193" ref="E297"/>
+    <hyperlink r:id="rId194" ref="E302"/>
+    <hyperlink r:id="rId195" ref="E303"/>
+    <hyperlink r:id="rId196" ref="E304"/>
+    <hyperlink r:id="rId197" ref="E305"/>
+    <hyperlink r:id="rId198" ref="E309"/>
+    <hyperlink r:id="rId199" ref="E310"/>
+    <hyperlink r:id="rId200" ref="E313"/>
+    <hyperlink r:id="rId201" ref="E314"/>
+    <hyperlink r:id="rId202" ref="E320"/>
+    <hyperlink r:id="rId203" ref="E327"/>
+    <hyperlink r:id="rId204" ref="E333"/>
+    <hyperlink r:id="rId205" ref="E334"/>
   </hyperlinks>
-  <drawing r:id="rId196"/>
+  <drawing r:id="rId206"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="520">
   <si>
     <t>id</t>
   </si>
@@ -1099,6 +1099,9 @@
     <t>Smash ultimate w/ Voxxy</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=2zl-HGUjmvw</t>
+  </si>
+  <si>
     <t>Apex Legends w/ Selen/ Alban</t>
   </si>
   <si>
@@ -1228,6 +1231,9 @@
     <t>PORTAL 2 COOP w/ YUGO</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=849X6twPPoM</t>
+  </si>
+  <si>
     <t>APEX w/ REIMU+UKI</t>
   </si>
   <si>
@@ -1273,6 +1279,9 @@
     <t>XENOBLADE CHRONICLES: FUTURE CONNECTED</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1s93lrpeGFM</t>
+  </si>
+  <si>
     <t>TWISTED WONDERLAND w/ PETRA</t>
   </si>
   <si>
@@ -1306,6 +1315,9 @@
     <t>SMASH VS FULGUR</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=ds-eYPXn9xw</t>
+  </si>
+  <si>
     <t>APEX w/ MYSTA &amp; RPR</t>
   </si>
   <si>
@@ -1381,6 +1393,9 @@
     <t>MINECRAFT: NIJI WORLD SERVER</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=XvgfiFkatjA</t>
+  </si>
+  <si>
     <t>COMFY VOICE AMA</t>
   </si>
   <si>
@@ -1405,6 +1420,9 @@
     <t>Apex Legends [Vox, Rpr Collab]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=mxx6Ioa5KZk</t>
+  </si>
+  <si>
     <t>KARAOKE????? (if everything goes to plan)</t>
   </si>
   <si>
@@ -1511,6 +1529,9 @@
   </si>
   <si>
     <t>NijiWorld Minecraft Server</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qVW37P2gvFc</t>
   </si>
   <si>
     <t>Project Zomboid First time!</t>
@@ -8178,8 +8199,8 @@
       <c r="D206" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F206" s="1" t="b">
-        <v>1</v>
+      <c r="E206" s="7" t="s">
+        <v>362</v>
       </c>
       <c r="J206" s="1" t="b">
         <v>1</v>
@@ -8203,7 +8224,7 @@
         <v>319</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D207" s="1" t="b">
         <v>1</v>
@@ -8225,7 +8246,7 @@
     <row r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -8258,7 +8279,7 @@
         <v>319</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>1</v>
@@ -8285,7 +8306,7 @@
         <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
@@ -8309,13 +8330,13 @@
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K212" s="5">
         <v>44627.0</v>
@@ -8336,13 +8357,13 @@
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K213" s="5">
         <v>44628.0</v>
@@ -8363,13 +8384,13 @@
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K214" s="5">
         <v>44629.0</v>
@@ -8390,13 +8411,13 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K215" s="5">
         <v>44630.041666666664</v>
@@ -8417,7 +8438,7 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
@@ -8444,7 +8465,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8471,7 +8492,7 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8501,13 +8522,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8534,7 +8555,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8561,7 +8582,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K221" s="5">
         <v>44629.125</v>
@@ -8588,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K222" s="5">
         <v>44630.041666666664</v>
@@ -8609,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
@@ -8636,7 +8657,7 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
@@ -8666,7 +8687,7 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
@@ -8693,13 +8714,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8729,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8750,13 +8771,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8777,7 +8798,7 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
@@ -8833,7 +8854,7 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -8857,7 +8878,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8881,13 +8902,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -8908,13 +8929,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -8935,13 +8956,13 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K236" s="8">
         <v>44629.5</v>
@@ -8962,7 +8983,7 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
@@ -8989,7 +9010,7 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
@@ -9013,7 +9034,7 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -9064,13 +9085,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -9097,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -9118,13 +9139,13 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
@@ -9145,10 +9166,13 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>406</v>
       </c>
       <c r="J244" s="1" t="b">
         <v>1</v>
@@ -9172,7 +9196,7 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -9199,7 +9223,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9226,7 +9250,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9250,13 +9274,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9277,7 +9301,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9301,13 +9325,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9328,7 +9352,7 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
@@ -9352,7 +9376,7 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9376,7 +9400,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9400,13 +9424,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9430,7 +9454,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9460,10 +9484,13 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="K256" s="5">
         <v>44629.875</v>
@@ -9484,13 +9511,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9527,7 +9554,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9551,7 +9578,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9575,7 +9602,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9599,7 +9626,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9623,13 +9650,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9650,13 +9677,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9677,20 +9704,23 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F265" s="1" t="b">
+      <c r="E265" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G265" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K265" s="5">
-        <v>44629.875</v>
+        <v>44629.833333333336</v>
       </c>
       <c r="L265" s="1">
         <f t="shared" si="15"/>
-        <v>1646859600000</v>
+        <v>1646856000000</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>16</v>
@@ -9704,23 +9734,23 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F266" s="1" t="b">
+      <c r="G266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K266" s="5">
-        <v>44630.541666666664</v>
+        <v>44630.583333333336</v>
       </c>
       <c r="L266" s="1">
         <f t="shared" si="15"/>
-        <v>1646917200000</v>
+        <v>1646920800000</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>16</v>
@@ -9734,7 +9764,7 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9758,7 +9788,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9782,7 +9812,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9820,7 +9850,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9844,13 +9874,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -9871,7 +9901,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -9898,7 +9928,7 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
@@ -9925,7 +9955,7 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
@@ -9949,7 +9979,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -10002,7 +10032,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -10026,7 +10056,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10050,7 +10080,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10074,13 +10104,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10101,13 +10131,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10128,13 +10158,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10155,13 +10185,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10182,13 +10212,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10209,10 +10239,13 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>460</v>
       </c>
       <c r="K287" s="5">
         <v>44630.083333333336</v>
@@ -10233,7 +10266,7 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
@@ -10257,7 +10290,7 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
@@ -10281,7 +10314,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10305,13 +10338,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10332,13 +10365,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10362,13 +10395,13 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F293" s="1" t="b">
-        <v>1</v>
+      <c r="E293" s="7" t="s">
+        <v>469</v>
       </c>
       <c r="J293" s="1" t="b">
         <v>1</v>
@@ -10392,7 +10425,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10416,7 +10449,7 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
@@ -10446,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10467,13 +10500,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10497,7 +10530,7 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
@@ -10521,7 +10554,7 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
@@ -10545,7 +10578,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -10572,7 +10605,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10596,13 +10629,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10626,13 +10659,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10653,13 +10686,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10680,13 +10713,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10713,7 +10746,7 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
@@ -10740,7 +10773,7 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
@@ -10764,7 +10797,7 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -10794,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -10815,13 +10848,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -10842,7 +10875,7 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
@@ -10869,7 +10902,7 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
@@ -10893,13 +10926,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -10929,7 +10962,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -10950,7 +10983,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -10977,7 +11010,7 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -11007,7 +11040,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -11034,7 +11067,7 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
@@ -11058,7 +11091,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11085,13 +11118,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11115,7 +11148,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11139,10 +11172,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E322" s="7" t="s">
+        <v>506</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11163,7 +11199,7 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
@@ -11187,7 +11223,7 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
@@ -11211,7 +11247,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11243,13 +11279,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11270,7 +11306,7 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
@@ -11294,7 +11330,7 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
@@ -11318,7 +11354,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11342,7 +11378,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11383,10 +11419,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11410,10 +11446,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11590,53 +11626,60 @@
     <hyperlink r:id="rId157" ref="E203"/>
     <hyperlink r:id="rId158" ref="E204"/>
     <hyperlink r:id="rId159" ref="E205"/>
-    <hyperlink r:id="rId160" ref="E212"/>
-    <hyperlink r:id="rId161" ref="E213"/>
-    <hyperlink r:id="rId162" ref="E214"/>
-    <hyperlink r:id="rId163" ref="E215"/>
-    <hyperlink r:id="rId164" ref="E219"/>
-    <hyperlink r:id="rId165" ref="E220"/>
-    <hyperlink r:id="rId166" ref="E221"/>
-    <hyperlink r:id="rId167" ref="E222"/>
-    <hyperlink r:id="rId168" ref="E226"/>
-    <hyperlink r:id="rId169" ref="E227"/>
-    <hyperlink r:id="rId170" ref="E228"/>
-    <hyperlink r:id="rId171" ref="E234"/>
-    <hyperlink r:id="rId172" ref="E235"/>
-    <hyperlink r:id="rId173" ref="E236"/>
-    <hyperlink r:id="rId174" ref="E241"/>
-    <hyperlink r:id="rId175" ref="E242"/>
-    <hyperlink r:id="rId176" ref="E243"/>
-    <hyperlink r:id="rId177" ref="E248"/>
-    <hyperlink r:id="rId178" ref="E250"/>
-    <hyperlink r:id="rId179" ref="E254"/>
-    <hyperlink r:id="rId180" ref="E257"/>
-    <hyperlink r:id="rId181" ref="E263"/>
-    <hyperlink r:id="rId182" ref="E264"/>
-    <hyperlink r:id="rId183" ref="E271"/>
-    <hyperlink r:id="rId184" ref="E272"/>
-    <hyperlink r:id="rId185" ref="E282"/>
-    <hyperlink r:id="rId186" ref="E283"/>
-    <hyperlink r:id="rId187" ref="E284"/>
-    <hyperlink r:id="rId188" ref="E285"/>
-    <hyperlink r:id="rId189" ref="E286"/>
-    <hyperlink r:id="rId190" ref="E291"/>
-    <hyperlink r:id="rId191" ref="E292"/>
-    <hyperlink r:id="rId192" ref="E296"/>
-    <hyperlink r:id="rId193" ref="E297"/>
-    <hyperlink r:id="rId194" ref="E302"/>
-    <hyperlink r:id="rId195" ref="E303"/>
-    <hyperlink r:id="rId196" ref="E304"/>
-    <hyperlink r:id="rId197" ref="E305"/>
-    <hyperlink r:id="rId198" ref="E309"/>
-    <hyperlink r:id="rId199" ref="E310"/>
-    <hyperlink r:id="rId200" ref="E313"/>
-    <hyperlink r:id="rId201" ref="E314"/>
-    <hyperlink r:id="rId202" ref="E320"/>
-    <hyperlink r:id="rId203" ref="E327"/>
-    <hyperlink r:id="rId204" ref="E333"/>
-    <hyperlink r:id="rId205" ref="E334"/>
+    <hyperlink r:id="rId160" ref="E206"/>
+    <hyperlink r:id="rId161" ref="E212"/>
+    <hyperlink r:id="rId162" ref="E213"/>
+    <hyperlink r:id="rId163" ref="E214"/>
+    <hyperlink r:id="rId164" ref="E215"/>
+    <hyperlink r:id="rId165" ref="E219"/>
+    <hyperlink r:id="rId166" ref="E220"/>
+    <hyperlink r:id="rId167" ref="E221"/>
+    <hyperlink r:id="rId168" ref="E222"/>
+    <hyperlink r:id="rId169" ref="E226"/>
+    <hyperlink r:id="rId170" ref="E227"/>
+    <hyperlink r:id="rId171" ref="E228"/>
+    <hyperlink r:id="rId172" ref="E234"/>
+    <hyperlink r:id="rId173" ref="E235"/>
+    <hyperlink r:id="rId174" ref="E236"/>
+    <hyperlink r:id="rId175" ref="E241"/>
+    <hyperlink r:id="rId176" ref="E242"/>
+    <hyperlink r:id="rId177" ref="E243"/>
+    <hyperlink r:id="rId178" ref="E244"/>
+    <hyperlink r:id="rId179" ref="E248"/>
+    <hyperlink r:id="rId180" ref="E250"/>
+    <hyperlink r:id="rId181" ref="E254"/>
+    <hyperlink r:id="rId182" ref="E256"/>
+    <hyperlink r:id="rId183" ref="E257"/>
+    <hyperlink r:id="rId184" ref="E263"/>
+    <hyperlink r:id="rId185" ref="E264"/>
+    <hyperlink r:id="rId186" ref="E265"/>
+    <hyperlink r:id="rId187" ref="E271"/>
+    <hyperlink r:id="rId188" ref="E272"/>
+    <hyperlink r:id="rId189" ref="E282"/>
+    <hyperlink r:id="rId190" ref="E283"/>
+    <hyperlink r:id="rId191" ref="E284"/>
+    <hyperlink r:id="rId192" ref="E285"/>
+    <hyperlink r:id="rId193" ref="E286"/>
+    <hyperlink r:id="rId194" ref="E287"/>
+    <hyperlink r:id="rId195" ref="E291"/>
+    <hyperlink r:id="rId196" ref="E292"/>
+    <hyperlink r:id="rId197" ref="E293"/>
+    <hyperlink r:id="rId198" ref="E296"/>
+    <hyperlink r:id="rId199" ref="E297"/>
+    <hyperlink r:id="rId200" ref="E302"/>
+    <hyperlink r:id="rId201" ref="E303"/>
+    <hyperlink r:id="rId202" ref="E304"/>
+    <hyperlink r:id="rId203" ref="E305"/>
+    <hyperlink r:id="rId204" ref="E309"/>
+    <hyperlink r:id="rId205" ref="E310"/>
+    <hyperlink r:id="rId206" ref="E313"/>
+    <hyperlink r:id="rId207" ref="E314"/>
+    <hyperlink r:id="rId208" ref="E320"/>
+    <hyperlink r:id="rId209" ref="E322"/>
+    <hyperlink r:id="rId210" ref="E327"/>
+    <hyperlink r:id="rId211" ref="E333"/>
+    <hyperlink r:id="rId212" ref="E334"/>
   </hyperlinks>
-  <drawing r:id="rId206"/>
+  <drawing r:id="rId213"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="531">
   <si>
     <t>id</t>
   </si>
@@ -1138,6 +1138,9 @@
     <t xml:space="preserve">APEX COLLAB FT. SELEN &amp; FULGUR </t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=fmmyCenqkCE</t>
+  </si>
+  <si>
     <t>MISTS OF AIDEN</t>
   </si>
   <si>
@@ -1162,9 +1165,15 @@
     <t>APEX Legends with Sonny &amp; Reimu</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=VoIPiQYmWmk</t>
+  </si>
+  <si>
     <t>DBD COLLAB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=NYncknLswVA</t>
+  </si>
+  <si>
     <t>VOLORANT  with NOCTYX</t>
   </si>
   <si>
@@ -1183,6 +1192,9 @@
     <t xml:space="preserve">DEAD BY DAYLIGHT W/ PETRA, UKI, ROSEMI </t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=D3vmL3jmRYc</t>
+  </si>
+  <si>
     <t xml:space="preserve">YAKUZA: 0 FINALE </t>
   </si>
   <si>
@@ -1210,6 +1222,9 @@
     <t>PORTAL 2 COOP w/ SONNY</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=_OfozXQ6GQg</t>
+  </si>
+  <si>
     <t>DUOLINGO</t>
   </si>
   <si>
@@ -1261,6 +1276,9 @@
     <t>PYRE</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=sUtCLgBp_xI</t>
+  </si>
+  <si>
     <t>PYRE #2</t>
   </si>
   <si>
@@ -1321,6 +1339,9 @@
     <t>APEX w/ MYSTA &amp; RPR</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=PaFMPC67FtY</t>
+  </si>
+  <si>
     <t>SIMS 4 - THE FATED PARTY</t>
   </si>
   <si>
@@ -1345,6 +1366,9 @@
     <t>APEX LEGENDS w/ Sonny Uki</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=YfXb7yWAOwE</t>
+  </si>
+  <si>
     <t>PATH OF EXILE</t>
   </si>
   <si>
@@ -1441,9 +1465,15 @@
     <t>MINECRART (WORLD SERVER)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=HeKUWLJlRu8</t>
+  </si>
+  <si>
     <t>MEGA MAN X</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=dtQ8pxN8TjY</t>
+  </si>
+  <si>
     <t>UNO COLLAB W/ VOX, REIMU, SHOTO</t>
   </si>
   <si>
@@ -1550,6 +1580,9 @@
   </si>
   <si>
     <t>????</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZL7EUMlue1E</t>
   </si>
   <si>
     <t>Hades</t>
@@ -8443,6 +8476,9 @@
       <c r="D216" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E216" s="7" t="s">
+        <v>375</v>
+      </c>
       <c r="J216" s="1" t="b">
         <v>1</v>
       </c>
@@ -8465,7 +8501,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8492,7 +8528,7 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
@@ -8522,13 +8558,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8555,7 +8591,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8582,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K221" s="5">
         <v>44629.125</v>
@@ -8609,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K222" s="5">
         <v>44630.041666666664</v>
@@ -8630,10 +8666,13 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>384</v>
       </c>
       <c r="J223" s="1" t="b">
         <v>1</v>
@@ -8657,13 +8696,13 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F224" s="1" t="b">
-        <v>1</v>
+      <c r="E224" s="7" t="s">
+        <v>386</v>
       </c>
       <c r="J224" s="1" t="b">
         <v>1</v>
@@ -8687,7 +8726,7 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
@@ -8714,13 +8753,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8750,7 +8789,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8771,13 +8810,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8798,23 +8837,26 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F229" s="1" t="b">
+      <c r="E229" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K229" s="5">
-        <v>44630.958333333336</v>
+        <v>44631.041666666664</v>
       </c>
       <c r="L229" s="1">
         <f t="shared" si="13"/>
-        <v>1646953200000</v>
+        <v>1646960400000</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>16</v>
@@ -8854,7 +8896,7 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
@@ -8878,7 +8920,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8902,13 +8944,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -8929,13 +8971,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -8956,13 +8998,13 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K236" s="8">
         <v>44629.5</v>
@@ -8983,10 +9025,13 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>403</v>
       </c>
       <c r="J237" s="1" t="b">
         <v>1</v>
@@ -9010,7 +9055,7 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
@@ -9034,7 +9079,7 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
@@ -9085,13 +9130,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -9118,7 +9163,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -9139,13 +9184,13 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
@@ -9166,13 +9211,13 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="J244" s="1" t="b">
         <v>1</v>
@@ -9196,7 +9241,7 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
@@ -9223,7 +9268,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9250,7 +9295,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9274,13 +9319,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9301,7 +9346,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9325,13 +9370,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9352,10 +9397,13 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="K251" s="5">
         <v>44630.791666666664</v>
@@ -9376,7 +9424,7 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9400,7 +9448,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9424,13 +9472,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9454,7 +9502,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9484,13 +9532,13 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K256" s="5">
         <v>44629.875</v>
@@ -9511,13 +9559,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9554,10 +9602,13 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>153</v>
       </c>
       <c r="K259" s="5">
         <v>44631.0</v>
@@ -9578,7 +9629,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9602,7 +9653,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9626,7 +9677,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9650,13 +9701,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9677,13 +9728,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9704,13 +9755,13 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="G265" s="1" t="b">
         <v>1</v>
@@ -9734,10 +9785,13 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>442</v>
       </c>
       <c r="G266" s="1" t="b">
         <v>1</v>
@@ -9764,7 +9818,7 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9788,7 +9842,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9812,7 +9866,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9850,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9874,13 +9928,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -9901,7 +9955,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -9928,10 +9982,13 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="J274" s="1" t="b">
         <v>1</v>
@@ -9955,7 +10012,7 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
@@ -9979,7 +10036,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -10032,7 +10089,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -10056,7 +10113,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10080,7 +10137,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10104,13 +10161,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10131,13 +10188,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10158,13 +10215,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10185,13 +10242,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10212,13 +10269,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10239,13 +10296,13 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="K287" s="5">
         <v>44630.083333333336</v>
@@ -10266,7 +10323,7 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
@@ -10290,7 +10347,7 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
@@ -10314,7 +10371,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10338,13 +10395,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10365,13 +10422,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10395,13 +10452,13 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="J293" s="1" t="b">
         <v>1</v>
@@ -10425,7 +10482,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10449,7 +10506,7 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
@@ -10479,7 +10536,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10500,13 +10557,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10530,10 +10587,13 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="K298" s="5">
         <v>44630.083333333336</v>
@@ -10554,10 +10614,13 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>486</v>
       </c>
       <c r="K299" s="5">
         <v>44630.5</v>
@@ -10578,7 +10641,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -10605,7 +10668,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10629,13 +10692,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10659,13 +10722,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10686,13 +10749,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10713,13 +10776,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10746,7 +10809,7 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
@@ -10773,7 +10836,7 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
@@ -10797,7 +10860,7 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -10827,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -10848,13 +10911,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -10875,7 +10938,7 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
@@ -10902,7 +10965,7 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
@@ -10926,13 +10989,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -10962,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -10983,7 +11046,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -11010,12 +11073,9 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="D316" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F316" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J316" s="1" t="b">
@@ -11040,7 +11100,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -11067,7 +11127,7 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
@@ -11091,7 +11151,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11118,13 +11178,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11148,7 +11208,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11172,13 +11232,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11199,7 +11259,7 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
@@ -11223,7 +11283,7 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
@@ -11247,7 +11307,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11279,13 +11339,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11306,10 +11366,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E328" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11330,7 +11393,7 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
@@ -11354,7 +11417,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11378,7 +11441,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11419,10 +11482,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11446,10 +11509,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11631,55 +11694,67 @@
     <hyperlink r:id="rId162" ref="E213"/>
     <hyperlink r:id="rId163" ref="E214"/>
     <hyperlink r:id="rId164" ref="E215"/>
-    <hyperlink r:id="rId165" ref="E219"/>
-    <hyperlink r:id="rId166" ref="E220"/>
-    <hyperlink r:id="rId167" ref="E221"/>
-    <hyperlink r:id="rId168" ref="E222"/>
-    <hyperlink r:id="rId169" ref="E226"/>
-    <hyperlink r:id="rId170" ref="E227"/>
-    <hyperlink r:id="rId171" ref="E228"/>
-    <hyperlink r:id="rId172" ref="E234"/>
-    <hyperlink r:id="rId173" ref="E235"/>
-    <hyperlink r:id="rId174" ref="E236"/>
-    <hyperlink r:id="rId175" ref="E241"/>
-    <hyperlink r:id="rId176" ref="E242"/>
-    <hyperlink r:id="rId177" ref="E243"/>
-    <hyperlink r:id="rId178" ref="E244"/>
-    <hyperlink r:id="rId179" ref="E248"/>
-    <hyperlink r:id="rId180" ref="E250"/>
-    <hyperlink r:id="rId181" ref="E254"/>
-    <hyperlink r:id="rId182" ref="E256"/>
-    <hyperlink r:id="rId183" ref="E257"/>
-    <hyperlink r:id="rId184" ref="E263"/>
-    <hyperlink r:id="rId185" ref="E264"/>
-    <hyperlink r:id="rId186" ref="E265"/>
-    <hyperlink r:id="rId187" ref="E271"/>
-    <hyperlink r:id="rId188" ref="E272"/>
-    <hyperlink r:id="rId189" ref="E282"/>
-    <hyperlink r:id="rId190" ref="E283"/>
-    <hyperlink r:id="rId191" ref="E284"/>
-    <hyperlink r:id="rId192" ref="E285"/>
-    <hyperlink r:id="rId193" ref="E286"/>
-    <hyperlink r:id="rId194" ref="E287"/>
-    <hyperlink r:id="rId195" ref="E291"/>
-    <hyperlink r:id="rId196" ref="E292"/>
-    <hyperlink r:id="rId197" ref="E293"/>
-    <hyperlink r:id="rId198" ref="E296"/>
-    <hyperlink r:id="rId199" ref="E297"/>
-    <hyperlink r:id="rId200" ref="E302"/>
-    <hyperlink r:id="rId201" ref="E303"/>
-    <hyperlink r:id="rId202" ref="E304"/>
-    <hyperlink r:id="rId203" ref="E305"/>
-    <hyperlink r:id="rId204" ref="E309"/>
-    <hyperlink r:id="rId205" ref="E310"/>
-    <hyperlink r:id="rId206" ref="E313"/>
-    <hyperlink r:id="rId207" ref="E314"/>
-    <hyperlink r:id="rId208" ref="E320"/>
-    <hyperlink r:id="rId209" ref="E322"/>
-    <hyperlink r:id="rId210" ref="E327"/>
-    <hyperlink r:id="rId211" ref="E333"/>
-    <hyperlink r:id="rId212" ref="E334"/>
+    <hyperlink r:id="rId165" ref="E216"/>
+    <hyperlink r:id="rId166" ref="E219"/>
+    <hyperlink r:id="rId167" ref="E220"/>
+    <hyperlink r:id="rId168" ref="E221"/>
+    <hyperlink r:id="rId169" ref="E222"/>
+    <hyperlink r:id="rId170" ref="E223"/>
+    <hyperlink r:id="rId171" ref="E224"/>
+    <hyperlink r:id="rId172" ref="E226"/>
+    <hyperlink r:id="rId173" ref="E227"/>
+    <hyperlink r:id="rId174" ref="E228"/>
+    <hyperlink r:id="rId175" ref="E229"/>
+    <hyperlink r:id="rId176" ref="E234"/>
+    <hyperlink r:id="rId177" ref="E235"/>
+    <hyperlink r:id="rId178" ref="E236"/>
+    <hyperlink r:id="rId179" ref="E237"/>
+    <hyperlink r:id="rId180" ref="E241"/>
+    <hyperlink r:id="rId181" ref="E242"/>
+    <hyperlink r:id="rId182" ref="E243"/>
+    <hyperlink r:id="rId183" ref="E244"/>
+    <hyperlink r:id="rId184" ref="E248"/>
+    <hyperlink r:id="rId185" ref="E250"/>
+    <hyperlink r:id="rId186" ref="E251"/>
+    <hyperlink r:id="rId187" ref="E254"/>
+    <hyperlink r:id="rId188" ref="E256"/>
+    <hyperlink r:id="rId189" ref="E257"/>
+    <hyperlink r:id="rId190" ref="E259"/>
+    <hyperlink r:id="rId191" ref="E263"/>
+    <hyperlink r:id="rId192" ref="E264"/>
+    <hyperlink r:id="rId193" ref="E265"/>
+    <hyperlink r:id="rId194" ref="E266"/>
+    <hyperlink r:id="rId195" ref="E271"/>
+    <hyperlink r:id="rId196" ref="E272"/>
+    <hyperlink r:id="rId197" ref="E274"/>
+    <hyperlink r:id="rId198" ref="E282"/>
+    <hyperlink r:id="rId199" ref="E283"/>
+    <hyperlink r:id="rId200" ref="E284"/>
+    <hyperlink r:id="rId201" ref="E285"/>
+    <hyperlink r:id="rId202" ref="E286"/>
+    <hyperlink r:id="rId203" ref="E287"/>
+    <hyperlink r:id="rId204" ref="E291"/>
+    <hyperlink r:id="rId205" ref="E292"/>
+    <hyperlink r:id="rId206" ref="E293"/>
+    <hyperlink r:id="rId207" ref="E296"/>
+    <hyperlink r:id="rId208" ref="E297"/>
+    <hyperlink r:id="rId209" ref="E298"/>
+    <hyperlink r:id="rId210" ref="E299"/>
+    <hyperlink r:id="rId211" ref="E302"/>
+    <hyperlink r:id="rId212" ref="E303"/>
+    <hyperlink r:id="rId213" ref="E304"/>
+    <hyperlink r:id="rId214" ref="E305"/>
+    <hyperlink r:id="rId215" ref="E309"/>
+    <hyperlink r:id="rId216" ref="E310"/>
+    <hyperlink r:id="rId217" ref="E313"/>
+    <hyperlink r:id="rId218" ref="E314"/>
+    <hyperlink r:id="rId219" ref="E320"/>
+    <hyperlink r:id="rId220" ref="E322"/>
+    <hyperlink r:id="rId221" ref="E327"/>
+    <hyperlink r:id="rId222" ref="E328"/>
+    <hyperlink r:id="rId223" ref="E333"/>
+    <hyperlink r:id="rId224" ref="E334"/>
   </hyperlinks>
-  <drawing r:id="rId213"/>
+  <drawing r:id="rId225"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="536">
   <si>
     <t>id</t>
   </si>
@@ -1252,6 +1252,9 @@
     <t>APEX w/ REIMU+UKI</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=0CiFVy22dAA</t>
+  </si>
+  <si>
     <t>VALORANT w/ NOCTYX</t>
   </si>
   <si>
@@ -1507,6 +1510,9 @@
     <t>Apex Legends w/ Fulgur &amp; Alban</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=DkBs1VN_WjU</t>
+  </si>
+  <si>
     <t>Control</t>
   </si>
   <si>
@@ -1525,6 +1531,9 @@
     <t>YGO! MD+DbD Collab</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=ja3VMJ-cKhk</t>
+  </si>
+  <si>
     <t>Rosemi Zatsudan</t>
   </si>
   <si>
@@ -1604,6 +1613,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=oI42Z2iNs70</t>
+  </si>
+  <si>
+    <t>100K SUB CELEBRATION GORILLA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y5CbmFzJI5o</t>
   </si>
 </sst>
 </file>
@@ -9246,6 +9261,9 @@
       <c r="D245" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E245" s="7" t="s">
+        <v>413</v>
+      </c>
       <c r="J245" s="1" t="b">
         <v>1</v>
       </c>
@@ -9268,7 +9286,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9295,7 +9313,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9319,13 +9337,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9346,7 +9364,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9370,13 +9388,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9397,13 +9415,13 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K251" s="5">
         <v>44630.791666666664</v>
@@ -9424,7 +9442,7 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
@@ -9448,7 +9466,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9472,13 +9490,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9502,7 +9520,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9532,13 +9550,13 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K256" s="5">
         <v>44629.875</v>
@@ -9559,13 +9577,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9602,7 +9620,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9629,7 +9647,7 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
@@ -9653,7 +9671,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9677,7 +9695,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9701,13 +9719,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9728,13 +9746,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9755,13 +9773,13 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G265" s="1" t="b">
         <v>1</v>
@@ -9785,26 +9803,23 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="G266" s="1" t="b">
-        <v>1</v>
+        <v>443</v>
       </c>
       <c r="J266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K266" s="5">
-        <v>44630.583333333336</v>
+        <v>44630.541666666664</v>
       </c>
       <c r="L266" s="1">
         <f t="shared" si="15"/>
-        <v>1646920800000</v>
+        <v>1646917200000</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>16</v>
@@ -9818,7 +9833,7 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
@@ -9842,7 +9857,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9866,7 +9881,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9904,7 +9919,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9928,13 +9943,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -9955,7 +9970,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -9982,13 +9997,13 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J274" s="1" t="b">
         <v>1</v>
@@ -10012,7 +10027,7 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
@@ -10036,7 +10051,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -10089,7 +10104,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -10113,7 +10128,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10137,7 +10152,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10161,13 +10176,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10188,13 +10203,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10215,13 +10230,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10242,13 +10257,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10269,13 +10284,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10296,13 +10311,13 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K287" s="5">
         <v>44630.083333333336</v>
@@ -10323,7 +10338,7 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
@@ -10347,7 +10362,7 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
@@ -10371,7 +10386,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10395,13 +10410,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10422,13 +10437,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10452,23 +10467,26 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="G293" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="J293" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K293" s="5">
-        <v>44630.583333333336</v>
+        <v>44630.541666666664</v>
       </c>
       <c r="L293" s="1">
         <f t="shared" si="17"/>
-        <v>1646920800000</v>
+        <v>1646917200000</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>16</v>
@@ -10482,7 +10500,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10506,7 +10524,7 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
@@ -10536,7 +10554,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10557,13 +10575,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10587,13 +10605,13 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K298" s="5">
         <v>44630.083333333336</v>
@@ -10614,13 +10632,13 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K299" s="5">
         <v>44630.5</v>
@@ -10641,7 +10659,7 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
@@ -10668,7 +10686,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10692,13 +10710,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10722,13 +10740,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10749,13 +10767,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10776,13 +10794,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10809,10 +10827,13 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="J306" s="1" t="b">
         <v>1</v>
@@ -10836,7 +10857,7 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
@@ -10860,7 +10881,7 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -10890,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -10911,13 +10932,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -10938,20 +10959,23 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F311" s="1" t="b">
+      <c r="E311" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="G311" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K311" s="5">
-        <v>44630.958333333336</v>
+        <v>44631.041666666664</v>
       </c>
       <c r="L311" s="1">
         <f t="shared" si="17"/>
-        <v>1646953200000</v>
+        <v>1646960400000</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>16</v>
@@ -10965,7 +10989,7 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
@@ -10989,13 +11013,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -11025,7 +11049,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -11046,7 +11070,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -11073,7 +11097,7 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -11100,7 +11124,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -11127,7 +11151,7 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
@@ -11151,7 +11175,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11178,13 +11202,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11208,7 +11232,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11232,13 +11256,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11259,7 +11283,7 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
@@ -11283,7 +11307,7 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
@@ -11307,7 +11331,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11339,13 +11363,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11366,13 +11390,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11393,7 +11417,7 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
@@ -11417,7 +11441,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11441,7 +11465,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11482,10 +11506,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11494,7 +11518,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L334" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L335" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11509,10 +11533,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11525,6 +11549,33 @@
         <v>1646798400000</v>
       </c>
       <c r="M334" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>348.0</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E335" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="I335" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K335" s="5">
+        <v>44631.125</v>
+      </c>
+      <c r="L335" s="1">
+        <f t="shared" si="19"/>
+        <v>1646967600000</v>
+      </c>
+      <c r="M335" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11713,48 +11764,52 @@
     <hyperlink r:id="rId181" ref="E242"/>
     <hyperlink r:id="rId182" ref="E243"/>
     <hyperlink r:id="rId183" ref="E244"/>
-    <hyperlink r:id="rId184" ref="E248"/>
-    <hyperlink r:id="rId185" ref="E250"/>
-    <hyperlink r:id="rId186" ref="E251"/>
-    <hyperlink r:id="rId187" ref="E254"/>
-    <hyperlink r:id="rId188" ref="E256"/>
-    <hyperlink r:id="rId189" ref="E257"/>
-    <hyperlink r:id="rId190" ref="E259"/>
-    <hyperlink r:id="rId191" ref="E263"/>
-    <hyperlink r:id="rId192" ref="E264"/>
-    <hyperlink r:id="rId193" ref="E265"/>
-    <hyperlink r:id="rId194" ref="E266"/>
-    <hyperlink r:id="rId195" ref="E271"/>
-    <hyperlink r:id="rId196" ref="E272"/>
-    <hyperlink r:id="rId197" ref="E274"/>
-    <hyperlink r:id="rId198" ref="E282"/>
-    <hyperlink r:id="rId199" ref="E283"/>
-    <hyperlink r:id="rId200" ref="E284"/>
-    <hyperlink r:id="rId201" ref="E285"/>
-    <hyperlink r:id="rId202" ref="E286"/>
-    <hyperlink r:id="rId203" ref="E287"/>
-    <hyperlink r:id="rId204" ref="E291"/>
-    <hyperlink r:id="rId205" ref="E292"/>
-    <hyperlink r:id="rId206" ref="E293"/>
-    <hyperlink r:id="rId207" ref="E296"/>
-    <hyperlink r:id="rId208" ref="E297"/>
-    <hyperlink r:id="rId209" ref="E298"/>
-    <hyperlink r:id="rId210" ref="E299"/>
-    <hyperlink r:id="rId211" ref="E302"/>
-    <hyperlink r:id="rId212" ref="E303"/>
-    <hyperlink r:id="rId213" ref="E304"/>
-    <hyperlink r:id="rId214" ref="E305"/>
-    <hyperlink r:id="rId215" ref="E309"/>
-    <hyperlink r:id="rId216" ref="E310"/>
-    <hyperlink r:id="rId217" ref="E313"/>
-    <hyperlink r:id="rId218" ref="E314"/>
-    <hyperlink r:id="rId219" ref="E320"/>
-    <hyperlink r:id="rId220" ref="E322"/>
-    <hyperlink r:id="rId221" ref="E327"/>
-    <hyperlink r:id="rId222" ref="E328"/>
-    <hyperlink r:id="rId223" ref="E333"/>
-    <hyperlink r:id="rId224" ref="E334"/>
+    <hyperlink r:id="rId184" ref="E245"/>
+    <hyperlink r:id="rId185" ref="E248"/>
+    <hyperlink r:id="rId186" ref="E250"/>
+    <hyperlink r:id="rId187" ref="E251"/>
+    <hyperlink r:id="rId188" ref="E254"/>
+    <hyperlink r:id="rId189" ref="E256"/>
+    <hyperlink r:id="rId190" ref="E257"/>
+    <hyperlink r:id="rId191" ref="E259"/>
+    <hyperlink r:id="rId192" ref="E263"/>
+    <hyperlink r:id="rId193" ref="E264"/>
+    <hyperlink r:id="rId194" ref="E265"/>
+    <hyperlink r:id="rId195" ref="E266"/>
+    <hyperlink r:id="rId196" ref="E271"/>
+    <hyperlink r:id="rId197" ref="E272"/>
+    <hyperlink r:id="rId198" ref="E274"/>
+    <hyperlink r:id="rId199" ref="E282"/>
+    <hyperlink r:id="rId200" ref="E283"/>
+    <hyperlink r:id="rId201" ref="E284"/>
+    <hyperlink r:id="rId202" ref="E285"/>
+    <hyperlink r:id="rId203" ref="E286"/>
+    <hyperlink r:id="rId204" ref="E287"/>
+    <hyperlink r:id="rId205" ref="E291"/>
+    <hyperlink r:id="rId206" ref="E292"/>
+    <hyperlink r:id="rId207" ref="E293"/>
+    <hyperlink r:id="rId208" ref="E296"/>
+    <hyperlink r:id="rId209" ref="E297"/>
+    <hyperlink r:id="rId210" ref="E298"/>
+    <hyperlink r:id="rId211" ref="E299"/>
+    <hyperlink r:id="rId212" ref="E302"/>
+    <hyperlink r:id="rId213" ref="E303"/>
+    <hyperlink r:id="rId214" ref="E304"/>
+    <hyperlink r:id="rId215" ref="E305"/>
+    <hyperlink r:id="rId216" ref="E306"/>
+    <hyperlink r:id="rId217" ref="E309"/>
+    <hyperlink r:id="rId218" ref="E310"/>
+    <hyperlink r:id="rId219" ref="E311"/>
+    <hyperlink r:id="rId220" ref="E313"/>
+    <hyperlink r:id="rId221" ref="E314"/>
+    <hyperlink r:id="rId222" ref="E320"/>
+    <hyperlink r:id="rId223" ref="E322"/>
+    <hyperlink r:id="rId224" ref="E327"/>
+    <hyperlink r:id="rId225" ref="E328"/>
+    <hyperlink r:id="rId226" ref="E333"/>
+    <hyperlink r:id="rId227" ref="E334"/>
+    <hyperlink r:id="rId228" ref="E335"/>
   </hyperlinks>
-  <drawing r:id="rId225"/>
+  <drawing r:id="rId229"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="538">
   <si>
     <t>id</t>
   </si>
@@ -1619,6 +1619,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=y5CbmFzJI5o</t>
+  </si>
+  <si>
+    <t>MYSTA TRIES NOT TO RAGE W/ HARMONICA IN MOUTH【Getting Over It】</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ep6w4bI3k0U</t>
   </si>
 </sst>
 </file>
@@ -10505,6 +10511,9 @@
       <c r="D294" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H294" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K294" s="5">
         <v>44631.5</v>
       </c>
@@ -11518,7 +11527,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L335" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L336" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11576,6 +11585,33 @@
         <v>1646967600000</v>
       </c>
       <c r="M335" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>349.0</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E336" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="I336" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K336" s="5">
+        <v>44631.5</v>
+      </c>
+      <c r="L336" s="1">
+        <f t="shared" si="19"/>
+        <v>1647000000000</v>
+      </c>
+      <c r="M336" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11809,7 +11845,8 @@
     <hyperlink r:id="rId226" ref="E333"/>
     <hyperlink r:id="rId227" ref="E334"/>
     <hyperlink r:id="rId228" ref="E335"/>
+    <hyperlink r:id="rId229" ref="E336"/>
   </hyperlinks>
-  <drawing r:id="rId229"/>
+  <drawing r:id="rId230"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="557">
   <si>
     <t>id</t>
   </si>
@@ -1105,6 +1105,9 @@
     <t>Apex Legends w/ Selen/ Alban</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=3KTfKGuGjKY</t>
+  </si>
+  <si>
     <t>VoxX</t>
   </si>
   <si>
@@ -1147,6 +1150,9 @@
     <t>NOCTYX - VALORANT COLLAB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tuitywKDnAI</t>
+  </si>
+  <si>
     <t>ZATSUDAN (catch up on superchats)</t>
   </si>
   <si>
@@ -1177,6 +1183,9 @@
     <t>VOLORANT  with NOCTYX</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=BOuddBRteMk</t>
+  </si>
+  <si>
     <t>DON'T STARVE TOGETHER W/ LAZULIGHT &amp; OBSYDIA</t>
   </si>
   <si>
@@ -1198,6 +1207,9 @@
     <t xml:space="preserve">YAKUZA: 0 FINALE </t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O3v2iPVaqjA</t>
+  </si>
+  <si>
     <t>POWERWASH W/ MENBERFEESH (FINANCE)</t>
   </si>
   <si>
@@ -1228,9 +1240,15 @@
     <t>DUOLINGO</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gcaxrFywy2s</t>
+  </si>
+  <si>
     <t>VALORANT NOCTYX</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=tzlmaJYylhg</t>
+  </si>
+  <si>
     <t>ZATSUDAN/FREETALK</t>
   </si>
   <si>
@@ -1285,6 +1303,9 @@
     <t>PYRE #2</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1Wr6QotqfQE</t>
+  </si>
+  <si>
     <t>One Step From Eden</t>
   </si>
   <si>
@@ -1315,6 +1336,9 @@
     <t>AI SOMNIUM FILES: PART 2</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=qw0EkeBXm50</t>
+  </si>
+  <si>
     <t>LUCKY DRAGON HOST CLUB</t>
   </si>
   <si>
@@ -1348,6 +1372,9 @@
     <t>SIMS 4 - THE FATED PARTY</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Qvj6yhDwTsw</t>
+  </si>
+  <si>
     <t>FNAF 10/20 ATTEMPTS</t>
   </si>
   <si>
@@ -1375,6 +1402,9 @@
     <t>PATH OF EXILE</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Ww4Ci9ohnOk</t>
+  </si>
+  <si>
     <t>UNO w/ Vox Ike Shoto</t>
   </si>
   <si>
@@ -1426,9 +1456,15 @@
     <t>COMFY VOICE AMA</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=r1Wo-MsrxoQ</t>
+  </si>
+  <si>
     <t>ELDEN RING</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JW0f7bjAyq8</t>
+  </si>
+  <si>
     <t>DARK DECEPTION PT.2</t>
   </si>
   <si>
@@ -1456,6 +1492,9 @@
     <t>Night Delivery [No talking/Harmonica in mouth]</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=cF6fdCpuass</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=AWCw1TRW3wQ</t>
   </si>
   <si>
@@ -1480,6 +1519,9 @@
     <t>UNO COLLAB W/ VOX, REIMU, SHOTO</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=LOSn5RzDCRw</t>
+  </si>
+  <si>
     <t>SUPER CHAT READING</t>
   </si>
   <si>
@@ -1516,6 +1558,9 @@
     <t>Control</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=XZKgUsIijLY</t>
+  </si>
+  <si>
     <t>200k Celebration ASMR prison break</t>
   </si>
   <si>
@@ -1537,6 +1582,9 @@
     <t>Rosemi Zatsudan</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=wymzM1jFsag</t>
+  </si>
+  <si>
     <t>DON'T STARVE TGT W/ LAZASYDIA</t>
   </si>
   <si>
@@ -1555,6 +1603,9 @@
     <t>DONATION READING (+1 EAT CORM CHEESE)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=a0M2bD5h_Lc</t>
+  </si>
+  <si>
     <t>PROPNIGHT W/ REIMU, OLIVER, GENZUKI, MAYUZUMI</t>
   </si>
   <si>
@@ -1576,6 +1627,9 @@
     <t>Project Zomboid First time!</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=0BxpwZ5RsiM</t>
+  </si>
+  <si>
     <t>Pokemon Legends: Arceus Post-Game chill!</t>
   </si>
   <si>
@@ -1595,6 +1649,9 @@
   </si>
   <si>
     <t>Hades</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3-o1P9a4xEw</t>
   </si>
   <si>
     <t>Aloupeep Clay Painting</t>
@@ -8283,6 +8340,9 @@
       <c r="D207" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E207" s="7" t="s">
+        <v>364</v>
+      </c>
       <c r="J207" s="1" t="b">
         <v>1</v>
       </c>
@@ -8300,7 +8360,7 @@
     <row r="208">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -8333,7 +8393,7 @@
         <v>319</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D210" s="1" t="b">
         <v>1</v>
@@ -8360,7 +8420,7 @@
         <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
@@ -8384,13 +8444,13 @@
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K212" s="5">
         <v>44627.0</v>
@@ -8411,13 +8471,13 @@
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K213" s="5">
         <v>44628.0</v>
@@ -8438,13 +8498,13 @@
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K214" s="5">
         <v>44629.0</v>
@@ -8465,13 +8525,13 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K215" s="5">
         <v>44630.041666666664</v>
@@ -8492,13 +8552,13 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J216" s="1" t="b">
         <v>1</v>
@@ -8522,7 +8582,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8549,10 +8609,13 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>379</v>
       </c>
       <c r="G218" s="1" t="b">
         <v>1</v>
@@ -8579,13 +8642,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8612,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8639,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K221" s="5">
         <v>44629.125</v>
@@ -8666,7 +8729,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K222" s="5">
         <v>44630.041666666664</v>
@@ -8687,13 +8750,13 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="J223" s="1" t="b">
         <v>1</v>
@@ -8717,13 +8780,13 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J224" s="1" t="b">
         <v>1</v>
@@ -8747,10 +8810,13 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>390</v>
       </c>
       <c r="J225" s="1" t="b">
         <v>1</v>
@@ -8774,13 +8840,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8810,7 +8876,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8831,13 +8897,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8858,13 +8924,13 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G229" s="1" t="b">
         <v>1</v>
@@ -8917,10 +8983,13 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="K232" s="5">
         <v>44631.875</v>
@@ -8941,7 +9010,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -8965,13 +9034,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -8992,13 +9061,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -9019,13 +9088,13 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K236" s="8">
         <v>44629.5</v>
@@ -9046,13 +9115,13 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="J237" s="1" t="b">
         <v>1</v>
@@ -9076,10 +9145,13 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>409</v>
       </c>
       <c r="K238" s="5">
         <v>44631.5</v>
@@ -9100,10 +9172,13 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>411</v>
       </c>
       <c r="J239" s="1" t="b">
         <v>1</v>
@@ -9151,13 +9226,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -9184,7 +9259,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -9205,13 +9280,13 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
@@ -9232,13 +9307,13 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="J244" s="1" t="b">
         <v>1</v>
@@ -9262,13 +9337,13 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J245" s="1" t="b">
         <v>1</v>
@@ -9292,7 +9367,7 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
@@ -9319,7 +9394,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9343,13 +9418,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9370,7 +9445,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9394,13 +9469,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9421,13 +9496,13 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="K251" s="5">
         <v>44630.791666666664</v>
@@ -9448,10 +9523,13 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="K252" s="5">
         <v>44631.791666666664</v>
@@ -9472,7 +9550,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9496,13 +9574,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9526,7 +9604,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9556,13 +9634,13 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K256" s="5">
         <v>44629.875</v>
@@ -9583,13 +9661,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9626,7 +9704,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9653,10 +9731,13 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>441</v>
       </c>
       <c r="K260" s="5">
         <v>44631.833333333336</v>
@@ -9677,7 +9758,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9701,7 +9782,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9725,13 +9806,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9752,13 +9833,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9779,13 +9860,13 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="G265" s="1" t="b">
         <v>1</v>
@@ -9809,13 +9890,13 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="J266" s="1" t="b">
         <v>1</v>
@@ -9839,10 +9920,13 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>453</v>
       </c>
       <c r="K267" s="5">
         <v>44631.583333333336</v>
@@ -9863,7 +9947,7 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
@@ -9887,7 +9971,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -9925,7 +10009,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -9949,13 +10033,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -9976,7 +10060,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -10003,13 +10087,13 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="J274" s="1" t="b">
         <v>1</v>
@@ -10033,10 +10117,13 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>463</v>
       </c>
       <c r="K275" s="5">
         <v>44631.666666666664</v>
@@ -10057,20 +10144,26 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E276" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G276" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J276" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K276" s="5">
-        <v>44631.875</v>
+        <v>44632.041666666664</v>
       </c>
       <c r="L276" s="1">
         <f t="shared" si="16"/>
-        <v>1647032400000</v>
+        <v>1647046800000</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>16</v>
@@ -10110,7 +10203,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -10134,7 +10227,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10158,7 +10251,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10182,13 +10275,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10209,13 +10302,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10236,13 +10329,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10263,13 +10356,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10290,13 +10383,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10317,13 +10410,13 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="K287" s="5">
         <v>44630.083333333336</v>
@@ -10344,10 +10437,13 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="K288" s="5">
         <v>44631.25</v>
@@ -10368,10 +10464,13 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>483</v>
       </c>
       <c r="K289" s="5">
         <v>44632.166666666664</v>
@@ -10392,7 +10491,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10416,13 +10515,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10443,13 +10542,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10473,13 +10572,13 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="G293" s="1" t="b">
         <v>1</v>
@@ -10506,7 +10605,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10533,10 +10632,13 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="K295" s="5">
         <v>44632.5</v>
@@ -10563,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10584,13 +10686,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10614,13 +10716,13 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="K298" s="5">
         <v>44630.083333333336</v>
@@ -10641,13 +10743,13 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="K299" s="5">
         <v>44630.5</v>
@@ -10668,20 +10770,26 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E300" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G300" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J300" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K300" s="5">
-        <v>44631.875</v>
+        <v>44632.041666666664</v>
       </c>
       <c r="L300" s="1">
         <f t="shared" si="17"/>
-        <v>1647032400000</v>
+        <v>1647046800000</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>16</v>
@@ -10695,7 +10803,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10719,13 +10827,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10749,13 +10857,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10776,13 +10884,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10803,13 +10911,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10836,13 +10944,13 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="J306" s="1" t="b">
         <v>1</v>
@@ -10866,10 +10974,13 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>515</v>
       </c>
       <c r="K307" s="5">
         <v>44631.958333333336</v>
@@ -10890,7 +11001,7 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -10920,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -10941,13 +11052,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -10968,13 +11079,13 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="G311" s="1" t="b">
         <v>1</v>
@@ -10998,10 +11109,13 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E312" s="7" t="s">
+        <v>523</v>
       </c>
       <c r="K312" s="5">
         <v>44632.0</v>
@@ -11022,13 +11136,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>508</v>
+        <v>524</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -11058,7 +11172,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>509</v>
+        <v>525</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -11079,7 +11193,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -11106,7 +11220,7 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>511</v>
+        <v>527</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -11133,7 +11247,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>512</v>
+        <v>528</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -11160,10 +11274,13 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E318" s="7" t="s">
+        <v>530</v>
       </c>
       <c r="K318" s="5">
         <v>44632.166666666664</v>
@@ -11184,7 +11301,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11211,13 +11328,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11241,7 +11358,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11265,13 +11382,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11292,10 +11409,13 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E323" s="7" t="s">
+        <v>538</v>
       </c>
       <c r="K323" s="5">
         <v>44631.958333333336</v>
@@ -11316,7 +11436,7 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
@@ -11340,7 +11460,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11372,13 +11492,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11399,13 +11519,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11426,10 +11546,13 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E329" s="7" t="s">
+        <v>546</v>
       </c>
       <c r="K329" s="5">
         <v>44631.708333333336</v>
@@ -11450,7 +11573,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11474,7 +11597,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11515,10 +11638,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11542,10 +11665,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11569,10 +11692,10 @@
         <v>94</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="I335" s="1" t="b">
         <v>1</v>
@@ -11596,10 +11719,10 @@
         <v>56</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="I336" s="1" t="b">
         <v>1</v>
@@ -11777,76 +11900,96 @@
     <hyperlink r:id="rId158" ref="E204"/>
     <hyperlink r:id="rId159" ref="E205"/>
     <hyperlink r:id="rId160" ref="E206"/>
-    <hyperlink r:id="rId161" ref="E212"/>
-    <hyperlink r:id="rId162" ref="E213"/>
-    <hyperlink r:id="rId163" ref="E214"/>
-    <hyperlink r:id="rId164" ref="E215"/>
-    <hyperlink r:id="rId165" ref="E216"/>
-    <hyperlink r:id="rId166" ref="E219"/>
-    <hyperlink r:id="rId167" ref="E220"/>
-    <hyperlink r:id="rId168" ref="E221"/>
-    <hyperlink r:id="rId169" ref="E222"/>
-    <hyperlink r:id="rId170" ref="E223"/>
-    <hyperlink r:id="rId171" ref="E224"/>
-    <hyperlink r:id="rId172" ref="E226"/>
-    <hyperlink r:id="rId173" ref="E227"/>
-    <hyperlink r:id="rId174" ref="E228"/>
-    <hyperlink r:id="rId175" ref="E229"/>
-    <hyperlink r:id="rId176" ref="E234"/>
-    <hyperlink r:id="rId177" ref="E235"/>
-    <hyperlink r:id="rId178" ref="E236"/>
-    <hyperlink r:id="rId179" ref="E237"/>
-    <hyperlink r:id="rId180" ref="E241"/>
-    <hyperlink r:id="rId181" ref="E242"/>
-    <hyperlink r:id="rId182" ref="E243"/>
-    <hyperlink r:id="rId183" ref="E244"/>
-    <hyperlink r:id="rId184" ref="E245"/>
-    <hyperlink r:id="rId185" ref="E248"/>
-    <hyperlink r:id="rId186" ref="E250"/>
-    <hyperlink r:id="rId187" ref="E251"/>
-    <hyperlink r:id="rId188" ref="E254"/>
-    <hyperlink r:id="rId189" ref="E256"/>
-    <hyperlink r:id="rId190" ref="E257"/>
-    <hyperlink r:id="rId191" ref="E259"/>
-    <hyperlink r:id="rId192" ref="E263"/>
-    <hyperlink r:id="rId193" ref="E264"/>
-    <hyperlink r:id="rId194" ref="E265"/>
-    <hyperlink r:id="rId195" ref="E266"/>
-    <hyperlink r:id="rId196" ref="E271"/>
-    <hyperlink r:id="rId197" ref="E272"/>
-    <hyperlink r:id="rId198" ref="E274"/>
-    <hyperlink r:id="rId199" ref="E282"/>
-    <hyperlink r:id="rId200" ref="E283"/>
-    <hyperlink r:id="rId201" ref="E284"/>
-    <hyperlink r:id="rId202" ref="E285"/>
-    <hyperlink r:id="rId203" ref="E286"/>
-    <hyperlink r:id="rId204" ref="E287"/>
-    <hyperlink r:id="rId205" ref="E291"/>
-    <hyperlink r:id="rId206" ref="E292"/>
-    <hyperlink r:id="rId207" ref="E293"/>
-    <hyperlink r:id="rId208" ref="E296"/>
-    <hyperlink r:id="rId209" ref="E297"/>
-    <hyperlink r:id="rId210" ref="E298"/>
-    <hyperlink r:id="rId211" ref="E299"/>
-    <hyperlink r:id="rId212" ref="E302"/>
-    <hyperlink r:id="rId213" ref="E303"/>
-    <hyperlink r:id="rId214" ref="E304"/>
-    <hyperlink r:id="rId215" ref="E305"/>
-    <hyperlink r:id="rId216" ref="E306"/>
-    <hyperlink r:id="rId217" ref="E309"/>
-    <hyperlink r:id="rId218" ref="E310"/>
-    <hyperlink r:id="rId219" ref="E311"/>
-    <hyperlink r:id="rId220" ref="E313"/>
-    <hyperlink r:id="rId221" ref="E314"/>
-    <hyperlink r:id="rId222" ref="E320"/>
-    <hyperlink r:id="rId223" ref="E322"/>
-    <hyperlink r:id="rId224" ref="E327"/>
-    <hyperlink r:id="rId225" ref="E328"/>
-    <hyperlink r:id="rId226" ref="E333"/>
-    <hyperlink r:id="rId227" ref="E334"/>
-    <hyperlink r:id="rId228" ref="E335"/>
-    <hyperlink r:id="rId229" ref="E336"/>
+    <hyperlink r:id="rId161" ref="E207"/>
+    <hyperlink r:id="rId162" ref="E212"/>
+    <hyperlink r:id="rId163" ref="E213"/>
+    <hyperlink r:id="rId164" ref="E214"/>
+    <hyperlink r:id="rId165" ref="E215"/>
+    <hyperlink r:id="rId166" ref="E216"/>
+    <hyperlink r:id="rId167" ref="E218"/>
+    <hyperlink r:id="rId168" ref="E219"/>
+    <hyperlink r:id="rId169" ref="E220"/>
+    <hyperlink r:id="rId170" ref="E221"/>
+    <hyperlink r:id="rId171" ref="E222"/>
+    <hyperlink r:id="rId172" ref="E223"/>
+    <hyperlink r:id="rId173" ref="E224"/>
+    <hyperlink r:id="rId174" ref="E225"/>
+    <hyperlink r:id="rId175" ref="E226"/>
+    <hyperlink r:id="rId176" ref="E227"/>
+    <hyperlink r:id="rId177" ref="E228"/>
+    <hyperlink r:id="rId178" ref="E229"/>
+    <hyperlink r:id="rId179" ref="E232"/>
+    <hyperlink r:id="rId180" ref="E234"/>
+    <hyperlink r:id="rId181" ref="E235"/>
+    <hyperlink r:id="rId182" ref="E236"/>
+    <hyperlink r:id="rId183" ref="E237"/>
+    <hyperlink r:id="rId184" ref="E238"/>
+    <hyperlink r:id="rId185" ref="E239"/>
+    <hyperlink r:id="rId186" ref="E241"/>
+    <hyperlink r:id="rId187" ref="E242"/>
+    <hyperlink r:id="rId188" ref="E243"/>
+    <hyperlink r:id="rId189" ref="E244"/>
+    <hyperlink r:id="rId190" ref="E245"/>
+    <hyperlink r:id="rId191" ref="E248"/>
+    <hyperlink r:id="rId192" ref="E250"/>
+    <hyperlink r:id="rId193" ref="E251"/>
+    <hyperlink r:id="rId194" ref="E252"/>
+    <hyperlink r:id="rId195" ref="E254"/>
+    <hyperlink r:id="rId196" ref="E256"/>
+    <hyperlink r:id="rId197" ref="E257"/>
+    <hyperlink r:id="rId198" ref="E259"/>
+    <hyperlink r:id="rId199" ref="E260"/>
+    <hyperlink r:id="rId200" ref="E263"/>
+    <hyperlink r:id="rId201" ref="E264"/>
+    <hyperlink r:id="rId202" ref="E265"/>
+    <hyperlink r:id="rId203" ref="E266"/>
+    <hyperlink r:id="rId204" ref="E267"/>
+    <hyperlink r:id="rId205" ref="E271"/>
+    <hyperlink r:id="rId206" ref="E272"/>
+    <hyperlink r:id="rId207" ref="E274"/>
+    <hyperlink r:id="rId208" ref="E275"/>
+    <hyperlink r:id="rId209" ref="E276"/>
+    <hyperlink r:id="rId210" ref="E282"/>
+    <hyperlink r:id="rId211" ref="E283"/>
+    <hyperlink r:id="rId212" ref="E284"/>
+    <hyperlink r:id="rId213" ref="E285"/>
+    <hyperlink r:id="rId214" ref="E286"/>
+    <hyperlink r:id="rId215" ref="E287"/>
+    <hyperlink r:id="rId216" ref="E288"/>
+    <hyperlink r:id="rId217" ref="E289"/>
+    <hyperlink r:id="rId218" ref="E291"/>
+    <hyperlink r:id="rId219" ref="E292"/>
+    <hyperlink r:id="rId220" ref="E293"/>
+    <hyperlink r:id="rId221" ref="E295"/>
+    <hyperlink r:id="rId222" ref="E296"/>
+    <hyperlink r:id="rId223" ref="E297"/>
+    <hyperlink r:id="rId224" ref="E298"/>
+    <hyperlink r:id="rId225" ref="E299"/>
+    <hyperlink r:id="rId226" ref="E300"/>
+    <hyperlink r:id="rId227" ref="E302"/>
+    <hyperlink r:id="rId228" ref="E303"/>
+    <hyperlink r:id="rId229" ref="E304"/>
+    <hyperlink r:id="rId230" ref="E305"/>
+    <hyperlink r:id="rId231" ref="E306"/>
+    <hyperlink r:id="rId232" ref="E307"/>
+    <hyperlink r:id="rId233" ref="E309"/>
+    <hyperlink r:id="rId234" ref="E310"/>
+    <hyperlink r:id="rId235" ref="E311"/>
+    <hyperlink r:id="rId236" ref="E312"/>
+    <hyperlink r:id="rId237" ref="E313"/>
+    <hyperlink r:id="rId238" ref="E314"/>
+    <hyperlink r:id="rId239" ref="E318"/>
+    <hyperlink r:id="rId240" ref="E320"/>
+    <hyperlink r:id="rId241" ref="E322"/>
+    <hyperlink r:id="rId242" ref="E323"/>
+    <hyperlink r:id="rId243" ref="E327"/>
+    <hyperlink r:id="rId244" ref="E328"/>
+    <hyperlink r:id="rId245" ref="E329"/>
+    <hyperlink r:id="rId246" ref="E333"/>
+    <hyperlink r:id="rId247" ref="E334"/>
+    <hyperlink r:id="rId248" ref="E335"/>
+    <hyperlink r:id="rId249" ref="E336"/>
   </hyperlinks>
-  <drawing r:id="rId230"/>
+  <drawing r:id="rId250"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="563">
   <si>
     <t>id</t>
   </si>
@@ -1114,6 +1114,9 @@
     <t>Valorant w/ Noctyx</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=Z0XJDezhZw8</t>
+  </si>
+  <si>
     <t>Zatsudan - Comfy Chat</t>
   </si>
   <si>
@@ -1276,6 +1279,9 @@
     <t>VALORANT w/ NOCTYX</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=PKgK-b_PmpM</t>
+  </si>
+  <si>
     <t>METAL GEAR RISING</t>
   </si>
   <si>
@@ -1378,6 +1384,9 @@
     <t>FNAF 10/20 ATTEMPTS</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=K8OGLbv6j5s</t>
+  </si>
+  <si>
     <t>DOULINGO</t>
   </si>
   <si>
@@ -1633,6 +1642,9 @@
     <t>Pokemon Legends: Arceus Post-Game chill!</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=-LmzbdzwXNo</t>
+  </si>
+  <si>
     <t>TBD!! - something</t>
   </si>
   <si>
@@ -1682,6 +1694,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ep6w4bI3k0U</t>
+  </si>
+  <si>
+    <t>【GUERILLA ZATSUDAN】ENDURANCE TO 100K ON YT!!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XFzaTJ5PcYE</t>
   </si>
 </sst>
 </file>
@@ -8398,6 +8416,9 @@
       <c r="D210" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E210" s="7" t="s">
+        <v>367</v>
+      </c>
       <c r="J210" s="1" t="b">
         <v>1</v>
       </c>
@@ -8420,7 +8441,7 @@
         <v>319</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D211" s="1" t="b">
         <v>1</v>
@@ -8444,13 +8465,13 @@
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K212" s="5">
         <v>44627.0</v>
@@ -8471,13 +8492,13 @@
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="K213" s="5">
         <v>44628.0</v>
@@ -8498,13 +8519,13 @@
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K214" s="5">
         <v>44629.0</v>
@@ -8525,13 +8546,13 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K215" s="5">
         <v>44630.041666666664</v>
@@ -8552,13 +8573,13 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="J216" s="1" t="b">
         <v>1</v>
@@ -8582,7 +8603,7 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
@@ -8609,13 +8630,13 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G218" s="1" t="b">
         <v>1</v>
@@ -8642,13 +8663,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8675,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8702,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K221" s="5">
         <v>44629.125</v>
@@ -8729,7 +8750,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K222" s="5">
         <v>44630.041666666664</v>
@@ -8750,13 +8771,13 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J223" s="1" t="b">
         <v>1</v>
@@ -8780,13 +8801,13 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J224" s="1" t="b">
         <v>1</v>
@@ -8810,13 +8831,13 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J225" s="1" t="b">
         <v>1</v>
@@ -8840,13 +8861,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8876,7 +8897,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8897,13 +8918,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8924,13 +8945,13 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G229" s="1" t="b">
         <v>1</v>
@@ -8983,13 +9004,13 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K232" s="5">
         <v>44631.875</v>
@@ -9010,7 +9031,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -9034,13 +9055,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -9061,13 +9082,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -9088,13 +9109,13 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K236" s="8">
         <v>44629.5</v>
@@ -9115,13 +9136,13 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J237" s="1" t="b">
         <v>1</v>
@@ -9145,13 +9166,13 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K238" s="5">
         <v>44631.5</v>
@@ -9172,13 +9193,13 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J239" s="1" t="b">
         <v>1</v>
@@ -9226,13 +9247,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -9259,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -9280,13 +9301,13 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
@@ -9307,13 +9328,13 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J244" s="1" t="b">
         <v>1</v>
@@ -9337,13 +9358,13 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="J245" s="1" t="b">
         <v>1</v>
@@ -9367,10 +9388,13 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="J246" s="1" t="b">
         <v>1</v>
@@ -9394,7 +9418,7 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
@@ -9418,13 +9442,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9445,7 +9469,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9469,13 +9493,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9496,13 +9520,13 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K251" s="5">
         <v>44630.791666666664</v>
@@ -9523,13 +9547,13 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K252" s="5">
         <v>44631.791666666664</v>
@@ -9550,7 +9574,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9574,13 +9598,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9604,7 +9628,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9634,13 +9658,13 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K256" s="5">
         <v>44629.875</v>
@@ -9661,13 +9685,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9704,7 +9728,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9731,13 +9755,13 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K260" s="5">
         <v>44631.833333333336</v>
@@ -9758,7 +9782,7 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D261" s="1" t="b">
         <v>1</v>
@@ -9782,7 +9806,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9806,13 +9830,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9833,13 +9857,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9860,13 +9884,13 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G265" s="1" t="b">
         <v>1</v>
@@ -9890,13 +9914,13 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="J266" s="1" t="b">
         <v>1</v>
@@ -9920,13 +9944,13 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K267" s="5">
         <v>44631.583333333336</v>
@@ -9947,10 +9971,13 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="K268" s="19">
         <v>44632.541666666664</v>
@@ -9971,7 +9998,7 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
@@ -10009,7 +10036,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -10033,13 +10060,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -10060,7 +10087,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -10087,13 +10114,13 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="J274" s="1" t="b">
         <v>1</v>
@@ -10117,13 +10144,13 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K275" s="5">
         <v>44631.666666666664</v>
@@ -10144,7 +10171,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -10203,7 +10230,7 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
@@ -10227,7 +10254,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10251,7 +10278,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10275,13 +10302,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10302,13 +10329,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10329,13 +10356,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10356,13 +10383,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10383,13 +10410,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10410,13 +10437,13 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K287" s="5">
         <v>44630.083333333336</v>
@@ -10437,13 +10464,13 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="K288" s="5">
         <v>44631.25</v>
@@ -10464,13 +10491,13 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K289" s="5">
         <v>44632.166666666664</v>
@@ -10491,7 +10518,7 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
@@ -10515,13 +10542,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10542,13 +10569,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10572,13 +10599,13 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G293" s="1" t="b">
         <v>1</v>
@@ -10605,7 +10632,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10632,13 +10659,13 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="K295" s="5">
         <v>44632.5</v>
@@ -10665,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10686,13 +10713,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10716,13 +10743,13 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K298" s="5">
         <v>44630.083333333336</v>
@@ -10743,13 +10770,13 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K299" s="5">
         <v>44630.5</v>
@@ -10770,13 +10797,13 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G300" s="1" t="b">
         <v>1</v>
@@ -10803,7 +10830,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10827,13 +10854,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10857,13 +10884,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10884,13 +10911,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10911,13 +10938,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10944,13 +10971,13 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="J306" s="1" t="b">
         <v>1</v>
@@ -10974,13 +11001,13 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K307" s="5">
         <v>44631.958333333336</v>
@@ -11001,7 +11028,7 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
@@ -11031,7 +11058,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -11052,13 +11079,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -11079,13 +11106,13 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G311" s="1" t="b">
         <v>1</v>
@@ -11109,13 +11136,13 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K312" s="5">
         <v>44632.0</v>
@@ -11136,13 +11163,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -11172,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -11193,7 +11220,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -11220,7 +11247,7 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -11247,7 +11274,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -11274,13 +11301,13 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="K318" s="5">
         <v>44632.166666666664</v>
@@ -11301,7 +11328,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11328,13 +11355,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11358,7 +11385,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11382,13 +11409,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11409,13 +11436,13 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K323" s="5">
         <v>44631.958333333336</v>
@@ -11436,10 +11463,13 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E324" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="K324" s="5">
         <v>44632.583333333336</v>
@@ -11460,7 +11490,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11492,13 +11522,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11519,13 +11549,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11546,13 +11576,13 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="K329" s="5">
         <v>44631.708333333336</v>
@@ -11573,7 +11603,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11597,7 +11627,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11638,10 +11668,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11650,7 +11680,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L336" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L337" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11665,10 +11695,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11692,10 +11722,10 @@
         <v>94</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="I335" s="1" t="b">
         <v>1</v>
@@ -11719,10 +11749,10 @@
         <v>56</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="I336" s="1" t="b">
         <v>1</v>
@@ -11735,6 +11765,33 @@
         <v>1647000000000</v>
       </c>
       <c r="M336" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="I337" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K337" s="5">
+        <v>44632.256944444445</v>
+      </c>
+      <c r="L337" s="1">
+        <f t="shared" si="19"/>
+        <v>1647065400000</v>
+      </c>
+      <c r="M337" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11901,95 +11958,100 @@
     <hyperlink r:id="rId159" ref="E205"/>
     <hyperlink r:id="rId160" ref="E206"/>
     <hyperlink r:id="rId161" ref="E207"/>
-    <hyperlink r:id="rId162" ref="E212"/>
-    <hyperlink r:id="rId163" ref="E213"/>
-    <hyperlink r:id="rId164" ref="E214"/>
-    <hyperlink r:id="rId165" ref="E215"/>
-    <hyperlink r:id="rId166" ref="E216"/>
-    <hyperlink r:id="rId167" ref="E218"/>
-    <hyperlink r:id="rId168" ref="E219"/>
-    <hyperlink r:id="rId169" ref="E220"/>
-    <hyperlink r:id="rId170" ref="E221"/>
-    <hyperlink r:id="rId171" ref="E222"/>
-    <hyperlink r:id="rId172" ref="E223"/>
-    <hyperlink r:id="rId173" ref="E224"/>
-    <hyperlink r:id="rId174" ref="E225"/>
-    <hyperlink r:id="rId175" ref="E226"/>
-    <hyperlink r:id="rId176" ref="E227"/>
-    <hyperlink r:id="rId177" ref="E228"/>
-    <hyperlink r:id="rId178" ref="E229"/>
-    <hyperlink r:id="rId179" ref="E232"/>
-    <hyperlink r:id="rId180" ref="E234"/>
-    <hyperlink r:id="rId181" ref="E235"/>
-    <hyperlink r:id="rId182" ref="E236"/>
-    <hyperlink r:id="rId183" ref="E237"/>
-    <hyperlink r:id="rId184" ref="E238"/>
-    <hyperlink r:id="rId185" ref="E239"/>
-    <hyperlink r:id="rId186" ref="E241"/>
-    <hyperlink r:id="rId187" ref="E242"/>
-    <hyperlink r:id="rId188" ref="E243"/>
-    <hyperlink r:id="rId189" ref="E244"/>
-    <hyperlink r:id="rId190" ref="E245"/>
-    <hyperlink r:id="rId191" ref="E248"/>
-    <hyperlink r:id="rId192" ref="E250"/>
-    <hyperlink r:id="rId193" ref="E251"/>
-    <hyperlink r:id="rId194" ref="E252"/>
-    <hyperlink r:id="rId195" ref="E254"/>
-    <hyperlink r:id="rId196" ref="E256"/>
-    <hyperlink r:id="rId197" ref="E257"/>
-    <hyperlink r:id="rId198" ref="E259"/>
-    <hyperlink r:id="rId199" ref="E260"/>
-    <hyperlink r:id="rId200" ref="E263"/>
-    <hyperlink r:id="rId201" ref="E264"/>
-    <hyperlink r:id="rId202" ref="E265"/>
-    <hyperlink r:id="rId203" ref="E266"/>
-    <hyperlink r:id="rId204" ref="E267"/>
-    <hyperlink r:id="rId205" ref="E271"/>
-    <hyperlink r:id="rId206" ref="E272"/>
-    <hyperlink r:id="rId207" ref="E274"/>
-    <hyperlink r:id="rId208" ref="E275"/>
-    <hyperlink r:id="rId209" ref="E276"/>
-    <hyperlink r:id="rId210" ref="E282"/>
-    <hyperlink r:id="rId211" ref="E283"/>
-    <hyperlink r:id="rId212" ref="E284"/>
-    <hyperlink r:id="rId213" ref="E285"/>
-    <hyperlink r:id="rId214" ref="E286"/>
-    <hyperlink r:id="rId215" ref="E287"/>
-    <hyperlink r:id="rId216" ref="E288"/>
-    <hyperlink r:id="rId217" ref="E289"/>
-    <hyperlink r:id="rId218" ref="E291"/>
-    <hyperlink r:id="rId219" ref="E292"/>
-    <hyperlink r:id="rId220" ref="E293"/>
-    <hyperlink r:id="rId221" ref="E295"/>
-    <hyperlink r:id="rId222" ref="E296"/>
-    <hyperlink r:id="rId223" ref="E297"/>
-    <hyperlink r:id="rId224" ref="E298"/>
-    <hyperlink r:id="rId225" ref="E299"/>
-    <hyperlink r:id="rId226" ref="E300"/>
-    <hyperlink r:id="rId227" ref="E302"/>
-    <hyperlink r:id="rId228" ref="E303"/>
-    <hyperlink r:id="rId229" ref="E304"/>
-    <hyperlink r:id="rId230" ref="E305"/>
-    <hyperlink r:id="rId231" ref="E306"/>
-    <hyperlink r:id="rId232" ref="E307"/>
-    <hyperlink r:id="rId233" ref="E309"/>
-    <hyperlink r:id="rId234" ref="E310"/>
-    <hyperlink r:id="rId235" ref="E311"/>
-    <hyperlink r:id="rId236" ref="E312"/>
-    <hyperlink r:id="rId237" ref="E313"/>
-    <hyperlink r:id="rId238" ref="E314"/>
-    <hyperlink r:id="rId239" ref="E318"/>
-    <hyperlink r:id="rId240" ref="E320"/>
-    <hyperlink r:id="rId241" ref="E322"/>
-    <hyperlink r:id="rId242" ref="E323"/>
-    <hyperlink r:id="rId243" ref="E327"/>
-    <hyperlink r:id="rId244" ref="E328"/>
-    <hyperlink r:id="rId245" ref="E329"/>
-    <hyperlink r:id="rId246" ref="E333"/>
-    <hyperlink r:id="rId247" ref="E334"/>
-    <hyperlink r:id="rId248" ref="E335"/>
-    <hyperlink r:id="rId249" ref="E336"/>
+    <hyperlink r:id="rId162" ref="E210"/>
+    <hyperlink r:id="rId163" ref="E212"/>
+    <hyperlink r:id="rId164" ref="E213"/>
+    <hyperlink r:id="rId165" ref="E214"/>
+    <hyperlink r:id="rId166" ref="E215"/>
+    <hyperlink r:id="rId167" ref="E216"/>
+    <hyperlink r:id="rId168" ref="E218"/>
+    <hyperlink r:id="rId169" ref="E219"/>
+    <hyperlink r:id="rId170" ref="E220"/>
+    <hyperlink r:id="rId171" ref="E221"/>
+    <hyperlink r:id="rId172" ref="E222"/>
+    <hyperlink r:id="rId173" ref="E223"/>
+    <hyperlink r:id="rId174" ref="E224"/>
+    <hyperlink r:id="rId175" ref="E225"/>
+    <hyperlink r:id="rId176" ref="E226"/>
+    <hyperlink r:id="rId177" ref="E227"/>
+    <hyperlink r:id="rId178" ref="E228"/>
+    <hyperlink r:id="rId179" ref="E229"/>
+    <hyperlink r:id="rId180" ref="E232"/>
+    <hyperlink r:id="rId181" ref="E234"/>
+    <hyperlink r:id="rId182" ref="E235"/>
+    <hyperlink r:id="rId183" ref="E236"/>
+    <hyperlink r:id="rId184" ref="E237"/>
+    <hyperlink r:id="rId185" ref="E238"/>
+    <hyperlink r:id="rId186" ref="E239"/>
+    <hyperlink r:id="rId187" ref="E241"/>
+    <hyperlink r:id="rId188" ref="E242"/>
+    <hyperlink r:id="rId189" ref="E243"/>
+    <hyperlink r:id="rId190" ref="E244"/>
+    <hyperlink r:id="rId191" ref="E245"/>
+    <hyperlink r:id="rId192" ref="E246"/>
+    <hyperlink r:id="rId193" ref="E248"/>
+    <hyperlink r:id="rId194" ref="E250"/>
+    <hyperlink r:id="rId195" ref="E251"/>
+    <hyperlink r:id="rId196" ref="E252"/>
+    <hyperlink r:id="rId197" ref="E254"/>
+    <hyperlink r:id="rId198" ref="E256"/>
+    <hyperlink r:id="rId199" ref="E257"/>
+    <hyperlink r:id="rId200" ref="E259"/>
+    <hyperlink r:id="rId201" ref="E260"/>
+    <hyperlink r:id="rId202" ref="E263"/>
+    <hyperlink r:id="rId203" ref="E264"/>
+    <hyperlink r:id="rId204" ref="E265"/>
+    <hyperlink r:id="rId205" ref="E266"/>
+    <hyperlink r:id="rId206" ref="E267"/>
+    <hyperlink r:id="rId207" ref="E268"/>
+    <hyperlink r:id="rId208" ref="E271"/>
+    <hyperlink r:id="rId209" ref="E272"/>
+    <hyperlink r:id="rId210" ref="E274"/>
+    <hyperlink r:id="rId211" ref="E275"/>
+    <hyperlink r:id="rId212" ref="E276"/>
+    <hyperlink r:id="rId213" ref="E282"/>
+    <hyperlink r:id="rId214" ref="E283"/>
+    <hyperlink r:id="rId215" ref="E284"/>
+    <hyperlink r:id="rId216" ref="E285"/>
+    <hyperlink r:id="rId217" ref="E286"/>
+    <hyperlink r:id="rId218" ref="E287"/>
+    <hyperlink r:id="rId219" ref="E288"/>
+    <hyperlink r:id="rId220" ref="E289"/>
+    <hyperlink r:id="rId221" ref="E291"/>
+    <hyperlink r:id="rId222" ref="E292"/>
+    <hyperlink r:id="rId223" ref="E293"/>
+    <hyperlink r:id="rId224" ref="E295"/>
+    <hyperlink r:id="rId225" ref="E296"/>
+    <hyperlink r:id="rId226" ref="E297"/>
+    <hyperlink r:id="rId227" ref="E298"/>
+    <hyperlink r:id="rId228" ref="E299"/>
+    <hyperlink r:id="rId229" ref="E300"/>
+    <hyperlink r:id="rId230" ref="E302"/>
+    <hyperlink r:id="rId231" ref="E303"/>
+    <hyperlink r:id="rId232" ref="E304"/>
+    <hyperlink r:id="rId233" ref="E305"/>
+    <hyperlink r:id="rId234" ref="E306"/>
+    <hyperlink r:id="rId235" ref="E307"/>
+    <hyperlink r:id="rId236" ref="E309"/>
+    <hyperlink r:id="rId237" ref="E310"/>
+    <hyperlink r:id="rId238" ref="E311"/>
+    <hyperlink r:id="rId239" ref="E312"/>
+    <hyperlink r:id="rId240" ref="E313"/>
+    <hyperlink r:id="rId241" ref="E314"/>
+    <hyperlink r:id="rId242" ref="E318"/>
+    <hyperlink r:id="rId243" ref="E320"/>
+    <hyperlink r:id="rId244" ref="E322"/>
+    <hyperlink r:id="rId245" ref="E323"/>
+    <hyperlink r:id="rId246" ref="E324"/>
+    <hyperlink r:id="rId247" ref="E327"/>
+    <hyperlink r:id="rId248" ref="E328"/>
+    <hyperlink r:id="rId249" ref="E329"/>
+    <hyperlink r:id="rId250" ref="E333"/>
+    <hyperlink r:id="rId251" ref="E334"/>
+    <hyperlink r:id="rId252" ref="E335"/>
+    <hyperlink r:id="rId253" ref="E336"/>
+    <hyperlink r:id="rId254" ref="E337"/>
   </hyperlinks>
-  <drawing r:id="rId250"/>
+  <drawing r:id="rId255"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="565">
   <si>
     <t>id</t>
   </si>
@@ -1700,6 +1700,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=XFzaTJ5PcYE</t>
+  </si>
+  <si>
+    <t>SURPRISE! MEMBERSHIP CELEBRATION STREAM!【ZATSUDAN】</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7uXZ67S0LiM</t>
   </si>
 </sst>
 </file>
@@ -11680,7 +11686,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L337" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L338" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11792,6 +11798,33 @@
         <v>1647065400000</v>
       </c>
       <c r="M337" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>351.0</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E338" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="I338" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K338" s="5">
+        <v>44632.791666666664</v>
+      </c>
+      <c r="L338" s="1">
+        <f t="shared" si="19"/>
+        <v>1647111600000</v>
+      </c>
+      <c r="M338" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -12051,7 +12084,8 @@
     <hyperlink r:id="rId252" ref="E335"/>
     <hyperlink r:id="rId253" ref="E336"/>
     <hyperlink r:id="rId254" ref="E337"/>
+    <hyperlink r:id="rId255" ref="E338"/>
   </hyperlinks>
-  <drawing r:id="rId255"/>
+  <drawing r:id="rId256"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="577">
   <si>
     <t>id</t>
   </si>
@@ -1120,6 +1120,9 @@
     <t>Zatsudan - Comfy Chat</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=ANXPmfhuw_g</t>
+  </si>
+  <si>
     <t>DISHONORED</t>
   </si>
   <si>
@@ -1150,6 +1153,9 @@
     <t>MISTS OF AIDEN</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=h6nJYC8m6bU</t>
+  </si>
+  <si>
     <t>NOCTYX - VALORANT COLLAB</t>
   </si>
   <si>
@@ -1252,6 +1258,9 @@
     <t>https://www.youtube.com/watch?v=tzlmaJYylhg</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=0RgU-SS6ey4</t>
+  </si>
+  <si>
     <t>ZATSUDAN/FREETALK</t>
   </si>
   <si>
@@ -1285,6 +1294,9 @@
     <t>METAL GEAR RISING</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=O3xgNz_M8DM</t>
+  </si>
+  <si>
     <t>Bastion</t>
   </si>
   <si>
@@ -1348,6 +1360,9 @@
     <t>LUCKY DRAGON HOST CLUB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=12Qaw-LF97w</t>
+  </si>
+  <si>
     <t>MEMBERS HXH2011 WATCHALONG</t>
   </si>
   <si>
@@ -1390,6 +1405,9 @@
     <t>DOULINGO</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=zzW8soKpEjg</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=5NjV6vdWlws</t>
   </si>
   <si>
@@ -1420,6 +1438,9 @@
     <t>KARAOKE</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=A6nte6EPy0Y</t>
+  </si>
+  <si>
     <t>MEMBERS ONLY Watchalong: The lighthouse</t>
   </si>
   <si>
@@ -1477,6 +1498,9 @@
     <t>DARK DECEPTION PT.2</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=5mGIGMOSIR8</t>
+  </si>
+  <si>
     <t>#MYSMI [Keep Talking and Nobody Explodes]</t>
   </si>
   <si>
@@ -1573,6 +1597,9 @@
     <t>200k Celebration ASMR prison break</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=_Tw7LIzXQ3s</t>
+  </si>
+  <si>
     <t>https://www.youtube.com/watch?v=FPqyJBkKyrI</t>
   </si>
   <si>
@@ -1706,6 +1733,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7uXZ67S0LiM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【ASMR】Ear Massages + Ear Blowing </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aX-D4GDi14s</t>
+  </si>
+  <si>
+    <t>【CORN CHEESE】with flipper cam! (and donation reading)</t>
   </si>
 </sst>
 </file>
@@ -8452,6 +8488,9 @@
       <c r="D211" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E211" s="7" t="s">
+        <v>369</v>
+      </c>
       <c r="K211" s="5">
         <v>44632.625</v>
       </c>
@@ -8471,13 +8510,13 @@
         <v>304</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D212" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="K212" s="5">
         <v>44627.0</v>
@@ -8498,13 +8537,13 @@
         <v>304</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D213" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K213" s="5">
         <v>44628.0</v>
@@ -8525,13 +8564,13 @@
         <v>304</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D214" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K214" s="5">
         <v>44629.0</v>
@@ -8552,13 +8591,13 @@
         <v>304</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D215" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K215" s="5">
         <v>44630.041666666664</v>
@@ -8579,13 +8618,13 @@
         <v>304</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D216" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J216" s="1" t="b">
         <v>1</v>
@@ -8609,10 +8648,13 @@
         <v>304</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D217" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>380</v>
       </c>
       <c r="G217" s="1" t="b">
         <v>1</v>
@@ -8636,13 +8678,13 @@
         <v>304</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D218" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E218" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G218" s="1" t="b">
         <v>1</v>
@@ -8669,13 +8711,13 @@
         <v>79</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D219" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K219" s="5">
         <v>44627.125</v>
@@ -8702,7 +8744,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K220" s="5">
         <v>44628.041666666664</v>
@@ -8729,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K221" s="5">
         <v>44629.125</v>
@@ -8756,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="K222" s="5">
         <v>44630.041666666664</v>
@@ -8777,13 +8819,13 @@
         <v>79</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D223" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J223" s="1" t="b">
         <v>1</v>
@@ -8807,13 +8849,13 @@
         <v>79</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D224" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J224" s="1" t="b">
         <v>1</v>
@@ -8837,13 +8879,13 @@
         <v>79</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D225" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J225" s="1" t="b">
         <v>1</v>
@@ -8867,13 +8909,13 @@
         <v>183</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D226" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E226" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J226" s="1" t="b">
         <v>1</v>
@@ -8903,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K227" s="5">
         <v>44627.875</v>
@@ -8924,13 +8966,13 @@
         <v>183</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D228" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K228" s="5">
         <v>44628.958333333336</v>
@@ -8951,13 +8993,13 @@
         <v>183</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D229" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G229" s="1" t="b">
         <v>1</v>
@@ -9010,13 +9052,13 @@
         <v>183</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D232" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K232" s="5">
         <v>44631.875</v>
@@ -9037,7 +9079,7 @@
         <v>183</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D233" s="1" t="b">
         <v>1</v>
@@ -9061,13 +9103,13 @@
         <v>334</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D234" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E234" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K234" s="5">
         <v>44627.5</v>
@@ -9088,13 +9130,13 @@
         <v>334</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D235" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K235" s="5">
         <v>44628.5</v>
@@ -9115,13 +9157,13 @@
         <v>334</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D236" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E236" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K236" s="8">
         <v>44629.5</v>
@@ -9142,13 +9184,13 @@
         <v>334</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D237" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="J237" s="1" t="b">
         <v>1</v>
@@ -9172,13 +9214,13 @@
         <v>334</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D238" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K238" s="5">
         <v>44631.5</v>
@@ -9199,13 +9241,13 @@
         <v>334</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D239" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="J239" s="1" t="b">
         <v>1</v>
@@ -9234,6 +9276,9 @@
       <c r="D240" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E240" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="K240" s="5">
         <v>44633.083333333336</v>
       </c>
@@ -9253,13 +9298,13 @@
         <v>94</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D241" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E241" s="7" t="s">
-        <v>414</v>
+      <c r="E241" s="3" t="s">
+        <v>417</v>
       </c>
       <c r="K241" s="5">
         <v>44627.375</v>
@@ -9286,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K242" s="5">
         <v>44628.375</v>
@@ -9307,13 +9352,13 @@
         <v>94</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D243" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K243" s="8">
         <v>44629.25</v>
@@ -9334,13 +9379,13 @@
         <v>94</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D244" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E244" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="J244" s="1" t="b">
         <v>1</v>
@@ -9364,13 +9409,13 @@
         <v>94</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D245" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="J245" s="1" t="b">
         <v>1</v>
@@ -9394,13 +9439,13 @@
         <v>94</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D246" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="J246" s="1" t="b">
         <v>1</v>
@@ -9424,10 +9469,13 @@
         <v>94</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D247" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="K247" s="5">
         <v>44633.166666666664</v>
@@ -9448,13 +9496,13 @@
         <v>287</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D248" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E248" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K248" s="5">
         <v>44627.791666666664</v>
@@ -9475,7 +9523,7 @@
         <v>287</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D249" s="1" t="b">
         <v>1</v>
@@ -9499,13 +9547,13 @@
         <v>287</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D250" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K250" s="8">
         <v>44629.791666666664</v>
@@ -9526,13 +9574,13 @@
         <v>287</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="D251" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K251" s="5">
         <v>44630.791666666664</v>
@@ -9553,13 +9601,13 @@
         <v>287</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D252" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E252" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="K252" s="5">
         <v>44631.791666666664</v>
@@ -9580,7 +9628,7 @@
         <v>287</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D253" s="1" t="b">
         <v>1</v>
@@ -9604,13 +9652,13 @@
         <v>147</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D254" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="J254" s="1" t="b">
         <v>1</v>
@@ -9634,7 +9682,7 @@
         <v>147</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D255" s="1" t="b">
         <v>1</v>
@@ -9664,13 +9712,13 @@
         <v>147</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D256" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E256" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K256" s="5">
         <v>44629.875</v>
@@ -9691,13 +9739,13 @@
         <v>147</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D257" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="J257" s="1" t="b">
         <v>1</v>
@@ -9734,7 +9782,7 @@
         <v>147</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="D259" s="1" t="b">
         <v>1</v>
@@ -9761,13 +9809,13 @@
         <v>147</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D260" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E260" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K260" s="5">
         <v>44631.833333333336</v>
@@ -9788,9 +9836,15 @@
         <v>147</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D261" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="J261" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K261" s="5">
@@ -9812,7 +9866,7 @@
         <v>147</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D262" s="1" t="b">
         <v>1</v>
@@ -9836,13 +9890,13 @@
         <v>13</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D263" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K263" s="5">
         <v>44627.458333333336</v>
@@ -9863,13 +9917,13 @@
         <v>13</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D264" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K264" s="5">
         <v>44629.541666666664</v>
@@ -9890,13 +9944,13 @@
         <v>13</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D265" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G265" s="1" t="b">
         <v>1</v>
@@ -9920,13 +9974,13 @@
         <v>13</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D266" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="J266" s="1" t="b">
         <v>1</v>
@@ -9950,13 +10004,13 @@
         <v>13</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D267" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K267" s="5">
         <v>44631.583333333336</v>
@@ -9977,13 +10031,13 @@
         <v>13</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D268" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K268" s="19">
         <v>44632.541666666664</v>
@@ -10004,10 +10058,13 @@
         <v>13</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D269" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>464</v>
       </c>
       <c r="K269" s="5">
         <v>44633.583333333336</v>
@@ -10042,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="G271" s="1" t="b">
         <v>1</v>
@@ -10066,13 +10123,13 @@
         <v>158</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="D272" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="K272" s="5">
         <v>44628.875</v>
@@ -10093,7 +10150,7 @@
         <v>158</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="D273" s="1" t="b">
         <v>1</v>
@@ -10120,13 +10177,13 @@
         <v>158</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="D274" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="J274" s="1" t="b">
         <v>1</v>
@@ -10150,13 +10207,13 @@
         <v>158</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="D275" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K275" s="5">
         <v>44631.666666666664</v>
@@ -10177,7 +10234,7 @@
         <v>158</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="D276" s="1" t="b">
         <v>1</v>
@@ -10236,10 +10293,13 @@
         <v>158</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D279" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>475</v>
       </c>
       <c r="K279" s="5">
         <v>44632.75</v>
@@ -10260,7 +10320,7 @@
         <v>158</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D280" s="1" t="b">
         <v>1</v>
@@ -10284,7 +10344,7 @@
         <v>173</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="D281" s="1" t="b">
         <v>1</v>
@@ -10308,13 +10368,13 @@
         <v>173</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D282" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="K282" s="5">
         <v>44628.0</v>
@@ -10335,13 +10395,13 @@
         <v>173</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D283" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K283" s="5">
         <v>44628.75</v>
@@ -10362,13 +10422,13 @@
         <v>173</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="D284" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K284" s="5">
         <v>44630.0</v>
@@ -10389,13 +10449,13 @@
         <v>44</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="D285" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="K285" s="5">
         <v>44628.166666666664</v>
@@ -10416,13 +10476,13 @@
         <v>44</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="D286" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="K286" s="5">
         <v>44629.166666666664</v>
@@ -10443,13 +10503,13 @@
         <v>44</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="D287" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="K287" s="5">
         <v>44630.083333333336</v>
@@ -10470,13 +10530,13 @@
         <v>44</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="D288" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="K288" s="5">
         <v>44631.25</v>
@@ -10497,13 +10557,13 @@
         <v>44</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D289" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="K289" s="5">
         <v>44632.166666666664</v>
@@ -10524,10 +10584,13 @@
         <v>44</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D290" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>495</v>
       </c>
       <c r="K290" s="5">
         <v>44633.208333333336</v>
@@ -10548,13 +10611,13 @@
         <v>56</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D291" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="K291" s="5">
         <v>44628.541666666664</v>
@@ -10575,13 +10638,13 @@
         <v>56</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="D292" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="J292" s="1" t="b">
         <v>1</v>
@@ -10605,13 +10668,13 @@
         <v>56</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D293" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G293" s="1" t="b">
         <v>1</v>
@@ -10638,7 +10701,7 @@
         <v>56</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="D294" s="1" t="b">
         <v>1</v>
@@ -10665,13 +10728,13 @@
         <v>56</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D295" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="K295" s="5">
         <v>44632.5</v>
@@ -10698,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="K296" s="5">
         <v>44628.5</v>
@@ -10719,13 +10782,13 @@
         <v>29</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D297" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="J297" s="1" t="b">
         <v>1</v>
@@ -10749,13 +10812,13 @@
         <v>29</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D298" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="K298" s="5">
         <v>44630.083333333336</v>
@@ -10776,13 +10839,13 @@
         <v>29</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="D299" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="K299" s="5">
         <v>44630.5</v>
@@ -10803,13 +10866,13 @@
         <v>29</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="D300" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="G300" s="1" t="b">
         <v>1</v>
@@ -10836,7 +10899,7 @@
         <v>29</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D301" s="1" t="b">
         <v>1</v>
@@ -10860,13 +10923,13 @@
         <v>196</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D302" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="J302" s="1" t="b">
         <v>1</v>
@@ -10890,13 +10953,13 @@
         <v>196</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D303" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="K303" s="5">
         <v>44627.833333333336</v>
@@ -10917,13 +10980,13 @@
         <v>196</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="D304" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="K304" s="5">
         <v>44628.145833333336</v>
@@ -10944,13 +11007,13 @@
         <v>196</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D305" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="G305" s="1" t="b">
         <v>1</v>
@@ -10977,13 +11040,13 @@
         <v>196</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="D306" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="J306" s="1" t="b">
         <v>1</v>
@@ -11007,13 +11070,13 @@
         <v>196</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="D307" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="K307" s="5">
         <v>44631.958333333336</v>
@@ -11034,17 +11097,23 @@
         <v>196</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="D308" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E308" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="G308" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K308" s="5">
-        <v>44632.833333333336</v>
+        <v>44633.791666666664</v>
       </c>
       <c r="L308" s="1">
         <f t="shared" si="17"/>
-        <v>1647115200000</v>
+        <v>1647198000000</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>16</v>
@@ -11064,7 +11133,7 @@
         <v>1</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="K309" s="5">
         <v>44628.041666666664</v>
@@ -11085,13 +11154,13 @@
         <v>216</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="D310" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="K310" s="5">
         <v>44629.041666666664</v>
@@ -11112,13 +11181,13 @@
         <v>216</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="D311" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="G311" s="1" t="b">
         <v>1</v>
@@ -11142,13 +11211,13 @@
         <v>216</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D312" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="K312" s="5">
         <v>44632.0</v>
@@ -11169,13 +11238,13 @@
         <v>250</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="D313" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="J313" s="1" t="b">
         <v>1</v>
@@ -11205,7 +11274,7 @@
         <v>1</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K314" s="5">
         <v>44629.125</v>
@@ -11226,7 +11295,7 @@
         <v>250</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="D315" s="1" t="b">
         <v>1</v>
@@ -11253,7 +11322,7 @@
         <v>250</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D316" s="1" t="b">
         <v>1</v>
@@ -11280,7 +11349,7 @@
         <v>250</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="D317" s="1" t="b">
         <v>1</v>
@@ -11307,13 +11376,13 @@
         <v>250</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="D318" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="K318" s="5">
         <v>44632.166666666664</v>
@@ -11334,7 +11403,7 @@
         <v>250</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="D319" s="1" t="b">
         <v>1</v>
@@ -11361,13 +11430,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11391,7 +11460,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11415,13 +11484,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11442,13 +11511,13 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K323" s="5">
         <v>44631.958333333336</v>
@@ -11469,13 +11538,13 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="K324" s="5">
         <v>44632.583333333336</v>
@@ -11496,7 +11565,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11528,13 +11597,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11555,13 +11624,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11582,13 +11651,13 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="K329" s="5">
         <v>44631.708333333336</v>
@@ -11609,7 +11678,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11633,7 +11702,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11674,10 +11743,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11686,7 +11755,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L338" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L340" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11701,10 +11770,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11728,10 +11797,10 @@
         <v>94</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="I335" s="1" t="b">
         <v>1</v>
@@ -11755,10 +11824,10 @@
         <v>56</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="I336" s="1" t="b">
         <v>1</v>
@@ -11782,10 +11851,10 @@
         <v>79</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="I337" s="1" t="b">
         <v>1</v>
@@ -11809,10 +11878,10 @@
         <v>304</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="I338" s="1" t="b">
         <v>1</v>
@@ -11825,6 +11894,60 @@
         <v>1647111600000</v>
       </c>
       <c r="M338" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>352.0</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E339" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="I339" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K339" s="5">
+        <v>44633.166666666664</v>
+      </c>
+      <c r="L339" s="1">
+        <f t="shared" si="19"/>
+        <v>1647144000000</v>
+      </c>
+      <c r="M339" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>353.0</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="I340" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K340" s="5">
+        <v>44634.166666666664</v>
+      </c>
+      <c r="L340" s="1">
+        <f t="shared" si="19"/>
+        <v>1647230400000</v>
+      </c>
+      <c r="M340" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11992,100 +12115,111 @@
     <hyperlink r:id="rId160" ref="E206"/>
     <hyperlink r:id="rId161" ref="E207"/>
     <hyperlink r:id="rId162" ref="E210"/>
-    <hyperlink r:id="rId163" ref="E212"/>
-    <hyperlink r:id="rId164" ref="E213"/>
-    <hyperlink r:id="rId165" ref="E214"/>
-    <hyperlink r:id="rId166" ref="E215"/>
-    <hyperlink r:id="rId167" ref="E216"/>
-    <hyperlink r:id="rId168" ref="E218"/>
-    <hyperlink r:id="rId169" ref="E219"/>
-    <hyperlink r:id="rId170" ref="E220"/>
-    <hyperlink r:id="rId171" ref="E221"/>
-    <hyperlink r:id="rId172" ref="E222"/>
-    <hyperlink r:id="rId173" ref="E223"/>
-    <hyperlink r:id="rId174" ref="E224"/>
-    <hyperlink r:id="rId175" ref="E225"/>
-    <hyperlink r:id="rId176" ref="E226"/>
-    <hyperlink r:id="rId177" ref="E227"/>
-    <hyperlink r:id="rId178" ref="E228"/>
-    <hyperlink r:id="rId179" ref="E229"/>
-    <hyperlink r:id="rId180" ref="E232"/>
-    <hyperlink r:id="rId181" ref="E234"/>
-    <hyperlink r:id="rId182" ref="E235"/>
-    <hyperlink r:id="rId183" ref="E236"/>
-    <hyperlink r:id="rId184" ref="E237"/>
-    <hyperlink r:id="rId185" ref="E238"/>
-    <hyperlink r:id="rId186" ref="E239"/>
-    <hyperlink r:id="rId187" ref="E241"/>
-    <hyperlink r:id="rId188" ref="E242"/>
-    <hyperlink r:id="rId189" ref="E243"/>
-    <hyperlink r:id="rId190" ref="E244"/>
-    <hyperlink r:id="rId191" ref="E245"/>
-    <hyperlink r:id="rId192" ref="E246"/>
-    <hyperlink r:id="rId193" ref="E248"/>
-    <hyperlink r:id="rId194" ref="E250"/>
-    <hyperlink r:id="rId195" ref="E251"/>
-    <hyperlink r:id="rId196" ref="E252"/>
-    <hyperlink r:id="rId197" ref="E254"/>
-    <hyperlink r:id="rId198" ref="E256"/>
-    <hyperlink r:id="rId199" ref="E257"/>
-    <hyperlink r:id="rId200" ref="E259"/>
-    <hyperlink r:id="rId201" ref="E260"/>
-    <hyperlink r:id="rId202" ref="E263"/>
-    <hyperlink r:id="rId203" ref="E264"/>
-    <hyperlink r:id="rId204" ref="E265"/>
-    <hyperlink r:id="rId205" ref="E266"/>
-    <hyperlink r:id="rId206" ref="E267"/>
-    <hyperlink r:id="rId207" ref="E268"/>
-    <hyperlink r:id="rId208" ref="E271"/>
-    <hyperlink r:id="rId209" ref="E272"/>
-    <hyperlink r:id="rId210" ref="E274"/>
-    <hyperlink r:id="rId211" ref="E275"/>
-    <hyperlink r:id="rId212" ref="E276"/>
-    <hyperlink r:id="rId213" ref="E282"/>
-    <hyperlink r:id="rId214" ref="E283"/>
-    <hyperlink r:id="rId215" ref="E284"/>
-    <hyperlink r:id="rId216" ref="E285"/>
-    <hyperlink r:id="rId217" ref="E286"/>
-    <hyperlink r:id="rId218" ref="E287"/>
-    <hyperlink r:id="rId219" ref="E288"/>
-    <hyperlink r:id="rId220" ref="E289"/>
-    <hyperlink r:id="rId221" ref="E291"/>
-    <hyperlink r:id="rId222" ref="E292"/>
-    <hyperlink r:id="rId223" ref="E293"/>
-    <hyperlink r:id="rId224" ref="E295"/>
-    <hyperlink r:id="rId225" ref="E296"/>
-    <hyperlink r:id="rId226" ref="E297"/>
-    <hyperlink r:id="rId227" ref="E298"/>
-    <hyperlink r:id="rId228" ref="E299"/>
-    <hyperlink r:id="rId229" ref="E300"/>
-    <hyperlink r:id="rId230" ref="E302"/>
-    <hyperlink r:id="rId231" ref="E303"/>
-    <hyperlink r:id="rId232" ref="E304"/>
-    <hyperlink r:id="rId233" ref="E305"/>
-    <hyperlink r:id="rId234" ref="E306"/>
-    <hyperlink r:id="rId235" ref="E307"/>
-    <hyperlink r:id="rId236" ref="E309"/>
-    <hyperlink r:id="rId237" ref="E310"/>
-    <hyperlink r:id="rId238" ref="E311"/>
-    <hyperlink r:id="rId239" ref="E312"/>
-    <hyperlink r:id="rId240" ref="E313"/>
-    <hyperlink r:id="rId241" ref="E314"/>
-    <hyperlink r:id="rId242" ref="E318"/>
-    <hyperlink r:id="rId243" ref="E320"/>
-    <hyperlink r:id="rId244" ref="E322"/>
-    <hyperlink r:id="rId245" ref="E323"/>
-    <hyperlink r:id="rId246" ref="E324"/>
-    <hyperlink r:id="rId247" ref="E327"/>
-    <hyperlink r:id="rId248" ref="E328"/>
-    <hyperlink r:id="rId249" ref="E329"/>
-    <hyperlink r:id="rId250" ref="E333"/>
-    <hyperlink r:id="rId251" ref="E334"/>
-    <hyperlink r:id="rId252" ref="E335"/>
-    <hyperlink r:id="rId253" ref="E336"/>
-    <hyperlink r:id="rId254" ref="E337"/>
-    <hyperlink r:id="rId255" ref="E338"/>
+    <hyperlink r:id="rId163" ref="E211"/>
+    <hyperlink r:id="rId164" ref="E212"/>
+    <hyperlink r:id="rId165" ref="E213"/>
+    <hyperlink r:id="rId166" ref="E214"/>
+    <hyperlink r:id="rId167" ref="E215"/>
+    <hyperlink r:id="rId168" ref="E216"/>
+    <hyperlink r:id="rId169" ref="E217"/>
+    <hyperlink r:id="rId170" ref="E218"/>
+    <hyperlink r:id="rId171" ref="E219"/>
+    <hyperlink r:id="rId172" ref="E220"/>
+    <hyperlink r:id="rId173" ref="E221"/>
+    <hyperlink r:id="rId174" ref="E222"/>
+    <hyperlink r:id="rId175" ref="E223"/>
+    <hyperlink r:id="rId176" ref="E224"/>
+    <hyperlink r:id="rId177" ref="E225"/>
+    <hyperlink r:id="rId178" ref="E226"/>
+    <hyperlink r:id="rId179" ref="E227"/>
+    <hyperlink r:id="rId180" ref="E228"/>
+    <hyperlink r:id="rId181" ref="E229"/>
+    <hyperlink r:id="rId182" ref="E232"/>
+    <hyperlink r:id="rId183" ref="E234"/>
+    <hyperlink r:id="rId184" ref="E235"/>
+    <hyperlink r:id="rId185" ref="E236"/>
+    <hyperlink r:id="rId186" ref="E237"/>
+    <hyperlink r:id="rId187" ref="E238"/>
+    <hyperlink r:id="rId188" ref="E239"/>
+    <hyperlink r:id="rId189" ref="E240"/>
+    <hyperlink r:id="rId190" ref="E241"/>
+    <hyperlink r:id="rId191" ref="E242"/>
+    <hyperlink r:id="rId192" ref="E243"/>
+    <hyperlink r:id="rId193" ref="E244"/>
+    <hyperlink r:id="rId194" ref="E245"/>
+    <hyperlink r:id="rId195" ref="E246"/>
+    <hyperlink r:id="rId196" ref="E247"/>
+    <hyperlink r:id="rId197" ref="E248"/>
+    <hyperlink r:id="rId198" ref="E250"/>
+    <hyperlink r:id="rId199" ref="E251"/>
+    <hyperlink r:id="rId200" ref="E252"/>
+    <hyperlink r:id="rId201" ref="E254"/>
+    <hyperlink r:id="rId202" ref="E256"/>
+    <hyperlink r:id="rId203" ref="E257"/>
+    <hyperlink r:id="rId204" ref="E259"/>
+    <hyperlink r:id="rId205" ref="E260"/>
+    <hyperlink r:id="rId206" ref="E261"/>
+    <hyperlink r:id="rId207" ref="E263"/>
+    <hyperlink r:id="rId208" ref="E264"/>
+    <hyperlink r:id="rId209" ref="E265"/>
+    <hyperlink r:id="rId210" ref="E266"/>
+    <hyperlink r:id="rId211" ref="E267"/>
+    <hyperlink r:id="rId212" ref="E268"/>
+    <hyperlink r:id="rId213" ref="E269"/>
+    <hyperlink r:id="rId214" ref="E271"/>
+    <hyperlink r:id="rId215" ref="E272"/>
+    <hyperlink r:id="rId216" ref="E274"/>
+    <hyperlink r:id="rId217" ref="E275"/>
+    <hyperlink r:id="rId218" ref="E276"/>
+    <hyperlink r:id="rId219" ref="E279"/>
+    <hyperlink r:id="rId220" ref="E282"/>
+    <hyperlink r:id="rId221" ref="E283"/>
+    <hyperlink r:id="rId222" ref="E284"/>
+    <hyperlink r:id="rId223" ref="E285"/>
+    <hyperlink r:id="rId224" ref="E286"/>
+    <hyperlink r:id="rId225" ref="E287"/>
+    <hyperlink r:id="rId226" ref="E288"/>
+    <hyperlink r:id="rId227" ref="E289"/>
+    <hyperlink r:id="rId228" ref="E290"/>
+    <hyperlink r:id="rId229" ref="E291"/>
+    <hyperlink r:id="rId230" ref="E292"/>
+    <hyperlink r:id="rId231" ref="E293"/>
+    <hyperlink r:id="rId232" ref="E295"/>
+    <hyperlink r:id="rId233" ref="E296"/>
+    <hyperlink r:id="rId234" ref="E297"/>
+    <hyperlink r:id="rId235" ref="E298"/>
+    <hyperlink r:id="rId236" ref="E299"/>
+    <hyperlink r:id="rId237" ref="E300"/>
+    <hyperlink r:id="rId238" ref="E302"/>
+    <hyperlink r:id="rId239" ref="E303"/>
+    <hyperlink r:id="rId240" ref="E304"/>
+    <hyperlink r:id="rId241" ref="E305"/>
+    <hyperlink r:id="rId242" ref="E306"/>
+    <hyperlink r:id="rId243" ref="E307"/>
+    <hyperlink r:id="rId244" ref="E308"/>
+    <hyperlink r:id="rId245" ref="E309"/>
+    <hyperlink r:id="rId246" ref="E310"/>
+    <hyperlink r:id="rId247" ref="E311"/>
+    <hyperlink r:id="rId248" ref="E312"/>
+    <hyperlink r:id="rId249" ref="E313"/>
+    <hyperlink r:id="rId250" ref="E314"/>
+    <hyperlink r:id="rId251" ref="E318"/>
+    <hyperlink r:id="rId252" ref="E320"/>
+    <hyperlink r:id="rId253" ref="E322"/>
+    <hyperlink r:id="rId254" ref="E323"/>
+    <hyperlink r:id="rId255" ref="E324"/>
+    <hyperlink r:id="rId256" ref="E327"/>
+    <hyperlink r:id="rId257" ref="E328"/>
+    <hyperlink r:id="rId258" ref="E329"/>
+    <hyperlink r:id="rId259" ref="E333"/>
+    <hyperlink r:id="rId260" ref="E334"/>
+    <hyperlink r:id="rId261" ref="E335"/>
+    <hyperlink r:id="rId262" ref="E336"/>
+    <hyperlink r:id="rId263" ref="E337"/>
+    <hyperlink r:id="rId264" ref="E338"/>
+    <hyperlink r:id="rId265" ref="E339"/>
+    <hyperlink r:id="rId266" ref="E340"/>
   </hyperlinks>
-  <drawing r:id="rId256"/>
+  <drawing r:id="rId267"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="583">
   <si>
     <t>id</t>
   </si>
@@ -1742,6 +1742,24 @@
   </si>
   <si>
     <t>【CORN CHEESE】with flipper cam! (and donation reading)</t>
+  </si>
+  <si>
+    <t>【PROPNIGHT】prop deez</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j1MpO6UZdsg</t>
+  </si>
+  <si>
+    <t>Golf with NIJI EN</t>
+  </si>
+  <si>
+    <t>NIJI EN Minecraft Collab</t>
+  </si>
+  <si>
+    <t>We Were Here</t>
+  </si>
+  <si>
+    <t>Going Under</t>
   </si>
 </sst>
 </file>
@@ -1756,7 +1774,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1791,6 +1809,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1833,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1910,6 +1932,18 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11583,7 +11617,7 @@
     </row>
     <row r="326">
       <c r="B326" s="1" t="s">
-        <v>158</v>
+        <v>248</v>
       </c>
       <c r="M326" s="1">
         <v>334.0</v>
@@ -11755,7 +11789,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L340" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L347" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11941,13 +11975,216 @@
         <v>1</v>
       </c>
       <c r="K340" s="5">
-        <v>44634.166666666664</v>
+        <v>44633.166666666664</v>
       </c>
       <c r="L340" s="1">
         <f t="shared" si="19"/>
-        <v>1647230400000</v>
+        <v>1647144000000</v>
       </c>
       <c r="M340" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="27">
+        <v>354.0</v>
+      </c>
+      <c r="B341" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C341" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D341" s="28"/>
+      <c r="E341" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="F341" s="28"/>
+      <c r="G341" s="28"/>
+      <c r="H341" s="28"/>
+      <c r="I341" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K341" s="30">
+        <v>44633.5</v>
+      </c>
+      <c r="L341" s="27">
+        <f t="shared" si="19"/>
+        <v>1647172800000</v>
+      </c>
+      <c r="M341" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N341" s="28"/>
+      <c r="O341" s="28"/>
+      <c r="P341" s="28"/>
+      <c r="Q341" s="28"/>
+      <c r="R341" s="28"/>
+      <c r="S341" s="28"/>
+      <c r="T341" s="28"/>
+      <c r="U341" s="28"/>
+      <c r="V341" s="28"/>
+      <c r="W341" s="28"/>
+      <c r="X341" s="28"/>
+      <c r="Y341" s="28"/>
+      <c r="Z341" s="28"/>
+      <c r="AA341" s="28"/>
+      <c r="AB341" s="28"/>
+      <c r="AC341" s="28"/>
+      <c r="AD341" s="28"/>
+      <c r="AE341" s="28"/>
+      <c r="AF341" s="28"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="D342" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K342" s="5">
+        <v>44634.041666666664</v>
+      </c>
+      <c r="L342" s="1">
+        <f t="shared" si="19"/>
+        <v>1647219600000</v>
+      </c>
+      <c r="M342" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>356.0</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D343" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K343" s="5">
+        <v>44635.0</v>
+      </c>
+      <c r="L343" s="1">
+        <f t="shared" si="19"/>
+        <v>1647302400000</v>
+      </c>
+      <c r="M343" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>357.0</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D344" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K344" s="5">
+        <v>44636.0</v>
+      </c>
+      <c r="L344" s="1">
+        <f t="shared" si="19"/>
+        <v>1647388800000</v>
+      </c>
+      <c r="M344" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>358.0</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D345" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K345" s="5">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L345" s="1">
+        <f t="shared" si="19"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M345" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>359.0</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D346" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K346" s="5">
+        <v>44637.666666666664</v>
+      </c>
+      <c r="L346" s="1">
+        <f t="shared" si="19"/>
+        <v>1647532800000</v>
+      </c>
+      <c r="M346" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>360.0</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D347" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K347" s="5">
+        <v>44638.666666666664</v>
+      </c>
+      <c r="L347" s="1">
+        <f t="shared" si="19"/>
+        <v>1647619200000</v>
+      </c>
+      <c r="M347" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -12219,7 +12456,8 @@
     <hyperlink r:id="rId264" ref="E338"/>
     <hyperlink r:id="rId265" ref="E339"/>
     <hyperlink r:id="rId266" ref="E340"/>
+    <hyperlink r:id="rId267" ref="E341"/>
   </hyperlinks>
-  <drawing r:id="rId267"/>
+  <drawing r:id="rId268"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="606">
   <si>
     <t>id</t>
   </si>
@@ -1645,6 +1645,9 @@
     <t>PROPNIGHT W/ REIMU, OLIVER, GENZUKI, MAYUZUMI</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=l85DMvRXNzU</t>
+  </si>
+  <si>
     <t>Yu-Gi-Oh Master Duel</t>
   </si>
   <si>
@@ -1744,22 +1747,88 @@
     <t>【CORN CHEESE】with flipper cam! (and donation reading)</t>
   </si>
   <si>
-    <t>【PROPNIGHT】prop deez</t>
+    <t>Golf with NIJI EN</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VedujdXhrME</t>
+  </si>
+  <si>
+    <t>NIJI EN Minecraft Collab</t>
+  </si>
+  <si>
+    <t>We Were Here</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>Golf With Friends w/ Niji EN</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 - Cybroke</t>
+  </si>
+  <si>
+    <t>Zelda: Majora's Mask - Snowhead</t>
+  </si>
+  <si>
+    <t>Minecraft - Nijisanji EN Server</t>
+  </si>
+  <si>
+    <t>We were here w/ Uki</t>
+  </si>
+  <si>
+    <t>Detroit: Become Human - End?</t>
+  </si>
+  <si>
+    <t>Zatsudan -Saturday Morning</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fvMiPSq-EYQ</t>
+  </si>
+  <si>
+    <t>MUSE DASH</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ORkfMM5CmAQ</t>
+  </si>
+  <si>
+    <t>JP GOULINGO STUDY!</t>
+  </si>
+  <si>
+    <t>NIJI EN MINECRAFT MEGACOLLAB!</t>
+  </si>
+  <si>
+    <t>JUMP KING FUTURE ENDURANCE PRACTICE</t>
+  </si>
+  <si>
+    <t>PROJECT ZOMBOID COLLAB! [FT. NINYA, FINANYA, SHOE]</t>
+  </si>
+  <si>
+    <t>【PROPNIGHT】prop deez (日本語)</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=j1MpO6UZdsg</t>
   </si>
   <si>
-    <t>Golf with NIJI EN</t>
-  </si>
-  <si>
-    <t>NIJI EN Minecraft Collab</t>
-  </si>
-  <si>
-    <t>We Were Here</t>
-  </si>
-  <si>
-    <t>Going Under</t>
+    <t>DOTA 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=P0LFkdfN880</t>
+  </si>
+  <si>
+    <t>LOVE ADVICE SESSION</t>
+  </si>
+  <si>
+    <t>DECEIT w/ Lain Petra Elira Shu (日本語)</t>
+  </si>
+  <si>
+    <t>MEMBERS ONLY Dead by Daylight</t>
+  </si>
+  <si>
+    <t>APEX w/ Elira Bao</t>
+  </si>
+  <si>
+    <t>APEX w/ Mahiro Selen</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1843,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1813,6 +1882,10 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
     </font>
     <font>
       <u/>
@@ -1855,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1934,15 +2007,25 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11442,6 +11525,9 @@
       <c r="D319" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E319" s="3" t="s">
+        <v>544</v>
+      </c>
       <c r="J319" s="1" t="b">
         <v>1</v>
       </c>
@@ -11464,13 +11550,13 @@
         <v>67</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D320" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I320" s="1" t="b">
         <v>1</v>
@@ -11494,7 +11580,7 @@
         <v>67</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D321" s="1" t="b">
         <v>1</v>
@@ -11518,13 +11604,13 @@
         <v>67</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D322" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K322" s="5">
         <v>44630.083333333336</v>
@@ -11545,13 +11631,13 @@
         <v>67</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D323" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K323" s="5">
         <v>44631.958333333336</v>
@@ -11572,13 +11658,13 @@
         <v>67</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D324" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="K324" s="5">
         <v>44632.583333333336</v>
@@ -11599,7 +11685,7 @@
         <v>67</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D325" s="1" t="b">
         <v>1</v>
@@ -11631,13 +11717,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11658,13 +11744,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11685,13 +11771,13 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K329" s="5">
         <v>44631.708333333336</v>
@@ -11712,9 +11798,12 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D330" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K330" s="5">
@@ -11736,7 +11825,7 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
@@ -11777,10 +11866,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11789,7 +11878,7 @@
         <v>44628.854166666664</v>
       </c>
       <c r="L333" s="1">
-        <f t="shared" ref="L333:L347" si="19">(K333-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L333:L360" si="19">(K333-Date(1970,1,1))*86400*1000</f>
         <v>1646771400000</v>
       </c>
       <c r="M333" s="1" t="s">
@@ -11804,10 +11893,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -11831,10 +11920,10 @@
         <v>94</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="I335" s="1" t="b">
         <v>1</v>
@@ -11858,10 +11947,10 @@
         <v>56</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="I336" s="1" t="b">
         <v>1</v>
@@ -11885,10 +11974,10 @@
         <v>79</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="I337" s="1" t="b">
         <v>1</v>
@@ -11912,10 +12001,10 @@
         <v>304</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I338" s="1" t="b">
         <v>1</v>
@@ -11939,10 +12028,10 @@
         <v>287</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="I339" s="1" t="b">
         <v>1</v>
@@ -11959,107 +12048,105 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="1">
+      <c r="A340" s="27">
         <v>353.0</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="B340" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="C340" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="E340" s="3" t="s">
+      <c r="C340" s="27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D340" s="28"/>
+      <c r="E340" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="I340" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K340" s="5">
+      <c r="F340" s="28"/>
+      <c r="G340" s="28"/>
+      <c r="H340" s="28"/>
+      <c r="I340" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J340" s="28"/>
+      <c r="K340" s="30">
         <v>44633.166666666664</v>
       </c>
-      <c r="L340" s="1">
+      <c r="L340" s="27">
         <f t="shared" si="19"/>
         <v>1647144000000</v>
       </c>
-      <c r="M340" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="M340" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N340" s="28"/>
+      <c r="O340" s="28"/>
+      <c r="P340" s="28"/>
+      <c r="Q340" s="28"/>
+      <c r="R340" s="28"/>
+      <c r="S340" s="28"/>
+      <c r="T340" s="28"/>
+      <c r="U340" s="28"/>
+      <c r="V340" s="28"/>
+      <c r="W340" s="28"/>
+      <c r="X340" s="28"/>
+      <c r="Y340" s="28"/>
+      <c r="Z340" s="28"/>
+      <c r="AA340" s="28"/>
+      <c r="AB340" s="28"/>
+      <c r="AC340" s="28"/>
+      <c r="AD340" s="28"/>
+      <c r="AE340" s="28"/>
+      <c r="AF340" s="28"/>
     </row>
     <row r="341">
-      <c r="A341" s="27">
-        <v>354.0</v>
-      </c>
-      <c r="B341" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C341" s="27" t="s">
-        <v>577</v>
-      </c>
-      <c r="D341" s="28"/>
-      <c r="E341" s="29" t="s">
+      <c r="A341" s="1">
+        <v>355.0</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="F341" s="28"/>
-      <c r="G341" s="28"/>
-      <c r="H341" s="28"/>
-      <c r="I341" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K341" s="30">
-        <v>44633.5</v>
-      </c>
-      <c r="L341" s="27">
+      <c r="D341" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E341" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="J341" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K341" s="5">
+        <v>44634.041666666664</v>
+      </c>
+      <c r="L341" s="1">
         <f t="shared" si="19"/>
-        <v>1647172800000</v>
-      </c>
-      <c r="M341" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="N341" s="28"/>
-      <c r="O341" s="28"/>
-      <c r="P341" s="28"/>
-      <c r="Q341" s="28"/>
-      <c r="R341" s="28"/>
-      <c r="S341" s="28"/>
-      <c r="T341" s="28"/>
-      <c r="U341" s="28"/>
-      <c r="V341" s="28"/>
-      <c r="W341" s="28"/>
-      <c r="X341" s="28"/>
-      <c r="Y341" s="28"/>
-      <c r="Z341" s="28"/>
-      <c r="AA341" s="28"/>
-      <c r="AB341" s="28"/>
-      <c r="AC341" s="28"/>
-      <c r="AD341" s="28"/>
-      <c r="AE341" s="28"/>
-      <c r="AF341" s="28"/>
+        <v>1647219600000</v>
+      </c>
+      <c r="M341" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1">
-        <v>355.0</v>
+        <v>356.0</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>579</v>
+        <v>88</v>
       </c>
       <c r="D342" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J342" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K342" s="5">
-        <v>44634.041666666664</v>
+        <v>44635.0</v>
       </c>
       <c r="L342" s="1">
         <f t="shared" si="19"/>
-        <v>1647219600000</v>
+        <v>1647302400000</v>
       </c>
       <c r="M342" s="1" t="s">
         <v>16</v>
@@ -12067,23 +12154,23 @@
     </row>
     <row r="343">
       <c r="A343" s="1">
-        <v>356.0</v>
+        <v>357.0</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D343" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K343" s="5">
-        <v>44635.0</v>
+        <v>44636.0</v>
       </c>
       <c r="L343" s="1">
         <f t="shared" si="19"/>
-        <v>1647302400000</v>
+        <v>1647388800000</v>
       </c>
       <c r="M343" s="1" t="s">
         <v>16</v>
@@ -12091,23 +12178,26 @@
     </row>
     <row r="344">
       <c r="A344" s="1">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>84</v>
+        <v>580</v>
       </c>
       <c r="D344" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J344" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K344" s="5">
-        <v>44636.0</v>
+        <v>44636.708333333336</v>
       </c>
       <c r="L344" s="1">
         <f t="shared" si="19"/>
-        <v>1647388800000</v>
+        <v>1647450000000</v>
       </c>
       <c r="M344" s="1" t="s">
         <v>16</v>
@@ -12115,26 +12205,23 @@
     </row>
     <row r="345">
       <c r="A345" s="1">
-        <v>358.0</v>
+        <v>359.0</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D345" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="J345" s="1" t="b">
-        <v>1</v>
-      </c>
       <c r="K345" s="5">
-        <v>44636.708333333336</v>
+        <v>44637.666666666664</v>
       </c>
       <c r="L345" s="1">
         <f t="shared" si="19"/>
-        <v>1647450000000</v>
+        <v>1647532800000</v>
       </c>
       <c r="M345" s="1" t="s">
         <v>16</v>
@@ -12142,23 +12229,23 @@
     </row>
     <row r="346">
       <c r="A346" s="1">
-        <v>359.0</v>
+        <v>360.0</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D346" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K346" s="5">
-        <v>44637.666666666664</v>
+        <v>44638.666666666664</v>
       </c>
       <c r="L346" s="1">
         <f t="shared" si="19"/>
-        <v>1647532800000</v>
+        <v>1647619200000</v>
       </c>
       <c r="M346" s="1" t="s">
         <v>16</v>
@@ -12166,26 +12253,643 @@
     </row>
     <row r="347">
       <c r="A347" s="1">
-        <v>360.0</v>
+        <v>361.0</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>79</v>
+        <v>319</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D347" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="J347" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K347" s="5">
-        <v>44638.666666666664</v>
+        <v>44634.041666666664</v>
       </c>
       <c r="L347" s="1">
         <f t="shared" si="19"/>
-        <v>1647619200000</v>
+        <v>1647219600000</v>
       </c>
       <c r="M347" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>362.0</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D348" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K348" s="5">
+        <v>44634.625</v>
+      </c>
+      <c r="L348" s="1">
+        <f t="shared" si="19"/>
+        <v>1647270000000</v>
+      </c>
+      <c r="M348" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>363.0</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D349" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K349" s="5">
+        <v>44635.625</v>
+      </c>
+      <c r="L349" s="1">
+        <f t="shared" si="19"/>
+        <v>1647356400000</v>
+      </c>
+      <c r="M349" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>364.0</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D350" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K350" s="5">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L350" s="1">
+        <f t="shared" si="19"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M350" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>365.0</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D351" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K351" s="5">
+        <v>44637.666666666664</v>
+      </c>
+      <c r="L351" s="1">
+        <f t="shared" si="19"/>
+        <v>1647532800000</v>
+      </c>
+      <c r="M351" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>366.0</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D352" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K352" s="5">
+        <v>44638.958333333336</v>
+      </c>
+      <c r="L352" s="1">
+        <f t="shared" si="19"/>
+        <v>1647644400000</v>
+      </c>
+      <c r="M352" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>367.0</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D353" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K353" s="5">
+        <v>44639.583333333336</v>
+      </c>
+      <c r="L353" s="1">
+        <f t="shared" si="19"/>
+        <v>1647698400000</v>
+      </c>
+      <c r="M353" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>368.0</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D354" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="K354" s="5">
+        <v>44633.833333333336</v>
+      </c>
+      <c r="L354" s="1">
+        <f t="shared" si="19"/>
+        <v>1647201600000</v>
+      </c>
+      <c r="M354" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>369.0</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D355" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="K355" s="5">
+        <v>44634.041666666664</v>
+      </c>
+      <c r="L355" s="1">
+        <f t="shared" si="19"/>
+        <v>1647219600000</v>
+      </c>
+      <c r="M355" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>370.0</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D356" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K356" s="5">
+        <v>44636.0</v>
+      </c>
+      <c r="L356" s="1">
+        <f t="shared" si="19"/>
+        <v>1647388800000</v>
+      </c>
+      <c r="M356" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>371.0</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D357" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K357" s="5">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L357" s="1">
+        <f t="shared" si="19"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M357" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>372.0</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D358" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K358" s="5">
+        <v>44638.0</v>
+      </c>
+      <c r="L358" s="1">
+        <f t="shared" si="19"/>
+        <v>1647561600000</v>
+      </c>
+      <c r="M358" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>373.0</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D359" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K359" s="5">
+        <v>44638.916666666664</v>
+      </c>
+      <c r="L359" s="1">
+        <f t="shared" si="19"/>
+        <v>1647640800000</v>
+      </c>
+      <c r="M359" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>374.0</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="D360" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K360" s="5">
+        <v>44639.791666666664</v>
+      </c>
+      <c r="L360" s="1">
+        <f t="shared" si="19"/>
+        <v>1647716400000</v>
+      </c>
+      <c r="M360" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="B361" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M361" s="1">
+        <v>374.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="B362" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M362" s="1">
+        <v>374.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="B363" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M363" s="1">
+        <v>374.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C364" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="D364" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E364" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="F364" s="33"/>
+      <c r="G364" s="33"/>
+      <c r="H364" s="33"/>
+      <c r="I364" s="31"/>
+      <c r="J364" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K364" s="34">
+        <v>44633.5</v>
+      </c>
+      <c r="L364" s="31">
+        <f t="shared" ref="L364:L372" si="20">(K364-Date(1970,1,1))*86400*1000</f>
+        <v>1647172800000</v>
+      </c>
+      <c r="M364" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>376.0</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D365" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E365" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K365" s="34">
+        <v>44634.083333333336</v>
+      </c>
+      <c r="L365" s="31">
+        <f t="shared" si="20"/>
+        <v>1647223200000</v>
+      </c>
+      <c r="M365" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>377.0</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D366" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K366" s="34">
+        <v>44634.875</v>
+      </c>
+      <c r="L366" s="31">
+        <f t="shared" si="20"/>
+        <v>1647291600000</v>
+      </c>
+      <c r="M366" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>378.0</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D367" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K367" s="34">
+        <v>44635.125</v>
+      </c>
+      <c r="L367" s="31">
+        <f t="shared" si="20"/>
+        <v>1647313200000</v>
+      </c>
+      <c r="M367" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>379.0</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D368" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K368" s="34">
+        <v>44636.041666666664</v>
+      </c>
+      <c r="L368" s="31">
+        <f t="shared" si="20"/>
+        <v>1647392400000</v>
+      </c>
+      <c r="M368" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>380.0</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D369" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K369" s="34">
+        <v>44636.875</v>
+      </c>
+      <c r="L369" s="31">
+        <f t="shared" si="20"/>
+        <v>1647464400000</v>
+      </c>
+      <c r="M369" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>381.0</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D370" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K370" s="34">
+        <v>44637.125</v>
+      </c>
+      <c r="L370" s="31">
+        <f t="shared" si="20"/>
+        <v>1647486000000</v>
+      </c>
+      <c r="M370" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>382.0</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D371" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K371" s="34">
+        <v>44639.75</v>
+      </c>
+      <c r="L371" s="31">
+        <f t="shared" si="20"/>
+        <v>1647712800000</v>
+      </c>
+      <c r="M371" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>383.0</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D372" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K372" s="34">
+        <v>44640.125</v>
+      </c>
+      <c r="L372" s="31">
+        <f t="shared" si="20"/>
+        <v>1647745200000</v>
+      </c>
+      <c r="M372" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="B373" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M373" s="1">
+        <v>378.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="B374" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M374" s="1">
+        <v>378.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M375" s="1">
+        <v>378.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="B376" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="M376" s="1">
+        <v>381.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="B377" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M377" s="1">
+        <v>383.0</v>
       </c>
     </row>
   </sheetData>
@@ -12441,23 +13145,28 @@
     <hyperlink r:id="rId249" ref="E313"/>
     <hyperlink r:id="rId250" ref="E314"/>
     <hyperlink r:id="rId251" ref="E318"/>
-    <hyperlink r:id="rId252" ref="E320"/>
-    <hyperlink r:id="rId253" ref="E322"/>
-    <hyperlink r:id="rId254" ref="E323"/>
-    <hyperlink r:id="rId255" ref="E324"/>
-    <hyperlink r:id="rId256" ref="E327"/>
-    <hyperlink r:id="rId257" ref="E328"/>
-    <hyperlink r:id="rId258" ref="E329"/>
-    <hyperlink r:id="rId259" ref="E333"/>
-    <hyperlink r:id="rId260" ref="E334"/>
-    <hyperlink r:id="rId261" ref="E335"/>
-    <hyperlink r:id="rId262" ref="E336"/>
-    <hyperlink r:id="rId263" ref="E337"/>
-    <hyperlink r:id="rId264" ref="E338"/>
-    <hyperlink r:id="rId265" ref="E339"/>
-    <hyperlink r:id="rId266" ref="E340"/>
-    <hyperlink r:id="rId267" ref="E341"/>
+    <hyperlink r:id="rId252" ref="E319"/>
+    <hyperlink r:id="rId253" ref="E320"/>
+    <hyperlink r:id="rId254" ref="E322"/>
+    <hyperlink r:id="rId255" ref="E323"/>
+    <hyperlink r:id="rId256" ref="E324"/>
+    <hyperlink r:id="rId257" ref="E327"/>
+    <hyperlink r:id="rId258" ref="E328"/>
+    <hyperlink r:id="rId259" ref="E329"/>
+    <hyperlink r:id="rId260" ref="E333"/>
+    <hyperlink r:id="rId261" ref="E334"/>
+    <hyperlink r:id="rId262" ref="E335"/>
+    <hyperlink r:id="rId263" ref="E336"/>
+    <hyperlink r:id="rId264" ref="E337"/>
+    <hyperlink r:id="rId265" ref="E338"/>
+    <hyperlink r:id="rId266" ref="E339"/>
+    <hyperlink r:id="rId267" ref="E340"/>
+    <hyperlink r:id="rId268" ref="E341"/>
+    <hyperlink r:id="rId269" ref="E354"/>
+    <hyperlink r:id="rId270" ref="E355"/>
+    <hyperlink r:id="rId271" ref="E364"/>
+    <hyperlink r:id="rId272" ref="E365"/>
   </hyperlinks>
-  <drawing r:id="rId268"/>
+  <drawing r:id="rId273"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="634">
   <si>
     <t>id</t>
   </si>
@@ -1804,6 +1804,9 @@
     <t>PROJECT ZOMBOID COLLAB! [FT. NINYA, FINANYA, SHOE]</t>
   </si>
   <si>
+    <t>FinanaX</t>
+  </si>
+  <si>
     <t>【PROPNIGHT】prop deez (日本語)</t>
   </si>
   <si>
@@ -1829,6 +1832,87 @@
   </si>
   <si>
     <t>APEX w/ Mahiro Selen</t>
+  </si>
+  <si>
+    <t>EliraX</t>
+  </si>
+  <si>
+    <t>EARTHBOUND PART 2</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pG56JlWgwXw</t>
+  </si>
+  <si>
+    <t>ELIRA IS ASLEEP</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ycxV-3La60g</t>
+  </si>
+  <si>
+    <t>FTL: FASTER THAN LIGHT FIRST TIME</t>
+  </si>
+  <si>
+    <t>DECEIT NIJISANJI COLLAB</t>
+  </si>
+  <si>
+    <t>TWISTED WONDERLAND w/ Petra</t>
+  </si>
+  <si>
+    <t>NIJISANJI EN MINECRAFT SERVER OPEN!</t>
+  </si>
+  <si>
+    <t>APEX LEGENDS w/ Reimu &amp; Bao</t>
+  </si>
+  <si>
+    <t>HADES: UNDERWORLD, I'M HOME</t>
+  </si>
+  <si>
+    <t>AI SOMNIUM FILES: PART 3</t>
+  </si>
+  <si>
+    <t>OFF COLLAB w/ Millie &amp; Enna</t>
+  </si>
+  <si>
+    <t>YU-GI-OH! MASTER DUEL (ROAD TO PLATINUM)</t>
+  </si>
+  <si>
+    <t>MINECRAFT EN SERVER COLLAB W/ NIJISANJI EN</t>
+  </si>
+  <si>
+    <t>BIG BRAIN ACADEMY</t>
+  </si>
+  <si>
+    <t>VRCHAT COLLAB W/ NIJISANJI EN</t>
+  </si>
+  <si>
+    <t>PROJECT ZOMBIOD W/ NINA, ALBAN &amp; SHU</t>
+  </si>
+  <si>
+    <t>Euro Truck Sim 2 (With Enna)</t>
+  </si>
+  <si>
+    <t>Golf w/ Friends (NIJI EN)</t>
+  </si>
+  <si>
+    <t>TAG Geoguessr</t>
+  </si>
+  <si>
+    <t>Triangle Strategy</t>
+  </si>
+  <si>
+    <t>Ace Attorney Case 5</t>
+  </si>
+  <si>
+    <t>Passpartout (Selling NIJI EN)</t>
+  </si>
+  <si>
+    <t>Kuukiyomi 1,2&amp;3</t>
+  </si>
+  <si>
+    <t>Just Talking / Zatsudan</t>
+  </si>
+  <si>
+    <t>Off Collab w/ Enna &amp; Elira</t>
   </si>
 </sst>
 </file>
@@ -11021,6 +11105,9 @@
       <c r="D301" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="H301" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="K301" s="5">
         <v>44633.5</v>
       </c>
@@ -11830,6 +11917,9 @@
       <c r="D331" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="F331" s="1" t="b">
+        <v>1</v>
+      </c>
       <c r="J331" s="1" t="b">
         <v>1</v>
       </c>
@@ -11847,7 +11937,7 @@
     <row r="332">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
-        <v>287</v>
+        <v>214</v>
       </c>
       <c r="C332" s="1"/>
       <c r="E332" s="1"/>
@@ -12609,7 +12699,7 @@
     </row>
     <row r="362">
       <c r="B362" s="1" t="s">
-        <v>183</v>
+        <v>597</v>
       </c>
       <c r="M362" s="1">
         <v>374.0</v>
@@ -12631,13 +12721,13 @@
         <v>158</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D364" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E364" s="32" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F364" s="33"/>
       <c r="G364" s="33"/>
@@ -12665,13 +12755,13 @@
         <v>158</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D365" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K365" s="34">
         <v>44634.083333333336</v>
@@ -12692,7 +12782,7 @@
         <v>158</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D366" s="31" t="b">
         <v>1</v>
@@ -12716,7 +12806,7 @@
         <v>158</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D367" s="31" t="b">
         <v>1</v>
@@ -12764,7 +12854,7 @@
         <v>158</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D369" s="31" t="b">
         <v>1</v>
@@ -12788,7 +12878,7 @@
         <v>158</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D370" s="31" t="b">
         <v>1</v>
@@ -12836,7 +12926,7 @@
         <v>158</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D372" s="31" t="b">
         <v>1</v>
@@ -12862,7 +12952,7 @@
     </row>
     <row r="374">
       <c r="B374" s="1" t="s">
-        <v>147</v>
+        <v>607</v>
       </c>
       <c r="M374" s="1">
         <v>378.0</v>
@@ -12878,7 +12968,7 @@
     </row>
     <row r="376">
       <c r="B376" s="1" t="s">
-        <v>147</v>
+        <v>607</v>
       </c>
       <c r="M376" s="1">
         <v>381.0</v>
@@ -12890,6 +12980,683 @@
       </c>
       <c r="M377" s="1">
         <v>383.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="B378" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M378" s="1">
+        <v>378.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>384.0</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D379" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E379" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="K379" s="34">
+        <v>44633.833333333336</v>
+      </c>
+      <c r="L379" s="31">
+        <f t="shared" ref="L379:L388" si="21">(K379-Date(1970,1,1))*86400*1000</f>
+        <v>1647201600000</v>
+      </c>
+      <c r="M379" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>385.0</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D380" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="K380" s="34">
+        <v>44634.125</v>
+      </c>
+      <c r="L380" s="31">
+        <f t="shared" si="21"/>
+        <v>1647226800000</v>
+      </c>
+      <c r="M380" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>386.0</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="D381" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K381" s="34">
+        <v>44634.833333333336</v>
+      </c>
+      <c r="L381" s="31">
+        <f t="shared" si="21"/>
+        <v>1647288000000</v>
+      </c>
+      <c r="M381" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>387.0</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D382" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K382" s="34">
+        <v>44635.125</v>
+      </c>
+      <c r="L382" s="31">
+        <f t="shared" si="21"/>
+        <v>1647313200000</v>
+      </c>
+      <c r="M382" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>388.0</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D383" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K383" s="34">
+        <v>44636.083333333336</v>
+      </c>
+      <c r="L383" s="31">
+        <f t="shared" si="21"/>
+        <v>1647396000000</v>
+      </c>
+      <c r="M383" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>389.0</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D384" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K384" s="34">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L384" s="31">
+        <f t="shared" si="21"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M384" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>390.0</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D385" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K385" s="34">
+        <v>44637.125</v>
+      </c>
+      <c r="L385" s="31">
+        <f t="shared" si="21"/>
+        <v>1647486000000</v>
+      </c>
+      <c r="M385" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>391.0</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D386" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K386" s="34">
+        <v>44638.0</v>
+      </c>
+      <c r="L386" s="31">
+        <f t="shared" si="21"/>
+        <v>1647561600000</v>
+      </c>
+      <c r="M386" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>392.0</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D387" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K387" s="34">
+        <v>44638.833333333336</v>
+      </c>
+      <c r="L387" s="31">
+        <f t="shared" si="21"/>
+        <v>1647633600000</v>
+      </c>
+      <c r="M387" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>393.0</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D388" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K388" s="34">
+        <v>44639.958333333336</v>
+      </c>
+      <c r="L388" s="31">
+        <f t="shared" si="21"/>
+        <v>1647730800000</v>
+      </c>
+      <c r="M388" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="B389" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M389" s="1">
+        <v>388.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M390" s="1">
+        <v>393.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="B391" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M391" s="1">
+        <v>393.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1">
+        <v>394.0</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D392" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K392" s="34">
+        <v>44634.833333333336</v>
+      </c>
+      <c r="L392" s="31">
+        <f t="shared" ref="L392:L407" si="22">(K392-Date(1970,1,1))*86400*1000</f>
+        <v>1647288000000</v>
+      </c>
+      <c r="M392" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1">
+        <v>395.0</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D393" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K393" s="34">
+        <v>44635.916666666664</v>
+      </c>
+      <c r="L393" s="31">
+        <f t="shared" si="22"/>
+        <v>1647381600000</v>
+      </c>
+      <c r="M393" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1">
+        <v>396.0</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D394" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K394" s="34">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L394" s="31">
+        <f t="shared" si="22"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M394" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1">
+        <v>397.0</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D395" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K395" s="34">
+        <v>44637.916666666664</v>
+      </c>
+      <c r="L395" s="31">
+        <f t="shared" si="22"/>
+        <v>1647554400000</v>
+      </c>
+      <c r="M395" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1">
+        <v>398.0</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D396" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K396" s="34">
+        <v>44639.0</v>
+      </c>
+      <c r="L396" s="31">
+        <f t="shared" si="22"/>
+        <v>1647648000000</v>
+      </c>
+      <c r="M396" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1">
+        <v>399.0</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D397" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K397" s="34">
+        <v>44639.791666666664</v>
+      </c>
+      <c r="L397" s="31">
+        <f t="shared" si="22"/>
+        <v>1647716400000</v>
+      </c>
+      <c r="M397" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1">
+        <v>400.0</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D398" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F398" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K398" s="34">
+        <v>44633.916666666664</v>
+      </c>
+      <c r="L398" s="31">
+        <f t="shared" si="22"/>
+        <v>1647208800000</v>
+      </c>
+      <c r="M398" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1">
+        <v>401.0</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D399" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K399" s="34">
+        <v>44634.041666666664</v>
+      </c>
+      <c r="L399" s="31">
+        <f t="shared" si="22"/>
+        <v>1647219600000</v>
+      </c>
+      <c r="M399" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1">
+        <v>402.0</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="D400" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K400" s="34">
+        <v>44634.541666666664</v>
+      </c>
+      <c r="L400" s="31">
+        <f t="shared" si="22"/>
+        <v>1647262800000</v>
+      </c>
+      <c r="M400" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1">
+        <v>403.0</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D401" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K401" s="34">
+        <v>44635.041666666664</v>
+      </c>
+      <c r="L401" s="31">
+        <f t="shared" si="22"/>
+        <v>1647306000000</v>
+      </c>
+      <c r="M401" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1">
+        <v>404.0</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D402" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K402" s="34">
+        <v>44636.125</v>
+      </c>
+      <c r="L402" s="31">
+        <f t="shared" si="22"/>
+        <v>1647399600000</v>
+      </c>
+      <c r="M402" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>405.0</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D403" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J403" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K403" s="34">
+        <v>44637.083333333336</v>
+      </c>
+      <c r="L403" s="31">
+        <f t="shared" si="22"/>
+        <v>1647482400000</v>
+      </c>
+      <c r="M403" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1">
+        <v>406.0</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D404" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K404" s="34">
+        <v>44637.583333333336</v>
+      </c>
+      <c r="L404" s="31">
+        <f t="shared" si="22"/>
+        <v>1647525600000</v>
+      </c>
+      <c r="M404" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1">
+        <v>407.0</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D405" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K405" s="34">
+        <v>44638.125</v>
+      </c>
+      <c r="L405" s="31">
+        <f t="shared" si="22"/>
+        <v>1647572400000</v>
+      </c>
+      <c r="M405" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1">
+        <v>408.0</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D406" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K406" s="34">
+        <v>44639.083333333336</v>
+      </c>
+      <c r="L406" s="31">
+        <f t="shared" si="22"/>
+        <v>1647655200000</v>
+      </c>
+      <c r="M406" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1">
+        <v>409.0</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D407" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J407" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K407" s="34">
+        <v>44639.958333333336</v>
+      </c>
+      <c r="L407" s="31">
+        <f t="shared" si="22"/>
+        <v>1647730800000</v>
+      </c>
+      <c r="M407" s="31" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -13166,7 +13933,9 @@
     <hyperlink r:id="rId270" ref="E355"/>
     <hyperlink r:id="rId271" ref="E364"/>
     <hyperlink r:id="rId272" ref="E365"/>
+    <hyperlink r:id="rId273" ref="E379"/>
+    <hyperlink r:id="rId274" ref="E380"/>
   </hyperlinks>
-  <drawing r:id="rId273"/>
+  <drawing r:id="rId275"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1402" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="647">
   <si>
     <t>id</t>
   </si>
@@ -1678,6 +1678,9 @@
     <t>TBD!! - something</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=QoCs2Bv_mWo</t>
+  </si>
+  <si>
     <t>Big Brain Academy</t>
   </si>
   <si>
@@ -1702,6 +1705,9 @@
     <t>Collab w/ Millie</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=35zdkpjfrHg</t>
+  </si>
+  <si>
     <t>WINE PARTY~ THANK YOU FOR 250 000 SUBSCRIBERS!</t>
   </si>
   <si>
@@ -1891,6 +1897,12 @@
     <t>Euro Truck Sim 2 (With Enna)</t>
   </si>
   <si>
+    <t>Spy Party (With Enna)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F29UCip66GA</t>
+  </si>
+  <si>
     <t>Golf w/ Friends (NIJI EN)</t>
   </si>
   <si>
@@ -1913,6 +1925,33 @@
   </si>
   <si>
     <t>Off Collab w/ Enna &amp; Elira</t>
+  </si>
+  <si>
+    <t>TITANFALL 2</t>
+  </si>
+  <si>
+    <t>SUPERLIMINAL</t>
+  </si>
+  <si>
+    <t>SUPERHOT</t>
+  </si>
+  <si>
+    <t>STIGMATIZED PROPERTY</t>
+  </si>
+  <si>
+    <t>"FREE CHAT" :)</t>
+  </si>
+  <si>
+    <t>DECEIT COLLAB</t>
+  </si>
+  <si>
+    <t>LITTLE NIGHTMARES PLAYING THE DLC</t>
+  </si>
+  <si>
+    <t>OMORI</t>
+  </si>
+  <si>
+    <t>THE WITNESS</t>
   </si>
 </sst>
 </file>
@@ -8477,7 +8516,7 @@
       <c r="AE202" s="25"/>
       <c r="AF202" s="25"/>
     </row>
-    <row r="203">
+    <row r="203" hidden="1">
       <c r="A203" s="1">
         <v>223.0</v>
       </c>
@@ -8504,7 +8543,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" hidden="1">
       <c r="A204" s="1">
         <v>224.0</v>
       </c>
@@ -8531,7 +8570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" hidden="1">
       <c r="A205" s="1">
         <v>225.0</v>
       </c>
@@ -8558,7 +8597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" hidden="1">
       <c r="A206" s="1">
         <v>226.0</v>
       </c>
@@ -8588,7 +8627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" hidden="1">
       <c r="A207" s="1">
         <v>227.0</v>
       </c>
@@ -8618,7 +8657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" hidden="1">
       <c r="A208" s="1"/>
       <c r="B208" s="1" t="s">
         <v>365</v>
@@ -8632,7 +8671,7 @@
         <v>226.0</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" hidden="1">
       <c r="A209" s="1"/>
       <c r="B209" s="1" t="s">
         <v>197</v>
@@ -8646,7 +8685,7 @@
         <v>227.0</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" hidden="1">
       <c r="A210" s="1">
         <v>228.0</v>
       </c>
@@ -8676,7 +8715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" hidden="1">
       <c r="A211" s="1">
         <v>229.0</v>
       </c>
@@ -8703,7 +8742,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" hidden="1">
       <c r="A212" s="1">
         <v>230.0</v>
       </c>
@@ -8730,7 +8769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" hidden="1">
       <c r="A213" s="1">
         <v>231.0</v>
       </c>
@@ -8757,7 +8796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" hidden="1">
       <c r="A214" s="1">
         <v>232.0</v>
       </c>
@@ -8784,7 +8823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" hidden="1">
       <c r="A215" s="1">
         <v>233.0</v>
       </c>
@@ -8811,7 +8850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" hidden="1">
       <c r="A216" s="1">
         <v>234.0</v>
       </c>
@@ -8841,7 +8880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" hidden="1">
       <c r="A217" s="1">
         <v>235.0</v>
       </c>
@@ -8871,7 +8910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" hidden="1">
       <c r="A218" s="1">
         <v>236.0</v>
       </c>
@@ -8904,7 +8943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" hidden="1">
       <c r="A219" s="1">
         <v>237.0</v>
       </c>
@@ -8931,7 +8970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" hidden="1">
       <c r="A220" s="1">
         <v>238.0</v>
       </c>
@@ -8958,7 +8997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" hidden="1">
       <c r="A221" s="1">
         <v>239.0</v>
       </c>
@@ -8985,7 +9024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" hidden="1">
       <c r="A222" s="1">
         <v>240.0</v>
       </c>
@@ -9012,7 +9051,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" hidden="1">
       <c r="A223" s="1">
         <v>241.0</v>
       </c>
@@ -9042,7 +9081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" hidden="1">
       <c r="A224" s="1">
         <v>242.0</v>
       </c>
@@ -9072,7 +9111,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" hidden="1">
       <c r="A225" s="1">
         <v>243.0</v>
       </c>
@@ -9102,7 +9141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" hidden="1">
       <c r="A226" s="1">
         <v>244.0</v>
       </c>
@@ -9132,7 +9171,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" hidden="1">
       <c r="A227" s="1">
         <v>245.0</v>
       </c>
@@ -9159,7 +9198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" hidden="1">
       <c r="A228" s="1">
         <v>246.0</v>
       </c>
@@ -9186,7 +9225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" hidden="1">
       <c r="A229" s="1">
         <v>247.0</v>
       </c>
@@ -9219,7 +9258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" hidden="1">
       <c r="A230" s="1"/>
       <c r="B230" s="1" t="s">
         <v>213</v>
@@ -9232,7 +9271,7 @@
         <v>247.0</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" hidden="1">
       <c r="A231" s="1"/>
       <c r="B231" s="1" t="s">
         <v>215</v>
@@ -9245,7 +9284,7 @@
         <v>247.0</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" hidden="1">
       <c r="A232" s="1">
         <v>248.0</v>
       </c>
@@ -9272,7 +9311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" hidden="1">
       <c r="A233" s="1">
         <v>249.0</v>
       </c>
@@ -9296,7 +9335,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" hidden="1">
       <c r="A234" s="1">
         <v>250.0</v>
       </c>
@@ -9323,7 +9362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" hidden="1">
       <c r="A235" s="1">
         <v>251.0</v>
       </c>
@@ -9350,7 +9389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" hidden="1">
       <c r="A236" s="1">
         <v>252.0</v>
       </c>
@@ -9377,7 +9416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" hidden="1">
       <c r="A237" s="1">
         <v>253.0</v>
       </c>
@@ -9407,7 +9446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" hidden="1">
       <c r="A238" s="1">
         <v>254.0</v>
       </c>
@@ -9434,7 +9473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" hidden="1">
       <c r="A239" s="1">
         <v>255.0</v>
       </c>
@@ -9464,7 +9503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" hidden="1">
       <c r="A240" s="1">
         <v>256.0</v>
       </c>
@@ -9491,7 +9530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" hidden="1">
       <c r="A241" s="1">
         <v>257.0</v>
       </c>
@@ -9518,7 +9557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" hidden="1">
       <c r="A242" s="1">
         <v>258.0</v>
       </c>
@@ -9545,7 +9584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" hidden="1">
       <c r="A243" s="1">
         <v>259.0</v>
       </c>
@@ -9572,7 +9611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" hidden="1">
       <c r="A244" s="1">
         <v>260.0</v>
       </c>
@@ -9602,7 +9641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" hidden="1">
       <c r="A245" s="1">
         <v>261.0</v>
       </c>
@@ -9632,7 +9671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" hidden="1">
       <c r="A246" s="1">
         <v>262.0</v>
       </c>
@@ -9662,7 +9701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" hidden="1">
       <c r="A247" s="1">
         <v>263.0</v>
       </c>
@@ -9689,7 +9728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" hidden="1">
       <c r="A248" s="1">
         <v>264.0</v>
       </c>
@@ -9716,7 +9755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" hidden="1">
       <c r="A249" s="1">
         <v>265.0</v>
       </c>
@@ -9740,7 +9779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" hidden="1">
       <c r="A250" s="1">
         <v>266.0</v>
       </c>
@@ -9767,7 +9806,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" hidden="1">
       <c r="A251" s="1">
         <v>267.0</v>
       </c>
@@ -9794,7 +9833,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" hidden="1">
       <c r="A252" s="1">
         <v>268.0</v>
       </c>
@@ -9821,7 +9860,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" hidden="1">
       <c r="A253" s="1">
         <v>269.0</v>
       </c>
@@ -9845,7 +9884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" hidden="1">
       <c r="A254" s="1">
         <v>270.0</v>
       </c>
@@ -9875,7 +9914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" hidden="1">
       <c r="A255" s="1">
         <v>271.0</v>
       </c>
@@ -9905,7 +9944,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" hidden="1">
       <c r="A256" s="1">
         <v>272.0</v>
       </c>
@@ -9932,7 +9971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" hidden="1">
       <c r="A257" s="1">
         <v>273.0</v>
       </c>
@@ -9962,7 +10001,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" hidden="1">
       <c r="A258" s="1"/>
       <c r="B258" s="1" t="s">
         <v>213</v>
@@ -9975,7 +10014,7 @@
         <v>273.0</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" hidden="1">
       <c r="A259" s="1">
         <v>274.0</v>
       </c>
@@ -10002,7 +10041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" hidden="1">
       <c r="A260" s="1">
         <v>275.0</v>
       </c>
@@ -10029,7 +10068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" hidden="1">
       <c r="A261" s="1">
         <v>276.0</v>
       </c>
@@ -10059,7 +10098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" hidden="1">
       <c r="A262" s="1">
         <v>277.0</v>
       </c>
@@ -10083,7 +10122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" hidden="1">
       <c r="A263" s="1">
         <v>278.0</v>
       </c>
@@ -10110,7 +10149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" hidden="1">
       <c r="A264" s="1">
         <v>279.0</v>
       </c>
@@ -10137,7 +10176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" hidden="1">
       <c r="A265" s="1">
         <v>280.0</v>
       </c>
@@ -10167,7 +10206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" hidden="1">
       <c r="A266" s="1">
         <v>281.0</v>
       </c>
@@ -10197,7 +10236,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" hidden="1">
       <c r="A267" s="1">
         <v>282.0</v>
       </c>
@@ -10224,7 +10263,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" hidden="1">
       <c r="A268" s="1">
         <v>283.0</v>
       </c>
@@ -10251,7 +10290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" hidden="1">
       <c r="A269" s="1">
         <v>284.0</v>
       </c>
@@ -10278,7 +10317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" hidden="1">
       <c r="B270" s="1" t="s">
         <v>234</v>
       </c>
@@ -10286,7 +10325,7 @@
         <v>281.0</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" hidden="1">
       <c r="A271" s="1">
         <v>286.0</v>
       </c>
@@ -10316,7 +10355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" hidden="1">
       <c r="A272" s="1">
         <v>287.0</v>
       </c>
@@ -10343,7 +10382,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" hidden="1">
       <c r="A273" s="1">
         <v>288.0</v>
       </c>
@@ -10370,7 +10409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" hidden="1">
       <c r="A274" s="1">
         <v>289.0</v>
       </c>
@@ -10400,7 +10439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" hidden="1">
       <c r="A275" s="1">
         <v>290.0</v>
       </c>
@@ -10427,7 +10466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" hidden="1">
       <c r="A276" s="1">
         <v>291.0</v>
       </c>
@@ -10460,7 +10499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" hidden="1">
       <c r="A277" s="1"/>
       <c r="B277" s="1" t="s">
         <v>13</v>
@@ -10473,7 +10512,7 @@
         <v>291.0</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" hidden="1">
       <c r="A278" s="1"/>
       <c r="B278" s="1" t="s">
         <v>249</v>
@@ -10486,7 +10525,7 @@
         <v>291.0</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" hidden="1">
       <c r="A279" s="1">
         <v>292.0</v>
       </c>
@@ -10513,7 +10552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" hidden="1">
       <c r="A280" s="1">
         <v>293.0</v>
       </c>
@@ -10537,7 +10576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" hidden="1">
       <c r="A281" s="1">
         <v>294.0</v>
       </c>
@@ -10561,7 +10600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" hidden="1">
       <c r="A282" s="1">
         <v>295.0</v>
       </c>
@@ -10588,7 +10627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" hidden="1">
       <c r="A283" s="1">
         <v>296.0</v>
       </c>
@@ -10615,7 +10654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" hidden="1">
       <c r="A284" s="1">
         <v>297.0</v>
       </c>
@@ -10642,7 +10681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" hidden="1">
       <c r="A285" s="1">
         <v>298.0</v>
       </c>
@@ -10669,7 +10708,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" hidden="1">
       <c r="A286" s="1">
         <v>299.0</v>
       </c>
@@ -10696,7 +10735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" hidden="1">
       <c r="A287" s="1">
         <v>300.0</v>
       </c>
@@ -10723,7 +10762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" hidden="1">
       <c r="A288" s="1">
         <v>301.0</v>
       </c>
@@ -10750,7 +10789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" hidden="1">
       <c r="A289" s="1">
         <v>302.0</v>
       </c>
@@ -10777,7 +10816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" hidden="1">
       <c r="A290" s="1">
         <v>303.0</v>
       </c>
@@ -10804,7 +10843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" hidden="1">
       <c r="A291" s="1">
         <v>304.0</v>
       </c>
@@ -10831,7 +10870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" hidden="1">
       <c r="A292" s="1">
         <v>305.0</v>
       </c>
@@ -10861,7 +10900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" hidden="1">
       <c r="A293" s="1">
         <v>306.0</v>
       </c>
@@ -10894,7 +10933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" hidden="1">
       <c r="A294" s="1">
         <v>307.0</v>
       </c>
@@ -10921,7 +10960,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" hidden="1">
       <c r="A295" s="1">
         <v>308.0</v>
       </c>
@@ -10948,7 +10987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" hidden="1">
       <c r="A296" s="1">
         <v>309.0</v>
       </c>
@@ -10975,7 +11014,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" hidden="1">
       <c r="A297" s="1">
         <v>310.0</v>
       </c>
@@ -11005,7 +11044,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" hidden="1">
       <c r="A298" s="1">
         <v>311.0</v>
       </c>
@@ -11032,7 +11071,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" hidden="1">
       <c r="A299" s="1">
         <v>312.0</v>
       </c>
@@ -11059,7 +11098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" hidden="1">
       <c r="A300" s="1">
         <v>313.0</v>
       </c>
@@ -11092,7 +11131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" hidden="1">
       <c r="A301" s="1">
         <v>314.0</v>
       </c>
@@ -11119,7 +11158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" hidden="1">
       <c r="A302" s="1">
         <v>316.0</v>
       </c>
@@ -11149,7 +11188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" hidden="1">
       <c r="A303" s="1">
         <v>317.0</v>
       </c>
@@ -11176,7 +11215,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" hidden="1">
       <c r="A304" s="1">
         <v>318.0</v>
       </c>
@@ -11203,7 +11242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" hidden="1">
       <c r="A305" s="1">
         <v>319.0</v>
       </c>
@@ -11236,7 +11275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" hidden="1">
       <c r="A306" s="1">
         <v>321.0</v>
       </c>
@@ -11266,7 +11305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" hidden="1">
       <c r="A307" s="1">
         <v>322.0</v>
       </c>
@@ -11293,7 +11332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" hidden="1">
       <c r="A308" s="1">
         <v>323.0</v>
       </c>
@@ -11323,7 +11362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" hidden="1">
       <c r="A309" s="1">
         <v>324.0</v>
       </c>
@@ -11350,7 +11389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" hidden="1">
       <c r="A310" s="1">
         <v>325.0</v>
       </c>
@@ -11377,7 +11416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" hidden="1">
       <c r="A311" s="1">
         <v>326.0</v>
       </c>
@@ -11407,7 +11446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" hidden="1">
       <c r="A312" s="1">
         <v>327.0</v>
       </c>
@@ -11434,7 +11473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" hidden="1">
       <c r="A313" s="1">
         <v>328.0</v>
       </c>
@@ -11464,7 +11503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" hidden="1">
       <c r="A314" s="1">
         <v>329.0</v>
       </c>
@@ -11491,7 +11530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" hidden="1">
       <c r="A315" s="1">
         <v>330.0</v>
       </c>
@@ -11518,7 +11557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" hidden="1">
       <c r="A316" s="1">
         <v>331.0</v>
       </c>
@@ -11545,7 +11584,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" hidden="1">
       <c r="A317" s="1">
         <v>332.0</v>
       </c>
@@ -11572,7 +11611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" hidden="1">
       <c r="A318" s="1">
         <v>333.0</v>
       </c>
@@ -11599,7 +11638,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" hidden="1">
       <c r="A319" s="1">
         <v>334.0</v>
       </c>
@@ -11629,7 +11668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" hidden="1">
       <c r="A320" s="1">
         <v>335.0</v>
       </c>
@@ -11659,7 +11698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" hidden="1">
       <c r="A321" s="1">
         <v>336.0</v>
       </c>
@@ -11683,7 +11722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" hidden="1">
       <c r="A322" s="1">
         <v>337.0</v>
       </c>
@@ -11710,7 +11749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" hidden="1">
       <c r="A323" s="1">
         <v>338.0</v>
       </c>
@@ -11737,7 +11776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" hidden="1">
       <c r="A324" s="1">
         <v>339.0</v>
       </c>
@@ -11764,7 +11803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" hidden="1">
       <c r="A325" s="1">
         <v>340.0</v>
       </c>
@@ -11777,18 +11816,21 @@
       <c r="D325" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E325" s="7" t="s">
+        <v>555</v>
+      </c>
       <c r="K325" s="5">
-        <v>44633.916666666664</v>
+        <v>44633.875</v>
       </c>
       <c r="L325" s="1">
         <f t="shared" si="17"/>
-        <v>1647208800000</v>
+        <v>1647205200000</v>
       </c>
       <c r="M325" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" hidden="1">
       <c r="B326" s="1" t="s">
         <v>248</v>
       </c>
@@ -11796,7 +11838,7 @@
         <v>334.0</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" hidden="1">
       <c r="A327" s="1">
         <v>341.0</v>
       </c>
@@ -11804,13 +11846,13 @@
         <v>235</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D327" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K327" s="5">
         <v>44629.708333333336</v>
@@ -11823,7 +11865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" hidden="1">
       <c r="A328" s="1">
         <v>342.0</v>
       </c>
@@ -11831,13 +11873,13 @@
         <v>235</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D328" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K328" s="5">
         <v>44630.708333333336</v>
@@ -11850,7 +11892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" hidden="1">
       <c r="A329" s="1">
         <v>343.0</v>
       </c>
@@ -11858,13 +11900,13 @@
         <v>235</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D329" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="K329" s="5">
         <v>44631.708333333336</v>
@@ -11877,7 +11919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" hidden="1">
       <c r="A330" s="1">
         <v>344.0</v>
       </c>
@@ -11885,7 +11927,7 @@
         <v>235</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D330" s="1" t="b">
         <v>1</v>
@@ -11904,7 +11946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" hidden="1">
       <c r="A331" s="1">
         <v>345.0</v>
       </c>
@@ -11912,29 +11954,32 @@
         <v>235</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D331" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F331" s="1" t="b">
+      <c r="E331" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G331" s="1" t="b">
         <v>1</v>
       </c>
       <c r="J331" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K331" s="5">
-        <v>44634.0</v>
+        <v>44633.916666666664</v>
       </c>
       <c r="L331" s="1">
         <f t="shared" si="18"/>
-        <v>1647216000000</v>
+        <v>1647208800000</v>
       </c>
       <c r="M331" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" hidden="1">
       <c r="A332" s="1"/>
       <c r="B332" s="1" t="s">
         <v>214</v>
@@ -11948,7 +11993,7 @@
         <v>345.0</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" hidden="1">
       <c r="A333" s="1">
         <v>346.0</v>
       </c>
@@ -11956,10 +12001,10 @@
         <v>161</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="I333" s="1" t="b">
         <v>1</v>
@@ -11975,7 +12020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" hidden="1">
       <c r="A334" s="1">
         <v>347.0</v>
       </c>
@@ -11983,10 +12028,10 @@
         <v>287</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="I334" s="1" t="b">
         <v>1</v>
@@ -12002,7 +12047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" hidden="1">
       <c r="A335" s="1">
         <v>348.0</v>
       </c>
@@ -12010,10 +12055,10 @@
         <v>94</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="I335" s="1" t="b">
         <v>1</v>
@@ -12029,7 +12074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" hidden="1">
       <c r="A336" s="1">
         <v>349.0</v>
       </c>
@@ -12037,10 +12082,10 @@
         <v>56</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="I336" s="1" t="b">
         <v>1</v>
@@ -12056,7 +12101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" hidden="1">
       <c r="A337" s="1">
         <v>350.0</v>
       </c>
@@ -12064,10 +12109,10 @@
         <v>79</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E337" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="I337" s="1" t="b">
         <v>1</v>
@@ -12083,7 +12128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" hidden="1">
       <c r="A338" s="1">
         <v>351.0</v>
       </c>
@@ -12091,10 +12136,10 @@
         <v>304</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="I338" s="1" t="b">
         <v>1</v>
@@ -12110,7 +12155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" hidden="1">
       <c r="A339" s="1">
         <v>352.0</v>
       </c>
@@ -12118,10 +12163,10 @@
         <v>287</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="I339" s="1" t="b">
         <v>1</v>
@@ -12137,7 +12182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" hidden="1">
       <c r="A340" s="27">
         <v>353.0</v>
       </c>
@@ -12145,7 +12190,7 @@
         <v>250</v>
       </c>
       <c r="C340" s="27" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D340" s="28"/>
       <c r="E340" s="29" t="s">
@@ -12196,13 +12241,13 @@
         <v>79</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D341" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="J341" s="1" t="b">
         <v>1</v>
@@ -12274,7 +12319,7 @@
         <v>79</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D344" s="1" t="b">
         <v>1</v>
@@ -12301,7 +12346,7 @@
         <v>79</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D345" s="1" t="b">
         <v>1</v>
@@ -12325,7 +12370,7 @@
         <v>79</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D346" s="1" t="b">
         <v>1</v>
@@ -12349,7 +12394,7 @@
         <v>319</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="D347" s="1" t="b">
         <v>1</v>
@@ -12376,7 +12421,7 @@
         <v>319</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D348" s="1" t="b">
         <v>1</v>
@@ -12400,7 +12445,7 @@
         <v>319</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D349" s="1" t="b">
         <v>1</v>
@@ -12424,7 +12469,7 @@
         <v>319</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D350" s="1" t="b">
         <v>1</v>
@@ -12451,7 +12496,7 @@
         <v>319</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D351" s="1" t="b">
         <v>1</v>
@@ -12475,7 +12520,7 @@
         <v>319</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D352" s="1" t="b">
         <v>1</v>
@@ -12499,7 +12544,7 @@
         <v>319</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D353" s="1" t="b">
         <v>1</v>
@@ -12529,7 +12574,7 @@
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K354" s="5">
         <v>44633.833333333336</v>
@@ -12550,13 +12595,13 @@
         <v>304</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D355" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K355" s="5">
         <v>44634.041666666664</v>
@@ -12577,7 +12622,7 @@
         <v>304</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D356" s="1" t="b">
         <v>1</v>
@@ -12601,7 +12646,7 @@
         <v>304</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D357" s="1" t="b">
         <v>1</v>
@@ -12649,7 +12694,7 @@
         <v>304</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D359" s="1" t="b">
         <v>1</v>
@@ -12673,7 +12718,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D360" s="1" t="b">
         <v>1</v>
@@ -12699,7 +12744,7 @@
     </row>
     <row r="362">
       <c r="B362" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M362" s="1">
         <v>374.0</v>
@@ -12721,13 +12766,13 @@
         <v>158</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D364" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E364" s="32" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F364" s="33"/>
       <c r="G364" s="33"/>
@@ -12755,13 +12800,13 @@
         <v>158</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D365" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="K365" s="34">
         <v>44634.083333333336</v>
@@ -12782,7 +12827,7 @@
         <v>158</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D366" s="31" t="b">
         <v>1</v>
@@ -12806,7 +12851,7 @@
         <v>158</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D367" s="31" t="b">
         <v>1</v>
@@ -12854,7 +12899,7 @@
         <v>158</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D369" s="31" t="b">
         <v>1</v>
@@ -12878,7 +12923,7 @@
         <v>158</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="D370" s="31" t="b">
         <v>1</v>
@@ -12926,7 +12971,7 @@
         <v>158</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D372" s="31" t="b">
         <v>1</v>
@@ -12952,7 +12997,7 @@
     </row>
     <row r="374">
       <c r="B374" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M374" s="1">
         <v>378.0</v>
@@ -12968,7 +13013,7 @@
     </row>
     <row r="376">
       <c r="B376" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M376" s="1">
         <v>381.0</v>
@@ -12984,7 +13029,7 @@
     </row>
     <row r="378">
       <c r="B378" s="1" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="M378" s="1">
         <v>378.0</v>
@@ -12998,13 +13043,13 @@
         <v>147</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D379" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="K379" s="34">
         <v>44633.833333333336</v>
@@ -13025,13 +13070,13 @@
         <v>147</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D380" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K380" s="34">
         <v>44634.125</v>
@@ -13052,7 +13097,7 @@
         <v>147</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="D381" s="31" t="b">
         <v>1</v>
@@ -13076,7 +13121,7 @@
         <v>147</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D382" s="31" t="b">
         <v>1</v>
@@ -13100,7 +13145,7 @@
         <v>147</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D383" s="31" t="b">
         <v>1</v>
@@ -13124,7 +13169,7 @@
         <v>147</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D384" s="31" t="b">
         <v>1</v>
@@ -13148,7 +13193,7 @@
         <v>147</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D385" s="31" t="b">
         <v>1</v>
@@ -13172,7 +13217,7 @@
         <v>147</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D386" s="31" t="b">
         <v>1</v>
@@ -13196,7 +13241,7 @@
         <v>147</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D387" s="31" t="b">
         <v>1</v>
@@ -13220,7 +13265,7 @@
         <v>147</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D388" s="31" t="b">
         <v>1</v>
@@ -13277,7 +13322,7 @@
         <v>44634.833333333336</v>
       </c>
       <c r="L392" s="31">
-        <f t="shared" ref="L392:L407" si="22">(K392-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L392:L421" si="22">(K392-Date(1970,1,1))*86400*1000</f>
         <v>1647288000000</v>
       </c>
       <c r="M392" s="31" t="s">
@@ -13292,7 +13337,7 @@
         <v>183</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="D393" s="31" t="b">
         <v>1</v>
@@ -13316,7 +13361,7 @@
         <v>183</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="D394" s="31" t="b">
         <v>1</v>
@@ -13340,7 +13385,7 @@
         <v>183</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D395" s="31" t="b">
         <v>1</v>
@@ -13364,7 +13409,7 @@
         <v>183</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D396" s="31" t="b">
         <v>1</v>
@@ -13388,7 +13433,7 @@
         <v>183</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D397" s="31" t="b">
         <v>1</v>
@@ -13412,12 +13457,12 @@
         <v>287</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D398" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="F398" s="1" t="b">
+      <c r="H398" s="31" t="b">
         <v>1</v>
       </c>
       <c r="J398" s="31" t="b">
@@ -13435,27 +13480,27 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="1">
-        <v>401.0</v>
-      </c>
+      <c r="A399" s="1"/>
       <c r="B399" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D399" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J399" s="31" t="b">
-        <v>1</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="D399" s="31"/>
+      <c r="E399" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="I399" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" s="31"/>
       <c r="K399" s="34">
-        <v>44634.041666666664</v>
+        <v>44633.916666666664</v>
       </c>
       <c r="L399" s="31">
         <f t="shared" si="22"/>
-        <v>1647219600000</v>
+        <v>1647208800000</v>
       </c>
       <c r="M399" s="31" t="s">
         <v>16</v>
@@ -13463,23 +13508,26 @@
     </row>
     <row r="400">
       <c r="A400" s="1">
-        <v>402.0</v>
+        <v>401.0</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="D400" s="31" t="b">
         <v>1</v>
       </c>
+      <c r="J400" s="31" t="b">
+        <v>1</v>
+      </c>
       <c r="K400" s="34">
-        <v>44634.541666666664</v>
+        <v>44634.041666666664</v>
       </c>
       <c r="L400" s="31">
         <f t="shared" si="22"/>
-        <v>1647262800000</v>
+        <v>1647219600000</v>
       </c>
       <c r="M400" s="31" t="s">
         <v>16</v>
@@ -13487,23 +13535,23 @@
     </row>
     <row r="401">
       <c r="A401" s="1">
-        <v>403.0</v>
+        <v>402.0</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="D401" s="31" t="b">
         <v>1</v>
       </c>
       <c r="K401" s="34">
-        <v>44635.041666666664</v>
+        <v>44634.541666666664</v>
       </c>
       <c r="L401" s="31">
         <f t="shared" si="22"/>
-        <v>1647306000000</v>
+        <v>1647262800000</v>
       </c>
       <c r="M401" s="31" t="s">
         <v>16</v>
@@ -13511,23 +13559,23 @@
     </row>
     <row r="402">
       <c r="A402" s="1">
-        <v>404.0</v>
+        <v>403.0</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="D402" s="31" t="b">
         <v>1</v>
       </c>
       <c r="K402" s="34">
-        <v>44636.125</v>
+        <v>44635.041666666664</v>
       </c>
       <c r="L402" s="31">
         <f t="shared" si="22"/>
-        <v>1647399600000</v>
+        <v>1647306000000</v>
       </c>
       <c r="M402" s="31" t="s">
         <v>16</v>
@@ -13535,26 +13583,23 @@
     </row>
     <row r="403">
       <c r="A403" s="1">
-        <v>405.0</v>
+        <v>404.0</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="D403" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="J403" s="31" t="b">
-        <v>1</v>
-      </c>
       <c r="K403" s="34">
-        <v>44637.083333333336</v>
+        <v>44636.125</v>
       </c>
       <c r="L403" s="31">
         <f t="shared" si="22"/>
-        <v>1647482400000</v>
+        <v>1647399600000</v>
       </c>
       <c r="M403" s="31" t="s">
         <v>16</v>
@@ -13562,23 +13607,26 @@
     </row>
     <row r="404">
       <c r="A404" s="1">
-        <v>406.0</v>
+        <v>405.0</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="D404" s="31" t="b">
         <v>1</v>
       </c>
+      <c r="J404" s="31" t="b">
+        <v>1</v>
+      </c>
       <c r="K404" s="34">
-        <v>44637.583333333336</v>
+        <v>44637.083333333336</v>
       </c>
       <c r="L404" s="31">
         <f t="shared" si="22"/>
-        <v>1647525600000</v>
+        <v>1647482400000</v>
       </c>
       <c r="M404" s="31" t="s">
         <v>16</v>
@@ -13586,23 +13634,23 @@
     </row>
     <row r="405">
       <c r="A405" s="1">
-        <v>407.0</v>
+        <v>406.0</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>292</v>
+        <v>635</v>
       </c>
       <c r="D405" s="31" t="b">
         <v>1</v>
       </c>
       <c r="K405" s="34">
-        <v>44638.125</v>
+        <v>44637.583333333336</v>
       </c>
       <c r="L405" s="31">
         <f t="shared" si="22"/>
-        <v>1647572400000</v>
+        <v>1647525600000</v>
       </c>
       <c r="M405" s="31" t="s">
         <v>16</v>
@@ -13610,23 +13658,23 @@
     </row>
     <row r="406">
       <c r="A406" s="1">
-        <v>408.0</v>
+        <v>407.0</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>632</v>
+        <v>292</v>
       </c>
       <c r="D406" s="31" t="b">
         <v>1</v>
       </c>
       <c r="K406" s="34">
-        <v>44639.083333333336</v>
+        <v>44638.125</v>
       </c>
       <c r="L406" s="31">
         <f t="shared" si="22"/>
-        <v>1647655200000</v>
+        <v>1647572400000</v>
       </c>
       <c r="M406" s="31" t="s">
         <v>16</v>
@@ -13634,28 +13682,367 @@
     </row>
     <row r="407">
       <c r="A407" s="1">
-        <v>409.0</v>
+        <v>408.0</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>287</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D407" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="J407" s="31" t="b">
-        <v>1</v>
-      </c>
       <c r="K407" s="34">
-        <v>44639.958333333336</v>
+        <v>44639.083333333336</v>
       </c>
       <c r="L407" s="31">
         <f t="shared" si="22"/>
+        <v>1647655200000</v>
+      </c>
+      <c r="M407" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1">
+        <v>409.0</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D408" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J408" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K408" s="34">
+        <v>44639.958333333336</v>
+      </c>
+      <c r="L408" s="31">
+        <f t="shared" si="22"/>
         <v>1647730800000</v>
       </c>
-      <c r="M407" s="31" t="s">
+      <c r="M408" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1">
+        <v>410.0</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D409" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K409" s="34">
+        <v>44634.208333333336</v>
+      </c>
+      <c r="L409" s="31">
+        <f t="shared" si="22"/>
+        <v>1647234000000</v>
+      </c>
+      <c r="M409" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1">
+        <v>411.0</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D410" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K410" s="34">
+        <v>44635.25</v>
+      </c>
+      <c r="L410" s="31">
+        <f t="shared" si="22"/>
+        <v>1647324000000</v>
+      </c>
+      <c r="M410" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1">
+        <v>412.0</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D411" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K411" s="34">
+        <v>44636.208333333336</v>
+      </c>
+      <c r="L411" s="31">
+        <f t="shared" si="22"/>
+        <v>1647406800000</v>
+      </c>
+      <c r="M411" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1">
+        <v>413.0</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D412" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K412" s="34">
+        <v>44637.291666666664</v>
+      </c>
+      <c r="L412" s="31">
+        <f t="shared" si="22"/>
+        <v>1647500400000</v>
+      </c>
+      <c r="M412" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>414.0</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D413" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K413" s="34">
+        <v>44638.208333333336</v>
+      </c>
+      <c r="L413" s="31">
+        <f t="shared" si="22"/>
+        <v>1647579600000</v>
+      </c>
+      <c r="M413" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1">
+        <v>415.0</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D414" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K414" s="34">
+        <v>44639.25</v>
+      </c>
+      <c r="L414" s="31">
+        <f t="shared" si="22"/>
+        <v>1647669600000</v>
+      </c>
+      <c r="M414" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>416.0</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D415" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K415" s="34">
+        <v>44640.25</v>
+      </c>
+      <c r="L415" s="31">
+        <f t="shared" si="22"/>
+        <v>1647756000000</v>
+      </c>
+      <c r="M415" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>417.0</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D416" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K416" s="34">
+        <v>44634.458333333336</v>
+      </c>
+      <c r="L416" s="31">
+        <f t="shared" si="22"/>
+        <v>1647255600000</v>
+      </c>
+      <c r="M416" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1">
+        <v>418.0</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D417" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J417" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K417" s="34">
+        <v>44635.125</v>
+      </c>
+      <c r="L417" s="31">
+        <f t="shared" si="22"/>
+        <v>1647313200000</v>
+      </c>
+      <c r="M417" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1">
+        <v>419.0</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D418" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K418" s="34">
+        <v>44635.75</v>
+      </c>
+      <c r="L418" s="31">
+        <f t="shared" si="22"/>
+        <v>1647367200000</v>
+      </c>
+      <c r="M418" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1">
+        <v>420.0</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D419" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K419" s="34">
+        <v>44636.5</v>
+      </c>
+      <c r="L419" s="31">
+        <f t="shared" si="22"/>
+        <v>1647432000000</v>
+      </c>
+      <c r="M419" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1">
+        <v>421.0</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D420" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K420" s="34">
+        <v>44638.875</v>
+      </c>
+      <c r="L420" s="31">
+        <f t="shared" si="22"/>
+        <v>1647637200000</v>
+      </c>
+      <c r="M420" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1">
+        <v>422.0</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D421" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K421" s="34">
+        <v>44639.5625</v>
+      </c>
+      <c r="L421" s="31">
+        <f t="shared" si="22"/>
+        <v>1647696600000</v>
+      </c>
+      <c r="M421" s="31" t="s">
         <v>16</v>
       </c>
     </row>
@@ -13917,25 +14304,28 @@
     <hyperlink r:id="rId254" ref="E322"/>
     <hyperlink r:id="rId255" ref="E323"/>
     <hyperlink r:id="rId256" ref="E324"/>
-    <hyperlink r:id="rId257" ref="E327"/>
-    <hyperlink r:id="rId258" ref="E328"/>
-    <hyperlink r:id="rId259" ref="E329"/>
-    <hyperlink r:id="rId260" ref="E333"/>
-    <hyperlink r:id="rId261" ref="E334"/>
-    <hyperlink r:id="rId262" ref="E335"/>
-    <hyperlink r:id="rId263" ref="E336"/>
-    <hyperlink r:id="rId264" ref="E337"/>
-    <hyperlink r:id="rId265" ref="E338"/>
-    <hyperlink r:id="rId266" ref="E339"/>
-    <hyperlink r:id="rId267" ref="E340"/>
-    <hyperlink r:id="rId268" ref="E341"/>
-    <hyperlink r:id="rId269" ref="E354"/>
-    <hyperlink r:id="rId270" ref="E355"/>
-    <hyperlink r:id="rId271" ref="E364"/>
-    <hyperlink r:id="rId272" ref="E365"/>
-    <hyperlink r:id="rId273" ref="E379"/>
-    <hyperlink r:id="rId274" ref="E380"/>
+    <hyperlink r:id="rId257" ref="E325"/>
+    <hyperlink r:id="rId258" ref="E327"/>
+    <hyperlink r:id="rId259" ref="E328"/>
+    <hyperlink r:id="rId260" ref="E329"/>
+    <hyperlink r:id="rId261" ref="E331"/>
+    <hyperlink r:id="rId262" ref="E333"/>
+    <hyperlink r:id="rId263" ref="E334"/>
+    <hyperlink r:id="rId264" ref="E335"/>
+    <hyperlink r:id="rId265" ref="E336"/>
+    <hyperlink r:id="rId266" ref="E337"/>
+    <hyperlink r:id="rId267" ref="E338"/>
+    <hyperlink r:id="rId268" ref="E339"/>
+    <hyperlink r:id="rId269" ref="E340"/>
+    <hyperlink r:id="rId270" ref="E341"/>
+    <hyperlink r:id="rId271" ref="E354"/>
+    <hyperlink r:id="rId272" ref="E355"/>
+    <hyperlink r:id="rId273" ref="E364"/>
+    <hyperlink r:id="rId274" ref="E365"/>
+    <hyperlink r:id="rId275" ref="E379"/>
+    <hyperlink r:id="rId276" ref="E380"/>
+    <hyperlink r:id="rId277" ref="E399"/>
   </hyperlinks>
-  <drawing r:id="rId275"/>
+  <drawing r:id="rId278"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="651">
   <si>
     <t>id</t>
   </si>
@@ -1771,6 +1771,9 @@
     <t>Golf With Friends w/ Niji EN</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=FA1p5m0Eh8I</t>
+  </si>
+  <si>
     <t>Cyberpunk 2077 - Cybroke</t>
   </si>
   <si>
@@ -1930,6 +1933,9 @@
     <t>TITANFALL 2</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=31HJImwqskA</t>
+  </si>
+  <si>
     <t>SUPERLIMINAL</t>
   </si>
   <si>
@@ -1952,6 +1958,12 @@
   </si>
   <si>
     <t>THE WITNESS</t>
+  </si>
+  <si>
+    <t>GOL (NijiEN Golf Collab)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kyg-Vk9kH2U</t>
   </si>
 </sst>
 </file>
@@ -12399,6 +12411,9 @@
       <c r="D347" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="E347" s="7" t="s">
+        <v>586</v>
+      </c>
       <c r="J347" s="1" t="b">
         <v>1</v>
       </c>
@@ -12421,7 +12436,7 @@
         <v>319</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D348" s="1" t="b">
         <v>1</v>
@@ -12445,7 +12460,7 @@
         <v>319</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D349" s="1" t="b">
         <v>1</v>
@@ -12469,7 +12484,7 @@
         <v>319</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D350" s="1" t="b">
         <v>1</v>
@@ -12496,7 +12511,7 @@
         <v>319</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D351" s="1" t="b">
         <v>1</v>
@@ -12520,7 +12535,7 @@
         <v>319</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D352" s="1" t="b">
         <v>1</v>
@@ -12544,7 +12559,7 @@
         <v>319</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D353" s="1" t="b">
         <v>1</v>
@@ -12574,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K354" s="5">
         <v>44633.833333333336</v>
@@ -12595,13 +12610,13 @@
         <v>304</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D355" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K355" s="5">
         <v>44634.041666666664</v>
@@ -12622,7 +12637,7 @@
         <v>304</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D356" s="1" t="b">
         <v>1</v>
@@ -12646,7 +12661,7 @@
         <v>304</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D357" s="1" t="b">
         <v>1</v>
@@ -12694,7 +12709,7 @@
         <v>304</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D359" s="1" t="b">
         <v>1</v>
@@ -12718,7 +12733,7 @@
         <v>304</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D360" s="1" t="b">
         <v>1</v>
@@ -12744,7 +12759,7 @@
     </row>
     <row r="362">
       <c r="B362" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="M362" s="1">
         <v>374.0</v>
@@ -12766,13 +12781,13 @@
         <v>158</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D364" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E364" s="32" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F364" s="33"/>
       <c r="G364" s="33"/>
@@ -12800,13 +12815,13 @@
         <v>158</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D365" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="K365" s="34">
         <v>44634.083333333336</v>
@@ -12827,7 +12842,7 @@
         <v>158</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D366" s="31" t="b">
         <v>1</v>
@@ -12851,7 +12866,7 @@
         <v>158</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D367" s="31" t="b">
         <v>1</v>
@@ -12899,7 +12914,7 @@
         <v>158</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D369" s="31" t="b">
         <v>1</v>
@@ -12923,7 +12938,7 @@
         <v>158</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D370" s="31" t="b">
         <v>1</v>
@@ -12971,7 +12986,7 @@
         <v>158</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D372" s="31" t="b">
         <v>1</v>
@@ -12997,7 +13012,7 @@
     </row>
     <row r="374">
       <c r="B374" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M374" s="1">
         <v>378.0</v>
@@ -13013,7 +13028,7 @@
     </row>
     <row r="376">
       <c r="B376" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M376" s="1">
         <v>381.0</v>
@@ -13043,13 +13058,13 @@
         <v>147</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D379" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K379" s="34">
         <v>44633.833333333336</v>
@@ -13070,13 +13085,13 @@
         <v>147</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D380" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K380" s="34">
         <v>44634.125</v>
@@ -13097,7 +13112,7 @@
         <v>147</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D381" s="31" t="b">
         <v>1</v>
@@ -13121,7 +13136,7 @@
         <v>147</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D382" s="31" t="b">
         <v>1</v>
@@ -13145,7 +13160,7 @@
         <v>147</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D383" s="31" t="b">
         <v>1</v>
@@ -13169,7 +13184,7 @@
         <v>147</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D384" s="31" t="b">
         <v>1</v>
@@ -13193,7 +13208,7 @@
         <v>147</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D385" s="31" t="b">
         <v>1</v>
@@ -13217,7 +13232,7 @@
         <v>147</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D386" s="31" t="b">
         <v>1</v>
@@ -13241,7 +13256,7 @@
         <v>147</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D387" s="31" t="b">
         <v>1</v>
@@ -13265,7 +13280,7 @@
         <v>147</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D388" s="31" t="b">
         <v>1</v>
@@ -13322,7 +13337,7 @@
         <v>44634.833333333336</v>
       </c>
       <c r="L392" s="31">
-        <f t="shared" ref="L392:L421" si="22">(K392-Date(1970,1,1))*86400*1000</f>
+        <f t="shared" ref="L392:L422" si="22">(K392-Date(1970,1,1))*86400*1000</f>
         <v>1647288000000</v>
       </c>
       <c r="M392" s="31" t="s">
@@ -13337,7 +13352,7 @@
         <v>183</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D393" s="31" t="b">
         <v>1</v>
@@ -13361,7 +13376,7 @@
         <v>183</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D394" s="31" t="b">
         <v>1</v>
@@ -13385,7 +13400,7 @@
         <v>183</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D395" s="31" t="b">
         <v>1</v>
@@ -13409,7 +13424,7 @@
         <v>183</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D396" s="31" t="b">
         <v>1</v>
@@ -13433,7 +13448,7 @@
         <v>183</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D397" s="31" t="b">
         <v>1</v>
@@ -13457,7 +13472,7 @@
         <v>287</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D398" s="31" t="b">
         <v>1</v>
@@ -13485,11 +13500,11 @@
         <v>287</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D399" s="31"/>
       <c r="E399" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="I399" s="31" t="b">
         <v>1</v>
@@ -13514,7 +13529,7 @@
         <v>287</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D400" s="31" t="b">
         <v>1</v>
@@ -13541,7 +13556,7 @@
         <v>287</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D401" s="31" t="b">
         <v>1</v>
@@ -13565,7 +13580,7 @@
         <v>287</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D402" s="31" t="b">
         <v>1</v>
@@ -13589,7 +13604,7 @@
         <v>287</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D403" s="31" t="b">
         <v>1</v>
@@ -13613,7 +13628,7 @@
         <v>287</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D404" s="31" t="b">
         <v>1</v>
@@ -13640,7 +13655,7 @@
         <v>287</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D405" s="31" t="b">
         <v>1</v>
@@ -13688,7 +13703,7 @@
         <v>287</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D407" s="31" t="b">
         <v>1</v>
@@ -13712,7 +13727,7 @@
         <v>287</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D408" s="31" t="b">
         <v>1</v>
@@ -13739,10 +13754,13 @@
         <v>94</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D409" s="31" t="b">
         <v>1</v>
+      </c>
+      <c r="E409" s="7" t="s">
+        <v>640</v>
       </c>
       <c r="K409" s="34">
         <v>44634.208333333336</v>
@@ -13763,7 +13781,7 @@
         <v>94</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D410" s="31" t="b">
         <v>1</v>
@@ -13835,7 +13853,7 @@
         <v>94</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D413" s="31" t="b">
         <v>1</v>
@@ -13883,7 +13901,7 @@
         <v>94</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D415" s="31" t="b">
         <v>1</v>
@@ -13907,7 +13925,7 @@
         <v>29</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D416" s="31" t="b">
         <v>1</v>
@@ -13931,7 +13949,7 @@
         <v>29</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D417" s="31" t="b">
         <v>1</v>
@@ -13982,7 +14000,7 @@
         <v>29</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D419" s="31" t="b">
         <v>1</v>
@@ -14006,7 +14024,7 @@
         <v>29</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D420" s="31" t="b">
         <v>1</v>
@@ -14030,7 +14048,7 @@
         <v>29</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D421" s="31" t="b">
         <v>1</v>
@@ -14044,6 +14062,52 @@
       </c>
       <c r="M421" s="31" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1">
+        <v>423.0</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E422" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="I422" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J422" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K422" s="34">
+        <v>44634.041666666664</v>
+      </c>
+      <c r="L422" s="31">
+        <f t="shared" si="22"/>
+        <v>1647219600000</v>
+      </c>
+      <c r="M422" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="B423" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M423" s="1">
+        <v>355.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="B424" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="M424" s="1">
+        <v>355.0</v>
       </c>
     </row>
   </sheetData>
@@ -14318,14 +14382,17 @@
     <hyperlink r:id="rId268" ref="E339"/>
     <hyperlink r:id="rId269" ref="E340"/>
     <hyperlink r:id="rId270" ref="E341"/>
-    <hyperlink r:id="rId271" ref="E354"/>
-    <hyperlink r:id="rId272" ref="E355"/>
-    <hyperlink r:id="rId273" ref="E364"/>
-    <hyperlink r:id="rId274" ref="E365"/>
-    <hyperlink r:id="rId275" ref="E379"/>
-    <hyperlink r:id="rId276" ref="E380"/>
-    <hyperlink r:id="rId277" ref="E399"/>
+    <hyperlink r:id="rId271" ref="E347"/>
+    <hyperlink r:id="rId272" ref="E354"/>
+    <hyperlink r:id="rId273" ref="E355"/>
+    <hyperlink r:id="rId274" ref="E364"/>
+    <hyperlink r:id="rId275" ref="E365"/>
+    <hyperlink r:id="rId276" ref="E379"/>
+    <hyperlink r:id="rId277" ref="E380"/>
+    <hyperlink r:id="rId278" ref="E399"/>
+    <hyperlink r:id="rId279" ref="E409"/>
+    <hyperlink r:id="rId280" ref="E422"/>
   </hyperlinks>
-  <drawing r:id="rId278"/>
+  <drawing r:id="rId281"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="668">
   <si>
     <t>id</t>
   </si>
@@ -1948,6 +1948,9 @@
     <t>"FREE CHAT" :)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=m2ocO_dcQxk</t>
+  </si>
+  <si>
     <t>DECEIT COLLAB</t>
   </si>
   <si>
@@ -1964,6 +1967,54 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kyg-Vk9kH2U</t>
+  </si>
+  <si>
+    <t>ASUMAR??</t>
+  </si>
+  <si>
+    <t>NIJIMINECRAFT</t>
+  </si>
+  <si>
+    <t>KARAOKE??</t>
+  </si>
+  <si>
+    <t>YOUR TURN TO DIE</t>
+  </si>
+  <si>
+    <t>BEHIND THE FRAME</t>
+  </si>
+  <si>
+    <t>WHITE DAY DATE ASMR</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rMYn8B11WO0</t>
+  </si>
+  <si>
+    <t>ENDURANCE ZATSUSCAPE</t>
+  </si>
+  <si>
+    <t>WINE TASTING ASMR</t>
+  </si>
+  <si>
+    <t>NIMECRAFT w/ NIJI EN</t>
+  </si>
+  <si>
+    <t>HADES</t>
+  </si>
+  <si>
+    <t>ULTIMATE CUSTOM NIGHT</t>
+  </si>
+  <si>
+    <t>IT TAKES TWO w/ SHOTO</t>
+  </si>
+  <si>
+    <t>MALDING ELITE SMASH ASMR</t>
+  </si>
+  <si>
+    <t>【VR WHITE DAY】LONELY LADY, SHALL ME DANCE</t>
+  </si>
+  <si>
+    <t>https://t.co/hLJ3dpTJxi</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +2029,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2026,6 +2077,7 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font/>
   </fonts>
   <fills count="4">
     <fill>
@@ -2063,7 +2115,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2162,6 +2214,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13930,7 +13988,10 @@
       <c r="D416" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K416" s="34">
+      <c r="E416" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="K416" s="35">
         <v>44634.458333333336</v>
       </c>
       <c r="L416" s="31">
@@ -13949,7 +14010,7 @@
         <v>29</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D417" s="31" t="b">
         <v>1</v>
@@ -13957,7 +14018,7 @@
       <c r="J417" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K417" s="34">
+      <c r="K417" s="35">
         <v>44635.125</v>
       </c>
       <c r="L417" s="31">
@@ -13981,7 +14042,7 @@
       <c r="D418" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K418" s="34">
+      <c r="K418" s="35">
         <v>44635.75</v>
       </c>
       <c r="L418" s="31">
@@ -14000,12 +14061,12 @@
         <v>29</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D419" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K419" s="34">
+      <c r="K419" s="35">
         <v>44636.5</v>
       </c>
       <c r="L419" s="31">
@@ -14024,12 +14085,12 @@
         <v>29</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D420" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K420" s="34">
+      <c r="K420" s="35">
         <v>44638.875</v>
       </c>
       <c r="L420" s="31">
@@ -14048,12 +14109,12 @@
         <v>29</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D421" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="K421" s="34">
+      <c r="K421" s="35">
         <v>44639.5625</v>
       </c>
       <c r="L421" s="31">
@@ -14072,10 +14133,10 @@
         <v>67</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I422" s="31" t="b">
         <v>1</v>
@@ -14108,6 +14169,402 @@
       </c>
       <c r="M424" s="1">
         <v>355.0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1">
+        <v>424.0</v>
+      </c>
+      <c r="B425" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D425" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K425" s="35">
+        <v>44634.5</v>
+      </c>
+      <c r="L425" s="31">
+        <f t="shared" ref="L425:L440" si="23">(K425-Date(1970,1,1))*86400*1000</f>
+        <v>1647259200000</v>
+      </c>
+      <c r="M425" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1">
+        <v>425.0</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D426" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K426" s="35">
+        <v>44635.458333333336</v>
+      </c>
+      <c r="L426" s="31">
+        <f t="shared" si="23"/>
+        <v>1647342000000</v>
+      </c>
+      <c r="M426" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1">
+        <v>426.0</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D427" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K427" s="35">
+        <v>44636.5</v>
+      </c>
+      <c r="L427" s="31">
+        <f t="shared" si="23"/>
+        <v>1647432000000</v>
+      </c>
+      <c r="M427" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1">
+        <v>427.0</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D428" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K428" s="35">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L428" s="31">
+        <f t="shared" si="23"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M428" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1">
+        <v>428.0</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C429" s="36" t="s">
+        <v>654</v>
+      </c>
+      <c r="D429" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K429" s="35">
+        <v>44637.5</v>
+      </c>
+      <c r="L429" s="31">
+        <f t="shared" si="23"/>
+        <v>1647518400000</v>
+      </c>
+      <c r="M429" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1">
+        <v>429.0</v>
+      </c>
+      <c r="B430" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C430" s="36" t="s">
+        <v>655</v>
+      </c>
+      <c r="D430" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K430" s="35">
+        <v>44639.5</v>
+      </c>
+      <c r="L430" s="31">
+        <f t="shared" si="23"/>
+        <v>1647691200000</v>
+      </c>
+      <c r="M430" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1">
+        <v>430.0</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D431" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K431" s="35">
+        <v>44640.5</v>
+      </c>
+      <c r="L431" s="31">
+        <f t="shared" si="23"/>
+        <v>1647777600000</v>
+      </c>
+      <c r="M431" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1">
+        <v>431.0</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D432" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E432" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="K432" s="35">
+        <v>44634.541666666664</v>
+      </c>
+      <c r="L432" s="31">
+        <f t="shared" si="23"/>
+        <v>1647262800000</v>
+      </c>
+      <c r="M432" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1">
+        <v>432.0</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D433" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K433" s="35">
+        <v>44635.875</v>
+      </c>
+      <c r="L433" s="31">
+        <f t="shared" si="23"/>
+        <v>1647378000000</v>
+      </c>
+      <c r="M433" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1">
+        <v>433.0</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="D434" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K434" s="35">
+        <v>44636.541666666664</v>
+      </c>
+      <c r="L434" s="31">
+        <f t="shared" si="23"/>
+        <v>1647435600000</v>
+      </c>
+      <c r="M434" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1">
+        <v>434.0</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D435" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K435" s="35">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L435" s="31">
+        <f t="shared" si="23"/>
+        <v>1647450000000</v>
+      </c>
+      <c r="M435" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1">
+        <v>435.0</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D436" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K436" s="35">
+        <v>44637.541666666664</v>
+      </c>
+      <c r="L436" s="31">
+        <f t="shared" si="23"/>
+        <v>1647522000000</v>
+      </c>
+      <c r="M436" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1">
+        <v>436.0</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D437" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K437" s="35">
+        <v>44638.583333333336</v>
+      </c>
+      <c r="L437" s="31">
+        <f t="shared" si="23"/>
+        <v>1647612000000</v>
+      </c>
+      <c r="M437" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1">
+        <v>437.0</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D438" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K438" s="35">
+        <v>44639.583333333336</v>
+      </c>
+      <c r="L438" s="31">
+        <f t="shared" si="23"/>
+        <v>1647698400000</v>
+      </c>
+      <c r="M438" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1">
+        <v>438.0</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D439" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K439" s="35">
+        <v>44640.541666666664</v>
+      </c>
+      <c r="L439" s="31">
+        <f t="shared" si="23"/>
+        <v>1647781200000</v>
+      </c>
+      <c r="M439" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1">
+        <v>439.0</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="E440" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="I440" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K440" s="5">
+        <v>44634.166666666664</v>
+      </c>
+      <c r="L440" s="31">
+        <f t="shared" si="23"/>
+        <v>1647230400000</v>
+      </c>
+      <c r="M440" s="31" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -14391,8 +14848,11 @@
     <hyperlink r:id="rId277" ref="E380"/>
     <hyperlink r:id="rId278" ref="E399"/>
     <hyperlink r:id="rId279" ref="E409"/>
-    <hyperlink r:id="rId280" ref="E422"/>
+    <hyperlink r:id="rId280" ref="E416"/>
+    <hyperlink r:id="rId281" ref="E422"/>
+    <hyperlink r:id="rId282" ref="E432"/>
+    <hyperlink r:id="rId283" ref="E440"/>
   </hyperlinks>
-  <drawing r:id="rId281"/>
+  <drawing r:id="rId284"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="722">
   <si>
     <t>id</t>
   </si>
@@ -1819,6 +1819,9 @@
     <t>FinanaX</t>
   </si>
   <si>
+    <t>ShuX</t>
+  </si>
+  <si>
     <t>【PROPNIGHT】prop deez (日本語)</t>
   </si>
   <si>
@@ -1834,9 +1837,15 @@
     <t>LOVE ADVICE SESSION</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=c9QubMb4pXo</t>
+  </si>
+  <si>
     <t>DECEIT w/ Lain Petra Elira Shu (日本語)</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rBO1TWlRQOA</t>
+  </si>
+  <si>
     <t>MEMBERS ONLY Dead by Daylight</t>
   </si>
   <si>
@@ -1864,6 +1873,9 @@
     <t>FTL: FASTER THAN LIGHT FIRST TIME</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=l6Ad_Dp_f6s</t>
+  </si>
+  <si>
     <t>DECEIT NIJISANJI COLLAB</t>
   </si>
   <si>
@@ -1885,6 +1897,9 @@
     <t>OFF COLLAB w/ Millie &amp; Enna</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=MWq_cMj1KEw</t>
+  </si>
+  <si>
     <t>YU-GI-OH! MASTER DUEL (ROAD TO PLATINUM)</t>
   </si>
   <si>
@@ -1921,6 +1936,9 @@
     <t>Triangle Strategy</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=gyusANwaRYA</t>
+  </si>
+  <si>
     <t>Ace Attorney Case 5</t>
   </si>
   <si>
@@ -1945,6 +1963,9 @@
     <t>SUPERLIMINAL</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=rP77zUHlR1M</t>
+  </si>
+  <si>
     <t>SUPERHOT</t>
   </si>
   <si>
@@ -1960,6 +1981,9 @@
     <t>DECEIT COLLAB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=hKNxMhoPJyk</t>
+  </si>
+  <si>
     <t>LITTLE NIGHTMARES PLAYING THE DLC</t>
   </si>
   <si>
@@ -1975,6 +1999,9 @@
     <t>https://www.youtube.com/watch?v=kyg-Vk9kH2U</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=uwIn9T6NxyY</t>
+  </si>
+  <si>
     <t>ASUMAR??</t>
   </si>
   <si>
@@ -2029,6 +2056,9 @@
     <t>DECEIT W/ REIMU, ELIRA, SHU, IKE, LAIN</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=JQhjCH9jAH4</t>
+  </si>
+  <si>
     <t>TWISTED WONDERLAND</t>
   </si>
   <si>
@@ -2075,6 +2105,78 @@
   </si>
   <si>
     <t>PROPNIGHT W/ NINA, SELEN, MYSTA, PROFF</t>
+  </si>
+  <si>
+    <t>APEX w/ Merryweather</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v70OOqFSC9A</t>
+  </si>
+  <si>
+    <t>Doulingo [JP]</t>
+  </si>
+  <si>
+    <t>Fan Fiction [#Mystarias]</t>
+  </si>
+  <si>
+    <t>KARAOKE [300K]</t>
+  </si>
+  <si>
+    <t>Propnight [Oliver, Mika, Selen, Nina]</t>
+  </si>
+  <si>
+    <t>Supa Reading</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-tbN3HnHSJs</t>
+  </si>
+  <si>
+    <t>Deceit Collab!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zNRGCOnV5ts</t>
+  </si>
+  <si>
+    <t>NijiEN Minecraft Server Grand Opening!</t>
+  </si>
+  <si>
+    <t>VR Chat Collab ft. NijiEN</t>
+  </si>
+  <si>
+    <t>Project Zomboid ft. Nina, Alban, Finana</t>
+  </si>
+  <si>
+    <t>Mario Kart 8 Deluxe with viewers</t>
+  </si>
+  <si>
+    <t>DEMON's SOULS ON TWITCH</t>
+  </si>
+  <si>
+    <t>https://www.twitch.tv/selentatsuki</t>
+  </si>
+  <si>
+    <t>APEX SOLO RANK PLAT TO DIAMOND?</t>
+  </si>
+  <si>
+    <t>MEMBER: YOU PICK SOMETHING</t>
+  </si>
+  <si>
+    <t>250K CELEBRATION VR PHASMO W/ POMU</t>
+  </si>
+  <si>
+    <t>ASSASSIN'S CREED</t>
+  </si>
+  <si>
+    <t>NIDHOGG 2 W/ LUCA</t>
+  </si>
+  <si>
+    <t>VRCHAT PARTY GAMES W/ NIJIEN</t>
+  </si>
+  <si>
+    <t>PROPNIGHT W/ NINA MYSTA MIKA OLIVER</t>
+  </si>
+  <si>
+    <t>APEX LEGENDS W/ REIMU MAHIRO</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2191,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2133,6 +2235,7 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -2174,7 +2277,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2262,16 +2365,25 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11485,8 +11597,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" s="1" t="s">
-        <v>66</v>
+      <c r="B363" s="31" t="s">
+        <v>602</v>
       </c>
       <c r="M363" s="1">
         <v>374.0</v>
@@ -11499,30 +11611,30 @@
       <c r="B364" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C364" s="31" t="s">
-        <v>602</v>
-      </c>
-      <c r="D364" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E364" s="32" t="s">
+      <c r="C364" s="32" t="s">
         <v>603</v>
       </c>
-      <c r="F364" s="33"/>
-      <c r="G364" s="33"/>
-      <c r="H364" s="33"/>
-      <c r="I364" s="31"/>
-      <c r="J364" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K364" s="34">
+      <c r="D364" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E364" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="F364" s="34"/>
+      <c r="G364" s="34"/>
+      <c r="H364" s="34"/>
+      <c r="I364" s="32"/>
+      <c r="J364" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K364" s="35">
         <v>44633.5</v>
       </c>
-      <c r="L364" s="31">
+      <c r="L364" s="32">
         <f t="shared" ref="L364:L372" si="20">(K364-Date(1970,1,1))*86400*1000</f>
         <v>1647172800000</v>
       </c>
-      <c r="M364" s="31"/>
+      <c r="M364" s="32"/>
     </row>
     <row r="365">
       <c r="A365" s="1">
@@ -11532,22 +11644,22 @@
         <v>157</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D365" s="31" t="b">
+        <v>605</v>
+      </c>
+      <c r="D365" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="K365" s="34">
+        <v>606</v>
+      </c>
+      <c r="K365" s="35">
         <v>44634.083333333336</v>
       </c>
-      <c r="L365" s="31">
+      <c r="L365" s="32">
         <f t="shared" si="20"/>
         <v>1647223200000</v>
       </c>
-      <c r="M365" s="31"/>
+      <c r="M365" s="32"/>
     </row>
     <row r="366">
       <c r="A366" s="1">
@@ -11557,19 +11669,22 @@
         <v>157</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D366" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K366" s="34">
+        <v>607</v>
+      </c>
+      <c r="D366" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E366" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K366" s="35">
         <v>44634.875</v>
       </c>
-      <c r="L366" s="31">
+      <c r="L366" s="32">
         <f t="shared" si="20"/>
         <v>1647291600000</v>
       </c>
-      <c r="M366" s="31"/>
+      <c r="M366" s="32"/>
     </row>
     <row r="367">
       <c r="A367" s="1">
@@ -11579,19 +11694,22 @@
         <v>157</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="D367" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K367" s="34">
+        <v>609</v>
+      </c>
+      <c r="D367" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E367" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K367" s="35">
         <v>44635.125</v>
       </c>
-      <c r="L367" s="31">
+      <c r="L367" s="32">
         <f t="shared" si="20"/>
         <v>1647313200000</v>
       </c>
-      <c r="M367" s="31"/>
+      <c r="M367" s="32"/>
     </row>
     <row r="368">
       <c r="A368" s="1">
@@ -11603,17 +11721,17 @@
       <c r="C368" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D368" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K368" s="34">
+      <c r="D368" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K368" s="35">
         <v>44636.041666666664</v>
       </c>
-      <c r="L368" s="31">
+      <c r="L368" s="32">
         <f t="shared" si="20"/>
         <v>1647392400000</v>
       </c>
-      <c r="M368" s="31"/>
+      <c r="M368" s="32"/>
     </row>
     <row r="369">
       <c r="A369" s="1">
@@ -11623,19 +11741,19 @@
         <v>157</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="D369" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K369" s="34">
+        <v>611</v>
+      </c>
+      <c r="D369" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K369" s="35">
         <v>44636.875</v>
       </c>
-      <c r="L369" s="31">
+      <c r="L369" s="32">
         <f t="shared" si="20"/>
         <v>1647464400000</v>
       </c>
-      <c r="M369" s="31"/>
+      <c r="M369" s="32"/>
     </row>
     <row r="370">
       <c r="A370" s="1">
@@ -11645,19 +11763,19 @@
         <v>157</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D370" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K370" s="34">
+        <v>612</v>
+      </c>
+      <c r="D370" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K370" s="35">
         <v>44637.125</v>
       </c>
-      <c r="L370" s="31">
+      <c r="L370" s="32">
         <f t="shared" si="20"/>
         <v>1647486000000</v>
       </c>
-      <c r="M370" s="31"/>
+      <c r="M370" s="32"/>
     </row>
     <row r="371">
       <c r="A371" s="1">
@@ -11669,17 +11787,17 @@
       <c r="C371" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D371" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K371" s="34">
+      <c r="D371" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K371" s="35">
         <v>44639.75</v>
       </c>
-      <c r="L371" s="31">
+      <c r="L371" s="32">
         <f t="shared" si="20"/>
         <v>1647712800000</v>
       </c>
-      <c r="M371" s="31"/>
+      <c r="M371" s="32"/>
     </row>
     <row r="372">
       <c r="A372" s="1">
@@ -11689,19 +11807,19 @@
         <v>157</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="D372" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K372" s="34">
+        <v>613</v>
+      </c>
+      <c r="D372" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K372" s="35">
         <v>44640.125</v>
       </c>
-      <c r="L372" s="31">
+      <c r="L372" s="32">
         <f t="shared" si="20"/>
         <v>1647745200000</v>
       </c>
-      <c r="M372" s="31"/>
+      <c r="M372" s="32"/>
     </row>
     <row r="373">
       <c r="B373" s="1" t="s">
@@ -11713,15 +11831,15 @@
     </row>
     <row r="374">
       <c r="B374" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M374" s="1">
         <v>378.0</v>
       </c>
     </row>
     <row r="375">
-      <c r="B375" s="1" t="s">
-        <v>66</v>
+      <c r="B375" s="31" t="s">
+        <v>602</v>
       </c>
       <c r="M375" s="1">
         <v>378.0</v>
@@ -11729,15 +11847,15 @@
     </row>
     <row r="376">
       <c r="B376" s="1" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="M376" s="1">
         <v>381.0</v>
       </c>
     </row>
     <row r="377">
-      <c r="B377" s="1" t="s">
-        <v>195</v>
+      <c r="B377" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="M377" s="1">
         <v>383.0</v>
@@ -11759,22 +11877,22 @@
         <v>146</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D379" s="31" t="b">
+        <v>615</v>
+      </c>
+      <c r="D379" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="K379" s="34">
+        <v>616</v>
+      </c>
+      <c r="K379" s="35">
         <v>44633.833333333336</v>
       </c>
-      <c r="L379" s="31">
+      <c r="L379" s="32">
         <f t="shared" ref="L379:L388" si="21">(K379-Date(1970,1,1))*86400*1000</f>
         <v>1647201600000</v>
       </c>
-      <c r="M379" s="31"/>
+      <c r="M379" s="32"/>
     </row>
     <row r="380">
       <c r="A380" s="1">
@@ -11784,22 +11902,22 @@
         <v>146</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="D380" s="31" t="b">
+        <v>617</v>
+      </c>
+      <c r="D380" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="K380" s="34">
+        <v>618</v>
+      </c>
+      <c r="K380" s="35">
         <v>44634.125</v>
       </c>
-      <c r="L380" s="31">
+      <c r="L380" s="32">
         <f t="shared" si="21"/>
         <v>1647226800000</v>
       </c>
-      <c r="M380" s="31"/>
+      <c r="M380" s="32"/>
     </row>
     <row r="381">
       <c r="A381" s="1">
@@ -11809,19 +11927,22 @@
         <v>146</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="D381" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K381" s="34">
+        <v>619</v>
+      </c>
+      <c r="D381" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E381" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="K381" s="35">
         <v>44634.833333333336</v>
       </c>
-      <c r="L381" s="31">
+      <c r="L381" s="32">
         <f t="shared" si="21"/>
         <v>1647288000000</v>
       </c>
-      <c r="M381" s="31"/>
+      <c r="M381" s="32"/>
     </row>
     <row r="382">
       <c r="A382" s="1">
@@ -11831,19 +11952,19 @@
         <v>146</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D382" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K382" s="34">
+        <v>621</v>
+      </c>
+      <c r="D382" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K382" s="35">
         <v>44635.125</v>
       </c>
-      <c r="L382" s="31">
+      <c r="L382" s="32">
         <f t="shared" si="21"/>
         <v>1647313200000</v>
       </c>
-      <c r="M382" s="31"/>
+      <c r="M382" s="32"/>
     </row>
     <row r="383">
       <c r="A383" s="1">
@@ -11853,19 +11974,19 @@
         <v>146</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D383" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K383" s="34">
+        <v>622</v>
+      </c>
+      <c r="D383" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K383" s="35">
         <v>44636.083333333336</v>
       </c>
-      <c r="L383" s="31">
+      <c r="L383" s="32">
         <f t="shared" si="21"/>
         <v>1647396000000</v>
       </c>
-      <c r="M383" s="31"/>
+      <c r="M383" s="32"/>
     </row>
     <row r="384">
       <c r="A384" s="1">
@@ -11875,19 +11996,19 @@
         <v>146</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D384" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K384" s="34">
+        <v>623</v>
+      </c>
+      <c r="D384" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K384" s="35">
         <v>44636.708333333336</v>
       </c>
-      <c r="L384" s="31">
+      <c r="L384" s="32">
         <f t="shared" si="21"/>
         <v>1647450000000</v>
       </c>
-      <c r="M384" s="31"/>
+      <c r="M384" s="32"/>
     </row>
     <row r="385">
       <c r="A385" s="1">
@@ -11897,19 +12018,19 @@
         <v>146</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="D385" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K385" s="34">
+        <v>624</v>
+      </c>
+      <c r="D385" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K385" s="35">
         <v>44637.125</v>
       </c>
-      <c r="L385" s="31">
+      <c r="L385" s="32">
         <f t="shared" si="21"/>
         <v>1647486000000</v>
       </c>
-      <c r="M385" s="31"/>
+      <c r="M385" s="32"/>
     </row>
     <row r="386">
       <c r="A386" s="1">
@@ -11919,19 +12040,19 @@
         <v>146</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D386" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K386" s="34">
+        <v>625</v>
+      </c>
+      <c r="D386" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K386" s="35">
         <v>44638.0</v>
       </c>
-      <c r="L386" s="31">
+      <c r="L386" s="32">
         <f t="shared" si="21"/>
         <v>1647561600000</v>
       </c>
-      <c r="M386" s="31"/>
+      <c r="M386" s="32"/>
     </row>
     <row r="387">
       <c r="A387" s="1">
@@ -11941,19 +12062,19 @@
         <v>146</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D387" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K387" s="34">
+        <v>626</v>
+      </c>
+      <c r="D387" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K387" s="35">
         <v>44638.833333333336</v>
       </c>
-      <c r="L387" s="31">
+      <c r="L387" s="32">
         <f t="shared" si="21"/>
         <v>1647633600000</v>
       </c>
-      <c r="M387" s="31"/>
+      <c r="M387" s="32"/>
     </row>
     <row r="388">
       <c r="A388" s="1">
@@ -11963,19 +12084,19 @@
         <v>146</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D388" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K388" s="34">
+        <v>627</v>
+      </c>
+      <c r="D388" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K388" s="35">
         <v>44639.958333333336</v>
       </c>
-      <c r="L388" s="31">
+      <c r="L388" s="32">
         <f t="shared" si="21"/>
         <v>1647730800000</v>
       </c>
-      <c r="M388" s="31"/>
+      <c r="M388" s="32"/>
     </row>
     <row r="389">
       <c r="B389" s="1" t="s">
@@ -12011,17 +12132,20 @@
       <c r="C392" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D392" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K392" s="34">
+      <c r="D392" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E392" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K392" s="35">
         <v>44634.833333333336</v>
       </c>
-      <c r="L392" s="31">
+      <c r="L392" s="32">
         <f t="shared" ref="L392:L422" si="22">(K392-Date(1970,1,1))*86400*1000</f>
         <v>1647288000000</v>
       </c>
-      <c r="M392" s="31"/>
+      <c r="M392" s="32"/>
     </row>
     <row r="393">
       <c r="A393" s="1">
@@ -12031,19 +12155,19 @@
         <v>182</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D393" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K393" s="34">
+        <v>629</v>
+      </c>
+      <c r="D393" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K393" s="35">
         <v>44635.916666666664</v>
       </c>
-      <c r="L393" s="31">
+      <c r="L393" s="32">
         <f t="shared" si="22"/>
         <v>1647381600000</v>
       </c>
-      <c r="M393" s="31"/>
+      <c r="M393" s="32"/>
     </row>
     <row r="394">
       <c r="A394" s="1">
@@ -12053,19 +12177,19 @@
         <v>182</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D394" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K394" s="34">
+        <v>630</v>
+      </c>
+      <c r="D394" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K394" s="35">
         <v>44636.708333333336</v>
       </c>
-      <c r="L394" s="31">
+      <c r="L394" s="32">
         <f t="shared" si="22"/>
         <v>1647450000000</v>
       </c>
-      <c r="M394" s="31"/>
+      <c r="M394" s="32"/>
     </row>
     <row r="395">
       <c r="A395" s="1">
@@ -12075,19 +12199,19 @@
         <v>182</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D395" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K395" s="34">
+        <v>631</v>
+      </c>
+      <c r="D395" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K395" s="35">
         <v>44637.916666666664</v>
       </c>
-      <c r="L395" s="31">
+      <c r="L395" s="32">
         <f t="shared" si="22"/>
         <v>1647554400000</v>
       </c>
-      <c r="M395" s="31"/>
+      <c r="M395" s="32"/>
     </row>
     <row r="396">
       <c r="A396" s="1">
@@ -12097,22 +12221,20 @@
         <v>182</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D396" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F396" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K396" s="34">
+        <v>632</v>
+      </c>
+      <c r="D396" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F396" s="36"/>
+      <c r="K396" s="35">
         <v>44639.0</v>
       </c>
-      <c r="L396" s="31">
+      <c r="L396" s="32">
         <f t="shared" si="22"/>
         <v>1647648000000</v>
       </c>
-      <c r="M396" s="31"/>
+      <c r="M396" s="32"/>
     </row>
     <row r="397">
       <c r="A397" s="1">
@@ -12122,19 +12244,19 @@
         <v>182</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="D397" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K397" s="34">
+        <v>633</v>
+      </c>
+      <c r="D397" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K397" s="35">
         <v>44639.791666666664</v>
       </c>
-      <c r="L397" s="31">
+      <c r="L397" s="32">
         <f t="shared" si="22"/>
         <v>1647716400000</v>
       </c>
-      <c r="M397" s="31"/>
+      <c r="M397" s="32"/>
     </row>
     <row r="398">
       <c r="A398" s="1">
@@ -12144,25 +12266,25 @@
         <v>286</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D398" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H398" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J398" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K398" s="34">
+        <v>634</v>
+      </c>
+      <c r="D398" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K398" s="35">
         <v>44633.916666666664</v>
       </c>
-      <c r="L398" s="31">
+      <c r="L398" s="32">
         <f t="shared" si="22"/>
         <v>1647208800000</v>
       </c>
-      <c r="M398" s="31"/>
+      <c r="M398" s="32"/>
     </row>
     <row r="399">
       <c r="A399" s="1">
@@ -12172,24 +12294,24 @@
         <v>286</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D399" s="31"/>
+        <v>635</v>
+      </c>
+      <c r="D399" s="32"/>
       <c r="E399" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="I399" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J399" s="31"/>
-      <c r="K399" s="34">
+        <v>636</v>
+      </c>
+      <c r="I399" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" s="32"/>
+      <c r="K399" s="35">
         <v>44633.916666666664</v>
       </c>
-      <c r="L399" s="31">
+      <c r="L399" s="32">
         <f t="shared" si="22"/>
         <v>1647208800000</v>
       </c>
-      <c r="M399" s="31"/>
+      <c r="M399" s="32"/>
     </row>
     <row r="400">
       <c r="A400" s="1">
@@ -12199,22 +12321,22 @@
         <v>286</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D400" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J400" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K400" s="34">
+        <v>637</v>
+      </c>
+      <c r="D400" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J400" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K400" s="35">
         <v>44634.041666666664</v>
       </c>
-      <c r="L400" s="31">
+      <c r="L400" s="32">
         <f t="shared" si="22"/>
         <v>1647219600000</v>
       </c>
-      <c r="M400" s="31"/>
+      <c r="M400" s="32"/>
     </row>
     <row r="401">
       <c r="A401" s="1">
@@ -12224,22 +12346,22 @@
         <v>286</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D401" s="31" t="b">
+        <v>638</v>
+      </c>
+      <c r="D401" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="K401" s="34">
+        <v>639</v>
+      </c>
+      <c r="K401" s="35">
         <v>44634.541666666664</v>
       </c>
-      <c r="L401" s="31">
+      <c r="L401" s="32">
         <f t="shared" si="22"/>
         <v>1647262800000</v>
       </c>
-      <c r="M401" s="31"/>
+      <c r="M401" s="32"/>
     </row>
     <row r="402">
       <c r="A402" s="1">
@@ -12249,19 +12371,22 @@
         <v>286</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D402" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K402" s="34">
+        <v>640</v>
+      </c>
+      <c r="D402" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E402" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="K402" s="35">
         <v>44635.041666666664</v>
       </c>
-      <c r="L402" s="31">
+      <c r="L402" s="32">
         <f t="shared" si="22"/>
         <v>1647306000000</v>
       </c>
-      <c r="M402" s="31"/>
+      <c r="M402" s="32"/>
     </row>
     <row r="403">
       <c r="A403" s="1">
@@ -12271,19 +12396,19 @@
         <v>286</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D403" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K403" s="34">
+        <v>642</v>
+      </c>
+      <c r="D403" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K403" s="35">
         <v>44636.125</v>
       </c>
-      <c r="L403" s="31">
+      <c r="L403" s="32">
         <f t="shared" si="22"/>
         <v>1647399600000</v>
       </c>
-      <c r="M403" s="31"/>
+      <c r="M403" s="32"/>
     </row>
     <row r="404">
       <c r="A404" s="1">
@@ -12293,22 +12418,22 @@
         <v>286</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D404" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J404" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K404" s="34">
+        <v>643</v>
+      </c>
+      <c r="D404" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J404" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K404" s="35">
         <v>44637.083333333336</v>
       </c>
-      <c r="L404" s="31">
+      <c r="L404" s="32">
         <f t="shared" si="22"/>
         <v>1647482400000</v>
       </c>
-      <c r="M404" s="31"/>
+      <c r="M404" s="32"/>
     </row>
     <row r="405">
       <c r="A405" s="1">
@@ -12318,19 +12443,19 @@
         <v>286</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D405" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K405" s="34">
+        <v>644</v>
+      </c>
+      <c r="D405" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K405" s="35">
         <v>44637.583333333336</v>
       </c>
-      <c r="L405" s="31">
+      <c r="L405" s="32">
         <f t="shared" si="22"/>
         <v>1647525600000</v>
       </c>
-      <c r="M405" s="31"/>
+      <c r="M405" s="32"/>
     </row>
     <row r="406">
       <c r="A406" s="1">
@@ -12342,17 +12467,17 @@
       <c r="C406" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D406" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K406" s="34">
+      <c r="D406" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K406" s="35">
         <v>44638.125</v>
       </c>
-      <c r="L406" s="31">
+      <c r="L406" s="32">
         <f t="shared" si="22"/>
         <v>1647572400000</v>
       </c>
-      <c r="M406" s="31"/>
+      <c r="M406" s="32"/>
     </row>
     <row r="407">
       <c r="A407" s="1">
@@ -12362,19 +12487,19 @@
         <v>286</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D407" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K407" s="34">
+        <v>645</v>
+      </c>
+      <c r="D407" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K407" s="35">
         <v>44639.083333333336</v>
       </c>
-      <c r="L407" s="31">
+      <c r="L407" s="32">
         <f t="shared" si="22"/>
         <v>1647655200000</v>
       </c>
-      <c r="M407" s="31"/>
+      <c r="M407" s="32"/>
     </row>
     <row r="408">
       <c r="A408" s="1">
@@ -12384,22 +12509,22 @@
         <v>286</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D408" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J408" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K408" s="34">
+        <v>646</v>
+      </c>
+      <c r="D408" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J408" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K408" s="35">
         <v>44639.958333333336</v>
       </c>
-      <c r="L408" s="31">
+      <c r="L408" s="32">
         <f t="shared" si="22"/>
         <v>1647730800000</v>
       </c>
-      <c r="M408" s="31"/>
+      <c r="M408" s="32"/>
     </row>
     <row r="409">
       <c r="A409" s="1">
@@ -12409,22 +12534,22 @@
         <v>93</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D409" s="31" t="b">
+        <v>647</v>
+      </c>
+      <c r="D409" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E409" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="K409" s="34">
+        <v>648</v>
+      </c>
+      <c r="K409" s="35">
         <v>44634.208333333336</v>
       </c>
-      <c r="L409" s="31">
+      <c r="L409" s="32">
         <f t="shared" si="22"/>
         <v>1647234000000</v>
       </c>
-      <c r="M409" s="31"/>
+      <c r="M409" s="32"/>
     </row>
     <row r="410">
       <c r="A410" s="1">
@@ -12434,19 +12559,22 @@
         <v>93</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D410" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K410" s="34">
+        <v>649</v>
+      </c>
+      <c r="D410" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E410" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="K410" s="35">
         <v>44635.25</v>
       </c>
-      <c r="L410" s="31">
+      <c r="L410" s="32">
         <f t="shared" si="22"/>
         <v>1647324000000</v>
       </c>
-      <c r="M410" s="31"/>
+      <c r="M410" s="32"/>
     </row>
     <row r="411">
       <c r="A411" s="1">
@@ -12458,17 +12586,17 @@
       <c r="C411" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D411" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K411" s="34">
+      <c r="D411" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K411" s="35">
         <v>44636.208333333336</v>
       </c>
-      <c r="L411" s="31">
+      <c r="L411" s="32">
         <f t="shared" si="22"/>
         <v>1647406800000</v>
       </c>
-      <c r="M411" s="31"/>
+      <c r="M411" s="32"/>
     </row>
     <row r="412">
       <c r="A412" s="1">
@@ -12480,17 +12608,17 @@
       <c r="C412" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D412" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K412" s="34">
+      <c r="D412" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K412" s="35">
         <v>44637.291666666664</v>
       </c>
-      <c r="L412" s="31">
+      <c r="L412" s="32">
         <f t="shared" si="22"/>
         <v>1647500400000</v>
       </c>
-      <c r="M412" s="31"/>
+      <c r="M412" s="32"/>
     </row>
     <row r="413">
       <c r="A413" s="1">
@@ -12500,19 +12628,19 @@
         <v>93</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D413" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K413" s="34">
+        <v>651</v>
+      </c>
+      <c r="D413" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K413" s="35">
         <v>44638.208333333336</v>
       </c>
-      <c r="L413" s="31">
+      <c r="L413" s="32">
         <f t="shared" si="22"/>
         <v>1647579600000</v>
       </c>
-      <c r="M413" s="31"/>
+      <c r="M413" s="32"/>
     </row>
     <row r="414">
       <c r="A414" s="1">
@@ -12524,17 +12652,17 @@
       <c r="C414" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D414" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K414" s="34">
+      <c r="D414" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K414" s="35">
         <v>44639.25</v>
       </c>
-      <c r="L414" s="31">
+      <c r="L414" s="32">
         <f t="shared" si="22"/>
         <v>1647669600000</v>
       </c>
-      <c r="M414" s="31"/>
+      <c r="M414" s="32"/>
     </row>
     <row r="415">
       <c r="A415" s="1">
@@ -12544,19 +12672,19 @@
         <v>93</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D415" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K415" s="34">
+        <v>652</v>
+      </c>
+      <c r="D415" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K415" s="35">
         <v>44640.25</v>
       </c>
-      <c r="L415" s="31">
+      <c r="L415" s="32">
         <f t="shared" si="22"/>
         <v>1647756000000</v>
       </c>
-      <c r="M415" s="31"/>
+      <c r="M415" s="32"/>
     </row>
     <row r="416">
       <c r="A416" s="1">
@@ -12566,22 +12694,22 @@
         <v>28</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D416" s="31" t="b">
+        <v>653</v>
+      </c>
+      <c r="D416" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E416" s="7" t="s">
-        <v>647</v>
-      </c>
-      <c r="K416" s="34">
+        <v>654</v>
+      </c>
+      <c r="K416" s="35">
         <v>44634.458333333336</v>
       </c>
-      <c r="L416" s="31">
+      <c r="L416" s="32">
         <f t="shared" si="22"/>
         <v>1647255600000</v>
       </c>
-      <c r="M416" s="31"/>
+      <c r="M416" s="32"/>
     </row>
     <row r="417">
       <c r="A417" s="1">
@@ -12591,22 +12719,25 @@
         <v>28</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D417" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J417" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K417" s="34">
+        <v>655</v>
+      </c>
+      <c r="D417" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E417" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="J417" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K417" s="35">
         <v>44635.125</v>
       </c>
-      <c r="L417" s="31">
+      <c r="L417" s="32">
         <f t="shared" si="22"/>
         <v>1647313200000</v>
       </c>
-      <c r="M417" s="31"/>
+      <c r="M417" s="32"/>
     </row>
     <row r="418">
       <c r="A418" s="1">
@@ -12618,17 +12749,17 @@
       <c r="C418" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D418" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K418" s="34">
+      <c r="D418" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K418" s="35">
         <v>44635.75</v>
       </c>
-      <c r="L418" s="31">
+      <c r="L418" s="32">
         <f t="shared" si="22"/>
         <v>1647367200000</v>
       </c>
-      <c r="M418" s="31"/>
+      <c r="M418" s="32"/>
     </row>
     <row r="419">
       <c r="A419" s="1">
@@ -12638,19 +12769,19 @@
         <v>28</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D419" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K419" s="34">
+        <v>657</v>
+      </c>
+      <c r="D419" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K419" s="35">
         <v>44636.5</v>
       </c>
-      <c r="L419" s="31">
+      <c r="L419" s="32">
         <f t="shared" si="22"/>
         <v>1647432000000</v>
       </c>
-      <c r="M419" s="31"/>
+      <c r="M419" s="32"/>
     </row>
     <row r="420">
       <c r="A420" s="1">
@@ -12660,19 +12791,19 @@
         <v>28</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="D420" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K420" s="34">
+        <v>658</v>
+      </c>
+      <c r="D420" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K420" s="35">
         <v>44638.875</v>
       </c>
-      <c r="L420" s="31">
+      <c r="L420" s="32">
         <f t="shared" si="22"/>
         <v>1647637200000</v>
       </c>
-      <c r="M420" s="31"/>
+      <c r="M420" s="32"/>
     </row>
     <row r="421">
       <c r="A421" s="1">
@@ -12682,19 +12813,19 @@
         <v>28</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D421" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K421" s="34">
+        <v>659</v>
+      </c>
+      <c r="D421" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K421" s="35">
         <v>44639.5625</v>
       </c>
-      <c r="L421" s="31">
+      <c r="L421" s="32">
         <f t="shared" si="22"/>
         <v>1647696600000</v>
       </c>
-      <c r="M421" s="31"/>
+      <c r="M421" s="32"/>
     </row>
     <row r="422">
       <c r="A422" s="1">
@@ -12704,25 +12835,25 @@
         <v>66</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="I422" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J422" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K422" s="34">
+        <v>661</v>
+      </c>
+      <c r="I422" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J422" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K422" s="35">
         <v>44634.041666666664</v>
       </c>
-      <c r="L422" s="31">
+      <c r="L422" s="32">
         <f t="shared" si="22"/>
         <v>1647219600000</v>
       </c>
-      <c r="M422" s="31"/>
+      <c r="M422" s="32"/>
     </row>
     <row r="423">
       <c r="B423" s="1" t="s">
@@ -12750,17 +12881,20 @@
       <c r="C425" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D425" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K425" s="34">
+      <c r="D425" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E425" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="K425" s="35">
         <v>44634.5</v>
       </c>
-      <c r="L425" s="31">
+      <c r="L425" s="32">
         <f t="shared" ref="L425:L456" si="23">(K425-Date(1970,1,1))*86400*1000</f>
         <v>1647259200000</v>
       </c>
-      <c r="M425" s="31"/>
+      <c r="M425" s="32"/>
     </row>
     <row r="426">
       <c r="A426" s="1">
@@ -12772,17 +12906,17 @@
       <c r="C426" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D426" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K426" s="34">
+      <c r="D426" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K426" s="35">
         <v>44635.458333333336</v>
       </c>
-      <c r="L426" s="31">
+      <c r="L426" s="32">
         <f t="shared" si="23"/>
         <v>1647342000000</v>
       </c>
-      <c r="M426" s="31"/>
+      <c r="M426" s="32"/>
     </row>
     <row r="427">
       <c r="A427" s="1">
@@ -12792,19 +12926,19 @@
         <v>333</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="D427" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K427" s="34">
+        <v>663</v>
+      </c>
+      <c r="D427" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K427" s="35">
         <v>44636.5</v>
       </c>
-      <c r="L427" s="31">
+      <c r="L427" s="32">
         <f t="shared" si="23"/>
         <v>1647432000000</v>
       </c>
-      <c r="M427" s="31"/>
+      <c r="M427" s="32"/>
     </row>
     <row r="428">
       <c r="A428" s="1">
@@ -12814,19 +12948,19 @@
         <v>333</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D428" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K428" s="34">
+        <v>664</v>
+      </c>
+      <c r="D428" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K428" s="35">
         <v>44636.708333333336</v>
       </c>
-      <c r="L428" s="31">
+      <c r="L428" s="32">
         <f t="shared" si="23"/>
         <v>1647450000000</v>
       </c>
-      <c r="M428" s="31"/>
+      <c r="M428" s="32"/>
     </row>
     <row r="429">
       <c r="A429" s="1">
@@ -12836,19 +12970,19 @@
         <v>333</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D429" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K429" s="34">
+        <v>665</v>
+      </c>
+      <c r="D429" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K429" s="35">
         <v>44637.5</v>
       </c>
-      <c r="L429" s="31">
+      <c r="L429" s="32">
         <f t="shared" si="23"/>
         <v>1647518400000</v>
       </c>
-      <c r="M429" s="31"/>
+      <c r="M429" s="32"/>
     </row>
     <row r="430">
       <c r="A430" s="1">
@@ -12858,19 +12992,19 @@
         <v>333</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D430" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K430" s="34">
+        <v>666</v>
+      </c>
+      <c r="D430" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K430" s="35">
         <v>44639.5</v>
       </c>
-      <c r="L430" s="31">
+      <c r="L430" s="32">
         <f t="shared" si="23"/>
         <v>1647691200000</v>
       </c>
-      <c r="M430" s="31"/>
+      <c r="M430" s="32"/>
     </row>
     <row r="431">
       <c r="A431" s="1">
@@ -12880,19 +13014,19 @@
         <v>333</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D431" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K431" s="34">
+        <v>667</v>
+      </c>
+      <c r="D431" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K431" s="35">
         <v>44640.5</v>
       </c>
-      <c r="L431" s="31">
+      <c r="L431" s="32">
         <f t="shared" si="23"/>
         <v>1647777600000</v>
       </c>
-      <c r="M431" s="31"/>
+      <c r="M431" s="32"/>
     </row>
     <row r="432">
       <c r="A432" s="1">
@@ -12902,22 +13036,22 @@
         <v>13</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D432" s="31" t="b">
+        <v>668</v>
+      </c>
+      <c r="D432" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>660</v>
-      </c>
-      <c r="K432" s="34">
+        <v>669</v>
+      </c>
+      <c r="K432" s="35">
         <v>44634.541666666664</v>
       </c>
-      <c r="L432" s="31">
+      <c r="L432" s="32">
         <f t="shared" si="23"/>
         <v>1647262800000</v>
       </c>
-      <c r="M432" s="31"/>
+      <c r="M432" s="32"/>
     </row>
     <row r="433">
       <c r="A433" s="1">
@@ -12927,19 +13061,19 @@
         <v>13</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="D433" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K433" s="34">
+        <v>670</v>
+      </c>
+      <c r="D433" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K433" s="35">
         <v>44635.875</v>
       </c>
-      <c r="L433" s="31">
+      <c r="L433" s="32">
         <f t="shared" si="23"/>
         <v>1647378000000</v>
       </c>
-      <c r="M433" s="31"/>
+      <c r="M433" s="32"/>
     </row>
     <row r="434">
       <c r="A434" s="1">
@@ -12949,19 +13083,19 @@
         <v>13</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D434" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K434" s="34">
+        <v>671</v>
+      </c>
+      <c r="D434" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K434" s="35">
         <v>44636.541666666664</v>
       </c>
-      <c r="L434" s="31">
+      <c r="L434" s="32">
         <f t="shared" si="23"/>
         <v>1647435600000</v>
       </c>
-      <c r="M434" s="31"/>
+      <c r="M434" s="32"/>
     </row>
     <row r="435">
       <c r="A435" s="1">
@@ -12971,22 +13105,22 @@
         <v>13</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D435" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K435" s="34">
+        <v>672</v>
+      </c>
+      <c r="D435" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K435" s="35">
         <v>44636.708333333336</v>
       </c>
-      <c r="L435" s="31">
+      <c r="L435" s="32">
         <f t="shared" si="23"/>
         <v>1647450000000</v>
       </c>
-      <c r="M435" s="31"/>
+      <c r="M435" s="32"/>
     </row>
     <row r="436">
       <c r="A436" s="1">
@@ -12996,19 +13130,19 @@
         <v>13</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D436" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K436" s="34">
+        <v>673</v>
+      </c>
+      <c r="D436" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K436" s="35">
         <v>44637.541666666664</v>
       </c>
-      <c r="L436" s="31">
+      <c r="L436" s="32">
         <f t="shared" si="23"/>
         <v>1647522000000</v>
       </c>
-      <c r="M436" s="31"/>
+      <c r="M436" s="32"/>
     </row>
     <row r="437">
       <c r="A437" s="1">
@@ -13018,19 +13152,19 @@
         <v>13</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D437" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K437" s="34">
+        <v>674</v>
+      </c>
+      <c r="D437" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K437" s="35">
         <v>44638.583333333336</v>
       </c>
-      <c r="L437" s="31">
+      <c r="L437" s="32">
         <f t="shared" si="23"/>
         <v>1647612000000</v>
       </c>
-      <c r="M437" s="31"/>
+      <c r="M437" s="32"/>
     </row>
     <row r="438">
       <c r="A438" s="1">
@@ -13040,22 +13174,22 @@
         <v>13</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D438" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J438" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K438" s="34">
+        <v>675</v>
+      </c>
+      <c r="D438" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K438" s="35">
         <v>44639.583333333336</v>
       </c>
-      <c r="L438" s="31">
+      <c r="L438" s="32">
         <f t="shared" si="23"/>
         <v>1647698400000</v>
       </c>
-      <c r="M438" s="31"/>
+      <c r="M438" s="32"/>
     </row>
     <row r="439">
       <c r="A439" s="1">
@@ -13065,19 +13199,19 @@
         <v>13</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D439" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K439" s="34">
+        <v>676</v>
+      </c>
+      <c r="D439" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K439" s="35">
         <v>44640.541666666664</v>
       </c>
-      <c r="L439" s="31">
+      <c r="L439" s="32">
         <f t="shared" si="23"/>
         <v>1647781200000</v>
       </c>
-      <c r="M439" s="31"/>
+      <c r="M439" s="32"/>
     </row>
     <row r="440">
       <c r="A440" s="1">
@@ -13087,22 +13221,22 @@
         <v>43</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="I440" s="31" t="b">
+        <v>678</v>
+      </c>
+      <c r="I440" s="32" t="b">
         <v>1</v>
       </c>
       <c r="K440" s="5">
         <v>44634.166666666664</v>
       </c>
-      <c r="L440" s="31">
+      <c r="L440" s="32">
         <f t="shared" si="23"/>
         <v>1647230400000</v>
       </c>
-      <c r="M440" s="31"/>
+      <c r="M440" s="32"/>
     </row>
     <row r="441">
       <c r="A441" s="1">
@@ -13112,19 +13246,19 @@
         <v>249</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D441" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K441" s="34">
+        <v>679</v>
+      </c>
+      <c r="D441" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K441" s="35">
         <v>44634.041666666664</v>
       </c>
-      <c r="L441" s="31">
+      <c r="L441" s="32">
         <f t="shared" si="23"/>
         <v>1647219600000</v>
       </c>
-      <c r="M441" s="31"/>
+      <c r="M441" s="32"/>
     </row>
     <row r="442">
       <c r="A442" s="1">
@@ -13134,19 +13268,22 @@
         <v>249</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D442" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K442" s="34">
+        <v>680</v>
+      </c>
+      <c r="D442" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E442" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="K442" s="35">
         <v>44635.125</v>
       </c>
-      <c r="L442" s="31">
+      <c r="L442" s="32">
         <f t="shared" si="23"/>
         <v>1647313200000</v>
       </c>
-      <c r="M442" s="31"/>
+      <c r="M442" s="32"/>
     </row>
     <row r="443">
       <c r="A443" s="1">
@@ -13156,19 +13293,19 @@
         <v>249</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D443" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K443" s="34">
+        <v>682</v>
+      </c>
+      <c r="D443" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K443" s="35">
         <v>44636.083333333336</v>
       </c>
-      <c r="L443" s="31">
+      <c r="L443" s="32">
         <f t="shared" si="23"/>
         <v>1647396000000</v>
       </c>
-      <c r="M443" s="31"/>
+      <c r="M443" s="32"/>
     </row>
     <row r="444">
       <c r="A444" s="1">
@@ -13178,19 +13315,19 @@
         <v>249</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D444" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K444" s="34">
+        <v>683</v>
+      </c>
+      <c r="D444" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K444" s="35">
         <v>44637.541666666664</v>
       </c>
-      <c r="L444" s="31">
+      <c r="L444" s="32">
         <f t="shared" si="23"/>
         <v>1647522000000</v>
       </c>
-      <c r="M444" s="31"/>
+      <c r="M444" s="32"/>
     </row>
     <row r="445">
       <c r="A445" s="1">
@@ -13202,17 +13339,17 @@
       <c r="C445" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D445" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K445" s="34">
+      <c r="D445" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K445" s="35">
         <v>44638.125</v>
       </c>
-      <c r="L445" s="31">
+      <c r="L445" s="32">
         <f t="shared" si="23"/>
         <v>1647572400000</v>
       </c>
-      <c r="M445" s="31"/>
+      <c r="M445" s="32"/>
     </row>
     <row r="446">
       <c r="A446" s="1">
@@ -13224,17 +13361,17 @@
       <c r="C446" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D446" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K446" s="34">
+      <c r="D446" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K446" s="35">
         <v>44639.083333333336</v>
       </c>
-      <c r="L446" s="31">
+      <c r="L446" s="32">
         <f t="shared" si="23"/>
         <v>1647655200000</v>
       </c>
-      <c r="M446" s="31"/>
+      <c r="M446" s="32"/>
     </row>
     <row r="447">
       <c r="A447" s="1">
@@ -13244,19 +13381,19 @@
         <v>249</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D447" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K447" s="34">
+        <v>684</v>
+      </c>
+      <c r="D447" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K447" s="35">
         <v>44640.125</v>
       </c>
-      <c r="L447" s="31">
+      <c r="L447" s="32">
         <f t="shared" si="23"/>
         <v>1647745200000</v>
       </c>
-      <c r="M447" s="31"/>
+      <c r="M447" s="32"/>
     </row>
     <row r="448">
       <c r="A448" s="1">
@@ -13266,23 +13403,23 @@
         <v>160</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D448" s="31" t="b">
+        <v>685</v>
+      </c>
+      <c r="D448" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="I448" s="31"/>
-      <c r="K448" s="34">
+        <v>686</v>
+      </c>
+      <c r="I448" s="32"/>
+      <c r="K448" s="35">
         <v>44634.25</v>
       </c>
-      <c r="L448" s="31">
+      <c r="L448" s="32">
         <f t="shared" si="23"/>
         <v>1647237600000</v>
       </c>
-      <c r="M448" s="31"/>
+      <c r="M448" s="32"/>
     </row>
     <row r="449">
       <c r="A449" s="1">
@@ -13292,22 +13429,22 @@
         <v>55</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
+      </c>
+      <c r="D449" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="I449" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K449" s="34">
+        <v>688</v>
+      </c>
+      <c r="K449" s="35">
         <v>44634.5</v>
       </c>
-      <c r="L449" s="31">
+      <c r="L449" s="32">
         <f t="shared" si="23"/>
         <v>1647259200000</v>
       </c>
-      <c r="M449" s="31"/>
+      <c r="M449" s="32"/>
     </row>
     <row r="450">
       <c r="A450" s="1">
@@ -13317,22 +13454,22 @@
         <v>160</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D450" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K450" s="34">
+        <v>689</v>
+      </c>
+      <c r="D450" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K450" s="35">
         <v>44636.125</v>
       </c>
-      <c r="L450" s="31">
+      <c r="L450" s="32">
         <f t="shared" si="23"/>
         <v>1647399600000</v>
       </c>
-      <c r="M450" s="31"/>
+      <c r="M450" s="32"/>
     </row>
     <row r="451">
       <c r="A451" s="1">
@@ -13342,25 +13479,25 @@
         <v>160</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D451" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F451" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J451" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K451" s="34">
+        <v>690</v>
+      </c>
+      <c r="D451" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F451" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J451" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K451" s="35">
         <v>44636.75</v>
       </c>
-      <c r="L451" s="31">
+      <c r="L451" s="32">
         <f t="shared" si="23"/>
         <v>1647453600000</v>
       </c>
-      <c r="M451" s="31"/>
+      <c r="M451" s="32"/>
     </row>
     <row r="452">
       <c r="A452" s="1">
@@ -13370,19 +13507,19 @@
         <v>160</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D452" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K452" s="34">
+        <v>691</v>
+      </c>
+      <c r="D452" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K452" s="35">
         <v>44637.520833333336</v>
       </c>
-      <c r="L452" s="31">
+      <c r="L452" s="32">
         <f t="shared" si="23"/>
         <v>1647520200000</v>
       </c>
-      <c r="M452" s="31"/>
+      <c r="M452" s="32"/>
     </row>
     <row r="453">
       <c r="A453" s="1">
@@ -13392,25 +13529,25 @@
         <v>160</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D453" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F453" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K453" s="34">
+        <v>692</v>
+      </c>
+      <c r="D453" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F453" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K453" s="35">
         <v>44638.75</v>
       </c>
-      <c r="L453" s="31">
+      <c r="L453" s="32">
         <f t="shared" si="23"/>
         <v>1647626400000</v>
       </c>
-      <c r="M453" s="31"/>
+      <c r="M453" s="32"/>
     </row>
     <row r="454">
       <c r="A454" s="1">
@@ -13422,20 +13559,20 @@
       <c r="C454" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D454" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K454" s="34">
+      <c r="D454" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K454" s="35">
         <v>44639.416666666664</v>
       </c>
-      <c r="L454" s="31">
+      <c r="L454" s="32">
         <f t="shared" si="23"/>
         <v>1647684000000</v>
       </c>
-      <c r="M454" s="31"/>
+      <c r="M454" s="32"/>
     </row>
     <row r="455">
       <c r="A455" s="1">
@@ -13445,22 +13582,25 @@
         <v>160</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D455" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K455" s="34">
+        <v>693</v>
+      </c>
+      <c r="D455" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F455" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K455" s="35">
         <v>44639.916666666664</v>
       </c>
-      <c r="L455" s="31">
+      <c r="L455" s="32">
         <f t="shared" si="23"/>
         <v>1647727200000</v>
       </c>
-      <c r="M455" s="31"/>
+      <c r="M455" s="32"/>
     </row>
     <row r="456">
       <c r="A456" s="1">
@@ -13470,15 +13610,15 @@
         <v>160</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D456" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F456" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="31" t="b">
+        <v>694</v>
+      </c>
+      <c r="D456" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F456" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="32" t="b">
         <v>1</v>
       </c>
       <c r="K456" s="5">
@@ -13492,7 +13632,7 @@
     </row>
     <row r="457">
       <c r="B457" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M457" s="1">
         <v>453.0</v>
@@ -13500,7 +13640,7 @@
     </row>
     <row r="458">
       <c r="B458" s="1" t="s">
-        <v>182</v>
+        <v>601</v>
       </c>
       <c r="M458" s="1">
         <v>454.0</v>
@@ -13511,50 +13651,50 @@
         <v>456.0</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="D459" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K459" s="34">
+        <v>696</v>
+      </c>
+      <c r="D459" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K459" s="35">
         <v>44636.541666666664</v>
       </c>
-      <c r="L459" s="31">
+      <c r="L459" s="32">
         <f t="shared" ref="L459:L460" si="24">(K459-Date(1970,1,1))*86400*1000</f>
         <v>1647435600000</v>
       </c>
-      <c r="M459" s="31"/>
+      <c r="M459" s="32"/>
     </row>
     <row r="460">
       <c r="A460" s="1">
         <v>457.0</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D460" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="K460" s="34">
+        <v>697</v>
+      </c>
+      <c r="D460" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K460" s="35">
         <v>44639.416666666664</v>
       </c>
-      <c r="L460" s="31">
+      <c r="L460" s="32">
         <f t="shared" si="24"/>
         <v>1647684000000</v>
       </c>
-      <c r="M460" s="31"/>
+      <c r="M460" s="32"/>
     </row>
     <row r="461">
       <c r="B461" s="1" t="s">
@@ -13565,19 +13705,469 @@
       </c>
     </row>
     <row r="462">
-      <c r="B462" s="1" t="s">
-        <v>55</v>
+      <c r="B462" s="31" t="s">
+        <v>233</v>
       </c>
       <c r="M462" s="1">
         <v>457.0</v>
       </c>
     </row>
     <row r="463">
-      <c r="B463" s="1" t="s">
-        <v>195</v>
+      <c r="B463" s="31" t="s">
+        <v>196</v>
       </c>
       <c r="M463" s="1">
         <v>457.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1">
+        <v>458.0</v>
+      </c>
+      <c r="B464" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D464" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E464" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="K464" s="37">
+        <v>44635.541666666664</v>
+      </c>
+      <c r="L464" s="32">
+        <f t="shared" ref="L464:L483" si="25">(K464-Date(1970,1,1))*86400*1000</f>
+        <v>1647349200000</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1">
+        <v>459.0</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D465" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K465" s="37">
+        <v>44636.458333333336</v>
+      </c>
+      <c r="L465" s="32">
+        <f t="shared" si="25"/>
+        <v>1647428400000</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1">
+        <v>460.0</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C466" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="D466" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K466" s="37">
+        <v>44637.5</v>
+      </c>
+      <c r="L466" s="32">
+        <f t="shared" si="25"/>
+        <v>1647518400000</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1">
+        <v>461.0</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D467" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K467" s="37">
+        <v>44638.5</v>
+      </c>
+      <c r="L467" s="32">
+        <f t="shared" si="25"/>
+        <v>1647604800000</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1">
+        <v>462.0</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="D468" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K468" s="37">
+        <v>44639.416666666664</v>
+      </c>
+      <c r="L468" s="32">
+        <f t="shared" si="25"/>
+        <v>1647684000000</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1">
+        <v>463.0</v>
+      </c>
+      <c r="B469" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D469" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E469" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="K469" s="37">
+        <v>44634.791666666664</v>
+      </c>
+      <c r="L469" s="32">
+        <f t="shared" si="25"/>
+        <v>1647284400000</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1">
+        <v>464.0</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="D470" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E470" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="K470" s="37">
+        <v>44635.125</v>
+      </c>
+      <c r="L470" s="32">
+        <f t="shared" si="25"/>
+        <v>1647313200000</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1">
+        <v>465.0</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C471" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="D471" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K471" s="37">
+        <v>44636.708333333336</v>
+      </c>
+      <c r="L471" s="32">
+        <f t="shared" si="25"/>
+        <v>1647450000000</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1">
+        <v>466.0</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C472" s="31" t="s">
+        <v>709</v>
+      </c>
+      <c r="D472" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F472" s="36"/>
+      <c r="K472" s="37">
+        <v>44639.0</v>
+      </c>
+      <c r="L472" s="32">
+        <f t="shared" si="25"/>
+        <v>1647648000000</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1">
+        <v>467.0</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C473" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="D473" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K473" s="37">
+        <v>44639.791666666664</v>
+      </c>
+      <c r="L473" s="32">
+        <f t="shared" si="25"/>
+        <v>1647716400000</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1">
+        <v>468.0</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C474" s="31" t="s">
+        <v>711</v>
+      </c>
+      <c r="D474" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K474" s="37">
+        <v>44641.0</v>
+      </c>
+      <c r="L474" s="32">
+        <f t="shared" si="25"/>
+        <v>1647820800000</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1">
+        <v>469.0</v>
+      </c>
+      <c r="B475" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D475" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E475" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="K475" s="37">
+        <v>44635.0625</v>
+      </c>
+      <c r="L475" s="32">
+        <f t="shared" si="25"/>
+        <v>1647307800000</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D476" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K476" s="37">
+        <v>44635.791666666664</v>
+      </c>
+      <c r="L476" s="32">
+        <f t="shared" si="25"/>
+        <v>1647370800000</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1">
+        <v>471.0</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D477" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K477" s="37">
+        <v>44636.833333333336</v>
+      </c>
+      <c r="L477" s="32">
+        <f t="shared" si="25"/>
+        <v>1647460800000</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1">
+        <v>472.0</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D478" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K478" s="37">
+        <v>44637.0</v>
+      </c>
+      <c r="L478" s="32">
+        <f t="shared" si="25"/>
+        <v>1647475200000</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1">
+        <v>473.0</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D479" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K479" s="37">
+        <v>44637.833333333336</v>
+      </c>
+      <c r="L479" s="32">
+        <f t="shared" si="25"/>
+        <v>1647547200000</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1">
+        <v>474.0</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D480" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K480" s="37">
+        <v>44638.125</v>
+      </c>
+      <c r="L480" s="32">
+        <f t="shared" si="25"/>
+        <v>1647572400000</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1">
+        <v>475.0</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D481" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F481" s="36"/>
+      <c r="K481" s="37">
+        <v>44639.0</v>
+      </c>
+      <c r="L481" s="32">
+        <f t="shared" si="25"/>
+        <v>1647648000000</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1">
+        <v>476.0</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="D482" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K482" s="37">
+        <v>44639.416666666664</v>
+      </c>
+      <c r="L482" s="32">
+        <f t="shared" si="25"/>
+        <v>1647684000000</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1">
+        <v>477.0</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D483" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K483" s="37">
+        <v>44640.125</v>
+      </c>
+      <c r="L483" s="32">
+        <f t="shared" si="25"/>
+        <v>1647745200000</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="B484" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M484" s="1">
+        <v>474.0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="B485" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M485" s="1">
+        <v>472.0</v>
       </c>
     </row>
   </sheetData>
@@ -13859,18 +14449,31 @@
     <hyperlink r:id="rId275" ref="E355"/>
     <hyperlink r:id="rId276" ref="E364"/>
     <hyperlink r:id="rId277" ref="E365"/>
-    <hyperlink r:id="rId278" ref="E379"/>
-    <hyperlink r:id="rId279" ref="E380"/>
-    <hyperlink r:id="rId280" ref="E399"/>
-    <hyperlink r:id="rId281" ref="E401"/>
-    <hyperlink r:id="rId282" ref="E409"/>
-    <hyperlink r:id="rId283" ref="E416"/>
-    <hyperlink r:id="rId284" ref="E422"/>
-    <hyperlink r:id="rId285" ref="E432"/>
-    <hyperlink r:id="rId286" ref="E440"/>
-    <hyperlink r:id="rId287" ref="E448"/>
-    <hyperlink r:id="rId288" ref="E449"/>
+    <hyperlink r:id="rId278" ref="E366"/>
+    <hyperlink r:id="rId279" ref="E367"/>
+    <hyperlink r:id="rId280" ref="E379"/>
+    <hyperlink r:id="rId281" ref="E380"/>
+    <hyperlink r:id="rId282" ref="E381"/>
+    <hyperlink r:id="rId283" ref="E392"/>
+    <hyperlink r:id="rId284" ref="E399"/>
+    <hyperlink r:id="rId285" ref="E401"/>
+    <hyperlink r:id="rId286" ref="E402"/>
+    <hyperlink r:id="rId287" ref="E409"/>
+    <hyperlink r:id="rId288" ref="E410"/>
+    <hyperlink r:id="rId289" ref="E416"/>
+    <hyperlink r:id="rId290" ref="E417"/>
+    <hyperlink r:id="rId291" ref="E422"/>
+    <hyperlink r:id="rId292" ref="E425"/>
+    <hyperlink r:id="rId293" ref="E432"/>
+    <hyperlink r:id="rId294" ref="E440"/>
+    <hyperlink r:id="rId295" ref="E442"/>
+    <hyperlink r:id="rId296" ref="E448"/>
+    <hyperlink r:id="rId297" ref="E449"/>
+    <hyperlink r:id="rId298" ref="E464"/>
+    <hyperlink r:id="rId299" ref="E469"/>
+    <hyperlink r:id="rId300" ref="E470"/>
+    <hyperlink r:id="rId301" ref="E475"/>
   </hyperlinks>
-  <drawing r:id="rId289"/>
+  <drawing r:id="rId302"/>
 </worksheet>
 </file>
--- a/src/assets/docs/Schedule.xlsx
+++ b/src/assets/docs/Schedule.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="740">
   <si>
     <t>id</t>
   </si>
@@ -1879,6 +1879,9 @@
     <t>DECEIT NIJISANJI COLLAB</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=-NUv5qi8OE0</t>
+  </si>
+  <si>
     <t>TWISTED WONDERLAND w/ Petra</t>
   </si>
   <si>
@@ -2177,6 +2180,57 @@
   </si>
   <si>
     <t>APEX LEGENDS W/ REIMU MAHIRO</t>
+  </si>
+  <si>
+    <t>LucaX</t>
+  </si>
+  <si>
+    <t>WALKING DEAD S1 FINALE</t>
+  </si>
+  <si>
+    <t>NIJIEN MINECRAFT COLLAB</t>
+  </si>
+  <si>
+    <t>NIDHOGG 2 w/ SELEN</t>
+  </si>
+  <si>
+    <t>MISSING CHILDREN</t>
+  </si>
+  <si>
+    <t>GETTING OVER IT SPEEDRUNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUPA READING </t>
+  </si>
+  <si>
+    <t>Red Dead Redemption 2</t>
+  </si>
+  <si>
+    <t>Clay Painting</t>
+  </si>
+  <si>
+    <t>VR CHAT COLLAB</t>
+  </si>
+  <si>
+    <t>Millie &amp; Elira OFFLINE COLLAB</t>
+  </si>
+  <si>
+    <t>ROLL DAT DOUGH PREMIERE</t>
+  </si>
+  <si>
+    <t>I'M BACK! MINECRAFT (FINISHING PROJECT!)</t>
+  </si>
+  <si>
+    <t>EN MINECRAFT SERVER</t>
+  </si>
+  <si>
+    <t>250K HORROR VR W/ SELEN</t>
+  </si>
+  <si>
+    <t>METAL GEAR SOLID 1</t>
+  </si>
+  <si>
+    <t>VRCHAT EN COLLAB</t>
   </si>
 </sst>
 </file>
@@ -2191,7 +2245,7 @@
     <numFmt numFmtId="168" formatCode="yyyy/m/d am/pm h:mm:ss"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d h:mm:ss"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2235,7 +2289,6 @@
       <u/>
       <color rgb="FF1155CC"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -2277,7 +2330,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2365,25 +2418,16 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11597,7 +11641,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" s="31" t="s">
+      <c r="B363" s="1" t="s">
         <v>602</v>
       </c>
       <c r="M363" s="1">
@@ -11611,30 +11655,30 @@
       <c r="B364" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C364" s="32" t="s">
+      <c r="C364" s="31" t="s">
         <v>603</v>
       </c>
-      <c r="D364" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="E364" s="33" t="s">
+      <c r="D364" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E364" s="32" t="s">
         <v>604</v>
       </c>
-      <c r="F364" s="34"/>
-      <c r="G364" s="34"/>
-      <c r="H364" s="34"/>
-      <c r="I364" s="32"/>
-      <c r="J364" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K364" s="35">
+      <c r="F364" s="33"/>
+      <c r="G364" s="33"/>
+      <c r="H364" s="33"/>
+      <c r="I364" s="31"/>
+      <c r="J364" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K364" s="34">
         <v>44633.5</v>
       </c>
-      <c r="L364" s="32">
+      <c r="L364" s="31">
         <f t="shared" ref="L364:L372" si="20">(K364-Date(1970,1,1))*86400*1000</f>
         <v>1647172800000</v>
       </c>
-      <c r="M364" s="32"/>
+      <c r="M364" s="31"/>
     </row>
     <row r="365">
       <c r="A365" s="1">
@@ -11646,20 +11690,20 @@
       <c r="C365" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D365" s="32" t="b">
+      <c r="D365" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E365" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="K365" s="35">
+      <c r="K365" s="34">
         <v>44634.083333333336</v>
       </c>
-      <c r="L365" s="32">
+      <c r="L365" s="31">
         <f t="shared" si="20"/>
         <v>1647223200000</v>
       </c>
-      <c r="M365" s="32"/>
+      <c r="M365" s="31"/>
     </row>
     <row r="366">
       <c r="A366" s="1">
@@ -11671,20 +11715,20 @@
       <c r="C366" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="D366" s="32" t="b">
+      <c r="D366" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E366" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="K366" s="35">
+      <c r="K366" s="34">
         <v>44634.875</v>
       </c>
-      <c r="L366" s="32">
+      <c r="L366" s="31">
         <f t="shared" si="20"/>
         <v>1647291600000</v>
       </c>
-      <c r="M366" s="32"/>
+      <c r="M366" s="31"/>
     </row>
     <row r="367">
       <c r="A367" s="1">
@@ -11696,20 +11740,20 @@
       <c r="C367" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D367" s="32" t="b">
+      <c r="D367" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E367" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="K367" s="35">
+      <c r="K367" s="34">
         <v>44635.125</v>
       </c>
-      <c r="L367" s="32">
+      <c r="L367" s="31">
         <f t="shared" si="20"/>
         <v>1647313200000</v>
       </c>
-      <c r="M367" s="32"/>
+      <c r="M367" s="31"/>
     </row>
     <row r="368">
       <c r="A368" s="1">
@@ -11721,17 +11765,17 @@
       <c r="C368" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D368" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K368" s="35">
+      <c r="D368" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K368" s="34">
         <v>44636.041666666664</v>
       </c>
-      <c r="L368" s="32">
+      <c r="L368" s="31">
         <f t="shared" si="20"/>
         <v>1647392400000</v>
       </c>
-      <c r="M368" s="32"/>
+      <c r="M368" s="31"/>
     </row>
     <row r="369">
       <c r="A369" s="1">
@@ -11743,17 +11787,17 @@
       <c r="C369" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="D369" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K369" s="35">
+      <c r="D369" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K369" s="34">
         <v>44636.875</v>
       </c>
-      <c r="L369" s="32">
+      <c r="L369" s="31">
         <f t="shared" si="20"/>
         <v>1647464400000</v>
       </c>
-      <c r="M369" s="32"/>
+      <c r="M369" s="31"/>
     </row>
     <row r="370">
       <c r="A370" s="1">
@@ -11765,17 +11809,17 @@
       <c r="C370" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D370" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K370" s="35">
+      <c r="D370" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K370" s="34">
         <v>44637.125</v>
       </c>
-      <c r="L370" s="32">
+      <c r="L370" s="31">
         <f t="shared" si="20"/>
         <v>1647486000000</v>
       </c>
-      <c r="M370" s="32"/>
+      <c r="M370" s="31"/>
     </row>
     <row r="371">
       <c r="A371" s="1">
@@ -11787,17 +11831,17 @@
       <c r="C371" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D371" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K371" s="35">
+      <c r="D371" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K371" s="34">
         <v>44639.75</v>
       </c>
-      <c r="L371" s="32">
+      <c r="L371" s="31">
         <f t="shared" si="20"/>
         <v>1647712800000</v>
       </c>
-      <c r="M371" s="32"/>
+      <c r="M371" s="31"/>
     </row>
     <row r="372">
       <c r="A372" s="1">
@@ -11809,17 +11853,17 @@
       <c r="C372" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D372" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K372" s="35">
+      <c r="D372" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K372" s="34">
         <v>44640.125</v>
       </c>
-      <c r="L372" s="32">
+      <c r="L372" s="31">
         <f t="shared" si="20"/>
         <v>1647745200000</v>
       </c>
-      <c r="M372" s="32"/>
+      <c r="M372" s="31"/>
     </row>
     <row r="373">
       <c r="B373" s="1" t="s">
@@ -11838,7 +11882,7 @@
       </c>
     </row>
     <row r="375">
-      <c r="B375" s="31" t="s">
+      <c r="B375" s="1" t="s">
         <v>602</v>
       </c>
       <c r="M375" s="1">
@@ -11854,7 +11898,7 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" s="31" t="s">
+      <c r="B377" s="1" t="s">
         <v>196</v>
       </c>
       <c r="M377" s="1">
@@ -11879,20 +11923,20 @@
       <c r="C379" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="D379" s="32" t="b">
+      <c r="D379" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E379" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="K379" s="35">
+      <c r="K379" s="34">
         <v>44633.833333333336</v>
       </c>
-      <c r="L379" s="32">
+      <c r="L379" s="31">
         <f t="shared" ref="L379:L388" si="21">(K379-Date(1970,1,1))*86400*1000</f>
         <v>1647201600000</v>
       </c>
-      <c r="M379" s="32"/>
+      <c r="M379" s="31"/>
     </row>
     <row r="380">
       <c r="A380" s="1">
@@ -11904,20 +11948,20 @@
       <c r="C380" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="D380" s="32" t="b">
+      <c r="D380" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E380" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="K380" s="35">
+      <c r="K380" s="34">
         <v>44634.125</v>
       </c>
-      <c r="L380" s="32">
+      <c r="L380" s="31">
         <f t="shared" si="21"/>
         <v>1647226800000</v>
       </c>
-      <c r="M380" s="32"/>
+      <c r="M380" s="31"/>
     </row>
     <row r="381">
       <c r="A381" s="1">
@@ -11929,20 +11973,20 @@
       <c r="C381" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="D381" s="32" t="b">
+      <c r="D381" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E381" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="K381" s="35">
+      <c r="K381" s="34">
         <v>44634.833333333336</v>
       </c>
-      <c r="L381" s="32">
+      <c r="L381" s="31">
         <f t="shared" si="21"/>
         <v>1647288000000</v>
       </c>
-      <c r="M381" s="32"/>
+      <c r="M381" s="31"/>
     </row>
     <row r="382">
       <c r="A382" s="1">
@@ -11954,17 +11998,20 @@
       <c r="C382" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="D382" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K382" s="35">
+      <c r="D382" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E382" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="K382" s="34">
         <v>44635.125</v>
       </c>
-      <c r="L382" s="32">
+      <c r="L382" s="31">
         <f t="shared" si="21"/>
         <v>1647313200000</v>
       </c>
-      <c r="M382" s="32"/>
+      <c r="M382" s="31"/>
     </row>
     <row r="383">
       <c r="A383" s="1">
@@ -11974,19 +12021,19 @@
         <v>146</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D383" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K383" s="35">
+        <v>623</v>
+      </c>
+      <c r="D383" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K383" s="34">
         <v>44636.083333333336</v>
       </c>
-      <c r="L383" s="32">
+      <c r="L383" s="31">
         <f t="shared" si="21"/>
         <v>1647396000000</v>
       </c>
-      <c r="M383" s="32"/>
+      <c r="M383" s="31"/>
     </row>
     <row r="384">
       <c r="A384" s="1">
@@ -11996,19 +12043,19 @@
         <v>146</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="D384" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K384" s="35">
+        <v>624</v>
+      </c>
+      <c r="D384" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K384" s="34">
         <v>44636.708333333336</v>
       </c>
-      <c r="L384" s="32">
+      <c r="L384" s="31">
         <f t="shared" si="21"/>
         <v>1647450000000</v>
       </c>
-      <c r="M384" s="32"/>
+      <c r="M384" s="31"/>
     </row>
     <row r="385">
       <c r="A385" s="1">
@@ -12018,19 +12065,19 @@
         <v>146</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="D385" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K385" s="35">
+        <v>625</v>
+      </c>
+      <c r="D385" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K385" s="34">
         <v>44637.125</v>
       </c>
-      <c r="L385" s="32">
+      <c r="L385" s="31">
         <f t="shared" si="21"/>
         <v>1647486000000</v>
       </c>
-      <c r="M385" s="32"/>
+      <c r="M385" s="31"/>
     </row>
     <row r="386">
       <c r="A386" s="1">
@@ -12040,19 +12087,19 @@
         <v>146</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D386" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K386" s="35">
+        <v>626</v>
+      </c>
+      <c r="D386" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K386" s="34">
         <v>44638.0</v>
       </c>
-      <c r="L386" s="32">
+      <c r="L386" s="31">
         <f t="shared" si="21"/>
         <v>1647561600000</v>
       </c>
-      <c r="M386" s="32"/>
+      <c r="M386" s="31"/>
     </row>
     <row r="387">
       <c r="A387" s="1">
@@ -12062,19 +12109,19 @@
         <v>146</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D387" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K387" s="35">
+        <v>627</v>
+      </c>
+      <c r="D387" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K387" s="34">
         <v>44638.833333333336</v>
       </c>
-      <c r="L387" s="32">
+      <c r="L387" s="31">
         <f t="shared" si="21"/>
         <v>1647633600000</v>
       </c>
-      <c r="M387" s="32"/>
+      <c r="M387" s="31"/>
     </row>
     <row r="388">
       <c r="A388" s="1">
@@ -12084,19 +12131,19 @@
         <v>146</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="D388" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K388" s="35">
+        <v>628</v>
+      </c>
+      <c r="D388" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K388" s="34">
         <v>44639.958333333336</v>
       </c>
-      <c r="L388" s="32">
+      <c r="L388" s="31">
         <f t="shared" si="21"/>
         <v>1647730800000</v>
       </c>
-      <c r="M388" s="32"/>
+      <c r="M388" s="31"/>
     </row>
     <row r="389">
       <c r="B389" s="1" t="s">
@@ -12116,7 +12163,7 @@
     </row>
     <row r="391">
       <c r="B391" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="M391" s="1">
         <v>393.0</v>
@@ -12132,20 +12179,20 @@
       <c r="C392" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D392" s="32" t="b">
+      <c r="D392" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E392" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="K392" s="35">
+        <v>629</v>
+      </c>
+      <c r="K392" s="34">
         <v>44634.833333333336</v>
       </c>
-      <c r="L392" s="32">
+      <c r="L392" s="31">
         <f t="shared" ref="L392:L422" si="22">(K392-Date(1970,1,1))*86400*1000</f>
         <v>1647288000000</v>
       </c>
-      <c r="M392" s="32"/>
+      <c r="M392" s="31"/>
     </row>
     <row r="393">
       <c r="A393" s="1">
@@ -12155,19 +12202,19 @@
         <v>182</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D393" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K393" s="35">
+        <v>630</v>
+      </c>
+      <c r="D393" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K393" s="34">
         <v>44635.916666666664</v>
       </c>
-      <c r="L393" s="32">
+      <c r="L393" s="31">
         <f t="shared" si="22"/>
         <v>1647381600000</v>
       </c>
-      <c r="M393" s="32"/>
+      <c r="M393" s="31"/>
     </row>
     <row r="394">
       <c r="A394" s="1">
@@ -12177,19 +12224,19 @@
         <v>182</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D394" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K394" s="35">
+        <v>631</v>
+      </c>
+      <c r="D394" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K394" s="34">
         <v>44636.708333333336</v>
       </c>
-      <c r="L394" s="32">
+      <c r="L394" s="31">
         <f t="shared" si="22"/>
         <v>1647450000000</v>
       </c>
-      <c r="M394" s="32"/>
+      <c r="M394" s="31"/>
     </row>
     <row r="395">
       <c r="A395" s="1">
@@ -12199,19 +12246,19 @@
         <v>182</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="D395" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K395" s="35">
+        <v>632</v>
+      </c>
+      <c r="D395" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K395" s="34">
         <v>44637.916666666664</v>
       </c>
-      <c r="L395" s="32">
+      <c r="L395" s="31">
         <f t="shared" si="22"/>
         <v>1647554400000</v>
       </c>
-      <c r="M395" s="32"/>
+      <c r="M395" s="31"/>
     </row>
     <row r="396">
       <c r="A396" s="1">
@@ -12221,20 +12268,20 @@
         <v>182</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D396" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F396" s="36"/>
-      <c r="K396" s="35">
+        <v>633</v>
+      </c>
+      <c r="D396" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F396" s="31"/>
+      <c r="K396" s="34">
         <v>44639.0</v>
       </c>
-      <c r="L396" s="32">
+      <c r="L396" s="31">
         <f t="shared" si="22"/>
         <v>1647648000000</v>
       </c>
-      <c r="M396" s="32"/>
+      <c r="M396" s="31"/>
     </row>
     <row r="397">
       <c r="A397" s="1">
@@ -12244,19 +12291,19 @@
         <v>182</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D397" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K397" s="35">
+        <v>634</v>
+      </c>
+      <c r="D397" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K397" s="34">
         <v>44639.791666666664</v>
       </c>
-      <c r="L397" s="32">
+      <c r="L397" s="31">
         <f t="shared" si="22"/>
         <v>1647716400000</v>
       </c>
-      <c r="M397" s="32"/>
+      <c r="M397" s="31"/>
     </row>
     <row r="398">
       <c r="A398" s="1">
@@ -12266,25 +12313,25 @@
         <v>286</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="D398" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H398" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J398" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K398" s="35">
+        <v>635</v>
+      </c>
+      <c r="D398" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J398" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K398" s="34">
         <v>44633.916666666664</v>
       </c>
-      <c r="L398" s="32">
+      <c r="L398" s="31">
         <f t="shared" si="22"/>
         <v>1647208800000</v>
       </c>
-      <c r="M398" s="32"/>
+      <c r="M398" s="31"/>
     </row>
     <row r="399">
       <c r="A399" s="1">
@@ -12294,24 +12341,24 @@
         <v>286</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="D399" s="32"/>
+        <v>636</v>
+      </c>
+      <c r="D399" s="31"/>
       <c r="E399" s="7" t="s">
-        <v>636</v>
-      </c>
-      <c r="I399" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J399" s="32"/>
-      <c r="K399" s="35">
+        <v>637</v>
+      </c>
+      <c r="I399" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J399" s="31"/>
+      <c r="K399" s="34">
         <v>44633.916666666664</v>
       </c>
-      <c r="L399" s="32">
+      <c r="L399" s="31">
         <f t="shared" si="22"/>
         <v>1647208800000</v>
       </c>
-      <c r="M399" s="32"/>
+      <c r="M399" s="31"/>
     </row>
     <row r="400">
       <c r="A400" s="1">
@@ -12321,22 +12368,22 @@
         <v>286</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D400" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J400" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K400" s="35">
+        <v>638</v>
+      </c>
+      <c r="D400" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J400" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K400" s="34">
         <v>44634.041666666664</v>
       </c>
-      <c r="L400" s="32">
+      <c r="L400" s="31">
         <f t="shared" si="22"/>
         <v>1647219600000</v>
       </c>
-      <c r="M400" s="32"/>
+      <c r="M400" s="31"/>
     </row>
     <row r="401">
       <c r="A401" s="1">
@@ -12346,22 +12393,22 @@
         <v>286</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="D401" s="32" t="b">
+        <v>639</v>
+      </c>
+      <c r="D401" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E401" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="K401" s="35">
+        <v>640</v>
+      </c>
+      <c r="K401" s="34">
         <v>44634.541666666664</v>
       </c>
-      <c r="L401" s="32">
+      <c r="L401" s="31">
         <f t="shared" si="22"/>
         <v>1647262800000</v>
       </c>
-      <c r="M401" s="32"/>
+      <c r="M401" s="31"/>
     </row>
     <row r="402">
       <c r="A402" s="1">
@@ -12371,22 +12418,22 @@
         <v>286</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D402" s="32" t="b">
+        <v>641</v>
+      </c>
+      <c r="D402" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E402" s="7" t="s">
-        <v>641</v>
-      </c>
-      <c r="K402" s="35">
+        <v>642</v>
+      </c>
+      <c r="K402" s="34">
         <v>44635.041666666664</v>
       </c>
-      <c r="L402" s="32">
+      <c r="L402" s="31">
         <f t="shared" si="22"/>
         <v>1647306000000</v>
       </c>
-      <c r="M402" s="32"/>
+      <c r="M402" s="31"/>
     </row>
     <row r="403">
       <c r="A403" s="1">
@@ -12396,19 +12443,19 @@
         <v>286</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D403" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K403" s="35">
+        <v>643</v>
+      </c>
+      <c r="D403" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K403" s="34">
         <v>44636.125</v>
       </c>
-      <c r="L403" s="32">
+      <c r="L403" s="31">
         <f t="shared" si="22"/>
         <v>1647399600000</v>
       </c>
-      <c r="M403" s="32"/>
+      <c r="M403" s="31"/>
     </row>
     <row r="404">
       <c r="A404" s="1">
@@ -12418,22 +12465,22 @@
         <v>286</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D404" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J404" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K404" s="35">
+        <v>644</v>
+      </c>
+      <c r="D404" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J404" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K404" s="34">
         <v>44637.083333333336</v>
       </c>
-      <c r="L404" s="32">
+      <c r="L404" s="31">
         <f t="shared" si="22"/>
         <v>1647482400000</v>
       </c>
-      <c r="M404" s="32"/>
+      <c r="M404" s="31"/>
     </row>
     <row r="405">
       <c r="A405" s="1">
@@ -12443,19 +12490,19 @@
         <v>286</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D405" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K405" s="35">
+        <v>645</v>
+      </c>
+      <c r="D405" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K405" s="34">
         <v>44637.583333333336</v>
       </c>
-      <c r="L405" s="32">
+      <c r="L405" s="31">
         <f t="shared" si="22"/>
         <v>1647525600000</v>
       </c>
-      <c r="M405" s="32"/>
+      <c r="M405" s="31"/>
     </row>
     <row r="406">
       <c r="A406" s="1">
@@ -12467,17 +12514,17 @@
       <c r="C406" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D406" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K406" s="35">
+      <c r="D406" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K406" s="34">
         <v>44638.125</v>
       </c>
-      <c r="L406" s="32">
+      <c r="L406" s="31">
         <f t="shared" si="22"/>
         <v>1647572400000</v>
       </c>
-      <c r="M406" s="32"/>
+      <c r="M406" s="31"/>
     </row>
     <row r="407">
       <c r="A407" s="1">
@@ -12487,19 +12534,19 @@
         <v>286</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D407" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K407" s="35">
+        <v>646</v>
+      </c>
+      <c r="D407" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K407" s="34">
         <v>44639.083333333336</v>
       </c>
-      <c r="L407" s="32">
+      <c r="L407" s="31">
         <f t="shared" si="22"/>
         <v>1647655200000</v>
       </c>
-      <c r="M407" s="32"/>
+      <c r="M407" s="31"/>
     </row>
     <row r="408">
       <c r="A408" s="1">
@@ -12509,22 +12556,22 @@
         <v>286</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D408" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J408" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K408" s="35">
+        <v>647</v>
+      </c>
+      <c r="D408" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J408" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K408" s="34">
         <v>44639.958333333336</v>
       </c>
-      <c r="L408" s="32">
+      <c r="L408" s="31">
         <f t="shared" si="22"/>
         <v>1647730800000</v>
       </c>
-      <c r="M408" s="32"/>
+      <c r="M408" s="31"/>
     </row>
     <row r="409">
       <c r="A409" s="1">
@@ -12534,22 +12581,22 @@
         <v>93</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D409" s="32" t="b">
+        <v>648</v>
+      </c>
+      <c r="D409" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E409" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="K409" s="35">
+        <v>649</v>
+      </c>
+      <c r="K409" s="34">
         <v>44634.208333333336</v>
       </c>
-      <c r="L409" s="32">
+      <c r="L409" s="31">
         <f t="shared" si="22"/>
         <v>1647234000000</v>
       </c>
-      <c r="M409" s="32"/>
+      <c r="M409" s="31"/>
     </row>
     <row r="410">
       <c r="A410" s="1">
@@ -12559,22 +12606,22 @@
         <v>93</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D410" s="32" t="b">
+        <v>650</v>
+      </c>
+      <c r="D410" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E410" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="K410" s="35">
+        <v>651</v>
+      </c>
+      <c r="K410" s="34">
         <v>44635.25</v>
       </c>
-      <c r="L410" s="32">
+      <c r="L410" s="31">
         <f t="shared" si="22"/>
         <v>1647324000000</v>
       </c>
-      <c r="M410" s="32"/>
+      <c r="M410" s="31"/>
     </row>
     <row r="411">
       <c r="A411" s="1">
@@ -12586,17 +12633,17 @@
       <c r="C411" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D411" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K411" s="35">
+      <c r="D411" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K411" s="34">
         <v>44636.208333333336</v>
       </c>
-      <c r="L411" s="32">
+      <c r="L411" s="31">
         <f t="shared" si="22"/>
         <v>1647406800000</v>
       </c>
-      <c r="M411" s="32"/>
+      <c r="M411" s="31"/>
     </row>
     <row r="412">
       <c r="A412" s="1">
@@ -12608,17 +12655,17 @@
       <c r="C412" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D412" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K412" s="35">
+      <c r="D412" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K412" s="34">
         <v>44637.291666666664</v>
       </c>
-      <c r="L412" s="32">
+      <c r="L412" s="31">
         <f t="shared" si="22"/>
         <v>1647500400000</v>
       </c>
-      <c r="M412" s="32"/>
+      <c r="M412" s="31"/>
     </row>
     <row r="413">
       <c r="A413" s="1">
@@ -12628,19 +12675,19 @@
         <v>93</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D413" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K413" s="35">
+        <v>652</v>
+      </c>
+      <c r="D413" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K413" s="34">
         <v>44638.208333333336</v>
       </c>
-      <c r="L413" s="32">
+      <c r="L413" s="31">
         <f t="shared" si="22"/>
         <v>1647579600000</v>
       </c>
-      <c r="M413" s="32"/>
+      <c r="M413" s="31"/>
     </row>
     <row r="414">
       <c r="A414" s="1">
@@ -12652,17 +12699,17 @@
       <c r="C414" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D414" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K414" s="35">
+      <c r="D414" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K414" s="34">
         <v>44639.25</v>
       </c>
-      <c r="L414" s="32">
+      <c r="L414" s="31">
         <f t="shared" si="22"/>
         <v>1647669600000</v>
       </c>
-      <c r="M414" s="32"/>
+      <c r="M414" s="31"/>
     </row>
     <row r="415">
       <c r="A415" s="1">
@@ -12672,19 +12719,19 @@
         <v>93</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D415" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K415" s="35">
+        <v>653</v>
+      </c>
+      <c r="D415" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K415" s="34">
         <v>44640.25</v>
       </c>
-      <c r="L415" s="32">
+      <c r="L415" s="31">
         <f t="shared" si="22"/>
         <v>1647756000000</v>
       </c>
-      <c r="M415" s="32"/>
+      <c r="M415" s="31"/>
     </row>
     <row r="416">
       <c r="A416" s="1">
@@ -12694,22 +12741,22 @@
         <v>28</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="D416" s="32" t="b">
+        <v>654</v>
+      </c>
+      <c r="D416" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E416" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="K416" s="35">
+        <v>655</v>
+      </c>
+      <c r="K416" s="34">
         <v>44634.458333333336</v>
       </c>
-      <c r="L416" s="32">
+      <c r="L416" s="31">
         <f t="shared" si="22"/>
         <v>1647255600000</v>
       </c>
-      <c r="M416" s="32"/>
+      <c r="M416" s="31"/>
     </row>
     <row r="417">
       <c r="A417" s="1">
@@ -12719,25 +12766,25 @@
         <v>28</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="D417" s="32" t="b">
+        <v>656</v>
+      </c>
+      <c r="D417" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E417" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="J417" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K417" s="35">
+        <v>657</v>
+      </c>
+      <c r="J417" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K417" s="34">
         <v>44635.125</v>
       </c>
-      <c r="L417" s="32">
+      <c r="L417" s="31">
         <f t="shared" si="22"/>
         <v>1647313200000</v>
       </c>
-      <c r="M417" s="32"/>
+      <c r="M417" s="31"/>
     </row>
     <row r="418">
       <c r="A418" s="1">
@@ -12749,17 +12796,17 @@
       <c r="C418" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="D418" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K418" s="35">
+      <c r="D418" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K418" s="34">
         <v>44635.75</v>
       </c>
-      <c r="L418" s="32">
+      <c r="L418" s="31">
         <f t="shared" si="22"/>
         <v>1647367200000</v>
       </c>
-      <c r="M418" s="32"/>
+      <c r="M418" s="31"/>
     </row>
     <row r="419">
       <c r="A419" s="1">
@@ -12769,19 +12816,19 @@
         <v>28</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D419" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K419" s="35">
+        <v>658</v>
+      </c>
+      <c r="D419" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K419" s="34">
         <v>44636.5</v>
       </c>
-      <c r="L419" s="32">
+      <c r="L419" s="31">
         <f t="shared" si="22"/>
         <v>1647432000000</v>
       </c>
-      <c r="M419" s="32"/>
+      <c r="M419" s="31"/>
     </row>
     <row r="420">
       <c r="A420" s="1">
@@ -12791,19 +12838,19 @@
         <v>28</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D420" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K420" s="35">
+        <v>659</v>
+      </c>
+      <c r="D420" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K420" s="34">
         <v>44638.875</v>
       </c>
-      <c r="L420" s="32">
+      <c r="L420" s="31">
         <f t="shared" si="22"/>
         <v>1647637200000</v>
       </c>
-      <c r="M420" s="32"/>
+      <c r="M420" s="31"/>
     </row>
     <row r="421">
       <c r="A421" s="1">
@@ -12813,19 +12860,19 @@
         <v>28</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="D421" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K421" s="35">
+        <v>660</v>
+      </c>
+      <c r="D421" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K421" s="34">
         <v>44639.5625</v>
       </c>
-      <c r="L421" s="32">
+      <c r="L421" s="31">
         <f t="shared" si="22"/>
         <v>1647696600000</v>
       </c>
-      <c r="M421" s="32"/>
+      <c r="M421" s="31"/>
     </row>
     <row r="422">
       <c r="A422" s="1">
@@ -12835,25 +12882,25 @@
         <v>66</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E422" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="I422" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J422" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K422" s="35">
+        <v>662</v>
+      </c>
+      <c r="I422" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J422" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K422" s="34">
         <v>44634.041666666664</v>
       </c>
-      <c r="L422" s="32">
+      <c r="L422" s="31">
         <f t="shared" si="22"/>
         <v>1647219600000</v>
       </c>
-      <c r="M422" s="32"/>
+      <c r="M422" s="31"/>
     </row>
     <row r="423">
       <c r="B423" s="1" t="s">
@@ -12881,20 +12928,20 @@
       <c r="C425" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="D425" s="32" t="b">
+      <c r="D425" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E425" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="K425" s="35">
+        <v>663</v>
+      </c>
+      <c r="K425" s="34">
         <v>44634.5</v>
       </c>
-      <c r="L425" s="32">
+      <c r="L425" s="31">
         <f t="shared" ref="L425:L456" si="23">(K425-Date(1970,1,1))*86400*1000</f>
         <v>1647259200000</v>
       </c>
-      <c r="M425" s="32"/>
+      <c r="M425" s="31"/>
     </row>
     <row r="426">
       <c r="A426" s="1">
@@ -12906,17 +12953,17 @@
       <c r="C426" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D426" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K426" s="35">
+      <c r="D426" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K426" s="34">
         <v>44635.458333333336</v>
       </c>
-      <c r="L426" s="32">
+      <c r="L426" s="31">
         <f t="shared" si="23"/>
         <v>1647342000000</v>
       </c>
-      <c r="M426" s="32"/>
+      <c r="M426" s="31"/>
     </row>
     <row r="427">
       <c r="A427" s="1">
@@ -12926,19 +12973,19 @@
         <v>333</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D427" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K427" s="35">
+        <v>664</v>
+      </c>
+      <c r="D427" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K427" s="34">
         <v>44636.5</v>
       </c>
-      <c r="L427" s="32">
+      <c r="L427" s="31">
         <f t="shared" si="23"/>
         <v>1647432000000</v>
       </c>
-      <c r="M427" s="32"/>
+      <c r="M427" s="31"/>
     </row>
     <row r="428">
       <c r="A428" s="1">
@@ -12948,19 +12995,19 @@
         <v>333</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="D428" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K428" s="35">
+        <v>665</v>
+      </c>
+      <c r="D428" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K428" s="34">
         <v>44636.708333333336</v>
       </c>
-      <c r="L428" s="32">
+      <c r="L428" s="31">
         <f t="shared" si="23"/>
         <v>1647450000000</v>
       </c>
-      <c r="M428" s="32"/>
+      <c r="M428" s="31"/>
     </row>
     <row r="429">
       <c r="A429" s="1">
@@ -12970,19 +13017,19 @@
         <v>333</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="D429" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K429" s="35">
+        <v>666</v>
+      </c>
+      <c r="D429" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K429" s="34">
         <v>44637.5</v>
       </c>
-      <c r="L429" s="32">
+      <c r="L429" s="31">
         <f t="shared" si="23"/>
         <v>1647518400000</v>
       </c>
-      <c r="M429" s="32"/>
+      <c r="M429" s="31"/>
     </row>
     <row r="430">
       <c r="A430" s="1">
@@ -12992,19 +13039,19 @@
         <v>333</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="D430" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K430" s="35">
+        <v>667</v>
+      </c>
+      <c r="D430" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K430" s="34">
         <v>44639.5</v>
       </c>
-      <c r="L430" s="32">
+      <c r="L430" s="31">
         <f t="shared" si="23"/>
         <v>1647691200000</v>
       </c>
-      <c r="M430" s="32"/>
+      <c r="M430" s="31"/>
     </row>
     <row r="431">
       <c r="A431" s="1">
@@ -13014,19 +13061,19 @@
         <v>333</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D431" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K431" s="35">
+        <v>668</v>
+      </c>
+      <c r="D431" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K431" s="34">
         <v>44640.5</v>
       </c>
-      <c r="L431" s="32">
+      <c r="L431" s="31">
         <f t="shared" si="23"/>
         <v>1647777600000</v>
       </c>
-      <c r="M431" s="32"/>
+      <c r="M431" s="31"/>
     </row>
     <row r="432">
       <c r="A432" s="1">
@@ -13036,22 +13083,22 @@
         <v>13</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D432" s="32" t="b">
+        <v>669</v>
+      </c>
+      <c r="D432" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E432" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="K432" s="35">
+        <v>670</v>
+      </c>
+      <c r="K432" s="34">
         <v>44634.541666666664</v>
       </c>
-      <c r="L432" s="32">
+      <c r="L432" s="31">
         <f t="shared" si="23"/>
         <v>1647262800000</v>
       </c>
-      <c r="M432" s="32"/>
+      <c r="M432" s="31"/>
     </row>
     <row r="433">
       <c r="A433" s="1">
@@ -13061,19 +13108,19 @@
         <v>13</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D433" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K433" s="35">
+        <v>671</v>
+      </c>
+      <c r="D433" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K433" s="34">
         <v>44635.875</v>
       </c>
-      <c r="L433" s="32">
+      <c r="L433" s="31">
         <f t="shared" si="23"/>
         <v>1647378000000</v>
       </c>
-      <c r="M433" s="32"/>
+      <c r="M433" s="31"/>
     </row>
     <row r="434">
       <c r="A434" s="1">
@@ -13083,19 +13130,19 @@
         <v>13</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D434" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K434" s="35">
+        <v>672</v>
+      </c>
+      <c r="D434" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K434" s="34">
         <v>44636.541666666664</v>
       </c>
-      <c r="L434" s="32">
+      <c r="L434" s="31">
         <f t="shared" si="23"/>
         <v>1647435600000</v>
       </c>
-      <c r="M434" s="32"/>
+      <c r="M434" s="31"/>
     </row>
     <row r="435">
       <c r="A435" s="1">
@@ -13105,22 +13152,22 @@
         <v>13</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D435" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K435" s="35">
+        <v>673</v>
+      </c>
+      <c r="D435" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K435" s="34">
         <v>44636.708333333336</v>
       </c>
-      <c r="L435" s="32">
+      <c r="L435" s="31">
         <f t="shared" si="23"/>
         <v>1647450000000</v>
       </c>
-      <c r="M435" s="32"/>
+      <c r="M435" s="31"/>
     </row>
     <row r="436">
       <c r="A436" s="1">
@@ -13130,19 +13177,19 @@
         <v>13</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D436" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K436" s="35">
+        <v>674</v>
+      </c>
+      <c r="D436" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K436" s="34">
         <v>44637.541666666664</v>
       </c>
-      <c r="L436" s="32">
+      <c r="L436" s="31">
         <f t="shared" si="23"/>
         <v>1647522000000</v>
       </c>
-      <c r="M436" s="32"/>
+      <c r="M436" s="31"/>
     </row>
     <row r="437">
       <c r="A437" s="1">
@@ -13152,19 +13199,19 @@
         <v>13</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="D437" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K437" s="35">
+        <v>675</v>
+      </c>
+      <c r="D437" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K437" s="34">
         <v>44638.583333333336</v>
       </c>
-      <c r="L437" s="32">
+      <c r="L437" s="31">
         <f t="shared" si="23"/>
         <v>1647612000000</v>
       </c>
-      <c r="M437" s="32"/>
+      <c r="M437" s="31"/>
     </row>
     <row r="438">
       <c r="A438" s="1">
@@ -13174,22 +13221,22 @@
         <v>13</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D438" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J438" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K438" s="35">
+        <v>676</v>
+      </c>
+      <c r="D438" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J438" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K438" s="34">
         <v>44639.583333333336</v>
       </c>
-      <c r="L438" s="32">
+      <c r="L438" s="31">
         <f t="shared" si="23"/>
         <v>1647698400000</v>
       </c>
-      <c r="M438" s="32"/>
+      <c r="M438" s="31"/>
     </row>
     <row r="439">
       <c r="A439" s="1">
@@ -13199,19 +13246,19 @@
         <v>13</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="D439" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K439" s="35">
+        <v>677</v>
+      </c>
+      <c r="D439" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K439" s="34">
         <v>44640.541666666664</v>
       </c>
-      <c r="L439" s="32">
+      <c r="L439" s="31">
         <f t="shared" si="23"/>
         <v>1647781200000</v>
       </c>
-      <c r="M439" s="32"/>
+      <c r="M439" s="31"/>
     </row>
     <row r="440">
       <c r="A440" s="1">
@@ -13221,22 +13268,23 @@
         <v>43</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
+      </c>
+      <c r="D440" s="31" t="b">
+        <v>1</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="I440" s="32" t="b">
-        <v>1</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="I440" s="31"/>
       <c r="K440" s="5">
         <v>44634.166666666664</v>
       </c>
-      <c r="L440" s="32">
+      <c r="L440" s="31">
         <f t="shared" si="23"/>
         <v>1647230400000</v>
       </c>
-      <c r="M440" s="32"/>
+      <c r="M440" s="31"/>
     </row>
     <row r="441">
       <c r="A441" s="1">
@@ -13246,19 +13294,19 @@
         <v>249</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D441" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K441" s="35">
+        <v>680</v>
+      </c>
+      <c r="D441" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K441" s="34">
         <v>44634.041666666664</v>
       </c>
-      <c r="L441" s="32">
+      <c r="L441" s="31">
         <f t="shared" si="23"/>
         <v>1647219600000</v>
       </c>
-      <c r="M441" s="32"/>
+      <c r="M441" s="31"/>
     </row>
     <row r="442">
       <c r="A442" s="1">
@@ -13268,22 +13316,22 @@
         <v>249</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="D442" s="32" t="b">
+        <v>681</v>
+      </c>
+      <c r="D442" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E442" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="K442" s="35">
+        <v>682</v>
+      </c>
+      <c r="K442" s="34">
         <v>44635.125</v>
       </c>
-      <c r="L442" s="32">
+      <c r="L442" s="31">
         <f t="shared" si="23"/>
         <v>1647313200000</v>
       </c>
-      <c r="M442" s="32"/>
+      <c r="M442" s="31"/>
     </row>
     <row r="443">
       <c r="A443" s="1">
@@ -13293,19 +13341,19 @@
         <v>249</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D443" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K443" s="35">
+        <v>683</v>
+      </c>
+      <c r="D443" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K443" s="34">
         <v>44636.083333333336</v>
       </c>
-      <c r="L443" s="32">
+      <c r="L443" s="31">
         <f t="shared" si="23"/>
         <v>1647396000000</v>
       </c>
-      <c r="M443" s="32"/>
+      <c r="M443" s="31"/>
     </row>
     <row r="444">
       <c r="A444" s="1">
@@ -13315,19 +13363,19 @@
         <v>249</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D444" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K444" s="35">
+        <v>684</v>
+      </c>
+      <c r="D444" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K444" s="34">
         <v>44637.541666666664</v>
       </c>
-      <c r="L444" s="32">
+      <c r="L444" s="31">
         <f t="shared" si="23"/>
         <v>1647522000000</v>
       </c>
-      <c r="M444" s="32"/>
+      <c r="M444" s="31"/>
     </row>
     <row r="445">
       <c r="A445" s="1">
@@ -13339,17 +13387,17 @@
       <c r="C445" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D445" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K445" s="35">
+      <c r="D445" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K445" s="34">
         <v>44638.125</v>
       </c>
-      <c r="L445" s="32">
+      <c r="L445" s="31">
         <f t="shared" si="23"/>
         <v>1647572400000</v>
       </c>
-      <c r="M445" s="32"/>
+      <c r="M445" s="31"/>
     </row>
     <row r="446">
       <c r="A446" s="1">
@@ -13361,17 +13409,17 @@
       <c r="C446" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D446" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K446" s="35">
+      <c r="D446" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K446" s="34">
         <v>44639.083333333336</v>
       </c>
-      <c r="L446" s="32">
+      <c r="L446" s="31">
         <f t="shared" si="23"/>
         <v>1647655200000</v>
       </c>
-      <c r="M446" s="32"/>
+      <c r="M446" s="31"/>
     </row>
     <row r="447">
       <c r="A447" s="1">
@@ -13381,19 +13429,19 @@
         <v>249</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D447" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K447" s="35">
+        <v>685</v>
+      </c>
+      <c r="D447" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K447" s="34">
         <v>44640.125</v>
       </c>
-      <c r="L447" s="32">
+      <c r="L447" s="31">
         <f t="shared" si="23"/>
         <v>1647745200000</v>
       </c>
-      <c r="M447" s="32"/>
+      <c r="M447" s="31"/>
     </row>
     <row r="448">
       <c r="A448" s="1">
@@ -13403,23 +13451,23 @@
         <v>160</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D448" s="32" t="b">
+        <v>686</v>
+      </c>
+      <c r="D448" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="I448" s="32"/>
-      <c r="K448" s="35">
+        <v>687</v>
+      </c>
+      <c r="I448" s="31"/>
+      <c r="K448" s="34">
         <v>44634.25</v>
       </c>
-      <c r="L448" s="32">
+      <c r="L448" s="31">
         <f t="shared" si="23"/>
         <v>1647237600000</v>
       </c>
-      <c r="M448" s="32"/>
+      <c r="M448" s="31"/>
     </row>
     <row r="449">
       <c r="A449" s="1">
@@ -13429,22 +13477,22 @@
         <v>55</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D449" s="32" t="b">
+        <v>688</v>
+      </c>
+      <c r="D449" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="K449" s="35">
+        <v>689</v>
+      </c>
+      <c r="K449" s="34">
         <v>44634.5</v>
       </c>
-      <c r="L449" s="32">
+      <c r="L449" s="31">
         <f t="shared" si="23"/>
         <v>1647259200000</v>
       </c>
-      <c r="M449" s="32"/>
+      <c r="M449" s="31"/>
     </row>
     <row r="450">
       <c r="A450" s="1">
@@ -13454,22 +13502,22 @@
         <v>160</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="D450" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J450" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K450" s="35">
+        <v>690</v>
+      </c>
+      <c r="D450" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J450" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K450" s="34">
         <v>44636.125</v>
       </c>
-      <c r="L450" s="32">
+      <c r="L450" s="31">
         <f t="shared" si="23"/>
         <v>1647399600000</v>
       </c>
-      <c r="M450" s="32"/>
+      <c r="M450" s="31"/>
     </row>
     <row r="451">
       <c r="A451" s="1">
@@ -13479,25 +13527,25 @@
         <v>160</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="D451" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F451" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J451" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K451" s="35">
+        <v>691</v>
+      </c>
+      <c r="D451" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F451" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J451" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K451" s="34">
         <v>44636.75</v>
       </c>
-      <c r="L451" s="32">
+      <c r="L451" s="31">
         <f t="shared" si="23"/>
         <v>1647453600000</v>
       </c>
-      <c r="M451" s="32"/>
+      <c r="M451" s="31"/>
     </row>
     <row r="452">
       <c r="A452" s="1">
@@ -13507,19 +13555,19 @@
         <v>160</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D452" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K452" s="35">
+        <v>692</v>
+      </c>
+      <c r="D452" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K452" s="34">
         <v>44637.520833333336</v>
       </c>
-      <c r="L452" s="32">
+      <c r="L452" s="31">
         <f t="shared" si="23"/>
         <v>1647520200000</v>
       </c>
-      <c r="M452" s="32"/>
+      <c r="M452" s="31"/>
     </row>
     <row r="453">
       <c r="A453" s="1">
@@ -13529,25 +13577,25 @@
         <v>160</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D453" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F453" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J453" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K453" s="35">
+        <v>693</v>
+      </c>
+      <c r="D453" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F453" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J453" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K453" s="34">
         <v>44638.75</v>
       </c>
-      <c r="L453" s="32">
+      <c r="L453" s="31">
         <f t="shared" si="23"/>
         <v>1647626400000</v>
       </c>
-      <c r="M453" s="32"/>
+      <c r="M453" s="31"/>
     </row>
     <row r="454">
       <c r="A454" s="1">
@@ -13559,20 +13607,20 @@
       <c r="C454" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D454" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J454" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K454" s="35">
+      <c r="D454" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J454" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K454" s="34">
         <v>44639.416666666664</v>
       </c>
-      <c r="L454" s="32">
+      <c r="L454" s="31">
         <f t="shared" si="23"/>
         <v>1647684000000</v>
       </c>
-      <c r="M454" s="32"/>
+      <c r="M454" s="31"/>
     </row>
     <row r="455">
       <c r="A455" s="1">
@@ -13582,25 +13630,25 @@
         <v>160</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D455" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F455" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J455" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K455" s="35">
+        <v>694</v>
+      </c>
+      <c r="D455" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F455" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J455" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K455" s="34">
         <v>44639.916666666664</v>
       </c>
-      <c r="L455" s="32">
+      <c r="L455" s="31">
         <f t="shared" si="23"/>
         <v>1647727200000</v>
       </c>
-      <c r="M455" s="32"/>
+      <c r="M455" s="31"/>
     </row>
     <row r="456">
       <c r="A456" s="1">
@@ -13610,15 +13658,15 @@
         <v>160</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D456" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F456" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J456" s="32" t="b">
+        <v>695</v>
+      </c>
+      <c r="D456" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F456" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J456" s="31" t="b">
         <v>1</v>
       </c>
       <c r="K456" s="5">
@@ -13651,50 +13699,50 @@
         <v>456.0</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D459" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K459" s="35">
+        <v>697</v>
+      </c>
+      <c r="D459" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K459" s="34">
         <v>44636.541666666664</v>
       </c>
-      <c r="L459" s="32">
+      <c r="L459" s="31">
         <f t="shared" ref="L459:L460" si="24">(K459-Date(1970,1,1))*86400*1000</f>
         <v>1647435600000</v>
       </c>
-      <c r="M459" s="32"/>
+      <c r="M459" s="31"/>
     </row>
     <row r="460">
       <c r="A460" s="1">
         <v>457.0</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="D460" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K460" s="35">
+        <v>698</v>
+      </c>
+      <c r="D460" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K460" s="34">
         <v>44639.416666666664</v>
       </c>
-      <c r="L460" s="32">
+      <c r="L460" s="31">
         <f t="shared" si="24"/>
         <v>1647684000000</v>
       </c>
-      <c r="M460" s="32"/>
+      <c r="M460" s="31"/>
     </row>
     <row r="461">
       <c r="B461" s="1" t="s">
@@ -13705,7 +13753,7 @@
       </c>
     </row>
     <row r="462">
-      <c r="B462" s="31" t="s">
+      <c r="B462" s="1" t="s">
         <v>233</v>
       </c>
       <c r="M462" s="1">
@@ -13713,7 +13761,7 @@
       </c>
     </row>
     <row r="463">
-      <c r="B463" s="31" t="s">
+      <c r="B463" s="1" t="s">
         <v>196</v>
       </c>
       <c r="M463" s="1">
@@ -13724,22 +13772,22 @@
       <c r="A464" s="1">
         <v>458.0</v>
       </c>
-      <c r="B464" s="31" t="s">
+      <c r="B464" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D464" s="32" t="b">
+        <v>699</v>
+      </c>
+      <c r="D464" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E464" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="K464" s="37">
+        <v>700</v>
+      </c>
+      <c r="K464" s="34">
         <v>44635.541666666664</v>
       </c>
-      <c r="L464" s="32">
+      <c r="L464" s="31">
         <f t="shared" ref="L464:L483" si="25">(K464-Date(1970,1,1))*86400*1000</f>
         <v>1647349200000</v>
       </c>
@@ -13752,15 +13800,15 @@
         <v>55</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="D465" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K465" s="37">
+        <v>701</v>
+      </c>
+      <c r="D465" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K465" s="34">
         <v>44636.458333333336</v>
       </c>
-      <c r="L465" s="32">
+      <c r="L465" s="31">
         <f t="shared" si="25"/>
         <v>1647428400000</v>
       </c>
@@ -13772,16 +13820,16 @@
       <c r="B466" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C466" s="31" t="s">
-        <v>701</v>
-      </c>
-      <c r="D466" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K466" s="37">
+      <c r="C466" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D466" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K466" s="34">
         <v>44637.5</v>
       </c>
-      <c r="L466" s="32">
+      <c r="L466" s="31">
         <f t="shared" si="25"/>
         <v>1647518400000</v>
       </c>
@@ -13794,15 +13842,15 @@
         <v>55</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D467" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K467" s="37">
+        <v>703</v>
+      </c>
+      <c r="D467" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K467" s="34">
         <v>44638.5</v>
       </c>
-      <c r="L467" s="32">
+      <c r="L467" s="31">
         <f t="shared" si="25"/>
         <v>1647604800000</v>
       </c>
@@ -13815,15 +13863,15 @@
         <v>55</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="D468" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K468" s="37">
+        <v>704</v>
+      </c>
+      <c r="D468" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K468" s="34">
         <v>44639.416666666664</v>
       </c>
-      <c r="L468" s="32">
+      <c r="L468" s="31">
         <f t="shared" si="25"/>
         <v>1647684000000</v>
       </c>
@@ -13832,22 +13880,22 @@
       <c r="A469" s="1">
         <v>463.0</v>
       </c>
-      <c r="B469" s="31" t="s">
+      <c r="B469" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="D469" s="32" t="b">
+        <v>705</v>
+      </c>
+      <c r="D469" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E469" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="K469" s="37">
+        <v>706</v>
+      </c>
+      <c r="K469" s="34">
         <v>44634.791666666664</v>
       </c>
-      <c r="L469" s="32">
+      <c r="L469" s="31">
         <f t="shared" si="25"/>
         <v>1647284400000</v>
       </c>
@@ -13860,18 +13908,18 @@
         <v>66</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D470" s="32" t="b">
+        <v>707</v>
+      </c>
+      <c r="D470" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E470" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="K470" s="37">
+        <v>708</v>
+      </c>
+      <c r="K470" s="34">
         <v>44635.125</v>
       </c>
-      <c r="L470" s="32">
+      <c r="L470" s="31">
         <f t="shared" si="25"/>
         <v>1647313200000</v>
       </c>
@@ -13883,16 +13931,16 @@
       <c r="B471" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C471" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="D471" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K471" s="37">
+      <c r="C471" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D471" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K471" s="34">
         <v>44636.708333333336</v>
       </c>
-      <c r="L471" s="32">
+      <c r="L471" s="31">
         <f t="shared" si="25"/>
         <v>1647450000000</v>
       </c>
@@ -13904,17 +13952,17 @@
       <c r="B472" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C472" s="31" t="s">
-        <v>709</v>
-      </c>
-      <c r="D472" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F472" s="36"/>
-      <c r="K472" s="37">
+      <c r="C472" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D472" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F472" s="31"/>
+      <c r="K472" s="34">
         <v>44639.0</v>
       </c>
-      <c r="L472" s="32">
+      <c r="L472" s="31">
         <f t="shared" si="25"/>
         <v>1647648000000</v>
       </c>
@@ -13926,16 +13974,16 @@
       <c r="B473" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C473" s="31" t="s">
-        <v>710</v>
-      </c>
-      <c r="D473" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K473" s="37">
+      <c r="C473" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="D473" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K473" s="34">
         <v>44639.791666666664</v>
       </c>
-      <c r="L473" s="32">
+      <c r="L473" s="31">
         <f t="shared" si="25"/>
         <v>1647716400000</v>
       </c>
@@ -13947,16 +13995,16 @@
       <c r="B474" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C474" s="31" t="s">
-        <v>711</v>
-      </c>
-      <c r="D474" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K474" s="37">
+      <c r="C474" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D474" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K474" s="34">
         <v>44641.0</v>
       </c>
-      <c r="L474" s="32">
+      <c r="L474" s="31">
         <f t="shared" si="25"/>
         <v>1647820800000</v>
       </c>
@@ -13965,22 +14013,22 @@
       <c r="A475" s="1">
         <v>469.0</v>
       </c>
-      <c r="B475" s="31" t="s">
+      <c r="B475" s="1" t="s">
         <v>195</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="D475" s="32" t="b">
+        <v>713</v>
+      </c>
+      <c r="D475" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E475" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="K475" s="37">
+        <v>714</v>
+      </c>
+      <c r="K475" s="34">
         <v>44635.0625</v>
       </c>
-      <c r="L475" s="32">
+      <c r="L475" s="31">
         <f t="shared" si="25"/>
         <v>1647307800000</v>
       </c>
@@ -13993,15 +14041,15 @@
         <v>195</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D476" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K476" s="37">
+        <v>715</v>
+      </c>
+      <c r="D476" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K476" s="34">
         <v>44635.791666666664</v>
       </c>
-      <c r="L476" s="32">
+      <c r="L476" s="31">
         <f t="shared" si="25"/>
         <v>1647370800000</v>
       </c>
@@ -14014,15 +14062,15 @@
         <v>195</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D477" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K477" s="37">
+        <v>716</v>
+      </c>
+      <c r="D477" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K477" s="34">
         <v>44636.833333333336</v>
       </c>
-      <c r="L477" s="32">
+      <c r="L477" s="31">
         <f t="shared" si="25"/>
         <v>1647460800000</v>
       </c>
@@ -14035,15 +14083,15 @@
         <v>195</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D478" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K478" s="37">
+        <v>717</v>
+      </c>
+      <c r="D478" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K478" s="34">
         <v>44637.0</v>
       </c>
-      <c r="L478" s="32">
+      <c r="L478" s="31">
         <f t="shared" si="25"/>
         <v>1647475200000</v>
       </c>
@@ -14056,15 +14104,15 @@
         <v>195</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="D479" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K479" s="37">
+        <v>718</v>
+      </c>
+      <c r="D479" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K479" s="34">
         <v>44637.833333333336</v>
       </c>
-      <c r="L479" s="32">
+      <c r="L479" s="31">
         <f t="shared" si="25"/>
         <v>1647547200000</v>
       </c>
@@ -14077,15 +14125,18 @@
         <v>195</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D480" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K480" s="37">
+        <v>719</v>
+      </c>
+      <c r="D480" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F480" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K480" s="34">
         <v>44638.125</v>
       </c>
-      <c r="L480" s="32">
+      <c r="L480" s="31">
         <f t="shared" si="25"/>
         <v>1647572400000</v>
       </c>
@@ -14098,16 +14149,16 @@
         <v>195</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D481" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F481" s="36"/>
-      <c r="K481" s="37">
+        <v>720</v>
+      </c>
+      <c r="D481" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F481" s="31"/>
+      <c r="K481" s="34">
         <v>44639.0</v>
       </c>
-      <c r="L481" s="32">
+      <c r="L481" s="31">
         <f t="shared" si="25"/>
         <v>1647648000000</v>
       </c>
@@ -14120,15 +14171,15 @@
         <v>195</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D482" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K482" s="37">
+        <v>721</v>
+      </c>
+      <c r="D482" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K482" s="34">
         <v>44639.416666666664</v>
       </c>
-      <c r="L482" s="32">
+      <c r="L482" s="31">
         <f t="shared" si="25"/>
         <v>1647684000000</v>
       </c>
@@ -14141,22 +14192,22 @@
         <v>195</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="D483" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="K483" s="37">
+        <v>722</v>
+      </c>
+      <c r="D483" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K483" s="34">
         <v>44640.125</v>
       </c>
-      <c r="L483" s="32">
+      <c r="L483" s="31">
         <f t="shared" si="25"/>
         <v>1647745200000</v>
       </c>
     </row>
     <row r="484">
       <c r="B484" s="1" t="s">
-        <v>43</v>
+        <v>723</v>
       </c>
       <c r="M484" s="1">
         <v>474.0</v>
@@ -14164,10 +14215,415 @@
     </row>
     <row r="485">
       <c r="B485" s="1" t="s">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="M485" s="1">
         <v>472.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1">
+        <v>478.0</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="D486" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K486" s="34">
+        <v>44636.166666666664</v>
+      </c>
+      <c r="L486" s="31">
+        <f t="shared" ref="L486:L503" si="26">(K486-Date(1970,1,1))*86400*1000</f>
+        <v>1647403200000</v>
+      </c>
